--- a/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
+++ b/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Themaopdracht6\Planning (PvA) en urenverantwoording\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
@@ -15,12 +10,12 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -166,6 +161,12 @@
   </si>
   <si>
     <t>Solution Architectuur laten reviewen</t>
+  </si>
+  <si>
+    <t>Wouter mailen over interview</t>
+  </si>
+  <si>
+    <t>maandag 16 november 2015</t>
   </si>
 </sst>
 </file>
@@ -174,7 +175,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -417,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -447,21 +448,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45" wrapText="1"/>
     </xf>
@@ -586,18 +572,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
@@ -616,9 +590,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -637,38 +608,35 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -706,9 +674,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -724,9 +728,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -764,9 +768,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -801,7 +805,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -836,7 +840,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1013,13 +1017,13 @@
   <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" style="96" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" style="85" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.140625" customWidth="1"/>
     <col min="4" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="8.140625" hidden="1" customWidth="1"/>
@@ -1031,1876 +1035,1883 @@
       <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="86"/>
+      <c r="B1" s="75"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="87"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="77"/>
+      <c r="F2" s="104"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="77" t="s">
         <v>26</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="25" t="s">
+      <c r="L3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="26" t="s">
+      <c r="N3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
-      <c r="B4" s="89"/>
-      <c r="D4" s="19" t="s">
+      <c r="B4" s="78"/>
+      <c r="D4" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20" t="s">
+      <c r="E4" s="109"/>
+      <c r="F4" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="21" t="s">
+      <c r="G4" s="110"/>
+      <c r="H4" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="20" t="s">
+      <c r="I4" s="111"/>
+      <c r="J4" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="17" t="s">
+      <c r="K4" s="110"/>
+      <c r="L4" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="18"/>
-      <c r="N4" s="27"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="22"/>
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="67"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
+      <c r="N5" s="105"/>
+      <c r="O5" s="106"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28">
+      <c r="A6" s="23">
         <v>1</v>
       </c>
-      <c r="B6" s="90">
+      <c r="B6" s="79">
         <v>42317</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="30">
-        <v>2</v>
-      </c>
-      <c r="E6" s="30">
-        <v>2</v>
-      </c>
-      <c r="F6" s="74">
-        <v>2</v>
-      </c>
-      <c r="G6" s="74">
-        <v>2</v>
-      </c>
-      <c r="H6" s="40">
-        <v>2</v>
-      </c>
-      <c r="I6" s="40">
-        <v>2</v>
-      </c>
-      <c r="J6" s="74">
-        <v>2</v>
-      </c>
-      <c r="K6" s="74">
-        <v>2</v>
-      </c>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="34">
+      <c r="D6" s="25">
+        <v>2</v>
+      </c>
+      <c r="E6" s="25">
+        <v>2</v>
+      </c>
+      <c r="F6" s="65">
+        <v>2</v>
+      </c>
+      <c r="G6" s="65">
+        <v>2</v>
+      </c>
+      <c r="H6" s="35">
+        <v>2</v>
+      </c>
+      <c r="I6" s="35">
+        <v>2</v>
+      </c>
+      <c r="J6" s="65">
+        <v>2</v>
+      </c>
+      <c r="K6" s="65">
+        <v>2</v>
+      </c>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="29">
         <f t="shared" ref="N6" si="0">D6+F6+H6+J6+L6</f>
         <v>8</v>
       </c>
-      <c r="O6" s="35">
+      <c r="O6" s="30">
         <f t="shared" ref="O6" si="1">E6+G6+I6+K6+M6</f>
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36">
+      <c r="A7" s="31">
         <v>1</v>
       </c>
-      <c r="B7" s="91">
+      <c r="B7" s="80">
         <v>42317</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="38">
-        <v>2</v>
-      </c>
-      <c r="E7" s="38">
-        <v>2</v>
-      </c>
-      <c r="F7" s="75">
-        <v>2</v>
-      </c>
-      <c r="G7" s="75">
-        <v>2</v>
-      </c>
-      <c r="H7" s="40">
-        <v>2</v>
-      </c>
-      <c r="I7" s="40">
-        <v>2</v>
-      </c>
-      <c r="J7" s="75">
-        <v>2</v>
-      </c>
-      <c r="K7" s="75">
-        <v>2</v>
-      </c>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="42">
+      <c r="D7" s="33">
+        <v>2</v>
+      </c>
+      <c r="E7" s="33">
+        <v>2</v>
+      </c>
+      <c r="F7" s="66">
+        <v>2</v>
+      </c>
+      <c r="G7" s="66">
+        <v>2</v>
+      </c>
+      <c r="H7" s="35">
+        <v>2</v>
+      </c>
+      <c r="I7" s="35">
+        <v>2</v>
+      </c>
+      <c r="J7" s="66">
+        <v>2</v>
+      </c>
+      <c r="K7" s="66">
+        <v>2</v>
+      </c>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="37">
         <f t="shared" ref="N7:N16" si="2">D7+F7+H7+J7+L7</f>
         <v>8</v>
       </c>
-      <c r="O7" s="43">
+      <c r="O7" s="38">
         <f t="shared" ref="O7:O16" si="3">E7+G7+I7+K7+M7</f>
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36">
+      <c r="A8" s="31">
         <v>1</v>
       </c>
-      <c r="B8" s="91">
+      <c r="B8" s="80">
         <v>42317</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="33">
         <v>0.5</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="33">
         <v>0.5</v>
       </c>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="75">
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="66">
         <v>0.5</v>
       </c>
-      <c r="K8" s="75">
+      <c r="K8" s="66">
         <v>0.5</v>
       </c>
-      <c r="L8" s="78"/>
-      <c r="M8" s="78"/>
-      <c r="N8" s="42">
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="37">
         <f t="shared" ref="N8" si="4">D8+F8+H8+J8+L8</f>
         <v>1</v>
       </c>
-      <c r="O8" s="43">
+      <c r="O8" s="38">
         <f t="shared" ref="O8" si="5">E8+G8+I8+K8+M8</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36">
+      <c r="A9" s="31">
         <v>1</v>
       </c>
-      <c r="B9" s="91">
+      <c r="B9" s="80">
         <v>42319</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="38">
-        <v>2</v>
-      </c>
-      <c r="E9" s="38">
-        <v>2</v>
-      </c>
-      <c r="F9" s="75">
-        <v>2</v>
-      </c>
-      <c r="G9" s="75">
-        <v>2</v>
-      </c>
-      <c r="H9" s="40">
-        <v>2</v>
-      </c>
-      <c r="I9" s="40">
-        <v>2</v>
-      </c>
-      <c r="J9" s="75">
-        <v>2</v>
-      </c>
-      <c r="K9" s="75">
-        <v>2</v>
-      </c>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="42">
+      <c r="D9" s="33">
+        <v>2</v>
+      </c>
+      <c r="E9" s="33">
+        <v>2</v>
+      </c>
+      <c r="F9" s="66">
+        <v>2</v>
+      </c>
+      <c r="G9" s="66">
+        <v>2</v>
+      </c>
+      <c r="H9" s="35">
+        <v>2</v>
+      </c>
+      <c r="I9" s="35">
+        <v>2</v>
+      </c>
+      <c r="J9" s="66">
+        <v>2</v>
+      </c>
+      <c r="K9" s="66">
+        <v>2</v>
+      </c>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="37">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="O9" s="43">
+      <c r="O9" s="38">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="44">
+      <c r="A10" s="39">
         <v>1</v>
       </c>
-      <c r="B10" s="92">
+      <c r="B10" s="81">
         <v>42323</v>
       </c>
-      <c r="C10" s="84" t="s">
+      <c r="C10" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="41">
         <v>0.25</v>
       </c>
-      <c r="E10" s="46"/>
-      <c r="F10" s="76">
+      <c r="E10" s="41"/>
+      <c r="F10" s="67">
         <v>0.25</v>
       </c>
-      <c r="G10" s="76"/>
-      <c r="H10" s="48">
+      <c r="G10" s="67"/>
+      <c r="H10" s="43">
         <v>0.25</v>
       </c>
-      <c r="I10" s="48"/>
-      <c r="J10" s="47">
+      <c r="I10" s="43"/>
+      <c r="J10" s="42">
         <v>0.25</v>
       </c>
-      <c r="K10" s="47"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="50">
+      <c r="K10" s="42"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="45">
         <f>D10+F10+H10+J10+L10</f>
         <v>1</v>
       </c>
-      <c r="O10" s="51">
+      <c r="O10" s="46">
         <f>E10+G10+I10+K10+M10</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="67"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="105"/>
+      <c r="N11" s="105"/>
+      <c r="O11" s="106"/>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28">
-        <v>2</v>
-      </c>
-      <c r="B12" s="90">
+      <c r="A12" s="23">
+        <v>2</v>
+      </c>
+      <c r="B12" s="79">
         <v>42324</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="30">
-        <v>2</v>
-      </c>
-      <c r="E12" s="30">
-        <v>2</v>
-      </c>
-      <c r="F12" s="31">
-        <v>2</v>
-      </c>
-      <c r="G12" s="31">
-        <v>2</v>
-      </c>
-      <c r="H12" s="32">
-        <v>2</v>
-      </c>
-      <c r="I12" s="32">
-        <v>2</v>
-      </c>
-      <c r="J12" s="31">
-        <v>2</v>
-      </c>
-      <c r="K12" s="31">
-        <v>2</v>
-      </c>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="42">
+      <c r="D12" s="25">
+        <v>2</v>
+      </c>
+      <c r="E12" s="25">
+        <v>2</v>
+      </c>
+      <c r="F12" s="26">
+        <v>2</v>
+      </c>
+      <c r="G12" s="26">
+        <v>2</v>
+      </c>
+      <c r="H12" s="27">
+        <v>2</v>
+      </c>
+      <c r="I12" s="27">
+        <v>2</v>
+      </c>
+      <c r="J12" s="26">
+        <v>2</v>
+      </c>
+      <c r="K12" s="26">
+        <v>2</v>
+      </c>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="37">
         <f t="shared" ref="N12:N14" si="6">D12+F12+H12+J12+L12</f>
         <v>8</v>
       </c>
-      <c r="O12" s="43">
+      <c r="O12" s="38">
         <f t="shared" ref="O12:O14" si="7">E12+G12+I12+K12+M12</f>
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="79">
-        <v>2</v>
-      </c>
-      <c r="B13" s="93">
+      <c r="A13" s="69">
+        <v>2</v>
+      </c>
+      <c r="B13" s="82">
         <v>42324</v>
       </c>
-      <c r="C13" s="80" t="s">
+      <c r="C13" s="70" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="81">
+      <c r="D13" s="71">
         <v>0.5</v>
       </c>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82">
+      <c r="E13" s="71"/>
+      <c r="F13" s="72">
         <v>0.5</v>
       </c>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83">
+      <c r="G13" s="72"/>
+      <c r="H13" s="73">
         <v>0.5</v>
       </c>
-      <c r="I13" s="83"/>
-      <c r="J13" s="82">
+      <c r="I13" s="73"/>
+      <c r="J13" s="72">
         <v>0.5</v>
       </c>
-      <c r="K13" s="82"/>
-      <c r="L13" s="78"/>
-      <c r="M13" s="78"/>
-      <c r="N13" s="42">
+      <c r="K13" s="72"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="37">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="O13" s="43">
+      <c r="O13" s="38">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="79">
-        <v>2</v>
-      </c>
-      <c r="B14" s="93">
+      <c r="A14" s="69">
+        <v>2</v>
+      </c>
+      <c r="B14" s="82">
         <v>42324</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="70" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="81">
+      <c r="D14" s="71">
         <v>1</v>
       </c>
-      <c r="E14" s="81"/>
-      <c r="F14" s="82">
+      <c r="E14" s="71"/>
+      <c r="F14" s="72">
         <v>1</v>
       </c>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83">
+      <c r="G14" s="72"/>
+      <c r="H14" s="73">
         <v>1</v>
       </c>
-      <c r="I14" s="83"/>
-      <c r="J14" s="82">
+      <c r="I14" s="73"/>
+      <c r="J14" s="72">
         <v>1</v>
       </c>
-      <c r="K14" s="82"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="42">
+      <c r="K14" s="72"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="37">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="O14" s="43">
+      <c r="O14" s="38">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36">
-        <v>2</v>
-      </c>
-      <c r="B15" s="91">
+      <c r="A15" s="31">
+        <v>2</v>
+      </c>
+      <c r="B15" s="80">
         <v>42326</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="33">
         <v>1</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39">
+      <c r="E15" s="33"/>
+      <c r="F15" s="34">
         <v>1</v>
       </c>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40">
+      <c r="G15" s="34"/>
+      <c r="H15" s="35">
         <v>1</v>
       </c>
-      <c r="I15" s="40"/>
-      <c r="J15" s="39">
+      <c r="I15" s="35"/>
+      <c r="J15" s="34">
         <v>1</v>
       </c>
-      <c r="K15" s="39"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="42">
+      <c r="K15" s="34"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="37">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="O15" s="43">
+      <c r="O15" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="36">
-        <v>2</v>
-      </c>
-      <c r="B16" s="91"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="42">
+      <c r="A16" s="31">
+        <v>2</v>
+      </c>
+      <c r="B16" s="80"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="37">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O16" s="43">
+      <c r="O16" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="36">
-        <v>2</v>
-      </c>
-      <c r="B17" s="91"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="42">
-        <f t="shared" ref="N17:O18" si="8">D17+F17+H17+J17+L17</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="43">
+      <c r="A17" s="31">
+        <v>2</v>
+      </c>
+      <c r="B17" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34">
+        <v>0.3</v>
+      </c>
+      <c r="G17" s="34"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="37">
+        <f t="shared" ref="N17:O17" si="8">D17+F17+H17+J17+L17</f>
+        <v>0.3</v>
+      </c>
+      <c r="O17" s="38">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="97">
-        <v>2</v>
-      </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="65" t="s">
+      <c r="A18" s="86">
+        <v>2</v>
+      </c>
+      <c r="B18" s="87"/>
+      <c r="C18" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="107">
+      <c r="D18" s="96">
         <v>0.25</v>
       </c>
-      <c r="E18" s="107"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="109"/>
-      <c r="I18" s="109"/>
-      <c r="J18" s="108"/>
-      <c r="K18" s="108"/>
-      <c r="L18" s="110"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="42">
+      <c r="E18" s="96"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="37">
         <f t="shared" ref="N18" si="9">D18+F18+H18+J18+L18</f>
         <v>0.25</v>
       </c>
-      <c r="O18" s="43">
+      <c r="O18" s="38">
         <f t="shared" ref="O18" si="10">E18+G18+I18+K18+M18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="97">
-        <v>2</v>
-      </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="65" t="s">
+      <c r="A19" s="86">
+        <v>2</v>
+      </c>
+      <c r="B19" s="87"/>
+      <c r="C19" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="108"/>
-      <c r="K19" s="108"/>
-      <c r="L19" s="110"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="42">
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="37">
         <f t="shared" ref="N19" si="11">D19+F19+H19+J19+L19</f>
         <v>0</v>
       </c>
-      <c r="O19" s="43">
+      <c r="O19" s="38">
         <f t="shared" ref="O19" si="12">E19+G19+I19+K19+M19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="44">
-        <v>2</v>
-      </c>
-      <c r="B20" s="92">
+      <c r="A20" s="39">
+        <v>2</v>
+      </c>
+      <c r="B20" s="81">
         <v>42330</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="C20" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="41">
         <v>0.25</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="76">
+      <c r="E20" s="41"/>
+      <c r="F20" s="67">
         <v>0.25</v>
       </c>
-      <c r="G20" s="76"/>
-      <c r="H20" s="48">
+      <c r="G20" s="67"/>
+      <c r="H20" s="43">
         <v>0.25</v>
       </c>
-      <c r="I20" s="48"/>
-      <c r="J20" s="47">
+      <c r="I20" s="43"/>
+      <c r="J20" s="42">
         <v>0.25</v>
       </c>
-      <c r="K20" s="47"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="50">
+      <c r="K20" s="42"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="45">
         <f t="shared" ref="N20" si="13">D20+F20+H20+J20+L20</f>
         <v>1</v>
       </c>
-      <c r="O20" s="51">
+      <c r="O20" s="46">
         <f t="shared" ref="O20" si="14">E20+G20+I20+K20+M20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="69"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="67"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="105"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="105"/>
+      <c r="N21" s="105"/>
+      <c r="O21" s="106"/>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="36">
+      <c r="A22" s="31">
         <v>3</v>
       </c>
-      <c r="B22" s="91">
+      <c r="B22" s="80">
         <v>42331</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="C22" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="55">
-        <v>2</v>
-      </c>
-      <c r="E22" s="55">
-        <v>2</v>
-      </c>
-      <c r="F22" s="43">
-        <v>2</v>
-      </c>
-      <c r="G22" s="43">
-        <v>2</v>
-      </c>
-      <c r="H22" s="56">
-        <v>2</v>
-      </c>
-      <c r="I22" s="56">
-        <v>2</v>
-      </c>
-      <c r="J22" s="43">
-        <v>2</v>
-      </c>
-      <c r="K22" s="43">
-        <v>2</v>
-      </c>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="42">
+      <c r="D22" s="50">
+        <v>2</v>
+      </c>
+      <c r="E22" s="50">
+        <v>2</v>
+      </c>
+      <c r="F22" s="38">
+        <v>2</v>
+      </c>
+      <c r="G22" s="38">
+        <v>2</v>
+      </c>
+      <c r="H22" s="51">
+        <v>2</v>
+      </c>
+      <c r="I22" s="51">
+        <v>2</v>
+      </c>
+      <c r="J22" s="38">
+        <v>2</v>
+      </c>
+      <c r="K22" s="38">
+        <v>2</v>
+      </c>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="37">
         <f t="shared" ref="N22:N24" si="15">D22+F22+H22+J22+L22</f>
         <v>8</v>
       </c>
-      <c r="O22" s="35">
+      <c r="O22" s="30">
         <f t="shared" ref="O22:O24" si="16">E22+G22+I22+K22+M22</f>
         <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="36">
+      <c r="A23" s="31">
         <v>3</v>
       </c>
-      <c r="B23" s="91">
+      <c r="B23" s="80">
         <v>42331</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="50">
         <v>0.5</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="43">
+      <c r="E23" s="50"/>
+      <c r="F23" s="38">
         <v>0.5</v>
       </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="56">
+      <c r="G23" s="38"/>
+      <c r="H23" s="51">
         <v>0.5</v>
       </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="43">
+      <c r="I23" s="51"/>
+      <c r="J23" s="38">
         <v>0.5</v>
       </c>
-      <c r="K23" s="43"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="42">
+      <c r="K23" s="38"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="37">
         <f t="shared" si="15"/>
         <v>2</v>
       </c>
-      <c r="O23" s="43">
+      <c r="O23" s="38">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="36">
+      <c r="A24" s="31">
         <v>3</v>
       </c>
-      <c r="B24" s="91"/>
-      <c r="C24" s="65" t="s">
+      <c r="B24" s="80"/>
+      <c r="C24" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="43"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="42">
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="51"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="49"/>
+      <c r="M24" s="49"/>
+      <c r="N24" s="37">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="O24" s="43">
+      <c r="O24" s="38">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="36">
+      <c r="A25" s="31">
         <v>3</v>
       </c>
-      <c r="B25" s="91"/>
-      <c r="C25" s="65" t="s">
+      <c r="B25" s="80"/>
+      <c r="C25" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="43"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="42">
-        <f>D25+F25+H25+J25+L25</f>
-        <v>0</v>
-      </c>
-      <c r="O25" s="43">
-        <f>E25+G25+I25+K25+M25</f>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="37">
+        <f t="shared" ref="N25:O28" si="17">D25+F25+H25+J25+L25</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="38">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="36">
+      <c r="A26" s="31">
         <v>3</v>
       </c>
-      <c r="B26" s="91"/>
-      <c r="C26" s="65" t="s">
+      <c r="B26" s="80"/>
+      <c r="C26" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="57"/>
-      <c r="M26" s="57"/>
-      <c r="N26" s="42">
-        <f>D26+F26+H26+J26+L26</f>
-        <v>0</v>
-      </c>
-      <c r="O26" s="43">
-        <f>E26+G26+I26+K26+M26</f>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="51"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="38">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="97">
+      <c r="A27" s="86">
         <v>3</v>
       </c>
-      <c r="B27" s="98"/>
-      <c r="C27" s="65" t="s">
+      <c r="B27" s="87"/>
+      <c r="C27" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="102"/>
-      <c r="M27" s="102"/>
-      <c r="N27" s="42">
-        <f>D27+F27+H27+J27+L27</f>
-        <v>0</v>
-      </c>
-      <c r="O27" s="43">
-        <f>E27+G27+I27+K27+M27</f>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="95"/>
+      <c r="I27" s="95"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="91"/>
+      <c r="M27" s="91"/>
+      <c r="N27" s="37">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O27" s="38">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="44">
+      <c r="A28" s="39">
         <v>3</v>
       </c>
-      <c r="B28" s="92">
+      <c r="B28" s="81">
         <v>42337</v>
       </c>
-      <c r="C28" s="84" t="s">
+      <c r="C28" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="46">
+      <c r="D28" s="41">
         <v>0.25</v>
       </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="76">
+      <c r="E28" s="41"/>
+      <c r="F28" s="67">
         <v>0.25</v>
       </c>
-      <c r="G28" s="76"/>
-      <c r="H28" s="48">
+      <c r="G28" s="67"/>
+      <c r="H28" s="43">
         <v>0.25</v>
       </c>
-      <c r="I28" s="48"/>
-      <c r="J28" s="47">
+      <c r="I28" s="43"/>
+      <c r="J28" s="42">
         <v>0.25</v>
       </c>
-      <c r="K28" s="47"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="50">
-        <f>D28+F28+H28+J28+L28</f>
+      <c r="K28" s="42"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="53"/>
+      <c r="N28" s="45">
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="O28" s="51">
-        <f>E28+G28+I28+K28+M28</f>
+      <c r="O28" s="46">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="85"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="102"/>
+      <c r="H29" s="102"/>
+      <c r="I29" s="102"/>
+      <c r="J29" s="102"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="103"/>
     </row>
     <row r="30" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="36">
+      <c r="A30" s="31">
         <v>4</v>
       </c>
-      <c r="B30" s="91">
+      <c r="B30" s="80">
         <v>42338</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="55">
-        <v>2</v>
-      </c>
-      <c r="E30" s="55">
-        <v>2</v>
-      </c>
-      <c r="F30" s="43">
-        <v>2</v>
-      </c>
-      <c r="G30" s="43">
-        <v>2</v>
-      </c>
-      <c r="H30" s="56">
-        <v>2</v>
-      </c>
-      <c r="I30" s="56">
-        <v>2</v>
-      </c>
-      <c r="J30" s="43">
-        <v>2</v>
-      </c>
-      <c r="K30" s="43">
-        <v>2</v>
-      </c>
-      <c r="L30" s="72"/>
-      <c r="M30" s="72"/>
-      <c r="N30" s="34">
-        <f t="shared" ref="N30:N32" si="17">D30+F30+H30+J30+L30</f>
+      <c r="D30" s="50">
+        <v>2</v>
+      </c>
+      <c r="E30" s="50">
+        <v>2</v>
+      </c>
+      <c r="F30" s="38">
+        <v>2</v>
+      </c>
+      <c r="G30" s="38">
+        <v>2</v>
+      </c>
+      <c r="H30" s="51">
+        <v>2</v>
+      </c>
+      <c r="I30" s="51">
+        <v>2</v>
+      </c>
+      <c r="J30" s="38">
+        <v>2</v>
+      </c>
+      <c r="K30" s="38">
+        <v>2</v>
+      </c>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="29">
+        <f t="shared" ref="N30:N32" si="18">D30+F30+H30+J30+L30</f>
         <v>8</v>
       </c>
-      <c r="O30" s="43">
+      <c r="O30" s="38">
         <f>E30+G30+I30+K30+M30</f>
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="36">
+      <c r="A31" s="31">
         <v>4</v>
       </c>
-      <c r="B31" s="91">
+      <c r="B31" s="80">
         <v>42338</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="55">
+      <c r="D31" s="50">
         <v>0.5</v>
       </c>
-      <c r="E31" s="55"/>
-      <c r="F31" s="43">
+      <c r="E31" s="50"/>
+      <c r="F31" s="38">
         <v>0.5</v>
       </c>
-      <c r="G31" s="43"/>
-      <c r="H31" s="56">
+      <c r="G31" s="38"/>
+      <c r="H31" s="51">
         <v>0.5</v>
       </c>
-      <c r="I31" s="56"/>
-      <c r="J31" s="43">
+      <c r="I31" s="51"/>
+      <c r="J31" s="38">
         <v>0.5</v>
       </c>
-      <c r="K31" s="43"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="42">
-        <f t="shared" si="17"/>
-        <v>2</v>
-      </c>
-      <c r="O31" s="43">
-        <f t="shared" ref="O31:O33" si="18">E31+G31+I31+K31+M31</f>
+      <c r="K31" s="38"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="37">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="O31" s="38">
+        <f t="shared" ref="O31:O33" si="19">E31+G31+I31+K31+M31</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="36">
+      <c r="A32" s="31">
         <v>4</v>
       </c>
-      <c r="B32" s="91"/>
-      <c r="C32" s="37" t="s">
+      <c r="B32" s="80"/>
+      <c r="C32" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D32" s="55">
+      <c r="D32" s="50">
         <v>0.25</v>
       </c>
-      <c r="E32" s="55"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="42">
-        <f t="shared" si="17"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
+      <c r="N32" s="37">
+        <f t="shared" si="18"/>
         <v>0.25</v>
       </c>
-      <c r="O32" s="43">
-        <f t="shared" si="18"/>
+      <c r="O32" s="38">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="36">
+      <c r="A33" s="31">
         <v>4</v>
       </c>
-      <c r="B33" s="91">
+      <c r="B33" s="80">
         <v>42338</v>
       </c>
-      <c r="C33" s="65" t="s">
+      <c r="C33" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="57"/>
-      <c r="M33" s="57"/>
-      <c r="N33" s="42">
+      <c r="D33" s="50"/>
+      <c r="E33" s="50"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="52"/>
+      <c r="M33" s="52"/>
+      <c r="N33" s="37">
         <f>D33+F33+H33+J33+L33</f>
         <v>0</v>
       </c>
-      <c r="O33" s="43">
-        <f t="shared" si="18"/>
+      <c r="O33" s="38">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="36">
+      <c r="A34" s="31">
         <v>4</v>
       </c>
-      <c r="B34" s="91"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="43"/>
-      <c r="G34" s="43"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="43"/>
-      <c r="K34" s="43"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="42">
+      <c r="B34" s="80"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="37">
         <f>D34+F34+H34+J34+L34</f>
         <v>0</v>
       </c>
-      <c r="O34" s="43">
+      <c r="O34" s="38">
         <f>E34+G34+I34+K34+M34</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="97">
+      <c r="A35" s="86">
         <v>4</v>
       </c>
-      <c r="B35" s="98"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="103"/>
-      <c r="K35" s="103"/>
-      <c r="L35" s="102"/>
-      <c r="M35" s="102"/>
-      <c r="N35" s="42">
+      <c r="B35" s="87"/>
+      <c r="C35" s="88"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="95"/>
+      <c r="I35" s="95"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="37">
         <f>D35+F35+H35+J35+L35</f>
         <v>0</v>
       </c>
-      <c r="O35" s="43">
+      <c r="O35" s="38">
         <f>E35+G35+I35+K35+M35</f>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="44">
+      <c r="A36" s="39">
         <v>4</v>
       </c>
-      <c r="B36" s="92">
+      <c r="B36" s="81">
         <v>42344</v>
       </c>
-      <c r="C36" s="84" t="s">
+      <c r="C36" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="46">
+      <c r="D36" s="41">
         <v>0.25</v>
       </c>
-      <c r="E36" s="46"/>
-      <c r="F36" s="76">
+      <c r="E36" s="41"/>
+      <c r="F36" s="67">
         <v>0.25</v>
       </c>
-      <c r="G36" s="76"/>
-      <c r="H36" s="48">
+      <c r="G36" s="67"/>
+      <c r="H36" s="43">
         <v>0.25</v>
       </c>
-      <c r="I36" s="48"/>
-      <c r="J36" s="47">
+      <c r="I36" s="43"/>
+      <c r="J36" s="42">
         <v>0.25</v>
       </c>
-      <c r="K36" s="47"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="50">
+      <c r="K36" s="42"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="45">
         <f>D36+F36+H36+J36+L36</f>
         <v>1</v>
       </c>
-      <c r="O36" s="51">
+      <c r="O36" s="46">
         <f>E36+G36+I36+K36+M36</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69"/>
-      <c r="M37" s="69"/>
-      <c r="N37" s="69"/>
-      <c r="O37" s="85"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="102"/>
+      <c r="F37" s="102"/>
+      <c r="G37" s="102"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="102"/>
+      <c r="K37" s="102"/>
+      <c r="L37" s="102"/>
+      <c r="M37" s="102"/>
+      <c r="N37" s="102"/>
+      <c r="O37" s="103"/>
     </row>
     <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="28">
+      <c r="A38" s="23">
         <v>4</v>
       </c>
-      <c r="B38" s="90">
+      <c r="B38" s="79">
         <v>42345</v>
       </c>
-      <c r="C38" s="71" t="s">
+      <c r="C38" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="53"/>
-      <c r="I38" s="53"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="34">
-        <f t="shared" ref="N38" si="19">D38+F38+H38+J38+L38</f>
-        <v>0</v>
-      </c>
-      <c r="O38" s="35">
-        <f t="shared" ref="O38" si="20">E38+G38+I38+K38+M38</f>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
+      <c r="N38" s="29">
+        <f t="shared" ref="N38" si="20">D38+F38+H38+J38+L38</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="30">
+        <f t="shared" ref="O38" si="21">E38+G38+I38+K38+M38</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="36">
+      <c r="A39" s="31">
         <v>5</v>
       </c>
-      <c r="B39" s="91">
+      <c r="B39" s="80">
         <v>42345</v>
       </c>
-      <c r="C39" s="65" t="s">
+      <c r="C39" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="43"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="42">
-        <f t="shared" ref="N39" si="21">D39+F39+H39+J39+L39</f>
-        <v>0</v>
-      </c>
-      <c r="O39" s="43">
-        <f t="shared" ref="O39" si="22">E39+G39+I39+K39+M39</f>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="37">
+        <f t="shared" ref="N39" si="22">D39+F39+H39+J39+L39</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="38">
+        <f t="shared" ref="O39" si="23">E39+G39+I39+K39+M39</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="36">
+      <c r="A40" s="31">
         <v>5</v>
       </c>
-      <c r="B40" s="91">
+      <c r="B40" s="80">
         <v>42345</v>
       </c>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="43"/>
-      <c r="K40" s="43"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="57"/>
-      <c r="N40" s="42">
-        <f>D40+F40+H40+J40+L40</f>
-        <v>0</v>
-      </c>
-      <c r="O40" s="43">
-        <f>E40+G40+I40+K40+M40</f>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="38"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="37">
+        <f t="shared" ref="N40:O43" si="24">D40+F40+H40+J40+L40</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="38">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="36">
+      <c r="A41" s="31">
         <v>5</v>
       </c>
-      <c r="B41" s="91"/>
-      <c r="C41" s="65" t="s">
+      <c r="B41" s="80"/>
+      <c r="C41" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="43"/>
-      <c r="G41" s="43"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="57"/>
-      <c r="N41" s="42">
-        <f>D41+F41+H41+J41+L41</f>
-        <v>0</v>
-      </c>
-      <c r="O41" s="43">
-        <f>E41+G41+I41+K41+M41</f>
+      <c r="D41" s="50"/>
+      <c r="E41" s="50"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="37">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="38">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="97">
+      <c r="A42" s="86">
         <v>5</v>
       </c>
-      <c r="B42" s="98"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="105"/>
-      <c r="E42" s="105"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="H42" s="106"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="103"/>
-      <c r="K42" s="103"/>
-      <c r="L42" s="102"/>
-      <c r="M42" s="102"/>
-      <c r="N42" s="42">
-        <f>D42+F42+H42+J42+L42</f>
-        <v>0</v>
-      </c>
-      <c r="O42" s="43">
-        <f>E42+G42+I42+K42+M42</f>
+      <c r="B42" s="87"/>
+      <c r="C42" s="93"/>
+      <c r="D42" s="94"/>
+      <c r="E42" s="94"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="95"/>
+      <c r="I42" s="95"/>
+      <c r="J42" s="92"/>
+      <c r="K42" s="92"/>
+      <c r="L42" s="91"/>
+      <c r="M42" s="91"/>
+      <c r="N42" s="37">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="38">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="44">
+      <c r="A43" s="39">
         <v>5</v>
       </c>
-      <c r="B43" s="92">
+      <c r="B43" s="81">
         <v>42351</v>
       </c>
-      <c r="C43" s="84" t="s">
+      <c r="C43" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="46">
+      <c r="D43" s="41">
         <v>0.25</v>
       </c>
-      <c r="E43" s="46"/>
-      <c r="F43" s="76">
+      <c r="E43" s="41"/>
+      <c r="F43" s="67">
         <v>0.25</v>
       </c>
-      <c r="G43" s="76"/>
-      <c r="H43" s="48">
+      <c r="G43" s="67"/>
+      <c r="H43" s="43">
         <v>0.25</v>
       </c>
-      <c r="I43" s="48"/>
-      <c r="J43" s="47">
+      <c r="I43" s="43"/>
+      <c r="J43" s="42">
         <v>0.25</v>
       </c>
-      <c r="K43" s="47"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="58"/>
-      <c r="N43" s="50">
-        <f>D43+F43+H43+J43+L43</f>
+      <c r="K43" s="42"/>
+      <c r="L43" s="53"/>
+      <c r="M43" s="53"/>
+      <c r="N43" s="45">
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
-      <c r="O43" s="51">
-        <f>E43+G43+I43+K43+M43</f>
+      <c r="O43" s="46">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="68" t="s">
+      <c r="A44" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="69"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="69"/>
-      <c r="K44" s="69"/>
-      <c r="L44" s="69"/>
-      <c r="M44" s="69"/>
-      <c r="N44" s="69"/>
-      <c r="O44" s="85"/>
+      <c r="B44" s="102"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="102"/>
+      <c r="E44" s="102"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="102"/>
+      <c r="J44" s="102"/>
+      <c r="K44" s="102"/>
+      <c r="L44" s="102"/>
+      <c r="M44" s="102"/>
+      <c r="N44" s="102"/>
+      <c r="O44" s="103"/>
     </row>
     <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="28">
+      <c r="A45" s="23">
         <v>6</v>
       </c>
-      <c r="B45" s="90">
+      <c r="B45" s="79">
         <v>42352</v>
       </c>
-      <c r="C45" s="111" t="s">
+      <c r="C45" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="34">
-        <f>D45+F45+H45+J45+L45</f>
-        <v>0</v>
-      </c>
-      <c r="O45" s="35">
-        <f>E45+G45+I45+K45+M45</f>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="29">
+        <f t="shared" ref="N45:O51" si="25">D45+F45+H45+J45+L45</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="30">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="36">
+      <c r="A46" s="31">
         <v>6</v>
       </c>
-      <c r="B46" s="91"/>
-      <c r="C46" s="65" t="s">
+      <c r="B46" s="80"/>
+      <c r="C46" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="59"/>
-      <c r="E46" s="59"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="57"/>
-      <c r="N46" s="42">
-        <f>D46+F46+H46+J46+L46</f>
-        <v>0</v>
-      </c>
-      <c r="O46" s="43">
-        <f>E46+G46+I46+K46+M46</f>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="37">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="38">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="36">
+      <c r="A47" s="31">
         <v>6</v>
       </c>
-      <c r="B47" s="91"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="59"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="57"/>
-      <c r="N47" s="42">
-        <f>D47+F47+H47+J47+L47</f>
-        <v>0</v>
-      </c>
-      <c r="O47" s="43">
-        <f>E47+G47+I47+K47+M47</f>
+      <c r="B47" s="80"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="37">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="38">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="36">
+      <c r="A48" s="31">
         <v>6</v>
       </c>
-      <c r="B48" s="91"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="59"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="36"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="57"/>
-      <c r="N48" s="42">
-        <f>D48+F48+H48+J48+L48</f>
-        <v>0</v>
-      </c>
-      <c r="O48" s="43">
-        <f>E48+G48+I48+K48+M48</f>
+      <c r="B48" s="80"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="37">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="38">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="36">
+      <c r="A49" s="31">
         <v>6</v>
       </c>
-      <c r="B49" s="91"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="59"/>
-      <c r="E49" s="59"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="60"/>
-      <c r="I49" s="60"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="57"/>
-      <c r="N49" s="42">
-        <f>D49+F49+H49+J49+L49</f>
-        <v>0</v>
-      </c>
-      <c r="O49" s="43">
-        <f>E49+G49+I49+K49+M49</f>
+      <c r="B49" s="80"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="52"/>
+      <c r="M49" s="52"/>
+      <c r="N49" s="37">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="38">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="97">
+      <c r="A50" s="86">
         <v>6</v>
       </c>
-      <c r="B50" s="98"/>
-      <c r="C50" s="99"/>
-      <c r="D50" s="100"/>
-      <c r="E50" s="100"/>
-      <c r="F50" s="97"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="101"/>
-      <c r="I50" s="101"/>
-      <c r="J50" s="97"/>
-      <c r="K50" s="97"/>
-      <c r="L50" s="102"/>
-      <c r="M50" s="102"/>
-      <c r="N50" s="42">
-        <f>D50+F50+H50+J50+L50</f>
-        <v>0</v>
-      </c>
-      <c r="O50" s="43">
-        <f>E50+G50+I50+K50+M50</f>
+      <c r="B50" s="87"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="90"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="86"/>
+      <c r="K50" s="86"/>
+      <c r="L50" s="91"/>
+      <c r="M50" s="91"/>
+      <c r="N50" s="37">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="38">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="44">
+      <c r="A51" s="39">
         <v>6</v>
       </c>
-      <c r="B51" s="92">
+      <c r="B51" s="81">
         <v>42358</v>
       </c>
-      <c r="C51" s="84" t="s">
+      <c r="C51" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="46">
+      <c r="D51" s="41">
         <v>0.25</v>
       </c>
-      <c r="E51" s="46"/>
-      <c r="F51" s="76">
+      <c r="E51" s="41"/>
+      <c r="F51" s="67">
         <v>0.25</v>
       </c>
-      <c r="G51" s="76"/>
-      <c r="H51" s="48">
+      <c r="G51" s="67"/>
+      <c r="H51" s="43">
         <v>0.25</v>
       </c>
-      <c r="I51" s="48"/>
-      <c r="J51" s="47">
+      <c r="I51" s="43"/>
+      <c r="J51" s="42">
         <v>0.25</v>
       </c>
-      <c r="K51" s="47"/>
-      <c r="L51" s="58"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="50">
-        <f>D51+F51+H51+J51+L51</f>
+      <c r="K51" s="42"/>
+      <c r="L51" s="53"/>
+      <c r="M51" s="53"/>
+      <c r="N51" s="45">
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="O51" s="51">
-        <f>E51+G51+I51+K51+M51</f>
+      <c r="O51" s="46">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="68" t="s">
+      <c r="A52" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="69"/>
-      <c r="C52" s="69"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="69"/>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="69"/>
-      <c r="J52" s="69"/>
-      <c r="K52" s="69"/>
-      <c r="L52" s="69"/>
-      <c r="M52" s="69"/>
-      <c r="N52" s="69"/>
-      <c r="O52" s="85"/>
+      <c r="B52" s="102"/>
+      <c r="C52" s="102"/>
+      <c r="D52" s="102"/>
+      <c r="E52" s="102"/>
+      <c r="F52" s="102"/>
+      <c r="G52" s="102"/>
+      <c r="H52" s="102"/>
+      <c r="I52" s="102"/>
+      <c r="J52" s="102"/>
+      <c r="K52" s="102"/>
+      <c r="L52" s="102"/>
+      <c r="M52" s="102"/>
+      <c r="N52" s="102"/>
+      <c r="O52" s="103"/>
     </row>
     <row r="53" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B53" s="90"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="63"/>
-      <c r="E53" s="63"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="64"/>
-      <c r="I53" s="64"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54"/>
-      <c r="N53" s="34">
-        <f>D53+F53+H53+J53+L53</f>
-        <v>0</v>
-      </c>
-      <c r="O53" s="35">
-        <f>E53+G53+I53+K53+M53</f>
+      <c r="B53" s="79"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="29">
+        <f t="shared" ref="N53:O58" si="26">D53+F53+H53+J53+L53</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="30">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="36" t="s">
+      <c r="A54" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B54" s="91"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="57"/>
-      <c r="N54" s="42">
-        <f>D54+F54+H54+J54+L54</f>
-        <v>0</v>
-      </c>
-      <c r="O54" s="43">
-        <f>E54+G54+I54+K54+M54</f>
+      <c r="B54" s="80"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="37">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="38">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="36" t="s">
+      <c r="A55" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B55" s="91"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="36"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="60"/>
-      <c r="J55" s="36"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="57"/>
-      <c r="M55" s="57"/>
-      <c r="N55" s="42">
-        <f>D55+F55+H55+J55+L55</f>
-        <v>0</v>
-      </c>
-      <c r="O55" s="43">
-        <f>E55+G55+I55+K55+M55</f>
+      <c r="B55" s="80"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="52"/>
+      <c r="M55" s="52"/>
+      <c r="N55" s="37">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="38">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A56" s="36" t="s">
+      <c r="A56" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="91"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="36"/>
-      <c r="G56" s="36"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="60"/>
-      <c r="J56" s="36"/>
-      <c r="K56" s="36"/>
-      <c r="L56" s="57"/>
-      <c r="M56" s="57"/>
-      <c r="N56" s="42">
-        <f>D56+F56+H56+J56+L56</f>
-        <v>0</v>
-      </c>
-      <c r="O56" s="43">
-        <f>E56+G56+I56+K56+M56</f>
+      <c r="B56" s="80"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="55"/>
+      <c r="J56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="37">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="38">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" s="36" t="s">
+      <c r="A57" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B57" s="91"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="59"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="60"/>
-      <c r="I57" s="60"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="57"/>
-      <c r="M57" s="57"/>
-      <c r="N57" s="42">
-        <f>D57+F57+H57+J57+L57</f>
-        <v>0</v>
-      </c>
-      <c r="O57" s="43">
-        <f>E57+G57+I57+K57+M57</f>
+      <c r="B57" s="80"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="52"/>
+      <c r="M57" s="52"/>
+      <c r="N57" s="37">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="38">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" s="44" t="s">
+      <c r="A58" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="92"/>
-      <c r="C58" s="45"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="44"/>
-      <c r="G58" s="44"/>
-      <c r="H58" s="62"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="44"/>
-      <c r="K58" s="44"/>
-      <c r="L58" s="58"/>
-      <c r="M58" s="58"/>
-      <c r="N58" s="50">
-        <f>D58+F58+H58+J58+L58</f>
-        <v>0</v>
-      </c>
-      <c r="O58" s="51">
-        <f>E58+G58+I58+K58+M58</f>
+      <c r="B58" s="81"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="56"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="53"/>
+      <c r="M58" s="53"/>
+      <c r="N58" s="45">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="46">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="68" t="s">
+      <c r="A59" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="B59" s="69"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69"/>
-      <c r="J59" s="69"/>
-      <c r="K59" s="69"/>
-      <c r="L59" s="69"/>
-      <c r="M59" s="69"/>
-      <c r="N59" s="69"/>
-      <c r="O59" s="85"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="102"/>
+      <c r="D59" s="102"/>
+      <c r="E59" s="102"/>
+      <c r="F59" s="102"/>
+      <c r="G59" s="102"/>
+      <c r="H59" s="102"/>
+      <c r="I59" s="102"/>
+      <c r="J59" s="102"/>
+      <c r="K59" s="102"/>
+      <c r="L59" s="102"/>
+      <c r="M59" s="102"/>
+      <c r="N59" s="102"/>
+      <c r="O59" s="103"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="90"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="63"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="64"/>
-      <c r="I60" s="64"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="28"/>
-      <c r="L60" s="54"/>
-      <c r="M60" s="54"/>
-      <c r="N60" s="34">
-        <f>D60+F60+H60+J60+L60</f>
-        <v>0</v>
-      </c>
-      <c r="O60" s="35">
-        <f>E60+G60+I60+K60+M60</f>
+      <c r="B60" s="79"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="29">
+        <f t="shared" ref="N60:O65" si="27">D60+F60+H60+J60+L60</f>
+        <v>0</v>
+      </c>
+      <c r="O60" s="30">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" s="36" t="s">
+      <c r="A61" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="91"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="59"/>
-      <c r="E61" s="59"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="60"/>
-      <c r="I61" s="60"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="57"/>
-      <c r="M61" s="57"/>
-      <c r="N61" s="42">
-        <f>D61+F61+H61+J61+L61</f>
-        <v>0</v>
-      </c>
-      <c r="O61" s="43">
-        <f>E61+G61+I61+K61+M61</f>
+      <c r="B61" s="80"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="31"/>
+      <c r="K61" s="31"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="37">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O61" s="38">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A62" s="36" t="s">
+      <c r="A62" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="91"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="59"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="60"/>
-      <c r="I62" s="60"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="57"/>
-      <c r="M62" s="57"/>
-      <c r="N62" s="42">
-        <f>D62+F62+H62+J62+L62</f>
-        <v>0</v>
-      </c>
-      <c r="O62" s="43">
-        <f>E62+G62+I62+K62+M62</f>
+      <c r="B62" s="80"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="31"/>
+      <c r="K62" s="31"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="37">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="38">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A63" s="36" t="s">
+      <c r="A63" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="91"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="57"/>
-      <c r="M63" s="57"/>
-      <c r="N63" s="42">
-        <f>D63+F63+H63+J63+L63</f>
-        <v>0</v>
-      </c>
-      <c r="O63" s="43">
-        <f>E63+G63+I63+K63+M63</f>
+      <c r="B63" s="80"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="31"/>
+      <c r="K63" s="31"/>
+      <c r="L63" s="52"/>
+      <c r="M63" s="52"/>
+      <c r="N63" s="37">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="38">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A64" s="36" t="s">
+      <c r="A64" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="91"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="60"/>
-      <c r="I64" s="60"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="57"/>
-      <c r="M64" s="57"/>
-      <c r="N64" s="42">
-        <f>D64+F64+H64+J64+L64</f>
-        <v>0</v>
-      </c>
-      <c r="O64" s="43">
-        <f>E64+G64+I64+K64+M64</f>
+      <c r="B64" s="80"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="55"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="37">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="38">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" s="44" t="s">
+      <c r="A65" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="92"/>
-      <c r="C65" s="45"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="44"/>
-      <c r="G65" s="44"/>
-      <c r="H65" s="62"/>
-      <c r="I65" s="62"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="44"/>
-      <c r="L65" s="58"/>
-      <c r="M65" s="58"/>
-      <c r="N65" s="50">
-        <f>D65+F65+H65+J65+L65</f>
-        <v>0</v>
-      </c>
-      <c r="O65" s="51">
-        <f>E65+G65+I65+K65+M65</f>
+      <c r="B65" s="81"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="56"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="57"/>
+      <c r="I65" s="57"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="53"/>
+      <c r="M65" s="53"/>
+      <c r="N65" s="45">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="46">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
-      <c r="B66" s="94"/>
+      <c r="B66" s="83"/>
       <c r="C66" s="3"/>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
@@ -2917,53 +2928,53 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
-      <c r="B67" s="95"/>
+      <c r="B67" s="84"/>
       <c r="C67" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D67" s="11">
-        <f>SUM(D4:D66)</f>
+        <f t="shared" ref="D67:M67" si="28">SUM(D4:D66)</f>
         <v>18</v>
       </c>
       <c r="E67" s="11">
-        <f>SUM(E4:E66)</f>
+        <f t="shared" si="28"/>
         <v>12.5</v>
       </c>
       <c r="F67" s="11">
-        <f>SUM(F4:F66)</f>
+        <f t="shared" si="28"/>
+        <v>17.3</v>
+      </c>
+      <c r="G67" s="11">
+        <f t="shared" si="28"/>
+        <v>12</v>
+      </c>
+      <c r="H67" s="11">
+        <f t="shared" si="28"/>
         <v>17</v>
       </c>
-      <c r="G67" s="11">
-        <f>SUM(G4:G66)</f>
+      <c r="I67" s="11">
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
-      <c r="H67" s="11">
-        <f>SUM(H4:H66)</f>
-        <v>17</v>
-      </c>
-      <c r="I67" s="11">
-        <f>SUM(I4:I66)</f>
-        <v>12</v>
-      </c>
       <c r="J67" s="11">
-        <f>SUM(J4:J66)</f>
+        <f t="shared" si="28"/>
         <v>17.5</v>
       </c>
       <c r="K67" s="11">
-        <f>SUM(K4:K66)</f>
+        <f t="shared" si="28"/>
         <v>12.5</v>
       </c>
       <c r="L67" s="11">
-        <f>SUM(L4:L66)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M67" s="11">
-        <f>SUM(M4:M66)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="N67" s="9">
         <f>D67+F67+H67+J67+L67</f>
-        <v>69.5</v>
+        <v>69.8</v>
       </c>
       <c r="O67" s="11">
         <f>E67+G67+I67+K67+M67</f>
@@ -3011,15 +3022,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -3180,11 +3182,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
@@ -3194,15 +3201,11 @@
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3220,15 +3223,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -3242,4 +3245,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
+++ b/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
@@ -674,41 +674,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1017,7 +1017,7 @@
   <dimension ref="A1:O67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1045,10 +1045,10 @@
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="104" t="s">
+      <c r="E2" s="105" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="104"/>
+      <c r="F2" s="105"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
@@ -1100,47 +1100,47 @@
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="78"/>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="110" t="s">
+      <c r="E4" s="110"/>
+      <c r="F4" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="110"/>
-      <c r="H4" s="111" t="s">
+      <c r="G4" s="111"/>
+      <c r="H4" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="111"/>
-      <c r="J4" s="110" t="s">
+      <c r="I4" s="112"/>
+      <c r="J4" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="110"/>
-      <c r="L4" s="107" t="s">
+      <c r="K4" s="111"/>
+      <c r="L4" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="108"/>
+      <c r="M4" s="109"/>
       <c r="N4" s="22"/>
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="105"/>
-      <c r="M5" s="105"/>
-      <c r="N5" s="105"/>
-      <c r="O5" s="106"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
+      <c r="N5" s="106"/>
+      <c r="O5" s="107"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
@@ -1283,25 +1283,25 @@
         <v>2</v>
       </c>
       <c r="E9" s="33">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="F9" s="66">
         <v>2</v>
       </c>
       <c r="G9" s="66">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H9" s="35">
         <v>2</v>
       </c>
       <c r="I9" s="35">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="J9" s="66">
         <v>2</v>
       </c>
       <c r="K9" s="66">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="L9" s="36"/>
       <c r="M9" s="36"/>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="O9" s="38">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1352,23 +1352,23 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="102"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="105"/>
-      <c r="N11" s="105"/>
-      <c r="O11" s="106"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="107"/>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
@@ -1558,7 +1558,7 @@
       <c r="B17" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="112" t="s">
+      <c r="C17" s="101" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="33"/>
@@ -1676,23 +1676,23 @@
       </c>
     </row>
     <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="101" t="s">
+      <c r="A21" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="102"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="105"/>
-      <c r="N21" s="105"/>
-      <c r="O21" s="106"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="106"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="106"/>
+      <c r="K21" s="106"/>
+      <c r="L21" s="106"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="107"/>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="31">
@@ -1922,23 +1922,23 @@
       </c>
     </row>
     <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="102"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="102"/>
-      <c r="K29" s="102"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="102"/>
-      <c r="N29" s="102"/>
-      <c r="O29" s="103"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="103"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="103"/>
+      <c r="J29" s="103"/>
+      <c r="K29" s="103"/>
+      <c r="L29" s="103"/>
+      <c r="M29" s="103"/>
+      <c r="N29" s="103"/>
+      <c r="O29" s="104"/>
     </row>
     <row r="30" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="31">
@@ -2168,23 +2168,23 @@
       </c>
     </row>
     <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="101" t="s">
+      <c r="A37" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="102"/>
-      <c r="C37" s="102"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="102"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="102"/>
-      <c r="H37" s="102"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="102"/>
-      <c r="K37" s="102"/>
-      <c r="L37" s="102"/>
-      <c r="M37" s="102"/>
-      <c r="N37" s="102"/>
-      <c r="O37" s="103"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="103"/>
+      <c r="L37" s="103"/>
+      <c r="M37" s="103"/>
+      <c r="N37" s="103"/>
+      <c r="O37" s="104"/>
     </row>
     <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="23">
@@ -2360,23 +2360,23 @@
       </c>
     </row>
     <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="101" t="s">
+      <c r="A44" s="102" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="102"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="102"/>
-      <c r="E44" s="102"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="102"/>
-      <c r="H44" s="102"/>
-      <c r="I44" s="102"/>
-      <c r="J44" s="102"/>
-      <c r="K44" s="102"/>
-      <c r="L44" s="102"/>
-      <c r="M44" s="102"/>
-      <c r="N44" s="102"/>
-      <c r="O44" s="103"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="103"/>
+      <c r="K44" s="103"/>
+      <c r="L44" s="103"/>
+      <c r="M44" s="103"/>
+      <c r="N44" s="103"/>
+      <c r="O44" s="104"/>
     </row>
     <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="23">
@@ -2572,23 +2572,23 @@
       </c>
     </row>
     <row r="52" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="101" t="s">
+      <c r="A52" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="102"/>
-      <c r="C52" s="102"/>
-      <c r="D52" s="102"/>
-      <c r="E52" s="102"/>
-      <c r="F52" s="102"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="102"/>
-      <c r="I52" s="102"/>
-      <c r="J52" s="102"/>
-      <c r="K52" s="102"/>
-      <c r="L52" s="102"/>
-      <c r="M52" s="102"/>
-      <c r="N52" s="102"/>
-      <c r="O52" s="103"/>
+      <c r="B52" s="103"/>
+      <c r="C52" s="103"/>
+      <c r="D52" s="103"/>
+      <c r="E52" s="103"/>
+      <c r="F52" s="103"/>
+      <c r="G52" s="103"/>
+      <c r="H52" s="103"/>
+      <c r="I52" s="103"/>
+      <c r="J52" s="103"/>
+      <c r="K52" s="103"/>
+      <c r="L52" s="103"/>
+      <c r="M52" s="103"/>
+      <c r="N52" s="103"/>
+      <c r="O52" s="104"/>
     </row>
     <row r="53" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="23" t="s">
@@ -2741,23 +2741,23 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="101" t="s">
+      <c r="A59" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="B59" s="102"/>
-      <c r="C59" s="102"/>
-      <c r="D59" s="102"/>
-      <c r="E59" s="102"/>
-      <c r="F59" s="102"/>
-      <c r="G59" s="102"/>
-      <c r="H59" s="102"/>
-      <c r="I59" s="102"/>
-      <c r="J59" s="102"/>
-      <c r="K59" s="102"/>
-      <c r="L59" s="102"/>
-      <c r="M59" s="102"/>
-      <c r="N59" s="102"/>
-      <c r="O59" s="103"/>
+      <c r="B59" s="103"/>
+      <c r="C59" s="103"/>
+      <c r="D59" s="103"/>
+      <c r="E59" s="103"/>
+      <c r="F59" s="103"/>
+      <c r="G59" s="103"/>
+      <c r="H59" s="103"/>
+      <c r="I59" s="103"/>
+      <c r="J59" s="103"/>
+      <c r="K59" s="103"/>
+      <c r="L59" s="103"/>
+      <c r="M59" s="103"/>
+      <c r="N59" s="103"/>
+      <c r="O59" s="104"/>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="23" t="s">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="E67" s="11">
         <f t="shared" si="28"/>
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="F67" s="11">
         <f t="shared" si="28"/>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="G67" s="11">
         <f t="shared" si="28"/>
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="H67" s="11">
         <f t="shared" si="28"/>
@@ -2954,7 +2954,7 @@
       </c>
       <c r="I67" s="11">
         <f t="shared" si="28"/>
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="J67" s="11">
         <f t="shared" si="28"/>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="K67" s="11">
         <f t="shared" si="28"/>
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="L67" s="11">
         <f t="shared" si="28"/>
@@ -2978,7 +2978,7 @@
       </c>
       <c r="O67" s="11">
         <f>E67+G67+I67+K67+M67</f>
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -3022,6 +3022,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -3182,16 +3191,11 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
@@ -3201,11 +3205,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3223,15 +3231,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -3245,12 +3253,4 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
+++ b/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Themaopdracht6\Planning (PvA) en urenverantwoording\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -76,27 +81,6 @@
     <t>Week2</t>
   </si>
   <si>
-    <t>Week1</t>
-  </si>
-  <si>
-    <t>Week3</t>
-  </si>
-  <si>
-    <t>Week4</t>
-  </si>
-  <si>
-    <t>Week5</t>
-  </si>
-  <si>
-    <t>Week6</t>
-  </si>
-  <si>
-    <t>Projectweek1</t>
-  </si>
-  <si>
-    <t>Projectweek2</t>
-  </si>
-  <si>
     <t>Datum</t>
   </si>
   <si>
@@ -167,6 +151,54 @@
   </si>
   <si>
     <t>maandag 16 november 2015</t>
+  </si>
+  <si>
+    <t>subtotaal week 1</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Projectweek 1</t>
+  </si>
+  <si>
+    <t>Projectweek 2</t>
+  </si>
+  <si>
+    <t>subtotaal week 2</t>
+  </si>
+  <si>
+    <t>subtotaal week 3</t>
+  </si>
+  <si>
+    <t>subtotaal week 4</t>
+  </si>
+  <si>
+    <t>subtotaal week 5</t>
+  </si>
+  <si>
+    <t>subtotaal week 6</t>
+  </si>
+  <si>
+    <t>subtotaal proj.week 1</t>
+  </si>
+  <si>
+    <t>subtotaal proj.week 2</t>
+  </si>
+  <si>
+    <t>Datum:</t>
   </si>
 </sst>
 </file>
@@ -265,7 +297,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -365,17 +397,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -576,10 +597,10 @@
       <alignment horizontal="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -591,20 +612,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -627,48 +648,48 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -677,22 +698,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -708,11 +714,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -728,9 +745,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -768,9 +785,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -805,7 +822,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -840,7 +857,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1016,8 +1033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1045,17 +1062,25 @@
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="105" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="105"/>
+      <c r="E2" s="102" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="102"/>
+      <c r="H2" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="112">
+        <f ca="1">TODAY()</f>
+        <v>42324</v>
+      </c>
+      <c r="J2" s="112"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B3" s="77" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>0</v>
@@ -1100,47 +1125,47 @@
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="78"/>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="111" t="s">
+      <c r="E4" s="105"/>
+      <c r="F4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="111"/>
-      <c r="H4" s="112" t="s">
+      <c r="G4" s="106"/>
+      <c r="H4" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="112"/>
-      <c r="J4" s="111" t="s">
+      <c r="I4" s="107"/>
+      <c r="J4" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="111"/>
-      <c r="L4" s="108" t="s">
+      <c r="K4" s="106"/>
+      <c r="L4" s="103" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="109"/>
+      <c r="M4" s="104"/>
       <c r="N4" s="22"/>
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="102" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
+      <c r="A5" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="108"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="108"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
       <c r="J5" s="106"/>
       <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="107"/>
+      <c r="L5" s="109"/>
+      <c r="M5" s="109"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
@@ -1150,7 +1175,7 @@
         <v>42317</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D6" s="25">
         <v>2</v>
@@ -1195,7 +1220,7 @@
         <v>42317</v>
       </c>
       <c r="C7" s="60" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D7" s="33">
         <v>2</v>
@@ -1240,7 +1265,7 @@
         <v>42317</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D8" s="33">
         <v>0.5</v>
@@ -1277,7 +1302,7 @@
         <v>42319</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D9" s="33">
         <v>2</v>
@@ -1322,24 +1347,32 @@
         <v>42323</v>
       </c>
       <c r="C10" s="74" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D10" s="41">
         <v>0.25</v>
       </c>
-      <c r="E10" s="41"/>
+      <c r="E10" s="41">
+        <v>0.25</v>
+      </c>
       <c r="F10" s="67">
         <v>0.25</v>
       </c>
-      <c r="G10" s="67"/>
+      <c r="G10" s="67">
+        <v>0.25</v>
+      </c>
       <c r="H10" s="43">
         <v>0.25</v>
       </c>
-      <c r="I10" s="43"/>
+      <c r="I10" s="43">
+        <v>0.25</v>
+      </c>
       <c r="J10" s="42">
         <v>0.25</v>
       </c>
-      <c r="K10" s="42"/>
+      <c r="K10" s="42">
+        <v>0.25</v>
+      </c>
       <c r="L10" s="44"/>
       <c r="M10" s="44"/>
       <c r="N10" s="45">
@@ -1348,27 +1381,35 @@
       </c>
       <c r="O10" s="46">
         <f>E10+G10+I10+K10+M10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="102" t="s">
+      <c r="A11" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="106" t="s">
+        <v>43</v>
+      </c>
       <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="106"/>
-      <c r="N11" s="106"/>
-      <c r="O11" s="107"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="109"/>
+      <c r="N11" s="110">
+        <f>SUM(N6:N10)</f>
+        <v>26</v>
+      </c>
+      <c r="O11" s="110">
+        <f>SUM(O6:O10)</f>
+        <v>32</v>
+      </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="23">
@@ -1378,7 +1419,7 @@
         <v>42324</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D12" s="25">
         <v>2</v>
@@ -1423,7 +1464,7 @@
         <v>42324</v>
       </c>
       <c r="C13" s="70" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D13" s="71">
         <v>0.5</v>
@@ -1460,7 +1501,7 @@
         <v>42324</v>
       </c>
       <c r="C14" s="70" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D14" s="71">
         <v>1</v>
@@ -1497,7 +1538,7 @@
         <v>42326</v>
       </c>
       <c r="C15" s="60" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D15" s="33">
         <v>1</v>
@@ -1556,10 +1597,10 @@
         <v>2</v>
       </c>
       <c r="B17" s="80" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C17" s="101" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
@@ -1588,7 +1629,7 @@
       </c>
       <c r="B18" s="87"/>
       <c r="C18" s="60" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D18" s="96">
         <v>0.25</v>
@@ -1617,7 +1658,7 @@
       </c>
       <c r="B19" s="87"/>
       <c r="C19" s="60" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D19" s="96"/>
       <c r="E19" s="96"/>
@@ -1646,7 +1687,7 @@
         <v>42330</v>
       </c>
       <c r="C20" s="74" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D20" s="41">
         <v>0.25</v>
@@ -1676,23 +1717,31 @@
       </c>
     </row>
     <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="103"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="106"/>
+      <c r="A21" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="108"/>
+      <c r="J21" s="106" t="s">
+        <v>51</v>
+      </c>
       <c r="K21" s="106"/>
-      <c r="L21" s="106"/>
-      <c r="M21" s="106"/>
-      <c r="N21" s="106"/>
-      <c r="O21" s="107"/>
+      <c r="L21" s="109"/>
+      <c r="M21" s="109"/>
+      <c r="N21" s="110">
+        <f>SUM(N12:N20)</f>
+        <v>19.55</v>
+      </c>
+      <c r="O21" s="110">
+        <f>SUM(O12:O20)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="31">
@@ -1702,7 +1751,7 @@
         <v>42331</v>
       </c>
       <c r="C22" s="60" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D22" s="50">
         <v>2</v>
@@ -1747,7 +1796,7 @@
         <v>42331</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D23" s="50">
         <v>0.5</v>
@@ -1782,7 +1831,7 @@
       </c>
       <c r="B24" s="80"/>
       <c r="C24" s="60" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D24" s="50"/>
       <c r="E24" s="50"/>
@@ -1809,7 +1858,7 @@
       </c>
       <c r="B25" s="80"/>
       <c r="C25" s="60" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D25" s="50"/>
       <c r="E25" s="50"/>
@@ -1836,7 +1885,7 @@
       </c>
       <c r="B26" s="80"/>
       <c r="C26" s="60" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D26" s="50"/>
       <c r="E26" s="50"/>
@@ -1863,7 +1912,7 @@
       </c>
       <c r="B27" s="87"/>
       <c r="C27" s="60" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D27" s="94"/>
       <c r="E27" s="94"/>
@@ -1892,7 +1941,7 @@
         <v>42337</v>
       </c>
       <c r="C28" s="74" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D28" s="41">
         <v>0.25</v>
@@ -1922,23 +1971,31 @@
       </c>
     </row>
     <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="102" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="104"/>
+      <c r="A29" s="108" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="108"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="108"/>
+      <c r="J29" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" s="106"/>
+      <c r="L29" s="109"/>
+      <c r="M29" s="109"/>
+      <c r="N29" s="110">
+        <f>SUM(N22:N28)</f>
+        <v>11</v>
+      </c>
+      <c r="O29" s="110">
+        <f>SUM(O22:O28)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="31">
@@ -1948,7 +2005,7 @@
         <v>42338</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D30" s="50">
         <v>2</v>
@@ -1993,7 +2050,7 @@
         <v>42338</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D31" s="50">
         <v>0.5</v>
@@ -2028,7 +2085,7 @@
       </c>
       <c r="B32" s="80"/>
       <c r="C32" s="32" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D32" s="50">
         <v>0.25</v>
@@ -2059,7 +2116,7 @@
         <v>42338</v>
       </c>
       <c r="C33" s="60" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D33" s="50"/>
       <c r="E33" s="50"/>
@@ -2138,7 +2195,7 @@
         <v>42344</v>
       </c>
       <c r="C36" s="74" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D36" s="41">
         <v>0.25</v>
@@ -2168,23 +2225,31 @@
       </c>
     </row>
     <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="102" t="s">
-        <v>22</v>
-      </c>
-      <c r="B37" s="103"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="103"/>
-      <c r="K37" s="103"/>
-      <c r="L37" s="103"/>
-      <c r="M37" s="103"/>
-      <c r="N37" s="103"/>
-      <c r="O37" s="104"/>
+      <c r="A37" s="108" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="108"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="108"/>
+      <c r="G37" s="108"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="106" t="s">
+        <v>53</v>
+      </c>
+      <c r="K37" s="106"/>
+      <c r="L37" s="109"/>
+      <c r="M37" s="109"/>
+      <c r="N37" s="110">
+        <f>SUM(N30:N36)</f>
+        <v>11.25</v>
+      </c>
+      <c r="O37" s="110">
+        <f>SUM(O30:O36)</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="23">
@@ -2194,7 +2259,7 @@
         <v>42345</v>
       </c>
       <c r="C38" s="62" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D38" s="47"/>
       <c r="E38" s="47"/>
@@ -2223,7 +2288,7 @@
         <v>42345</v>
       </c>
       <c r="C39" s="60" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D39" s="50"/>
       <c r="E39" s="50"/>
@@ -2276,7 +2341,7 @@
       </c>
       <c r="B41" s="80"/>
       <c r="C41" s="60" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D41" s="50"/>
       <c r="E41" s="50"/>
@@ -2330,7 +2395,7 @@
         <v>42351</v>
       </c>
       <c r="C43" s="74" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D43" s="41">
         <v>0.25</v>
@@ -2360,23 +2425,31 @@
       </c>
     </row>
     <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="102" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="103"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="103"/>
-      <c r="K44" s="103"/>
-      <c r="L44" s="103"/>
-      <c r="M44" s="103"/>
-      <c r="N44" s="103"/>
-      <c r="O44" s="104"/>
+      <c r="A44" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="108"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
+      <c r="J44" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="K44" s="106"/>
+      <c r="L44" s="109"/>
+      <c r="M44" s="109"/>
+      <c r="N44" s="110">
+        <f>SUM(N38:N43)</f>
+        <v>1</v>
+      </c>
+      <c r="O44" s="110">
+        <f>SUM(O38:O43)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="23">
@@ -2386,7 +2459,7 @@
         <v>42352</v>
       </c>
       <c r="C45" s="100" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D45" s="47"/>
       <c r="E45" s="47"/>
@@ -2413,7 +2486,7 @@
       </c>
       <c r="B46" s="80"/>
       <c r="C46" s="60" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D46" s="54"/>
       <c r="E46" s="54"/>
@@ -2542,7 +2615,7 @@
         <v>42358</v>
       </c>
       <c r="C51" s="74" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D51" s="41">
         <v>0.25</v>
@@ -2572,23 +2645,31 @@
       </c>
     </row>
     <row r="52" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" s="103"/>
-      <c r="C52" s="103"/>
-      <c r="D52" s="103"/>
-      <c r="E52" s="103"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="103"/>
-      <c r="H52" s="103"/>
-      <c r="I52" s="103"/>
-      <c r="J52" s="103"/>
-      <c r="K52" s="103"/>
-      <c r="L52" s="103"/>
-      <c r="M52" s="103"/>
-      <c r="N52" s="103"/>
-      <c r="O52" s="104"/>
+      <c r="A52" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="108"/>
+      <c r="C52" s="108"/>
+      <c r="D52" s="108"/>
+      <c r="E52" s="108"/>
+      <c r="F52" s="108"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="108"/>
+      <c r="J52" s="108" t="s">
+        <v>55</v>
+      </c>
+      <c r="K52" s="106"/>
+      <c r="L52" s="109"/>
+      <c r="M52" s="109"/>
+      <c r="N52" s="110">
+        <f>SUM(N45:N51)</f>
+        <v>1</v>
+      </c>
+      <c r="O52" s="110">
+        <f>SUM(O45:O51)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="23" t="s">
@@ -2741,23 +2822,31 @@
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" s="102" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59" s="103"/>
-      <c r="C59" s="103"/>
-      <c r="D59" s="103"/>
-      <c r="E59" s="103"/>
-      <c r="F59" s="103"/>
-      <c r="G59" s="103"/>
-      <c r="H59" s="103"/>
-      <c r="I59" s="103"/>
-      <c r="J59" s="103"/>
-      <c r="K59" s="103"/>
-      <c r="L59" s="103"/>
-      <c r="M59" s="103"/>
-      <c r="N59" s="103"/>
-      <c r="O59" s="104"/>
+      <c r="A59" s="108" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="108"/>
+      <c r="C59" s="108"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="108"/>
+      <c r="G59" s="108"/>
+      <c r="H59" s="108"/>
+      <c r="I59" s="108"/>
+      <c r="J59" s="108" t="s">
+        <v>56</v>
+      </c>
+      <c r="K59" s="106"/>
+      <c r="L59" s="109"/>
+      <c r="M59" s="109"/>
+      <c r="N59" s="110">
+        <f>SUM(N53:N58)</f>
+        <v>0</v>
+      </c>
+      <c r="O59" s="110">
+        <f>SUM(O53:O58)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="23" t="s">
@@ -2919,12 +3008,20 @@
       <c r="G66" s="3"/>
       <c r="H66" s="5"/>
       <c r="I66" s="5"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
+      <c r="J66" s="108" t="s">
+        <v>57</v>
+      </c>
+      <c r="K66" s="106"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="4"/>
+      <c r="N66" s="8">
+        <f>SUM(N60:N65)</f>
+        <v>0</v>
+      </c>
+      <c r="O66" s="4">
+        <f>SUM(O60:O65)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
@@ -2938,7 +3035,7 @@
       </c>
       <c r="E67" s="11">
         <f t="shared" si="28"/>
-        <v>14</v>
+        <v>14.25</v>
       </c>
       <c r="F67" s="11">
         <f t="shared" si="28"/>
@@ -2946,7 +3043,7 @@
       </c>
       <c r="G67" s="11">
         <f t="shared" si="28"/>
-        <v>13.5</v>
+        <v>13.75</v>
       </c>
       <c r="H67" s="11">
         <f t="shared" si="28"/>
@@ -2954,7 +3051,7 @@
       </c>
       <c r="I67" s="11">
         <f t="shared" si="28"/>
-        <v>13.5</v>
+        <v>13.75</v>
       </c>
       <c r="J67" s="11">
         <f t="shared" si="28"/>
@@ -2962,7 +3059,7 @@
       </c>
       <c r="K67" s="11">
         <f t="shared" si="28"/>
-        <v>14</v>
+        <v>14.25</v>
       </c>
       <c r="L67" s="11">
         <f t="shared" si="28"/>
@@ -2978,25 +3075,35 @@
       </c>
       <c r="O67" s="11">
         <f>E67+G67+I67+K67+M67</f>
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A44:O44"/>
-    <mergeCell ref="A52:O52"/>
-    <mergeCell ref="A59:O59"/>
+  <mergeCells count="24">
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="A59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="J37:K37"/>
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A37:O37"/>
-    <mergeCell ref="A29:O29"/>
-    <mergeCell ref="A11:O11"/>
-    <mergeCell ref="A5:O5"/>
-    <mergeCell ref="A21:O21"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="A11:I11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -3022,15 +3129,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -3191,29 +3303,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3231,26 +3354,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
+++ b/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -117,12 +117,6 @@
     <t>Agenda items versturen</t>
   </si>
   <si>
-    <t>Vergaderen</t>
-  </si>
-  <si>
-    <t>requirements op papier</t>
-  </si>
-  <si>
     <t>PVA laten reviewen</t>
   </si>
   <si>
@@ -198,9 +192,6 @@
     <t>Jan mailen over interview</t>
   </si>
   <si>
-    <t>Inleiding PVA schrijven.</t>
-  </si>
-  <si>
     <t>Interview uitwerken en interview houden</t>
   </si>
   <si>
@@ -211,6 +202,18 @@
   </si>
   <si>
     <t>Alles inleveren</t>
+  </si>
+  <si>
+    <t>Inleiding PVA schrijven. RespberryPi instellen</t>
+  </si>
+  <si>
+    <t>Interview samenvatten</t>
+  </si>
+  <si>
+    <t>Teamoverleg met Marten</t>
+  </si>
+  <si>
+    <t>Vergaderen en notuleren</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -564,12 +567,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -595,12 +592,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -694,15 +685,6 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -714,37 +696,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -758,6 +710,33 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1063,16 +1042,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="84" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="80" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.140625" customWidth="1"/>
     <col min="4" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="8.140625" hidden="1" customWidth="1"/>
@@ -1084,34 +1063,34 @@
       <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="74"/>
+      <c r="B1" s="70"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="75"/>
+      <c r="B2" s="71"/>
       <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="107"/>
-      <c r="H2" s="103" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="106">
+      <c r="F2" s="104"/>
+      <c r="H2" s="96" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="109">
         <f ca="1">TODAY()</f>
         <v>42326</v>
       </c>
-      <c r="J2" s="106"/>
+      <c r="J2" s="109"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -1156,57 +1135,57 @@
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
-      <c r="B4" s="77"/>
-      <c r="D4" s="110" t="s">
+      <c r="B4" s="73"/>
+      <c r="D4" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="105" t="s">
+      <c r="E4" s="107"/>
+      <c r="F4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="105"/>
-      <c r="H4" s="111" t="s">
+      <c r="G4" s="102"/>
+      <c r="H4" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="111"/>
-      <c r="J4" s="105" t="s">
+      <c r="I4" s="108"/>
+      <c r="J4" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="105"/>
-      <c r="L4" s="108" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="109"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="106"/>
       <c r="N4" s="22"/>
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="104" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
-      <c r="L5" s="101"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="102"/>
-      <c r="O5" s="102"/>
+      <c r="A5" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
         <v>1</v>
       </c>
-      <c r="B6" s="78">
+      <c r="B6" s="74">
         <v>42317</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="57" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="24">
@@ -1215,10 +1194,10 @@
       <c r="E6" s="24">
         <v>2</v>
       </c>
-      <c r="F6" s="64">
-        <v>2</v>
-      </c>
-      <c r="G6" s="64">
+      <c r="F6" s="60">
+        <v>2</v>
+      </c>
+      <c r="G6" s="60">
         <v>2</v>
       </c>
       <c r="H6" s="34">
@@ -1227,10 +1206,10 @@
       <c r="I6" s="34">
         <v>2</v>
       </c>
-      <c r="J6" s="64">
-        <v>2</v>
-      </c>
-      <c r="K6" s="64">
+      <c r="J6" s="60">
+        <v>2</v>
+      </c>
+      <c r="K6" s="60">
         <v>2</v>
       </c>
       <c r="L6" s="27"/>
@@ -1248,10 +1227,10 @@
       <c r="A7" s="30">
         <v>1</v>
       </c>
-      <c r="B7" s="79">
+      <c r="B7" s="75">
         <v>42317</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="55" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="32">
@@ -1260,10 +1239,10 @@
       <c r="E7" s="32">
         <v>2</v>
       </c>
-      <c r="F7" s="65">
-        <v>2</v>
-      </c>
-      <c r="G7" s="65">
+      <c r="F7" s="61">
+        <v>2</v>
+      </c>
+      <c r="G7" s="61">
         <v>2</v>
       </c>
       <c r="H7" s="34">
@@ -1272,10 +1251,10 @@
       <c r="I7" s="34">
         <v>2</v>
       </c>
-      <c r="J7" s="65">
-        <v>2</v>
-      </c>
-      <c r="K7" s="65">
+      <c r="J7" s="61">
+        <v>2</v>
+      </c>
+      <c r="K7" s="61">
         <v>2</v>
       </c>
       <c r="L7" s="27"/>
@@ -1293,10 +1272,10 @@
       <c r="A8" s="30">
         <v>1</v>
       </c>
-      <c r="B8" s="79">
+      <c r="B8" s="75">
         <v>42317</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="55" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="32">
@@ -1305,18 +1284,18 @@
       <c r="E8" s="32">
         <v>0.5</v>
       </c>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
-      <c r="J8" s="65">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="65">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
+      <c r="J8" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="61">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="63"/>
+      <c r="M8" s="63"/>
       <c r="N8" s="36">
         <f t="shared" ref="N8" si="4">D8+F8+H8+J8+L8</f>
         <v>1</v>
@@ -1330,10 +1309,10 @@
       <c r="A9" s="30">
         <v>1</v>
       </c>
-      <c r="B9" s="79">
+      <c r="B9" s="75">
         <v>42319</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="55" t="s">
         <v>27</v>
       </c>
       <c r="D9" s="32">
@@ -1342,10 +1321,10 @@
       <c r="E9" s="32">
         <v>3.5</v>
       </c>
-      <c r="F9" s="65">
-        <v>2</v>
-      </c>
-      <c r="G9" s="65">
+      <c r="F9" s="61">
+        <v>2</v>
+      </c>
+      <c r="G9" s="61">
         <v>3.5</v>
       </c>
       <c r="H9" s="34">
@@ -1354,10 +1333,10 @@
       <c r="I9" s="34">
         <v>3.5</v>
       </c>
-      <c r="J9" s="65">
-        <v>2</v>
-      </c>
-      <c r="K9" s="65">
+      <c r="J9" s="61">
+        <v>2</v>
+      </c>
+      <c r="K9" s="61">
         <v>3.5</v>
       </c>
       <c r="L9" s="35"/>
@@ -1375,10 +1354,10 @@
       <c r="A10" s="38">
         <v>1</v>
       </c>
-      <c r="B10" s="80">
+      <c r="B10" s="76">
         <v>42323</v>
       </c>
-      <c r="C10" s="73" t="s">
+      <c r="C10" s="69" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="40">
@@ -1387,10 +1366,10 @@
       <c r="E10" s="40">
         <v>0.25</v>
       </c>
-      <c r="F10" s="66">
-        <v>0.25</v>
-      </c>
-      <c r="G10" s="66">
+      <c r="F10" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="G10" s="62">
         <v>0.25</v>
       </c>
       <c r="H10" s="42">
@@ -1417,28 +1396,28 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="105" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" s="105"/>
-      <c r="L11" s="101"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="102">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="102" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="102"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="95">
         <f>SUM(N6:N10)</f>
         <v>26</v>
       </c>
-      <c r="O11" s="102">
+      <c r="O11" s="95">
         <f>SUM(O6:O10)</f>
         <v>32</v>
       </c>
@@ -1447,10 +1426,10 @@
       <c r="A12" s="23">
         <v>2</v>
       </c>
-      <c r="B12" s="78">
+      <c r="B12" s="74">
         <v>42324</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="57" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="24">
@@ -1484,95 +1463,95 @@
         <v>8</v>
       </c>
       <c r="O12" s="37">
-        <f t="shared" ref="O12:O21" si="7">E12+G12+I12+K12+M12</f>
+        <f t="shared" ref="O12:O16" si="7">E12+G12+I12+K12+M12</f>
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="68">
-        <v>2</v>
-      </c>
-      <c r="B13" s="81">
+      <c r="A13" s="64">
+        <v>2</v>
+      </c>
+      <c r="B13" s="77">
         <v>42324</v>
       </c>
-      <c r="C13" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="70">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="70">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="71">
-        <v>0.5</v>
-      </c>
-      <c r="G13" s="71">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="72">
-        <v>0.5</v>
-      </c>
-      <c r="I13" s="72">
-        <v>0.5</v>
-      </c>
-      <c r="J13" s="71">
-        <v>0.5</v>
-      </c>
-      <c r="K13" s="71">
-        <v>0.5</v>
-      </c>
-      <c r="L13" s="67">
-        <v>0.5</v>
-      </c>
-      <c r="M13" s="67">
+      <c r="C13" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="67">
+        <v>1</v>
+      </c>
+      <c r="G13" s="67">
+        <v>1</v>
+      </c>
+      <c r="H13" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="63">
         <v>0.5</v>
       </c>
       <c r="N13" s="36">
         <f t="shared" si="6"/>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O13" s="37">
         <f t="shared" si="7"/>
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="68">
-        <v>2</v>
-      </c>
-      <c r="B14" s="81">
+      <c r="A14" s="64">
+        <v>2</v>
+      </c>
+      <c r="B14" s="77">
         <v>42324</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="70">
-        <v>1</v>
-      </c>
-      <c r="E14" s="70">
+      <c r="D14" s="66">
+        <v>1</v>
+      </c>
+      <c r="E14" s="66">
         <v>1.5</v>
       </c>
-      <c r="F14" s="71">
-        <v>1</v>
-      </c>
-      <c r="G14" s="71">
+      <c r="F14" s="67">
+        <v>1</v>
+      </c>
+      <c r="G14" s="67">
         <v>1.5</v>
       </c>
-      <c r="H14" s="72">
-        <v>1</v>
-      </c>
-      <c r="I14" s="72">
+      <c r="H14" s="68">
+        <v>1</v>
+      </c>
+      <c r="I14" s="68">
         <v>1.5</v>
       </c>
-      <c r="J14" s="71">
-        <v>1</v>
-      </c>
-      <c r="K14" s="71">
+      <c r="J14" s="67">
+        <v>1</v>
+      </c>
+      <c r="K14" s="67">
         <v>1.5</v>
       </c>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
       <c r="N14" s="36">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -1586,28 +1565,28 @@
       <c r="A15" s="30">
         <v>2</v>
       </c>
-      <c r="B15" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="100" t="s">
-        <v>57</v>
+      <c r="B15" s="75" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="93" t="s">
+        <v>55</v>
       </c>
       <c r="D15" s="32">
         <v>0.25</v>
       </c>
-      <c r="E15" s="70">
-        <v>0.25</v>
-      </c>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
+      <c r="E15" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
       <c r="N15" s="36">
-        <f t="shared" ref="N15:N22" si="8">D15+F15+H15+J15+L15</f>
+        <f t="shared" ref="N15:N16" si="8">D15+F15+H15+J15+L15</f>
         <v>0.25</v>
       </c>
       <c r="O15" s="37">
@@ -1619,38 +1598,38 @@
       <c r="A16" s="30">
         <v>2</v>
       </c>
-      <c r="B16" s="79">
+      <c r="B16" s="75">
         <v>42326</v>
       </c>
-      <c r="C16" s="100" t="s">
-        <v>31</v>
+      <c r="C16" s="93" t="s">
+        <v>63</v>
       </c>
       <c r="D16" s="32">
         <v>0.5</v>
       </c>
-      <c r="E16" s="70">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="71">
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="71">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="72">
-        <v>0.5</v>
-      </c>
-      <c r="I16" s="72">
-        <v>0.5</v>
-      </c>
-      <c r="J16" s="71">
-        <v>0.5</v>
-      </c>
-      <c r="K16" s="71">
-        <v>0.5</v>
-      </c>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
+      <c r="E16" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
       <c r="N16" s="36">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -1664,306 +1643,338 @@
       <c r="A17" s="30">
         <v>2</v>
       </c>
-      <c r="B17" s="79">
+      <c r="B17" s="75">
         <v>42326</v>
       </c>
-      <c r="C17" s="59" t="s">
-        <v>58</v>
+      <c r="C17" s="110" t="s">
+        <v>62</v>
       </c>
       <c r="D17" s="32">
-        <v>1</v>
-      </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33">
-        <v>1</v>
-      </c>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34">
-        <v>1</v>
-      </c>
-      <c r="I17" s="34"/>
-      <c r="J17" s="33">
-        <v>1</v>
-      </c>
-      <c r="K17" s="33"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="66">
+        <v>0.25</v>
+      </c>
+      <c r="F17" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="67">
+        <v>0.25</v>
+      </c>
+      <c r="H17" s="68">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="68">
+        <v>0.25</v>
+      </c>
+      <c r="J17" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="67">
+        <v>0.25</v>
+      </c>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
       <c r="N17" s="36">
-        <f t="shared" si="8"/>
-        <v>4</v>
+        <f t="shared" ref="N17:N19" si="9">D17+F17+H17+J17+L17</f>
+        <v>2</v>
       </c>
       <c r="O17" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" ref="O17:O19" si="10">E17+G17+I17+K17+M17</f>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="30">
         <v>2</v>
       </c>
-      <c r="B18" s="79">
+      <c r="B18" s="75">
         <v>42326</v>
       </c>
-      <c r="C18" s="59" t="s">
-        <v>59</v>
+      <c r="C18" s="55" t="s">
+        <v>56</v>
       </c>
       <c r="D18" s="32">
         <v>2</v>
       </c>
-      <c r="E18" s="32"/>
+      <c r="E18" s="32">
+        <v>2.5</v>
+      </c>
       <c r="F18" s="33">
         <v>2</v>
       </c>
-      <c r="G18" s="33"/>
+      <c r="G18" s="33">
+        <v>2.5</v>
+      </c>
       <c r="H18" s="34">
         <v>2</v>
       </c>
-      <c r="I18" s="34"/>
+      <c r="I18" s="34">
+        <v>2.5</v>
+      </c>
       <c r="J18" s="33">
         <v>2</v>
       </c>
-      <c r="K18" s="33"/>
+      <c r="K18" s="33">
+        <v>2.5</v>
+      </c>
       <c r="L18" s="35"/>
       <c r="M18" s="35"/>
       <c r="N18" s="36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="O18" s="37">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="30">
         <v>2</v>
       </c>
-      <c r="B19" s="79">
-        <v>42326</v>
-      </c>
-      <c r="C19" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="D19" s="32"/>
+      <c r="B19" s="75">
+        <v>42327</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="32">
+        <v>1.5</v>
+      </c>
       <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
+      <c r="F19" s="33">
+        <v>1.5</v>
+      </c>
       <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
+      <c r="H19" s="34">
+        <v>1</v>
+      </c>
       <c r="I19" s="34"/>
       <c r="J19" s="33"/>
       <c r="K19" s="33"/>
       <c r="L19" s="35"/>
       <c r="M19" s="35"/>
       <c r="N19" s="36">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>4</v>
       </c>
       <c r="O19" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="85">
-        <v>2</v>
-      </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="59" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="95">
-        <v>0.25</v>
-      </c>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
+      <c r="A20" s="30">
+        <v>2</v>
+      </c>
+      <c r="B20" s="75">
+        <v>42330</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="33">
+        <v>3</v>
+      </c>
+      <c r="K20" s="33"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
       <c r="N20" s="36">
-        <f t="shared" si="8"/>
-        <v>0.25</v>
+        <f t="shared" ref="N20:N21" si="11">D20+F20+H20+J20+L20</f>
+        <v>3</v>
       </c>
       <c r="O20" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="O20:O21" si="12">E20+G20+I20+K20+M20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="85">
-        <v>2</v>
-      </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="95">
-        <v>0.25</v>
-      </c>
-      <c r="E21" s="95"/>
-      <c r="F21" s="96"/>
-      <c r="G21" s="96"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
+      <c r="A21" s="30">
+        <v>2</v>
+      </c>
+      <c r="B21" s="75">
+        <v>42330</v>
+      </c>
+      <c r="C21" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E21" s="40"/>
+      <c r="F21" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="G21" s="62"/>
+      <c r="H21" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="I21" s="42"/>
+      <c r="J21" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="K21" s="41"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
       <c r="N21" s="36">
-        <f t="shared" si="8"/>
-        <v>0.25</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="O21" s="37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="38">
-        <v>2</v>
-      </c>
-      <c r="B22" s="80">
-        <v>42330</v>
-      </c>
-      <c r="C22" s="73" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E22" s="40"/>
-      <c r="F22" s="66">
-        <v>0.25</v>
-      </c>
-      <c r="G22" s="66"/>
-      <c r="H22" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I22" s="42"/>
-      <c r="J22" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="K22" s="41"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="36">
-        <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="O22" s="37">
-        <f t="shared" ref="O22" si="9">E22+G22+I22+K22+M22</f>
-        <v>0</v>
+      <c r="A22" s="103" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="102"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="95">
+        <f>SUM(N12:N21)</f>
+        <v>35.25</v>
+      </c>
+      <c r="O22" s="95">
+        <f>SUM(O12:O21)</f>
+        <v>30.25</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23" s="105"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="102">
-        <f>SUM(N12:N22)</f>
-        <v>30.25</v>
-      </c>
-      <c r="O23" s="102">
-        <f>SUM(O12:O22)</f>
-        <v>18.75</v>
+      <c r="A23" s="30">
+        <v>3</v>
+      </c>
+      <c r="B23" s="75">
+        <v>42331</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="47">
+        <v>2</v>
+      </c>
+      <c r="E23" s="47">
+        <v>2</v>
+      </c>
+      <c r="F23" s="37">
+        <v>2</v>
+      </c>
+      <c r="G23" s="37">
+        <v>2</v>
+      </c>
+      <c r="H23" s="48">
+        <v>2</v>
+      </c>
+      <c r="I23" s="48">
+        <v>2</v>
+      </c>
+      <c r="J23" s="37">
+        <v>2</v>
+      </c>
+      <c r="K23" s="37">
+        <v>2</v>
+      </c>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="28">
+        <f t="shared" ref="N23" si="13">D23+F23+H23+J23+L23</f>
+        <v>8</v>
+      </c>
+      <c r="O23" s="29">
+        <f t="shared" ref="O23" si="14">E23+G23+I23+K23+M23</f>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="30">
         <v>3</v>
       </c>
-      <c r="B24" s="79">
+      <c r="B24" s="75">
         <v>42331</v>
       </c>
-      <c r="C24" s="59" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="49">
-        <v>2</v>
-      </c>
-      <c r="E24" s="49">
-        <v>2</v>
-      </c>
+      <c r="C24" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="47"/>
       <c r="F24" s="37">
-        <v>2</v>
-      </c>
-      <c r="G24" s="37">
-        <v>2</v>
-      </c>
-      <c r="H24" s="50">
-        <v>2</v>
-      </c>
-      <c r="I24" s="50">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G24" s="37"/>
+      <c r="H24" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="48"/>
       <c r="J24" s="37">
-        <v>2</v>
-      </c>
-      <c r="K24" s="37">
-        <v>2</v>
-      </c>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="28">
-        <f t="shared" ref="N24" si="10">D24+F24+H24+J24+L24</f>
-        <v>8</v>
-      </c>
-      <c r="O24" s="29">
-        <f t="shared" ref="O24" si="11">E24+G24+I24+K24+M24</f>
-        <v>8</v>
+        <v>0.5</v>
+      </c>
+      <c r="K24" s="37"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="36">
+        <f t="shared" ref="N24" si="15">D24+F24+H24+J24+L24</f>
+        <v>2.5</v>
+      </c>
+      <c r="O24" s="37">
+        <f t="shared" ref="O24" si="16">E24+G24+I24+K24+M24</f>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="30">
         <v>3</v>
       </c>
-      <c r="B25" s="79">
+      <c r="B25" s="75">
         <v>42331</v>
       </c>
-      <c r="C25" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="E25" s="49"/>
+      <c r="C25" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="47">
+        <v>1</v>
+      </c>
+      <c r="E25" s="47"/>
       <c r="F25" s="37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25" s="37"/>
-      <c r="H25" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I25" s="50"/>
+      <c r="H25" s="48">
+        <v>1</v>
+      </c>
+      <c r="I25" s="48"/>
       <c r="J25" s="37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K25" s="37"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
       <c r="N25" s="36">
-        <f t="shared" ref="N25:N31" si="12">D25+F25+H25+J25+L25</f>
-        <v>2</v>
+        <f t="shared" ref="N25:N26" si="17">D25+F25+H25+J25+L25</f>
+        <v>4</v>
       </c>
       <c r="O25" s="37">
-        <f t="shared" ref="O25:O31" si="13">E25+G25+I25+K25+M25</f>
+        <f t="shared" ref="O25:O26" si="18">E25+G25+I25+K25+M25</f>
         <v>0</v>
       </c>
     </row>
@@ -1971,28 +1982,36 @@
       <c r="A26" s="30">
         <v>3</v>
       </c>
-      <c r="B26" s="79">
+      <c r="B26" s="75">
         <v>42333</v>
       </c>
-      <c r="C26" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="37"/>
+      <c r="C26" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="47"/>
+      <c r="F26" s="37">
+        <v>1</v>
+      </c>
       <c r="G26" s="37"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="37"/>
+      <c r="H26" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="48"/>
+      <c r="J26" s="37">
+        <v>0.5</v>
+      </c>
       <c r="K26" s="37"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
       <c r="N26" s="36">
-        <f t="shared" ref="N26:N31" si="14">D26+F26+H26+J26+L26</f>
-        <v>0</v>
+        <f t="shared" si="17"/>
+        <v>2.5</v>
       </c>
       <c r="O26" s="37">
-        <f t="shared" ref="O26:O31" si="15">E26+G26+I26+K26+M26</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -2000,30 +2019,30 @@
       <c r="A27" s="30">
         <v>3</v>
       </c>
-      <c r="B27" s="79">
+      <c r="B27" s="75">
         <v>42333</v>
       </c>
-      <c r="C27" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
+      <c r="C27" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
       <c r="J27" s="37">
         <v>0.5</v>
       </c>
       <c r="K27" s="37"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
       <c r="N27" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="N27:N32" si="19">D27+F27+H27+J27+L27</f>
         <v>0.5</v>
       </c>
       <c r="O27" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="O27:O32" si="20">E27+G27+I27+K27+M27</f>
         <v>0</v>
       </c>
     </row>
@@ -2031,216 +2050,192 @@
       <c r="A28" s="30">
         <v>3</v>
       </c>
-      <c r="B28" s="79"/>
-      <c r="C28" s="59" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="91">
+        <v>0.25</v>
+      </c>
+      <c r="E28" s="47"/>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
       <c r="J28" s="37"/>
       <c r="K28" s="37"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="36">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="37">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="37"/>
     </row>
     <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="30">
         <v>3</v>
       </c>
-      <c r="B29" s="79"/>
-      <c r="C29" s="59" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="91">
+        <v>0.25</v>
+      </c>
+      <c r="E29" s="47"/>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
       <c r="J29" s="37"/>
       <c r="K29" s="37"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="36">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="37">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="37"/>
     </row>
     <row r="30" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="30">
         <v>3</v>
       </c>
-      <c r="B30" s="79"/>
-      <c r="C30" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
+      <c r="B30" s="75">
+        <v>42333</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
       <c r="J30" s="37"/>
       <c r="K30" s="37"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="51"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
       <c r="N30" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O30" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="85">
+      <c r="A31" s="30">
         <v>3</v>
       </c>
-      <c r="B31" s="86"/>
-      <c r="C31" s="59" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="94"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="90"/>
-      <c r="M31" s="90"/>
+      <c r="B31" s="75"/>
+      <c r="C31" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="49"/>
+      <c r="M31" s="49"/>
       <c r="N31" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="O31" s="37">
-        <f t="shared" si="15"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="38">
+      <c r="A32" s="81">
         <v>3</v>
       </c>
-      <c r="B32" s="80">
+      <c r="B32" s="82"/>
+      <c r="C32" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="90"/>
+      <c r="I32" s="90"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="36">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O32" s="37">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="38">
+        <v>3</v>
+      </c>
+      <c r="B33" s="76">
         <v>42337</v>
       </c>
-      <c r="C32" s="73" t="s">
+      <c r="C33" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E32" s="40"/>
-      <c r="F32" s="66">
-        <v>0.25</v>
-      </c>
-      <c r="G32" s="66"/>
-      <c r="H32" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I32" s="42"/>
-      <c r="J32" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="K32" s="41"/>
-      <c r="L32" s="52"/>
-      <c r="M32" s="52"/>
-      <c r="N32" s="44">
-        <f t="shared" ref="N32:O32" si="16">D32+F32+H32+J32+L32</f>
-        <v>1</v>
-      </c>
-      <c r="O32" s="45">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="104"/>
-      <c r="C33" s="104"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="105" t="s">
-        <v>50</v>
-      </c>
-      <c r="K33" s="105"/>
-      <c r="L33" s="101"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="102">
-        <f>SUM(N24:N32)</f>
-        <v>11.5</v>
-      </c>
-      <c r="O33" s="102">
-        <f>SUM(O24:O32)</f>
-        <v>8</v>
+      <c r="D33" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E33" s="40"/>
+      <c r="F33" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="G33" s="62"/>
+      <c r="H33" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="I33" s="42"/>
+      <c r="J33" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="K33" s="41"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="44">
+        <f t="shared" ref="N33:O33" si="21">D33+F33+H33+J33+L33</f>
+        <v>1</v>
+      </c>
+      <c r="O33" s="45">
+        <f t="shared" si="21"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="30">
-        <v>4</v>
-      </c>
-      <c r="B34" s="79">
-        <v>42338</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="49">
-        <v>2</v>
-      </c>
-      <c r="E34" s="49">
-        <v>2</v>
-      </c>
-      <c r="F34" s="37">
-        <v>2</v>
-      </c>
-      <c r="G34" s="37">
-        <v>2</v>
-      </c>
-      <c r="H34" s="50">
-        <v>2</v>
-      </c>
-      <c r="I34" s="50">
-        <v>2</v>
-      </c>
-      <c r="J34" s="37">
-        <v>2</v>
-      </c>
-      <c r="K34" s="37">
-        <v>2</v>
-      </c>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="28">
-        <f t="shared" ref="N34:N36" si="17">D34+F34+H34+J34+L34</f>
-        <v>8</v>
-      </c>
-      <c r="O34" s="37">
-        <f>E34+G34+I34+K34+M34</f>
+      <c r="A34" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="K34" s="102"/>
+      <c r="L34" s="94"/>
+      <c r="M34" s="94"/>
+      <c r="N34" s="95">
+        <f>SUM(N23:N33)</f>
+        <v>18.5</v>
+      </c>
+      <c r="O34" s="95">
+        <f>SUM(O23:O33)</f>
         <v>8</v>
       </c>
     </row>
@@ -2248,65 +2243,81 @@
       <c r="A35" s="30">
         <v>4</v>
       </c>
-      <c r="B35" s="79">
+      <c r="B35" s="75">
         <v>42338</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="49">
-        <v>0.5</v>
-      </c>
-      <c r="E35" s="49"/>
+        <v>21</v>
+      </c>
+      <c r="D35" s="47">
+        <v>2</v>
+      </c>
+      <c r="E35" s="47">
+        <v>2</v>
+      </c>
       <c r="F35" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="G35" s="37"/>
-      <c r="H35" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="I35" s="50"/>
+        <v>2</v>
+      </c>
+      <c r="G35" s="37">
+        <v>2</v>
+      </c>
+      <c r="H35" s="48">
+        <v>2</v>
+      </c>
+      <c r="I35" s="48">
+        <v>2</v>
+      </c>
       <c r="J35" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K35" s="37"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="36">
-        <f t="shared" si="17"/>
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="K35" s="37">
+        <v>2</v>
+      </c>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
+      <c r="N35" s="28">
+        <f t="shared" ref="N35:N37" si="22">D35+F35+H35+J35+L35</f>
+        <v>8</v>
       </c>
       <c r="O35" s="37">
-        <f t="shared" ref="O35:O37" si="18">E35+G35+I35+K35+M35</f>
-        <v>0</v>
+        <f>E35+G35+I35+K35+M35</f>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="30">
         <v>4</v>
       </c>
-      <c r="B36" s="79"/>
+      <c r="B36" s="75">
+        <v>42338</v>
+      </c>
       <c r="C36" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="49">
-        <v>0.25</v>
-      </c>
-      <c r="E36" s="49"/>
-      <c r="F36" s="37"/>
+        <v>63</v>
+      </c>
+      <c r="D36" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="47"/>
+      <c r="F36" s="37">
+        <v>1</v>
+      </c>
       <c r="G36" s="37"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="37"/>
+      <c r="H36" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I36" s="48"/>
+      <c r="J36" s="37">
+        <v>0.5</v>
+      </c>
       <c r="K36" s="37"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
+      <c r="L36" s="58"/>
+      <c r="M36" s="58"/>
       <c r="N36" s="36">
-        <f t="shared" si="17"/>
-        <v>0.25</v>
+        <f t="shared" si="22"/>
+        <v>2.5</v>
       </c>
       <c r="O36" s="37">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="O36:O38" si="23">E36+G36+I36+K36+M36</f>
         <v>0</v>
       </c>
     </row>
@@ -2314,28 +2325,28 @@
       <c r="A37" s="30">
         <v>4</v>
       </c>
-      <c r="B37" s="79">
-        <v>42338</v>
-      </c>
-      <c r="C37" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="E37" s="47"/>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
       <c r="J37" s="37"/>
       <c r="K37" s="37"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
       <c r="N37" s="36">
-        <f>D37+F37+H37+J37+L37</f>
-        <v>0</v>
+        <f t="shared" si="22"/>
+        <v>0.25</v>
       </c>
       <c r="O37" s="37">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -2343,28 +2354,28 @@
       <c r="A38" s="30">
         <v>4</v>
       </c>
-      <c r="B38" s="79">
-        <v>42340</v>
-      </c>
-      <c r="C38" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
+      <c r="B38" s="75">
+        <v>42338</v>
+      </c>
+      <c r="C38" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
       <c r="J38" s="37"/>
       <c r="K38" s="37"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="51"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
       <c r="N38" s="36">
         <f>D38+F38+H38+J38+L38</f>
         <v>0</v>
       </c>
       <c r="O38" s="37">
-        <f t="shared" ref="O38" si="19">E38+G38+I38+K38+M38</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -2372,43 +2383,55 @@
       <c r="A39" s="30">
         <v>4</v>
       </c>
-      <c r="B39" s="79"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="37"/>
+      <c r="B39" s="75">
+        <v>42340</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="47"/>
+      <c r="F39" s="37">
+        <v>1</v>
+      </c>
       <c r="G39" s="37"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="37"/>
+      <c r="H39" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I39" s="48"/>
+      <c r="J39" s="37">
+        <v>0.5</v>
+      </c>
       <c r="K39" s="37"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
       <c r="N39" s="36">
         <f>D39+F39+H39+J39+L39</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O39" s="37">
-        <f>E39+G39+I39+K39+M39</f>
+        <f t="shared" ref="O39" si="24">E39+G39+I39+K39+M39</f>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="85">
+      <c r="A40" s="30">
         <v>4</v>
       </c>
-      <c r="B40" s="86"/>
-      <c r="C40" s="87"/>
-      <c r="D40" s="93"/>
-      <c r="E40" s="93"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="94"/>
-      <c r="I40" s="94"/>
-      <c r="J40" s="91"/>
-      <c r="K40" s="91"/>
-      <c r="L40" s="90"/>
-      <c r="M40" s="90"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="49"/>
+      <c r="M40" s="49"/>
       <c r="N40" s="36">
         <f>D40+F40+H40+J40+L40</f>
         <v>0</v>
@@ -2419,124 +2442,128 @@
       </c>
     </row>
     <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="38">
+      <c r="A41" s="81">
         <v>4</v>
       </c>
-      <c r="B41" s="80">
+      <c r="B41" s="82"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="86"/>
+      <c r="N41" s="36">
+        <f>D41+F41+H41+J41+L41</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="37">
+        <f>E41+G41+I41+K41+M41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="38">
+        <v>4</v>
+      </c>
+      <c r="B42" s="76">
         <v>42344</v>
       </c>
-      <c r="C41" s="73" t="s">
+      <c r="C42" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="D41" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E41" s="40"/>
-      <c r="F41" s="66">
-        <v>0.25</v>
-      </c>
-      <c r="G41" s="66"/>
-      <c r="H41" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I41" s="42"/>
-      <c r="J41" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="K41" s="41"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-      <c r="N41" s="44">
-        <f>D41+F41+H41+J41+L41</f>
-        <v>1</v>
-      </c>
-      <c r="O41" s="45">
-        <f>E41+G41+I41+K41+M41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="104" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="104"/>
-      <c r="C42" s="104"/>
-      <c r="D42" s="104"/>
-      <c r="E42" s="104"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="104"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="104"/>
-      <c r="J42" s="105" t="s">
-        <v>51</v>
-      </c>
-      <c r="K42" s="105"/>
-      <c r="L42" s="101"/>
-      <c r="M42" s="101"/>
-      <c r="N42" s="102">
-        <f>SUM(N34:N41)</f>
-        <v>11.25</v>
-      </c>
-      <c r="O42" s="102">
-        <f>SUM(O34:O41)</f>
+      <c r="D42" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E42" s="40"/>
+      <c r="F42" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="G42" s="62"/>
+      <c r="H42" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="I42" s="42"/>
+      <c r="J42" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="K42" s="41"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="44">
+        <f>D42+F42+H42+J42+L42</f>
+        <v>1</v>
+      </c>
+      <c r="O42" s="45">
+        <f>E42+G42+I42+K42+M42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="102" t="s">
+        <v>49</v>
+      </c>
+      <c r="K43" s="102"/>
+      <c r="L43" s="94"/>
+      <c r="M43" s="94"/>
+      <c r="N43" s="95">
+        <f>SUM(N35:N42)</f>
+        <v>14.25</v>
+      </c>
+      <c r="O43" s="95">
+        <f>SUM(O35:O42)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="23">
+    <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="23">
         <v>4</v>
       </c>
-      <c r="B43" s="78">
+      <c r="B44" s="74">
         <v>42345</v>
       </c>
-      <c r="C43" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="28">
-        <f t="shared" ref="N43" si="20">D43+F43+H43+J43+L43</f>
-        <v>0</v>
-      </c>
-      <c r="O43" s="29">
-        <f t="shared" ref="O43" si="21">E43+G43+I43+K43+M43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="30">
-        <v>5</v>
-      </c>
-      <c r="B44" s="79">
-        <v>42345</v>
-      </c>
-      <c r="C44" s="59" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="37"/>
+      <c r="C44" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="47"/>
+      <c r="F44" s="37">
+        <v>1</v>
+      </c>
       <c r="G44" s="37"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="51"/>
-      <c r="M44" s="51"/>
-      <c r="N44" s="36">
-        <f t="shared" ref="N44" si="22">D44+F44+H44+J44+L44</f>
-        <v>0</v>
-      </c>
-      <c r="O44" s="37">
-        <f t="shared" ref="O44" si="23">E44+G44+I44+K44+M44</f>
+      <c r="H44" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I44" s="48"/>
+      <c r="J44" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K44" s="29"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="28">
+        <f t="shared" ref="N44" si="25">D44+F44+H44+J44+L44</f>
+        <v>2.5</v>
+      </c>
+      <c r="O44" s="29">
+        <f t="shared" ref="O44" si="26">E44+G44+I44+K44+M44</f>
         <v>0</v>
       </c>
     </row>
@@ -2544,25 +2571,28 @@
       <c r="A45" s="30">
         <v>5</v>
       </c>
-      <c r="B45" s="79">
+      <c r="B45" s="75">
         <v>42345</v>
       </c>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
+      <c r="C45" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
       <c r="N45" s="36">
-        <f t="shared" ref="N45:O49" si="24">D45+F45+H45+J45+L45</f>
+        <f t="shared" ref="N45" si="27">D45+F45+H45+J45+L45</f>
         <v>0</v>
       </c>
       <c r="O45" s="37">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="O45" si="28">E45+G45+I45+K45+M45</f>
         <v>0</v>
       </c>
     </row>
@@ -2570,28 +2600,25 @@
       <c r="A46" s="30">
         <v>5</v>
       </c>
-      <c r="B46" s="79">
-        <v>42347</v>
-      </c>
-      <c r="C46" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
+      <c r="B46" s="75">
+        <v>42345</v>
+      </c>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
       <c r="J46" s="37"/>
       <c r="K46" s="37"/>
-      <c r="L46" s="51"/>
-      <c r="M46" s="51"/>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
       <c r="N46" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="N46:O50" si="29">D46+F46+H46+J46+L46</f>
         <v>0</v>
       </c>
       <c r="O46" s="37">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -2599,200 +2626,226 @@
       <c r="A47" s="30">
         <v>5</v>
       </c>
-      <c r="B47" s="79"/>
-      <c r="C47" s="59" t="s">
-        <v>39</v>
-      </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="37"/>
+      <c r="B47" s="75">
+        <v>42347</v>
+      </c>
+      <c r="C47" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="47"/>
+      <c r="F47" s="37">
+        <v>1</v>
+      </c>
       <c r="G47" s="37"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="37"/>
+      <c r="H47" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I47" s="48"/>
+      <c r="J47" s="37">
+        <v>0.5</v>
+      </c>
       <c r="K47" s="37"/>
-      <c r="L47" s="51"/>
-      <c r="M47" s="51"/>
+      <c r="L47" s="49"/>
+      <c r="M47" s="49"/>
       <c r="N47" s="36">
-        <f t="shared" si="24"/>
-        <v>0</v>
+        <f t="shared" si="29"/>
+        <v>2.5</v>
       </c>
       <c r="O47" s="37">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="85">
+      <c r="A48" s="30">
         <v>5</v>
       </c>
-      <c r="B48" s="86"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="91"/>
-      <c r="G48" s="91"/>
-      <c r="H48" s="94"/>
-      <c r="I48" s="94"/>
-      <c r="J48" s="91"/>
-      <c r="K48" s="91"/>
-      <c r="L48" s="90"/>
-      <c r="M48" s="90"/>
+      <c r="B48" s="75"/>
+      <c r="C48" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="37"/>
+      <c r="L48" s="49"/>
+      <c r="M48" s="49"/>
       <c r="N48" s="36">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O48" s="37">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="38">
+      <c r="A49" s="81">
         <v>5</v>
       </c>
-      <c r="B49" s="80">
+      <c r="B49" s="82"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="87"/>
+      <c r="K49" s="87"/>
+      <c r="L49" s="86"/>
+      <c r="M49" s="86"/>
+      <c r="N49" s="36">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="37">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="38">
+        <v>5</v>
+      </c>
+      <c r="B50" s="76">
         <v>42351</v>
       </c>
-      <c r="C49" s="73" t="s">
+      <c r="C50" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="D49" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E49" s="40"/>
-      <c r="F49" s="66">
-        <v>0.25</v>
-      </c>
-      <c r="G49" s="66"/>
-      <c r="H49" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I49" s="42"/>
-      <c r="J49" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="K49" s="41"/>
-      <c r="L49" s="52"/>
-      <c r="M49" s="52"/>
-      <c r="N49" s="44">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="O49" s="45">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50" s="104"/>
-      <c r="C50" s="104"/>
-      <c r="D50" s="104"/>
-      <c r="E50" s="104"/>
-      <c r="F50" s="104"/>
-      <c r="G50" s="104"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="104"/>
-      <c r="J50" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="K50" s="105"/>
-      <c r="L50" s="101"/>
-      <c r="M50" s="101"/>
-      <c r="N50" s="102">
-        <f>SUM(N43:N49)</f>
-        <v>1</v>
-      </c>
-      <c r="O50" s="102">
-        <f>SUM(O43:O49)</f>
+      <c r="D50" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E50" s="40"/>
+      <c r="F50" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="G50" s="62"/>
+      <c r="H50" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="I50" s="42"/>
+      <c r="J50" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="K50" s="41"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="44">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="O50" s="45">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="23">
+      <c r="A51" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="103"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="103"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="103"/>
+      <c r="I51" s="103"/>
+      <c r="J51" s="102" t="s">
+        <v>50</v>
+      </c>
+      <c r="K51" s="102"/>
+      <c r="L51" s="94"/>
+      <c r="M51" s="94"/>
+      <c r="N51" s="95">
+        <f>SUM(N44:N50)</f>
         <v>6</v>
       </c>
-      <c r="B51" s="78">
+      <c r="O51" s="95">
+        <f>SUM(O44:O50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="23">
+        <v>6</v>
+      </c>
+      <c r="B52" s="74">
         <v>42352</v>
       </c>
-      <c r="C51" s="99" t="s">
-        <v>31</v>
-      </c>
-      <c r="D51" s="46"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="47"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="29"/>
-      <c r="L51" s="48"/>
-      <c r="M51" s="48"/>
-      <c r="N51" s="28">
-        <f t="shared" ref="N51:O58" si="25">D51+F51+H51+J51+L51</f>
-        <v>0</v>
-      </c>
-      <c r="O51" s="29">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="68">
+      <c r="C52" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E52" s="47"/>
+      <c r="F52" s="37">
+        <v>1</v>
+      </c>
+      <c r="G52" s="37"/>
+      <c r="H52" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I52" s="48"/>
+      <c r="J52" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K52" s="29"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="28">
+        <f t="shared" ref="N52:O59" si="30">D52+F52+H52+J52+L52</f>
+        <v>2.5</v>
+      </c>
+      <c r="O52" s="29">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="64">
         <v>6</v>
       </c>
-      <c r="B52" s="81">
+      <c r="B53" s="77">
         <v>42354</v>
       </c>
-      <c r="C52" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D52" s="112"/>
-      <c r="E52" s="112"/>
-      <c r="F52" s="113"/>
-      <c r="G52" s="113"/>
-      <c r="H52" s="114"/>
-      <c r="I52" s="114"/>
-      <c r="J52" s="113"/>
-      <c r="K52" s="113"/>
-      <c r="L52" s="115"/>
-      <c r="M52" s="115"/>
-      <c r="N52" s="116">
-        <f t="shared" ref="N52:N53" si="26">D52+F52+H52+J52+L52</f>
-        <v>0</v>
-      </c>
-      <c r="O52" s="113">
-        <f t="shared" ref="O52:O53" si="27">E52+G52+I52+K52+M52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="30">
-        <v>6</v>
-      </c>
-      <c r="B53" s="79"/>
-      <c r="C53" s="59" t="s">
-        <v>26</v>
-      </c>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="51"/>
-      <c r="M53" s="51"/>
-      <c r="N53" s="36">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="O53" s="37">
-        <f t="shared" si="27"/>
+      <c r="C53" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E53" s="47"/>
+      <c r="F53" s="37">
+        <v>1</v>
+      </c>
+      <c r="G53" s="37"/>
+      <c r="H53" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I53" s="48"/>
+      <c r="J53" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K53" s="97"/>
+      <c r="L53" s="98"/>
+      <c r="M53" s="98"/>
+      <c r="N53" s="99">
+        <f t="shared" ref="N53:N54" si="31">D53+F53+H53+J53+L53</f>
+        <v>2.5</v>
+      </c>
+      <c r="O53" s="97">
+        <f t="shared" ref="O53:O54" si="32">E53+G53+I53+K53+M53</f>
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +2853,26 @@
       <c r="A54" s="30">
         <v>6</v>
       </c>
-      <c r="B54" s="79"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
       <c r="F54" s="30"/>
       <c r="G54" s="30"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
       <c r="J54" s="30"/>
       <c r="K54" s="30"/>
-      <c r="L54" s="51"/>
-      <c r="M54" s="51"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="49"/>
       <c r="N54" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O54" s="37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
     </row>
@@ -2825,24 +2880,24 @@
       <c r="A55" s="30">
         <v>6</v>
       </c>
-      <c r="B55" s="79"/>
+      <c r="B55" s="75"/>
       <c r="C55" s="31"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
       <c r="F55" s="30"/>
       <c r="G55" s="30"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="52"/>
       <c r="J55" s="30"/>
       <c r="K55" s="30"/>
-      <c r="L55" s="51"/>
-      <c r="M55" s="51"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="49"/>
       <c r="N55" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O55" s="37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
@@ -2850,171 +2905,175 @@
       <c r="A56" s="30">
         <v>6</v>
       </c>
-      <c r="B56" s="79"/>
+      <c r="B56" s="75"/>
       <c r="C56" s="31"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
       <c r="F56" s="30"/>
       <c r="G56" s="30"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
       <c r="J56" s="30"/>
       <c r="K56" s="30"/>
-      <c r="L56" s="51"/>
-      <c r="M56" s="51"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="49"/>
       <c r="N56" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O56" s="37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="85">
+      <c r="A57" s="30">
         <v>6</v>
       </c>
-      <c r="B57" s="86"/>
-      <c r="C57" s="87"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="88"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="89"/>
-      <c r="I57" s="89"/>
-      <c r="J57" s="85"/>
-      <c r="K57" s="85"/>
-      <c r="L57" s="90"/>
-      <c r="M57" s="90"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="52"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="49"/>
+      <c r="M57" s="49"/>
       <c r="N57" s="36">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O57" s="37">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="38">
+      <c r="A58" s="81">
         <v>6</v>
       </c>
-      <c r="B58" s="80">
+      <c r="B58" s="82"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="85"/>
+      <c r="I58" s="85"/>
+      <c r="J58" s="81"/>
+      <c r="K58" s="81"/>
+      <c r="L58" s="86"/>
+      <c r="M58" s="86"/>
+      <c r="N58" s="36">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="37">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="38">
+        <v>6</v>
+      </c>
+      <c r="B59" s="76">
         <v>42358</v>
       </c>
-      <c r="C58" s="73" t="s">
+      <c r="C59" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="D58" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E58" s="40"/>
-      <c r="F58" s="66">
-        <v>0.25</v>
-      </c>
-      <c r="G58" s="66"/>
-      <c r="H58" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I58" s="42"/>
-      <c r="J58" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="K58" s="41"/>
-      <c r="L58" s="52"/>
-      <c r="M58" s="52"/>
-      <c r="N58" s="44">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="O58" s="45">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="104" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" s="104"/>
-      <c r="C59" s="104"/>
-      <c r="D59" s="104"/>
-      <c r="E59" s="104"/>
-      <c r="F59" s="104"/>
-      <c r="G59" s="104"/>
-      <c r="H59" s="104"/>
-      <c r="I59" s="104"/>
-      <c r="J59" s="104" t="s">
-        <v>53</v>
-      </c>
-      <c r="K59" s="105"/>
-      <c r="L59" s="101"/>
-      <c r="M59" s="101"/>
-      <c r="N59" s="102">
-        <f>SUM(N51:N58)</f>
-        <v>1</v>
-      </c>
-      <c r="O59" s="102">
-        <f>SUM(O51:O58)</f>
+      <c r="D59" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E59" s="40"/>
+      <c r="F59" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="G59" s="62"/>
+      <c r="H59" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="I59" s="42"/>
+      <c r="J59" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="K59" s="41"/>
+      <c r="L59" s="50"/>
+      <c r="M59" s="50"/>
+      <c r="N59" s="44">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="O59" s="45">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="23" t="s">
+      <c r="A60" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="103"/>
+      <c r="C60" s="103"/>
+      <c r="D60" s="103"/>
+      <c r="E60" s="103"/>
+      <c r="F60" s="103"/>
+      <c r="G60" s="103"/>
+      <c r="H60" s="103"/>
+      <c r="I60" s="103"/>
+      <c r="J60" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="K60" s="102"/>
+      <c r="L60" s="94"/>
+      <c r="M60" s="94"/>
+      <c r="N60" s="95">
+        <f>SUM(N52:N59)</f>
+        <v>6</v>
+      </c>
+      <c r="O60" s="95">
+        <f>SUM(O52:O59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B60" s="78">
+      <c r="B61" s="74">
         <v>42380</v>
       </c>
-      <c r="C60" s="99" t="s">
-        <v>31</v>
-      </c>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="58"/>
-      <c r="I60" s="58"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="48"/>
-      <c r="M60" s="48"/>
-      <c r="N60" s="28">
-        <f t="shared" ref="N60:O65" si="28">D60+F60+H60+J60+L60</f>
-        <v>0</v>
-      </c>
-      <c r="O60" s="29">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B61" s="79">
-        <v>42381</v>
-      </c>
-      <c r="C61" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="51"/>
-      <c r="M61" s="51"/>
-      <c r="N61" s="36">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="O61" s="37">
-        <f t="shared" si="28"/>
+      <c r="C61" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E61" s="47"/>
+      <c r="F61" s="37">
+        <v>1</v>
+      </c>
+      <c r="G61" s="37"/>
+      <c r="H61" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I61" s="48"/>
+      <c r="J61" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K61" s="23"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="28">
+        <f t="shared" ref="N61:O66" si="33">D61+F61+H61+J61+L61</f>
+        <v>2.5</v>
+      </c>
+      <c r="O61" s="29">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -3022,57 +3081,73 @@
       <c r="A62" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="79">
-        <v>42382</v>
-      </c>
-      <c r="C62" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="30"/>
+      <c r="B62" s="75">
+        <v>42381</v>
+      </c>
+      <c r="C62" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E62" s="47"/>
+      <c r="F62" s="37">
+        <v>1</v>
+      </c>
+      <c r="G62" s="37"/>
+      <c r="H62" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I62" s="48"/>
+      <c r="J62" s="37">
+        <v>0.5</v>
+      </c>
       <c r="K62" s="30"/>
-      <c r="L62" s="51"/>
-      <c r="M62" s="51"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
       <c r="N62" s="36">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>2.5</v>
       </c>
       <c r="O62" s="37">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B63" s="79">
-        <v>42383</v>
-      </c>
-      <c r="C63" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="30"/>
+      <c r="B63" s="75">
+        <v>42382</v>
+      </c>
+      <c r="C63" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E63" s="47"/>
+      <c r="F63" s="37">
+        <v>1</v>
+      </c>
+      <c r="G63" s="37"/>
+      <c r="H63" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I63" s="48"/>
+      <c r="J63" s="37">
+        <v>0.5</v>
+      </c>
       <c r="K63" s="30"/>
-      <c r="L63" s="51"/>
-      <c r="M63" s="51"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="49"/>
       <c r="N63" s="36">
-        <f t="shared" si="28"/>
-        <v>0</v>
+        <f t="shared" si="33"/>
+        <v>2.5</v>
       </c>
       <c r="O63" s="37">
-        <f t="shared" si="28"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -3080,138 +3155,162 @@
       <c r="A64" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="79">
+      <c r="B64" s="75">
+        <v>42383</v>
+      </c>
+      <c r="C64" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E64" s="47"/>
+      <c r="F64" s="37">
+        <v>1</v>
+      </c>
+      <c r="G64" s="37"/>
+      <c r="H64" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I64" s="48"/>
+      <c r="J64" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K64" s="30"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="36">
+        <f t="shared" si="33"/>
+        <v>2.5</v>
+      </c>
+      <c r="O64" s="37">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="75">
         <v>42384</v>
       </c>
-      <c r="C64" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="51"/>
-      <c r="M64" s="51"/>
-      <c r="N64" s="36">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="O64" s="37">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A65" s="38" t="s">
+      <c r="C65" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E65" s="47"/>
+      <c r="F65" s="37">
+        <v>1</v>
+      </c>
+      <c r="G65" s="37"/>
+      <c r="H65" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I65" s="48"/>
+      <c r="J65" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K65" s="30"/>
+      <c r="L65" s="49"/>
+      <c r="M65" s="49"/>
+      <c r="N65" s="36">
+        <f t="shared" si="33"/>
+        <v>2.5</v>
+      </c>
+      <c r="O65" s="37">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="80"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="52"/>
-      <c r="M65" s="52"/>
-      <c r="N65" s="44">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="O65" s="45">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" s="104" t="s">
-        <v>48</v>
-      </c>
-      <c r="B66" s="104"/>
-      <c r="C66" s="104"/>
-      <c r="D66" s="104"/>
-      <c r="E66" s="104"/>
-      <c r="F66" s="104"/>
-      <c r="G66" s="104"/>
-      <c r="H66" s="104"/>
-      <c r="I66" s="104"/>
-      <c r="J66" s="104" t="s">
-        <v>54</v>
-      </c>
-      <c r="K66" s="105"/>
-      <c r="L66" s="101"/>
-      <c r="M66" s="101"/>
-      <c r="N66" s="102">
-        <f>SUM(N60:N65)</f>
-        <v>0</v>
-      </c>
-      <c r="O66" s="102">
-        <f>SUM(O60:O65)</f>
+      <c r="B66" s="76"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="50"/>
+      <c r="M66" s="50"/>
+      <c r="N66" s="44">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="45">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="23" t="s">
+      <c r="A67" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="103"/>
+      <c r="C67" s="103"/>
+      <c r="D67" s="103"/>
+      <c r="E67" s="103"/>
+      <c r="F67" s="103"/>
+      <c r="G67" s="103"/>
+      <c r="H67" s="103"/>
+      <c r="I67" s="103"/>
+      <c r="J67" s="103" t="s">
+        <v>52</v>
+      </c>
+      <c r="K67" s="102"/>
+      <c r="L67" s="94"/>
+      <c r="M67" s="94"/>
+      <c r="N67" s="95">
+        <f>SUM(N61:N66)</f>
+        <v>12.5</v>
+      </c>
+      <c r="O67" s="95">
+        <f>SUM(O61:O66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="78">
+      <c r="B68" s="74">
         <v>42387</v>
       </c>
-      <c r="C67" s="99" t="s">
-        <v>31</v>
-      </c>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="58"/>
-      <c r="I67" s="58"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="48"/>
-      <c r="M67" s="48"/>
-      <c r="N67" s="28">
-        <f t="shared" ref="N67:O73" si="29">D67+F67+H67+J67+L67</f>
-        <v>0</v>
-      </c>
-      <c r="O67" s="29">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B68" s="79">
-        <v>42388</v>
-      </c>
-      <c r="C68" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="30"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="51"/>
-      <c r="M68" s="51"/>
-      <c r="N68" s="36">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="O68" s="37">
-        <f t="shared" si="29"/>
+      <c r="C68" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E68" s="47"/>
+      <c r="F68" s="37">
+        <v>1</v>
+      </c>
+      <c r="G68" s="37"/>
+      <c r="H68" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I68" s="48"/>
+      <c r="J68" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K68" s="23"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="46"/>
+      <c r="N68" s="28">
+        <f t="shared" ref="N68:O70" si="34">D68+F68+H68+J68+L68</f>
+        <v>2.5</v>
+      </c>
+      <c r="O68" s="29">
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -3219,28 +3318,36 @@
       <c r="A69" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="79">
-        <v>42389</v>
-      </c>
-      <c r="C69" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="54"/>
-      <c r="I69" s="54"/>
-      <c r="J69" s="30"/>
+      <c r="B69" s="75">
+        <v>42388</v>
+      </c>
+      <c r="C69" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E69" s="47"/>
+      <c r="F69" s="37">
+        <v>1</v>
+      </c>
+      <c r="G69" s="37"/>
+      <c r="H69" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I69" s="48"/>
+      <c r="J69" s="37">
+        <v>0.5</v>
+      </c>
       <c r="K69" s="30"/>
-      <c r="L69" s="51"/>
-      <c r="M69" s="51"/>
+      <c r="L69" s="49"/>
+      <c r="M69" s="49"/>
       <c r="N69" s="36">
-        <f t="shared" si="29"/>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>2.5</v>
       </c>
       <c r="O69" s="37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -3248,28 +3355,36 @@
       <c r="A70" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="79">
-        <v>42390</v>
-      </c>
-      <c r="C70" s="117" t="s">
-        <v>31</v>
-      </c>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="54"/>
-      <c r="I70" s="54"/>
-      <c r="J70" s="30"/>
+      <c r="B70" s="75">
+        <v>42389</v>
+      </c>
+      <c r="C70" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E70" s="47"/>
+      <c r="F70" s="37">
+        <v>1</v>
+      </c>
+      <c r="G70" s="37"/>
+      <c r="H70" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I70" s="48"/>
+      <c r="J70" s="37">
+        <v>0.5</v>
+      </c>
       <c r="K70" s="30"/>
-      <c r="L70" s="51"/>
-      <c r="M70" s="51"/>
+      <c r="L70" s="49"/>
+      <c r="M70" s="49"/>
       <c r="N70" s="36">
-        <f t="shared" ref="N70:N73" si="30">D70+F70+H70+J70+L70</f>
-        <v>0</v>
+        <f t="shared" si="34"/>
+        <v>2.5</v>
       </c>
       <c r="O70" s="37">
-        <f t="shared" ref="O70:O73" si="31">E70+G70+I70+K70+M70</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -3277,28 +3392,36 @@
       <c r="A71" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="79">
-        <v>42391</v>
-      </c>
-      <c r="C71" s="59" t="s">
-        <v>31</v>
-      </c>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="54"/>
-      <c r="I71" s="54"/>
-      <c r="J71" s="30"/>
+      <c r="B71" s="75">
+        <v>42390</v>
+      </c>
+      <c r="C71" s="100" t="s">
+        <v>63</v>
+      </c>
+      <c r="D71" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E71" s="47"/>
+      <c r="F71" s="37">
+        <v>1</v>
+      </c>
+      <c r="G71" s="37"/>
+      <c r="H71" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I71" s="48"/>
+      <c r="J71" s="37">
+        <v>0.5</v>
+      </c>
       <c r="K71" s="30"/>
-      <c r="L71" s="51"/>
-      <c r="M71" s="51"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="49"/>
       <c r="N71" s="36">
-        <f t="shared" si="30"/>
-        <v>0</v>
+        <f t="shared" ref="N71:N74" si="35">D71+F71+H71+J71+L71</f>
+        <v>2.5</v>
       </c>
       <c r="O71" s="37">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="O71:O74" si="36">E71+G71+I71+K71+M71</f>
         <v>0</v>
       </c>
     </row>
@@ -3306,136 +3429,189 @@
       <c r="A72" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="86"/>
-      <c r="C72" s="92"/>
-      <c r="D72" s="88"/>
-      <c r="E72" s="88"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="85"/>
-      <c r="H72" s="89"/>
-      <c r="I72" s="89"/>
-      <c r="J72" s="85"/>
-      <c r="K72" s="85"/>
-      <c r="L72" s="90"/>
-      <c r="M72" s="90"/>
-      <c r="N72" s="118">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="O72" s="91">
-        <f t="shared" si="31"/>
+      <c r="B72" s="75">
+        <v>42391</v>
+      </c>
+      <c r="C72" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="D72" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E72" s="47"/>
+      <c r="F72" s="37">
+        <v>1</v>
+      </c>
+      <c r="G72" s="37"/>
+      <c r="H72" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I72" s="48"/>
+      <c r="J72" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K72" s="30"/>
+      <c r="L72" s="49"/>
+      <c r="M72" s="49"/>
+      <c r="N72" s="36">
+        <f t="shared" si="35"/>
+        <v>2.5</v>
+      </c>
+      <c r="O72" s="37">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" s="38"/>
-      <c r="B73" s="80">
+      <c r="A73" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" s="82"/>
+      <c r="C73" s="88"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="84"/>
+      <c r="F73" s="81"/>
+      <c r="G73" s="81"/>
+      <c r="H73" s="85"/>
+      <c r="I73" s="85"/>
+      <c r="J73" s="81"/>
+      <c r="K73" s="81"/>
+      <c r="L73" s="86"/>
+      <c r="M73" s="86"/>
+      <c r="N73" s="101">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="O73" s="87">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" s="38"/>
+      <c r="B74" s="76">
         <v>42393</v>
       </c>
-      <c r="C73" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="D73" s="55"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="38"/>
-      <c r="K73" s="38"/>
-      <c r="L73" s="52"/>
-      <c r="M73" s="52"/>
-      <c r="N73" s="44">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="O73" s="45">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74" s="3"/>
-      <c r="B74" s="82"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="104" t="s">
-        <v>55</v>
-      </c>
-      <c r="K74" s="105"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="8">
-        <f>SUM(N67:N73)</f>
-        <v>0</v>
-      </c>
-      <c r="O74" s="4">
-        <f>SUM(O67:O73)</f>
+      <c r="C74" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74" s="53"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="50"/>
+      <c r="M74" s="50"/>
+      <c r="N74" s="44">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="O74" s="45">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A75" s="9"/>
-      <c r="B75" s="83"/>
-      <c r="C75" s="10" t="s">
+      <c r="A75" s="3"/>
+      <c r="B75" s="78"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="103" t="s">
+        <v>53</v>
+      </c>
+      <c r="K75" s="102"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="8">
+        <f>SUM(N68:N74)</f>
+        <v>12.5</v>
+      </c>
+      <c r="O75" s="4">
+        <f>SUM(O68:O74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" s="9"/>
+      <c r="B76" s="79"/>
+      <c r="C76" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="11">
-        <f t="shared" ref="D75:M75" si="32">SUM(D4:D74)</f>
-        <v>21</v>
-      </c>
-      <c r="E75" s="11">
-        <f t="shared" si="32"/>
-        <v>17</v>
-      </c>
-      <c r="F75" s="11">
-        <f t="shared" si="32"/>
+      <c r="D76" s="11">
+        <f>SUM(D4:D75)</f>
+        <v>31</v>
+      </c>
+      <c r="E76" s="11">
+        <f>SUM(E4:E75)</f>
+        <v>19.75</v>
+      </c>
+      <c r="F76" s="11">
+        <f>SUM(F4:F75)</f>
+        <v>39</v>
+      </c>
+      <c r="G76" s="11">
+        <f>SUM(G4:G75)</f>
         <v>19.5</v>
       </c>
-      <c r="G75" s="11">
-        <f t="shared" si="32"/>
-        <v>16.25</v>
-      </c>
-      <c r="H75" s="11">
-        <f t="shared" si="32"/>
+      <c r="H76" s="11">
+        <f>SUM(H4:H75)</f>
+        <v>29</v>
+      </c>
+      <c r="I76" s="11">
+        <f>SUM(I4:I75)</f>
+        <v>19</v>
+      </c>
+      <c r="J76" s="11">
+        <f>SUM(J4:J75)</f>
+        <v>32</v>
+      </c>
+      <c r="K76" s="11">
+        <f>SUM(K4:K75)</f>
         <v>19.5</v>
       </c>
-      <c r="I75" s="11">
-        <f t="shared" si="32"/>
-        <v>16.25</v>
-      </c>
-      <c r="J75" s="11">
-        <f t="shared" si="32"/>
-        <v>20.5</v>
-      </c>
-      <c r="K75" s="11">
-        <f t="shared" si="32"/>
-        <v>16.75</v>
-      </c>
-      <c r="L75" s="11">
-        <f t="shared" si="32"/>
-        <v>0.5</v>
-      </c>
-      <c r="M75" s="11">
-        <f t="shared" si="32"/>
-        <v>0.5</v>
-      </c>
-      <c r="N75" s="9">
-        <f>D75+F75+H75+J75+L75</f>
-        <v>81</v>
-      </c>
-      <c r="O75" s="11">
-        <f>E75+G75+I75+K75+M75</f>
-        <v>66.75</v>
+      <c r="L76" s="11">
+        <f>SUM(L4:L75)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M76" s="11">
+        <f>SUM(M4:M75)</f>
+        <v>0.5</v>
+      </c>
+      <c r="N76" s="9">
+        <f>D76+F76+H76+J76+L76</f>
+        <v>131.5</v>
+      </c>
+      <c r="O76" s="11">
+        <f>E76+G76+I76+K76+M76</f>
+        <v>78.25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="A67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="J43:K43"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="E2:F2"/>
@@ -3444,22 +3620,6 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="A59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="A66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="J42:K42"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -3485,15 +3645,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -3654,29 +3819,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3694,26 +3870,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
+++ b/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>Vergaderen en notuleren</t>
+  </si>
+  <si>
+    <t>requirements architecture</t>
   </si>
 </sst>
 </file>
@@ -711,32 +714,32 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1044,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1073,18 +1076,18 @@
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="104" t="s">
+      <c r="E2" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="104"/>
+      <c r="F2" s="106"/>
       <c r="H2" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="109">
+      <c r="I2" s="105">
         <f ca="1">TODAY()</f>
-        <v>42326</v>
-      </c>
-      <c r="J2" s="109"/>
+        <v>42331</v>
+      </c>
+      <c r="J2" s="105"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -1136,26 +1139,26 @@
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="73"/>
-      <c r="D4" s="107" t="s">
+      <c r="D4" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="107"/>
-      <c r="F4" s="102" t="s">
+      <c r="E4" s="109"/>
+      <c r="F4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="102"/>
-      <c r="H4" s="108" t="s">
+      <c r="G4" s="104"/>
+      <c r="H4" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="108"/>
-      <c r="J4" s="102" t="s">
+      <c r="I4" s="110"/>
+      <c r="J4" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="102"/>
-      <c r="L4" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="106"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="107" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="108"/>
       <c r="N4" s="22"/>
       <c r="O4" s="16"/>
     </row>
@@ -1171,8 +1174,8 @@
       <c r="G5" s="103"/>
       <c r="H5" s="103"/>
       <c r="I5" s="103"/>
-      <c r="J5" s="102"/>
-      <c r="K5" s="102"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
       <c r="L5" s="94"/>
       <c r="M5" s="94"/>
       <c r="N5" s="95"/>
@@ -1407,10 +1410,10 @@
       <c r="G11" s="103"/>
       <c r="H11" s="103"/>
       <c r="I11" s="103"/>
-      <c r="J11" s="102" t="s">
+      <c r="J11" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="102"/>
+      <c r="K11" s="104"/>
       <c r="L11" s="94"/>
       <c r="M11" s="94"/>
       <c r="N11" s="95">
@@ -1646,7 +1649,7 @@
       <c r="B17" s="75">
         <v>42326</v>
       </c>
-      <c r="C17" s="110" t="s">
+      <c r="C17" s="102" t="s">
         <v>62</v>
       </c>
       <c r="D17" s="32">
@@ -1742,15 +1745,21 @@
       <c r="D19" s="32">
         <v>1.5</v>
       </c>
-      <c r="E19" s="32"/>
+      <c r="E19" s="32">
+        <v>1.5</v>
+      </c>
       <c r="F19" s="33">
         <v>1.5</v>
       </c>
-      <c r="G19" s="33"/>
+      <c r="G19" s="33">
+        <v>1.5</v>
+      </c>
       <c r="H19" s="34">
         <v>1</v>
       </c>
-      <c r="I19" s="34"/>
+      <c r="I19" s="34">
+        <v>1</v>
+      </c>
       <c r="J19" s="33"/>
       <c r="K19" s="33"/>
       <c r="L19" s="35"/>
@@ -1761,7 +1770,7 @@
       </c>
       <c r="O19" s="37">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1783,7 +1792,9 @@
       <c r="J20" s="33">
         <v>3</v>
       </c>
-      <c r="K20" s="33"/>
+      <c r="K20" s="33">
+        <v>3</v>
+      </c>
       <c r="L20" s="35"/>
       <c r="M20" s="35"/>
       <c r="N20" s="36">
@@ -1792,7 +1803,7 @@
       </c>
       <c r="O20" s="37">
         <f t="shared" ref="O20:O21" si="12">E20+G20+I20+K20+M20</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1808,19 +1819,27 @@
       <c r="D21" s="40">
         <v>0.25</v>
       </c>
-      <c r="E21" s="40"/>
+      <c r="E21" s="40">
+        <v>0.25</v>
+      </c>
       <c r="F21" s="62">
         <v>0.25</v>
       </c>
-      <c r="G21" s="62"/>
+      <c r="G21" s="62">
+        <v>0.25</v>
+      </c>
       <c r="H21" s="42">
         <v>0.25</v>
       </c>
-      <c r="I21" s="42"/>
+      <c r="I21" s="42">
+        <v>0.25</v>
+      </c>
       <c r="J21" s="41">
         <v>0.25</v>
       </c>
-      <c r="K21" s="41"/>
+      <c r="K21" s="41">
+        <v>0.25</v>
+      </c>
       <c r="L21" s="43"/>
       <c r="M21" s="43"/>
       <c r="N21" s="36">
@@ -1829,7 +1848,7 @@
       </c>
       <c r="O21" s="37">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1844,10 +1863,10 @@
       <c r="G22" s="103"/>
       <c r="H22" s="103"/>
       <c r="I22" s="103"/>
-      <c r="J22" s="102" t="s">
+      <c r="J22" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="K22" s="102"/>
+      <c r="K22" s="104"/>
       <c r="L22" s="94"/>
       <c r="M22" s="94"/>
       <c r="N22" s="95">
@@ -1856,7 +1875,7 @@
       </c>
       <c r="O22" s="95">
         <f>SUM(O12:O21)</f>
-        <v>30.25</v>
+        <v>38.25</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2038,11 +2057,11 @@
       <c r="L27" s="59"/>
       <c r="M27" s="59"/>
       <c r="N27" s="36">
-        <f t="shared" ref="N27:N32" si="19">D27+F27+H27+J27+L27</f>
+        <f t="shared" ref="N27:N33" si="19">D27+F27+H27+J27+L27</f>
         <v>0.5</v>
       </c>
       <c r="O27" s="37">
-        <f t="shared" ref="O27:O32" si="20">E27+G27+I27+K27+M27</f>
+        <f t="shared" ref="O27:O33" si="20">E27+G27+I27+K27+M27</f>
         <v>0</v>
       </c>
     </row>
@@ -2050,7 +2069,9 @@
       <c r="A28" s="30">
         <v>3</v>
       </c>
-      <c r="B28" s="75"/>
+      <c r="B28" s="75">
+        <v>42331</v>
+      </c>
       <c r="C28" s="55" t="s">
         <v>32</v>
       </c>
@@ -2066,14 +2087,22 @@
       <c r="K28" s="37"/>
       <c r="L28" s="59"/>
       <c r="M28" s="59"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="37"/>
+      <c r="N28" s="36">
+        <f t="shared" ref="N28:N29" si="21">D28+F28+H28+J28+L28</f>
+        <v>0.25</v>
+      </c>
+      <c r="O28" s="37">
+        <f t="shared" ref="O28:O29" si="22">E28+G28+I28+K28+M28</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="30">
         <v>3</v>
       </c>
-      <c r="B29" s="75"/>
+      <c r="B29" s="75">
+        <v>42331</v>
+      </c>
       <c r="C29" s="55" t="s">
         <v>35</v>
       </c>
@@ -2089,8 +2118,14 @@
       <c r="K29" s="37"/>
       <c r="L29" s="59"/>
       <c r="M29" s="59"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="37"/>
+      <c r="N29" s="36">
+        <f t="shared" si="21"/>
+        <v>0.25</v>
+      </c>
+      <c r="O29" s="37">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="30">
@@ -2100,24 +2135,32 @@
         <v>42333</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="47"/>
+        <v>64</v>
+      </c>
+      <c r="D30" s="47">
+        <v>2</v>
+      </c>
       <c r="E30" s="47"/>
-      <c r="F30" s="37"/>
+      <c r="F30" s="37">
+        <v>2</v>
+      </c>
       <c r="G30" s="37"/>
-      <c r="H30" s="48"/>
+      <c r="H30" s="48">
+        <v>2</v>
+      </c>
       <c r="I30" s="48"/>
-      <c r="J30" s="37"/>
+      <c r="J30" s="37">
+        <v>2</v>
+      </c>
       <c r="K30" s="37"/>
       <c r="L30" s="46"/>
       <c r="M30" s="46"/>
       <c r="N30" s="36">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <f t="shared" ref="N30" si="23">D30+F30+H30+J30+L30</f>
+        <v>8</v>
       </c>
       <c r="O30" s="37">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="O30" si="24">E30+G30+I30+K30+M30</f>
         <v>0</v>
       </c>
     </row>
@@ -2125,23 +2168,33 @@
       <c r="A31" s="30">
         <v>3</v>
       </c>
-      <c r="B31" s="75"/>
+      <c r="B31" s="75">
+        <v>42333</v>
+      </c>
       <c r="C31" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D31" s="47"/>
+        <v>25</v>
+      </c>
+      <c r="D31" s="47">
+        <v>2</v>
+      </c>
       <c r="E31" s="47"/>
-      <c r="F31" s="37"/>
+      <c r="F31" s="37">
+        <v>2</v>
+      </c>
       <c r="G31" s="37"/>
-      <c r="H31" s="48"/>
+      <c r="H31" s="48">
+        <v>2</v>
+      </c>
       <c r="I31" s="48"/>
-      <c r="J31" s="37"/>
+      <c r="J31" s="37">
+        <v>2</v>
+      </c>
       <c r="K31" s="37"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
       <c r="N31" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O31" s="37">
         <f t="shared" si="20"/>
@@ -2149,23 +2202,25 @@
       </c>
     </row>
     <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="81">
+      <c r="A32" s="30">
         <v>3</v>
       </c>
-      <c r="B32" s="82"/>
+      <c r="B32" s="75">
+        <v>42334</v>
+      </c>
       <c r="C32" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="90"/>
-      <c r="I32" s="90"/>
-      <c r="J32" s="87"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="86"/>
+        <v>31</v>
+      </c>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="49"/>
       <c r="N32" s="36">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -2176,111 +2231,95 @@
       </c>
     </row>
     <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="38">
+      <c r="A33" s="81">
         <v>3</v>
       </c>
-      <c r="B33" s="76">
+      <c r="B33" s="82">
+        <v>42334</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="36">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="37">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="38">
+        <v>3</v>
+      </c>
+      <c r="B34" s="76">
         <v>42337</v>
       </c>
-      <c r="C33" s="69" t="s">
+      <c r="C34" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E33" s="40"/>
-      <c r="F33" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="G33" s="62"/>
-      <c r="H33" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I33" s="42"/>
-      <c r="J33" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="K33" s="41"/>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50"/>
-      <c r="N33" s="44">
-        <f t="shared" ref="N33:O33" si="21">D33+F33+H33+J33+L33</f>
-        <v>1</v>
-      </c>
-      <c r="O33" s="45">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="103" t="s">
+      <c r="D34" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E34" s="40"/>
+      <c r="F34" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="G34" s="62"/>
+      <c r="H34" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="I34" s="42"/>
+      <c r="J34" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="K34" s="41"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="44">
+        <f t="shared" ref="N34:O34" si="25">D34+F34+H34+J34+L34</f>
+        <v>1</v>
+      </c>
+      <c r="O34" s="45">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="102" t="s">
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="K34" s="102"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="94"/>
-      <c r="N34" s="95">
-        <f>SUM(N23:N33)</f>
-        <v>18.5</v>
-      </c>
-      <c r="O34" s="95">
-        <f>SUM(O23:O33)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="30">
-        <v>4</v>
-      </c>
-      <c r="B35" s="75">
-        <v>42338</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="47">
-        <v>2</v>
-      </c>
-      <c r="E35" s="47">
-        <v>2</v>
-      </c>
-      <c r="F35" s="37">
-        <v>2</v>
-      </c>
-      <c r="G35" s="37">
-        <v>2</v>
-      </c>
-      <c r="H35" s="48">
-        <v>2</v>
-      </c>
-      <c r="I35" s="48">
-        <v>2</v>
-      </c>
-      <c r="J35" s="37">
-        <v>2</v>
-      </c>
-      <c r="K35" s="37">
-        <v>2</v>
-      </c>
-      <c r="L35" s="58"/>
-      <c r="M35" s="58"/>
-      <c r="N35" s="28">
-        <f t="shared" ref="N35:N37" si="22">D35+F35+H35+J35+L35</f>
-        <v>8</v>
-      </c>
-      <c r="O35" s="37">
-        <f>E35+G35+I35+K35+M35</f>
+      <c r="K35" s="104"/>
+      <c r="L35" s="94"/>
+      <c r="M35" s="94"/>
+      <c r="N35" s="95">
+        <f>SUM(N23:N34)</f>
+        <v>35</v>
+      </c>
+      <c r="O35" s="95">
+        <f>SUM(O23:O34)</f>
         <v>8</v>
       </c>
     </row>
@@ -2313,11 +2352,11 @@
       <c r="L36" s="58"/>
       <c r="M36" s="58"/>
       <c r="N36" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="N36:N37" si="26">D36+F36+H36+J36+L36</f>
         <v>2.5</v>
       </c>
       <c r="O36" s="37">
-        <f t="shared" ref="O36:O38" si="23">E36+G36+I36+K36+M36</f>
+        <f t="shared" ref="O36:O38" si="27">E36+G36+I36+K36+M36</f>
         <v>0</v>
       </c>
     </row>
@@ -2342,11 +2381,11 @@
       <c r="L37" s="46"/>
       <c r="M37" s="46"/>
       <c r="N37" s="36">
-        <f t="shared" si="22"/>
+        <f t="shared" si="26"/>
         <v>0.25</v>
       </c>
       <c r="O37" s="37">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -2375,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="37">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -2412,7 +2451,7 @@
         <v>2.5</v>
       </c>
       <c r="O39" s="37">
-        <f t="shared" ref="O39" si="24">E39+G39+I39+K39+M39</f>
+        <f t="shared" ref="O39" si="28">E39+G39+I39+K39+M39</f>
         <v>0</v>
       </c>
     </row>
@@ -2515,19 +2554,19 @@
       <c r="G43" s="103"/>
       <c r="H43" s="103"/>
       <c r="I43" s="103"/>
-      <c r="J43" s="102" t="s">
+      <c r="J43" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="K43" s="102"/>
+      <c r="K43" s="104"/>
       <c r="L43" s="94"/>
       <c r="M43" s="94"/>
       <c r="N43" s="95">
-        <f>SUM(N35:N42)</f>
-        <v>14.25</v>
+        <f>SUM(N36:N42)</f>
+        <v>6.25</v>
       </c>
       <c r="O43" s="95">
-        <f>SUM(O35:O42)</f>
-        <v>8</v>
+        <f>SUM(O36:O42)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2559,11 +2598,11 @@
       <c r="L44" s="46"/>
       <c r="M44" s="46"/>
       <c r="N44" s="28">
-        <f t="shared" ref="N44" si="25">D44+F44+H44+J44+L44</f>
+        <f t="shared" ref="N44" si="29">D44+F44+H44+J44+L44</f>
         <v>2.5</v>
       </c>
       <c r="O44" s="29">
-        <f t="shared" ref="O44" si="26">E44+G44+I44+K44+M44</f>
+        <f t="shared" ref="O44" si="30">E44+G44+I44+K44+M44</f>
         <v>0</v>
       </c>
     </row>
@@ -2588,11 +2627,11 @@
       <c r="L45" s="49"/>
       <c r="M45" s="49"/>
       <c r="N45" s="36">
-        <f t="shared" ref="N45" si="27">D45+F45+H45+J45+L45</f>
+        <f t="shared" ref="N45" si="31">D45+F45+H45+J45+L45</f>
         <v>0</v>
       </c>
       <c r="O45" s="37">
-        <f t="shared" ref="O45" si="28">E45+G45+I45+K45+M45</f>
+        <f t="shared" ref="O45" si="32">E45+G45+I45+K45+M45</f>
         <v>0</v>
       </c>
     </row>
@@ -2614,11 +2653,11 @@
       <c r="L46" s="49"/>
       <c r="M46" s="49"/>
       <c r="N46" s="36">
-        <f t="shared" ref="N46:O50" si="29">D46+F46+H46+J46+L46</f>
+        <f t="shared" ref="N46:O50" si="33">D46+F46+H46+J46+L46</f>
         <v>0</v>
       </c>
       <c r="O46" s="37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -2651,11 +2690,11 @@
       <c r="L47" s="49"/>
       <c r="M47" s="49"/>
       <c r="N47" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>2.5</v>
       </c>
       <c r="O47" s="37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -2678,11 +2717,11 @@
       <c r="L48" s="49"/>
       <c r="M48" s="49"/>
       <c r="N48" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="O48" s="37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -2703,11 +2742,11 @@
       <c r="L49" s="86"/>
       <c r="M49" s="86"/>
       <c r="N49" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="O49" s="37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -2740,11 +2779,11 @@
       <c r="L50" s="50"/>
       <c r="M50" s="50"/>
       <c r="N50" s="44">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="O50" s="45">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -2760,10 +2799,10 @@
       <c r="G51" s="103"/>
       <c r="H51" s="103"/>
       <c r="I51" s="103"/>
-      <c r="J51" s="102" t="s">
+      <c r="J51" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="K51" s="102"/>
+      <c r="K51" s="104"/>
       <c r="L51" s="94"/>
       <c r="M51" s="94"/>
       <c r="N51" s="95">
@@ -2804,11 +2843,11 @@
       <c r="L52" s="46"/>
       <c r="M52" s="46"/>
       <c r="N52" s="28">
-        <f t="shared" ref="N52:O59" si="30">D52+F52+H52+J52+L52</f>
+        <f t="shared" ref="N52:O59" si="34">D52+F52+H52+J52+L52</f>
         <v>2.5</v>
       </c>
       <c r="O52" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -2841,11 +2880,11 @@
       <c r="L53" s="98"/>
       <c r="M53" s="98"/>
       <c r="N53" s="99">
-        <f t="shared" ref="N53:N54" si="31">D53+F53+H53+J53+L53</f>
+        <f t="shared" ref="N53:N54" si="35">D53+F53+H53+J53+L53</f>
         <v>2.5</v>
       </c>
       <c r="O53" s="97">
-        <f t="shared" ref="O53:O54" si="32">E53+G53+I53+K53+M53</f>
+        <f t="shared" ref="O53:O54" si="36">E53+G53+I53+K53+M53</f>
         <v>0</v>
       </c>
     </row>
@@ -2868,11 +2907,11 @@
       <c r="L54" s="49"/>
       <c r="M54" s="49"/>
       <c r="N54" s="36">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O54" s="37">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -2893,11 +2932,11 @@
       <c r="L55" s="49"/>
       <c r="M55" s="49"/>
       <c r="N55" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O55" s="37">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -2918,11 +2957,11 @@
       <c r="L56" s="49"/>
       <c r="M56" s="49"/>
       <c r="N56" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O56" s="37">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -2943,11 +2982,11 @@
       <c r="L57" s="49"/>
       <c r="M57" s="49"/>
       <c r="N57" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O57" s="37">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -2968,11 +3007,11 @@
       <c r="L58" s="86"/>
       <c r="M58" s="86"/>
       <c r="N58" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="O58" s="37">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -3005,11 +3044,11 @@
       <c r="L59" s="50"/>
       <c r="M59" s="50"/>
       <c r="N59" s="44">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="O59" s="45">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
@@ -3028,7 +3067,7 @@
       <c r="J60" s="103" t="s">
         <v>51</v>
       </c>
-      <c r="K60" s="102"/>
+      <c r="K60" s="104"/>
       <c r="L60" s="94"/>
       <c r="M60" s="94"/>
       <c r="N60" s="95">
@@ -3069,11 +3108,11 @@
       <c r="L61" s="46"/>
       <c r="M61" s="46"/>
       <c r="N61" s="28">
-        <f t="shared" ref="N61:O66" si="33">D61+F61+H61+J61+L61</f>
+        <f t="shared" ref="N61:O66" si="37">D61+F61+H61+J61+L61</f>
         <v>2.5</v>
       </c>
       <c r="O61" s="29">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -3106,11 +3145,11 @@
       <c r="L62" s="49"/>
       <c r="M62" s="49"/>
       <c r="N62" s="36">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>2.5</v>
       </c>
       <c r="O62" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -3143,11 +3182,11 @@
       <c r="L63" s="49"/>
       <c r="M63" s="49"/>
       <c r="N63" s="36">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>2.5</v>
       </c>
       <c r="O63" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -3180,11 +3219,11 @@
       <c r="L64" s="49"/>
       <c r="M64" s="49"/>
       <c r="N64" s="36">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>2.5</v>
       </c>
       <c r="O64" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -3217,11 +3256,11 @@
       <c r="L65" s="49"/>
       <c r="M65" s="49"/>
       <c r="N65" s="36">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>2.5</v>
       </c>
       <c r="O65" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -3242,11 +3281,11 @@
       <c r="L66" s="50"/>
       <c r="M66" s="50"/>
       <c r="N66" s="44">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="O66" s="45">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -3265,7 +3304,7 @@
       <c r="J67" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="K67" s="102"/>
+      <c r="K67" s="104"/>
       <c r="L67" s="94"/>
       <c r="M67" s="94"/>
       <c r="N67" s="95">
@@ -3306,11 +3345,11 @@
       <c r="L68" s="46"/>
       <c r="M68" s="46"/>
       <c r="N68" s="28">
-        <f t="shared" ref="N68:O70" si="34">D68+F68+H68+J68+L68</f>
+        <f t="shared" ref="N68:O70" si="38">D68+F68+H68+J68+L68</f>
         <v>2.5</v>
       </c>
       <c r="O68" s="29">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -3343,11 +3382,11 @@
       <c r="L69" s="49"/>
       <c r="M69" s="49"/>
       <c r="N69" s="36">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>2.5</v>
       </c>
       <c r="O69" s="37">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -3380,11 +3419,11 @@
       <c r="L70" s="49"/>
       <c r="M70" s="49"/>
       <c r="N70" s="36">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>2.5</v>
       </c>
       <c r="O70" s="37">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -3417,11 +3456,11 @@
       <c r="L71" s="49"/>
       <c r="M71" s="49"/>
       <c r="N71" s="36">
-        <f t="shared" ref="N71:N74" si="35">D71+F71+H71+J71+L71</f>
+        <f t="shared" ref="N71:N74" si="39">D71+F71+H71+J71+L71</f>
         <v>2.5</v>
       </c>
       <c r="O71" s="37">
-        <f t="shared" ref="O71:O74" si="36">E71+G71+I71+K71+M71</f>
+        <f t="shared" ref="O71:O74" si="40">E71+G71+I71+K71+M71</f>
         <v>0</v>
       </c>
     </row>
@@ -3454,11 +3493,11 @@
       <c r="L72" s="49"/>
       <c r="M72" s="49"/>
       <c r="N72" s="36">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>2.5</v>
       </c>
       <c r="O72" s="37">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -3479,11 +3518,11 @@
       <c r="L73" s="86"/>
       <c r="M73" s="86"/>
       <c r="N73" s="101">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O73" s="87">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -3506,11 +3545,11 @@
       <c r="L74" s="50"/>
       <c r="M74" s="50"/>
       <c r="N74" s="44">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="O74" s="45">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -3527,7 +3566,7 @@
       <c r="J75" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="K75" s="102"/>
+      <c r="K75" s="104"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="8">
@@ -3546,48 +3585,48 @@
         <v>4</v>
       </c>
       <c r="D76" s="11">
-        <f>SUM(D4:D75)</f>
+        <f t="shared" ref="D76:M76" si="41">SUM(D4:D75)</f>
+        <v>33</v>
+      </c>
+      <c r="E76" s="11">
+        <f t="shared" si="41"/>
+        <v>19.5</v>
+      </c>
+      <c r="F76" s="11">
+        <f t="shared" si="41"/>
+        <v>41</v>
+      </c>
+      <c r="G76" s="11">
+        <f t="shared" si="41"/>
+        <v>19.25</v>
+      </c>
+      <c r="H76" s="11">
+        <f t="shared" si="41"/>
         <v>31</v>
       </c>
-      <c r="E76" s="11">
-        <f>SUM(E4:E75)</f>
-        <v>19.75</v>
-      </c>
-      <c r="F76" s="11">
-        <f>SUM(F4:F75)</f>
-        <v>39</v>
-      </c>
-      <c r="G76" s="11">
-        <f>SUM(G4:G75)</f>
-        <v>19.5</v>
-      </c>
-      <c r="H76" s="11">
-        <f>SUM(H4:H75)</f>
-        <v>29</v>
-      </c>
       <c r="I76" s="11">
-        <f>SUM(I4:I75)</f>
-        <v>19</v>
+        <f t="shared" si="41"/>
+        <v>18.25</v>
       </c>
       <c r="J76" s="11">
-        <f>SUM(J4:J75)</f>
-        <v>32</v>
+        <f t="shared" si="41"/>
+        <v>34</v>
       </c>
       <c r="K76" s="11">
-        <f>SUM(K4:K75)</f>
-        <v>19.5</v>
+        <f t="shared" si="41"/>
+        <v>20.75</v>
       </c>
       <c r="L76" s="11">
-        <f>SUM(L4:L75)</f>
+        <f t="shared" si="41"/>
         <v>0.5</v>
       </c>
       <c r="M76" s="11">
-        <f>SUM(M4:M75)</f>
+        <f t="shared" si="41"/>
         <v>0.5</v>
       </c>
       <c r="N76" s="9">
         <f>D76+F76+H76+J76+L76</f>
-        <v>131.5</v>
+        <v>139.5</v>
       </c>
       <c r="O76" s="11">
         <f>E76+G76+I76+K76+M76</f>
@@ -3596,6 +3635,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="J75:K75"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A5:I5"/>
@@ -3608,18 +3655,10 @@
     <mergeCell ref="J67:K67"/>
     <mergeCell ref="A22:I22"/>
     <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="J35:K35"/>
     <mergeCell ref="A43:I43"/>
     <mergeCell ref="J43:K43"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -3645,20 +3684,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -3819,40 +3853,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3870,10 +3893,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
+++ b/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Eerste kennismaking/vergadering &amp; teamcontract maken</t>
   </si>
   <si>
-    <t>Nog te bedenken</t>
-  </si>
-  <si>
     <t>Inleveren plan van aanpak</t>
   </si>
   <si>
@@ -217,6 +214,12 @@
   </si>
   <si>
     <t>requirements architecture</t>
+  </si>
+  <si>
+    <t>CALGON</t>
+  </si>
+  <si>
+    <t>Use case diagram maken</t>
   </si>
 </sst>
 </file>
@@ -717,28 +720,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1045,10 +1048,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1076,18 +1080,18 @@
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="106" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="106"/>
+      <c r="E2" s="105" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="105"/>
       <c r="H2" s="96" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="105">
+        <v>53</v>
+      </c>
+      <c r="I2" s="110">
         <f ca="1">TODAY()</f>
-        <v>42331</v>
-      </c>
-      <c r="J2" s="105"/>
+        <v>42333</v>
+      </c>
+      <c r="J2" s="110"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -1139,43 +1143,43 @@
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="73"/>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="104" t="s">
+      <c r="E4" s="108"/>
+      <c r="F4" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="104"/>
-      <c r="H4" s="110" t="s">
+      <c r="G4" s="103"/>
+      <c r="H4" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="110"/>
-      <c r="J4" s="104" t="s">
+      <c r="I4" s="109"/>
+      <c r="J4" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="104"/>
-      <c r="L4" s="107" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="108"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="107"/>
       <c r="N4" s="22"/>
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="103" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
+      <c r="A5" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
       <c r="L5" s="94"/>
       <c r="M5" s="94"/>
       <c r="N5" s="95"/>
@@ -1279,7 +1283,7 @@
         <v>42317</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="32">
         <v>0.5</v>
@@ -1316,7 +1320,7 @@
         <v>42319</v>
       </c>
       <c r="C9" s="55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="32">
         <v>2</v>
@@ -1361,7 +1365,7 @@
         <v>42323</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="40">
         <v>0.25</v>
@@ -1399,21 +1403,21 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="104" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="104"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="103" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="103"/>
       <c r="L11" s="94"/>
       <c r="M11" s="94"/>
       <c r="N11" s="95">
@@ -1478,7 +1482,7 @@
         <v>42324</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="66">
         <v>0.5</v>
@@ -1527,7 +1531,7 @@
         <v>42324</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="66">
         <v>1</v>
@@ -1569,10 +1573,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="93" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="32">
         <v>0.25</v>
@@ -1605,7 +1609,7 @@
         <v>42326</v>
       </c>
       <c r="C16" s="93" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="32">
         <v>0.5</v>
@@ -1650,7 +1654,7 @@
         <v>42326</v>
       </c>
       <c r="C17" s="102" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="32">
         <v>0.5</v>
@@ -1695,7 +1699,7 @@
         <v>42326</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="32">
         <v>2</v>
@@ -1740,7 +1744,7 @@
         <v>42327</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="32">
         <v>1.5</v>
@@ -1781,7 +1785,7 @@
         <v>42330</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
@@ -1814,7 +1818,7 @@
         <v>42330</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="40">
         <v>0.25</v>
@@ -1852,21 +1856,21 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="103" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="103"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="104" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22" s="104"/>
+      <c r="A22" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="103"/>
       <c r="L22" s="94"/>
       <c r="M22" s="94"/>
       <c r="N22" s="95">
@@ -1931,24 +1935,32 @@
         <v>42331</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="47">
         <v>0.5</v>
       </c>
-      <c r="E24" s="47"/>
+      <c r="E24" s="47">
+        <v>0.5</v>
+      </c>
       <c r="F24" s="37">
         <v>1</v>
       </c>
-      <c r="G24" s="37"/>
+      <c r="G24" s="37">
+        <v>1</v>
+      </c>
       <c r="H24" s="48">
         <v>0.5</v>
       </c>
-      <c r="I24" s="48"/>
+      <c r="I24" s="48">
+        <v>0.5</v>
+      </c>
       <c r="J24" s="37">
         <v>0.5</v>
       </c>
-      <c r="K24" s="37"/>
+      <c r="K24" s="37">
+        <v>0.5</v>
+      </c>
       <c r="L24" s="59"/>
       <c r="M24" s="59"/>
       <c r="N24" s="36">
@@ -1957,7 +1969,7 @@
       </c>
       <c r="O24" s="37">
         <f t="shared" ref="O24" si="16">E24+G24+I24+K24+M24</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1968,24 +1980,32 @@
         <v>42331</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D25" s="47">
         <v>1</v>
       </c>
-      <c r="E25" s="47"/>
+      <c r="E25" s="47">
+        <v>1</v>
+      </c>
       <c r="F25" s="37">
         <v>1</v>
       </c>
-      <c r="G25" s="37"/>
+      <c r="G25" s="37">
+        <v>1</v>
+      </c>
       <c r="H25" s="48">
         <v>1</v>
       </c>
-      <c r="I25" s="48"/>
+      <c r="I25" s="48">
+        <v>1</v>
+      </c>
       <c r="J25" s="37">
         <v>1</v>
       </c>
-      <c r="K25" s="37"/>
+      <c r="K25" s="37">
+        <v>1</v>
+      </c>
       <c r="L25" s="59"/>
       <c r="M25" s="59"/>
       <c r="N25" s="36">
@@ -1994,7 +2014,7 @@
       </c>
       <c r="O25" s="37">
         <f t="shared" ref="O25:O26" si="18">E25+G25+I25+K25+M25</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2005,24 +2025,32 @@
         <v>42333</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D26" s="47">
         <v>0.5</v>
       </c>
-      <c r="E26" s="47"/>
+      <c r="E26" s="47">
+        <v>0.5</v>
+      </c>
       <c r="F26" s="37">
         <v>1</v>
       </c>
-      <c r="G26" s="37"/>
+      <c r="G26" s="37">
+        <v>1</v>
+      </c>
       <c r="H26" s="48">
         <v>0.5</v>
       </c>
-      <c r="I26" s="48"/>
+      <c r="I26" s="48">
+        <v>0.5</v>
+      </c>
       <c r="J26" s="37">
         <v>0.5</v>
       </c>
-      <c r="K26" s="37"/>
+      <c r="K26" s="37">
+        <v>0.5</v>
+      </c>
       <c r="L26" s="59"/>
       <c r="M26" s="59"/>
       <c r="N26" s="36">
@@ -2031,7 +2059,7 @@
       </c>
       <c r="O26" s="37">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="27" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2042,7 +2070,7 @@
         <v>42333</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D27" s="47"/>
       <c r="E27" s="47"/>
@@ -2053,16 +2081,18 @@
       <c r="J27" s="37">
         <v>0.5</v>
       </c>
-      <c r="K27" s="37"/>
+      <c r="K27" s="37">
+        <v>0.5</v>
+      </c>
       <c r="L27" s="59"/>
       <c r="M27" s="59"/>
       <c r="N27" s="36">
-        <f t="shared" ref="N27:N33" si="19">D27+F27+H27+J27+L27</f>
+        <f t="shared" ref="N27:N34" si="19">D27+F27+H27+J27+L27</f>
         <v>0.5</v>
       </c>
       <c r="O27" s="37">
-        <f t="shared" ref="O27:O33" si="20">E27+G27+I27+K27+M27</f>
-        <v>0</v>
+        <f t="shared" ref="O27:O34" si="20">E27+G27+I27+K27+M27</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2073,12 +2103,14 @@
         <v>42331</v>
       </c>
       <c r="C28" s="55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="91">
         <v>0.25</v>
       </c>
-      <c r="E28" s="47"/>
+      <c r="E28" s="47">
+        <v>0.25</v>
+      </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
       <c r="H28" s="48"/>
@@ -2093,7 +2125,7 @@
       </c>
       <c r="O28" s="37">
         <f t="shared" ref="O28:O29" si="22">E28+G28+I28+K28+M28</f>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2104,12 +2136,14 @@
         <v>42331</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" s="91">
         <v>0.25</v>
       </c>
-      <c r="E29" s="47"/>
+      <c r="E29" s="47">
+        <v>0.25</v>
+      </c>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
       <c r="H29" s="48"/>
@@ -2124,7 +2158,7 @@
       </c>
       <c r="O29" s="37">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="30" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2135,24 +2169,32 @@
         <v>42333</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="47">
         <v>2</v>
       </c>
-      <c r="E30" s="47"/>
+      <c r="E30" s="47">
+        <v>2</v>
+      </c>
       <c r="F30" s="37">
         <v>2</v>
       </c>
-      <c r="G30" s="37"/>
+      <c r="G30" s="37">
+        <v>2</v>
+      </c>
       <c r="H30" s="48">
         <v>2</v>
       </c>
-      <c r="I30" s="48"/>
+      <c r="I30" s="48">
+        <v>2</v>
+      </c>
       <c r="J30" s="37">
         <v>2</v>
       </c>
-      <c r="K30" s="37"/>
+      <c r="K30" s="37">
+        <v>2</v>
+      </c>
       <c r="L30" s="46"/>
       <c r="M30" s="46"/>
       <c r="N30" s="36">
@@ -2161,7 +2203,7 @@
       </c>
       <c r="O30" s="37">
         <f t="shared" ref="O30" si="24">E30+G30+I30+K30+M30</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2172,24 +2214,32 @@
         <v>42333</v>
       </c>
       <c r="C31" s="55" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31" s="47">
         <v>2</v>
       </c>
-      <c r="E31" s="47"/>
+      <c r="E31" s="47">
+        <v>2</v>
+      </c>
       <c r="F31" s="37">
         <v>2</v>
       </c>
-      <c r="G31" s="37"/>
+      <c r="G31" s="37">
+        <v>2</v>
+      </c>
       <c r="H31" s="48">
         <v>2</v>
       </c>
-      <c r="I31" s="48"/>
+      <c r="I31" s="48">
+        <v>2</v>
+      </c>
       <c r="J31" s="37">
         <v>2</v>
       </c>
-      <c r="K31" s="37"/>
+      <c r="K31" s="37">
+        <v>2</v>
+      </c>
       <c r="L31" s="46"/>
       <c r="M31" s="46"/>
       <c r="N31" s="36">
@@ -2198,7 +2248,7 @@
       </c>
       <c r="O31" s="37">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2206,50 +2256,48 @@
         <v>3</v>
       </c>
       <c r="B32" s="75">
-        <v>42334</v>
+        <v>42333</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>31</v>
-      </c>
-      <c r="D32" s="47"/>
+        <v>65</v>
+      </c>
+      <c r="D32" s="47">
+        <v>1</v>
+      </c>
       <c r="E32" s="47"/>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
-      <c r="H32" s="48"/>
+      <c r="H32" s="48">
+        <v>1</v>
+      </c>
       <c r="I32" s="48"/>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
-      <c r="L32" s="49"/>
-      <c r="M32" s="49"/>
-      <c r="N32" s="36">
-        <f t="shared" si="19"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="37">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
+      <c r="L32" s="98"/>
+      <c r="M32" s="98"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="37"/>
     </row>
     <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="81">
+      <c r="A33" s="30">
         <v>3</v>
       </c>
-      <c r="B33" s="82">
+      <c r="B33" s="75">
         <v>42334</v>
       </c>
       <c r="C33" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
+        <v>30</v>
+      </c>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
       <c r="N33" s="36">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -2260,132 +2308,132 @@
       </c>
     </row>
     <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="38">
+      <c r="A34" s="81">
         <v>3</v>
       </c>
-      <c r="B34" s="76">
+      <c r="B34" s="82">
+        <v>42334</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="89"/>
+      <c r="E34" s="89"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
+      <c r="N34" s="36">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="37">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="38">
+        <v>3</v>
+      </c>
+      <c r="B35" s="76">
         <v>42337</v>
       </c>
-      <c r="C34" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E34" s="40"/>
-      <c r="F34" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="G34" s="62"/>
-      <c r="H34" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I34" s="42"/>
-      <c r="J34" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="K34" s="41"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="44">
-        <f t="shared" ref="N34:O34" si="25">D34+F34+H34+J34+L34</f>
-        <v>1</v>
-      </c>
-      <c r="O34" s="45">
+      <c r="C35" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E35" s="40"/>
+      <c r="F35" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="G35" s="62"/>
+      <c r="H35" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="I35" s="42"/>
+      <c r="J35" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="K35" s="41"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="44">
+        <f t="shared" ref="N35:O35" si="25">D35+F35+H35+J35+L35</f>
+        <v>1</v>
+      </c>
+      <c r="O35" s="45">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="103" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" s="103"/>
-      <c r="C35" s="103"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="103"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="104" t="s">
-        <v>48</v>
-      </c>
-      <c r="K35" s="104"/>
-      <c r="L35" s="94"/>
-      <c r="M35" s="94"/>
-      <c r="N35" s="95">
-        <f>SUM(N23:N34)</f>
+    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="K36" s="103"/>
+      <c r="L36" s="94"/>
+      <c r="M36" s="94"/>
+      <c r="N36" s="95">
+        <f>SUM(N23:N35)</f>
         <v>35</v>
       </c>
-      <c r="O35" s="95">
-        <f>SUM(O23:O34)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="30">
-        <v>4</v>
-      </c>
-      <c r="B36" s="75">
-        <v>42338</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E36" s="47"/>
-      <c r="F36" s="37">
-        <v>1</v>
-      </c>
-      <c r="G36" s="37"/>
-      <c r="H36" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I36" s="48"/>
-      <c r="J36" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K36" s="37"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="58"/>
-      <c r="N36" s="36">
-        <f t="shared" ref="N36:N37" si="26">D36+F36+H36+J36+L36</f>
-        <v>2.5</v>
-      </c>
-      <c r="O36" s="37">
-        <f t="shared" ref="O36:O38" si="27">E36+G36+I36+K36+M36</f>
-        <v>0</v>
+      <c r="O36" s="95">
+        <f>SUM(O23:O35)</f>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="30">
         <v>4</v>
       </c>
-      <c r="B37" s="75"/>
+      <c r="B37" s="75">
+        <v>42338</v>
+      </c>
       <c r="C37" s="31" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D37" s="47">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E37" s="47"/>
-      <c r="F37" s="37"/>
+      <c r="F37" s="37">
+        <v>1</v>
+      </c>
       <c r="G37" s="37"/>
-      <c r="H37" s="48"/>
+      <c r="H37" s="48">
+        <v>0.5</v>
+      </c>
       <c r="I37" s="48"/>
-      <c r="J37" s="37"/>
+      <c r="J37" s="37">
+        <v>0.5</v>
+      </c>
       <c r="K37" s="37"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
+      <c r="L37" s="58"/>
+      <c r="M37" s="58"/>
       <c r="N37" s="36">
-        <f t="shared" si="26"/>
-        <v>0.25</v>
+        <f t="shared" ref="N37:N38" si="26">D37+F37+H37+J37+L37</f>
+        <v>2.5</v>
       </c>
       <c r="O37" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="O37:O39" si="27">E37+G37+I37+K37+M37</f>
         <v>0</v>
       </c>
     </row>
@@ -2393,13 +2441,13 @@
       <c r="A38" s="30">
         <v>4</v>
       </c>
-      <c r="B38" s="75">
-        <v>42338</v>
-      </c>
-      <c r="C38" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="47"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="47">
+        <v>0.25</v>
+      </c>
       <c r="E38" s="47"/>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -2407,11 +2455,11 @@
       <c r="I38" s="48"/>
       <c r="J38" s="37"/>
       <c r="K38" s="37"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
       <c r="N38" s="36">
-        <f>D38+F38+H38+J38+L38</f>
-        <v>0</v>
+        <f t="shared" si="26"/>
+        <v>0.25</v>
       </c>
       <c r="O38" s="37">
         <f t="shared" si="27"/>
@@ -2423,35 +2471,27 @@
         <v>4</v>
       </c>
       <c r="B39" s="75">
-        <v>42340</v>
+        <v>42338</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="47">
-        <v>0.5</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D39" s="47"/>
       <c r="E39" s="47"/>
-      <c r="F39" s="37">
-        <v>1</v>
-      </c>
+      <c r="F39" s="37"/>
       <c r="G39" s="37"/>
-      <c r="H39" s="48">
-        <v>0.5</v>
-      </c>
+      <c r="H39" s="48"/>
       <c r="I39" s="48"/>
-      <c r="J39" s="37">
-        <v>0.5</v>
-      </c>
+      <c r="J39" s="37"/>
       <c r="K39" s="37"/>
       <c r="L39" s="49"/>
       <c r="M39" s="49"/>
       <c r="N39" s="36">
         <f>D39+F39+H39+J39+L39</f>
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="O39" s="37">
-        <f t="shared" ref="O39" si="28">E39+G39+I39+K39+M39</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
@@ -2459,43 +2499,55 @@
       <c r="A40" s="30">
         <v>4</v>
       </c>
-      <c r="B40" s="75"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="47"/>
+      <c r="B40" s="75">
+        <v>42340</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="47">
+        <v>0.5</v>
+      </c>
       <c r="E40" s="47"/>
-      <c r="F40" s="37"/>
+      <c r="F40" s="37">
+        <v>1</v>
+      </c>
       <c r="G40" s="37"/>
-      <c r="H40" s="48"/>
+      <c r="H40" s="48">
+        <v>0.5</v>
+      </c>
       <c r="I40" s="48"/>
-      <c r="J40" s="37"/>
+      <c r="J40" s="37">
+        <v>0.5</v>
+      </c>
       <c r="K40" s="37"/>
       <c r="L40" s="49"/>
       <c r="M40" s="49"/>
       <c r="N40" s="36">
         <f>D40+F40+H40+J40+L40</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O40" s="37">
-        <f>E40+G40+I40+K40+M40</f>
+        <f t="shared" ref="O40" si="28">E40+G40+I40+K40+M40</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="81">
+      <c r="A41" s="30">
         <v>4</v>
       </c>
-      <c r="B41" s="82"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="86"/>
-      <c r="M41" s="86"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
       <c r="N41" s="36">
         <f>D41+F41+H41+J41+L41</f>
         <v>0</v>
@@ -2506,132 +2558,128 @@
       </c>
     </row>
     <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="38">
+      <c r="A42" s="81">
         <v>4</v>
       </c>
-      <c r="B42" s="76">
+      <c r="B42" s="82"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="87"/>
+      <c r="H42" s="90"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="87"/>
+      <c r="K42" s="87"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
+      <c r="N42" s="36">
+        <f>D42+F42+H42+J42+L42</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="37">
+        <f>E42+G42+I42+K42+M42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="38">
+        <v>4</v>
+      </c>
+      <c r="B43" s="76">
         <v>42344</v>
       </c>
-      <c r="C42" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E42" s="40"/>
-      <c r="F42" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="G42" s="62"/>
-      <c r="H42" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I42" s="42"/>
-      <c r="J42" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="K42" s="41"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="44">
-        <f>D42+F42+H42+J42+L42</f>
-        <v>1</v>
-      </c>
-      <c r="O42" s="45">
-        <f>E42+G42+I42+K42+M42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="103" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" s="103"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="104" t="s">
-        <v>49</v>
-      </c>
-      <c r="K43" s="104"/>
-      <c r="L43" s="94"/>
-      <c r="M43" s="94"/>
-      <c r="N43" s="95">
-        <f>SUM(N36:N42)</f>
+      <c r="C43" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E43" s="40"/>
+      <c r="F43" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="G43" s="62"/>
+      <c r="H43" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="I43" s="42"/>
+      <c r="J43" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="K43" s="41"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="44">
+        <f>D43+F43+H43+J43+L43</f>
+        <v>1</v>
+      </c>
+      <c r="O43" s="45">
+        <f>E43+G43+I43+K43+M43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="104" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="104"/>
+      <c r="C44" s="104"/>
+      <c r="D44" s="104"/>
+      <c r="E44" s="104"/>
+      <c r="F44" s="104"/>
+      <c r="G44" s="104"/>
+      <c r="H44" s="104"/>
+      <c r="I44" s="104"/>
+      <c r="J44" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="K44" s="103"/>
+      <c r="L44" s="94"/>
+      <c r="M44" s="94"/>
+      <c r="N44" s="95">
+        <f>SUM(N37:N43)</f>
         <v>6.25</v>
       </c>
-      <c r="O43" s="95">
-        <f>SUM(O36:O42)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="23">
+      <c r="O44" s="95">
+        <f>SUM(O37:O43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="23">
         <v>4</v>
       </c>
-      <c r="B44" s="74">
+      <c r="B45" s="74">
         <v>42345</v>
       </c>
-      <c r="C44" s="57" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E44" s="47"/>
-      <c r="F44" s="37">
-        <v>1</v>
-      </c>
-      <c r="G44" s="37"/>
-      <c r="H44" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I44" s="48"/>
-      <c r="J44" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K44" s="29"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="28">
-        <f t="shared" ref="N44" si="29">D44+F44+H44+J44+L44</f>
+      <c r="C45" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E45" s="47"/>
+      <c r="F45" s="37">
+        <v>1</v>
+      </c>
+      <c r="G45" s="37"/>
+      <c r="H45" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I45" s="48"/>
+      <c r="J45" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K45" s="29"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="46"/>
+      <c r="N45" s="28">
+        <f t="shared" ref="N45" si="29">D45+F45+H45+J45+L45</f>
         <v>2.5</v>
       </c>
-      <c r="O44" s="29">
-        <f t="shared" ref="O44" si="30">E44+G44+I44+K44+M44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="30">
-        <v>5</v>
-      </c>
-      <c r="B45" s="75">
-        <v>42345</v>
-      </c>
-      <c r="C45" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="36">
-        <f t="shared" ref="N45" si="31">D45+F45+H45+J45+L45</f>
-        <v>0</v>
-      </c>
-      <c r="O45" s="37">
-        <f t="shared" ref="O45" si="32">E45+G45+I45+K45+M45</f>
+      <c r="O45" s="29">
+        <f t="shared" ref="O45" si="30">E45+G45+I45+K45+M45</f>
         <v>0</v>
       </c>
     </row>
@@ -2642,22 +2690,33 @@
       <c r="B46" s="75">
         <v>42345</v>
       </c>
-      <c r="D46" s="47"/>
+      <c r="C46" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="47">
+        <v>2</v>
+      </c>
       <c r="E46" s="47"/>
-      <c r="F46" s="37"/>
+      <c r="F46" s="37">
+        <v>2</v>
+      </c>
       <c r="G46" s="37"/>
-      <c r="H46" s="48"/>
+      <c r="H46" s="48">
+        <v>2</v>
+      </c>
       <c r="I46" s="48"/>
-      <c r="J46" s="37"/>
+      <c r="J46" s="37">
+        <v>2</v>
+      </c>
       <c r="K46" s="37"/>
       <c r="L46" s="49"/>
       <c r="M46" s="49"/>
       <c r="N46" s="36">
-        <f t="shared" ref="N46:O50" si="33">D46+F46+H46+J46+L46</f>
-        <v>0</v>
+        <f t="shared" ref="N46" si="31">D46+F46+H46+J46+L46</f>
+        <v>8</v>
       </c>
       <c r="O46" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="O46" si="32">E46+G46+I46+K46+M46</f>
         <v>0</v>
       </c>
     </row>
@@ -2666,32 +2725,21 @@
         <v>5</v>
       </c>
       <c r="B47" s="75">
-        <v>42347</v>
-      </c>
-      <c r="C47" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="D47" s="47">
-        <v>0.5</v>
-      </c>
+        <v>42345</v>
+      </c>
+      <c r="D47" s="47"/>
       <c r="E47" s="47"/>
-      <c r="F47" s="37">
-        <v>1</v>
-      </c>
+      <c r="F47" s="37"/>
       <c r="G47" s="37"/>
-      <c r="H47" s="48">
-        <v>0.5</v>
-      </c>
+      <c r="H47" s="48"/>
       <c r="I47" s="48"/>
-      <c r="J47" s="37">
-        <v>0.5</v>
-      </c>
+      <c r="J47" s="37"/>
       <c r="K47" s="37"/>
       <c r="L47" s="49"/>
       <c r="M47" s="49"/>
       <c r="N47" s="36">
-        <f t="shared" si="33"/>
-        <v>2.5</v>
+        <f t="shared" ref="N47:O51" si="33">D47+F47+H47+J47+L47</f>
+        <v>0</v>
       </c>
       <c r="O47" s="37">
         <f t="shared" si="33"/>
@@ -2702,23 +2750,33 @@
       <c r="A48" s="30">
         <v>5</v>
       </c>
-      <c r="B48" s="75"/>
+      <c r="B48" s="75">
+        <v>42347</v>
+      </c>
       <c r="C48" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48" s="47"/>
+        <v>62</v>
+      </c>
+      <c r="D48" s="47">
+        <v>0.5</v>
+      </c>
       <c r="E48" s="47"/>
-      <c r="F48" s="37"/>
+      <c r="F48" s="37">
+        <v>1</v>
+      </c>
       <c r="G48" s="37"/>
-      <c r="H48" s="48"/>
+      <c r="H48" s="48">
+        <v>0.5</v>
+      </c>
       <c r="I48" s="48"/>
-      <c r="J48" s="37"/>
+      <c r="J48" s="37">
+        <v>0.5</v>
+      </c>
       <c r="K48" s="37"/>
       <c r="L48" s="49"/>
       <c r="M48" s="49"/>
       <c r="N48" s="36">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O48" s="37">
         <f t="shared" si="33"/>
@@ -2726,24 +2784,28 @@
       </c>
     </row>
     <row r="49" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="81">
+      <c r="A49" s="30">
         <v>5</v>
       </c>
-      <c r="B49" s="82"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="90"/>
-      <c r="J49" s="87"/>
-      <c r="K49" s="87"/>
-      <c r="L49" s="86"/>
-      <c r="M49" s="86"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="E49" s="47"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
       <c r="N49" s="36">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O49" s="37">
         <f t="shared" si="33"/>
@@ -2751,115 +2813,103 @@
       </c>
     </row>
     <row r="50" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="38">
+      <c r="A50" s="81">
         <v>5</v>
       </c>
-      <c r="B50" s="76">
+      <c r="B50" s="82"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="87"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="90"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="87"/>
+      <c r="K50" s="87"/>
+      <c r="L50" s="86"/>
+      <c r="M50" s="86"/>
+      <c r="N50" s="36">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="37">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="38">
+        <v>5</v>
+      </c>
+      <c r="B51" s="76">
         <v>42351</v>
       </c>
-      <c r="C50" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="D50" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E50" s="40"/>
-      <c r="F50" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="G50" s="62"/>
-      <c r="H50" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I50" s="42"/>
-      <c r="J50" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="K50" s="41"/>
-      <c r="L50" s="50"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="44">
+      <c r="C51" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E51" s="40"/>
+      <c r="F51" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="G51" s="62"/>
+      <c r="H51" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="I51" s="42"/>
+      <c r="J51" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="K51" s="41"/>
+      <c r="L51" s="50"/>
+      <c r="M51" s="50"/>
+      <c r="N51" s="44">
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
-      <c r="O50" s="45">
+      <c r="O51" s="45">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="103"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="103"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="103"/>
-      <c r="I51" s="103"/>
-      <c r="J51" s="104" t="s">
-        <v>50</v>
-      </c>
-      <c r="K51" s="104"/>
-      <c r="L51" s="94"/>
-      <c r="M51" s="94"/>
-      <c r="N51" s="95">
-        <f>SUM(N44:N50)</f>
+    <row r="52" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="104" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="104"/>
+      <c r="C52" s="104"/>
+      <c r="D52" s="104"/>
+      <c r="E52" s="104"/>
+      <c r="F52" s="104"/>
+      <c r="G52" s="104"/>
+      <c r="H52" s="104"/>
+      <c r="I52" s="104"/>
+      <c r="J52" s="103" t="s">
+        <v>49</v>
+      </c>
+      <c r="K52" s="103"/>
+      <c r="L52" s="94"/>
+      <c r="M52" s="94"/>
+      <c r="N52" s="95">
+        <f>SUM(N45:N51)</f>
+        <v>14.25</v>
+      </c>
+      <c r="O52" s="95">
+        <f>SUM(O45:O51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="23">
         <v>6</v>
       </c>
-      <c r="O51" s="95">
-        <f>SUM(O44:O50)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="23">
-        <v>6</v>
-      </c>
-      <c r="B52" s="74">
+      <c r="B53" s="74">
         <v>42352</v>
       </c>
-      <c r="C52" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E52" s="47"/>
-      <c r="F52" s="37">
-        <v>1</v>
-      </c>
-      <c r="G52" s="37"/>
-      <c r="H52" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I52" s="48"/>
-      <c r="J52" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K52" s="29"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="28">
-        <f t="shared" ref="N52:O59" si="34">D52+F52+H52+J52+L52</f>
-        <v>2.5</v>
-      </c>
-      <c r="O52" s="29">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="64">
-        <v>6</v>
-      </c>
-      <c r="B53" s="77">
-        <v>42354</v>
-      </c>
-      <c r="C53" s="55" t="s">
-        <v>63</v>
+      <c r="C53" s="92" t="s">
+        <v>62</v>
       </c>
       <c r="D53" s="47">
         <v>0.5</v>
@@ -2876,42 +2926,52 @@
       <c r="J53" s="37">
         <v>0.5</v>
       </c>
-      <c r="K53" s="97"/>
-      <c r="L53" s="98"/>
-      <c r="M53" s="98"/>
-      <c r="N53" s="99">
-        <f t="shared" ref="N53:N54" si="35">D53+F53+H53+J53+L53</f>
+      <c r="K53" s="29"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="28">
+        <f t="shared" ref="N53:O60" si="34">D53+F53+H53+J53+L53</f>
         <v>2.5</v>
       </c>
-      <c r="O53" s="97">
-        <f t="shared" ref="O53:O54" si="36">E53+G53+I53+K53+M53</f>
+      <c r="O53" s="29">
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="30">
+      <c r="A54" s="64">
         <v>6</v>
       </c>
-      <c r="B54" s="75"/>
+      <c r="B54" s="77">
+        <v>42354</v>
+      </c>
       <c r="C54" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="36">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="O54" s="37">
-        <f t="shared" si="36"/>
+        <v>62</v>
+      </c>
+      <c r="D54" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="47"/>
+      <c r="F54" s="37">
+        <v>1</v>
+      </c>
+      <c r="G54" s="37"/>
+      <c r="H54" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I54" s="48"/>
+      <c r="J54" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K54" s="97"/>
+      <c r="L54" s="98"/>
+      <c r="M54" s="98"/>
+      <c r="N54" s="99">
+        <f t="shared" ref="N54:N55" si="35">D54+F54+H54+J54+L54</f>
+        <v>2.5</v>
+      </c>
+      <c r="O54" s="97">
+        <f t="shared" ref="O54:O55" si="36">E54+G54+I54+K54+M54</f>
         <v>0</v>
       </c>
     </row>
@@ -2920,7 +2980,9 @@
         <v>6</v>
       </c>
       <c r="B55" s="75"/>
-      <c r="C55" s="31"/>
+      <c r="C55" s="55" t="s">
+        <v>25</v>
+      </c>
       <c r="D55" s="51"/>
       <c r="E55" s="51"/>
       <c r="F55" s="30"/>
@@ -2932,11 +2994,11 @@
       <c r="L55" s="49"/>
       <c r="M55" s="49"/>
       <c r="N55" s="36">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O55" s="37">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -2991,21 +3053,21 @@
       </c>
     </row>
     <row r="58" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="81">
+      <c r="A58" s="30">
         <v>6</v>
       </c>
-      <c r="B58" s="82"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="85"/>
-      <c r="I58" s="85"/>
-      <c r="J58" s="81"/>
-      <c r="K58" s="81"/>
-      <c r="L58" s="86"/>
-      <c r="M58" s="86"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="49"/>
+      <c r="M58" s="49"/>
       <c r="N58" s="36">
         <f t="shared" si="34"/>
         <v>0</v>
@@ -3016,115 +3078,103 @@
       </c>
     </row>
     <row r="59" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="38">
+      <c r="A59" s="81">
         <v>6</v>
       </c>
-      <c r="B59" s="76">
+      <c r="B59" s="82"/>
+      <c r="C59" s="83"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="84"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="85"/>
+      <c r="I59" s="85"/>
+      <c r="J59" s="81"/>
+      <c r="K59" s="81"/>
+      <c r="L59" s="86"/>
+      <c r="M59" s="86"/>
+      <c r="N59" s="36">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="38">
+        <v>6</v>
+      </c>
+      <c r="B60" s="76">
         <v>42358</v>
       </c>
-      <c r="C59" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="D59" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E59" s="40"/>
-      <c r="F59" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="G59" s="62"/>
-      <c r="H59" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I59" s="42"/>
-      <c r="J59" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="K59" s="41"/>
-      <c r="L59" s="50"/>
-      <c r="M59" s="50"/>
-      <c r="N59" s="44">
+      <c r="C60" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E60" s="40"/>
+      <c r="F60" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="G60" s="62"/>
+      <c r="H60" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="I60" s="42"/>
+      <c r="J60" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="K60" s="41"/>
+      <c r="L60" s="50"/>
+      <c r="M60" s="50"/>
+      <c r="N60" s="44">
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="O59" s="45">
+      <c r="O60" s="45">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="103" t="s">
-        <v>45</v>
-      </c>
-      <c r="B60" s="103"/>
-      <c r="C60" s="103"/>
-      <c r="D60" s="103"/>
-      <c r="E60" s="103"/>
-      <c r="F60" s="103"/>
-      <c r="G60" s="103"/>
-      <c r="H60" s="103"/>
-      <c r="I60" s="103"/>
-      <c r="J60" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="K60" s="104"/>
-      <c r="L60" s="94"/>
-      <c r="M60" s="94"/>
-      <c r="N60" s="95">
-        <f>SUM(N52:N59)</f>
+    <row r="61" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="B61" s="104"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="104"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="104"/>
+      <c r="G61" s="104"/>
+      <c r="H61" s="104"/>
+      <c r="I61" s="104"/>
+      <c r="J61" s="104" t="s">
+        <v>50</v>
+      </c>
+      <c r="K61" s="103"/>
+      <c r="L61" s="94"/>
+      <c r="M61" s="94"/>
+      <c r="N61" s="95">
+        <f>SUM(N53:N60)</f>
         <v>6</v>
       </c>
-      <c r="O60" s="95">
-        <f>SUM(O52:O59)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23" t="s">
+      <c r="O61" s="95">
+        <f>SUM(O53:O60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="74">
+      <c r="B62" s="74">
         <v>42380</v>
       </c>
-      <c r="C61" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E61" s="47"/>
-      <c r="F61" s="37">
-        <v>1</v>
-      </c>
-      <c r="G61" s="37"/>
-      <c r="H61" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I61" s="48"/>
-      <c r="J61" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K61" s="23"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="28">
-        <f t="shared" ref="N61:O66" si="37">D61+F61+H61+J61+L61</f>
-        <v>2.5</v>
-      </c>
-      <c r="O61" s="29">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="75">
-        <v>42381</v>
-      </c>
-      <c r="C62" s="55" t="s">
-        <v>63</v>
+      <c r="C62" s="92" t="s">
+        <v>62</v>
       </c>
       <c r="D62" s="47">
         <v>0.5</v>
@@ -3141,14 +3191,14 @@
       <c r="J62" s="37">
         <v>0.5</v>
       </c>
-      <c r="K62" s="30"/>
-      <c r="L62" s="49"/>
-      <c r="M62" s="49"/>
-      <c r="N62" s="36">
-        <f t="shared" si="37"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="28">
+        <f t="shared" ref="N62:O67" si="37">D62+F62+H62+J62+L62</f>
         <v>2.5</v>
       </c>
-      <c r="O62" s="37">
+      <c r="O62" s="29">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
@@ -3158,10 +3208,10 @@
         <v>8</v>
       </c>
       <c r="B63" s="75">
-        <v>42382</v>
-      </c>
-      <c r="C63" s="100" t="s">
-        <v>63</v>
+        <v>42381</v>
+      </c>
+      <c r="C63" s="55" t="s">
+        <v>62</v>
       </c>
       <c r="D63" s="47">
         <v>0.5</v>
@@ -3190,15 +3240,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B64" s="75">
-        <v>42383</v>
+        <v>42382</v>
       </c>
       <c r="C64" s="100" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D64" s="47">
         <v>0.5</v>
@@ -3232,10 +3282,10 @@
         <v>8</v>
       </c>
       <c r="B65" s="75">
-        <v>42384</v>
-      </c>
-      <c r="C65" s="55" t="s">
-        <v>63</v>
+        <v>42383</v>
+      </c>
+      <c r="C65" s="100" t="s">
+        <v>62</v>
       </c>
       <c r="D65" s="47">
         <v>0.5</v>
@@ -3265,103 +3315,103 @@
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" s="38" t="s">
+      <c r="A66" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="76"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="50"/>
-      <c r="M66" s="50"/>
-      <c r="N66" s="44">
+      <c r="B66" s="75">
+        <v>42384</v>
+      </c>
+      <c r="C66" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E66" s="47"/>
+      <c r="F66" s="37">
+        <v>1</v>
+      </c>
+      <c r="G66" s="37"/>
+      <c r="H66" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I66" s="48"/>
+      <c r="J66" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K66" s="30"/>
+      <c r="L66" s="49"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="36">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="O66" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="O66" s="37">
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="103" t="s">
-        <v>46</v>
-      </c>
-      <c r="B67" s="103"/>
-      <c r="C67" s="103"/>
-      <c r="D67" s="103"/>
-      <c r="E67" s="103"/>
-      <c r="F67" s="103"/>
-      <c r="G67" s="103"/>
-      <c r="H67" s="103"/>
-      <c r="I67" s="103"/>
-      <c r="J67" s="103" t="s">
-        <v>52</v>
-      </c>
-      <c r="K67" s="104"/>
-      <c r="L67" s="94"/>
-      <c r="M67" s="94"/>
-      <c r="N67" s="95">
-        <f>SUM(N61:N66)</f>
+      <c r="A67" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="76"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="38"/>
+      <c r="K67" s="38"/>
+      <c r="L67" s="50"/>
+      <c r="M67" s="50"/>
+      <c r="N67" s="44">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="O67" s="45">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="104" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" s="104"/>
+      <c r="C68" s="104"/>
+      <c r="D68" s="104"/>
+      <c r="E68" s="104"/>
+      <c r="F68" s="104"/>
+      <c r="G68" s="104"/>
+      <c r="H68" s="104"/>
+      <c r="I68" s="104"/>
+      <c r="J68" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="K68" s="103"/>
+      <c r="L68" s="94"/>
+      <c r="M68" s="94"/>
+      <c r="N68" s="95">
+        <f>SUM(N62:N67)</f>
         <v>12.5</v>
       </c>
-      <c r="O67" s="95">
-        <f>SUM(O61:O66)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="23" t="s">
+      <c r="O68" s="95">
+        <f>SUM(O62:O67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="74">
+      <c r="B69" s="74">
         <v>42387</v>
       </c>
-      <c r="C68" s="92" t="s">
-        <v>63</v>
-      </c>
-      <c r="D68" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E68" s="47"/>
-      <c r="F68" s="37">
-        <v>1</v>
-      </c>
-      <c r="G68" s="37"/>
-      <c r="H68" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I68" s="48"/>
-      <c r="J68" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K68" s="23"/>
-      <c r="L68" s="46"/>
-      <c r="M68" s="46"/>
-      <c r="N68" s="28">
-        <f t="shared" ref="N68:O70" si="38">D68+F68+H68+J68+L68</f>
-        <v>2.5</v>
-      </c>
-      <c r="O68" s="29">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69" s="75">
-        <v>42388</v>
-      </c>
-      <c r="C69" s="55" t="s">
-        <v>63</v>
+      <c r="C69" s="92" t="s">
+        <v>62</v>
       </c>
       <c r="D69" s="47">
         <v>0.5</v>
@@ -3378,14 +3428,14 @@
       <c r="J69" s="37">
         <v>0.5</v>
       </c>
-      <c r="K69" s="30"/>
-      <c r="L69" s="49"/>
-      <c r="M69" s="49"/>
-      <c r="N69" s="36">
-        <f t="shared" si="38"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="46"/>
+      <c r="N69" s="28">
+        <f t="shared" ref="N69:O71" si="38">D69+F69+H69+J69+L69</f>
         <v>2.5</v>
       </c>
-      <c r="O69" s="37">
+      <c r="O69" s="29">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
@@ -3395,10 +3445,10 @@
         <v>9</v>
       </c>
       <c r="B70" s="75">
-        <v>42389</v>
-      </c>
-      <c r="C70" s="100" t="s">
-        <v>63</v>
+        <v>42388</v>
+      </c>
+      <c r="C70" s="55" t="s">
+        <v>62</v>
       </c>
       <c r="D70" s="47">
         <v>0.5</v>
@@ -3432,10 +3482,10 @@
         <v>9</v>
       </c>
       <c r="B71" s="75">
-        <v>42390</v>
+        <v>42389</v>
       </c>
       <c r="C71" s="100" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D71" s="47">
         <v>0.5</v>
@@ -3456,11 +3506,11 @@
       <c r="L71" s="49"/>
       <c r="M71" s="49"/>
       <c r="N71" s="36">
-        <f t="shared" ref="N71:N74" si="39">D71+F71+H71+J71+L71</f>
+        <f t="shared" si="38"/>
         <v>2.5</v>
       </c>
       <c r="O71" s="37">
-        <f t="shared" ref="O71:O74" si="40">E71+G71+I71+K71+M71</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -3469,10 +3519,10 @@
         <v>9</v>
       </c>
       <c r="B72" s="75">
-        <v>42391</v>
-      </c>
-      <c r="C72" s="55" t="s">
-        <v>63</v>
+        <v>42390</v>
+      </c>
+      <c r="C72" s="100" t="s">
+        <v>62</v>
       </c>
       <c r="D72" s="47">
         <v>0.5</v>
@@ -3493,11 +3543,11 @@
       <c r="L72" s="49"/>
       <c r="M72" s="49"/>
       <c r="N72" s="36">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="N72:N75" si="39">D72+F72+H72+J72+L72</f>
         <v>2.5</v>
       </c>
       <c r="O72" s="37">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="O72:O75" si="40">E72+G72+I72+K72+M72</f>
         <v>0</v>
       </c>
     </row>
@@ -3505,136 +3555,189 @@
       <c r="A73" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="82"/>
-      <c r="C73" s="88"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="84"/>
-      <c r="F73" s="81"/>
-      <c r="G73" s="81"/>
-      <c r="H73" s="85"/>
-      <c r="I73" s="85"/>
-      <c r="J73" s="81"/>
-      <c r="K73" s="81"/>
-      <c r="L73" s="86"/>
-      <c r="M73" s="86"/>
-      <c r="N73" s="101">
+      <c r="B73" s="75">
+        <v>42391</v>
+      </c>
+      <c r="C73" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E73" s="47"/>
+      <c r="F73" s="37">
+        <v>1</v>
+      </c>
+      <c r="G73" s="37"/>
+      <c r="H73" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I73" s="48"/>
+      <c r="J73" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K73" s="30"/>
+      <c r="L73" s="49"/>
+      <c r="M73" s="49"/>
+      <c r="N73" s="36">
         <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="O73" s="87">
+        <v>2.5</v>
+      </c>
+      <c r="O73" s="37">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74" s="38"/>
-      <c r="B74" s="76">
+      <c r="A74" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="82"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="81"/>
+      <c r="G74" s="81"/>
+      <c r="H74" s="85"/>
+      <c r="I74" s="85"/>
+      <c r="J74" s="81"/>
+      <c r="K74" s="81"/>
+      <c r="L74" s="86"/>
+      <c r="M74" s="86"/>
+      <c r="N74" s="101">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="O74" s="87">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" s="38"/>
+      <c r="B75" s="76">
         <v>42393</v>
       </c>
-      <c r="C74" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="D74" s="53"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="38"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="50"/>
-      <c r="M74" s="50"/>
-      <c r="N74" s="44">
+      <c r="C75" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="D75" s="53"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="54"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="50"/>
+      <c r="M75" s="50"/>
+      <c r="N75" s="44">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="O74" s="45">
+      <c r="O75" s="45">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A75" s="3"/>
-      <c r="B75" s="78"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="103" t="s">
-        <v>53</v>
-      </c>
-      <c r="K75" s="104"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="8">
-        <f>SUM(N68:N74)</f>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" s="3"/>
+      <c r="B76" s="78"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="K76" s="103"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="8">
+        <f>SUM(N69:N75)</f>
         <v>12.5</v>
       </c>
-      <c r="O75" s="4">
-        <f>SUM(O68:O74)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A76" s="9"/>
-      <c r="B76" s="79"/>
-      <c r="C76" s="10" t="s">
+      <c r="O76" s="4">
+        <f>SUM(O69:O75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" s="9"/>
+      <c r="B77" s="79"/>
+      <c r="C77" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D76" s="11">
-        <f t="shared" ref="D76:M76" si="41">SUM(D4:D75)</f>
-        <v>33</v>
-      </c>
-      <c r="E76" s="11">
+      <c r="D77" s="11">
+        <f t="shared" ref="D77:M77" si="41">SUM(D4:D76)</f>
+        <v>36.25</v>
+      </c>
+      <c r="E77" s="11">
         <f t="shared" si="41"/>
-        <v>19.5</v>
-      </c>
-      <c r="F76" s="11">
+        <v>26</v>
+      </c>
+      <c r="F77" s="11">
         <f t="shared" si="41"/>
-        <v>41</v>
-      </c>
-      <c r="G76" s="11">
+        <v>43</v>
+      </c>
+      <c r="G77" s="11">
         <f t="shared" si="41"/>
-        <v>19.25</v>
-      </c>
-      <c r="H76" s="11">
-        <f t="shared" si="41"/>
-        <v>31</v>
-      </c>
-      <c r="I76" s="11">
-        <f t="shared" si="41"/>
-        <v>18.25</v>
-      </c>
-      <c r="J76" s="11">
+        <v>26.25</v>
+      </c>
+      <c r="H77" s="11">
         <f t="shared" si="41"/>
         <v>34</v>
       </c>
-      <c r="K76" s="11">
+      <c r="I77" s="11">
         <f t="shared" si="41"/>
-        <v>20.75</v>
-      </c>
-      <c r="L76" s="11">
+        <v>24.25</v>
+      </c>
+      <c r="J77" s="11">
         <f t="shared" si="41"/>
-        <v>0.5</v>
-      </c>
-      <c r="M76" s="11">
+        <v>36</v>
+      </c>
+      <c r="K77" s="11">
         <f t="shared" si="41"/>
-        <v>0.5</v>
-      </c>
-      <c r="N76" s="9">
-        <f>D76+F76+H76+J76+L76</f>
-        <v>139.5</v>
-      </c>
-      <c r="O76" s="11">
-        <f>E76+G76+I76+K76+M76</f>
-        <v>78.25</v>
+        <v>27.25</v>
+      </c>
+      <c r="L77" s="11">
+        <f t="shared" si="41"/>
+        <v>0.5</v>
+      </c>
+      <c r="M77" s="11">
+        <f t="shared" si="41"/>
+        <v>0.5</v>
+      </c>
+      <c r="N77" s="9">
+        <f>D77+F77+H77+J77+L77</f>
+        <v>149.75</v>
+      </c>
+      <c r="O77" s="11">
+        <f>E77+G77+I77+K77+M77</f>
+        <v>104.25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="A61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="A68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="A44:I44"/>
+    <mergeCell ref="J44:K44"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="E2:F2"/>
@@ -3643,22 +3746,6 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="A60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="A67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="J43:K43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -3684,15 +3771,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -3853,29 +3945,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3893,26 +3996,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
+++ b/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
@@ -720,10 +720,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -739,9 +742,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1048,11 +1048,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <pane ySplit="4" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1080,18 +1080,18 @@
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="E2" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="105"/>
+      <c r="F2" s="106"/>
       <c r="H2" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="110">
+      <c r="I2" s="105">
         <f ca="1">TODAY()</f>
-        <v>42333</v>
-      </c>
-      <c r="J2" s="110"/>
+        <v>42338</v>
+      </c>
+      <c r="J2" s="105"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -1143,43 +1143,43 @@
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="73"/>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="108"/>
-      <c r="F4" s="103" t="s">
+      <c r="E4" s="109"/>
+      <c r="F4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="103"/>
-      <c r="H4" s="109" t="s">
+      <c r="G4" s="104"/>
+      <c r="H4" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="109"/>
-      <c r="J4" s="103" t="s">
+      <c r="I4" s="110"/>
+      <c r="J4" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="103"/>
-      <c r="L4" s="106" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="107"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="107" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="108"/>
       <c r="N4" s="22"/>
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="103"/>
-      <c r="K5" s="103"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
       <c r="L5" s="94"/>
       <c r="M5" s="94"/>
       <c r="N5" s="95"/>
@@ -1403,21 +1403,21 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="103" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="103"/>
+      <c r="K11" s="104"/>
       <c r="L11" s="94"/>
       <c r="M11" s="94"/>
       <c r="N11" s="95">
@@ -1856,21 +1856,21 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="104" t="s">
+      <c r="A22" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="103" t="s">
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="103"/>
+      <c r="K22" s="104"/>
       <c r="L22" s="94"/>
       <c r="M22" s="94"/>
       <c r="N22" s="95">
@@ -2264,13 +2264,17 @@
       <c r="D32" s="47">
         <v>1</v>
       </c>
-      <c r="E32" s="47"/>
+      <c r="E32" s="47">
+        <v>1</v>
+      </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
       <c r="H32" s="48">
         <v>1</v>
       </c>
-      <c r="I32" s="48"/>
+      <c r="I32" s="48">
+        <v>1</v>
+      </c>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
       <c r="L32" s="98"/>
@@ -2288,8 +2292,12 @@
       <c r="C33" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
+      <c r="D33" s="47">
+        <v>1</v>
+      </c>
+      <c r="E33" s="47">
+        <v>1</v>
+      </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
       <c r="H33" s="48"/>
@@ -2300,11 +2308,11 @@
       <c r="M33" s="49"/>
       <c r="N33" s="36">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" s="37">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2349,19 +2357,27 @@
       <c r="D35" s="40">
         <v>0.25</v>
       </c>
-      <c r="E35" s="40"/>
+      <c r="E35" s="40">
+        <v>0.25</v>
+      </c>
       <c r="F35" s="62">
         <v>0.25</v>
       </c>
-      <c r="G35" s="62"/>
+      <c r="G35" s="62">
+        <v>0.25</v>
+      </c>
       <c r="H35" s="42">
         <v>0.25</v>
       </c>
-      <c r="I35" s="42"/>
+      <c r="I35" s="42">
+        <v>0.25</v>
+      </c>
       <c r="J35" s="41">
         <v>0.25</v>
       </c>
-      <c r="K35" s="41"/>
+      <c r="K35" s="41">
+        <v>0.25</v>
+      </c>
       <c r="L35" s="50"/>
       <c r="M35" s="50"/>
       <c r="N35" s="44">
@@ -2370,34 +2386,34 @@
       </c>
       <c r="O35" s="45">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="104" t="s">
+      <c r="A36" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="104"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="103" t="s">
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="K36" s="103"/>
+      <c r="K36" s="104"/>
       <c r="L36" s="94"/>
       <c r="M36" s="94"/>
       <c r="N36" s="95">
         <f>SUM(N23:N35)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O36" s="95">
         <f>SUM(O23:O35)</f>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2408,12 +2424,14 @@
         <v>42338</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D37" s="47">
         <v>0.5</v>
       </c>
-      <c r="E37" s="47"/>
+      <c r="E37" s="47">
+        <v>0.5</v>
+      </c>
       <c r="F37" s="37">
         <v>1</v>
       </c>
@@ -2425,25 +2443,29 @@
       <c r="J37" s="37">
         <v>0.5</v>
       </c>
-      <c r="K37" s="37"/>
+      <c r="K37" s="37">
+        <v>3</v>
+      </c>
       <c r="L37" s="58"/>
       <c r="M37" s="58"/>
       <c r="N37" s="36">
-        <f t="shared" ref="N37:N38" si="26">D37+F37+H37+J37+L37</f>
+        <f t="shared" ref="N37" si="26">D37+F37+H37+J37+L37</f>
         <v>2.5</v>
       </c>
       <c r="O37" s="37">
-        <f t="shared" ref="O37:O39" si="27">E37+G37+I37+K37+M37</f>
-        <v>0</v>
+        <f t="shared" ref="O37:O38" si="27">E37+G37+I37+K37+M37</f>
+        <v>3.5</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="30">
         <v>4</v>
       </c>
-      <c r="B38" s="75"/>
-      <c r="C38" s="31" t="s">
-        <v>23</v>
+      <c r="B38" s="75">
+        <v>42338</v>
+      </c>
+      <c r="C38" s="55" t="s">
+        <v>32</v>
       </c>
       <c r="D38" s="47">
         <v>0.25</v>
@@ -2455,10 +2477,10 @@
       <c r="I38" s="48"/>
       <c r="J38" s="37"/>
       <c r="K38" s="37"/>
-      <c r="L38" s="46"/>
-      <c r="M38" s="46"/>
+      <c r="L38" s="49"/>
+      <c r="M38" s="49"/>
       <c r="N38" s="36">
-        <f t="shared" si="26"/>
+        <f>D38+F38+H38+J38+L38</f>
         <v>0.25</v>
       </c>
       <c r="O38" s="37">
@@ -2471,27 +2493,35 @@
         <v>4</v>
       </c>
       <c r="B39" s="75">
-        <v>42338</v>
+        <v>42340</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="47"/>
+        <v>62</v>
+      </c>
+      <c r="D39" s="47">
+        <v>0.5</v>
+      </c>
       <c r="E39" s="47"/>
-      <c r="F39" s="37"/>
+      <c r="F39" s="37">
+        <v>1</v>
+      </c>
       <c r="G39" s="37"/>
-      <c r="H39" s="48"/>
+      <c r="H39" s="48">
+        <v>0.5</v>
+      </c>
       <c r="I39" s="48"/>
-      <c r="J39" s="37"/>
+      <c r="J39" s="37">
+        <v>0.5</v>
+      </c>
       <c r="K39" s="37"/>
       <c r="L39" s="49"/>
       <c r="M39" s="49"/>
       <c r="N39" s="36">
         <f>D39+F39+H39+J39+L39</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O39" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="O39" si="28">E39+G39+I39+K39+M39</f>
         <v>0</v>
       </c>
     </row>
@@ -2499,187 +2529,191 @@
       <c r="A40" s="30">
         <v>4</v>
       </c>
-      <c r="B40" s="75">
-        <v>42340</v>
-      </c>
-      <c r="C40" s="55" t="s">
-        <v>62</v>
+      <c r="B40" s="75"/>
+      <c r="C40" s="31" t="s">
+        <v>23</v>
       </c>
       <c r="D40" s="47">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E40" s="47"/>
-      <c r="F40" s="37">
-        <v>1</v>
-      </c>
+      <c r="F40" s="37"/>
       <c r="G40" s="37"/>
-      <c r="H40" s="48">
-        <v>0.5</v>
-      </c>
+      <c r="H40" s="48"/>
       <c r="I40" s="48"/>
-      <c r="J40" s="37">
-        <v>0.5</v>
-      </c>
+      <c r="J40" s="37"/>
       <c r="K40" s="37"/>
       <c r="L40" s="49"/>
       <c r="M40" s="49"/>
       <c r="N40" s="36">
-        <f>D40+F40+H40+J40+L40</f>
+        <f t="shared" ref="N40:N41" si="29">D40+F40+H40+J40+L40</f>
+        <v>0.25</v>
+      </c>
+      <c r="O40" s="37">
+        <f t="shared" ref="O40:O41" si="30">E40+G40+I40+K40+M40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="81">
+        <v>4</v>
+      </c>
+      <c r="B41" s="82"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="87"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="90"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="87"/>
+      <c r="K41" s="87"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="86"/>
+      <c r="N41" s="36">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="37">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="38">
+        <v>4</v>
+      </c>
+      <c r="B42" s="76">
+        <v>42344</v>
+      </c>
+      <c r="C42" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E42" s="40"/>
+      <c r="F42" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="G42" s="62"/>
+      <c r="H42" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="I42" s="42"/>
+      <c r="J42" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="K42" s="41"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="44">
+        <f>D42+F42+H42+J42+L42</f>
+        <v>1</v>
+      </c>
+      <c r="O42" s="45">
+        <f>E42+G42+I42+K42+M42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="K43" s="104"/>
+      <c r="L43" s="94"/>
+      <c r="M43" s="94"/>
+      <c r="N43" s="95">
+        <f>SUM(N37:N42)</f>
+        <v>6.5</v>
+      </c>
+      <c r="O43" s="95">
+        <f>SUM(O37:O42)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="23">
+        <v>4</v>
+      </c>
+      <c r="B44" s="74">
+        <v>42345</v>
+      </c>
+      <c r="C44" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E44" s="47"/>
+      <c r="F44" s="37">
+        <v>1</v>
+      </c>
+      <c r="G44" s="37"/>
+      <c r="H44" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I44" s="48"/>
+      <c r="J44" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K44" s="29"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="46"/>
+      <c r="N44" s="28">
+        <f t="shared" ref="N44" si="31">D44+F44+H44+J44+L44</f>
         <v>2.5</v>
       </c>
-      <c r="O40" s="37">
-        <f t="shared" ref="O40" si="28">E40+G40+I40+K40+M40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="30">
-        <v>4</v>
-      </c>
-      <c r="B41" s="75"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="36">
-        <f>D41+F41+H41+J41+L41</f>
-        <v>0</v>
-      </c>
-      <c r="O41" s="37">
-        <f>E41+G41+I41+K41+M41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="81">
-        <v>4</v>
-      </c>
-      <c r="B42" s="82"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="89"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="87"/>
-      <c r="G42" s="87"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="90"/>
-      <c r="J42" s="87"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="86"/>
-      <c r="M42" s="86"/>
-      <c r="N42" s="36">
-        <f>D42+F42+H42+J42+L42</f>
-        <v>0</v>
-      </c>
-      <c r="O42" s="37">
-        <f>E42+G42+I42+K42+M42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="38">
-        <v>4</v>
-      </c>
-      <c r="B43" s="76">
-        <v>42344</v>
-      </c>
-      <c r="C43" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E43" s="40"/>
-      <c r="F43" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="G43" s="62"/>
-      <c r="H43" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I43" s="42"/>
-      <c r="J43" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="K43" s="41"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="44">
-        <f>D43+F43+H43+J43+L43</f>
-        <v>1</v>
-      </c>
-      <c r="O43" s="45">
-        <f>E43+G43+I43+K43+M43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="104" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="104"/>
-      <c r="C44" s="104"/>
-      <c r="D44" s="104"/>
-      <c r="E44" s="104"/>
-      <c r="F44" s="104"/>
-      <c r="G44" s="104"/>
-      <c r="H44" s="104"/>
-      <c r="I44" s="104"/>
-      <c r="J44" s="103" t="s">
-        <v>48</v>
-      </c>
-      <c r="K44" s="103"/>
-      <c r="L44" s="94"/>
-      <c r="M44" s="94"/>
-      <c r="N44" s="95">
-        <f>SUM(N37:N43)</f>
-        <v>6.25</v>
-      </c>
-      <c r="O44" s="95">
-        <f>SUM(O37:O43)</f>
+      <c r="O44" s="29">
+        <f t="shared" ref="O44" si="32">E44+G44+I44+K44+M44</f>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="23">
-        <v>4</v>
-      </c>
-      <c r="B45" s="74">
+      <c r="A45" s="30">
+        <v>5</v>
+      </c>
+      <c r="B45" s="75">
         <v>42345</v>
       </c>
-      <c r="C45" s="57" t="s">
-        <v>62</v>
+      <c r="C45" s="55" t="s">
+        <v>33</v>
       </c>
       <c r="D45" s="47">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E45" s="47"/>
       <c r="F45" s="37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" s="37"/>
       <c r="H45" s="48">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I45" s="48"/>
       <c r="J45" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K45" s="29"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="28">
-        <f t="shared" ref="N45" si="29">D45+F45+H45+J45+L45</f>
-        <v>2.5</v>
-      </c>
-      <c r="O45" s="29">
-        <f t="shared" ref="O45" si="30">E45+G45+I45+K45+M45</f>
+        <v>2</v>
+      </c>
+      <c r="K45" s="37"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="36">
+        <f t="shared" ref="N45" si="33">D45+F45+H45+J45+L45</f>
+        <v>8</v>
+      </c>
+      <c r="O45" s="37">
+        <f t="shared" ref="O45" si="34">E45+G45+I45+K45+M45</f>
         <v>0</v>
       </c>
     </row>
@@ -2690,33 +2724,22 @@
       <c r="B46" s="75">
         <v>42345</v>
       </c>
-      <c r="C46" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" s="47">
-        <v>2</v>
-      </c>
+      <c r="D46" s="47"/>
       <c r="E46" s="47"/>
-      <c r="F46" s="37">
-        <v>2</v>
-      </c>
+      <c r="F46" s="37"/>
       <c r="G46" s="37"/>
-      <c r="H46" s="48">
-        <v>2</v>
-      </c>
+      <c r="H46" s="48"/>
       <c r="I46" s="48"/>
-      <c r="J46" s="37">
-        <v>2</v>
-      </c>
+      <c r="J46" s="37"/>
       <c r="K46" s="37"/>
       <c r="L46" s="49"/>
       <c r="M46" s="49"/>
       <c r="N46" s="36">
-        <f t="shared" ref="N46" si="31">D46+F46+H46+J46+L46</f>
-        <v>8</v>
+        <f t="shared" ref="N46:O50" si="35">D46+F46+H46+J46+L46</f>
+        <v>0</v>
       </c>
       <c r="O46" s="37">
-        <f t="shared" ref="O46" si="32">E46+G46+I46+K46+M46</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -2725,24 +2748,35 @@
         <v>5</v>
       </c>
       <c r="B47" s="75">
-        <v>42345</v>
-      </c>
-      <c r="D47" s="47"/>
+        <v>42347</v>
+      </c>
+      <c r="C47" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" s="47">
+        <v>0.5</v>
+      </c>
       <c r="E47" s="47"/>
-      <c r="F47" s="37"/>
+      <c r="F47" s="37">
+        <v>1</v>
+      </c>
       <c r="G47" s="37"/>
-      <c r="H47" s="48"/>
+      <c r="H47" s="48">
+        <v>0.5</v>
+      </c>
       <c r="I47" s="48"/>
-      <c r="J47" s="37"/>
+      <c r="J47" s="37">
+        <v>0.5</v>
+      </c>
       <c r="K47" s="37"/>
       <c r="L47" s="49"/>
       <c r="M47" s="49"/>
       <c r="N47" s="36">
-        <f t="shared" ref="N47:O51" si="33">D47+F47+H47+J47+L47</f>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>2.5</v>
       </c>
       <c r="O47" s="37">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
@@ -2750,165 +2784,165 @@
       <c r="A48" s="30">
         <v>5</v>
       </c>
-      <c r="B48" s="75">
-        <v>42347</v>
-      </c>
+      <c r="B48" s="75"/>
       <c r="C48" s="55" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="D48" s="47">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="E48" s="47"/>
-      <c r="F48" s="37">
-        <v>1</v>
-      </c>
+      <c r="F48" s="37"/>
       <c r="G48" s="37"/>
-      <c r="H48" s="48">
-        <v>0.5</v>
-      </c>
+      <c r="H48" s="48"/>
       <c r="I48" s="48"/>
-      <c r="J48" s="37">
-        <v>0.5</v>
-      </c>
+      <c r="J48" s="37"/>
       <c r="K48" s="37"/>
       <c r="L48" s="49"/>
       <c r="M48" s="49"/>
       <c r="N48" s="36">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
+        <v>0.25</v>
+      </c>
+      <c r="O48" s="37">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="81">
+        <v>5</v>
+      </c>
+      <c r="B49" s="82"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="87"/>
+      <c r="G49" s="87"/>
+      <c r="H49" s="90"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="87"/>
+      <c r="K49" s="87"/>
+      <c r="L49" s="86"/>
+      <c r="M49" s="86"/>
+      <c r="N49" s="36">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="37">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="38">
+        <v>5</v>
+      </c>
+      <c r="B50" s="76">
+        <v>42351</v>
+      </c>
+      <c r="C50" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E50" s="40"/>
+      <c r="F50" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="G50" s="62"/>
+      <c r="H50" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="I50" s="42"/>
+      <c r="J50" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="K50" s="41"/>
+      <c r="L50" s="50"/>
+      <c r="M50" s="50"/>
+      <c r="N50" s="44">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="O50" s="45">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="103"/>
+      <c r="C51" s="103"/>
+      <c r="D51" s="103"/>
+      <c r="E51" s="103"/>
+      <c r="F51" s="103"/>
+      <c r="G51" s="103"/>
+      <c r="H51" s="103"/>
+      <c r="I51" s="103"/>
+      <c r="J51" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="K51" s="104"/>
+      <c r="L51" s="94"/>
+      <c r="M51" s="94"/>
+      <c r="N51" s="95">
+        <f>SUM(N44:N50)</f>
+        <v>14.25</v>
+      </c>
+      <c r="O51" s="95">
+        <f>SUM(O44:O50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="23">
+        <v>6</v>
+      </c>
+      <c r="B52" s="74">
+        <v>42352</v>
+      </c>
+      <c r="C52" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E52" s="47"/>
+      <c r="F52" s="37">
+        <v>1</v>
+      </c>
+      <c r="G52" s="37"/>
+      <c r="H52" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I52" s="48"/>
+      <c r="J52" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K52" s="29"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="28">
+        <f t="shared" ref="N52:O59" si="36">D52+F52+H52+J52+L52</f>
         <v>2.5</v>
       </c>
-      <c r="O48" s="37">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="30">
-        <v>5</v>
-      </c>
-      <c r="B49" s="75"/>
-      <c r="C49" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="D49" s="47">
-        <v>0.25</v>
-      </c>
-      <c r="E49" s="47"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="48"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="36">
-        <f t="shared" si="33"/>
-        <v>0.25</v>
-      </c>
-      <c r="O49" s="37">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="81">
-        <v>5</v>
-      </c>
-      <c r="B50" s="82"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="87"/>
-      <c r="G50" s="87"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
-      <c r="J50" s="87"/>
-      <c r="K50" s="87"/>
-      <c r="L50" s="86"/>
-      <c r="M50" s="86"/>
-      <c r="N50" s="36">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="O50" s="37">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="38">
-        <v>5</v>
-      </c>
-      <c r="B51" s="76">
-        <v>42351</v>
-      </c>
-      <c r="C51" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E51" s="40"/>
-      <c r="F51" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="G51" s="62"/>
-      <c r="H51" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I51" s="42"/>
-      <c r="J51" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="K51" s="41"/>
-      <c r="L51" s="50"/>
-      <c r="M51" s="50"/>
-      <c r="N51" s="44">
-        <f t="shared" si="33"/>
-        <v>1</v>
-      </c>
-      <c r="O51" s="45">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="B52" s="104"/>
-      <c r="C52" s="104"/>
-      <c r="D52" s="104"/>
-      <c r="E52" s="104"/>
-      <c r="F52" s="104"/>
-      <c r="G52" s="104"/>
-      <c r="H52" s="104"/>
-      <c r="I52" s="104"/>
-      <c r="J52" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="K52" s="103"/>
-      <c r="L52" s="94"/>
-      <c r="M52" s="94"/>
-      <c r="N52" s="95">
-        <f>SUM(N45:N51)</f>
-        <v>14.25</v>
-      </c>
-      <c r="O52" s="95">
-        <f>SUM(O45:O51)</f>
+      <c r="O52" s="29">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="23">
+      <c r="A53" s="64">
         <v>6</v>
       </c>
-      <c r="B53" s="74">
-        <v>42352</v>
-      </c>
-      <c r="C53" s="92" t="s">
+      <c r="B53" s="77">
+        <v>42354</v>
+      </c>
+      <c r="C53" s="55" t="s">
         <v>62</v>
       </c>
       <c r="D53" s="47">
@@ -2926,52 +2960,42 @@
       <c r="J53" s="37">
         <v>0.5</v>
       </c>
-      <c r="K53" s="29"/>
-      <c r="L53" s="46"/>
-      <c r="M53" s="46"/>
-      <c r="N53" s="28">
-        <f t="shared" ref="N53:O60" si="34">D53+F53+H53+J53+L53</f>
+      <c r="K53" s="97"/>
+      <c r="L53" s="98"/>
+      <c r="M53" s="98"/>
+      <c r="N53" s="99">
+        <f t="shared" ref="N53:N54" si="37">D53+F53+H53+J53+L53</f>
         <v>2.5</v>
       </c>
-      <c r="O53" s="29">
-        <f t="shared" si="34"/>
+      <c r="O53" s="97">
+        <f t="shared" ref="O53:O54" si="38">E53+G53+I53+K53+M53</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="64">
+      <c r="A54" s="30">
         <v>6</v>
       </c>
-      <c r="B54" s="77">
-        <v>42354</v>
-      </c>
+      <c r="B54" s="75"/>
       <c r="C54" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E54" s="47"/>
-      <c r="F54" s="37">
-        <v>1</v>
-      </c>
-      <c r="G54" s="37"/>
-      <c r="H54" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I54" s="48"/>
-      <c r="J54" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K54" s="97"/>
-      <c r="L54" s="98"/>
-      <c r="M54" s="98"/>
-      <c r="N54" s="99">
-        <f t="shared" ref="N54:N55" si="35">D54+F54+H54+J54+L54</f>
-        <v>2.5</v>
-      </c>
-      <c r="O54" s="97">
-        <f t="shared" ref="O54:O55" si="36">E54+G54+I54+K54+M54</f>
+        <v>25</v>
+      </c>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="36">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="37">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
@@ -2980,9 +3004,7 @@
         <v>6</v>
       </c>
       <c r="B55" s="75"/>
-      <c r="C55" s="55" t="s">
-        <v>25</v>
-      </c>
+      <c r="C55" s="31"/>
       <c r="D55" s="51"/>
       <c r="E55" s="51"/>
       <c r="F55" s="30"/>
@@ -2994,7 +3016,7 @@
       <c r="L55" s="49"/>
       <c r="M55" s="49"/>
       <c r="N55" s="36">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O55" s="37">
@@ -3019,11 +3041,11 @@
       <c r="L56" s="49"/>
       <c r="M56" s="49"/>
       <c r="N56" s="36">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O56" s="37">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -3044,136 +3066,148 @@
       <c r="L57" s="49"/>
       <c r="M57" s="49"/>
       <c r="N57" s="36">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O57" s="37">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="30">
+      <c r="A58" s="81">
         <v>6</v>
       </c>
-      <c r="B58" s="75"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="49"/>
-      <c r="M58" s="49"/>
+      <c r="B58" s="82"/>
+      <c r="C58" s="83"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="81"/>
+      <c r="G58" s="81"/>
+      <c r="H58" s="85"/>
+      <c r="I58" s="85"/>
+      <c r="J58" s="81"/>
+      <c r="K58" s="81"/>
+      <c r="L58" s="86"/>
+      <c r="M58" s="86"/>
       <c r="N58" s="36">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O58" s="37">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="81">
+      <c r="A59" s="38">
         <v>6</v>
       </c>
-      <c r="B59" s="82"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="84"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="81"/>
-      <c r="G59" s="81"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="81"/>
-      <c r="K59" s="81"/>
-      <c r="L59" s="86"/>
-      <c r="M59" s="86"/>
-      <c r="N59" s="36">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="O59" s="37">
-        <f t="shared" si="34"/>
+      <c r="B59" s="76">
+        <v>42358</v>
+      </c>
+      <c r="C59" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E59" s="40"/>
+      <c r="F59" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="G59" s="62"/>
+      <c r="H59" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="I59" s="42"/>
+      <c r="J59" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="K59" s="41"/>
+      <c r="L59" s="50"/>
+      <c r="M59" s="50"/>
+      <c r="N59" s="44">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="O59" s="45">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="38">
+      <c r="A60" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="B60" s="103"/>
+      <c r="C60" s="103"/>
+      <c r="D60" s="103"/>
+      <c r="E60" s="103"/>
+      <c r="F60" s="103"/>
+      <c r="G60" s="103"/>
+      <c r="H60" s="103"/>
+      <c r="I60" s="103"/>
+      <c r="J60" s="103" t="s">
+        <v>50</v>
+      </c>
+      <c r="K60" s="104"/>
+      <c r="L60" s="94"/>
+      <c r="M60" s="94"/>
+      <c r="N60" s="95">
+        <f>SUM(N52:N59)</f>
         <v>6</v>
       </c>
-      <c r="B60" s="76">
-        <v>42358</v>
-      </c>
-      <c r="C60" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="D60" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E60" s="40"/>
-      <c r="F60" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="G60" s="62"/>
-      <c r="H60" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I60" s="42"/>
-      <c r="J60" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="K60" s="41"/>
-      <c r="L60" s="50"/>
-      <c r="M60" s="50"/>
-      <c r="N60" s="44">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="O60" s="45">
-        <f t="shared" si="34"/>
+      <c r="O60" s="95">
+        <f>SUM(O52:O59)</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="B61" s="104"/>
-      <c r="C61" s="104"/>
-      <c r="D61" s="104"/>
-      <c r="E61" s="104"/>
-      <c r="F61" s="104"/>
-      <c r="G61" s="104"/>
-      <c r="H61" s="104"/>
-      <c r="I61" s="104"/>
-      <c r="J61" s="104" t="s">
-        <v>50</v>
-      </c>
-      <c r="K61" s="103"/>
-      <c r="L61" s="94"/>
-      <c r="M61" s="94"/>
-      <c r="N61" s="95">
-        <f>SUM(N53:N60)</f>
-        <v>6</v>
-      </c>
-      <c r="O61" s="95">
-        <f>SUM(O53:O60)</f>
+      <c r="A61" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="74">
+        <v>42380</v>
+      </c>
+      <c r="C61" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="D61" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E61" s="47"/>
+      <c r="F61" s="37">
+        <v>1</v>
+      </c>
+      <c r="G61" s="37"/>
+      <c r="H61" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I61" s="48"/>
+      <c r="J61" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K61" s="23"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="28">
+        <f t="shared" ref="N61:O66" si="39">D61+F61+H61+J61+L61</f>
+        <v>2.5</v>
+      </c>
+      <c r="O61" s="29">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="74">
-        <v>42380</v>
-      </c>
-      <c r="C62" s="92" t="s">
+      <c r="B62" s="75">
+        <v>42381</v>
+      </c>
+      <c r="C62" s="55" t="s">
         <v>62</v>
       </c>
       <c r="D62" s="47">
@@ -3191,15 +3225,15 @@
       <c r="J62" s="37">
         <v>0.5</v>
       </c>
-      <c r="K62" s="23"/>
-      <c r="L62" s="46"/>
-      <c r="M62" s="46"/>
-      <c r="N62" s="28">
-        <f t="shared" ref="N62:O67" si="37">D62+F62+H62+J62+L62</f>
+      <c r="K62" s="30"/>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="36">
+        <f t="shared" si="39"/>
         <v>2.5</v>
       </c>
-      <c r="O62" s="29">
-        <f t="shared" si="37"/>
+      <c r="O62" s="37">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -3208,9 +3242,9 @@
         <v>8</v>
       </c>
       <c r="B63" s="75">
-        <v>42381</v>
-      </c>
-      <c r="C63" s="55" t="s">
+        <v>42382</v>
+      </c>
+      <c r="C63" s="100" t="s">
         <v>62</v>
       </c>
       <c r="D63" s="47">
@@ -3232,20 +3266,20 @@
       <c r="L63" s="49"/>
       <c r="M63" s="49"/>
       <c r="N63" s="36">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>2.5</v>
       </c>
       <c r="O63" s="37">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B64" s="75">
-        <v>42382</v>
+        <v>42383</v>
       </c>
       <c r="C64" s="100" t="s">
         <v>62</v>
@@ -3269,11 +3303,11 @@
       <c r="L64" s="49"/>
       <c r="M64" s="49"/>
       <c r="N64" s="36">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>2.5</v>
       </c>
       <c r="O64" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -3282,9 +3316,9 @@
         <v>8</v>
       </c>
       <c r="B65" s="75">
-        <v>42383</v>
-      </c>
-      <c r="C65" s="100" t="s">
+        <v>42384</v>
+      </c>
+      <c r="C65" s="55" t="s">
         <v>62</v>
       </c>
       <c r="D65" s="47">
@@ -3306,111 +3340,111 @@
       <c r="L65" s="49"/>
       <c r="M65" s="49"/>
       <c r="N65" s="36">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>2.5</v>
       </c>
       <c r="O65" s="37">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="75">
-        <v>42384</v>
-      </c>
-      <c r="C66" s="55" t="s">
+      <c r="B66" s="76"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="38"/>
+      <c r="K66" s="38"/>
+      <c r="L66" s="50"/>
+      <c r="M66" s="50"/>
+      <c r="N66" s="44">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="45">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" s="103"/>
+      <c r="C67" s="103"/>
+      <c r="D67" s="103"/>
+      <c r="E67" s="103"/>
+      <c r="F67" s="103"/>
+      <c r="G67" s="103"/>
+      <c r="H67" s="103"/>
+      <c r="I67" s="103"/>
+      <c r="J67" s="103" t="s">
+        <v>51</v>
+      </c>
+      <c r="K67" s="104"/>
+      <c r="L67" s="94"/>
+      <c r="M67" s="94"/>
+      <c r="N67" s="95">
+        <f>SUM(N61:N66)</f>
+        <v>12.5</v>
+      </c>
+      <c r="O67" s="95">
+        <f>SUM(O61:O66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="74">
+        <v>42387</v>
+      </c>
+      <c r="C68" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="D66" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E66" s="47"/>
-      <c r="F66" s="37">
-        <v>1</v>
-      </c>
-      <c r="G66" s="37"/>
-      <c r="H66" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I66" s="48"/>
-      <c r="J66" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K66" s="30"/>
-      <c r="L66" s="49"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="36">
-        <f t="shared" si="37"/>
+      <c r="D68" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E68" s="47"/>
+      <c r="F68" s="37">
+        <v>1</v>
+      </c>
+      <c r="G68" s="37"/>
+      <c r="H68" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I68" s="48"/>
+      <c r="J68" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K68" s="23"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="46"/>
+      <c r="N68" s="28">
+        <f t="shared" ref="N68:O70" si="40">D68+F68+H68+J68+L68</f>
         <v>2.5</v>
       </c>
-      <c r="O66" s="37">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B67" s="76"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="38"/>
-      <c r="K67" s="38"/>
-      <c r="L67" s="50"/>
-      <c r="M67" s="50"/>
-      <c r="N67" s="44">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="O67" s="45">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="104" t="s">
-        <v>45</v>
-      </c>
-      <c r="B68" s="104"/>
-      <c r="C68" s="104"/>
-      <c r="D68" s="104"/>
-      <c r="E68" s="104"/>
-      <c r="F68" s="104"/>
-      <c r="G68" s="104"/>
-      <c r="H68" s="104"/>
-      <c r="I68" s="104"/>
-      <c r="J68" s="104" t="s">
-        <v>51</v>
-      </c>
-      <c r="K68" s="103"/>
-      <c r="L68" s="94"/>
-      <c r="M68" s="94"/>
-      <c r="N68" s="95">
-        <f>SUM(N62:N67)</f>
-        <v>12.5</v>
-      </c>
-      <c r="O68" s="95">
-        <f>SUM(O62:O67)</f>
+      <c r="O68" s="29">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="23" t="s">
+      <c r="A69" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="74">
-        <v>42387</v>
-      </c>
-      <c r="C69" s="92" t="s">
+      <c r="B69" s="75">
+        <v>42388</v>
+      </c>
+      <c r="C69" s="55" t="s">
         <v>62</v>
       </c>
       <c r="D69" s="47">
@@ -3428,15 +3462,15 @@
       <c r="J69" s="37">
         <v>0.5</v>
       </c>
-      <c r="K69" s="23"/>
-      <c r="L69" s="46"/>
-      <c r="M69" s="46"/>
-      <c r="N69" s="28">
-        <f t="shared" ref="N69:O71" si="38">D69+F69+H69+J69+L69</f>
+      <c r="K69" s="30"/>
+      <c r="L69" s="49"/>
+      <c r="M69" s="49"/>
+      <c r="N69" s="36">
+        <f t="shared" si="40"/>
         <v>2.5</v>
       </c>
-      <c r="O69" s="29">
-        <f t="shared" si="38"/>
+      <c r="O69" s="37">
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -3445,9 +3479,9 @@
         <v>9</v>
       </c>
       <c r="B70" s="75">
-        <v>42388</v>
-      </c>
-      <c r="C70" s="55" t="s">
+        <v>42389</v>
+      </c>
+      <c r="C70" s="100" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="47">
@@ -3469,11 +3503,11 @@
       <c r="L70" s="49"/>
       <c r="M70" s="49"/>
       <c r="N70" s="36">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2.5</v>
       </c>
       <c r="O70" s="37">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -3482,7 +3516,7 @@
         <v>9</v>
       </c>
       <c r="B71" s="75">
-        <v>42389</v>
+        <v>42390</v>
       </c>
       <c r="C71" s="100" t="s">
         <v>62</v>
@@ -3506,11 +3540,11 @@
       <c r="L71" s="49"/>
       <c r="M71" s="49"/>
       <c r="N71" s="36">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="N71:N74" si="41">D71+F71+H71+J71+L71</f>
         <v>2.5</v>
       </c>
       <c r="O71" s="37">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="O71:O74" si="42">E71+G71+I71+K71+M71</f>
         <v>0</v>
       </c>
     </row>
@@ -3519,9 +3553,9 @@
         <v>9</v>
       </c>
       <c r="B72" s="75">
-        <v>42390</v>
-      </c>
-      <c r="C72" s="100" t="s">
+        <v>42391</v>
+      </c>
+      <c r="C72" s="55" t="s">
         <v>62</v>
       </c>
       <c r="D72" s="47">
@@ -3543,11 +3577,11 @@
       <c r="L72" s="49"/>
       <c r="M72" s="49"/>
       <c r="N72" s="36">
-        <f t="shared" ref="N72:N75" si="39">D72+F72+H72+J72+L72</f>
+        <f t="shared" si="41"/>
         <v>2.5</v>
       </c>
       <c r="O72" s="37">
-        <f t="shared" ref="O72:O75" si="40">E72+G72+I72+K72+M72</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
@@ -3555,189 +3589,136 @@
       <c r="A73" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="75">
-        <v>42391</v>
-      </c>
-      <c r="C73" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="D73" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E73" s="47"/>
-      <c r="F73" s="37">
-        <v>1</v>
-      </c>
-      <c r="G73" s="37"/>
-      <c r="H73" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I73" s="48"/>
-      <c r="J73" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K73" s="30"/>
-      <c r="L73" s="49"/>
-      <c r="M73" s="49"/>
-      <c r="N73" s="36">
-        <f t="shared" si="39"/>
-        <v>2.5</v>
-      </c>
-      <c r="O73" s="37">
-        <f t="shared" si="40"/>
+      <c r="B73" s="82"/>
+      <c r="C73" s="88"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="84"/>
+      <c r="F73" s="81"/>
+      <c r="G73" s="81"/>
+      <c r="H73" s="85"/>
+      <c r="I73" s="85"/>
+      <c r="J73" s="81"/>
+      <c r="K73" s="81"/>
+      <c r="L73" s="86"/>
+      <c r="M73" s="86"/>
+      <c r="N73" s="101">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="O73" s="87">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" s="82"/>
-      <c r="C74" s="88"/>
-      <c r="D74" s="84"/>
-      <c r="E74" s="84"/>
-      <c r="F74" s="81"/>
-      <c r="G74" s="81"/>
-      <c r="H74" s="85"/>
-      <c r="I74" s="85"/>
-      <c r="J74" s="81"/>
-      <c r="K74" s="81"/>
-      <c r="L74" s="86"/>
-      <c r="M74" s="86"/>
-      <c r="N74" s="101">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="O74" s="87">
-        <f t="shared" si="40"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="76">
+        <v>42393</v>
+      </c>
+      <c r="C74" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="D74" s="53"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="38"/>
+      <c r="K74" s="38"/>
+      <c r="L74" s="50"/>
+      <c r="M74" s="50"/>
+      <c r="N74" s="44">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="O74" s="45">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A75" s="38"/>
-      <c r="B75" s="76">
-        <v>42393</v>
-      </c>
-      <c r="C75" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="D75" s="53"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="54"/>
-      <c r="I75" s="54"/>
-      <c r="J75" s="38"/>
-      <c r="K75" s="38"/>
-      <c r="L75" s="50"/>
-      <c r="M75" s="50"/>
-      <c r="N75" s="44">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="O75" s="45">
-        <f t="shared" si="40"/>
+      <c r="A75" s="3"/>
+      <c r="B75" s="78"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="103" t="s">
+        <v>52</v>
+      </c>
+      <c r="K75" s="104"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="8">
+        <f>SUM(N68:N74)</f>
+        <v>12.5</v>
+      </c>
+      <c r="O75" s="4">
+        <f>SUM(O68:O74)</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
-      <c r="B76" s="78"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="K76" s="103"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="8">
-        <f>SUM(N69:N75)</f>
-        <v>12.5</v>
-      </c>
-      <c r="O76" s="4">
-        <f>SUM(O69:O75)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A77" s="9"/>
-      <c r="B77" s="79"/>
-      <c r="C77" s="10" t="s">
+      <c r="A76" s="9"/>
+      <c r="B76" s="79"/>
+      <c r="C76" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D77" s="11">
-        <f t="shared" ref="D77:M77" si="41">SUM(D4:D76)</f>
-        <v>36.25</v>
-      </c>
-      <c r="E77" s="11">
-        <f t="shared" si="41"/>
-        <v>26</v>
-      </c>
-      <c r="F77" s="11">
-        <f t="shared" si="41"/>
+      <c r="D76" s="11">
+        <f t="shared" ref="D76:M76" si="43">SUM(D4:D75)</f>
+        <v>37.5</v>
+      </c>
+      <c r="E76" s="11">
+        <f t="shared" si="43"/>
+        <v>28.75</v>
+      </c>
+      <c r="F76" s="11">
+        <f t="shared" si="43"/>
         <v>43</v>
       </c>
-      <c r="G77" s="11">
-        <f t="shared" si="41"/>
-        <v>26.25</v>
-      </c>
-      <c r="H77" s="11">
-        <f t="shared" si="41"/>
+      <c r="G76" s="11">
+        <f t="shared" si="43"/>
+        <v>26.5</v>
+      </c>
+      <c r="H76" s="11">
+        <f t="shared" si="43"/>
         <v>34</v>
       </c>
-      <c r="I77" s="11">
-        <f t="shared" si="41"/>
-        <v>24.25</v>
-      </c>
-      <c r="J77" s="11">
-        <f t="shared" si="41"/>
+      <c r="I76" s="11">
+        <f t="shared" si="43"/>
+        <v>25.5</v>
+      </c>
+      <c r="J76" s="11">
+        <f t="shared" si="43"/>
         <v>36</v>
       </c>
-      <c r="K77" s="11">
-        <f t="shared" si="41"/>
-        <v>27.25</v>
-      </c>
-      <c r="L77" s="11">
-        <f t="shared" si="41"/>
-        <v>0.5</v>
-      </c>
-      <c r="M77" s="11">
-        <f t="shared" si="41"/>
-        <v>0.5</v>
-      </c>
-      <c r="N77" s="9">
-        <f>D77+F77+H77+J77+L77</f>
-        <v>149.75</v>
-      </c>
-      <c r="O77" s="11">
-        <f>E77+G77+I77+K77+M77</f>
-        <v>104.25</v>
+      <c r="K76" s="11">
+        <f t="shared" si="43"/>
+        <v>30.5</v>
+      </c>
+      <c r="L76" s="11">
+        <f t="shared" si="43"/>
+        <v>0.5</v>
+      </c>
+      <c r="M76" s="11">
+        <f t="shared" si="43"/>
+        <v>0.5</v>
+      </c>
+      <c r="N76" s="9">
+        <f>D76+F76+H76+J76+L76</f>
+        <v>151</v>
+      </c>
+      <c r="O76" s="11">
+        <f>E76+G76+I76+K76+M76</f>
+        <v>111.75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="A61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="A68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="A44:I44"/>
-    <mergeCell ref="J44:K44"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="E2:F2"/>
@@ -3746,6 +3727,22 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="A67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="J43:K43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -3771,20 +3768,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -3945,40 +3937,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3996,10 +3977,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
+++ b/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Gerald mailen over review PVA</t>
   </si>
   <si>
-    <t>Joost mailen over review SA</t>
-  </si>
-  <si>
     <t>Solution architectuur af</t>
   </si>
   <si>
@@ -220,6 +217,12 @@
   </si>
   <si>
     <t>Use case diagram maken</t>
+  </si>
+  <si>
+    <t>RA Reviewen bij Joost (13:30)</t>
+  </si>
+  <si>
+    <t>Review punten PVA aanpassen</t>
   </si>
 </sst>
 </file>
@@ -460,7 +463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -720,28 +723,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1048,11 +1054,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomLeft" activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1080,18 +1086,18 @@
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="106" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="106"/>
+      <c r="E2" s="105" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="105"/>
       <c r="H2" s="96" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="105">
+        <v>52</v>
+      </c>
+      <c r="I2" s="110">
         <f ca="1">TODAY()</f>
-        <v>42338</v>
-      </c>
-      <c r="J2" s="105"/>
+        <v>42339</v>
+      </c>
+      <c r="J2" s="110"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -1143,43 +1149,43 @@
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="73"/>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="104" t="s">
+      <c r="E4" s="108"/>
+      <c r="F4" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="104"/>
-      <c r="H4" s="110" t="s">
+      <c r="G4" s="103"/>
+      <c r="H4" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="110"/>
-      <c r="J4" s="104" t="s">
+      <c r="I4" s="109"/>
+      <c r="J4" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="104"/>
-      <c r="L4" s="107" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="108"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="107"/>
       <c r="N4" s="22"/>
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="103" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="103"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="103"/>
-      <c r="I5" s="103"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
+      <c r="A5" s="104" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
       <c r="L5" s="94"/>
       <c r="M5" s="94"/>
       <c r="N5" s="95"/>
@@ -1403,21 +1409,21 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="K11" s="104"/>
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="103" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="103"/>
       <c r="L11" s="94"/>
       <c r="M11" s="94"/>
       <c r="N11" s="95">
@@ -1482,7 +1488,7 @@
         <v>42324</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="66">
         <v>0.5</v>
@@ -1573,10 +1579,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="32">
         <v>0.25</v>
@@ -1609,7 +1615,7 @@
         <v>42326</v>
       </c>
       <c r="C16" s="93" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="32">
         <v>0.5</v>
@@ -1654,7 +1660,7 @@
         <v>42326</v>
       </c>
       <c r="C17" s="102" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="32">
         <v>0.5</v>
@@ -1699,7 +1705,7 @@
         <v>42326</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="32">
         <v>2</v>
@@ -1744,7 +1750,7 @@
         <v>42327</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="32">
         <v>1.5</v>
@@ -1785,7 +1791,7 @@
         <v>42330</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
@@ -1856,21 +1862,21 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="103" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="103"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="104"/>
+      <c r="A22" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="103"/>
       <c r="L22" s="94"/>
       <c r="M22" s="94"/>
       <c r="N22" s="95">
@@ -1935,7 +1941,7 @@
         <v>42331</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24" s="47">
         <v>0.5</v>
@@ -1980,7 +1986,7 @@
         <v>42331</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="47">
         <v>1</v>
@@ -2025,7 +2031,7 @@
         <v>42333</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" s="47">
         <v>0.5</v>
@@ -2070,7 +2076,7 @@
         <v>42333</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="47"/>
       <c r="E27" s="47"/>
@@ -2136,7 +2142,7 @@
         <v>42331</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="91">
         <v>0.25</v>
@@ -2169,7 +2175,7 @@
         <v>42333</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" s="47">
         <v>2</v>
@@ -2259,7 +2265,7 @@
         <v>42333</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D32" s="47">
         <v>1</v>
@@ -2323,7 +2329,7 @@
         <v>42334</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" s="89"/>
       <c r="E34" s="89"/>
@@ -2390,21 +2396,21 @@
       </c>
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="103" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="103"/>
-      <c r="C36" s="103"/>
-      <c r="D36" s="103"/>
-      <c r="E36" s="103"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="103"/>
-      <c r="J36" s="104" t="s">
-        <v>47</v>
-      </c>
-      <c r="K36" s="104"/>
+      <c r="A36" s="104" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36" s="103"/>
       <c r="L36" s="94"/>
       <c r="M36" s="94"/>
       <c r="N36" s="95">
@@ -2433,13 +2439,17 @@
         <v>0.5</v>
       </c>
       <c r="F37" s="37">
-        <v>1</v>
-      </c>
-      <c r="G37" s="37"/>
+        <v>0.5</v>
+      </c>
+      <c r="G37" s="37">
+        <v>0.5</v>
+      </c>
       <c r="H37" s="48">
         <v>0.5</v>
       </c>
-      <c r="I37" s="48"/>
+      <c r="I37" s="48">
+        <v>0.5</v>
+      </c>
       <c r="J37" s="37">
         <v>0.5</v>
       </c>
@@ -2450,11 +2460,11 @@
       <c r="M37" s="58"/>
       <c r="N37" s="36">
         <f t="shared" ref="N37" si="26">D37+F37+H37+J37+L37</f>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="O37" s="37">
-        <f t="shared" ref="O37:O38" si="27">E37+G37+I37+K37+M37</f>
-        <v>3.5</v>
+        <f t="shared" ref="O37:O39" si="27">E37+G37+I37+K37+M37</f>
+        <v>4.5</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2464,12 +2474,8 @@
       <c r="B38" s="75">
         <v>42338</v>
       </c>
-      <c r="C38" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="D38" s="47">
-        <v>0.25</v>
-      </c>
+      <c r="C38" s="31"/>
+      <c r="D38" s="47"/>
       <c r="E38" s="47"/>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -2477,14 +2483,14 @@
       <c r="I38" s="48"/>
       <c r="J38" s="37"/>
       <c r="K38" s="37"/>
-      <c r="L38" s="49"/>
-      <c r="M38" s="49"/>
+      <c r="L38" s="111"/>
+      <c r="M38" s="111"/>
       <c r="N38" s="36">
-        <f>D38+F38+H38+J38+L38</f>
-        <v>0.25</v>
+        <f t="shared" ref="N38:N43" si="28">D38+F38+H38+J38+L38</f>
+        <v>0</v>
       </c>
       <c r="O38" s="37">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="O38:O43" si="29">E38+G38+I38+K38+M38</f>
         <v>0</v>
       </c>
     </row>
@@ -2496,10 +2502,10 @@
         <v>42340</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D39" s="47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E39" s="47"/>
       <c r="F39" s="37">
@@ -2507,21 +2513,21 @@
       </c>
       <c r="G39" s="37"/>
       <c r="H39" s="48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I39" s="48"/>
       <c r="J39" s="37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K39" s="37"/>
       <c r="L39" s="49"/>
       <c r="M39" s="49"/>
       <c r="N39" s="36">
-        <f>D39+F39+H39+J39+L39</f>
-        <v>2.5</v>
+        <f t="shared" si="28"/>
+        <v>4</v>
       </c>
       <c r="O39" s="37">
-        <f t="shared" ref="O39" si="28">E39+G39+I39+K39+M39</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
@@ -2529,217 +2535,230 @@
       <c r="A40" s="30">
         <v>4</v>
       </c>
-      <c r="B40" s="75"/>
-      <c r="C40" s="31" t="s">
-        <v>23</v>
+      <c r="B40" s="75">
+        <v>42340</v>
+      </c>
+      <c r="C40" s="55" t="s">
+        <v>61</v>
       </c>
       <c r="D40" s="47">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E40" s="47"/>
-      <c r="F40" s="37"/>
+      <c r="F40" s="37">
+        <v>1</v>
+      </c>
       <c r="G40" s="37"/>
-      <c r="H40" s="48"/>
+      <c r="H40" s="48">
+        <v>0.5</v>
+      </c>
       <c r="I40" s="48"/>
-      <c r="J40" s="37"/>
+      <c r="J40" s="37">
+        <v>0.5</v>
+      </c>
       <c r="K40" s="37"/>
       <c r="L40" s="49"/>
       <c r="M40" s="49"/>
       <c r="N40" s="36">
-        <f t="shared" ref="N40:N41" si="29">D40+F40+H40+J40+L40</f>
-        <v>0.25</v>
+        <f t="shared" si="28"/>
+        <v>2.5</v>
       </c>
       <c r="O40" s="37">
-        <f t="shared" ref="O40:O41" si="30">E40+G40+I40+K40+M40</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="81">
+      <c r="A41" s="30">
         <v>4</v>
       </c>
-      <c r="B41" s="82"/>
-      <c r="C41" s="83"/>
-      <c r="D41" s="89"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="87"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="90"/>
-      <c r="J41" s="87"/>
-      <c r="K41" s="87"/>
-      <c r="L41" s="86"/>
-      <c r="M41" s="86"/>
+      <c r="B41" s="75">
+        <v>42340</v>
+      </c>
+      <c r="C41" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="47">
+        <v>1</v>
+      </c>
+      <c r="E41" s="47"/>
+      <c r="F41" s="37">
+        <v>1</v>
+      </c>
+      <c r="G41" s="37"/>
+      <c r="H41" s="48">
+        <v>1</v>
+      </c>
+      <c r="I41" s="48"/>
+      <c r="J41" s="37">
+        <v>2</v>
+      </c>
+      <c r="K41" s="37"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="49"/>
       <c r="N41" s="36">
+        <f t="shared" si="28"/>
+        <v>5</v>
+      </c>
+      <c r="O41" s="37">
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="O41" s="37">
-        <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="38">
+      <c r="A42" s="30">
         <v>4</v>
       </c>
-      <c r="B42" s="76">
+      <c r="B42" s="75">
+        <v>42343</v>
+      </c>
+      <c r="C42" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="E42" s="47"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="36">
+        <f t="shared" si="28"/>
+        <v>0.25</v>
+      </c>
+      <c r="O42" s="37">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="81">
+        <v>4</v>
+      </c>
+      <c r="B43" s="82"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="87"/>
+      <c r="H43" s="90"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="87"/>
+      <c r="K43" s="87"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="86"/>
+      <c r="N43" s="36">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="37">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="38">
+        <v>4</v>
+      </c>
+      <c r="B44" s="76">
         <v>42344</v>
       </c>
-      <c r="C42" s="69" t="s">
+      <c r="C44" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E42" s="40"/>
-      <c r="F42" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="G42" s="62"/>
-      <c r="H42" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I42" s="42"/>
-      <c r="J42" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="K42" s="41"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="44">
-        <f>D42+F42+H42+J42+L42</f>
-        <v>1</v>
-      </c>
-      <c r="O42" s="45">
-        <f>E42+G42+I42+K42+M42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="103" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="103"/>
-      <c r="C43" s="103"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="103"/>
-      <c r="I43" s="103"/>
-      <c r="J43" s="104" t="s">
-        <v>48</v>
-      </c>
-      <c r="K43" s="104"/>
-      <c r="L43" s="94"/>
-      <c r="M43" s="94"/>
-      <c r="N43" s="95">
-        <f>SUM(N37:N42)</f>
-        <v>6.5</v>
-      </c>
-      <c r="O43" s="95">
-        <f>SUM(O37:O42)</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="23">
+      <c r="D44" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E44" s="40"/>
+      <c r="F44" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="G44" s="62"/>
+      <c r="H44" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="I44" s="42"/>
+      <c r="J44" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="K44" s="41"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="44">
+        <f>D44+F44+H44+J44+L44</f>
+        <v>1</v>
+      </c>
+      <c r="O44" s="45">
+        <f>E44+G44+I44+K44+M44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="104" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="104"/>
+      <c r="C45" s="104"/>
+      <c r="D45" s="104"/>
+      <c r="E45" s="104"/>
+      <c r="F45" s="104"/>
+      <c r="G45" s="104"/>
+      <c r="H45" s="104"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="103" t="s">
+        <v>47</v>
+      </c>
+      <c r="K45" s="103"/>
+      <c r="L45" s="94"/>
+      <c r="M45" s="94"/>
+      <c r="N45" s="95">
+        <f>SUM(N37:N44)</f>
+        <v>14.75</v>
+      </c>
+      <c r="O45" s="95">
+        <f>SUM(O37:O44)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="23">
         <v>4</v>
       </c>
-      <c r="B44" s="74">
+      <c r="B46" s="74">
         <v>42345</v>
       </c>
-      <c r="C44" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E44" s="47"/>
-      <c r="F44" s="37">
-        <v>1</v>
-      </c>
-      <c r="G44" s="37"/>
-      <c r="H44" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I44" s="48"/>
-      <c r="J44" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K44" s="29"/>
-      <c r="L44" s="46"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="28">
-        <f t="shared" ref="N44" si="31">D44+F44+H44+J44+L44</f>
+      <c r="C46" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E46" s="47"/>
+      <c r="F46" s="37">
+        <v>1</v>
+      </c>
+      <c r="G46" s="37"/>
+      <c r="H46" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I46" s="48"/>
+      <c r="J46" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K46" s="29"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="46"/>
+      <c r="N46" s="28">
+        <f t="shared" ref="N46" si="30">D46+F46+H46+J46+L46</f>
         <v>2.5</v>
       </c>
-      <c r="O44" s="29">
-        <f t="shared" ref="O44" si="32">E44+G44+I44+K44+M44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="30">
-        <v>5</v>
-      </c>
-      <c r="B45" s="75">
-        <v>42345</v>
-      </c>
-      <c r="C45" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="47">
-        <v>2</v>
-      </c>
-      <c r="E45" s="47"/>
-      <c r="F45" s="37">
-        <v>2</v>
-      </c>
-      <c r="G45" s="37"/>
-      <c r="H45" s="48">
-        <v>2</v>
-      </c>
-      <c r="I45" s="48"/>
-      <c r="J45" s="37">
-        <v>2</v>
-      </c>
-      <c r="K45" s="37"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="36">
-        <f t="shared" ref="N45" si="33">D45+F45+H45+J45+L45</f>
-        <v>8</v>
-      </c>
-      <c r="O45" s="37">
-        <f t="shared" ref="O45" si="34">E45+G45+I45+K45+M45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="30">
-        <v>5</v>
-      </c>
-      <c r="B46" s="75">
-        <v>42345</v>
-      </c>
-      <c r="D46" s="47"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="36">
-        <f t="shared" ref="N46:O50" si="35">D46+F46+H46+J46+L46</f>
-        <v>0</v>
-      </c>
-      <c r="O46" s="37">
-        <f t="shared" si="35"/>
+      <c r="O46" s="29">
+        <f t="shared" ref="O46" si="31">E46+G46+I46+K46+M46</f>
         <v>0</v>
       </c>
     </row>
@@ -2748,35 +2767,35 @@
         <v>5</v>
       </c>
       <c r="B47" s="75">
-        <v>42347</v>
+        <v>42345</v>
       </c>
       <c r="C47" s="55" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="D47" s="47">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E47" s="47"/>
       <c r="F47" s="37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G47" s="37"/>
       <c r="H47" s="48">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I47" s="48"/>
       <c r="J47" s="37">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K47" s="37"/>
       <c r="L47" s="49"/>
       <c r="M47" s="49"/>
       <c r="N47" s="36">
-        <f t="shared" si="35"/>
-        <v>2.5</v>
+        <f t="shared" ref="N47" si="32">D47+F47+H47+J47+L47</f>
+        <v>8</v>
       </c>
       <c r="O47" s="37">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="O47" si="33">E47+G47+I47+K47+M47</f>
         <v>0</v>
       </c>
     </row>
@@ -2784,13 +2803,10 @@
       <c r="A48" s="30">
         <v>5</v>
       </c>
-      <c r="B48" s="75"/>
-      <c r="C48" s="55" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="47">
-        <v>0.25</v>
-      </c>
+      <c r="B48" s="75">
+        <v>42345</v>
+      </c>
+      <c r="D48" s="47"/>
       <c r="E48" s="47"/>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
@@ -2801,226 +2817,240 @@
       <c r="L48" s="49"/>
       <c r="M48" s="49"/>
       <c r="N48" s="36">
+        <f t="shared" ref="N48:O52" si="34">D48+F48+H48+J48+L48</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="30">
+        <v>5</v>
+      </c>
+      <c r="B49" s="75">
+        <v>42347</v>
+      </c>
+      <c r="C49" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E49" s="47"/>
+      <c r="F49" s="37">
+        <v>1</v>
+      </c>
+      <c r="G49" s="37"/>
+      <c r="H49" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I49" s="48"/>
+      <c r="J49" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K49" s="37"/>
+      <c r="L49" s="49"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="36">
+        <f t="shared" si="34"/>
+        <v>2.5</v>
+      </c>
+      <c r="O49" s="37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="30">
+        <v>5</v>
+      </c>
+      <c r="B50" s="75"/>
+      <c r="C50" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="E50" s="47"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="49"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="36">
+        <f t="shared" si="34"/>
+        <v>0.25</v>
+      </c>
+      <c r="O50" s="37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="81">
+        <v>5</v>
+      </c>
+      <c r="B51" s="82"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="87"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="87"/>
+      <c r="K51" s="87"/>
+      <c r="L51" s="86"/>
+      <c r="M51" s="86"/>
+      <c r="N51" s="36">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="38">
+        <v>5</v>
+      </c>
+      <c r="B52" s="76">
+        <v>42351</v>
+      </c>
+      <c r="C52" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E52" s="40"/>
+      <c r="F52" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="G52" s="62"/>
+      <c r="H52" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="I52" s="42"/>
+      <c r="J52" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="K52" s="41"/>
+      <c r="L52" s="50"/>
+      <c r="M52" s="50"/>
+      <c r="N52" s="44">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="O52" s="45">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="104" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="104"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="104"/>
+      <c r="H53" s="104"/>
+      <c r="I53" s="104"/>
+      <c r="J53" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="K53" s="103"/>
+      <c r="L53" s="94"/>
+      <c r="M53" s="94"/>
+      <c r="N53" s="95">
+        <f>SUM(N46:N52)</f>
+        <v>14.25</v>
+      </c>
+      <c r="O53" s="95">
+        <f>SUM(O46:O52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="23">
+        <v>6</v>
+      </c>
+      <c r="B54" s="74">
+        <v>42352</v>
+      </c>
+      <c r="C54" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E54" s="47"/>
+      <c r="F54" s="37">
+        <v>1</v>
+      </c>
+      <c r="G54" s="37"/>
+      <c r="H54" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I54" s="48"/>
+      <c r="J54" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K54" s="29"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="28">
+        <f t="shared" ref="N54:O61" si="35">D54+F54+H54+J54+L54</f>
+        <v>2.5</v>
+      </c>
+      <c r="O54" s="29">
         <f t="shared" si="35"/>
-        <v>0.25</v>
-      </c>
-      <c r="O48" s="37">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="81">
-        <v>5</v>
-      </c>
-      <c r="B49" s="82"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="89"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="90"/>
-      <c r="J49" s="87"/>
-      <c r="K49" s="87"/>
-      <c r="L49" s="86"/>
-      <c r="M49" s="86"/>
-      <c r="N49" s="36">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="O49" s="37">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="38">
-        <v>5</v>
-      </c>
-      <c r="B50" s="76">
-        <v>42351</v>
-      </c>
-      <c r="C50" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E50" s="40"/>
-      <c r="F50" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="G50" s="62"/>
-      <c r="H50" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I50" s="42"/>
-      <c r="J50" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="K50" s="41"/>
-      <c r="L50" s="50"/>
-      <c r="M50" s="50"/>
-      <c r="N50" s="44">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="O50" s="45">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="103" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" s="103"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="103"/>
-      <c r="E51" s="103"/>
-      <c r="F51" s="103"/>
-      <c r="G51" s="103"/>
-      <c r="H51" s="103"/>
-      <c r="I51" s="103"/>
-      <c r="J51" s="104" t="s">
-        <v>49</v>
-      </c>
-      <c r="K51" s="104"/>
-      <c r="L51" s="94"/>
-      <c r="M51" s="94"/>
-      <c r="N51" s="95">
-        <f>SUM(N44:N50)</f>
-        <v>14.25</v>
-      </c>
-      <c r="O51" s="95">
-        <f>SUM(O44:O50)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="64">
         <v>6</v>
       </c>
-      <c r="B52" s="74">
-        <v>42352</v>
-      </c>
-      <c r="C52" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E52" s="47"/>
-      <c r="F52" s="37">
-        <v>1</v>
-      </c>
-      <c r="G52" s="37"/>
-      <c r="H52" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I52" s="48"/>
-      <c r="J52" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K52" s="29"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="28">
-        <f t="shared" ref="N52:O59" si="36">D52+F52+H52+J52+L52</f>
+      <c r="B55" s="77">
+        <v>42354</v>
+      </c>
+      <c r="C55" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="47"/>
+      <c r="F55" s="37">
+        <v>1</v>
+      </c>
+      <c r="G55" s="37"/>
+      <c r="H55" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I55" s="48"/>
+      <c r="J55" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K55" s="97"/>
+      <c r="L55" s="98"/>
+      <c r="M55" s="98"/>
+      <c r="N55" s="99">
+        <f t="shared" ref="N55:N56" si="36">D55+F55+H55+J55+L55</f>
         <v>2.5</v>
       </c>
-      <c r="O52" s="29">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="64">
-        <v>6</v>
-      </c>
-      <c r="B53" s="77">
-        <v>42354</v>
-      </c>
-      <c r="C53" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="D53" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E53" s="47"/>
-      <c r="F53" s="37">
-        <v>1</v>
-      </c>
-      <c r="G53" s="37"/>
-      <c r="H53" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I53" s="48"/>
-      <c r="J53" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K53" s="97"/>
-      <c r="L53" s="98"/>
-      <c r="M53" s="98"/>
-      <c r="N53" s="99">
-        <f t="shared" ref="N53:N54" si="37">D53+F53+H53+J53+L53</f>
-        <v>2.5</v>
-      </c>
-      <c r="O53" s="97">
-        <f t="shared" ref="O53:O54" si="38">E53+G53+I53+K53+M53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="30">
-        <v>6</v>
-      </c>
-      <c r="B54" s="75"/>
-      <c r="C54" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D54" s="51"/>
-      <c r="E54" s="51"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="49"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="36">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="O54" s="37">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="30">
-        <v>6</v>
-      </c>
-      <c r="B55" s="75"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="36">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="O55" s="37">
-        <f t="shared" si="36"/>
+      <c r="O55" s="97">
+        <f t="shared" ref="O55:O56" si="37">E55+G55+I55+K55+M55</f>
         <v>0</v>
       </c>
     </row>
@@ -3029,7 +3059,9 @@
         <v>6</v>
       </c>
       <c r="B56" s="75"/>
-      <c r="C56" s="31"/>
+      <c r="C56" s="55" t="s">
+        <v>25</v>
+      </c>
       <c r="D56" s="51"/>
       <c r="E56" s="51"/>
       <c r="F56" s="30"/>
@@ -3045,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="37">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -3066,186 +3098,162 @@
       <c r="L57" s="49"/>
       <c r="M57" s="49"/>
       <c r="N57" s="36">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O57" s="37">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="81">
+      <c r="A58" s="30">
         <v>6</v>
       </c>
-      <c r="B58" s="82"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="84"/>
-      <c r="E58" s="84"/>
-      <c r="F58" s="81"/>
-      <c r="G58" s="81"/>
-      <c r="H58" s="85"/>
-      <c r="I58" s="85"/>
-      <c r="J58" s="81"/>
-      <c r="K58" s="81"/>
-      <c r="L58" s="86"/>
-      <c r="M58" s="86"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="51"/>
+      <c r="E58" s="51"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="49"/>
+      <c r="M58" s="49"/>
       <c r="N58" s="36">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="O58" s="37">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="38">
+      <c r="A59" s="30">
         <v>6</v>
       </c>
-      <c r="B59" s="76">
+      <c r="B59" s="75"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="52"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="49"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="36">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="37">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="81">
+        <v>6</v>
+      </c>
+      <c r="B60" s="82"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="81"/>
+      <c r="G60" s="81"/>
+      <c r="H60" s="85"/>
+      <c r="I60" s="85"/>
+      <c r="J60" s="81"/>
+      <c r="K60" s="81"/>
+      <c r="L60" s="86"/>
+      <c r="M60" s="86"/>
+      <c r="N60" s="36">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="37">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="38">
+        <v>6</v>
+      </c>
+      <c r="B61" s="76">
         <v>42358</v>
       </c>
-      <c r="C59" s="69" t="s">
+      <c r="C61" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E59" s="40"/>
-      <c r="F59" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="G59" s="62"/>
-      <c r="H59" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I59" s="42"/>
-      <c r="J59" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="K59" s="41"/>
-      <c r="L59" s="50"/>
-      <c r="M59" s="50"/>
-      <c r="N59" s="44">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="O59" s="45">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="B60" s="103"/>
-      <c r="C60" s="103"/>
-      <c r="D60" s="103"/>
-      <c r="E60" s="103"/>
-      <c r="F60" s="103"/>
-      <c r="G60" s="103"/>
-      <c r="H60" s="103"/>
-      <c r="I60" s="103"/>
-      <c r="J60" s="103" t="s">
-        <v>50</v>
-      </c>
-      <c r="K60" s="104"/>
-      <c r="L60" s="94"/>
-      <c r="M60" s="94"/>
-      <c r="N60" s="95">
-        <f>SUM(N52:N59)</f>
+      <c r="D61" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E61" s="40"/>
+      <c r="F61" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="G61" s="62"/>
+      <c r="H61" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="I61" s="42"/>
+      <c r="J61" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="K61" s="41"/>
+      <c r="L61" s="50"/>
+      <c r="M61" s="50"/>
+      <c r="N61" s="44">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="O61" s="45">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="104" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="104"/>
+      <c r="C62" s="104"/>
+      <c r="D62" s="104"/>
+      <c r="E62" s="104"/>
+      <c r="F62" s="104"/>
+      <c r="G62" s="104"/>
+      <c r="H62" s="104"/>
+      <c r="I62" s="104"/>
+      <c r="J62" s="104" t="s">
+        <v>49</v>
+      </c>
+      <c r="K62" s="103"/>
+      <c r="L62" s="94"/>
+      <c r="M62" s="94"/>
+      <c r="N62" s="95">
+        <f>SUM(N54:N61)</f>
         <v>6</v>
       </c>
-      <c r="O60" s="95">
-        <f>SUM(O52:O59)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23" t="s">
+      <c r="O62" s="95">
+        <f>SUM(O54:O61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B61" s="74">
+      <c r="B63" s="74">
         <v>42380</v>
       </c>
-      <c r="C61" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="D61" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E61" s="47"/>
-      <c r="F61" s="37">
-        <v>1</v>
-      </c>
-      <c r="G61" s="37"/>
-      <c r="H61" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I61" s="48"/>
-      <c r="J61" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K61" s="23"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="28">
-        <f t="shared" ref="N61:O66" si="39">D61+F61+H61+J61+L61</f>
-        <v>2.5</v>
-      </c>
-      <c r="O61" s="29">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B62" s="75">
-        <v>42381</v>
-      </c>
-      <c r="C62" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="D62" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E62" s="47"/>
-      <c r="F62" s="37">
-        <v>1</v>
-      </c>
-      <c r="G62" s="37"/>
-      <c r="H62" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I62" s="48"/>
-      <c r="J62" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K62" s="30"/>
-      <c r="L62" s="49"/>
-      <c r="M62" s="49"/>
-      <c r="N62" s="36">
-        <f t="shared" si="39"/>
-        <v>2.5</v>
-      </c>
-      <c r="O62" s="37">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63" s="75">
-        <v>42382</v>
-      </c>
-      <c r="C63" s="100" t="s">
-        <v>62</v>
+      <c r="C63" s="92" t="s">
+        <v>61</v>
       </c>
       <c r="D63" s="47">
         <v>0.5</v>
@@ -3262,27 +3270,27 @@
       <c r="J63" s="37">
         <v>0.5</v>
       </c>
-      <c r="K63" s="30"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="36">
-        <f t="shared" si="39"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="46"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="28">
+        <f t="shared" ref="N63:O68" si="38">D63+F63+H63+J63+L63</f>
         <v>2.5</v>
       </c>
-      <c r="O63" s="37">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="29">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B64" s="75">
-        <v>42383</v>
-      </c>
-      <c r="C64" s="100" t="s">
-        <v>62</v>
+        <v>42381</v>
+      </c>
+      <c r="C64" s="55" t="s">
+        <v>61</v>
       </c>
       <c r="D64" s="47">
         <v>0.5</v>
@@ -3303,23 +3311,23 @@
       <c r="L64" s="49"/>
       <c r="M64" s="49"/>
       <c r="N64" s="36">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>2.5</v>
       </c>
       <c r="O64" s="37">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B65" s="75">
-        <v>42384</v>
-      </c>
-      <c r="C65" s="55" t="s">
-        <v>62</v>
+        <v>42382</v>
+      </c>
+      <c r="C65" s="100" t="s">
+        <v>61</v>
       </c>
       <c r="D65" s="47">
         <v>0.5</v>
@@ -3340,149 +3348,149 @@
       <c r="L65" s="49"/>
       <c r="M65" s="49"/>
       <c r="N65" s="36">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>2.5</v>
       </c>
       <c r="O65" s="37">
-        <f t="shared" si="39"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" s="38" t="s">
+      <c r="A66" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="76"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="38"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="50"/>
-      <c r="M66" s="50"/>
-      <c r="N66" s="44">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="O66" s="45">
-        <f t="shared" si="39"/>
+      <c r="B66" s="75">
+        <v>42383</v>
+      </c>
+      <c r="C66" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="D66" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E66" s="47"/>
+      <c r="F66" s="37">
+        <v>1</v>
+      </c>
+      <c r="G66" s="37"/>
+      <c r="H66" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I66" s="48"/>
+      <c r="J66" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K66" s="30"/>
+      <c r="L66" s="49"/>
+      <c r="M66" s="49"/>
+      <c r="N66" s="36">
+        <f t="shared" si="38"/>
+        <v>2.5</v>
+      </c>
+      <c r="O66" s="37">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" s="103" t="s">
-        <v>45</v>
-      </c>
-      <c r="B67" s="103"/>
-      <c r="C67" s="103"/>
-      <c r="D67" s="103"/>
-      <c r="E67" s="103"/>
-      <c r="F67" s="103"/>
-      <c r="G67" s="103"/>
-      <c r="H67" s="103"/>
-      <c r="I67" s="103"/>
-      <c r="J67" s="103" t="s">
-        <v>51</v>
-      </c>
-      <c r="K67" s="104"/>
-      <c r="L67" s="94"/>
-      <c r="M67" s="94"/>
-      <c r="N67" s="95">
-        <f>SUM(N61:N66)</f>
+      <c r="A67" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="75">
+        <v>42384</v>
+      </c>
+      <c r="C67" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D67" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E67" s="47"/>
+      <c r="F67" s="37">
+        <v>1</v>
+      </c>
+      <c r="G67" s="37"/>
+      <c r="H67" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I67" s="48"/>
+      <c r="J67" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K67" s="30"/>
+      <c r="L67" s="49"/>
+      <c r="M67" s="49"/>
+      <c r="N67" s="36">
+        <f t="shared" si="38"/>
+        <v>2.5</v>
+      </c>
+      <c r="O67" s="37">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="76"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="38"/>
+      <c r="K68" s="38"/>
+      <c r="L68" s="50"/>
+      <c r="M68" s="50"/>
+      <c r="N68" s="44">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="O68" s="45">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A69" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="B69" s="104"/>
+      <c r="C69" s="104"/>
+      <c r="D69" s="104"/>
+      <c r="E69" s="104"/>
+      <c r="F69" s="104"/>
+      <c r="G69" s="104"/>
+      <c r="H69" s="104"/>
+      <c r="I69" s="104"/>
+      <c r="J69" s="104" t="s">
+        <v>50</v>
+      </c>
+      <c r="K69" s="103"/>
+      <c r="L69" s="94"/>
+      <c r="M69" s="94"/>
+      <c r="N69" s="95">
+        <f>SUM(N63:N68)</f>
         <v>12.5</v>
       </c>
-      <c r="O67" s="95">
-        <f>SUM(O61:O66)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="23" t="s">
+      <c r="O69" s="95">
+        <f>SUM(O63:O68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="74">
+      <c r="B70" s="74">
         <v>42387</v>
       </c>
-      <c r="C68" s="92" t="s">
-        <v>62</v>
-      </c>
-      <c r="D68" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E68" s="47"/>
-      <c r="F68" s="37">
-        <v>1</v>
-      </c>
-      <c r="G68" s="37"/>
-      <c r="H68" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I68" s="48"/>
-      <c r="J68" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K68" s="23"/>
-      <c r="L68" s="46"/>
-      <c r="M68" s="46"/>
-      <c r="N68" s="28">
-        <f t="shared" ref="N68:O70" si="40">D68+F68+H68+J68+L68</f>
-        <v>2.5</v>
-      </c>
-      <c r="O68" s="29">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B69" s="75">
-        <v>42388</v>
-      </c>
-      <c r="C69" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="D69" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E69" s="47"/>
-      <c r="F69" s="37">
-        <v>1</v>
-      </c>
-      <c r="G69" s="37"/>
-      <c r="H69" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I69" s="48"/>
-      <c r="J69" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K69" s="30"/>
-      <c r="L69" s="49"/>
-      <c r="M69" s="49"/>
-      <c r="N69" s="36">
-        <f t="shared" si="40"/>
-        <v>2.5</v>
-      </c>
-      <c r="O69" s="37">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B70" s="75">
-        <v>42389</v>
-      </c>
-      <c r="C70" s="100" t="s">
-        <v>62</v>
+      <c r="C70" s="92" t="s">
+        <v>61</v>
       </c>
       <c r="D70" s="47">
         <v>0.5</v>
@@ -3499,15 +3507,15 @@
       <c r="J70" s="37">
         <v>0.5</v>
       </c>
-      <c r="K70" s="30"/>
-      <c r="L70" s="49"/>
-      <c r="M70" s="49"/>
-      <c r="N70" s="36">
-        <f t="shared" si="40"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="46"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="28">
+        <f t="shared" ref="N70:O72" si="39">D70+F70+H70+J70+L70</f>
         <v>2.5</v>
       </c>
-      <c r="O70" s="37">
-        <f t="shared" si="40"/>
+      <c r="O70" s="29">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -3516,10 +3524,10 @@
         <v>9</v>
       </c>
       <c r="B71" s="75">
-        <v>42390</v>
-      </c>
-      <c r="C71" s="100" t="s">
-        <v>62</v>
+        <v>42388</v>
+      </c>
+      <c r="C71" s="55" t="s">
+        <v>61</v>
       </c>
       <c r="D71" s="47">
         <v>0.5</v>
@@ -3540,11 +3548,11 @@
       <c r="L71" s="49"/>
       <c r="M71" s="49"/>
       <c r="N71" s="36">
-        <f t="shared" ref="N71:N74" si="41">D71+F71+H71+J71+L71</f>
+        <f t="shared" si="39"/>
         <v>2.5</v>
       </c>
       <c r="O71" s="37">
-        <f t="shared" ref="O71:O74" si="42">E71+G71+I71+K71+M71</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -3553,10 +3561,10 @@
         <v>9</v>
       </c>
       <c r="B72" s="75">
-        <v>42391</v>
-      </c>
-      <c r="C72" s="55" t="s">
-        <v>62</v>
+        <v>42389</v>
+      </c>
+      <c r="C72" s="100" t="s">
+        <v>61</v>
       </c>
       <c r="D72" s="47">
         <v>0.5</v>
@@ -3577,11 +3585,11 @@
       <c r="L72" s="49"/>
       <c r="M72" s="49"/>
       <c r="N72" s="36">
-        <f t="shared" si="41"/>
+        <f t="shared" si="39"/>
         <v>2.5</v>
       </c>
       <c r="O72" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -3589,136 +3597,226 @@
       <c r="A73" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="82"/>
-      <c r="C73" s="88"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="84"/>
-      <c r="F73" s="81"/>
-      <c r="G73" s="81"/>
-      <c r="H73" s="85"/>
-      <c r="I73" s="85"/>
-      <c r="J73" s="81"/>
-      <c r="K73" s="81"/>
-      <c r="L73" s="86"/>
-      <c r="M73" s="86"/>
-      <c r="N73" s="101">
+      <c r="B73" s="75">
+        <v>42390</v>
+      </c>
+      <c r="C73" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="D73" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E73" s="47"/>
+      <c r="F73" s="37">
+        <v>1</v>
+      </c>
+      <c r="G73" s="37"/>
+      <c r="H73" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I73" s="48"/>
+      <c r="J73" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K73" s="30"/>
+      <c r="L73" s="49"/>
+      <c r="M73" s="49"/>
+      <c r="N73" s="36">
+        <f t="shared" ref="N73:N76" si="40">D73+F73+H73+J73+L73</f>
+        <v>2.5</v>
+      </c>
+      <c r="O73" s="37">
+        <f t="shared" ref="O73:O76" si="41">E73+G73+I73+K73+M73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="75">
+        <v>42391</v>
+      </c>
+      <c r="C74" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D74" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E74" s="47"/>
+      <c r="F74" s="37">
+        <v>1</v>
+      </c>
+      <c r="G74" s="37"/>
+      <c r="H74" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I74" s="48"/>
+      <c r="J74" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K74" s="30"/>
+      <c r="L74" s="49"/>
+      <c r="M74" s="49"/>
+      <c r="N74" s="36">
+        <f t="shared" si="40"/>
+        <v>2.5</v>
+      </c>
+      <c r="O74" s="37">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
-      <c r="O73" s="87">
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="82"/>
+      <c r="C75" s="88"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="84"/>
+      <c r="F75" s="81"/>
+      <c r="G75" s="81"/>
+      <c r="H75" s="85"/>
+      <c r="I75" s="85"/>
+      <c r="J75" s="81"/>
+      <c r="K75" s="81"/>
+      <c r="L75" s="86"/>
+      <c r="M75" s="86"/>
+      <c r="N75" s="101">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O75" s="87">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" s="38"/>
+      <c r="B76" s="76">
+        <v>42393</v>
+      </c>
+      <c r="C76" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="D76" s="53"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="54"/>
+      <c r="I76" s="54"/>
+      <c r="J76" s="38"/>
+      <c r="K76" s="38"/>
+      <c r="L76" s="50"/>
+      <c r="M76" s="50"/>
+      <c r="N76" s="44">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O76" s="45">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" s="3"/>
+      <c r="B77" s="78"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="104" t="s">
+        <v>51</v>
+      </c>
+      <c r="K77" s="103"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="8">
+        <f>SUM(N70:N76)</f>
+        <v>12.5</v>
+      </c>
+      <c r="O77" s="4">
+        <f>SUM(O70:O76)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" s="9"/>
+      <c r="B78" s="79"/>
+      <c r="C78" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="11">
+        <f t="shared" ref="D78:M78" si="42">SUM(D4:D77)</f>
+        <v>39.25</v>
+      </c>
+      <c r="E78" s="11">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74" s="38"/>
-      <c r="B74" s="76">
-        <v>42393</v>
-      </c>
-      <c r="C74" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="D74" s="53"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="38"/>
-      <c r="K74" s="38"/>
-      <c r="L74" s="50"/>
-      <c r="M74" s="50"/>
-      <c r="N74" s="44">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="O74" s="45">
+        <v>28.75</v>
+      </c>
+      <c r="F78" s="11">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A75" s="3"/>
-      <c r="B75" s="78"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="103" t="s">
-        <v>52</v>
-      </c>
-      <c r="K75" s="104"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="8">
-        <f>SUM(N68:N74)</f>
-        <v>12.5</v>
-      </c>
-      <c r="O75" s="4">
-        <f>SUM(O68:O74)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A76" s="9"/>
-      <c r="B76" s="79"/>
-      <c r="C76" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76" s="11">
-        <f t="shared" ref="D76:M76" si="43">SUM(D4:D75)</f>
-        <v>37.5</v>
-      </c>
-      <c r="E76" s="11">
-        <f t="shared" si="43"/>
-        <v>28.75</v>
-      </c>
-      <c r="F76" s="11">
-        <f t="shared" si="43"/>
-        <v>43</v>
-      </c>
-      <c r="G76" s="11">
-        <f t="shared" si="43"/>
-        <v>26.5</v>
-      </c>
-      <c r="H76" s="11">
-        <f t="shared" si="43"/>
-        <v>34</v>
-      </c>
-      <c r="I76" s="11">
-        <f t="shared" si="43"/>
-        <v>25.5</v>
-      </c>
-      <c r="J76" s="11">
-        <f t="shared" si="43"/>
+        <v>44.5</v>
+      </c>
+      <c r="G78" s="11">
+        <f t="shared" si="42"/>
+        <v>27</v>
+      </c>
+      <c r="H78" s="11">
+        <f t="shared" si="42"/>
         <v>36</v>
       </c>
-      <c r="K76" s="11">
-        <f t="shared" si="43"/>
+      <c r="I78" s="11">
+        <f t="shared" si="42"/>
+        <v>26</v>
+      </c>
+      <c r="J78" s="11">
+        <f t="shared" si="42"/>
+        <v>39</v>
+      </c>
+      <c r="K78" s="11">
+        <f t="shared" si="42"/>
         <v>30.5</v>
       </c>
-      <c r="L76" s="11">
-        <f t="shared" si="43"/>
-        <v>0.5</v>
-      </c>
-      <c r="M76" s="11">
-        <f t="shared" si="43"/>
-        <v>0.5</v>
-      </c>
-      <c r="N76" s="9">
-        <f>D76+F76+H76+J76+L76</f>
-        <v>151</v>
-      </c>
-      <c r="O76" s="11">
-        <f>E76+G76+I76+K76+M76</f>
-        <v>111.75</v>
+      <c r="L78" s="11">
+        <f t="shared" si="42"/>
+        <v>0.5</v>
+      </c>
+      <c r="M78" s="11">
+        <f t="shared" si="42"/>
+        <v>0.5</v>
+      </c>
+      <c r="N78" s="9">
+        <f>D78+F78+H78+J78+L78</f>
+        <v>159.25</v>
+      </c>
+      <c r="O78" s="11">
+        <f>E78+G78+I78+K78+M78</f>
+        <v>112.75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="A45:I45"/>
+    <mergeCell ref="J45:K45"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="E2:F2"/>
@@ -3727,22 +3825,6 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="A60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="A67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="J43:K43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -3768,15 +3850,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -3937,29 +4024,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3977,26 +4075,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
+++ b/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -729,10 +729,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -748,9 +751,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1057,11 +1057,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O79"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <pane ySplit="4" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1089,18 +1089,18 @@
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="106" t="s">
+      <c r="E2" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="106"/>
+      <c r="F2" s="107"/>
       <c r="H2" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="111">
+      <c r="I2" s="106">
         <f ca="1">TODAY()</f>
         <v>42341</v>
       </c>
-      <c r="J2" s="111"/>
+      <c r="J2" s="106"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -1152,43 +1152,43 @@
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="73"/>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="104" t="s">
+      <c r="E4" s="110"/>
+      <c r="F4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="104"/>
-      <c r="H4" s="110" t="s">
+      <c r="G4" s="105"/>
+      <c r="H4" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="110"/>
-      <c r="J4" s="104" t="s">
+      <c r="I4" s="111"/>
+      <c r="J4" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="104"/>
-      <c r="L4" s="107" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="108"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="109"/>
       <c r="N4" s="22"/>
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
       <c r="L5" s="94"/>
       <c r="M5" s="94"/>
       <c r="N5" s="95"/>
@@ -1412,21 +1412,21 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="105" t="s">
+      <c r="A11" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="104" t="s">
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="104"/>
+      <c r="K11" s="105"/>
       <c r="L11" s="94"/>
       <c r="M11" s="94"/>
       <c r="N11" s="95">
@@ -1865,21 +1865,21 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="105" t="s">
+      <c r="A22" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="104" t="s">
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="K22" s="104"/>
+      <c r="K22" s="105"/>
       <c r="L22" s="94"/>
       <c r="M22" s="94"/>
       <c r="N22" s="95">
@@ -2399,21 +2399,21 @@
       </c>
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="105" t="s">
+      <c r="A36" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="105"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="104" t="s">
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="K36" s="104"/>
+      <c r="K36" s="105"/>
       <c r="L36" s="94"/>
       <c r="M36" s="94"/>
       <c r="N36" s="95">
@@ -2489,11 +2489,11 @@
       <c r="L38" s="103"/>
       <c r="M38" s="103"/>
       <c r="N38" s="36">
-        <f t="shared" ref="N38:N44" si="28">D38+F38+H38+J38+L38</f>
+        <f t="shared" ref="N38:N45" si="28">D38+F38+H38+J38+L38</f>
         <v>0</v>
       </c>
       <c r="O38" s="37">
-        <f t="shared" ref="O38:O44" si="29">E38+G38+I38+K38+M38</f>
+        <f t="shared" ref="O38:O45" si="29">E38+G38+I38+K38+M38</f>
         <v>0</v>
       </c>
     </row>
@@ -2652,7 +2652,7 @@
         <v>1.5</v>
       </c>
       <c r="G42" s="37">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H42" s="48">
         <v>1.5</v>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="O42" s="37">
         <f t="shared" si="29"/>
-        <v>7</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2684,24 +2684,30 @@
       <c r="B43" s="75">
         <v>42342</v>
       </c>
-      <c r="C43" s="31" t="s">
-        <v>23</v>
+      <c r="C43" s="55" t="s">
+        <v>67</v>
       </c>
       <c r="D43" s="47">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E43" s="47"/>
-      <c r="F43" s="37"/>
+      <c r="F43" s="37">
+        <v>1</v>
+      </c>
       <c r="G43" s="37"/>
-      <c r="H43" s="48"/>
+      <c r="H43" s="48">
+        <v>1</v>
+      </c>
       <c r="I43" s="48"/>
-      <c r="J43" s="37"/>
+      <c r="J43" s="37">
+        <v>1</v>
+      </c>
       <c r="K43" s="37"/>
       <c r="L43" s="49"/>
       <c r="M43" s="49"/>
       <c r="N43" s="36">
         <f t="shared" si="28"/>
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="O43" s="37">
         <f t="shared" si="29"/>
@@ -2709,24 +2715,30 @@
       </c>
     </row>
     <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="81">
+      <c r="A44" s="30">
         <v>4</v>
       </c>
-      <c r="B44" s="82"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="87"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="90"/>
-      <c r="J44" s="87"/>
-      <c r="K44" s="87"/>
-      <c r="L44" s="86"/>
-      <c r="M44" s="86"/>
+      <c r="B44" s="75">
+        <v>42342</v>
+      </c>
+      <c r="C44" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="E44" s="47"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="49"/>
+      <c r="M44" s="49"/>
       <c r="N44" s="36">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O44" s="37">
         <f t="shared" si="29"/>
@@ -2734,140 +2746,128 @@
       </c>
     </row>
     <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="38">
+      <c r="A45" s="81">
         <v>4</v>
       </c>
-      <c r="B45" s="76">
+      <c r="B45" s="82"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="87"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="87"/>
+      <c r="K45" s="87"/>
+      <c r="L45" s="86"/>
+      <c r="M45" s="86"/>
+      <c r="N45" s="36">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="37">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="38">
+        <v>4</v>
+      </c>
+      <c r="B46" s="76">
         <v>42344</v>
       </c>
-      <c r="C45" s="69" t="s">
+      <c r="C46" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E45" s="40"/>
-      <c r="F45" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="G45" s="62"/>
-      <c r="H45" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I45" s="42"/>
-      <c r="J45" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="K45" s="41"/>
-      <c r="L45" s="50"/>
-      <c r="M45" s="50"/>
-      <c r="N45" s="44">
-        <f>D45+F45+H45+J45+L45</f>
-        <v>1</v>
-      </c>
-      <c r="O45" s="45">
-        <f>E45+G45+I45+K45+M45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="105" t="s">
+      <c r="D46" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E46" s="40"/>
+      <c r="F46" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="G46" s="62"/>
+      <c r="H46" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="I46" s="42"/>
+      <c r="J46" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="K46" s="41"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="44">
+        <f>D46+F46+H46+J46+L46</f>
+        <v>1</v>
+      </c>
+      <c r="O46" s="45">
+        <f>E46+G46+I46+K46+M46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="B46" s="105"/>
-      <c r="C46" s="105"/>
-      <c r="D46" s="105"/>
-      <c r="E46" s="105"/>
-      <c r="F46" s="105"/>
-      <c r="G46" s="105"/>
-      <c r="H46" s="105"/>
-      <c r="I46" s="105"/>
-      <c r="J46" s="104" t="s">
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="104"/>
+      <c r="F47" s="104"/>
+      <c r="G47" s="104"/>
+      <c r="H47" s="104"/>
+      <c r="I47" s="104"/>
+      <c r="J47" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="K46" s="104"/>
-      <c r="L46" s="94"/>
-      <c r="M46" s="94"/>
-      <c r="N46" s="95">
-        <f>SUM(N37:N45)</f>
-        <v>20.75</v>
-      </c>
-      <c r="O46" s="95">
-        <f>SUM(O37:O45)</f>
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="23">
+      <c r="K47" s="105"/>
+      <c r="L47" s="94"/>
+      <c r="M47" s="94"/>
+      <c r="N47" s="95">
+        <f>SUM(N37:N46)</f>
+        <v>24.75</v>
+      </c>
+      <c r="O47" s="95">
+        <f>SUM(O37:O46)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="23">
         <v>4</v>
       </c>
-      <c r="B47" s="74">
+      <c r="B48" s="74">
         <v>42345</v>
       </c>
-      <c r="C47" s="57" t="s">
+      <c r="C48" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E47" s="47"/>
-      <c r="F47" s="37">
-        <v>1</v>
-      </c>
-      <c r="G47" s="37"/>
-      <c r="H47" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I47" s="48"/>
-      <c r="J47" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K47" s="29"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="28">
-        <f t="shared" ref="N47" si="30">D47+F47+H47+J47+L47</f>
-        <v>2.5</v>
-      </c>
-      <c r="O47" s="29">
-        <f t="shared" ref="O47" si="31">E47+G47+I47+K47+M47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="30">
-        <v>5</v>
-      </c>
-      <c r="B48" s="75">
-        <v>42345</v>
-      </c>
-      <c r="C48" s="55" t="s">
-        <v>32</v>
-      </c>
       <c r="D48" s="47">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E48" s="47"/>
       <c r="F48" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48" s="37"/>
       <c r="H48" s="48">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I48" s="48"/>
       <c r="J48" s="37">
-        <v>2</v>
-      </c>
-      <c r="K48" s="37"/>
-      <c r="L48" s="49"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="36">
-        <f t="shared" ref="N48" si="32">D48+F48+H48+J48+L48</f>
-        <v>8</v>
-      </c>
-      <c r="O48" s="37">
-        <f t="shared" ref="O48" si="33">E48+G48+I48+K48+M48</f>
+        <v>0.5</v>
+      </c>
+      <c r="K48" s="29"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="46"/>
+      <c r="N48" s="28">
+        <f t="shared" ref="N48" si="30">D48+F48+H48+J48+L48</f>
+        <v>2.5</v>
+      </c>
+      <c r="O48" s="29">
+        <f t="shared" ref="O48" si="31">E48+G48+I48+K48+M48</f>
         <v>0</v>
       </c>
     </row>
@@ -2878,22 +2878,33 @@
       <c r="B49" s="75">
         <v>42345</v>
       </c>
-      <c r="D49" s="47"/>
+      <c r="C49" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="47">
+        <v>2</v>
+      </c>
       <c r="E49" s="47"/>
-      <c r="F49" s="37"/>
+      <c r="F49" s="37">
+        <v>2</v>
+      </c>
       <c r="G49" s="37"/>
-      <c r="H49" s="48"/>
+      <c r="H49" s="48">
+        <v>2</v>
+      </c>
       <c r="I49" s="48"/>
-      <c r="J49" s="37"/>
+      <c r="J49" s="37">
+        <v>2</v>
+      </c>
       <c r="K49" s="37"/>
       <c r="L49" s="49"/>
       <c r="M49" s="49"/>
       <c r="N49" s="36">
-        <f t="shared" ref="N49:O53" si="34">D49+F49+H49+J49+L49</f>
-        <v>0</v>
+        <f t="shared" ref="N49" si="32">D49+F49+H49+J49+L49</f>
+        <v>8</v>
       </c>
       <c r="O49" s="37">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="O49" si="33">E49+G49+I49+K49+M49</f>
         <v>0</v>
       </c>
     </row>
@@ -2902,32 +2913,21 @@
         <v>5</v>
       </c>
       <c r="B50" s="75">
-        <v>42347</v>
-      </c>
-      <c r="C50" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="47">
-        <v>0.5</v>
-      </c>
+        <v>42345</v>
+      </c>
+      <c r="D50" s="47"/>
       <c r="E50" s="47"/>
-      <c r="F50" s="37">
-        <v>1</v>
-      </c>
+      <c r="F50" s="37"/>
       <c r="G50" s="37"/>
-      <c r="H50" s="48">
-        <v>0.5</v>
-      </c>
+      <c r="H50" s="48"/>
       <c r="I50" s="48"/>
-      <c r="J50" s="37">
-        <v>0.5</v>
-      </c>
+      <c r="J50" s="37"/>
       <c r="K50" s="37"/>
       <c r="L50" s="49"/>
       <c r="M50" s="49"/>
       <c r="N50" s="36">
-        <f t="shared" si="34"/>
-        <v>2.5</v>
+        <f t="shared" ref="N50:O54" si="34">D50+F50+H50+J50+L50</f>
+        <v>0</v>
       </c>
       <c r="O50" s="37">
         <f t="shared" si="34"/>
@@ -2938,25 +2938,33 @@
       <c r="A51" s="30">
         <v>5</v>
       </c>
-      <c r="B51" s="75"/>
+      <c r="B51" s="75">
+        <v>42347</v>
+      </c>
       <c r="C51" s="55" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D51" s="47">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E51" s="47"/>
-      <c r="F51" s="37"/>
+      <c r="F51" s="37">
+        <v>1</v>
+      </c>
       <c r="G51" s="37"/>
-      <c r="H51" s="48"/>
+      <c r="H51" s="48">
+        <v>0.5</v>
+      </c>
       <c r="I51" s="48"/>
-      <c r="J51" s="37"/>
+      <c r="J51" s="37">
+        <v>0.5</v>
+      </c>
       <c r="K51" s="37"/>
       <c r="L51" s="49"/>
       <c r="M51" s="49"/>
       <c r="N51" s="36">
         <f t="shared" si="34"/>
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="O51" s="37">
         <f t="shared" si="34"/>
@@ -2964,24 +2972,28 @@
       </c>
     </row>
     <row r="52" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="81">
+      <c r="A52" s="30">
         <v>5</v>
       </c>
-      <c r="B52" s="82"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="90"/>
-      <c r="I52" s="90"/>
-      <c r="J52" s="87"/>
-      <c r="K52" s="87"/>
-      <c r="L52" s="86"/>
-      <c r="M52" s="86"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="E52" s="47"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="37"/>
+      <c r="L52" s="49"/>
+      <c r="M52" s="49"/>
       <c r="N52" s="36">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O52" s="37">
         <f t="shared" si="34"/>
@@ -2989,114 +3001,102 @@
       </c>
     </row>
     <row r="53" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="38">
+      <c r="A53" s="81">
         <v>5</v>
       </c>
-      <c r="B53" s="76">
+      <c r="B53" s="82"/>
+      <c r="C53" s="88"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="87"/>
+      <c r="G53" s="87"/>
+      <c r="H53" s="90"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="87"/>
+      <c r="K53" s="87"/>
+      <c r="L53" s="86"/>
+      <c r="M53" s="86"/>
+      <c r="N53" s="36">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="37">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="38">
+        <v>5</v>
+      </c>
+      <c r="B54" s="76">
         <v>42351</v>
       </c>
-      <c r="C53" s="69" t="s">
+      <c r="C54" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D53" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E53" s="40"/>
-      <c r="F53" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="G53" s="62"/>
-      <c r="H53" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I53" s="42"/>
-      <c r="J53" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="K53" s="41"/>
-      <c r="L53" s="50"/>
-      <c r="M53" s="50"/>
-      <c r="N53" s="44">
+      <c r="D54" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E54" s="40"/>
+      <c r="F54" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="G54" s="62"/>
+      <c r="H54" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="I54" s="42"/>
+      <c r="J54" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="K54" s="41"/>
+      <c r="L54" s="50"/>
+      <c r="M54" s="50"/>
+      <c r="N54" s="44">
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="O53" s="45">
+      <c r="O54" s="45">
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="105" t="s">
+    <row r="55" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="B54" s="105"/>
-      <c r="C54" s="105"/>
-      <c r="D54" s="105"/>
-      <c r="E54" s="105"/>
-      <c r="F54" s="105"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="105"/>
-      <c r="I54" s="105"/>
-      <c r="J54" s="104" t="s">
+      <c r="B55" s="104"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="104"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="104"/>
+      <c r="J55" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="K54" s="104"/>
-      <c r="L54" s="94"/>
-      <c r="M54" s="94"/>
-      <c r="N54" s="95">
-        <f>SUM(N47:N53)</f>
+      <c r="K55" s="105"/>
+      <c r="L55" s="94"/>
+      <c r="M55" s="94"/>
+      <c r="N55" s="95">
+        <f>SUM(N48:N54)</f>
         <v>14.25</v>
       </c>
-      <c r="O54" s="95">
-        <f>SUM(O47:O53)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="23">
+      <c r="O55" s="95">
+        <f>SUM(O48:O54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="23">
         <v>6</v>
       </c>
-      <c r="B55" s="74">
+      <c r="B56" s="74">
         <v>42352</v>
       </c>
-      <c r="C55" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="D55" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E55" s="47"/>
-      <c r="F55" s="37">
-        <v>1</v>
-      </c>
-      <c r="G55" s="37"/>
-      <c r="H55" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I55" s="48"/>
-      <c r="J55" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K55" s="29"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="46"/>
-      <c r="N55" s="28">
-        <f t="shared" ref="N55:O62" si="35">D55+F55+H55+J55+L55</f>
-        <v>2.5</v>
-      </c>
-      <c r="O55" s="29">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="64">
-        <v>6</v>
-      </c>
-      <c r="B56" s="77">
-        <v>42354</v>
-      </c>
-      <c r="C56" s="55" t="s">
+      <c r="C56" s="92" t="s">
         <v>61</v>
       </c>
       <c r="D56" s="47">
@@ -3114,42 +3114,52 @@
       <c r="J56" s="37">
         <v>0.5</v>
       </c>
-      <c r="K56" s="97"/>
-      <c r="L56" s="98"/>
-      <c r="M56" s="98"/>
-      <c r="N56" s="99">
-        <f t="shared" ref="N56:N57" si="36">D56+F56+H56+J56+L56</f>
+      <c r="K56" s="29"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="28">
+        <f t="shared" ref="N56:O63" si="35">D56+F56+H56+J56+L56</f>
         <v>2.5</v>
       </c>
-      <c r="O56" s="97">
-        <f t="shared" ref="O56:O57" si="37">E56+G56+I56+K56+M56</f>
+      <c r="O56" s="29">
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="30">
+      <c r="A57" s="64">
         <v>6</v>
       </c>
-      <c r="B57" s="75"/>
+      <c r="B57" s="77">
+        <v>42354</v>
+      </c>
       <c r="C57" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="49"/>
-      <c r="M57" s="49"/>
-      <c r="N57" s="36">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="O57" s="37">
-        <f t="shared" si="37"/>
+        <v>61</v>
+      </c>
+      <c r="D57" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E57" s="47"/>
+      <c r="F57" s="37">
+        <v>1</v>
+      </c>
+      <c r="G57" s="37"/>
+      <c r="H57" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I57" s="48"/>
+      <c r="J57" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K57" s="97"/>
+      <c r="L57" s="98"/>
+      <c r="M57" s="98"/>
+      <c r="N57" s="99">
+        <f t="shared" ref="N57:N58" si="36">D57+F57+H57+J57+L57</f>
+        <v>2.5</v>
+      </c>
+      <c r="O57" s="97">
+        <f t="shared" ref="O57:O58" si="37">E57+G57+I57+K57+M57</f>
         <v>0</v>
       </c>
     </row>
@@ -3158,7 +3168,9 @@
         <v>6</v>
       </c>
       <c r="B58" s="75"/>
-      <c r="C58" s="31"/>
+      <c r="C58" s="55" t="s">
+        <v>25</v>
+      </c>
       <c r="D58" s="51"/>
       <c r="E58" s="51"/>
       <c r="F58" s="30"/>
@@ -3170,11 +3182,11 @@
       <c r="L58" s="49"/>
       <c r="M58" s="49"/>
       <c r="N58" s="36">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O58" s="37">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -3229,21 +3241,21 @@
       </c>
     </row>
     <row r="61" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="81">
+      <c r="A61" s="30">
         <v>6</v>
       </c>
-      <c r="B61" s="82"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="84"/>
-      <c r="E61" s="84"/>
-      <c r="F61" s="81"/>
-      <c r="G61" s="81"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="81"/>
-      <c r="K61" s="81"/>
-      <c r="L61" s="86"/>
-      <c r="M61" s="86"/>
+      <c r="B61" s="75"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="49"/>
+      <c r="M61" s="49"/>
       <c r="N61" s="36">
         <f t="shared" si="35"/>
         <v>0</v>
@@ -3254,114 +3266,102 @@
       </c>
     </row>
     <row r="62" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="38">
+      <c r="A62" s="81">
         <v>6</v>
       </c>
-      <c r="B62" s="76">
+      <c r="B62" s="82"/>
+      <c r="C62" s="83"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="84"/>
+      <c r="F62" s="81"/>
+      <c r="G62" s="81"/>
+      <c r="H62" s="85"/>
+      <c r="I62" s="85"/>
+      <c r="J62" s="81"/>
+      <c r="K62" s="81"/>
+      <c r="L62" s="86"/>
+      <c r="M62" s="86"/>
+      <c r="N62" s="36">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="37">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="38">
+        <v>6</v>
+      </c>
+      <c r="B63" s="76">
         <v>42358</v>
       </c>
-      <c r="C62" s="69" t="s">
+      <c r="C63" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D62" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E62" s="40"/>
-      <c r="F62" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="G62" s="62"/>
-      <c r="H62" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I62" s="42"/>
-      <c r="J62" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="K62" s="41"/>
-      <c r="L62" s="50"/>
-      <c r="M62" s="50"/>
-      <c r="N62" s="44">
+      <c r="D63" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E63" s="40"/>
+      <c r="F63" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="G63" s="62"/>
+      <c r="H63" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="I63" s="42"/>
+      <c r="J63" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="K63" s="41"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="50"/>
+      <c r="N63" s="44">
         <f t="shared" si="35"/>
         <v>1</v>
       </c>
-      <c r="O62" s="45">
+      <c r="O63" s="45">
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="105" t="s">
+    <row r="64" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="105"/>
-      <c r="C63" s="105"/>
-      <c r="D63" s="105"/>
-      <c r="E63" s="105"/>
-      <c r="F63" s="105"/>
-      <c r="G63" s="105"/>
-      <c r="H63" s="105"/>
-      <c r="I63" s="105"/>
-      <c r="J63" s="105" t="s">
+      <c r="B64" s="104"/>
+      <c r="C64" s="104"/>
+      <c r="D64" s="104"/>
+      <c r="E64" s="104"/>
+      <c r="F64" s="104"/>
+      <c r="G64" s="104"/>
+      <c r="H64" s="104"/>
+      <c r="I64" s="104"/>
+      <c r="J64" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="K63" s="104"/>
-      <c r="L63" s="94"/>
-      <c r="M63" s="94"/>
-      <c r="N63" s="95">
-        <f>SUM(N55:N62)</f>
+      <c r="K64" s="105"/>
+      <c r="L64" s="94"/>
+      <c r="M64" s="94"/>
+      <c r="N64" s="95">
+        <f>SUM(N56:N63)</f>
         <v>6</v>
       </c>
-      <c r="O63" s="95">
-        <f>SUM(O55:O62)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="23" t="s">
+      <c r="O64" s="95">
+        <f>SUM(O56:O63)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="74">
+      <c r="B65" s="74">
         <v>42380</v>
       </c>
-      <c r="C64" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="D64" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E64" s="47"/>
-      <c r="F64" s="37">
-        <v>1</v>
-      </c>
-      <c r="G64" s="37"/>
-      <c r="H64" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I64" s="48"/>
-      <c r="J64" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K64" s="23"/>
-      <c r="L64" s="46"/>
-      <c r="M64" s="46"/>
-      <c r="N64" s="28">
-        <f t="shared" ref="N64:O69" si="38">D64+F64+H64+J64+L64</f>
-        <v>2.5</v>
-      </c>
-      <c r="O64" s="29">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="75">
-        <v>42381</v>
-      </c>
-      <c r="C65" s="55" t="s">
+      <c r="C65" s="92" t="s">
         <v>61</v>
       </c>
       <c r="D65" s="47">
@@ -3379,14 +3379,14 @@
       <c r="J65" s="37">
         <v>0.5</v>
       </c>
-      <c r="K65" s="30"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="49"/>
-      <c r="N65" s="36">
-        <f t="shared" si="38"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="28">
+        <f t="shared" ref="N65:O70" si="38">D65+F65+H65+J65+L65</f>
         <v>2.5</v>
       </c>
-      <c r="O65" s="37">
+      <c r="O65" s="29">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
@@ -3396,9 +3396,9 @@
         <v>8</v>
       </c>
       <c r="B66" s="75">
-        <v>42382</v>
-      </c>
-      <c r="C66" s="100" t="s">
+        <v>42381</v>
+      </c>
+      <c r="C66" s="55" t="s">
         <v>61</v>
       </c>
       <c r="D66" s="47">
@@ -3428,12 +3428,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="30" t="s">
         <v>8</v>
       </c>
       <c r="B67" s="75">
-        <v>42383</v>
+        <v>42382</v>
       </c>
       <c r="C67" s="100" t="s">
         <v>61</v>
@@ -3470,9 +3470,9 @@
         <v>8</v>
       </c>
       <c r="B68" s="75">
-        <v>42384</v>
-      </c>
-      <c r="C68" s="55" t="s">
+        <v>42383</v>
+      </c>
+      <c r="C68" s="100" t="s">
         <v>61</v>
       </c>
       <c r="D68" s="47">
@@ -3503,102 +3503,102 @@
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="38" t="s">
+      <c r="A69" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="76"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="54"/>
-      <c r="I69" s="54"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="38"/>
-      <c r="L69" s="50"/>
-      <c r="M69" s="50"/>
-      <c r="N69" s="44">
+      <c r="B69" s="75">
+        <v>42384</v>
+      </c>
+      <c r="C69" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E69" s="47"/>
+      <c r="F69" s="37">
+        <v>1</v>
+      </c>
+      <c r="G69" s="37"/>
+      <c r="H69" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I69" s="48"/>
+      <c r="J69" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K69" s="30"/>
+      <c r="L69" s="49"/>
+      <c r="M69" s="49"/>
+      <c r="N69" s="36">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O69" s="45">
+        <v>2.5</v>
+      </c>
+      <c r="O69" s="37">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70" s="105" t="s">
+      <c r="A70" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="76"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="53"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="50"/>
+      <c r="M70" s="50"/>
+      <c r="N70" s="44">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="O70" s="45">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="B70" s="105"/>
-      <c r="C70" s="105"/>
-      <c r="D70" s="105"/>
-      <c r="E70" s="105"/>
-      <c r="F70" s="105"/>
-      <c r="G70" s="105"/>
-      <c r="H70" s="105"/>
-      <c r="I70" s="105"/>
-      <c r="J70" s="105" t="s">
+      <c r="B71" s="104"/>
+      <c r="C71" s="104"/>
+      <c r="D71" s="104"/>
+      <c r="E71" s="104"/>
+      <c r="F71" s="104"/>
+      <c r="G71" s="104"/>
+      <c r="H71" s="104"/>
+      <c r="I71" s="104"/>
+      <c r="J71" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="K70" s="104"/>
-      <c r="L70" s="94"/>
-      <c r="M70" s="94"/>
-      <c r="N70" s="95">
-        <f>SUM(N64:N69)</f>
+      <c r="K71" s="105"/>
+      <c r="L71" s="94"/>
+      <c r="M71" s="94"/>
+      <c r="N71" s="95">
+        <f>SUM(N65:N70)</f>
         <v>12.5</v>
       </c>
-      <c r="O70" s="95">
-        <f>SUM(O64:O69)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" s="23" t="s">
+      <c r="O71" s="95">
+        <f>SUM(O65:O70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="74">
+      <c r="B72" s="74">
         <v>42387</v>
       </c>
-      <c r="C71" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="D71" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E71" s="47"/>
-      <c r="F71" s="37">
-        <v>1</v>
-      </c>
-      <c r="G71" s="37"/>
-      <c r="H71" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I71" s="48"/>
-      <c r="J71" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K71" s="23"/>
-      <c r="L71" s="46"/>
-      <c r="M71" s="46"/>
-      <c r="N71" s="28">
-        <f t="shared" ref="N71:O73" si="39">D71+F71+H71+J71+L71</f>
-        <v>2.5</v>
-      </c>
-      <c r="O71" s="29">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72" s="75">
-        <v>42388</v>
-      </c>
-      <c r="C72" s="55" t="s">
+      <c r="C72" s="92" t="s">
         <v>61</v>
       </c>
       <c r="D72" s="47">
@@ -3616,14 +3616,14 @@
       <c r="J72" s="37">
         <v>0.5</v>
       </c>
-      <c r="K72" s="30"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="49"/>
-      <c r="N72" s="36">
-        <f t="shared" si="39"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="46"/>
+      <c r="M72" s="46"/>
+      <c r="N72" s="28">
+        <f t="shared" ref="N72:O74" si="39">D72+F72+H72+J72+L72</f>
         <v>2.5</v>
       </c>
-      <c r="O72" s="37">
+      <c r="O72" s="29">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -3633,9 +3633,9 @@
         <v>9</v>
       </c>
       <c r="B73" s="75">
-        <v>42389</v>
-      </c>
-      <c r="C73" s="100" t="s">
+        <v>42388</v>
+      </c>
+      <c r="C73" s="55" t="s">
         <v>61</v>
       </c>
       <c r="D73" s="47">
@@ -3670,7 +3670,7 @@
         <v>9</v>
       </c>
       <c r="B74" s="75">
-        <v>42390</v>
+        <v>42389</v>
       </c>
       <c r="C74" s="100" t="s">
         <v>61</v>
@@ -3694,11 +3694,11 @@
       <c r="L74" s="49"/>
       <c r="M74" s="49"/>
       <c r="N74" s="36">
-        <f t="shared" ref="N74:N77" si="40">D74+F74+H74+J74+L74</f>
+        <f t="shared" si="39"/>
         <v>2.5</v>
       </c>
       <c r="O74" s="37">
-        <f t="shared" ref="O74:O77" si="41">E74+G74+I74+K74+M74</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
@@ -3707,9 +3707,9 @@
         <v>9</v>
       </c>
       <c r="B75" s="75">
-        <v>42391</v>
-      </c>
-      <c r="C75" s="55" t="s">
+        <v>42390</v>
+      </c>
+      <c r="C75" s="100" t="s">
         <v>61</v>
       </c>
       <c r="D75" s="47">
@@ -3731,11 +3731,11 @@
       <c r="L75" s="49"/>
       <c r="M75" s="49"/>
       <c r="N75" s="36">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="N75:N78" si="40">D75+F75+H75+J75+L75</f>
         <v>2.5</v>
       </c>
       <c r="O75" s="37">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="O75:O78" si="41">E75+G75+I75+K75+M75</f>
         <v>0</v>
       </c>
     </row>
@@ -3743,152 +3743,173 @@
       <c r="A76" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="82"/>
-      <c r="C76" s="88"/>
-      <c r="D76" s="84"/>
-      <c r="E76" s="84"/>
-      <c r="F76" s="81"/>
-      <c r="G76" s="81"/>
-      <c r="H76" s="85"/>
-      <c r="I76" s="85"/>
-      <c r="J76" s="81"/>
-      <c r="K76" s="81"/>
-      <c r="L76" s="86"/>
-      <c r="M76" s="86"/>
-      <c r="N76" s="101">
+      <c r="B76" s="75">
+        <v>42391</v>
+      </c>
+      <c r="C76" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D76" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E76" s="47"/>
+      <c r="F76" s="37">
+        <v>1</v>
+      </c>
+      <c r="G76" s="37"/>
+      <c r="H76" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I76" s="48"/>
+      <c r="J76" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K76" s="30"/>
+      <c r="L76" s="49"/>
+      <c r="M76" s="49"/>
+      <c r="N76" s="36">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="O76" s="87">
+        <v>2.5</v>
+      </c>
+      <c r="O76" s="37">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A77" s="38"/>
-      <c r="B77" s="76">
+      <c r="A77" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B77" s="82"/>
+      <c r="C77" s="88"/>
+      <c r="D77" s="84"/>
+      <c r="E77" s="84"/>
+      <c r="F77" s="81"/>
+      <c r="G77" s="81"/>
+      <c r="H77" s="85"/>
+      <c r="I77" s="85"/>
+      <c r="J77" s="81"/>
+      <c r="K77" s="81"/>
+      <c r="L77" s="86"/>
+      <c r="M77" s="86"/>
+      <c r="N77" s="101">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O77" s="87">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" s="38"/>
+      <c r="B78" s="76">
         <v>42393</v>
       </c>
-      <c r="C77" s="69" t="s">
+      <c r="C78" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="54"/>
-      <c r="I77" s="54"/>
-      <c r="J77" s="38"/>
-      <c r="K77" s="38"/>
-      <c r="L77" s="50"/>
-      <c r="M77" s="50"/>
-      <c r="N77" s="44">
+      <c r="D78" s="53"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="38"/>
+      <c r="K78" s="38"/>
+      <c r="L78" s="50"/>
+      <c r="M78" s="50"/>
+      <c r="N78" s="44">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="O77" s="45">
+      <c r="O78" s="45">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
-      <c r="B78" s="78"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="105" t="s">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79" s="3"/>
+      <c r="B79" s="78"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="K78" s="104"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="8">
-        <f>SUM(N71:N77)</f>
+      <c r="K79" s="105"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="8">
+        <f>SUM(N72:N78)</f>
         <v>12.5</v>
       </c>
-      <c r="O78" s="4">
-        <f>SUM(O71:O77)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A79" s="9"/>
-      <c r="B79" s="79"/>
-      <c r="C79" s="10" t="s">
+      <c r="O79" s="4">
+        <f>SUM(O72:O78)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" s="9"/>
+      <c r="B80" s="79"/>
+      <c r="C80" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D79" s="11">
-        <f t="shared" ref="D79:M79" si="42">SUM(D4:D78)</f>
-        <v>40.75</v>
-      </c>
-      <c r="E79" s="11">
+      <c r="D80" s="11">
+        <f t="shared" ref="D80:M80" si="42">SUM(D4:D79)</f>
+        <v>41.75</v>
+      </c>
+      <c r="E80" s="11">
         <f t="shared" si="42"/>
         <v>34.75</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F80" s="11">
         <f t="shared" si="42"/>
-        <v>46</v>
-      </c>
-      <c r="G79" s="11">
+        <v>47</v>
+      </c>
+      <c r="G80" s="11">
         <f t="shared" si="42"/>
-        <v>32</v>
-      </c>
-      <c r="H79" s="11">
+        <v>33.5</v>
+      </c>
+      <c r="H80" s="11">
         <f t="shared" si="42"/>
-        <v>37.5</v>
-      </c>
-      <c r="I79" s="11">
+        <v>38.5</v>
+      </c>
+      <c r="I80" s="11">
         <f t="shared" si="42"/>
         <v>30</v>
       </c>
-      <c r="J79" s="11">
+      <c r="J80" s="11">
         <f t="shared" si="42"/>
-        <v>40.5</v>
-      </c>
-      <c r="K79" s="11">
+        <v>41.5</v>
+      </c>
+      <c r="K80" s="11">
         <f t="shared" si="42"/>
         <v>35.5</v>
       </c>
-      <c r="L79" s="11">
+      <c r="L80" s="11">
         <f t="shared" si="42"/>
         <v>0.5</v>
       </c>
-      <c r="M79" s="11">
+      <c r="M80" s="11">
         <f t="shared" si="42"/>
         <v>0.5</v>
       </c>
-      <c r="N79" s="9">
-        <f>D79+F79+H79+J79+L79</f>
-        <v>165.25</v>
-      </c>
-      <c r="O79" s="11">
-        <f>E79+G79+I79+K79+M79</f>
-        <v>132.75</v>
+      <c r="N80" s="9">
+        <f>D80+F80+H80+J80+L80</f>
+        <v>169.25</v>
+      </c>
+      <c r="O80" s="11">
+        <f>E80+G80+I80+K80+M80</f>
+        <v>134.25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="A63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="A70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="J46:K46"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="E2:F2"/>
@@ -3897,6 +3918,22 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="A71:I71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="J47:K47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -3922,6 +3959,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
@@ -3931,11 +3972,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -4096,16 +4142,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -4121,15 +4166,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4145,12 +4190,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
+++ b/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -226,6 +226,18 @@
   </si>
   <si>
     <t>PVA reviewpunten aanpassen</t>
+  </si>
+  <si>
+    <t>PVA reviewpunten aanpassen en laatste keer doorlezen</t>
+  </si>
+  <si>
+    <t>MoSCoW &amp; UCD</t>
+  </si>
+  <si>
+    <t>Planing maken voor komende 3 weken</t>
+  </si>
+  <si>
+    <t>RA verder afmaken</t>
   </si>
 </sst>
 </file>
@@ -729,28 +741,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1057,11 +1069,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
+      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1089,18 +1101,18 @@
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="107" t="s">
+      <c r="E2" s="106" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="107"/>
+      <c r="F2" s="106"/>
       <c r="H2" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="106">
+      <c r="I2" s="111">
         <f ca="1">TODAY()</f>
-        <v>42341</v>
-      </c>
-      <c r="J2" s="106"/>
+        <v>42342</v>
+      </c>
+      <c r="J2" s="111"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -1152,43 +1164,43 @@
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="73"/>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="105" t="s">
+      <c r="E4" s="109"/>
+      <c r="F4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="105"/>
-      <c r="H4" s="111" t="s">
+      <c r="G4" s="104"/>
+      <c r="H4" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="111"/>
-      <c r="J4" s="105" t="s">
+      <c r="I4" s="110"/>
+      <c r="J4" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="105"/>
-      <c r="L4" s="108" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="109"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="107" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="108"/>
       <c r="N4" s="22"/>
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
       <c r="L5" s="94"/>
       <c r="M5" s="94"/>
       <c r="N5" s="95"/>
@@ -1412,21 +1424,21 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="105" t="s">
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="104" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="105"/>
+      <c r="K11" s="104"/>
       <c r="L11" s="94"/>
       <c r="M11" s="94"/>
       <c r="N11" s="95">
@@ -1865,21 +1877,21 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="104" t="s">
+      <c r="A22" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="105" t="s">
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="104" t="s">
         <v>45</v>
       </c>
-      <c r="K22" s="105"/>
+      <c r="K22" s="104"/>
       <c r="L22" s="94"/>
       <c r="M22" s="94"/>
       <c r="N22" s="95">
@@ -2399,21 +2411,21 @@
       </c>
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="104" t="s">
+      <c r="A36" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="104"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="105" t="s">
+      <c r="B36" s="105"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="K36" s="105"/>
+      <c r="K36" s="104"/>
       <c r="L36" s="94"/>
       <c r="M36" s="94"/>
       <c r="N36" s="95">
@@ -2477,24 +2489,34 @@
       <c r="B38" s="75">
         <v>42338</v>
       </c>
-      <c r="C38" s="31"/>
+      <c r="C38" s="31" t="s">
+        <v>24</v>
+      </c>
       <c r="D38" s="47"/>
       <c r="E38" s="47"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
+      <c r="F38" s="37">
+        <v>2</v>
+      </c>
+      <c r="G38" s="37">
+        <v>2</v>
+      </c>
       <c r="H38" s="48"/>
       <c r="I38" s="48"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
+      <c r="J38" s="37">
+        <v>2</v>
+      </c>
+      <c r="K38" s="37">
+        <v>3</v>
+      </c>
       <c r="L38" s="103"/>
       <c r="M38" s="103"/>
       <c r="N38" s="36">
-        <f t="shared" ref="N38:N45" si="28">D38+F38+H38+J38+L38</f>
-        <v>0</v>
+        <f t="shared" ref="N38:N46" si="28">D38+F38+H38+J38+L38</f>
+        <v>4</v>
       </c>
       <c r="O38" s="37">
-        <f t="shared" ref="O38:O45" si="29">E38+G38+I38+K38+M38</f>
-        <v>0</v>
+        <f t="shared" ref="O38:O46" si="29">E38+G38+I38+K38+M38</f>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2502,44 +2524,36 @@
         <v>4</v>
       </c>
       <c r="B39" s="75">
-        <v>42340</v>
-      </c>
-      <c r="C39" s="55" t="s">
-        <v>65</v>
+        <v>42338</v>
+      </c>
+      <c r="C39" s="31" t="s">
+        <v>69</v>
       </c>
       <c r="D39" s="47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="47">
-        <v>1</v>
-      </c>
-      <c r="F39" s="37">
-        <v>1</v>
-      </c>
-      <c r="G39" s="37">
-        <v>1</v>
-      </c>
+        <v>2.5</v>
+      </c>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
       <c r="H39" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" s="48">
-        <v>1</v>
-      </c>
-      <c r="J39" s="37">
-        <v>1</v>
-      </c>
-      <c r="K39" s="37">
-        <v>1</v>
-      </c>
-      <c r="L39" s="49"/>
-      <c r="M39" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="103"/>
+      <c r="M39" s="103"/>
       <c r="N39" s="36">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="N39" si="30">D39+F39+H39+J39+L39</f>
         <v>4</v>
       </c>
       <c r="O39" s="37">
-        <f t="shared" si="29"/>
-        <v>4</v>
+        <f t="shared" ref="O39" si="31">E39+G39+I39+K39+M39</f>
+        <v>4.5</v>
       </c>
     </row>
     <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2550,13 +2564,13 @@
         <v>42340</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D40" s="47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E40" s="47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F40" s="37">
         <v>1</v>
@@ -2565,26 +2579,26 @@
         <v>1</v>
       </c>
       <c r="H40" s="48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I40" s="48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J40" s="37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K40" s="37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L40" s="49"/>
       <c r="M40" s="49"/>
       <c r="N40" s="36">
         <f t="shared" si="28"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="O40" s="37">
         <f t="shared" si="29"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2595,41 +2609,41 @@
         <v>42340</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D41" s="47">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E41" s="47">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F41" s="37">
         <v>1</v>
       </c>
       <c r="G41" s="37">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H41" s="48">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I41" s="48">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="J41" s="37">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K41" s="37">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="L41" s="49"/>
       <c r="M41" s="49"/>
       <c r="N41" s="36">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="O41" s="37">
         <f t="shared" si="29"/>
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2637,44 +2651,44 @@
         <v>4</v>
       </c>
       <c r="B42" s="75">
-        <v>42341</v>
+        <v>42340</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D42" s="47">
+        <v>1</v>
+      </c>
+      <c r="E42" s="47">
         <v>1.5</v>
       </c>
-      <c r="E42" s="47">
-        <v>3</v>
-      </c>
       <c r="F42" s="37">
+        <v>1</v>
+      </c>
+      <c r="G42" s="37">
         <v>1.5</v>
       </c>
-      <c r="G42" s="37">
-        <v>3</v>
-      </c>
       <c r="H42" s="48">
+        <v>1</v>
+      </c>
+      <c r="I42" s="48">
         <v>1.5</v>
       </c>
-      <c r="I42" s="48">
-        <v>1</v>
-      </c>
       <c r="J42" s="37">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K42" s="37">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="L42" s="49"/>
       <c r="M42" s="49"/>
       <c r="N42" s="36">
         <f t="shared" si="28"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O42" s="37">
         <f t="shared" si="29"/>
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2682,36 +2696,44 @@
         <v>4</v>
       </c>
       <c r="B43" s="75">
-        <v>42342</v>
+        <v>42341</v>
       </c>
       <c r="C43" s="55" t="s">
         <v>67</v>
       </c>
       <c r="D43" s="47">
-        <v>1</v>
-      </c>
-      <c r="E43" s="47"/>
+        <v>1.5</v>
+      </c>
+      <c r="E43" s="47">
+        <v>3</v>
+      </c>
       <c r="F43" s="37">
-        <v>1</v>
-      </c>
-      <c r="G43" s="37"/>
+        <v>1.5</v>
+      </c>
+      <c r="G43" s="37">
+        <v>3</v>
+      </c>
       <c r="H43" s="48">
-        <v>1</v>
-      </c>
-      <c r="I43" s="48"/>
+        <v>1.5</v>
+      </c>
+      <c r="I43" s="48">
+        <v>1</v>
+      </c>
       <c r="J43" s="37">
-        <v>1</v>
-      </c>
-      <c r="K43" s="37"/>
+        <v>1.5</v>
+      </c>
+      <c r="K43" s="37">
+        <v>1.5</v>
+      </c>
       <c r="L43" s="49"/>
       <c r="M43" s="49"/>
       <c r="N43" s="36">
         <f t="shared" si="28"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O43" s="37">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2721,189 +2743,199 @@
       <c r="B44" s="75">
         <v>42342</v>
       </c>
-      <c r="C44" s="31" t="s">
-        <v>23</v>
+      <c r="C44" s="55" t="s">
+        <v>68</v>
       </c>
       <c r="D44" s="47">
-        <v>0.25</v>
-      </c>
-      <c r="E44" s="47"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
+        <v>1</v>
+      </c>
+      <c r="E44" s="47">
+        <v>2.5</v>
+      </c>
+      <c r="F44" s="37">
+        <v>1</v>
+      </c>
+      <c r="G44" s="37">
+        <v>1</v>
+      </c>
+      <c r="H44" s="48">
+        <v>1</v>
+      </c>
+      <c r="I44" s="48">
+        <v>0</v>
+      </c>
+      <c r="J44" s="37">
+        <v>1</v>
+      </c>
+      <c r="K44" s="37">
+        <v>0.5</v>
+      </c>
       <c r="L44" s="49"/>
       <c r="M44" s="49"/>
       <c r="N44" s="36">
         <f t="shared" si="28"/>
-        <v>0.25</v>
+        <v>4</v>
       </c>
       <c r="O44" s="37">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="81">
+      <c r="A45" s="30">
         <v>4</v>
       </c>
-      <c r="B45" s="82"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="87"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="90"/>
-      <c r="J45" s="87"/>
-      <c r="K45" s="87"/>
-      <c r="L45" s="86"/>
-      <c r="M45" s="86"/>
+      <c r="B45" s="75">
+        <v>42342</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D45" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="E45" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="37"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="49"/>
       <c r="N45" s="36">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="O45" s="37">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="46" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="38">
+      <c r="A46" s="81">
         <v>4</v>
       </c>
-      <c r="B46" s="76">
+      <c r="B46" s="82"/>
+      <c r="C46" s="83"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="87"/>
+      <c r="H46" s="90"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="87"/>
+      <c r="K46" s="87"/>
+      <c r="L46" s="86"/>
+      <c r="M46" s="86"/>
+      <c r="N46" s="36">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="37">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="38">
+        <v>4</v>
+      </c>
+      <c r="B47" s="76">
         <v>42344</v>
       </c>
-      <c r="C46" s="69" t="s">
+      <c r="C47" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E46" s="40"/>
-      <c r="F46" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="G46" s="62"/>
-      <c r="H46" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I46" s="42"/>
-      <c r="J46" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="K46" s="41"/>
-      <c r="L46" s="50"/>
-      <c r="M46" s="50"/>
-      <c r="N46" s="44">
-        <f>D46+F46+H46+J46+L46</f>
-        <v>1</v>
-      </c>
-      <c r="O46" s="45">
-        <f>E46+G46+I46+K46+M46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="104" t="s">
+      <c r="D47" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E47" s="40"/>
+      <c r="F47" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="G47" s="62"/>
+      <c r="H47" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="I47" s="42"/>
+      <c r="J47" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="K47" s="41"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="44">
+        <f>D47+F47+H47+J47+L47</f>
+        <v>1</v>
+      </c>
+      <c r="O47" s="45">
+        <f>E47+G47+I47+K47+M47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="104"/>
-      <c r="I47" s="104"/>
-      <c r="J47" s="105" t="s">
+      <c r="B48" s="105"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="105"/>
+      <c r="I48" s="105"/>
+      <c r="J48" s="104" t="s">
         <v>47</v>
       </c>
-      <c r="K47" s="105"/>
-      <c r="L47" s="94"/>
-      <c r="M47" s="94"/>
-      <c r="N47" s="95">
-        <f>SUM(N37:N46)</f>
-        <v>24.75</v>
-      </c>
-      <c r="O47" s="95">
-        <f>SUM(O37:O46)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="23">
+      <c r="K48" s="104"/>
+      <c r="L48" s="94"/>
+      <c r="M48" s="94"/>
+      <c r="N48" s="95">
+        <f>SUM(N37:N47)</f>
+        <v>32.75</v>
+      </c>
+      <c r="O48" s="95">
+        <f>SUM(O37:O47)</f>
+        <v>39.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="23">
         <v>4</v>
       </c>
-      <c r="B48" s="74">
+      <c r="B49" s="74">
         <v>42345</v>
       </c>
-      <c r="C48" s="57" t="s">
+      <c r="C49" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E48" s="47"/>
-      <c r="F48" s="37">
-        <v>1</v>
-      </c>
-      <c r="G48" s="37"/>
-      <c r="H48" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I48" s="48"/>
-      <c r="J48" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K48" s="29"/>
-      <c r="L48" s="46"/>
-      <c r="M48" s="46"/>
-      <c r="N48" s="28">
-        <f t="shared" ref="N48" si="30">D48+F48+H48+J48+L48</f>
-        <v>2.5</v>
-      </c>
-      <c r="O48" s="29">
-        <f t="shared" ref="O48" si="31">E48+G48+I48+K48+M48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="30">
-        <v>5</v>
-      </c>
-      <c r="B49" s="75">
-        <v>42345</v>
-      </c>
-      <c r="C49" s="55" t="s">
-        <v>32</v>
-      </c>
       <c r="D49" s="47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E49" s="47"/>
       <c r="F49" s="37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G49" s="37"/>
       <c r="H49" s="48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" s="48"/>
       <c r="J49" s="37">
-        <v>2</v>
-      </c>
-      <c r="K49" s="37"/>
-      <c r="L49" s="49"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="36">
+        <v>0</v>
+      </c>
+      <c r="K49" s="29"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="46"/>
+      <c r="N49" s="28">
         <f t="shared" ref="N49" si="32">D49+F49+H49+J49+L49</f>
-        <v>8</v>
-      </c>
-      <c r="O49" s="37">
+        <v>0</v>
+      </c>
+      <c r="O49" s="29">
         <f t="shared" ref="O49" si="33">E49+G49+I49+K49+M49</f>
         <v>0</v>
       </c>
@@ -2915,22 +2947,33 @@
       <c r="B50" s="75">
         <v>42345</v>
       </c>
-      <c r="D50" s="47"/>
+      <c r="C50" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="47">
+        <v>2</v>
+      </c>
       <c r="E50" s="47"/>
-      <c r="F50" s="37"/>
+      <c r="F50" s="37">
+        <v>2</v>
+      </c>
       <c r="G50" s="37"/>
-      <c r="H50" s="48"/>
+      <c r="H50" s="48">
+        <v>2</v>
+      </c>
       <c r="I50" s="48"/>
-      <c r="J50" s="37"/>
+      <c r="J50" s="37">
+        <v>2</v>
+      </c>
       <c r="K50" s="37"/>
       <c r="L50" s="49"/>
       <c r="M50" s="49"/>
       <c r="N50" s="36">
-        <f t="shared" ref="N50:O54" si="34">D50+F50+H50+J50+L50</f>
-        <v>0</v>
+        <f t="shared" ref="N50" si="34">D50+F50+H50+J50+L50</f>
+        <v>8</v>
       </c>
       <c r="O50" s="37">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="O50" si="35">E50+G50+I50+K50+M50</f>
         <v>0</v>
       </c>
     </row>
@@ -2939,35 +2982,35 @@
         <v>5</v>
       </c>
       <c r="B51" s="75">
-        <v>42347</v>
+        <v>42345</v>
       </c>
       <c r="C51" s="55" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D51" s="47">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E51" s="47"/>
       <c r="F51" s="37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G51" s="37"/>
       <c r="H51" s="48">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I51" s="48"/>
       <c r="J51" s="37">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K51" s="37"/>
       <c r="L51" s="49"/>
       <c r="M51" s="49"/>
       <c r="N51" s="36">
-        <f t="shared" si="34"/>
-        <v>2.5</v>
+        <f t="shared" ref="N51:N57" si="36">D51+F51+H51+J51+L51</f>
+        <v>8</v>
       </c>
       <c r="O51" s="37">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="O51:O57" si="37">E51+G51+I51+K51+M51</f>
         <v>0</v>
       </c>
     </row>
@@ -2975,13 +3018,11 @@
       <c r="A52" s="30">
         <v>5</v>
       </c>
-      <c r="B52" s="75"/>
-      <c r="C52" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="D52" s="47">
-        <v>0.25</v>
-      </c>
+      <c r="B52" s="75">
+        <v>42345</v>
+      </c>
+      <c r="C52" s="55"/>
+      <c r="D52" s="47"/>
       <c r="E52" s="47"/>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
@@ -2992,111 +3033,123 @@
       <c r="L52" s="49"/>
       <c r="M52" s="49"/>
       <c r="N52" s="36">
-        <f t="shared" si="34"/>
-        <v>0.25</v>
+        <f t="shared" si="36"/>
+        <v>0</v>
       </c>
       <c r="O52" s="37">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="81">
+      <c r="A53" s="30">
         <v>5</v>
       </c>
-      <c r="B53" s="82"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
-      <c r="H53" s="90"/>
-      <c r="I53" s="90"/>
-      <c r="J53" s="87"/>
-      <c r="K53" s="87"/>
-      <c r="L53" s="86"/>
-      <c r="M53" s="86"/>
+      <c r="B53" s="75">
+        <v>42345</v>
+      </c>
+      <c r="C53" s="55"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="37"/>
+      <c r="L53" s="49"/>
+      <c r="M53" s="49"/>
       <c r="N53" s="36">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="O53" s="37">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="38">
+      <c r="A54" s="30">
         <v>5</v>
       </c>
-      <c r="B54" s="76">
-        <v>42351</v>
-      </c>
-      <c r="C54" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E54" s="40"/>
-      <c r="F54" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="G54" s="62"/>
-      <c r="H54" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I54" s="42"/>
-      <c r="J54" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="K54" s="41"/>
-      <c r="L54" s="50"/>
-      <c r="M54" s="50"/>
-      <c r="N54" s="44">
-        <f t="shared" si="34"/>
-        <v>1</v>
-      </c>
-      <c r="O54" s="45">
-        <f t="shared" si="34"/>
+      <c r="B54" s="75">
+        <v>42347</v>
+      </c>
+      <c r="C54" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="47">
+        <v>1</v>
+      </c>
+      <c r="E54" s="47"/>
+      <c r="F54" s="37">
+        <v>1</v>
+      </c>
+      <c r="G54" s="37"/>
+      <c r="H54" s="48">
+        <v>1</v>
+      </c>
+      <c r="I54" s="48"/>
+      <c r="J54" s="37">
+        <v>1</v>
+      </c>
+      <c r="K54" s="37"/>
+      <c r="L54" s="49"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="36">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
+      <c r="O54" s="37">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="104" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55" s="104"/>
-      <c r="C55" s="104"/>
-      <c r="D55" s="104"/>
-      <c r="E55" s="104"/>
-      <c r="F55" s="104"/>
-      <c r="G55" s="104"/>
-      <c r="H55" s="104"/>
-      <c r="I55" s="104"/>
-      <c r="J55" s="105" t="s">
-        <v>48</v>
-      </c>
-      <c r="K55" s="105"/>
-      <c r="L55" s="94"/>
-      <c r="M55" s="94"/>
-      <c r="N55" s="95">
-        <f>SUM(N48:N54)</f>
-        <v>14.25</v>
-      </c>
-      <c r="O55" s="95">
-        <f>SUM(O48:O54)</f>
+      <c r="A55" s="30">
+        <v>5</v>
+      </c>
+      <c r="B55" s="75">
+        <v>42347</v>
+      </c>
+      <c r="C55" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="E55" s="47"/>
+      <c r="F55" s="37">
+        <v>0.25</v>
+      </c>
+      <c r="G55" s="37"/>
+      <c r="H55" s="48">
+        <v>0.25</v>
+      </c>
+      <c r="I55" s="48"/>
+      <c r="J55" s="37">
+        <v>0.25</v>
+      </c>
+      <c r="K55" s="37"/>
+      <c r="L55" s="49"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="36">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="O55" s="37">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="23">
-        <v>6</v>
-      </c>
-      <c r="B56" s="74">
-        <v>42352</v>
-      </c>
-      <c r="C56" s="92" t="s">
+      <c r="A56" s="30">
+        <v>5</v>
+      </c>
+      <c r="B56" s="75">
+        <v>42347</v>
+      </c>
+      <c r="C56" s="55" t="s">
         <v>61</v>
       </c>
       <c r="D56" s="47">
@@ -3114,491 +3167,485 @@
       <c r="J56" s="37">
         <v>0.5</v>
       </c>
-      <c r="K56" s="29"/>
-      <c r="L56" s="46"/>
-      <c r="M56" s="46"/>
-      <c r="N56" s="28">
-        <f t="shared" ref="N56:O63" si="35">D56+F56+H56+J56+L56</f>
+      <c r="K56" s="37"/>
+      <c r="L56" s="49"/>
+      <c r="M56" s="49"/>
+      <c r="N56" s="36">
+        <f t="shared" si="36"/>
         <v>2.5</v>
       </c>
-      <c r="O56" s="29">
-        <f t="shared" si="35"/>
+      <c r="O56" s="37">
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="64">
+      <c r="A57" s="30">
+        <v>5</v>
+      </c>
+      <c r="B57" s="75">
+        <v>42347</v>
+      </c>
+      <c r="C57" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D57" s="47">
+        <v>0.25</v>
+      </c>
+      <c r="E57" s="47"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="48"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="37"/>
+      <c r="L57" s="49"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="36">
+        <f t="shared" si="36"/>
+        <v>0.25</v>
+      </c>
+      <c r="O57" s="37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="81">
+        <v>5</v>
+      </c>
+      <c r="B58" s="82"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="89"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="87"/>
+      <c r="G58" s="87"/>
+      <c r="H58" s="90"/>
+      <c r="I58" s="90"/>
+      <c r="J58" s="87"/>
+      <c r="K58" s="87"/>
+      <c r="L58" s="86"/>
+      <c r="M58" s="86"/>
+      <c r="N58" s="36">
+        <f t="shared" ref="N56:O59" si="38">D58+F58+H58+J58+L58</f>
+        <v>0</v>
+      </c>
+      <c r="O58" s="37">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="38">
+        <v>5</v>
+      </c>
+      <c r="B59" s="76">
+        <v>42351</v>
+      </c>
+      <c r="C59" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D59" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E59" s="40"/>
+      <c r="F59" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="G59" s="62"/>
+      <c r="H59" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="I59" s="42"/>
+      <c r="J59" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="K59" s="41"/>
+      <c r="L59" s="50"/>
+      <c r="M59" s="50"/>
+      <c r="N59" s="44">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="O59" s="45">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="105"/>
+      <c r="C60" s="105"/>
+      <c r="D60" s="105"/>
+      <c r="E60" s="105"/>
+      <c r="F60" s="105"/>
+      <c r="G60" s="105"/>
+      <c r="H60" s="105"/>
+      <c r="I60" s="105"/>
+      <c r="J60" s="104" t="s">
+        <v>48</v>
+      </c>
+      <c r="K60" s="104"/>
+      <c r="L60" s="94"/>
+      <c r="M60" s="94"/>
+      <c r="N60" s="95">
+        <f>SUM(N49:N59)</f>
+        <v>24.75</v>
+      </c>
+      <c r="O60" s="95">
+        <f>SUM(O49:O59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="23">
         <v>6</v>
       </c>
-      <c r="B57" s="77">
+      <c r="B61" s="74">
+        <v>42352</v>
+      </c>
+      <c r="C61" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="D61" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E61" s="47"/>
+      <c r="F61" s="37">
+        <v>1</v>
+      </c>
+      <c r="G61" s="37"/>
+      <c r="H61" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I61" s="48"/>
+      <c r="J61" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K61" s="29"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="28">
+        <f t="shared" ref="N61:O68" si="39">D61+F61+H61+J61+L61</f>
+        <v>2.5</v>
+      </c>
+      <c r="O61" s="29">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="64">
+        <v>6</v>
+      </c>
+      <c r="B62" s="77">
         <v>42354</v>
       </c>
-      <c r="C57" s="55" t="s">
+      <c r="C62" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E57" s="47"/>
-      <c r="F57" s="37">
-        <v>1</v>
-      </c>
-      <c r="G57" s="37"/>
-      <c r="H57" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I57" s="48"/>
-      <c r="J57" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K57" s="97"/>
-      <c r="L57" s="98"/>
-      <c r="M57" s="98"/>
-      <c r="N57" s="99">
-        <f t="shared" ref="N57:N58" si="36">D57+F57+H57+J57+L57</f>
+      <c r="D62" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E62" s="47"/>
+      <c r="F62" s="37">
+        <v>1</v>
+      </c>
+      <c r="G62" s="37"/>
+      <c r="H62" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I62" s="48"/>
+      <c r="J62" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K62" s="97"/>
+      <c r="L62" s="98"/>
+      <c r="M62" s="98"/>
+      <c r="N62" s="99">
+        <f t="shared" ref="N62:N63" si="40">D62+F62+H62+J62+L62</f>
         <v>2.5</v>
       </c>
-      <c r="O57" s="97">
-        <f t="shared" ref="O57:O58" si="37">E57+G57+I57+K57+M57</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="30">
+      <c r="O62" s="97">
+        <f t="shared" ref="O62:O63" si="41">E62+G62+I62+K62+M62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="30">
         <v>6</v>
       </c>
-      <c r="B58" s="75"/>
-      <c r="C58" s="55" t="s">
+      <c r="B63" s="75"/>
+      <c r="C63" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="51"/>
-      <c r="E58" s="51"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="49"/>
-      <c r="M58" s="49"/>
-      <c r="N58" s="36">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="O58" s="37">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="30">
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="52"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="36">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="37">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="30">
         <v>6</v>
       </c>
-      <c r="B59" s="75"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="52"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="49"/>
-      <c r="M59" s="49"/>
-      <c r="N59" s="36">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="O59" s="37">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="30">
+      <c r="B64" s="75"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="51"/>
+      <c r="E64" s="51"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="49"/>
+      <c r="M64" s="49"/>
+      <c r="N64" s="36">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="37">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="30">
         <v>6</v>
       </c>
-      <c r="B60" s="75"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="51"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="49"/>
-      <c r="M60" s="49"/>
-      <c r="N60" s="36">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="O60" s="37">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="30">
+      <c r="B65" s="75"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="52"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="49"/>
+      <c r="M65" s="49"/>
+      <c r="N65" s="36">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="37">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="30">
         <v>6</v>
       </c>
-      <c r="B61" s="75"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="49"/>
-      <c r="M61" s="49"/>
-      <c r="N61" s="36">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="O61" s="37">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="81">
-        <v>6</v>
-      </c>
-      <c r="B62" s="82"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="84"/>
-      <c r="E62" s="84"/>
-      <c r="F62" s="81"/>
-      <c r="G62" s="81"/>
-      <c r="H62" s="85"/>
-      <c r="I62" s="85"/>
-      <c r="J62" s="81"/>
-      <c r="K62" s="81"/>
-      <c r="L62" s="86"/>
-      <c r="M62" s="86"/>
-      <c r="N62" s="36">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="O62" s="37">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="38">
-        <v>6</v>
-      </c>
-      <c r="B63" s="76">
-        <v>42358</v>
-      </c>
-      <c r="C63" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="D63" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E63" s="40"/>
-      <c r="F63" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="G63" s="62"/>
-      <c r="H63" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I63" s="42"/>
-      <c r="J63" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="K63" s="41"/>
-      <c r="L63" s="50"/>
-      <c r="M63" s="50"/>
-      <c r="N63" s="44">
-        <f t="shared" si="35"/>
-        <v>1</v>
-      </c>
-      <c r="O63" s="45">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="B64" s="104"/>
-      <c r="C64" s="104"/>
-      <c r="D64" s="104"/>
-      <c r="E64" s="104"/>
-      <c r="F64" s="104"/>
-      <c r="G64" s="104"/>
-      <c r="H64" s="104"/>
-      <c r="I64" s="104"/>
-      <c r="J64" s="104" t="s">
-        <v>49</v>
-      </c>
-      <c r="K64" s="105"/>
-      <c r="L64" s="94"/>
-      <c r="M64" s="94"/>
-      <c r="N64" s="95">
-        <f>SUM(N56:N63)</f>
-        <v>6</v>
-      </c>
-      <c r="O64" s="95">
-        <f>SUM(O56:O63)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" s="74">
-        <v>42380</v>
-      </c>
-      <c r="C65" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="D65" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E65" s="47"/>
-      <c r="F65" s="37">
-        <v>1</v>
-      </c>
-      <c r="G65" s="37"/>
-      <c r="H65" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I65" s="48"/>
-      <c r="J65" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K65" s="23"/>
-      <c r="L65" s="46"/>
-      <c r="M65" s="46"/>
-      <c r="N65" s="28">
-        <f t="shared" ref="N65:O70" si="38">D65+F65+H65+J65+L65</f>
-        <v>2.5</v>
-      </c>
-      <c r="O65" s="29">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="75">
-        <v>42381</v>
-      </c>
-      <c r="C66" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="D66" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E66" s="47"/>
-      <c r="F66" s="37">
-        <v>1</v>
-      </c>
-      <c r="G66" s="37"/>
-      <c r="H66" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I66" s="48"/>
-      <c r="J66" s="37">
-        <v>0.5</v>
-      </c>
+      <c r="B66" s="75"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="30"/>
       <c r="K66" s="30"/>
       <c r="L66" s="49"/>
       <c r="M66" s="49"/>
       <c r="N66" s="36">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="37">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="81">
+        <v>6</v>
+      </c>
+      <c r="B67" s="82"/>
+      <c r="C67" s="83"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="84"/>
+      <c r="F67" s="81"/>
+      <c r="G67" s="81"/>
+      <c r="H67" s="85"/>
+      <c r="I67" s="85"/>
+      <c r="J67" s="81"/>
+      <c r="K67" s="81"/>
+      <c r="L67" s="86"/>
+      <c r="M67" s="86"/>
+      <c r="N67" s="36">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="O67" s="37">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="38">
+        <v>6</v>
+      </c>
+      <c r="B68" s="76">
+        <v>42358</v>
+      </c>
+      <c r="C68" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E68" s="40"/>
+      <c r="F68" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="G68" s="62"/>
+      <c r="H68" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="I68" s="42"/>
+      <c r="J68" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="K68" s="41"/>
+      <c r="L68" s="50"/>
+      <c r="M68" s="50"/>
+      <c r="N68" s="44">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="O68" s="45">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="B69" s="105"/>
+      <c r="C69" s="105"/>
+      <c r="D69" s="105"/>
+      <c r="E69" s="105"/>
+      <c r="F69" s="105"/>
+      <c r="G69" s="105"/>
+      <c r="H69" s="105"/>
+      <c r="I69" s="105"/>
+      <c r="J69" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="K69" s="104"/>
+      <c r="L69" s="94"/>
+      <c r="M69" s="94"/>
+      <c r="N69" s="95">
+        <f>SUM(N61:N68)</f>
+        <v>6</v>
+      </c>
+      <c r="O69" s="95">
+        <f>SUM(O61:O68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B70" s="74">
+        <v>42380</v>
+      </c>
+      <c r="C70" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="D70" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E70" s="47"/>
+      <c r="F70" s="37">
+        <v>1</v>
+      </c>
+      <c r="G70" s="37"/>
+      <c r="H70" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I70" s="48"/>
+      <c r="J70" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K70" s="23"/>
+      <c r="L70" s="46"/>
+      <c r="M70" s="46"/>
+      <c r="N70" s="28">
+        <f t="shared" ref="N70:O75" si="42">D70+F70+H70+J70+L70</f>
         <v>2.5</v>
       </c>
-      <c r="O66" s="37">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="30" t="s">
+      <c r="O70" s="29">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B67" s="75">
+      <c r="B71" s="75">
+        <v>42381</v>
+      </c>
+      <c r="C71" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E71" s="47"/>
+      <c r="F71" s="37">
+        <v>1</v>
+      </c>
+      <c r="G71" s="37"/>
+      <c r="H71" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I71" s="48"/>
+      <c r="J71" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K71" s="30"/>
+      <c r="L71" s="49"/>
+      <c r="M71" s="49"/>
+      <c r="N71" s="36">
+        <f t="shared" si="42"/>
+        <v>2.5</v>
+      </c>
+      <c r="O71" s="37">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B72" s="75">
         <v>42382</v>
       </c>
-      <c r="C67" s="100" t="s">
-        <v>61</v>
-      </c>
-      <c r="D67" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E67" s="47"/>
-      <c r="F67" s="37">
-        <v>1</v>
-      </c>
-      <c r="G67" s="37"/>
-      <c r="H67" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I67" s="48"/>
-      <c r="J67" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K67" s="30"/>
-      <c r="L67" s="49"/>
-      <c r="M67" s="49"/>
-      <c r="N67" s="36">
-        <f t="shared" si="38"/>
-        <v>2.5</v>
-      </c>
-      <c r="O67" s="37">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B68" s="75">
-        <v>42383</v>
-      </c>
-      <c r="C68" s="100" t="s">
-        <v>61</v>
-      </c>
-      <c r="D68" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E68" s="47"/>
-      <c r="F68" s="37">
-        <v>1</v>
-      </c>
-      <c r="G68" s="37"/>
-      <c r="H68" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I68" s="48"/>
-      <c r="J68" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K68" s="30"/>
-      <c r="L68" s="49"/>
-      <c r="M68" s="49"/>
-      <c r="N68" s="36">
-        <f t="shared" si="38"/>
-        <v>2.5</v>
-      </c>
-      <c r="O68" s="37">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A69" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B69" s="75">
-        <v>42384</v>
-      </c>
-      <c r="C69" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="D69" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E69" s="47"/>
-      <c r="F69" s="37">
-        <v>1</v>
-      </c>
-      <c r="G69" s="37"/>
-      <c r="H69" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I69" s="48"/>
-      <c r="J69" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K69" s="30"/>
-      <c r="L69" s="49"/>
-      <c r="M69" s="49"/>
-      <c r="N69" s="36">
-        <f t="shared" si="38"/>
-        <v>2.5</v>
-      </c>
-      <c r="O69" s="37">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A70" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B70" s="76"/>
-      <c r="C70" s="39"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="54"/>
-      <c r="I70" s="54"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="50"/>
-      <c r="M70" s="50"/>
-      <c r="N70" s="44">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="O70" s="45">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A71" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="B71" s="104"/>
-      <c r="C71" s="104"/>
-      <c r="D71" s="104"/>
-      <c r="E71" s="104"/>
-      <c r="F71" s="104"/>
-      <c r="G71" s="104"/>
-      <c r="H71" s="104"/>
-      <c r="I71" s="104"/>
-      <c r="J71" s="104" t="s">
-        <v>50</v>
-      </c>
-      <c r="K71" s="105"/>
-      <c r="L71" s="94"/>
-      <c r="M71" s="94"/>
-      <c r="N71" s="95">
-        <f>SUM(N65:N70)</f>
-        <v>12.5</v>
-      </c>
-      <c r="O71" s="95">
-        <f>SUM(O65:O70)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A72" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B72" s="74">
-        <v>42387</v>
-      </c>
-      <c r="C72" s="92" t="s">
+      <c r="C72" s="100" t="s">
         <v>61</v>
       </c>
       <c r="D72" s="47">
@@ -3616,26 +3663,26 @@
       <c r="J72" s="37">
         <v>0.5</v>
       </c>
-      <c r="K72" s="23"/>
-      <c r="L72" s="46"/>
-      <c r="M72" s="46"/>
-      <c r="N72" s="28">
-        <f t="shared" ref="N72:O74" si="39">D72+F72+H72+J72+L72</f>
+      <c r="K72" s="30"/>
+      <c r="L72" s="49"/>
+      <c r="M72" s="49"/>
+      <c r="N72" s="36">
+        <f t="shared" si="42"/>
         <v>2.5</v>
       </c>
-      <c r="O72" s="29">
-        <f t="shared" si="39"/>
+      <c r="O72" s="37">
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B73" s="75">
-        <v>42388</v>
-      </c>
-      <c r="C73" s="55" t="s">
+        <v>42383</v>
+      </c>
+      <c r="C73" s="100" t="s">
         <v>61</v>
       </c>
       <c r="D73" s="47">
@@ -3657,22 +3704,22 @@
       <c r="L73" s="49"/>
       <c r="M73" s="49"/>
       <c r="N73" s="36">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2.5</v>
       </c>
       <c r="O73" s="37">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B74" s="75">
-        <v>42389</v>
-      </c>
-      <c r="C74" s="100" t="s">
+        <v>42384</v>
+      </c>
+      <c r="C74" s="55" t="s">
         <v>61</v>
       </c>
       <c r="D74" s="47">
@@ -3694,222 +3741,401 @@
       <c r="L74" s="49"/>
       <c r="M74" s="49"/>
       <c r="N74" s="36">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2.5</v>
       </c>
       <c r="O74" s="37">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A75" s="30" t="s">
+      <c r="A75" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="76"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="53"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="54"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="50"/>
+      <c r="M75" s="50"/>
+      <c r="N75" s="44">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O75" s="45">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A76" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" s="105"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="105"/>
+      <c r="E76" s="105"/>
+      <c r="F76" s="105"/>
+      <c r="G76" s="105"/>
+      <c r="H76" s="105"/>
+      <c r="I76" s="105"/>
+      <c r="J76" s="105" t="s">
+        <v>50</v>
+      </c>
+      <c r="K76" s="104"/>
+      <c r="L76" s="94"/>
+      <c r="M76" s="94"/>
+      <c r="N76" s="95">
+        <f>SUM(N70:N75)</f>
+        <v>12.5</v>
+      </c>
+      <c r="O76" s="95">
+        <f>SUM(O70:O75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A77" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="75">
+      <c r="B77" s="74">
+        <v>42387</v>
+      </c>
+      <c r="C77" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="D77" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E77" s="47"/>
+      <c r="F77" s="37">
+        <v>1</v>
+      </c>
+      <c r="G77" s="37"/>
+      <c r="H77" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I77" s="48"/>
+      <c r="J77" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K77" s="23"/>
+      <c r="L77" s="46"/>
+      <c r="M77" s="46"/>
+      <c r="N77" s="28">
+        <f t="shared" ref="N77:O79" si="43">D77+F77+H77+J77+L77</f>
+        <v>2.5</v>
+      </c>
+      <c r="O77" s="29">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A78" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="75">
+        <v>42388</v>
+      </c>
+      <c r="C78" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="D78" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E78" s="47"/>
+      <c r="F78" s="37">
+        <v>1</v>
+      </c>
+      <c r="G78" s="37"/>
+      <c r="H78" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I78" s="48"/>
+      <c r="J78" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K78" s="30"/>
+      <c r="L78" s="49"/>
+      <c r="M78" s="49"/>
+      <c r="N78" s="36">
+        <f t="shared" si="43"/>
+        <v>2.5</v>
+      </c>
+      <c r="O78" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A79" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" s="75">
+        <v>42389</v>
+      </c>
+      <c r="C79" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="D79" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E79" s="47"/>
+      <c r="F79" s="37">
+        <v>1</v>
+      </c>
+      <c r="G79" s="37"/>
+      <c r="H79" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I79" s="48"/>
+      <c r="J79" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K79" s="30"/>
+      <c r="L79" s="49"/>
+      <c r="M79" s="49"/>
+      <c r="N79" s="36">
+        <f t="shared" si="43"/>
+        <v>2.5</v>
+      </c>
+      <c r="O79" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="75">
         <v>42390</v>
       </c>
-      <c r="C75" s="100" t="s">
+      <c r="C80" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="D75" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E75" s="47"/>
-      <c r="F75" s="37">
-        <v>1</v>
-      </c>
-      <c r="G75" s="37"/>
-      <c r="H75" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I75" s="48"/>
-      <c r="J75" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K75" s="30"/>
-      <c r="L75" s="49"/>
-      <c r="M75" s="49"/>
-      <c r="N75" s="36">
-        <f t="shared" ref="N75:N78" si="40">D75+F75+H75+J75+L75</f>
+      <c r="D80" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E80" s="47"/>
+      <c r="F80" s="37">
+        <v>1</v>
+      </c>
+      <c r="G80" s="37"/>
+      <c r="H80" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I80" s="48"/>
+      <c r="J80" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K80" s="30"/>
+      <c r="L80" s="49"/>
+      <c r="M80" s="49"/>
+      <c r="N80" s="36">
+        <f t="shared" ref="N80:N83" si="44">D80+F80+H80+J80+L80</f>
         <v>2.5</v>
       </c>
-      <c r="O75" s="37">
-        <f t="shared" ref="O75:O78" si="41">E75+G75+I75+K75+M75</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A76" s="30" t="s">
+      <c r="O80" s="37">
+        <f t="shared" ref="O80:O83" si="45">E80+G80+I80+K80+M80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A81" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="75">
+      <c r="B81" s="75">
         <v>42391</v>
       </c>
-      <c r="C76" s="55" t="s">
+      <c r="C81" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="D76" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E76" s="47"/>
-      <c r="F76" s="37">
-        <v>1</v>
-      </c>
-      <c r="G76" s="37"/>
-      <c r="H76" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I76" s="48"/>
-      <c r="J76" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K76" s="30"/>
-      <c r="L76" s="49"/>
-      <c r="M76" s="49"/>
-      <c r="N76" s="36">
-        <f t="shared" si="40"/>
+      <c r="D81" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E81" s="47"/>
+      <c r="F81" s="37">
+        <v>1</v>
+      </c>
+      <c r="G81" s="37"/>
+      <c r="H81" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I81" s="48"/>
+      <c r="J81" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K81" s="30"/>
+      <c r="L81" s="49"/>
+      <c r="M81" s="49"/>
+      <c r="N81" s="36">
+        <f t="shared" si="44"/>
         <v>2.5</v>
       </c>
-      <c r="O76" s="37">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A77" s="30" t="s">
+      <c r="O81" s="37">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B77" s="82"/>
-      <c r="C77" s="88"/>
-      <c r="D77" s="84"/>
-      <c r="E77" s="84"/>
-      <c r="F77" s="81"/>
-      <c r="G77" s="81"/>
-      <c r="H77" s="85"/>
-      <c r="I77" s="85"/>
-      <c r="J77" s="81"/>
-      <c r="K77" s="81"/>
-      <c r="L77" s="86"/>
-      <c r="M77" s="86"/>
-      <c r="N77" s="101">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="O77" s="87">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A78" s="38"/>
-      <c r="B78" s="76">
+      <c r="B82" s="82"/>
+      <c r="C82" s="88"/>
+      <c r="D82" s="84"/>
+      <c r="E82" s="84"/>
+      <c r="F82" s="81"/>
+      <c r="G82" s="81"/>
+      <c r="H82" s="85"/>
+      <c r="I82" s="85"/>
+      <c r="J82" s="81"/>
+      <c r="K82" s="81"/>
+      <c r="L82" s="86"/>
+      <c r="M82" s="86"/>
+      <c r="N82" s="101">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O82" s="87">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" s="38"/>
+      <c r="B83" s="76">
         <v>42393</v>
       </c>
-      <c r="C78" s="69" t="s">
+      <c r="C83" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="D78" s="53"/>
-      <c r="E78" s="53"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="54"/>
-      <c r="J78" s="38"/>
-      <c r="K78" s="38"/>
-      <c r="L78" s="50"/>
-      <c r="M78" s="50"/>
-      <c r="N78" s="44">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="O78" s="45">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A79" s="3"/>
-      <c r="B79" s="78"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="104" t="s">
+      <c r="D83" s="53"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="54"/>
+      <c r="I83" s="54"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="38"/>
+      <c r="L83" s="50"/>
+      <c r="M83" s="50"/>
+      <c r="N83" s="44">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O83" s="45">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" s="3"/>
+      <c r="B84" s="78"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="105" t="s">
         <v>51</v>
       </c>
-      <c r="K79" s="105"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="8">
-        <f>SUM(N72:N78)</f>
+      <c r="K84" s="104"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="8">
+        <f>SUM(N77:N83)</f>
         <v>12.5</v>
       </c>
-      <c r="O79" s="4">
-        <f>SUM(O72:O78)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
-      <c r="B80" s="79"/>
-      <c r="C80" s="10" t="s">
+      <c r="O84" s="4">
+        <f>SUM(O77:O83)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" s="9"/>
+      <c r="B85" s="79"/>
+      <c r="C85" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D80" s="11">
-        <f t="shared" ref="D80:M80" si="42">SUM(D4:D79)</f>
-        <v>41.75</v>
-      </c>
-      <c r="E80" s="11">
-        <f t="shared" si="42"/>
-        <v>34.75</v>
-      </c>
-      <c r="F80" s="11">
-        <f t="shared" si="42"/>
-        <v>47</v>
-      </c>
-      <c r="G80" s="11">
-        <f t="shared" si="42"/>
-        <v>33.5</v>
-      </c>
-      <c r="H80" s="11">
-        <f t="shared" si="42"/>
-        <v>38.5</v>
-      </c>
-      <c r="I80" s="11">
-        <f t="shared" si="42"/>
-        <v>30</v>
-      </c>
-      <c r="J80" s="11">
-        <f t="shared" si="42"/>
-        <v>41.5</v>
-      </c>
-      <c r="K80" s="11">
-        <f t="shared" si="42"/>
-        <v>35.5</v>
-      </c>
-      <c r="L80" s="11">
-        <f t="shared" si="42"/>
-        <v>0.5</v>
-      </c>
-      <c r="M80" s="11">
-        <f t="shared" si="42"/>
-        <v>0.5</v>
-      </c>
-      <c r="N80" s="9">
-        <f>D80+F80+H80+J80+L80</f>
-        <v>169.25</v>
-      </c>
-      <c r="O80" s="11">
-        <f>E80+G80+I80+K80+M80</f>
-        <v>134.25</v>
+      <c r="D85" s="11">
+        <f t="shared" ref="D85:M85" si="46">SUM(D4:D84)</f>
+        <v>46.5</v>
+      </c>
+      <c r="E85" s="11">
+        <f t="shared" si="46"/>
+        <v>40</v>
+      </c>
+      <c r="F85" s="11">
+        <f t="shared" si="46"/>
+        <v>51.25</v>
+      </c>
+      <c r="G85" s="11">
+        <f t="shared" si="46"/>
+        <v>36.5</v>
+      </c>
+      <c r="H85" s="11">
+        <f t="shared" si="46"/>
+        <v>43.25</v>
+      </c>
+      <c r="I85" s="11">
+        <f t="shared" si="46"/>
+        <v>32</v>
+      </c>
+      <c r="J85" s="11">
+        <f t="shared" si="46"/>
+        <v>46.25</v>
+      </c>
+      <c r="K85" s="11">
+        <f t="shared" si="46"/>
+        <v>39</v>
+      </c>
+      <c r="L85" s="11">
+        <f t="shared" si="46"/>
+        <v>0.5</v>
+      </c>
+      <c r="M85" s="11">
+        <f t="shared" si="46"/>
+        <v>0.5</v>
+      </c>
+      <c r="N85" s="9">
+        <f>D85+F85+H85+J85+L85</f>
+        <v>187.75</v>
+      </c>
+      <c r="O85" s="11">
+        <f>E85+G85+I85+K85+M85</f>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="A69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="A76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="J48:K48"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="E2:F2"/>
@@ -3918,22 +4144,6 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="A64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="A71:I71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="J47:K47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -3959,29 +4169,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -4142,15 +4329,56 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -4166,28 +4394,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
+++ b/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
@@ -741,10 +741,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -760,9 +763,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1072,8 +1072,8 @@
   <dimension ref="A1:O85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B58" sqref="B58"/>
+      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1101,18 +1101,18 @@
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="106" t="s">
+      <c r="E2" s="107" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="106"/>
+      <c r="F2" s="107"/>
       <c r="H2" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="111">
+      <c r="I2" s="106">
         <f ca="1">TODAY()</f>
-        <v>42342</v>
-      </c>
-      <c r="J2" s="111"/>
+        <v>42346</v>
+      </c>
+      <c r="J2" s="106"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -1164,43 +1164,43 @@
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="73"/>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="104" t="s">
+      <c r="E4" s="110"/>
+      <c r="F4" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="104"/>
-      <c r="H4" s="110" t="s">
+      <c r="G4" s="105"/>
+      <c r="H4" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="110"/>
-      <c r="J4" s="104" t="s">
+      <c r="I4" s="111"/>
+      <c r="J4" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="104"/>
-      <c r="L4" s="107" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="108"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="109"/>
       <c r="N4" s="22"/>
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
+      <c r="B5" s="104"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="104"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="104"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
       <c r="L5" s="94"/>
       <c r="M5" s="94"/>
       <c r="N5" s="95"/>
@@ -1424,21 +1424,21 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="105" t="s">
+      <c r="A11" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="104" t="s">
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="104"/>
+      <c r="K11" s="105"/>
       <c r="L11" s="94"/>
       <c r="M11" s="94"/>
       <c r="N11" s="95">
@@ -1877,21 +1877,21 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="105" t="s">
+      <c r="A22" s="104" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="104" t="s">
+      <c r="B22" s="104"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="105" t="s">
         <v>45</v>
       </c>
-      <c r="K22" s="104"/>
+      <c r="K22" s="105"/>
       <c r="L22" s="94"/>
       <c r="M22" s="94"/>
       <c r="N22" s="95">
@@ -2411,21 +2411,21 @@
       </c>
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="105" t="s">
+      <c r="A36" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="105"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="104" t="s">
+      <c r="B36" s="104"/>
+      <c r="C36" s="104"/>
+      <c r="D36" s="104"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="105" t="s">
         <v>46</v>
       </c>
-      <c r="K36" s="104"/>
+      <c r="K36" s="105"/>
       <c r="L36" s="94"/>
       <c r="M36" s="94"/>
       <c r="N36" s="95">
@@ -2877,21 +2877,21 @@
       </c>
     </row>
     <row r="48" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="105" t="s">
+      <c r="A48" s="104" t="s">
         <v>41</v>
       </c>
-      <c r="B48" s="105"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="105"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="105"/>
-      <c r="J48" s="104" t="s">
+      <c r="B48" s="104"/>
+      <c r="C48" s="104"/>
+      <c r="D48" s="104"/>
+      <c r="E48" s="104"/>
+      <c r="F48" s="104"/>
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="104"/>
+      <c r="J48" s="105" t="s">
         <v>47</v>
       </c>
-      <c r="K48" s="104"/>
+      <c r="K48" s="105"/>
       <c r="L48" s="94"/>
       <c r="M48" s="94"/>
       <c r="N48" s="95">
@@ -2990,19 +2990,27 @@
       <c r="D51" s="47">
         <v>2</v>
       </c>
-      <c r="E51" s="47"/>
+      <c r="E51" s="47">
+        <v>2</v>
+      </c>
       <c r="F51" s="37">
         <v>2</v>
       </c>
-      <c r="G51" s="37"/>
+      <c r="G51" s="37">
+        <v>2</v>
+      </c>
       <c r="H51" s="48">
         <v>2</v>
       </c>
-      <c r="I51" s="48"/>
+      <c r="I51" s="48">
+        <v>2</v>
+      </c>
       <c r="J51" s="37">
         <v>2</v>
       </c>
-      <c r="K51" s="37"/>
+      <c r="K51" s="37">
+        <v>2</v>
+      </c>
       <c r="L51" s="49"/>
       <c r="M51" s="49"/>
       <c r="N51" s="36">
@@ -3011,7 +3019,7 @@
       </c>
       <c r="O51" s="37">
         <f t="shared" ref="O51:O57" si="37">E51+G51+I51+K51+M51</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3227,7 +3235,7 @@
       <c r="L58" s="86"/>
       <c r="M58" s="86"/>
       <c r="N58" s="36">
-        <f t="shared" ref="N56:O59" si="38">D58+F58+H58+J58+L58</f>
+        <f t="shared" ref="N58:O59" si="38">D58+F58+H58+J58+L58</f>
         <v>0</v>
       </c>
       <c r="O58" s="37">
@@ -3273,21 +3281,21 @@
       </c>
     </row>
     <row r="60" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="105" t="s">
+      <c r="A60" s="104" t="s">
         <v>42</v>
       </c>
-      <c r="B60" s="105"/>
-      <c r="C60" s="105"/>
-      <c r="D60" s="105"/>
-      <c r="E60" s="105"/>
-      <c r="F60" s="105"/>
-      <c r="G60" s="105"/>
-      <c r="H60" s="105"/>
-      <c r="I60" s="105"/>
-      <c r="J60" s="104" t="s">
+      <c r="B60" s="104"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
+      <c r="I60" s="104"/>
+      <c r="J60" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="K60" s="104"/>
+      <c r="K60" s="105"/>
       <c r="L60" s="94"/>
       <c r="M60" s="94"/>
       <c r="N60" s="95">
@@ -3296,7 +3304,7 @@
       </c>
       <c r="O60" s="95">
         <f>SUM(O49:O59)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3538,21 +3546,21 @@
       </c>
     </row>
     <row r="69" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="105" t="s">
+      <c r="A69" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="B69" s="105"/>
-      <c r="C69" s="105"/>
-      <c r="D69" s="105"/>
-      <c r="E69" s="105"/>
-      <c r="F69" s="105"/>
-      <c r="G69" s="105"/>
-      <c r="H69" s="105"/>
-      <c r="I69" s="105"/>
-      <c r="J69" s="105" t="s">
+      <c r="B69" s="104"/>
+      <c r="C69" s="104"/>
+      <c r="D69" s="104"/>
+      <c r="E69" s="104"/>
+      <c r="F69" s="104"/>
+      <c r="G69" s="104"/>
+      <c r="H69" s="104"/>
+      <c r="I69" s="104"/>
+      <c r="J69" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="K69" s="104"/>
+      <c r="K69" s="105"/>
       <c r="L69" s="94"/>
       <c r="M69" s="94"/>
       <c r="N69" s="95">
@@ -3775,21 +3783,21 @@
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A76" s="105" t="s">
+      <c r="A76" s="104" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="105"/>
-      <c r="C76" s="105"/>
-      <c r="D76" s="105"/>
-      <c r="E76" s="105"/>
-      <c r="F76" s="105"/>
-      <c r="G76" s="105"/>
-      <c r="H76" s="105"/>
-      <c r="I76" s="105"/>
-      <c r="J76" s="105" t="s">
+      <c r="B76" s="104"/>
+      <c r="C76" s="104"/>
+      <c r="D76" s="104"/>
+      <c r="E76" s="104"/>
+      <c r="F76" s="104"/>
+      <c r="G76" s="104"/>
+      <c r="H76" s="104"/>
+      <c r="I76" s="104"/>
+      <c r="J76" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="K76" s="104"/>
+      <c r="K76" s="105"/>
       <c r="L76" s="94"/>
       <c r="M76" s="94"/>
       <c r="N76" s="95">
@@ -4048,10 +4056,10 @@
       <c r="G84" s="3"/>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
-      <c r="J84" s="105" t="s">
+      <c r="J84" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="K84" s="104"/>
+      <c r="K84" s="105"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="8">
@@ -4075,7 +4083,7 @@
       </c>
       <c r="E85" s="11">
         <f t="shared" si="46"/>
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F85" s="11">
         <f t="shared" si="46"/>
@@ -4083,7 +4091,7 @@
       </c>
       <c r="G85" s="11">
         <f t="shared" si="46"/>
-        <v>36.5</v>
+        <v>38.5</v>
       </c>
       <c r="H85" s="11">
         <f t="shared" si="46"/>
@@ -4091,7 +4099,7 @@
       </c>
       <c r="I85" s="11">
         <f t="shared" si="46"/>
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J85" s="11">
         <f t="shared" si="46"/>
@@ -4099,7 +4107,7 @@
       </c>
       <c r="K85" s="11">
         <f t="shared" si="46"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="L85" s="11">
         <f t="shared" si="46"/>
@@ -4115,11 +4123,19 @@
       </c>
       <c r="O85" s="11">
         <f>E85+G85+I85+K85+M85</f>
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="J84:K84"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A5:I5"/>
@@ -4136,14 +4152,6 @@
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="A48:I48"/>
     <mergeCell ref="J48:K48"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4169,6 +4177,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -4329,30 +4360,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4368,36 +4408,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
+++ b/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Themaopdracht6\Planning (PvA) en urenverantwoording\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
   </bookViews>
@@ -15,12 +10,12 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -129,9 +124,6 @@
     <t>requirements architectuur laten reviewen!</t>
   </si>
   <si>
-    <t>Solution Architectuur laten reviewen</t>
-  </si>
-  <si>
     <t>maandag 16 november 2015</t>
   </si>
   <si>
@@ -238,6 +230,39 @@
   </si>
   <si>
     <t>RA verder afmaken</t>
+  </si>
+  <si>
+    <t>vrijdag 18 december 2015</t>
+  </si>
+  <si>
+    <t>woensdag 16 december 2015</t>
+  </si>
+  <si>
+    <t>inleveren voorlopige solution architectuur</t>
+  </si>
+  <si>
+    <t>donderdag 17 december 2015</t>
+  </si>
+  <si>
+    <t>woensdag 9 decemberg 2015</t>
+  </si>
+  <si>
+    <t>feedback RA use case diagram verwerken</t>
+  </si>
+  <si>
+    <t>feedback RA activity diagram verwerken</t>
+  </si>
+  <si>
+    <t>feedback RA constraints model verwerken</t>
+  </si>
+  <si>
+    <t>maandag 14 december 2015</t>
+  </si>
+  <si>
+    <t>RA verder conceptversie afgemaakt</t>
+  </si>
+  <si>
+    <t>Klassendiagram opzet brainstormen</t>
   </si>
 </sst>
 </file>
@@ -478,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -741,33 +766,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -783,9 +811,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -823,9 +851,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -860,7 +888,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -895,7 +923,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1069,11 +1097,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1101,18 +1129,18 @@
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="107" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="107"/>
+      <c r="E2" s="106" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="106"/>
       <c r="H2" s="96" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="106">
+        <v>51</v>
+      </c>
+      <c r="I2" s="111">
         <f ca="1">TODAY()</f>
-        <v>42346</v>
-      </c>
-      <c r="J2" s="106"/>
+        <v>42347</v>
+      </c>
+      <c r="J2" s="111"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
@@ -1164,43 +1192,43 @@
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
       <c r="B4" s="73"/>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="109" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="110"/>
-      <c r="F4" s="105" t="s">
+      <c r="E4" s="109"/>
+      <c r="F4" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="105"/>
-      <c r="H4" s="111" t="s">
+      <c r="G4" s="104"/>
+      <c r="H4" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="111"/>
-      <c r="J4" s="105" t="s">
+      <c r="I4" s="110"/>
+      <c r="J4" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="105"/>
-      <c r="L4" s="108" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="109"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="107" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="108"/>
       <c r="N4" s="22"/>
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="104"/>
-      <c r="F5" s="104"/>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="105"/>
-      <c r="K5" s="105"/>
+      <c r="A5" s="105" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
       <c r="L5" s="94"/>
       <c r="M5" s="94"/>
       <c r="N5" s="95"/>
@@ -1424,21 +1452,21 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="104" t="s">
+      <c r="A11" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="105"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="104" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="104"/>
       <c r="L11" s="94"/>
       <c r="M11" s="94"/>
       <c r="N11" s="95">
@@ -1503,7 +1531,7 @@
         <v>42324</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="66">
         <v>0.5</v>
@@ -1594,10 +1622,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="93" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="32">
         <v>0.25</v>
@@ -1630,7 +1658,7 @@
         <v>42326</v>
       </c>
       <c r="C16" s="93" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="32">
         <v>0.5</v>
@@ -1675,7 +1703,7 @@
         <v>42326</v>
       </c>
       <c r="C17" s="102" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17" s="32">
         <v>0.5</v>
@@ -1720,7 +1748,7 @@
         <v>42326</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="32">
         <v>2</v>
@@ -1765,7 +1793,7 @@
         <v>42327</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="32">
         <v>1.5</v>
@@ -1806,7 +1834,7 @@
         <v>42330</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
@@ -1877,21 +1905,21 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="104" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="104"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="105" t="s">
-        <v>45</v>
-      </c>
-      <c r="K22" s="105"/>
+      <c r="A22" s="105" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="104" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22" s="104"/>
       <c r="L22" s="94"/>
       <c r="M22" s="94"/>
       <c r="N22" s="95">
@@ -1956,7 +1984,7 @@
         <v>42331</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" s="47">
         <v>0.5</v>
@@ -2001,7 +2029,7 @@
         <v>42331</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="47">
         <v>1</v>
@@ -2046,7 +2074,7 @@
         <v>42333</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" s="47">
         <v>0.5</v>
@@ -2091,7 +2119,7 @@
         <v>42333</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="47"/>
       <c r="E27" s="47"/>
@@ -2190,7 +2218,7 @@
         <v>42333</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30" s="47">
         <v>2</v>
@@ -2280,7 +2308,7 @@
         <v>42333</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D32" s="47">
         <v>1</v>
@@ -2411,21 +2439,21 @@
       </c>
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="104" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="104"/>
-      <c r="C36" s="104"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="104"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="104"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="105" t="s">
-        <v>46</v>
-      </c>
-      <c r="K36" s="105"/>
+      <c r="A36" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="105"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="104" t="s">
+        <v>45</v>
+      </c>
+      <c r="K36" s="104"/>
       <c r="L36" s="94"/>
       <c r="M36" s="94"/>
       <c r="N36" s="95">
@@ -2527,7 +2555,7 @@
         <v>42338</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D39" s="47">
         <v>2</v>
@@ -2564,7 +2592,7 @@
         <v>42340</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D40" s="47">
         <v>1</v>
@@ -2609,7 +2637,7 @@
         <v>42340</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D41" s="47">
         <v>0.5</v>
@@ -2654,7 +2682,7 @@
         <v>42340</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D42" s="47">
         <v>1</v>
@@ -2699,7 +2727,7 @@
         <v>42341</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D43" s="47">
         <v>1.5</v>
@@ -2744,7 +2772,7 @@
         <v>42342</v>
       </c>
       <c r="C44" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D44" s="47">
         <v>1</v>
@@ -2852,19 +2880,27 @@
       <c r="D47" s="40">
         <v>0.25</v>
       </c>
-      <c r="E47" s="40"/>
+      <c r="E47" s="40">
+        <v>0.3</v>
+      </c>
       <c r="F47" s="62">
         <v>0.25</v>
       </c>
-      <c r="G47" s="62"/>
+      <c r="G47" s="62">
+        <v>0.3</v>
+      </c>
       <c r="H47" s="42">
         <v>0.25</v>
       </c>
-      <c r="I47" s="42"/>
+      <c r="I47" s="42">
+        <v>0.3</v>
+      </c>
       <c r="J47" s="41">
         <v>0.25</v>
       </c>
-      <c r="K47" s="41"/>
+      <c r="K47" s="41">
+        <v>0.3</v>
+      </c>
       <c r="L47" s="50"/>
       <c r="M47" s="50"/>
       <c r="N47" s="44">
@@ -2873,25 +2909,25 @@
       </c>
       <c r="O47" s="45">
         <f>E47+G47+I47+K47+M47</f>
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="104" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="104"/>
-      <c r="C48" s="104"/>
-      <c r="D48" s="104"/>
-      <c r="E48" s="104"/>
-      <c r="F48" s="104"/>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
-      <c r="I48" s="104"/>
-      <c r="J48" s="105" t="s">
-        <v>47</v>
-      </c>
-      <c r="K48" s="105"/>
+      <c r="A48" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="105"/>
+      <c r="C48" s="105"/>
+      <c r="D48" s="105"/>
+      <c r="E48" s="105"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="105"/>
+      <c r="I48" s="105"/>
+      <c r="J48" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="K48" s="104"/>
       <c r="L48" s="94"/>
       <c r="M48" s="94"/>
       <c r="N48" s="95">
@@ -2900,7 +2936,7 @@
       </c>
       <c r="O48" s="95">
         <f>SUM(O37:O47)</f>
-        <v>39.75</v>
+        <v>40.950000000000003</v>
       </c>
     </row>
     <row r="49" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2911,7 +2947,7 @@
         <v>42345</v>
       </c>
       <c r="C49" s="57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D49" s="47">
         <v>0</v>
@@ -2985,7 +3021,7 @@
         <v>42345</v>
       </c>
       <c r="C51" s="55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D51" s="47">
         <v>2</v>
@@ -3014,11 +3050,11 @@
       <c r="L51" s="49"/>
       <c r="M51" s="49"/>
       <c r="N51" s="36">
-        <f t="shared" ref="N51:N57" si="36">D51+F51+H51+J51+L51</f>
+        <f t="shared" ref="N51:N59" si="36">D51+F51+H51+J51+L51</f>
         <v>8</v>
       </c>
       <c r="O51" s="37">
-        <f t="shared" ref="O51:O57" si="37">E51+G51+I51+K51+M51</f>
+        <f t="shared" ref="O51:O59" si="37">E51+G51+I51+K51+M51</f>
         <v>8</v>
       </c>
     </row>
@@ -3054,22 +3090,32 @@
         <v>5</v>
       </c>
       <c r="B53" s="75">
-        <v>42345</v>
-      </c>
-      <c r="C53" s="55"/>
-      <c r="D53" s="47"/>
+        <v>42346</v>
+      </c>
+      <c r="C53" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="D53" s="47">
+        <v>3</v>
+      </c>
       <c r="E53" s="47"/>
-      <c r="F53" s="37"/>
+      <c r="F53" s="37">
+        <v>3</v>
+      </c>
       <c r="G53" s="37"/>
-      <c r="H53" s="48"/>
+      <c r="H53" s="48">
+        <v>3</v>
+      </c>
       <c r="I53" s="48"/>
-      <c r="J53" s="37"/>
+      <c r="J53" s="37">
+        <v>3</v>
+      </c>
       <c r="K53" s="37"/>
       <c r="L53" s="49"/>
       <c r="M53" s="49"/>
       <c r="N53" s="36">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O53" s="37">
         <f t="shared" si="37"/>
@@ -3089,19 +3135,27 @@
       <c r="D54" s="47">
         <v>1</v>
       </c>
-      <c r="E54" s="47"/>
+      <c r="E54" s="47">
+        <v>1</v>
+      </c>
       <c r="F54" s="37">
         <v>1</v>
       </c>
-      <c r="G54" s="37"/>
+      <c r="G54" s="37">
+        <v>1</v>
+      </c>
       <c r="H54" s="48">
         <v>1</v>
       </c>
-      <c r="I54" s="48"/>
+      <c r="I54" s="48">
+        <v>1</v>
+      </c>
       <c r="J54" s="37">
         <v>1</v>
       </c>
-      <c r="K54" s="37"/>
+      <c r="K54" s="37">
+        <v>1</v>
+      </c>
       <c r="L54" s="49"/>
       <c r="M54" s="49"/>
       <c r="N54" s="36">
@@ -3110,82 +3164,54 @@
       </c>
       <c r="O54" s="37">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="30">
-        <v>5</v>
-      </c>
-      <c r="B55" s="75">
-        <v>42347</v>
+      <c r="A55" s="30"/>
+      <c r="B55" s="75" t="s">
+        <v>75</v>
       </c>
       <c r="C55" s="55" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D55" s="47">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="E55" s="47"/>
-      <c r="F55" s="37">
-        <v>0.25</v>
-      </c>
+      <c r="F55" s="37"/>
       <c r="G55" s="37"/>
-      <c r="H55" s="48">
-        <v>0.25</v>
-      </c>
+      <c r="H55" s="48"/>
       <c r="I55" s="48"/>
-      <c r="J55" s="37">
-        <v>0.25</v>
-      </c>
+      <c r="J55" s="37"/>
       <c r="K55" s="37"/>
       <c r="L55" s="49"/>
       <c r="M55" s="49"/>
-      <c r="N55" s="36">
-        <f t="shared" si="36"/>
-        <v>1</v>
-      </c>
-      <c r="O55" s="37">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
+      <c r="N55" s="36"/>
+      <c r="O55" s="37"/>
     </row>
     <row r="56" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="30">
-        <v>5</v>
-      </c>
-      <c r="B56" s="75">
-        <v>42347</v>
+      <c r="A56" s="30"/>
+      <c r="B56" s="75" t="s">
+        <v>75</v>
       </c>
       <c r="C56" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="D56" s="47">
-        <v>0.5</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D56" s="47"/>
       <c r="E56" s="47"/>
-      <c r="F56" s="37">
-        <v>1</v>
-      </c>
+      <c r="F56" s="37"/>
       <c r="G56" s="37"/>
-      <c r="H56" s="48">
-        <v>0.5</v>
-      </c>
+      <c r="H56" s="48"/>
       <c r="I56" s="48"/>
       <c r="J56" s="37">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K56" s="37"/>
       <c r="L56" s="49"/>
       <c r="M56" s="49"/>
-      <c r="N56" s="36">
-        <f t="shared" si="36"/>
-        <v>2.5</v>
-      </c>
-      <c r="O56" s="37">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
+      <c r="N56" s="36"/>
+      <c r="O56" s="37"/>
     </row>
     <row r="57" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="30">
@@ -3195,13 +3221,13 @@
         <v>42347</v>
       </c>
       <c r="C57" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="D57" s="47">
-        <v>0.25</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D57" s="47"/>
       <c r="E57" s="47"/>
-      <c r="F57" s="37"/>
+      <c r="F57" s="37">
+        <v>2</v>
+      </c>
       <c r="G57" s="37"/>
       <c r="H57" s="48"/>
       <c r="I57" s="48"/>
@@ -3211,7 +3237,7 @@
       <c r="M57" s="49"/>
       <c r="N57" s="36">
         <f t="shared" si="36"/>
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="O57" s="37">
         <f t="shared" si="37"/>
@@ -3219,605 +3245,543 @@
       </c>
     </row>
     <row r="58" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="81">
+      <c r="A58" s="30"/>
+      <c r="B58" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C58" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="48">
+        <v>2</v>
+      </c>
+      <c r="I58" s="48"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="37"/>
+      <c r="L58" s="49"/>
+      <c r="M58" s="49"/>
+      <c r="N58" s="36"/>
+      <c r="O58" s="37"/>
+    </row>
+    <row r="59" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="30">
         <v>5</v>
       </c>
-      <c r="B58" s="82"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
-      <c r="F58" s="87"/>
-      <c r="G58" s="87"/>
-      <c r="H58" s="90"/>
-      <c r="I58" s="90"/>
-      <c r="J58" s="87"/>
-      <c r="K58" s="87"/>
-      <c r="L58" s="86"/>
-      <c r="M58" s="86"/>
-      <c r="N58" s="36">
-        <f t="shared" ref="N58:O59" si="38">D58+F58+H58+J58+L58</f>
-        <v>0</v>
-      </c>
-      <c r="O58" s="37">
+      <c r="B59" s="75">
+        <v>42347</v>
+      </c>
+      <c r="C59" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D59" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E59" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="F59" s="37">
+        <v>1</v>
+      </c>
+      <c r="G59" s="37">
+        <v>1</v>
+      </c>
+      <c r="H59" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I59" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="J59" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K59" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="L59" s="49"/>
+      <c r="M59" s="49"/>
+      <c r="N59" s="36">
+        <f t="shared" si="36"/>
+        <v>2.5</v>
+      </c>
+      <c r="O59" s="37">
+        <f t="shared" si="37"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="30"/>
+      <c r="B60" s="75"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="48"/>
+      <c r="I60" s="48"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="49"/>
+      <c r="M60" s="49"/>
+      <c r="N60" s="36"/>
+      <c r="O60" s="37"/>
+    </row>
+    <row r="61" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="81">
+        <v>5</v>
+      </c>
+      <c r="B61" s="82"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="89"/>
+      <c r="E61" s="89"/>
+      <c r="F61" s="87"/>
+      <c r="G61" s="87"/>
+      <c r="H61" s="90"/>
+      <c r="I61" s="90"/>
+      <c r="J61" s="87"/>
+      <c r="K61" s="87"/>
+      <c r="L61" s="86"/>
+      <c r="M61" s="86"/>
+      <c r="N61" s="36">
+        <f t="shared" ref="N61:O62" si="38">D61+F61+H61+J61+L61</f>
+        <v>0</v>
+      </c>
+      <c r="O61" s="37">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="38">
+    <row r="62" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="38">
         <v>5</v>
       </c>
-      <c r="B59" s="76">
+      <c r="B62" s="76">
         <v>42351</v>
       </c>
-      <c r="C59" s="69" t="s">
+      <c r="C62" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E59" s="40"/>
-      <c r="F59" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="G59" s="62"/>
-      <c r="H59" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I59" s="42"/>
-      <c r="J59" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="K59" s="41"/>
-      <c r="L59" s="50"/>
-      <c r="M59" s="50"/>
-      <c r="N59" s="44">
+      <c r="D62" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E62" s="40"/>
+      <c r="F62" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="G62" s="62"/>
+      <c r="H62" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="I62" s="42"/>
+      <c r="J62" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="K62" s="41"/>
+      <c r="L62" s="50"/>
+      <c r="M62" s="50"/>
+      <c r="N62" s="44">
         <f t="shared" si="38"/>
         <v>1</v>
       </c>
-      <c r="O59" s="45">
+      <c r="O62" s="45">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="104" t="s">
-        <v>42</v>
-      </c>
-      <c r="B60" s="104"/>
-      <c r="C60" s="104"/>
-      <c r="D60" s="104"/>
-      <c r="E60" s="104"/>
-      <c r="F60" s="104"/>
-      <c r="G60" s="104"/>
-      <c r="H60" s="104"/>
-      <c r="I60" s="104"/>
-      <c r="J60" s="105" t="s">
-        <v>48</v>
-      </c>
-      <c r="K60" s="105"/>
-      <c r="L60" s="94"/>
-      <c r="M60" s="94"/>
-      <c r="N60" s="95">
-        <f>SUM(N49:N59)</f>
-        <v>24.75</v>
-      </c>
-      <c r="O60" s="95">
-        <f>SUM(O49:O59)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="23">
+    <row r="63" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" s="105"/>
+      <c r="C63" s="105"/>
+      <c r="D63" s="105"/>
+      <c r="E63" s="105"/>
+      <c r="F63" s="105"/>
+      <c r="G63" s="105"/>
+      <c r="H63" s="105"/>
+      <c r="I63" s="105"/>
+      <c r="J63" s="104" t="s">
+        <v>47</v>
+      </c>
+      <c r="K63" s="104"/>
+      <c r="L63" s="94"/>
+      <c r="M63" s="94"/>
+      <c r="N63" s="95">
+        <f>SUM(N49:N62)</f>
+        <v>37.5</v>
+      </c>
+      <c r="O63" s="95">
+        <f>SUM(O49:O62)</f>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="23">
         <v>6</v>
       </c>
-      <c r="B61" s="74">
+      <c r="B64" s="74">
         <v>42352</v>
       </c>
-      <c r="C61" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="D61" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E61" s="47"/>
-      <c r="F61" s="37">
-        <v>1</v>
-      </c>
-      <c r="G61" s="37"/>
-      <c r="H61" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I61" s="48"/>
-      <c r="J61" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K61" s="29"/>
-      <c r="L61" s="46"/>
-      <c r="M61" s="46"/>
-      <c r="N61" s="28">
-        <f t="shared" ref="N61:O68" si="39">D61+F61+H61+J61+L61</f>
+      <c r="C64" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E64" s="47"/>
+      <c r="F64" s="37">
+        <v>1</v>
+      </c>
+      <c r="G64" s="37"/>
+      <c r="H64" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I64" s="48"/>
+      <c r="J64" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K64" s="29"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="28">
+        <f t="shared" ref="N64:O75" si="39">D64+F64+H64+J64+L64</f>
         <v>2.5</v>
       </c>
-      <c r="O61" s="29">
+      <c r="O64" s="29">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="64">
+    <row r="65" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="64"/>
+      <c r="B65" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="112" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" s="47">
+        <v>2</v>
+      </c>
+      <c r="E65" s="47"/>
+      <c r="F65" s="37">
+        <v>2</v>
+      </c>
+      <c r="G65" s="37"/>
+      <c r="H65" s="48">
+        <v>2</v>
+      </c>
+      <c r="I65" s="48"/>
+      <c r="J65" s="37">
+        <v>2</v>
+      </c>
+      <c r="K65" s="97"/>
+      <c r="L65" s="98"/>
+      <c r="M65" s="98"/>
+      <c r="N65" s="99"/>
+      <c r="O65" s="97"/>
+    </row>
+    <row r="66" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="64"/>
+      <c r="B66" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="112"/>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="48"/>
+      <c r="I66" s="48"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="97"/>
+      <c r="L66" s="98"/>
+      <c r="M66" s="98"/>
+      <c r="N66" s="99"/>
+      <c r="O66" s="97"/>
+    </row>
+    <row r="67" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="64"/>
+      <c r="B67" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="112" t="s">
+        <v>73</v>
+      </c>
+      <c r="D67" s="47"/>
+      <c r="E67" s="47"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="97"/>
+      <c r="L67" s="98"/>
+      <c r="M67" s="98"/>
+      <c r="N67" s="99"/>
+      <c r="O67" s="97"/>
+    </row>
+    <row r="68" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="64">
         <v>6</v>
       </c>
-      <c r="B62" s="77">
+      <c r="B68" s="77">
         <v>42354</v>
       </c>
-      <c r="C62" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="D62" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E62" s="47"/>
-      <c r="F62" s="37">
-        <v>1</v>
-      </c>
-      <c r="G62" s="37"/>
-      <c r="H62" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I62" s="48"/>
-      <c r="J62" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K62" s="97"/>
-      <c r="L62" s="98"/>
-      <c r="M62" s="98"/>
-      <c r="N62" s="99">
-        <f t="shared" ref="N62:N63" si="40">D62+F62+H62+J62+L62</f>
+      <c r="C68" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E68" s="47"/>
+      <c r="F68" s="37">
+        <v>1</v>
+      </c>
+      <c r="G68" s="37"/>
+      <c r="H68" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I68" s="48"/>
+      <c r="J68" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K68" s="97"/>
+      <c r="L68" s="98"/>
+      <c r="M68" s="98"/>
+      <c r="N68" s="99">
+        <f t="shared" ref="N68:N70" si="40">D68+F68+H68+J68+L68</f>
         <v>2.5</v>
       </c>
-      <c r="O62" s="97">
-        <f t="shared" ref="O62:O63" si="41">E62+G62+I62+K62+M62</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="30">
+      <c r="O68" s="97">
+        <f t="shared" ref="O68:O70" si="41">E68+G68+I68+K68+M68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="64"/>
+      <c r="B69" s="77" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="55"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="47"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="97"/>
+      <c r="L69" s="98"/>
+      <c r="M69" s="98"/>
+      <c r="N69" s="99"/>
+      <c r="O69" s="97"/>
+    </row>
+    <row r="70" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="30">
         <v>6</v>
       </c>
-      <c r="B63" s="75"/>
-      <c r="C63" s="55" t="s">
+      <c r="B70" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="49"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="36">
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="52"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="49"/>
+      <c r="M70" s="49"/>
+      <c r="N70" s="36">
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="O63" s="37">
+      <c r="O70" s="37">
         <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="30">
+    <row r="71" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="30">
         <v>6</v>
       </c>
-      <c r="B64" s="75"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="51"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="30"/>
-      <c r="K64" s="30"/>
-      <c r="L64" s="49"/>
-      <c r="M64" s="49"/>
-      <c r="N64" s="36">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="O64" s="37">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="30">
-        <v>6</v>
-      </c>
-      <c r="B65" s="75"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="30"/>
-      <c r="K65" s="30"/>
-      <c r="L65" s="49"/>
-      <c r="M65" s="49"/>
-      <c r="N65" s="36">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="O65" s="37">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="30">
-        <v>6</v>
-      </c>
-      <c r="B66" s="75"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="51"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="52"/>
-      <c r="J66" s="30"/>
-      <c r="K66" s="30"/>
-      <c r="L66" s="49"/>
-      <c r="M66" s="49"/>
-      <c r="N66" s="36">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="O66" s="37">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="81">
-        <v>6</v>
-      </c>
-      <c r="B67" s="82"/>
-      <c r="C67" s="83"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="84"/>
-      <c r="F67" s="81"/>
-      <c r="G67" s="81"/>
-      <c r="H67" s="85"/>
-      <c r="I67" s="85"/>
-      <c r="J67" s="81"/>
-      <c r="K67" s="81"/>
-      <c r="L67" s="86"/>
-      <c r="M67" s="86"/>
-      <c r="N67" s="36">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="O67" s="37">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="38">
-        <v>6</v>
-      </c>
-      <c r="B68" s="76">
-        <v>42358</v>
-      </c>
-      <c r="C68" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="D68" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E68" s="40"/>
-      <c r="F68" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="G68" s="62"/>
-      <c r="H68" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I68" s="42"/>
-      <c r="J68" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="K68" s="41"/>
-      <c r="L68" s="50"/>
-      <c r="M68" s="50"/>
-      <c r="N68" s="44">
-        <f t="shared" si="39"/>
-        <v>1</v>
-      </c>
-      <c r="O68" s="45">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="104" t="s">
-        <v>43</v>
-      </c>
-      <c r="B69" s="104"/>
-      <c r="C69" s="104"/>
-      <c r="D69" s="104"/>
-      <c r="E69" s="104"/>
-      <c r="F69" s="104"/>
-      <c r="G69" s="104"/>
-      <c r="H69" s="104"/>
-      <c r="I69" s="104"/>
-      <c r="J69" s="104" t="s">
-        <v>49</v>
-      </c>
-      <c r="K69" s="105"/>
-      <c r="L69" s="94"/>
-      <c r="M69" s="94"/>
-      <c r="N69" s="95">
-        <f>SUM(N61:N68)</f>
-        <v>6</v>
-      </c>
-      <c r="O69" s="95">
-        <f>SUM(O61:O68)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B70" s="74">
-        <v>42380</v>
-      </c>
-      <c r="C70" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="D70" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E70" s="47"/>
-      <c r="F70" s="37">
-        <v>1</v>
-      </c>
-      <c r="G70" s="37"/>
-      <c r="H70" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I70" s="48"/>
-      <c r="J70" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K70" s="23"/>
-      <c r="L70" s="46"/>
-      <c r="M70" s="46"/>
-      <c r="N70" s="28">
-        <f t="shared" ref="N70:O75" si="42">D70+F70+H70+J70+L70</f>
-        <v>2.5</v>
-      </c>
-      <c r="O70" s="29">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B71" s="75">
-        <v>42381</v>
-      </c>
-      <c r="C71" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="D71" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E71" s="47"/>
-      <c r="F71" s="37">
-        <v>1</v>
-      </c>
-      <c r="G71" s="37"/>
-      <c r="H71" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I71" s="48"/>
-      <c r="J71" s="37">
-        <v>0.5</v>
-      </c>
+      <c r="B71" s="75"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="52"/>
+      <c r="J71" s="30"/>
       <c r="K71" s="30"/>
       <c r="L71" s="49"/>
       <c r="M71" s="49"/>
       <c r="N71" s="36">
-        <f t="shared" si="42"/>
-        <v>2.5</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="O71" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B72" s="75">
-        <v>42382</v>
-      </c>
-      <c r="C72" s="100" t="s">
-        <v>61</v>
-      </c>
-      <c r="D72" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E72" s="47"/>
-      <c r="F72" s="37">
-        <v>1</v>
-      </c>
-      <c r="G72" s="37"/>
-      <c r="H72" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I72" s="48"/>
-      <c r="J72" s="37">
-        <v>0.5</v>
-      </c>
+      <c r="A72" s="30">
+        <v>6</v>
+      </c>
+      <c r="B72" s="75"/>
+      <c r="C72" s="31"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="51"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="52"/>
+      <c r="J72" s="30"/>
       <c r="K72" s="30"/>
       <c r="L72" s="49"/>
       <c r="M72" s="49"/>
       <c r="N72" s="36">
-        <f t="shared" si="42"/>
-        <v>2.5</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="O72" s="37">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A73" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B73" s="75">
-        <v>42383</v>
-      </c>
-      <c r="C73" s="100" t="s">
-        <v>61</v>
-      </c>
-      <c r="D73" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E73" s="47"/>
-      <c r="F73" s="37">
-        <v>1</v>
-      </c>
-      <c r="G73" s="37"/>
-      <c r="H73" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I73" s="48"/>
-      <c r="J73" s="37">
-        <v>0.5</v>
-      </c>
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="30">
+        <v>6</v>
+      </c>
+      <c r="B73" s="75"/>
+      <c r="C73" s="31"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="52"/>
+      <c r="I73" s="52"/>
+      <c r="J73" s="30"/>
       <c r="K73" s="30"/>
       <c r="L73" s="49"/>
       <c r="M73" s="49"/>
       <c r="N73" s="36">
-        <f t="shared" si="42"/>
-        <v>2.5</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="O73" s="37">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B74" s="75">
-        <v>42384</v>
-      </c>
-      <c r="C74" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="D74" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E74" s="47"/>
-      <c r="F74" s="37">
-        <v>1</v>
-      </c>
-      <c r="G74" s="37"/>
-      <c r="H74" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I74" s="48"/>
-      <c r="J74" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K74" s="30"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="49"/>
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="81">
+        <v>6</v>
+      </c>
+      <c r="B74" s="82"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="81"/>
+      <c r="G74" s="81"/>
+      <c r="H74" s="85"/>
+      <c r="I74" s="85"/>
+      <c r="J74" s="81"/>
+      <c r="K74" s="81"/>
+      <c r="L74" s="86"/>
+      <c r="M74" s="86"/>
       <c r="N74" s="36">
-        <f t="shared" si="42"/>
-        <v>2.5</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="O74" s="37">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A75" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" s="76"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="53"/>
-      <c r="E75" s="53"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="54"/>
-      <c r="I75" s="54"/>
-      <c r="J75" s="38"/>
-      <c r="K75" s="38"/>
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="38">
+        <v>6</v>
+      </c>
+      <c r="B75" s="76">
+        <v>42358</v>
+      </c>
+      <c r="C75" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E75" s="40"/>
+      <c r="F75" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="G75" s="62"/>
+      <c r="H75" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="I75" s="42"/>
+      <c r="J75" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="K75" s="41"/>
       <c r="L75" s="50"/>
       <c r="M75" s="50"/>
       <c r="N75" s="44">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>1</v>
       </c>
       <c r="O75" s="45">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A76" s="104" t="s">
-        <v>44</v>
-      </c>
-      <c r="B76" s="104"/>
-      <c r="C76" s="104"/>
-      <c r="D76" s="104"/>
-      <c r="E76" s="104"/>
-      <c r="F76" s="104"/>
-      <c r="G76" s="104"/>
-      <c r="H76" s="104"/>
-      <c r="I76" s="104"/>
-      <c r="J76" s="104" t="s">
-        <v>50</v>
-      </c>
-      <c r="K76" s="105"/>
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" s="105"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="105"/>
+      <c r="E76" s="105"/>
+      <c r="F76" s="105"/>
+      <c r="G76" s="105"/>
+      <c r="H76" s="105"/>
+      <c r="I76" s="105"/>
+      <c r="J76" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="K76" s="104"/>
       <c r="L76" s="94"/>
       <c r="M76" s="94"/>
       <c r="N76" s="95">
-        <f>SUM(N70:N75)</f>
-        <v>12.5</v>
+        <f>SUM(N64:N75)</f>
+        <v>6</v>
       </c>
       <c r="O76" s="95">
-        <f>SUM(O70:O75)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+        <f>SUM(O64:O75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B77" s="74">
-        <v>42387</v>
+        <v>42380</v>
       </c>
       <c r="C77" s="92" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D77" s="47">
         <v>0.5</v>
@@ -3838,23 +3802,23 @@
       <c r="L77" s="46"/>
       <c r="M77" s="46"/>
       <c r="N77" s="28">
-        <f t="shared" ref="N77:O79" si="43">D77+F77+H77+J77+L77</f>
+        <f t="shared" ref="N77:O82" si="42">D77+F77+H77+J77+L77</f>
         <v>2.5</v>
       </c>
       <c r="O77" s="29">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B78" s="75">
-        <v>42388</v>
+        <v>42381</v>
       </c>
       <c r="C78" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D78" s="47">
         <v>0.5</v>
@@ -3875,23 +3839,23 @@
       <c r="L78" s="49"/>
       <c r="M78" s="49"/>
       <c r="N78" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>2.5</v>
       </c>
       <c r="O78" s="37">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B79" s="75">
-        <v>42389</v>
+        <v>42382</v>
       </c>
       <c r="C79" s="100" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D79" s="47">
         <v>0.5</v>
@@ -3912,23 +3876,23 @@
       <c r="L79" s="49"/>
       <c r="M79" s="49"/>
       <c r="N79" s="36">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>2.5</v>
       </c>
       <c r="O79" s="37">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B80" s="75">
-        <v>42390</v>
+        <v>42383</v>
       </c>
       <c r="C80" s="100" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D80" s="47">
         <v>0.5</v>
@@ -3949,23 +3913,23 @@
       <c r="L80" s="49"/>
       <c r="M80" s="49"/>
       <c r="N80" s="36">
-        <f t="shared" ref="N80:N83" si="44">D80+F80+H80+J80+L80</f>
+        <f t="shared" si="42"/>
         <v>2.5</v>
       </c>
       <c r="O80" s="37">
-        <f t="shared" ref="O80:O83" si="45">E80+G80+I80+K80+M80</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B81" s="75">
-        <v>42391</v>
+        <v>42384</v>
       </c>
       <c r="C81" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D81" s="47">
         <v>0.5</v>
@@ -3986,148 +3950,401 @@
       <c r="L81" s="49"/>
       <c r="M81" s="49"/>
       <c r="N81" s="36">
+        <f t="shared" si="42"/>
+        <v>2.5</v>
+      </c>
+      <c r="O81" s="37">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A82" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="76"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="53"/>
+      <c r="E82" s="53"/>
+      <c r="F82" s="38"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="38"/>
+      <c r="K82" s="38"/>
+      <c r="L82" s="50"/>
+      <c r="M82" s="50"/>
+      <c r="N82" s="44">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O82" s="45">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" s="105"/>
+      <c r="C83" s="105"/>
+      <c r="D83" s="105"/>
+      <c r="E83" s="105"/>
+      <c r="F83" s="105"/>
+      <c r="G83" s="105"/>
+      <c r="H83" s="105"/>
+      <c r="I83" s="105"/>
+      <c r="J83" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="K83" s="104"/>
+      <c r="L83" s="94"/>
+      <c r="M83" s="94"/>
+      <c r="N83" s="95">
+        <f>SUM(N77:N82)</f>
+        <v>12.5</v>
+      </c>
+      <c r="O83" s="95">
+        <f>SUM(O77:O82)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B84" s="74">
+        <v>42387</v>
+      </c>
+      <c r="C84" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E84" s="47"/>
+      <c r="F84" s="37">
+        <v>1</v>
+      </c>
+      <c r="G84" s="37"/>
+      <c r="H84" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I84" s="48"/>
+      <c r="J84" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K84" s="23"/>
+      <c r="L84" s="46"/>
+      <c r="M84" s="46"/>
+      <c r="N84" s="28">
+        <f t="shared" ref="N84:O86" si="43">D84+F84+H84+J84+L84</f>
+        <v>2.5</v>
+      </c>
+      <c r="O84" s="29">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="75">
+        <v>42388</v>
+      </c>
+      <c r="C85" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E85" s="47"/>
+      <c r="F85" s="37">
+        <v>1</v>
+      </c>
+      <c r="G85" s="37"/>
+      <c r="H85" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I85" s="48"/>
+      <c r="J85" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K85" s="30"/>
+      <c r="L85" s="49"/>
+      <c r="M85" s="49"/>
+      <c r="N85" s="36">
+        <f t="shared" si="43"/>
+        <v>2.5</v>
+      </c>
+      <c r="O85" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" s="75">
+        <v>42389</v>
+      </c>
+      <c r="C86" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="D86" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E86" s="47"/>
+      <c r="F86" s="37">
+        <v>1</v>
+      </c>
+      <c r="G86" s="37"/>
+      <c r="H86" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I86" s="48"/>
+      <c r="J86" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K86" s="30"/>
+      <c r="L86" s="49"/>
+      <c r="M86" s="49"/>
+      <c r="N86" s="36">
+        <f t="shared" si="43"/>
+        <v>2.5</v>
+      </c>
+      <c r="O86" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B87" s="75">
+        <v>42390</v>
+      </c>
+      <c r="C87" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="D87" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E87" s="47"/>
+      <c r="F87" s="37">
+        <v>1</v>
+      </c>
+      <c r="G87" s="37"/>
+      <c r="H87" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I87" s="48"/>
+      <c r="J87" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K87" s="30"/>
+      <c r="L87" s="49"/>
+      <c r="M87" s="49"/>
+      <c r="N87" s="36">
+        <f t="shared" ref="N87:N90" si="44">D87+F87+H87+J87+L87</f>
+        <v>2.5</v>
+      </c>
+      <c r="O87" s="37">
+        <f t="shared" ref="O87:O90" si="45">E87+G87+I87+K87+M87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="75">
+        <v>42391</v>
+      </c>
+      <c r="C88" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D88" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E88" s="47"/>
+      <c r="F88" s="37">
+        <v>1</v>
+      </c>
+      <c r="G88" s="37"/>
+      <c r="H88" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I88" s="48"/>
+      <c r="J88" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K88" s="30"/>
+      <c r="L88" s="49"/>
+      <c r="M88" s="49"/>
+      <c r="N88" s="36">
         <f t="shared" si="44"/>
         <v>2.5</v>
       </c>
-      <c r="O81" s="37">
+      <c r="O88" s="37">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A82" s="30" t="s">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="82"/>
-      <c r="C82" s="88"/>
-      <c r="D82" s="84"/>
-      <c r="E82" s="84"/>
-      <c r="F82" s="81"/>
-      <c r="G82" s="81"/>
-      <c r="H82" s="85"/>
-      <c r="I82" s="85"/>
-      <c r="J82" s="81"/>
-      <c r="K82" s="81"/>
-      <c r="L82" s="86"/>
-      <c r="M82" s="86"/>
-      <c r="N82" s="101">
+      <c r="B89" s="82"/>
+      <c r="C89" s="88"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="84"/>
+      <c r="F89" s="81"/>
+      <c r="G89" s="81"/>
+      <c r="H89" s="85"/>
+      <c r="I89" s="85"/>
+      <c r="J89" s="81"/>
+      <c r="K89" s="81"/>
+      <c r="L89" s="86"/>
+      <c r="M89" s="86"/>
+      <c r="N89" s="101">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="O82" s="87">
+      <c r="O89" s="87">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A83" s="38"/>
-      <c r="B83" s="76">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" s="38"/>
+      <c r="B90" s="76">
         <v>42393</v>
       </c>
-      <c r="C83" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="D83" s="53"/>
-      <c r="E83" s="53"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="38"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="54"/>
-      <c r="J83" s="38"/>
-      <c r="K83" s="38"/>
-      <c r="L83" s="50"/>
-      <c r="M83" s="50"/>
-      <c r="N83" s="44">
+      <c r="C90" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="D90" s="53"/>
+      <c r="E90" s="53"/>
+      <c r="F90" s="38"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="54"/>
+      <c r="I90" s="54"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="38"/>
+      <c r="L90" s="50"/>
+      <c r="M90" s="50"/>
+      <c r="N90" s="44">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="O83" s="45">
+      <c r="O90" s="45">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
-      <c r="B84" s="78"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
-      <c r="J84" s="104" t="s">
-        <v>51</v>
-      </c>
-      <c r="K84" s="105"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="8">
-        <f>SUM(N77:N83)</f>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" s="3"/>
+      <c r="B91" s="78"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="3"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="105" t="s">
+        <v>50</v>
+      </c>
+      <c r="K91" s="104"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="8">
+        <f>SUM(N84:N90)</f>
         <v>12.5</v>
       </c>
-      <c r="O84" s="4">
-        <f>SUM(O77:O83)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A85" s="9"/>
-      <c r="B85" s="79"/>
-      <c r="C85" s="10" t="s">
+      <c r="O91" s="4">
+        <f>SUM(O84:O90)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" s="9"/>
+      <c r="B92" s="79"/>
+      <c r="C92" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D85" s="11">
-        <f t="shared" ref="D85:M85" si="46">SUM(D4:D84)</f>
-        <v>46.5</v>
-      </c>
-      <c r="E85" s="11">
+      <c r="D92" s="11">
+        <f t="shared" ref="D92:M92" si="46">SUM(D4:D91)</f>
+        <v>53</v>
+      </c>
+      <c r="E92" s="11">
         <f t="shared" si="46"/>
-        <v>42</v>
-      </c>
-      <c r="F85" s="11">
+        <v>43.8</v>
+      </c>
+      <c r="F92" s="11">
         <f t="shared" si="46"/>
-        <v>51.25</v>
-      </c>
-      <c r="G85" s="11">
+        <v>58</v>
+      </c>
+      <c r="G92" s="11">
         <f t="shared" si="46"/>
-        <v>38.5</v>
-      </c>
-      <c r="H85" s="11">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="H92" s="11">
         <f t="shared" si="46"/>
-        <v>43.25</v>
-      </c>
-      <c r="I85" s="11">
+        <v>50</v>
+      </c>
+      <c r="I92" s="11">
         <f t="shared" si="46"/>
-        <v>34</v>
-      </c>
-      <c r="J85" s="11">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="J92" s="11">
         <f t="shared" si="46"/>
-        <v>46.25</v>
-      </c>
-      <c r="K85" s="11">
+        <v>53</v>
+      </c>
+      <c r="K92" s="11">
         <f t="shared" si="46"/>
-        <v>41</v>
-      </c>
-      <c r="L85" s="11">
+        <v>42.8</v>
+      </c>
+      <c r="L92" s="11">
         <f t="shared" si="46"/>
         <v>0.5</v>
       </c>
-      <c r="M85" s="11">
+      <c r="M92" s="11">
         <f t="shared" si="46"/>
         <v>0.5</v>
       </c>
-      <c r="N85" s="9">
-        <f>D85+F85+H85+J85+L85</f>
-        <v>187.75</v>
-      </c>
-      <c r="O85" s="11">
-        <f>E85+G85+I85+K85+M85</f>
-        <v>156</v>
+      <c r="N92" s="9">
+        <f>D92+F92+H92+J92+L92</f>
+        <v>214.5</v>
+      </c>
+      <c r="O92" s="11">
+        <f>E92+G92+I92+K92+M92</f>
+        <v>163.69999999999999</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="A76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="A83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="J48:K48"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="E2:F2"/>
@@ -4136,22 +4353,6 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="A69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="A76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="J48:K48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4177,10 +4378,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
@@ -4190,16 +4387,11 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -4360,15 +4552,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -4384,15 +4577,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4408,4 +4601,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
+++ b/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="123">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Gerald mailen over review PVA</t>
   </si>
   <si>
-    <t>Solution architectuur af</t>
-  </si>
-  <si>
     <t>Joost mailen over review RA</t>
   </si>
   <si>
@@ -263,6 +260,132 @@
   </si>
   <si>
     <t>Klassendiagram opzet brainstormen</t>
+  </si>
+  <si>
+    <t>Uitwerken klassendiagram ontwerp SIM</t>
+  </si>
+  <si>
+    <t>Uitwerken klassenbeschrijving klassendiagram</t>
+  </si>
+  <si>
+    <t>Concurrency diagram opstellen</t>
+  </si>
+  <si>
+    <t>!!!!!!</t>
+  </si>
+  <si>
+    <t>Testen wasmachine emulator werking</t>
+  </si>
+  <si>
+    <t>State transition diagram opstellen</t>
+  </si>
+  <si>
+    <t>Plenaire feedback ontvangen RA</t>
+  </si>
+  <si>
+    <t>Verbeterde RA inleveren</t>
+  </si>
+  <si>
+    <t>RA gezamenlijk nakijken</t>
+  </si>
+  <si>
+    <t>Plenaire feedback ontvangen SA</t>
+  </si>
+  <si>
+    <t>Persoonlijke feedback ontvangen SA</t>
+  </si>
+  <si>
+    <t>!!!!!!!</t>
+  </si>
+  <si>
+    <t>Feedback verwerken SA</t>
+  </si>
+  <si>
+    <t>Controle definitieve versie SA</t>
+  </si>
+  <si>
+    <t>Solution architectuur af????????</t>
+  </si>
+  <si>
+    <t>Programma kunnen draaien op RTOS</t>
+  </si>
+  <si>
+    <t>Verloop van wasprogramma bepalen</t>
+  </si>
+  <si>
+    <t>Webinterface html pagina's maken</t>
+  </si>
+  <si>
+    <t>Browser met server communicatie realiseren</t>
+  </si>
+  <si>
+    <t>Alle functionaliteit tussen RTOS en wasmachine onderzoeken</t>
+  </si>
+  <si>
+    <t>Webinterface berichten naar wasmachine sturen</t>
+  </si>
+  <si>
+    <t>2de scherm met informatie over wasprogramma</t>
+  </si>
+  <si>
+    <t>Globale opzet wasprogramma programmeren</t>
+  </si>
+  <si>
+    <t>Simpel wasprogramma kunnen draaien</t>
+  </si>
+  <si>
+    <t>Webserver aan wasmachine koppelen.</t>
+  </si>
+  <si>
+    <t>Timer kunnen instellen</t>
+  </si>
+  <si>
+    <t>Temperatuur en verschillende wassen kunnen kiezen</t>
+  </si>
+  <si>
+    <t>Extra opties pagina aanmaken</t>
+  </si>
+  <si>
+    <t>Gebruikersgeschiedenis loggin bijhouden</t>
+  </si>
+  <si>
+    <t>Bugs fixen</t>
+  </si>
+  <si>
+    <t>Laatste definitieve test uitvoeren</t>
+  </si>
+  <si>
+    <t>Noodstop implementeren</t>
+  </si>
+  <si>
+    <t>Verschillende wassen toevoegen</t>
+  </si>
+  <si>
+    <t>Logs bijhouden</t>
+  </si>
+  <si>
+    <t>Definitieve versie Technisch verslag</t>
+  </si>
+  <si>
+    <t>Technisch Verslag maken</t>
+  </si>
+  <si>
+    <t>Technisch Verslag opzet</t>
+  </si>
+  <si>
+    <t>Technisch verslag maken</t>
+  </si>
+  <si>
+    <t>Technisch verslag Reviewen</t>
+  </si>
+  <si>
+    <t>Technisch verslag feedback verwerken</t>
+  </si>
+  <si>
+    <t>Technisch verslag verbeteren</t>
+  </si>
+  <si>
+    <t>Alle documenten ordenen</t>
   </si>
 </sst>
 </file>
@@ -503,7 +626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -757,15 +880,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -789,9 +912,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1097,17 +1217,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O92"/>
+  <dimension ref="A1:O122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+      <pane ySplit="4" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="80" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.140625" customWidth="1"/>
     <col min="4" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="8.140625" hidden="1" customWidth="1"/>
@@ -1130,15 +1250,15 @@
         <v>6</v>
       </c>
       <c r="E2" s="106" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" s="106"/>
       <c r="H2" s="96" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I2" s="111">
         <f ca="1">TODAY()</f>
-        <v>42347</v>
+        <v>42348</v>
       </c>
       <c r="J2" s="111"/>
     </row>
@@ -1217,7 +1337,7 @@
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="105" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="105"/>
       <c r="C5" s="105"/>
@@ -1464,7 +1584,7 @@
       <c r="H11" s="105"/>
       <c r="I11" s="105"/>
       <c r="J11" s="104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" s="104"/>
       <c r="L11" s="94"/>
@@ -1531,7 +1651,7 @@
         <v>42324</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="66">
         <v>0.5</v>
@@ -1622,10 +1742,10 @@
         <v>2</v>
       </c>
       <c r="B15" s="75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="32">
         <v>0.25</v>
@@ -1658,7 +1778,7 @@
         <v>42326</v>
       </c>
       <c r="C16" s="93" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="32">
         <v>0.5</v>
@@ -1702,8 +1822,8 @@
       <c r="B17" s="75">
         <v>42326</v>
       </c>
-      <c r="C17" s="102" t="s">
-        <v>59</v>
+      <c r="C17" s="101" t="s">
+        <v>58</v>
       </c>
       <c r="D17" s="32">
         <v>0.5</v>
@@ -1748,7 +1868,7 @@
         <v>42326</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="32">
         <v>2</v>
@@ -1793,7 +1913,7 @@
         <v>42327</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="32">
         <v>1.5</v>
@@ -1834,7 +1954,7 @@
         <v>42330</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
@@ -1906,7 +2026,7 @@
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="105" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="105"/>
       <c r="C22" s="105"/>
@@ -1917,7 +2037,7 @@
       <c r="H22" s="105"/>
       <c r="I22" s="105"/>
       <c r="J22" s="104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K22" s="104"/>
       <c r="L22" s="94"/>
@@ -1984,7 +2104,7 @@
         <v>42331</v>
       </c>
       <c r="C24" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24" s="47">
         <v>0.5</v>
@@ -2029,7 +2149,7 @@
         <v>42331</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="47">
         <v>1</v>
@@ -2074,7 +2194,7 @@
         <v>42333</v>
       </c>
       <c r="C26" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="47">
         <v>0.5</v>
@@ -2119,7 +2239,7 @@
         <v>42333</v>
       </c>
       <c r="C27" s="55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="47"/>
       <c r="E27" s="47"/>
@@ -2185,7 +2305,7 @@
         <v>42331</v>
       </c>
       <c r="C29" s="55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="91">
         <v>0.25</v>
@@ -2218,7 +2338,7 @@
         <v>42333</v>
       </c>
       <c r="C30" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="47">
         <v>2</v>
@@ -2308,7 +2428,7 @@
         <v>42333</v>
       </c>
       <c r="C32" s="55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D32" s="47">
         <v>1</v>
@@ -2328,8 +2448,14 @@
       <c r="K32" s="37"/>
       <c r="L32" s="98"/>
       <c r="M32" s="98"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="37"/>
+      <c r="N32" s="36">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="O32" s="37">
+        <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="30">
@@ -2372,7 +2498,7 @@
         <v>42334</v>
       </c>
       <c r="C34" s="55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D34" s="89"/>
       <c r="E34" s="89"/>
@@ -2440,7 +2566,7 @@
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B36" s="105"/>
       <c r="C36" s="105"/>
@@ -2451,18 +2577,18 @@
       <c r="H36" s="105"/>
       <c r="I36" s="105"/>
       <c r="J36" s="104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K36" s="104"/>
       <c r="L36" s="94"/>
       <c r="M36" s="94"/>
       <c r="N36" s="95">
         <f>SUM(N23:N35)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="O36" s="95">
         <f>SUM(O23:O35)</f>
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2536,8 +2662,8 @@
       <c r="K38" s="37">
         <v>3</v>
       </c>
-      <c r="L38" s="103"/>
-      <c r="M38" s="103"/>
+      <c r="L38" s="102"/>
+      <c r="M38" s="102"/>
       <c r="N38" s="36">
         <f t="shared" ref="N38:N46" si="28">D38+F38+H38+J38+L38</f>
         <v>4</v>
@@ -2555,7 +2681,7 @@
         <v>42338</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D39" s="47">
         <v>2</v>
@@ -2573,8 +2699,8 @@
       </c>
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
-      <c r="L39" s="103"/>
-      <c r="M39" s="103"/>
+      <c r="L39" s="102"/>
+      <c r="M39" s="102"/>
       <c r="N39" s="36">
         <f t="shared" ref="N39" si="30">D39+F39+H39+J39+L39</f>
         <v>4</v>
@@ -2592,7 +2718,7 @@
         <v>42340</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D40" s="47">
         <v>1</v>
@@ -2637,7 +2763,7 @@
         <v>42340</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D41" s="47">
         <v>0.5</v>
@@ -2682,7 +2808,7 @@
         <v>42340</v>
       </c>
       <c r="C42" s="55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D42" s="47">
         <v>1</v>
@@ -2727,7 +2853,7 @@
         <v>42341</v>
       </c>
       <c r="C43" s="55" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D43" s="47">
         <v>1.5</v>
@@ -2772,7 +2898,7 @@
         <v>42342</v>
       </c>
       <c r="C44" s="55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D44" s="47">
         <v>1</v>
@@ -2914,7 +3040,7 @@
     </row>
     <row r="48" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="105"/>
       <c r="C48" s="105"/>
@@ -2925,7 +3051,7 @@
       <c r="H48" s="105"/>
       <c r="I48" s="105"/>
       <c r="J48" s="104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K48" s="104"/>
       <c r="L48" s="94"/>
@@ -2941,13 +3067,13 @@
     </row>
     <row r="49" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B49" s="74">
         <v>42345</v>
       </c>
       <c r="C49" s="57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D49" s="47">
         <v>0</v>
@@ -2984,7 +3110,7 @@
         <v>42345</v>
       </c>
       <c r="C50" s="55" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="D50" s="47">
         <v>2</v>
@@ -3021,7 +3147,7 @@
         <v>42345</v>
       </c>
       <c r="C51" s="55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D51" s="47">
         <v>2</v>
@@ -3054,7 +3180,7 @@
         <v>8</v>
       </c>
       <c r="O51" s="37">
-        <f t="shared" ref="O51:O59" si="37">E51+G51+I51+K51+M51</f>
+        <f t="shared" ref="O51:O62" si="37">E51+G51+I51+K51+M51</f>
         <v>8</v>
       </c>
     </row>
@@ -3093,7 +3219,7 @@
         <v>42346</v>
       </c>
       <c r="C53" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D53" s="47">
         <v>3</v>
@@ -3130,7 +3256,7 @@
         <v>42347</v>
       </c>
       <c r="C54" s="55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D54" s="47">
         <v>1</v>
@@ -3170,10 +3296,10 @@
     <row r="55" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="30"/>
       <c r="B55" s="75" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="55" t="s">
         <v>75</v>
-      </c>
-      <c r="C55" s="55" t="s">
-        <v>76</v>
       </c>
       <c r="D55" s="47">
         <v>2</v>
@@ -3188,15 +3314,18 @@
       <c r="L55" s="49"/>
       <c r="M55" s="49"/>
       <c r="N55" s="36"/>
-      <c r="O55" s="37"/>
+      <c r="O55" s="37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="30"/>
       <c r="B56" s="75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C56" s="55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D56" s="47"/>
       <c r="E56" s="47"/>
@@ -3211,7 +3340,10 @@
       <c r="L56" s="49"/>
       <c r="M56" s="49"/>
       <c r="N56" s="36"/>
-      <c r="O56" s="37"/>
+      <c r="O56" s="37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="30">
@@ -3221,7 +3353,7 @@
         <v>42347</v>
       </c>
       <c r="C57" s="55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D57" s="47"/>
       <c r="E57" s="47"/>
@@ -3247,10 +3379,10 @@
     <row r="58" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="30"/>
       <c r="B58" s="75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C58" s="55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D58" s="47"/>
       <c r="E58" s="47"/>
@@ -3265,7 +3397,10 @@
       <c r="L58" s="49"/>
       <c r="M58" s="49"/>
       <c r="N58" s="36"/>
-      <c r="O58" s="37"/>
+      <c r="O58" s="37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="30">
@@ -3275,7 +3410,7 @@
         <v>42347</v>
       </c>
       <c r="C59" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D59" s="47">
         <v>0.5</v>
@@ -3314,202 +3449,246 @@
     </row>
     <row r="60" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="30"/>
-      <c r="B60" s="75"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="47"/>
+      <c r="B60" s="75">
+        <v>42348</v>
+      </c>
+      <c r="C60" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="D60" s="47">
+        <v>2</v>
+      </c>
       <c r="E60" s="47"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="48"/>
+      <c r="F60" s="37">
+        <v>2</v>
+      </c>
+      <c r="G60" s="37">
+        <v>2</v>
+      </c>
+      <c r="H60" s="48">
+        <v>2</v>
+      </c>
       <c r="I60" s="48"/>
-      <c r="J60" s="37"/>
-      <c r="K60" s="37"/>
+      <c r="J60" s="37">
+        <v>2</v>
+      </c>
+      <c r="K60" s="37">
+        <v>2</v>
+      </c>
       <c r="L60" s="49"/>
       <c r="M60" s="49"/>
       <c r="N60" s="36"/>
-      <c r="O60" s="37"/>
+      <c r="O60" s="37">
+        <f t="shared" si="37"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="61" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="81">
-        <v>5</v>
-      </c>
-      <c r="B61" s="82"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="89"/>
+      <c r="A61" s="81"/>
+      <c r="B61" s="82">
+        <v>42349</v>
+      </c>
+      <c r="C61" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="D61" s="89">
+        <v>1</v>
+      </c>
       <c r="E61" s="89"/>
-      <c r="F61" s="87"/>
+      <c r="F61" s="87">
+        <v>1</v>
+      </c>
       <c r="G61" s="87"/>
-      <c r="H61" s="90"/>
+      <c r="H61" s="90">
+        <v>1</v>
+      </c>
       <c r="I61" s="90"/>
-      <c r="J61" s="87"/>
+      <c r="J61" s="87">
+        <v>1</v>
+      </c>
       <c r="K61" s="87"/>
       <c r="L61" s="86"/>
       <c r="M61" s="86"/>
-      <c r="N61" s="36">
-        <f t="shared" ref="N61:O62" si="38">D61+F61+H61+J61+L61</f>
-        <v>0</v>
-      </c>
+      <c r="N61" s="36"/>
       <c r="O61" s="37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="81">
+        <v>5</v>
+      </c>
+      <c r="B62" s="82">
+        <v>42349</v>
+      </c>
+      <c r="C62" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" s="89">
+        <v>0.3</v>
+      </c>
+      <c r="E62" s="89"/>
+      <c r="F62" s="87"/>
+      <c r="G62" s="87"/>
+      <c r="H62" s="90"/>
+      <c r="I62" s="90"/>
+      <c r="J62" s="87"/>
+      <c r="K62" s="87"/>
+      <c r="L62" s="86"/>
+      <c r="M62" s="86"/>
+      <c r="N62" s="36">
+        <f t="shared" ref="N62:O63" si="38">D62+F62+H62+J62+L62</f>
+        <v>0.3</v>
+      </c>
+      <c r="O62" s="37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="38">
+        <v>5</v>
+      </c>
+      <c r="B63" s="76">
+        <v>42351</v>
+      </c>
+      <c r="C63" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="E63" s="40"/>
+      <c r="F63" s="62">
+        <v>0.25</v>
+      </c>
+      <c r="G63" s="62"/>
+      <c r="H63" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="I63" s="42"/>
+      <c r="J63" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="K63" s="41"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="50"/>
+      <c r="N63" s="44">
         <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="38">
-        <v>5</v>
-      </c>
-      <c r="B62" s="76">
-        <v>42351</v>
-      </c>
-      <c r="C62" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E62" s="40"/>
-      <c r="F62" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="G62" s="62"/>
-      <c r="H62" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I62" s="42"/>
-      <c r="J62" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="K62" s="41"/>
-      <c r="L62" s="50"/>
-      <c r="M62" s="50"/>
-      <c r="N62" s="44">
+        <v>1</v>
+      </c>
+      <c r="O63" s="45">
         <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="O62" s="45">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="105" t="s">
-        <v>41</v>
-      </c>
-      <c r="B63" s="105"/>
-      <c r="C63" s="105"/>
-      <c r="D63" s="105"/>
-      <c r="E63" s="105"/>
-      <c r="F63" s="105"/>
-      <c r="G63" s="105"/>
-      <c r="H63" s="105"/>
-      <c r="I63" s="105"/>
-      <c r="J63" s="104" t="s">
-        <v>47</v>
-      </c>
-      <c r="K63" s="104"/>
-      <c r="L63" s="94"/>
-      <c r="M63" s="94"/>
-      <c r="N63" s="95">
-        <f>SUM(N49:N62)</f>
-        <v>37.5</v>
-      </c>
-      <c r="O63" s="95">
-        <f>SUM(O49:O62)</f>
-        <v>14.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="23">
+      <c r="A64" s="105" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" s="105"/>
+      <c r="C64" s="105"/>
+      <c r="D64" s="105"/>
+      <c r="E64" s="105"/>
+      <c r="F64" s="105"/>
+      <c r="G64" s="105"/>
+      <c r="H64" s="105"/>
+      <c r="I64" s="105"/>
+      <c r="J64" s="104" t="s">
+        <v>46</v>
+      </c>
+      <c r="K64" s="104"/>
+      <c r="L64" s="94"/>
+      <c r="M64" s="94"/>
+      <c r="N64" s="95">
+        <f>SUM(N49:N63)</f>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="O64" s="95">
+        <f>SUM(O49:O63)</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="23">
         <v>6</v>
       </c>
-      <c r="B64" s="74">
+      <c r="B65" s="74">
         <v>42352</v>
       </c>
-      <c r="C64" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E64" s="47"/>
-      <c r="F64" s="37">
-        <v>1</v>
-      </c>
-      <c r="G64" s="37"/>
-      <c r="H64" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I64" s="48"/>
-      <c r="J64" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K64" s="29"/>
-      <c r="L64" s="46"/>
-      <c r="M64" s="46"/>
-      <c r="N64" s="28">
-        <f t="shared" ref="N64:O75" si="39">D64+F64+H64+J64+L64</f>
-        <v>2.5</v>
-      </c>
-      <c r="O64" s="29">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="64"/>
-      <c r="B65" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" s="112" t="s">
-        <v>81</v>
+      <c r="C65" s="92" t="s">
+        <v>59</v>
       </c>
       <c r="D65" s="47">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E65" s="47"/>
       <c r="F65" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65" s="37"/>
       <c r="H65" s="48">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I65" s="48"/>
       <c r="J65" s="37">
-        <v>2</v>
-      </c>
-      <c r="K65" s="97"/>
-      <c r="L65" s="98"/>
-      <c r="M65" s="98"/>
-      <c r="N65" s="99"/>
-      <c r="O65" s="97"/>
+        <v>0.5</v>
+      </c>
+      <c r="K65" s="29"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="28">
+        <f t="shared" ref="N65:O77" si="39">D65+F65+H65+J65+L65</f>
+        <v>2.5</v>
+      </c>
+      <c r="O65" s="29">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="64"/>
       <c r="B66" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" s="112"/>
-      <c r="D66" s="47"/>
+        <v>78</v>
+      </c>
+      <c r="C66" s="103" t="s">
+        <v>80</v>
+      </c>
+      <c r="D66" s="47">
+        <v>2</v>
+      </c>
       <c r="E66" s="47"/>
-      <c r="F66" s="37"/>
+      <c r="F66" s="37">
+        <v>2</v>
+      </c>
       <c r="G66" s="37"/>
-      <c r="H66" s="48"/>
+      <c r="H66" s="48">
+        <v>2</v>
+      </c>
       <c r="I66" s="48"/>
-      <c r="J66" s="37"/>
+      <c r="J66" s="37">
+        <v>2</v>
+      </c>
       <c r="K66" s="97"/>
       <c r="L66" s="98"/>
       <c r="M66" s="98"/>
-      <c r="N66" s="99"/>
-      <c r="O66" s="97"/>
+      <c r="N66" s="28">
+        <f t="shared" si="39"/>
+        <v>8</v>
+      </c>
+      <c r="O66" s="37">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="64"/>
       <c r="B67" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" s="112" t="s">
-        <v>73</v>
+        <v>78</v>
+      </c>
+      <c r="C67" s="103" t="s">
+        <v>81</v>
       </c>
       <c r="D67" s="47"/>
       <c r="E67" s="47"/>
@@ -3521,52 +3700,50 @@
       <c r="K67" s="97"/>
       <c r="L67" s="98"/>
       <c r="M67" s="98"/>
-      <c r="N67" s="99"/>
-      <c r="O67" s="97"/>
+      <c r="N67" s="28">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="O67" s="37">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="64">
-        <v>6</v>
-      </c>
-      <c r="B68" s="77">
-        <v>42354</v>
-      </c>
-      <c r="C68" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="D68" s="47">
-        <v>0.5</v>
-      </c>
+      <c r="A68" s="64"/>
+      <c r="B68" s="77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C68" s="103" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" s="47"/>
       <c r="E68" s="47"/>
-      <c r="F68" s="37">
-        <v>1</v>
-      </c>
+      <c r="F68" s="37"/>
       <c r="G68" s="37"/>
-      <c r="H68" s="48">
-        <v>0.5</v>
-      </c>
+      <c r="H68" s="48"/>
       <c r="I68" s="48"/>
-      <c r="J68" s="37">
-        <v>0.5</v>
-      </c>
+      <c r="J68" s="37"/>
       <c r="K68" s="97"/>
       <c r="L68" s="98"/>
       <c r="M68" s="98"/>
-      <c r="N68" s="99">
-        <f t="shared" ref="N68:N70" si="40">D68+F68+H68+J68+L68</f>
-        <v>2.5</v>
-      </c>
-      <c r="O68" s="97">
-        <f t="shared" ref="O68:O70" si="41">E68+G68+I68+K68+M68</f>
+      <c r="N68" s="28">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="O68" s="37">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="64"/>
-      <c r="B69" s="77" t="s">
-        <v>74</v>
-      </c>
-      <c r="C69" s="55"/>
+      <c r="A69" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="77"/>
+      <c r="C69" s="103" t="s">
+        <v>83</v>
+      </c>
       <c r="D69" s="47"/>
       <c r="E69" s="47"/>
       <c r="F69" s="37"/>
@@ -3577,55 +3754,61 @@
       <c r="K69" s="97"/>
       <c r="L69" s="98"/>
       <c r="M69" s="98"/>
-      <c r="N69" s="99"/>
-      <c r="O69" s="97"/>
+      <c r="N69" s="28">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="O69" s="37">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="30">
-        <v>6</v>
-      </c>
-      <c r="B70" s="75" t="s">
+      <c r="A70" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="77"/>
+      <c r="C70" s="103" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="47"/>
+      <c r="E70" s="47"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="48"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="97"/>
+      <c r="L70" s="98"/>
+      <c r="M70" s="98"/>
+      <c r="N70" s="28">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="O70" s="37">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="64"/>
+      <c r="B71" s="77" t="s">
         <v>71</v>
       </c>
-      <c r="C70" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D70" s="51"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="52"/>
-      <c r="I70" s="52"/>
-      <c r="J70" s="30"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="49"/>
-      <c r="M70" s="49"/>
-      <c r="N70" s="36">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="O70" s="37">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="30">
-        <v>6</v>
-      </c>
-      <c r="B71" s="75"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="52"/>
-      <c r="I71" s="52"/>
-      <c r="J71" s="30"/>
-      <c r="K71" s="30"/>
-      <c r="L71" s="49"/>
-      <c r="M71" s="49"/>
-      <c r="N71" s="36">
+      <c r="C71" s="103" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" s="47"/>
+      <c r="E71" s="47"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="48"/>
+      <c r="I71" s="48"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="97"/>
+      <c r="L71" s="98"/>
+      <c r="M71" s="98"/>
+      <c r="N71" s="28">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -3635,24 +3818,36 @@
       </c>
     </row>
     <row r="72" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="30">
+      <c r="A72" s="64">
         <v>6</v>
       </c>
-      <c r="B72" s="75"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="51"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="30"/>
-      <c r="K72" s="30"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="49"/>
-      <c r="N72" s="36">
-        <f t="shared" si="39"/>
-        <v>0</v>
+      <c r="B72" s="77">
+        <v>42354</v>
+      </c>
+      <c r="C72" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D72" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E72" s="47"/>
+      <c r="F72" s="37">
+        <v>1</v>
+      </c>
+      <c r="G72" s="37"/>
+      <c r="H72" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I72" s="48"/>
+      <c r="J72" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K72" s="97"/>
+      <c r="L72" s="98"/>
+      <c r="M72" s="98"/>
+      <c r="N72" s="99">
+        <f t="shared" ref="N72:N78" si="40">D72+F72+H72+J72+L72</f>
+        <v>2.5</v>
       </c>
       <c r="O72" s="37">
         <f t="shared" si="39"/>
@@ -3660,22 +3855,26 @@
       </c>
     </row>
     <row r="73" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="30">
-        <v>6</v>
-      </c>
-      <c r="B73" s="75"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="51"/>
-      <c r="E73" s="51"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="52"/>
-      <c r="I73" s="52"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="30"/>
-      <c r="L73" s="49"/>
-      <c r="M73" s="49"/>
-      <c r="N73" s="36">
+      <c r="A73" s="64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="D73" s="47"/>
+      <c r="E73" s="47"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="97"/>
+      <c r="L73" s="98"/>
+      <c r="M73" s="98"/>
+      <c r="N73" s="28">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -3685,22 +3884,24 @@
       </c>
     </row>
     <row r="74" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="81">
-        <v>6</v>
-      </c>
-      <c r="B74" s="82"/>
-      <c r="C74" s="83"/>
-      <c r="D74" s="84"/>
-      <c r="E74" s="84"/>
-      <c r="F74" s="81"/>
-      <c r="G74" s="81"/>
-      <c r="H74" s="85"/>
-      <c r="I74" s="85"/>
-      <c r="J74" s="81"/>
-      <c r="K74" s="81"/>
-      <c r="L74" s="86"/>
-      <c r="M74" s="86"/>
-      <c r="N74" s="36">
+      <c r="A74" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="77"/>
+      <c r="C74" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="D74" s="47"/>
+      <c r="E74" s="47"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="48"/>
+      <c r="I74" s="48"/>
+      <c r="J74" s="37"/>
+      <c r="K74" s="97"/>
+      <c r="L74" s="98"/>
+      <c r="M74" s="98"/>
+      <c r="N74" s="28">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -3710,81 +3911,85 @@
       </c>
     </row>
     <row r="75" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="38">
-        <v>6</v>
-      </c>
-      <c r="B75" s="76">
-        <v>42358</v>
-      </c>
-      <c r="C75" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="D75" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E75" s="40"/>
-      <c r="F75" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="G75" s="62"/>
-      <c r="H75" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I75" s="42"/>
-      <c r="J75" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="K75" s="41"/>
-      <c r="L75" s="50"/>
-      <c r="M75" s="50"/>
-      <c r="N75" s="44">
+      <c r="A75" s="64"/>
+      <c r="B75" s="77" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75" s="47">
+        <v>2</v>
+      </c>
+      <c r="E75" s="47"/>
+      <c r="F75" s="37">
+        <v>2</v>
+      </c>
+      <c r="G75" s="37"/>
+      <c r="H75" s="48">
+        <v>2</v>
+      </c>
+      <c r="I75" s="48"/>
+      <c r="J75" s="37">
+        <v>2</v>
+      </c>
+      <c r="K75" s="97"/>
+      <c r="L75" s="98"/>
+      <c r="M75" s="98"/>
+      <c r="N75" s="28">
         <f t="shared" si="39"/>
-        <v>1</v>
-      </c>
-      <c r="O75" s="45">
+        <v>8</v>
+      </c>
+      <c r="O75" s="37">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="105" t="s">
-        <v>42</v>
-      </c>
-      <c r="B76" s="105"/>
-      <c r="C76" s="105"/>
-      <c r="D76" s="105"/>
-      <c r="E76" s="105"/>
-      <c r="F76" s="105"/>
-      <c r="G76" s="105"/>
-      <c r="H76" s="105"/>
-      <c r="I76" s="105"/>
-      <c r="J76" s="105" t="s">
-        <v>48</v>
-      </c>
-      <c r="K76" s="104"/>
-      <c r="L76" s="94"/>
-      <c r="M76" s="94"/>
-      <c r="N76" s="95">
-        <f>SUM(N64:N75)</f>
-        <v>6</v>
-      </c>
-      <c r="O76" s="95">
-        <f>SUM(O64:O75)</f>
+      <c r="A76" s="64"/>
+      <c r="B76" s="77">
+        <v>42355</v>
+      </c>
+      <c r="C76" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" s="47">
+        <v>2</v>
+      </c>
+      <c r="E76" s="47"/>
+      <c r="F76" s="37">
+        <v>2</v>
+      </c>
+      <c r="G76" s="37"/>
+      <c r="H76" s="48">
+        <v>2</v>
+      </c>
+      <c r="I76" s="48"/>
+      <c r="J76" s="37">
+        <v>2</v>
+      </c>
+      <c r="K76" s="97"/>
+      <c r="L76" s="98"/>
+      <c r="M76" s="98"/>
+      <c r="N76" s="28">
+        <f t="shared" si="39"/>
+        <v>8</v>
+      </c>
+      <c r="O76" s="37">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" s="74">
-        <v>42380</v>
-      </c>
-      <c r="C77" s="92" t="s">
-        <v>60</v>
+      <c r="A77" s="64"/>
+      <c r="B77" s="77">
+        <v>42356</v>
+      </c>
+      <c r="C77" s="55" t="s">
+        <v>94</v>
       </c>
       <c r="D77" s="47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E77" s="47"/>
       <c r="F77" s="37">
@@ -3792,307 +3997,263 @@
       </c>
       <c r="G77" s="37"/>
       <c r="H77" s="48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I77" s="48"/>
       <c r="J77" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K77" s="23"/>
-      <c r="L77" s="46"/>
-      <c r="M77" s="46"/>
+        <v>1</v>
+      </c>
+      <c r="K77" s="97"/>
+      <c r="L77" s="98"/>
+      <c r="M77" s="98"/>
       <c r="N77" s="28">
-        <f t="shared" ref="N77:O82" si="42">D77+F77+H77+J77+L77</f>
-        <v>2.5</v>
-      </c>
-      <c r="O77" s="29">
-        <f t="shared" si="42"/>
+        <f t="shared" si="39"/>
+        <v>4</v>
+      </c>
+      <c r="O77" s="37">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B78" s="75">
-        <v>42381</v>
+      <c r="A78" s="30">
+        <v>6</v>
+      </c>
+      <c r="B78" s="75" t="s">
+        <v>70</v>
       </c>
       <c r="C78" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="D78" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E78" s="47"/>
-      <c r="F78" s="37">
-        <v>1</v>
-      </c>
-      <c r="G78" s="37"/>
-      <c r="H78" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I78" s="48"/>
-      <c r="J78" s="37">
-        <v>0.5</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D78" s="51"/>
+      <c r="E78" s="51"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="52"/>
+      <c r="I78" s="52"/>
+      <c r="J78" s="30"/>
       <c r="K78" s="30"/>
       <c r="L78" s="49"/>
       <c r="M78" s="49"/>
       <c r="N78" s="36">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="O78" s="37">
+        <f t="shared" ref="O72:O78" si="41">E78+G78+I78+K78+M78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="105" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79" s="105"/>
+      <c r="C79" s="105"/>
+      <c r="D79" s="105"/>
+      <c r="E79" s="105"/>
+      <c r="F79" s="105"/>
+      <c r="G79" s="105"/>
+      <c r="H79" s="105"/>
+      <c r="I79" s="105"/>
+      <c r="J79" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="K79" s="104"/>
+      <c r="L79" s="94"/>
+      <c r="M79" s="94"/>
+      <c r="N79" s="95">
+        <f>SUM(N65:N78)</f>
+        <v>33</v>
+      </c>
+      <c r="O79" s="95">
+        <f>SUM(O65:O78)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="74">
+        <v>42380</v>
+      </c>
+      <c r="C80" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D80" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E80" s="47"/>
+      <c r="F80" s="37">
+        <v>1</v>
+      </c>
+      <c r="G80" s="37"/>
+      <c r="H80" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I80" s="48"/>
+      <c r="J80" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K80" s="23"/>
+      <c r="L80" s="46"/>
+      <c r="M80" s="46"/>
+      <c r="N80" s="28">
+        <f t="shared" ref="N80:O96" si="42">D80+F80+H80+J80+L80</f>
+        <v>2.5</v>
+      </c>
+      <c r="O80" s="29">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="64"/>
+      <c r="B81" s="77"/>
+      <c r="C81" s="103" t="s">
+        <v>105</v>
+      </c>
+      <c r="D81" s="47"/>
+      <c r="E81" s="47"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="48"/>
+      <c r="I81" s="48"/>
+      <c r="J81" s="37"/>
+      <c r="K81" s="64"/>
+      <c r="L81" s="98"/>
+      <c r="M81" s="98"/>
+      <c r="N81" s="28">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O81" s="37">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="64"/>
+      <c r="B82" s="77"/>
+      <c r="C82" s="103" t="s">
+        <v>96</v>
+      </c>
+      <c r="D82" s="47"/>
+      <c r="E82" s="47"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="48"/>
+      <c r="I82" s="48"/>
+      <c r="J82" s="37"/>
+      <c r="K82" s="64"/>
+      <c r="L82" s="98"/>
+      <c r="M82" s="98"/>
+      <c r="N82" s="28">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O82" s="37">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="75">
+        <v>42381</v>
+      </c>
+      <c r="C83" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E83" s="47"/>
+      <c r="F83" s="37">
+        <v>1</v>
+      </c>
+      <c r="G83" s="37"/>
+      <c r="H83" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I83" s="48"/>
+      <c r="J83" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K83" s="30"/>
+      <c r="L83" s="49"/>
+      <c r="M83" s="49"/>
+      <c r="N83" s="28">
         <f t="shared" si="42"/>
         <v>2.5</v>
       </c>
-      <c r="O78" s="37">
+      <c r="O83" s="37">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B79" s="75">
-        <v>42382</v>
-      </c>
-      <c r="C79" s="100" t="s">
-        <v>60</v>
-      </c>
-      <c r="D79" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E79" s="47"/>
-      <c r="F79" s="37">
-        <v>1</v>
-      </c>
-      <c r="G79" s="37"/>
-      <c r="H79" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I79" s="48"/>
-      <c r="J79" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K79" s="30"/>
-      <c r="L79" s="49"/>
-      <c r="M79" s="49"/>
-      <c r="N79" s="36">
+    <row r="84" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="30"/>
+      <c r="B84" s="75"/>
+      <c r="C84" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D84" s="47"/>
+      <c r="E84" s="47"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="48"/>
+      <c r="I84" s="48"/>
+      <c r="J84" s="37"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="49"/>
+      <c r="M84" s="49"/>
+      <c r="N84" s="28">
         <f t="shared" si="42"/>
-        <v>2.5</v>
-      </c>
-      <c r="O79" s="37">
+        <v>0</v>
+      </c>
+      <c r="O84" s="37">
         <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A80" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B80" s="75">
-        <v>42383</v>
-      </c>
-      <c r="C80" s="100" t="s">
-        <v>60</v>
-      </c>
-      <c r="D80" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E80" s="47"/>
-      <c r="F80" s="37">
-        <v>1</v>
-      </c>
-      <c r="G80" s="37"/>
-      <c r="H80" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I80" s="48"/>
-      <c r="J80" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K80" s="30"/>
-      <c r="L80" s="49"/>
-      <c r="M80" s="49"/>
-      <c r="N80" s="36">
-        <f t="shared" si="42"/>
-        <v>2.5</v>
-      </c>
-      <c r="O80" s="37">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A81" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B81" s="75">
-        <v>42384</v>
-      </c>
-      <c r="C81" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="D81" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E81" s="47"/>
-      <c r="F81" s="37">
-        <v>1</v>
-      </c>
-      <c r="G81" s="37"/>
-      <c r="H81" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I81" s="48"/>
-      <c r="J81" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K81" s="30"/>
-      <c r="L81" s="49"/>
-      <c r="M81" s="49"/>
-      <c r="N81" s="36">
-        <f t="shared" si="42"/>
-        <v>2.5</v>
-      </c>
-      <c r="O81" s="37">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A82" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B82" s="76"/>
-      <c r="C82" s="39"/>
-      <c r="D82" s="53"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="54"/>
-      <c r="I82" s="54"/>
-      <c r="J82" s="38"/>
-      <c r="K82" s="38"/>
-      <c r="L82" s="50"/>
-      <c r="M82" s="50"/>
-      <c r="N82" s="44">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="O82" s="45">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A83" s="105" t="s">
-        <v>43</v>
-      </c>
-      <c r="B83" s="105"/>
-      <c r="C83" s="105"/>
-      <c r="D83" s="105"/>
-      <c r="E83" s="105"/>
-      <c r="F83" s="105"/>
-      <c r="G83" s="105"/>
-      <c r="H83" s="105"/>
-      <c r="I83" s="105"/>
-      <c r="J83" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="K83" s="104"/>
-      <c r="L83" s="94"/>
-      <c r="M83" s="94"/>
-      <c r="N83" s="95">
-        <f>SUM(N77:N82)</f>
-        <v>12.5</v>
-      </c>
-      <c r="O83" s="95">
-        <f>SUM(O77:O82)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A84" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B84" s="74">
-        <v>42387</v>
-      </c>
-      <c r="C84" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="D84" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E84" s="47"/>
-      <c r="F84" s="37">
-        <v>1</v>
-      </c>
-      <c r="G84" s="37"/>
-      <c r="H84" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I84" s="48"/>
-      <c r="J84" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K84" s="23"/>
-      <c r="L84" s="46"/>
-      <c r="M84" s="46"/>
-      <c r="N84" s="28">
-        <f t="shared" ref="N84:O86" si="43">D84+F84+H84+J84+L84</f>
-        <v>2.5</v>
-      </c>
-      <c r="O84" s="29">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A85" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B85" s="75">
-        <v>42388</v>
-      </c>
+    <row r="85" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="30"/>
+      <c r="B85" s="75"/>
       <c r="C85" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="D85" s="47">
-        <v>0.5</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D85" s="47"/>
       <c r="E85" s="47"/>
-      <c r="F85" s="37">
-        <v>1</v>
-      </c>
+      <c r="F85" s="37"/>
       <c r="G85" s="37"/>
-      <c r="H85" s="48">
-        <v>0.5</v>
-      </c>
+      <c r="H85" s="48"/>
       <c r="I85" s="48"/>
-      <c r="J85" s="37">
-        <v>0.5</v>
-      </c>
+      <c r="J85" s="37"/>
       <c r="K85" s="30"/>
       <c r="L85" s="49"/>
       <c r="M85" s="49"/>
-      <c r="N85" s="36">
-        <f t="shared" si="43"/>
-        <v>2.5</v>
+      <c r="N85" s="28">
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
       <c r="O85" s="37">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B86" s="75">
-        <v>42389</v>
+        <v>42382</v>
       </c>
       <c r="C86" s="100" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D86" s="47">
         <v>0.5</v>
@@ -4112,233 +4273,1051 @@
       <c r="K86" s="30"/>
       <c r="L86" s="49"/>
       <c r="M86" s="49"/>
-      <c r="N86" s="36">
-        <f t="shared" si="43"/>
+      <c r="N86" s="28">
+        <f t="shared" si="42"/>
         <v>2.5</v>
       </c>
       <c r="O86" s="37">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A87" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B87" s="75">
-        <v>42390</v>
-      </c>
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="30"/>
+      <c r="B87" s="75"/>
       <c r="C87" s="100" t="s">
-        <v>60</v>
-      </c>
-      <c r="D87" s="47">
-        <v>0.5</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D87" s="47"/>
       <c r="E87" s="47"/>
-      <c r="F87" s="37">
-        <v>1</v>
-      </c>
+      <c r="F87" s="37"/>
       <c r="G87" s="37"/>
-      <c r="H87" s="48">
-        <v>0.5</v>
-      </c>
+      <c r="H87" s="48"/>
       <c r="I87" s="48"/>
-      <c r="J87" s="37">
-        <v>0.5</v>
-      </c>
+      <c r="J87" s="37"/>
       <c r="K87" s="30"/>
       <c r="L87" s="49"/>
       <c r="M87" s="49"/>
-      <c r="N87" s="36">
-        <f t="shared" ref="N87:N90" si="44">D87+F87+H87+J87+L87</f>
-        <v>2.5</v>
+      <c r="N87" s="28">
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
       <c r="O87" s="37">
-        <f t="shared" ref="O87:O90" si="45">E87+G87+I87+K87+M87</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A88" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" s="75">
-        <v>42391</v>
-      </c>
-      <c r="C88" s="55" t="s">
-        <v>60</v>
-      </c>
-      <c r="D88" s="47">
-        <v>0.5</v>
-      </c>
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="30"/>
+      <c r="B88" s="75"/>
+      <c r="C88" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="D88" s="47"/>
       <c r="E88" s="47"/>
-      <c r="F88" s="37">
-        <v>1</v>
-      </c>
+      <c r="F88" s="37"/>
       <c r="G88" s="37"/>
-      <c r="H88" s="48">
-        <v>0.5</v>
-      </c>
+      <c r="H88" s="48"/>
       <c r="I88" s="48"/>
-      <c r="J88" s="37">
-        <v>0.5</v>
-      </c>
+      <c r="J88" s="37"/>
       <c r="K88" s="30"/>
       <c r="L88" s="49"/>
       <c r="M88" s="49"/>
-      <c r="N88" s="36">
+      <c r="N88" s="28">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O88" s="37">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="30"/>
+      <c r="B89" s="75"/>
+      <c r="C89" s="100" t="s">
+        <v>100</v>
+      </c>
+      <c r="D89" s="47"/>
+      <c r="E89" s="47"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="48"/>
+      <c r="I89" s="48"/>
+      <c r="J89" s="37"/>
+      <c r="K89" s="30"/>
+      <c r="L89" s="49"/>
+      <c r="M89" s="49"/>
+      <c r="N89" s="28">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O89" s="37">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B90" s="75">
+        <v>42383</v>
+      </c>
+      <c r="C90" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="D90" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E90" s="47"/>
+      <c r="F90" s="37">
+        <v>1</v>
+      </c>
+      <c r="G90" s="37"/>
+      <c r="H90" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I90" s="48"/>
+      <c r="J90" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K90" s="30"/>
+      <c r="L90" s="49"/>
+      <c r="M90" s="49"/>
+      <c r="N90" s="28">
+        <f t="shared" si="42"/>
+        <v>2.5</v>
+      </c>
+      <c r="O90" s="37">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" s="30"/>
+      <c r="B91" s="75"/>
+      <c r="C91" s="100" t="s">
+        <v>101</v>
+      </c>
+      <c r="D91" s="47"/>
+      <c r="E91" s="47"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="48"/>
+      <c r="I91" s="48"/>
+      <c r="J91" s="37"/>
+      <c r="K91" s="30"/>
+      <c r="L91" s="49"/>
+      <c r="M91" s="49"/>
+      <c r="N91" s="28">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O91" s="37">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" s="30"/>
+      <c r="B92" s="75"/>
+      <c r="C92" s="100" t="s">
+        <v>103</v>
+      </c>
+      <c r="D92" s="47"/>
+      <c r="E92" s="47"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="48"/>
+      <c r="I92" s="48"/>
+      <c r="J92" s="37"/>
+      <c r="K92" s="30"/>
+      <c r="L92" s="49"/>
+      <c r="M92" s="49"/>
+      <c r="N92" s="28">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O92" s="37">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="75">
+        <v>42384</v>
+      </c>
+      <c r="C93" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D93" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E93" s="47"/>
+      <c r="F93" s="37">
+        <v>1</v>
+      </c>
+      <c r="G93" s="37"/>
+      <c r="H93" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I93" s="48"/>
+      <c r="J93" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K93" s="30"/>
+      <c r="L93" s="49"/>
+      <c r="M93" s="49"/>
+      <c r="N93" s="28">
+        <f t="shared" si="42"/>
+        <v>2.5</v>
+      </c>
+      <c r="O93" s="37">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" s="81"/>
+      <c r="B94" s="82"/>
+      <c r="C94" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="D94" s="89"/>
+      <c r="E94" s="89"/>
+      <c r="F94" s="87"/>
+      <c r="G94" s="87"/>
+      <c r="H94" s="90"/>
+      <c r="I94" s="90"/>
+      <c r="J94" s="87"/>
+      <c r="K94" s="81"/>
+      <c r="L94" s="86"/>
+      <c r="M94" s="86"/>
+      <c r="N94" s="28">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O94" s="37">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" s="81"/>
+      <c r="B95" s="82"/>
+      <c r="C95" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="D95" s="89"/>
+      <c r="E95" s="89"/>
+      <c r="F95" s="87"/>
+      <c r="G95" s="87"/>
+      <c r="H95" s="90"/>
+      <c r="I95" s="90"/>
+      <c r="J95" s="87"/>
+      <c r="K95" s="81"/>
+      <c r="L95" s="86"/>
+      <c r="M95" s="86"/>
+      <c r="N95" s="28">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O95" s="37">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="76"/>
+      <c r="C96" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96" s="53"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="38"/>
+      <c r="G96" s="38"/>
+      <c r="H96" s="54"/>
+      <c r="I96" s="54"/>
+      <c r="J96" s="38"/>
+      <c r="K96" s="38"/>
+      <c r="L96" s="50"/>
+      <c r="M96" s="50"/>
+      <c r="N96" s="44">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O96" s="45">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="B97" s="105"/>
+      <c r="C97" s="105"/>
+      <c r="D97" s="105"/>
+      <c r="E97" s="105"/>
+      <c r="F97" s="105"/>
+      <c r="G97" s="105"/>
+      <c r="H97" s="105"/>
+      <c r="I97" s="105"/>
+      <c r="J97" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="K97" s="104"/>
+      <c r="L97" s="94"/>
+      <c r="M97" s="94"/>
+      <c r="N97" s="95">
+        <f>SUM(N80:N96)</f>
+        <v>12.5</v>
+      </c>
+      <c r="O97" s="95">
+        <f>SUM(O80:O96)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="74">
+        <v>42387</v>
+      </c>
+      <c r="C98" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="D98" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E98" s="47"/>
+      <c r="F98" s="37">
+        <v>1</v>
+      </c>
+      <c r="G98" s="37"/>
+      <c r="H98" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I98" s="48"/>
+      <c r="J98" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K98" s="23"/>
+      <c r="L98" s="46"/>
+      <c r="M98" s="46"/>
+      <c r="N98" s="28">
+        <f t="shared" ref="N98:O113" si="43">D98+F98+H98+J98+L98</f>
+        <v>2.5</v>
+      </c>
+      <c r="O98" s="29">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" s="64"/>
+      <c r="B99" s="77"/>
+      <c r="C99" s="103" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" s="47"/>
+      <c r="E99" s="47"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="48"/>
+      <c r="I99" s="48"/>
+      <c r="J99" s="37"/>
+      <c r="K99" s="64"/>
+      <c r="L99" s="98"/>
+      <c r="M99" s="98"/>
+      <c r="N99" s="28">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O99" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" s="64"/>
+      <c r="B100" s="77"/>
+      <c r="C100" s="103" t="s">
+        <v>107</v>
+      </c>
+      <c r="D100" s="47"/>
+      <c r="E100" s="47"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="48"/>
+      <c r="I100" s="48"/>
+      <c r="J100" s="37"/>
+      <c r="K100" s="64"/>
+      <c r="L100" s="98"/>
+      <c r="M100" s="98"/>
+      <c r="N100" s="28">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O100" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" s="64"/>
+      <c r="B101" s="77"/>
+      <c r="C101" s="103" t="s">
+        <v>112</v>
+      </c>
+      <c r="D101" s="47"/>
+      <c r="E101" s="47"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="48"/>
+      <c r="I101" s="48"/>
+      <c r="J101" s="37"/>
+      <c r="K101" s="64"/>
+      <c r="L101" s="98"/>
+      <c r="M101" s="98"/>
+      <c r="N101" s="28">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O101" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" s="75">
+        <v>42388</v>
+      </c>
+      <c r="C102" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D102" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E102" s="47"/>
+      <c r="F102" s="37">
+        <v>1</v>
+      </c>
+      <c r="G102" s="37"/>
+      <c r="H102" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I102" s="48"/>
+      <c r="J102" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K102" s="30"/>
+      <c r="L102" s="49"/>
+      <c r="M102" s="49"/>
+      <c r="N102" s="28">
+        <f t="shared" si="43"/>
+        <v>2.5</v>
+      </c>
+      <c r="O102" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" s="30"/>
+      <c r="B103" s="75"/>
+      <c r="C103" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="D103" s="47"/>
+      <c r="E103" s="47"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="37"/>
+      <c r="H103" s="48"/>
+      <c r="I103" s="48"/>
+      <c r="J103" s="37"/>
+      <c r="K103" s="30"/>
+      <c r="L103" s="49"/>
+      <c r="M103" s="49"/>
+      <c r="N103" s="28">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O103" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" s="30"/>
+      <c r="B104" s="75"/>
+      <c r="C104" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="D104" s="47"/>
+      <c r="E104" s="47"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="37"/>
+      <c r="H104" s="48"/>
+      <c r="I104" s="48"/>
+      <c r="J104" s="37"/>
+      <c r="K104" s="30"/>
+      <c r="L104" s="49"/>
+      <c r="M104" s="49"/>
+      <c r="N104" s="28">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O104" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" s="30"/>
+      <c r="B105" s="75"/>
+      <c r="C105" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D105" s="47"/>
+      <c r="E105" s="47"/>
+      <c r="F105" s="37"/>
+      <c r="G105" s="37"/>
+      <c r="H105" s="48"/>
+      <c r="I105" s="48"/>
+      <c r="J105" s="37"/>
+      <c r="K105" s="30"/>
+      <c r="L105" s="49"/>
+      <c r="M105" s="49"/>
+      <c r="N105" s="28">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O105" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" s="75">
+        <v>42389</v>
+      </c>
+      <c r="C106" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="D106" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E106" s="47"/>
+      <c r="F106" s="37">
+        <v>1</v>
+      </c>
+      <c r="G106" s="37"/>
+      <c r="H106" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I106" s="48"/>
+      <c r="J106" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K106" s="30"/>
+      <c r="L106" s="49"/>
+      <c r="M106" s="49"/>
+      <c r="N106" s="28">
+        <f t="shared" si="43"/>
+        <v>2.5</v>
+      </c>
+      <c r="O106" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" s="30"/>
+      <c r="B107" s="75"/>
+      <c r="C107" s="100" t="s">
+        <v>119</v>
+      </c>
+      <c r="D107" s="47"/>
+      <c r="E107" s="47"/>
+      <c r="F107" s="37"/>
+      <c r="G107" s="37"/>
+      <c r="H107" s="48"/>
+      <c r="I107" s="48"/>
+      <c r="J107" s="37"/>
+      <c r="K107" s="30"/>
+      <c r="L107" s="49"/>
+      <c r="M107" s="49"/>
+      <c r="N107" s="28">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O107" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" s="30"/>
+      <c r="B108" s="75"/>
+      <c r="C108" s="100" t="s">
+        <v>120</v>
+      </c>
+      <c r="D108" s="47"/>
+      <c r="E108" s="47"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="37"/>
+      <c r="H108" s="48"/>
+      <c r="I108" s="48"/>
+      <c r="J108" s="37"/>
+      <c r="K108" s="30"/>
+      <c r="L108" s="49"/>
+      <c r="M108" s="49"/>
+      <c r="N108" s="28">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O108" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" s="30"/>
+      <c r="B109" s="75"/>
+      <c r="C109" s="100" t="s">
+        <v>108</v>
+      </c>
+      <c r="D109" s="47"/>
+      <c r="E109" s="47"/>
+      <c r="F109" s="37"/>
+      <c r="G109" s="37"/>
+      <c r="H109" s="48"/>
+      <c r="I109" s="48"/>
+      <c r="J109" s="37"/>
+      <c r="K109" s="30"/>
+      <c r="L109" s="49"/>
+      <c r="M109" s="49"/>
+      <c r="N109" s="28">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O109" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" s="30"/>
+      <c r="B110" s="75"/>
+      <c r="C110" s="100" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110" s="47"/>
+      <c r="E110" s="47"/>
+      <c r="F110" s="37"/>
+      <c r="G110" s="37"/>
+      <c r="H110" s="48"/>
+      <c r="I110" s="48"/>
+      <c r="J110" s="37"/>
+      <c r="K110" s="30"/>
+      <c r="L110" s="49"/>
+      <c r="M110" s="49"/>
+      <c r="N110" s="28">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O110" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="75">
+        <v>42390</v>
+      </c>
+      <c r="C111" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="D111" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E111" s="47"/>
+      <c r="F111" s="37">
+        <v>1</v>
+      </c>
+      <c r="G111" s="37"/>
+      <c r="H111" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I111" s="48"/>
+      <c r="J111" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K111" s="30"/>
+      <c r="L111" s="49"/>
+      <c r="M111" s="49"/>
+      <c r="N111" s="28">
+        <f t="shared" si="43"/>
+        <v>2.5</v>
+      </c>
+      <c r="O111" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" s="30"/>
+      <c r="B112" s="75"/>
+      <c r="C112" s="100" t="s">
+        <v>121</v>
+      </c>
+      <c r="D112" s="47"/>
+      <c r="E112" s="47"/>
+      <c r="F112" s="37"/>
+      <c r="G112" s="37"/>
+      <c r="H112" s="48"/>
+      <c r="I112" s="48"/>
+      <c r="J112" s="37"/>
+      <c r="K112" s="30"/>
+      <c r="L112" s="49"/>
+      <c r="M112" s="49"/>
+      <c r="N112" s="28">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O112" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A113" s="30"/>
+      <c r="B113" s="75"/>
+      <c r="C113" s="100" t="s">
+        <v>109</v>
+      </c>
+      <c r="D113" s="47"/>
+      <c r="E113" s="47"/>
+      <c r="F113" s="37"/>
+      <c r="G113" s="37"/>
+      <c r="H113" s="48"/>
+      <c r="I113" s="48"/>
+      <c r="J113" s="37"/>
+      <c r="K113" s="30"/>
+      <c r="L113" s="49"/>
+      <c r="M113" s="49"/>
+      <c r="N113" s="28">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O113" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A114" s="30"/>
+      <c r="B114" s="75"/>
+      <c r="C114" s="100" t="s">
+        <v>114</v>
+      </c>
+      <c r="D114" s="47"/>
+      <c r="E114" s="47"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="37"/>
+      <c r="H114" s="48"/>
+      <c r="I114" s="48"/>
+      <c r="J114" s="37"/>
+      <c r="K114" s="30"/>
+      <c r="L114" s="49"/>
+      <c r="M114" s="49"/>
+      <c r="N114" s="28">
+        <f t="shared" ref="N114:O119" si="44">D114+F114+H114+J114+L114</f>
+        <v>0</v>
+      </c>
+      <c r="O114" s="37">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A115" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" s="75">
+        <v>42391</v>
+      </c>
+      <c r="C115" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D115" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E115" s="47"/>
+      <c r="F115" s="37">
+        <v>1</v>
+      </c>
+      <c r="G115" s="37"/>
+      <c r="H115" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="I115" s="48"/>
+      <c r="J115" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K115" s="30"/>
+      <c r="L115" s="49"/>
+      <c r="M115" s="49"/>
+      <c r="N115" s="28">
         <f t="shared" si="44"/>
         <v>2.5</v>
       </c>
-      <c r="O88" s="37">
+      <c r="O115" s="37">
+        <f t="shared" ref="O111:O120" si="45">E115+G115+I115+K115+M115</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A116" s="30"/>
+      <c r="B116" s="82"/>
+      <c r="C116" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="D116" s="89"/>
+      <c r="E116" s="89"/>
+      <c r="F116" s="87"/>
+      <c r="G116" s="87"/>
+      <c r="H116" s="90"/>
+      <c r="I116" s="90"/>
+      <c r="J116" s="87"/>
+      <c r="K116" s="81"/>
+      <c r="L116" s="86"/>
+      <c r="M116" s="86"/>
+      <c r="N116" s="28">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O116" s="37">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A89" s="30" t="s">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A117" s="30"/>
+      <c r="B117" s="82"/>
+      <c r="C117" s="88" t="s">
+        <v>110</v>
+      </c>
+      <c r="D117" s="89"/>
+      <c r="E117" s="89"/>
+      <c r="F117" s="87"/>
+      <c r="G117" s="87"/>
+      <c r="H117" s="90"/>
+      <c r="I117" s="90"/>
+      <c r="J117" s="87"/>
+      <c r="K117" s="81"/>
+      <c r="L117" s="86"/>
+      <c r="M117" s="86"/>
+      <c r="N117" s="28">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="O117" s="37">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A118" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B89" s="82"/>
-      <c r="C89" s="88"/>
-      <c r="D89" s="84"/>
-      <c r="E89" s="84"/>
-      <c r="F89" s="81"/>
-      <c r="G89" s="81"/>
-      <c r="H89" s="85"/>
-      <c r="I89" s="85"/>
-      <c r="J89" s="81"/>
-      <c r="K89" s="81"/>
-      <c r="L89" s="86"/>
-      <c r="M89" s="86"/>
-      <c r="N89" s="101">
+      <c r="B118" s="82"/>
+      <c r="C118" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="D118" s="84"/>
+      <c r="E118" s="84"/>
+      <c r="F118" s="81"/>
+      <c r="G118" s="81"/>
+      <c r="H118" s="85"/>
+      <c r="I118" s="85"/>
+      <c r="J118" s="81"/>
+      <c r="K118" s="81"/>
+      <c r="L118" s="86"/>
+      <c r="M118" s="86"/>
+      <c r="N118" s="28">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="O89" s="87">
+      <c r="O118" s="37">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A90" s="38"/>
-      <c r="B90" s="76">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A119" s="81"/>
+      <c r="B119" s="82">
         <v>42393</v>
       </c>
-      <c r="C90" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="D90" s="53"/>
-      <c r="E90" s="53"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="54"/>
-      <c r="I90" s="54"/>
-      <c r="J90" s="38"/>
-      <c r="K90" s="38"/>
-      <c r="L90" s="50"/>
-      <c r="M90" s="50"/>
-      <c r="N90" s="44">
+      <c r="C119" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="D119" s="84"/>
+      <c r="E119" s="84"/>
+      <c r="F119" s="81"/>
+      <c r="G119" s="81"/>
+      <c r="H119" s="85"/>
+      <c r="I119" s="85"/>
+      <c r="J119" s="81"/>
+      <c r="K119" s="81"/>
+      <c r="L119" s="86"/>
+      <c r="M119" s="86"/>
+      <c r="N119" s="28">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="O90" s="45">
+      <c r="O119" s="37">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A91" s="3"/>
-      <c r="B91" s="78"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="105" t="s">
-        <v>50</v>
-      </c>
-      <c r="K91" s="104"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="8">
-        <f>SUM(N84:N90)</f>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A120" s="38"/>
+      <c r="B120" s="76">
+        <v>42393</v>
+      </c>
+      <c r="C120" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="D120" s="53"/>
+      <c r="E120" s="53"/>
+      <c r="F120" s="38"/>
+      <c r="G120" s="38"/>
+      <c r="H120" s="54"/>
+      <c r="I120" s="54"/>
+      <c r="J120" s="38"/>
+      <c r="K120" s="38"/>
+      <c r="L120" s="50"/>
+      <c r="M120" s="50"/>
+      <c r="N120" s="44">
+        <f t="shared" ref="N111:N120" si="46">D120+F120+H120+J120+L120</f>
+        <v>0</v>
+      </c>
+      <c r="O120" s="45">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A121" s="3"/>
+      <c r="B121" s="78"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="K121" s="104"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="8">
+        <f>SUM(N98:N120)</f>
         <v>12.5</v>
       </c>
-      <c r="O91" s="4">
-        <f>SUM(O84:O90)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A92" s="9"/>
-      <c r="B92" s="79"/>
-      <c r="C92" s="10" t="s">
+      <c r="O121" s="4">
+        <f>SUM(O98:O120)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A122" s="9"/>
+      <c r="B122" s="79"/>
+      <c r="C122" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D92" s="11">
-        <f t="shared" ref="D92:M92" si="46">SUM(D4:D91)</f>
-        <v>53</v>
-      </c>
-      <c r="E92" s="11">
-        <f t="shared" si="46"/>
+      <c r="D122" s="11">
+        <f>SUM(D4:D121)</f>
+        <v>61.05</v>
+      </c>
+      <c r="E122" s="11">
+        <f>SUM(E4:E121)</f>
         <v>43.8</v>
       </c>
-      <c r="F92" s="11">
-        <f t="shared" si="46"/>
-        <v>58</v>
-      </c>
-      <c r="G92" s="11">
-        <f t="shared" si="46"/>
-        <v>40.799999999999997</v>
-      </c>
-      <c r="H92" s="11">
-        <f t="shared" si="46"/>
-        <v>50</v>
-      </c>
-      <c r="I92" s="11">
-        <f t="shared" si="46"/>
+      <c r="F122" s="11">
+        <f>SUM(F4:F121)</f>
+        <v>65.75</v>
+      </c>
+      <c r="G122" s="11">
+        <f>SUM(G4:G121)</f>
+        <v>42.8</v>
+      </c>
+      <c r="H122" s="11">
+        <f>SUM(H4:H121)</f>
+        <v>57.75</v>
+      </c>
+      <c r="I122" s="11">
+        <f>SUM(I4:I121)</f>
         <v>35.799999999999997</v>
       </c>
-      <c r="J92" s="11">
-        <f t="shared" si="46"/>
-        <v>53</v>
-      </c>
-      <c r="K92" s="11">
-        <f t="shared" si="46"/>
-        <v>42.8</v>
-      </c>
-      <c r="L92" s="11">
-        <f t="shared" si="46"/>
-        <v>0.5</v>
-      </c>
-      <c r="M92" s="11">
-        <f t="shared" si="46"/>
-        <v>0.5</v>
-      </c>
-      <c r="N92" s="9">
-        <f>D92+F92+H92+J92+L92</f>
-        <v>214.5</v>
-      </c>
-      <c r="O92" s="11">
-        <f>E92+G92+I92+K92+M92</f>
-        <v>163.69999999999999</v>
+      <c r="J122" s="11">
+        <f>SUM(J4:J121)</f>
+        <v>60.75</v>
+      </c>
+      <c r="K122" s="11">
+        <f>SUM(K4:K121)</f>
+        <v>44.8</v>
+      </c>
+      <c r="L122" s="11">
+        <f>SUM(L4:L121)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M122" s="11">
+        <f>SUM(M4:M121)</f>
+        <v>0.5</v>
+      </c>
+      <c r="N122" s="9">
+        <f>D122+F122+H122+J122+L122</f>
+        <v>245.8</v>
+      </c>
+      <c r="O122" s="11">
+        <f>E122+G122+I122+K122+M122</f>
+        <v>167.7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="J121:K121"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="A76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="A83:I83"/>
-    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="A64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="A79:I79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="A97:I97"/>
+    <mergeCell ref="J97:K97"/>
     <mergeCell ref="A22:I22"/>
     <mergeCell ref="J22:K22"/>
     <mergeCell ref="A36:I36"/>

--- a/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
+++ b/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Themaopdracht6\Planning (PvA) en urenverantwoording\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="122">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -271,9 +276,6 @@
     <t>Concurrency diagram opstellen</t>
   </si>
   <si>
-    <t>!!!!!!</t>
-  </si>
-  <si>
     <t>Testen wasmachine emulator werking</t>
   </si>
   <si>
@@ -295,9 +297,6 @@
     <t>Persoonlijke feedback ontvangen SA</t>
   </si>
   <si>
-    <t>!!!!!!!</t>
-  </si>
-  <si>
     <t>Feedback verwerken SA</t>
   </si>
   <si>
@@ -319,9 +318,6 @@
     <t>Browser met server communicatie realiseren</t>
   </si>
   <si>
-    <t>Alle functionaliteit tussen RTOS en wasmachine onderzoeken</t>
-  </si>
-  <si>
     <t>Webinterface berichten naar wasmachine sturen</t>
   </si>
   <si>
@@ -386,6 +382,12 @@
   </si>
   <si>
     <t>Alle documenten ordenen</t>
+  </si>
+  <si>
+    <t>Alle functionaliteit tussen RTOS en WM onderzoeken</t>
+  </si>
+  <si>
+    <t>Planing maken voor laatste week</t>
   </si>
 </sst>
 </file>
@@ -626,7 +628,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -720,7 +722,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -874,9 +875,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -889,10 +887,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -910,12 +911,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -931,9 +939,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -971,9 +979,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1008,7 +1016,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1043,7 +1051,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1217,17 +1225,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O122"/>
+  <dimension ref="A1:O121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E61" sqref="E61"/>
+      <selection pane="bottomLeft" activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="26" style="80" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="79" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.140625" customWidth="1"/>
     <col min="4" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="8.140625" hidden="1" customWidth="1"/>
@@ -1239,34 +1247,34 @@
       <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="69"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="71"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="106" t="s">
+      <c r="E2" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="106"/>
-      <c r="H2" s="96" t="s">
+      <c r="F2" s="105"/>
+      <c r="H2" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="111">
+      <c r="I2" s="104">
         <f ca="1">TODAY()</f>
-        <v>42348</v>
-      </c>
-      <c r="J2" s="111"/>
+        <v>42354</v>
+      </c>
+      <c r="J2" s="104"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="71" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -1311,57 +1319,57 @@
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16"/>
-      <c r="B4" s="73"/>
-      <c r="D4" s="109" t="s">
+      <c r="B4" s="72"/>
+      <c r="D4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="109"/>
-      <c r="F4" s="104" t="s">
+      <c r="E4" s="108"/>
+      <c r="F4" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="104"/>
-      <c r="H4" s="110" t="s">
+      <c r="G4" s="103"/>
+      <c r="H4" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="110"/>
-      <c r="J4" s="104" t="s">
+      <c r="I4" s="109"/>
+      <c r="J4" s="103" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="104"/>
-      <c r="L4" s="107" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="108"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="107"/>
       <c r="N4" s="22"/>
       <c r="O4" s="16"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="105"/>
-      <c r="I5" s="105"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="94"/>
-      <c r="M5" s="94"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="102"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="102"/>
+      <c r="I5" s="102"/>
+      <c r="J5" s="103"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="93"/>
+      <c r="M5" s="93"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="23">
         <v>1</v>
       </c>
-      <c r="B6" s="74">
+      <c r="B6" s="73">
         <v>42317</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="56" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="24">
@@ -1370,10 +1378,10 @@
       <c r="E6" s="24">
         <v>2</v>
       </c>
-      <c r="F6" s="60">
-        <v>2</v>
-      </c>
-      <c r="G6" s="60">
+      <c r="F6" s="59">
+        <v>2</v>
+      </c>
+      <c r="G6" s="59">
         <v>2</v>
       </c>
       <c r="H6" s="34">
@@ -1382,10 +1390,10 @@
       <c r="I6" s="34">
         <v>2</v>
       </c>
-      <c r="J6" s="60">
-        <v>2</v>
-      </c>
-      <c r="K6" s="60">
+      <c r="J6" s="59">
+        <v>2</v>
+      </c>
+      <c r="K6" s="59">
         <v>2</v>
       </c>
       <c r="L6" s="27"/>
@@ -1403,10 +1411,10 @@
       <c r="A7" s="30">
         <v>1</v>
       </c>
-      <c r="B7" s="75">
+      <c r="B7" s="74">
         <v>42317</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="54" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="32">
@@ -1415,10 +1423,10 @@
       <c r="E7" s="32">
         <v>2</v>
       </c>
-      <c r="F7" s="61">
-        <v>2</v>
-      </c>
-      <c r="G7" s="61">
+      <c r="F7" s="60">
+        <v>2</v>
+      </c>
+      <c r="G7" s="60">
         <v>2</v>
       </c>
       <c r="H7" s="34">
@@ -1427,10 +1435,10 @@
       <c r="I7" s="34">
         <v>2</v>
       </c>
-      <c r="J7" s="61">
-        <v>2</v>
-      </c>
-      <c r="K7" s="61">
+      <c r="J7" s="60">
+        <v>2</v>
+      </c>
+      <c r="K7" s="60">
         <v>2</v>
       </c>
       <c r="L7" s="27"/>
@@ -1448,10 +1456,10 @@
       <c r="A8" s="30">
         <v>1</v>
       </c>
-      <c r="B8" s="75">
+      <c r="B8" s="74">
         <v>42317</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="54" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="32">
@@ -1460,18 +1468,18 @@
       <c r="E8" s="32">
         <v>0.5</v>
       </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
       <c r="H8" s="34"/>
       <c r="I8" s="34"/>
-      <c r="J8" s="61">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="61">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="63"/>
-      <c r="M8" s="63"/>
+      <c r="J8" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
       <c r="N8" s="36">
         <f t="shared" ref="N8" si="4">D8+F8+H8+J8+L8</f>
         <v>1</v>
@@ -1485,10 +1493,10 @@
       <c r="A9" s="30">
         <v>1</v>
       </c>
-      <c r="B9" s="75">
+      <c r="B9" s="74">
         <v>42319</v>
       </c>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="54" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="32">
@@ -1497,10 +1505,10 @@
       <c r="E9" s="32">
         <v>3.5</v>
       </c>
-      <c r="F9" s="61">
-        <v>2</v>
-      </c>
-      <c r="G9" s="61">
+      <c r="F9" s="60">
+        <v>2</v>
+      </c>
+      <c r="G9" s="60">
         <v>3.5</v>
       </c>
       <c r="H9" s="34">
@@ -1509,10 +1517,10 @@
       <c r="I9" s="34">
         <v>3.5</v>
       </c>
-      <c r="J9" s="61">
-        <v>2</v>
-      </c>
-      <c r="K9" s="61">
+      <c r="J9" s="60">
+        <v>2</v>
+      </c>
+      <c r="K9" s="60">
         <v>3.5</v>
       </c>
       <c r="L9" s="35"/>
@@ -1530,70 +1538,70 @@
       <c r="A10" s="38">
         <v>1</v>
       </c>
-      <c r="B10" s="76">
+      <c r="B10" s="75">
         <v>42323</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="40">
+      <c r="D10" s="39">
         <v>0.25</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="39">
         <v>0.25</v>
       </c>
-      <c r="F10" s="62">
+      <c r="F10" s="61">
         <v>0.25</v>
       </c>
-      <c r="G10" s="62">
+      <c r="G10" s="61">
         <v>0.25</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="41">
         <v>0.25</v>
       </c>
-      <c r="I10" s="42">
+      <c r="I10" s="41">
         <v>0.25</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="40">
         <v>0.25</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="40">
         <v>0.25</v>
       </c>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="44">
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="43">
         <f>D10+F10+H10+J10+L10</f>
         <v>1</v>
       </c>
-      <c r="O10" s="45">
+      <c r="O10" s="44">
         <f>E10+G10+I10+K10+M10</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="105" t="s">
+      <c r="A11" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="104" t="s">
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="104"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="95">
+      <c r="K11" s="103"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="94">
         <f>SUM(N6:N10)</f>
         <v>26</v>
       </c>
-      <c r="O11" s="95">
+      <c r="O11" s="94">
         <f>SUM(O6:O10)</f>
         <v>32</v>
       </c>
@@ -1602,10 +1610,10 @@
       <c r="A12" s="23">
         <v>2</v>
       </c>
-      <c r="B12" s="74">
+      <c r="B12" s="73">
         <v>42324</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="56" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="24">
@@ -1644,43 +1652,43 @@
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="64">
-        <v>2</v>
-      </c>
-      <c r="B13" s="77">
+      <c r="A13" s="63">
+        <v>2</v>
+      </c>
+      <c r="B13" s="76">
         <v>42324</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="66">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="66">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="67">
-        <v>1</v>
-      </c>
-      <c r="G13" s="67">
-        <v>1</v>
-      </c>
-      <c r="H13" s="68">
-        <v>0.5</v>
-      </c>
-      <c r="I13" s="68">
-        <v>0.5</v>
-      </c>
-      <c r="J13" s="67">
-        <v>0.5</v>
-      </c>
-      <c r="K13" s="67">
-        <v>0.5</v>
-      </c>
-      <c r="L13" s="63">
-        <v>0.5</v>
-      </c>
-      <c r="M13" s="63">
+      <c r="D13" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="66">
+        <v>1</v>
+      </c>
+      <c r="G13" s="66">
+        <v>1</v>
+      </c>
+      <c r="H13" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="62">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="62">
         <v>0.5</v>
       </c>
       <c r="N13" s="36">
@@ -1693,41 +1701,41 @@
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="64">
-        <v>2</v>
-      </c>
-      <c r="B14" s="77">
+      <c r="A14" s="63">
+        <v>2</v>
+      </c>
+      <c r="B14" s="76">
         <v>42324</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="66">
-        <v>1</v>
-      </c>
-      <c r="E14" s="66">
+      <c r="D14" s="65">
+        <v>1</v>
+      </c>
+      <c r="E14" s="65">
         <v>1.5</v>
       </c>
-      <c r="F14" s="67">
-        <v>1</v>
-      </c>
-      <c r="G14" s="67">
+      <c r="F14" s="66">
+        <v>1</v>
+      </c>
+      <c r="G14" s="66">
         <v>1.5</v>
       </c>
-      <c r="H14" s="68">
-        <v>1</v>
-      </c>
-      <c r="I14" s="68">
+      <c r="H14" s="67">
+        <v>1</v>
+      </c>
+      <c r="I14" s="67">
         <v>1.5</v>
       </c>
-      <c r="J14" s="67">
-        <v>1</v>
-      </c>
-      <c r="K14" s="67">
+      <c r="J14" s="66">
+        <v>1</v>
+      </c>
+      <c r="K14" s="66">
         <v>1.5</v>
       </c>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
       <c r="N14" s="36">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -1741,26 +1749,26 @@
       <c r="A15" s="30">
         <v>2</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="92" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="32">
         <v>0.25</v>
       </c>
-      <c r="E15" s="66">
+      <c r="E15" s="65">
         <v>0.25</v>
       </c>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
       <c r="N15" s="36">
         <f t="shared" ref="N15:N16" si="8">D15+F15+H15+J15+L15</f>
         <v>0.25</v>
@@ -1774,38 +1782,38 @@
       <c r="A16" s="30">
         <v>2</v>
       </c>
-      <c r="B16" s="75">
+      <c r="B16" s="74">
         <v>42326</v>
       </c>
-      <c r="C16" s="93" t="s">
+      <c r="C16" s="92" t="s">
         <v>59</v>
       </c>
       <c r="D16" s="32">
         <v>0.5</v>
       </c>
-      <c r="E16" s="66">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="67">
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="67">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="68">
-        <v>0.5</v>
-      </c>
-      <c r="I16" s="68">
-        <v>0.5</v>
-      </c>
-      <c r="J16" s="67">
-        <v>0.5</v>
-      </c>
-      <c r="K16" s="67">
-        <v>0.5</v>
-      </c>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
+      <c r="E16" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
       <c r="N16" s="36">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -1819,38 +1827,38 @@
       <c r="A17" s="30">
         <v>2</v>
       </c>
-      <c r="B17" s="75">
+      <c r="B17" s="74">
         <v>42326</v>
       </c>
-      <c r="C17" s="101" t="s">
+      <c r="C17" s="99" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="32">
         <v>0.5</v>
       </c>
-      <c r="E17" s="66">
+      <c r="E17" s="65">
         <v>0.25</v>
       </c>
-      <c r="F17" s="67">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="67">
+      <c r="F17" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="66">
         <v>0.25</v>
       </c>
-      <c r="H17" s="68">
-        <v>0.5</v>
-      </c>
-      <c r="I17" s="68">
+      <c r="H17" s="67">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="67">
         <v>0.25</v>
       </c>
-      <c r="J17" s="67">
-        <v>0.5</v>
-      </c>
-      <c r="K17" s="67">
+      <c r="J17" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="66">
         <v>0.25</v>
       </c>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="62"/>
       <c r="N17" s="36">
         <f t="shared" ref="N17:N19" si="9">D17+F17+H17+J17+L17</f>
         <v>2</v>
@@ -1864,10 +1872,10 @@
       <c r="A18" s="30">
         <v>2</v>
       </c>
-      <c r="B18" s="75">
+      <c r="B18" s="74">
         <v>42326</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="54" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="32">
@@ -1909,10 +1917,10 @@
       <c r="A19" s="30">
         <v>2</v>
       </c>
-      <c r="B19" s="75">
+      <c r="B19" s="74">
         <v>42327</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="54" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="32">
@@ -1950,16 +1958,16 @@
       <c r="A20" s="30">
         <v>2</v>
       </c>
-      <c r="B20" s="75">
+      <c r="B20" s="74">
         <v>42330</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="54" t="s">
         <v>56</v>
       </c>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
       <c r="H20" s="34"/>
       <c r="I20" s="34"/>
       <c r="J20" s="33">
@@ -1983,38 +1991,38 @@
       <c r="A21" s="30">
         <v>2</v>
       </c>
-      <c r="B21" s="75">
+      <c r="B21" s="74">
         <v>42330</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="40">
+      <c r="D21" s="39">
         <v>0.25</v>
       </c>
-      <c r="E21" s="40">
+      <c r="E21" s="39">
         <v>0.25</v>
       </c>
-      <c r="F21" s="62">
+      <c r="F21" s="61">
         <v>0.25</v>
       </c>
-      <c r="G21" s="62">
+      <c r="G21" s="61">
         <v>0.25</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="41">
         <v>0.25</v>
       </c>
-      <c r="I21" s="42">
+      <c r="I21" s="41">
         <v>0.25</v>
       </c>
-      <c r="J21" s="41">
+      <c r="J21" s="40">
         <v>0.25</v>
       </c>
-      <c r="K21" s="41">
+      <c r="K21" s="40">
         <v>0.25</v>
       </c>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
       <c r="N21" s="36">
         <f t="shared" si="11"/>
         <v>1</v>
@@ -2025,28 +2033,28 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="105" t="s">
+      <c r="A22" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="104" t="s">
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="104"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="95">
+      <c r="K22" s="103"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="94">
         <f>SUM(N12:N21)</f>
         <v>35.25</v>
       </c>
-      <c r="O22" s="95">
+      <c r="O22" s="94">
         <f>SUM(O12:O21)</f>
         <v>38.25</v>
       </c>
@@ -2055,16 +2063,16 @@
       <c r="A23" s="30">
         <v>3</v>
       </c>
-      <c r="B23" s="75">
+      <c r="B23" s="74">
         <v>42331</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="47">
-        <v>2</v>
-      </c>
-      <c r="E23" s="47">
+      <c r="D23" s="46">
+        <v>2</v>
+      </c>
+      <c r="E23" s="46">
         <v>2</v>
       </c>
       <c r="F23" s="37">
@@ -2073,10 +2081,10 @@
       <c r="G23" s="37">
         <v>2</v>
       </c>
-      <c r="H23" s="48">
-        <v>2</v>
-      </c>
-      <c r="I23" s="48">
+      <c r="H23" s="47">
+        <v>2</v>
+      </c>
+      <c r="I23" s="47">
         <v>2</v>
       </c>
       <c r="J23" s="37">
@@ -2085,8 +2093,8 @@
       <c r="K23" s="37">
         <v>2</v>
       </c>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
       <c r="N23" s="28">
         <f t="shared" ref="N23" si="13">D23+F23+H23+J23+L23</f>
         <v>8</v>
@@ -2100,16 +2108,16 @@
       <c r="A24" s="30">
         <v>3</v>
       </c>
-      <c r="B24" s="75">
+      <c r="B24" s="74">
         <v>42331</v>
       </c>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="47">
+      <c r="D24" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="46">
         <v>0.5</v>
       </c>
       <c r="F24" s="37">
@@ -2118,10 +2126,10 @@
       <c r="G24" s="37">
         <v>1</v>
       </c>
-      <c r="H24" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I24" s="48">
+      <c r="H24" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I24" s="47">
         <v>0.5</v>
       </c>
       <c r="J24" s="37">
@@ -2130,8 +2138,8 @@
       <c r="K24" s="37">
         <v>0.5</v>
       </c>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
       <c r="N24" s="36">
         <f t="shared" ref="N24" si="15">D24+F24+H24+J24+L24</f>
         <v>2.5</v>
@@ -2145,16 +2153,16 @@
       <c r="A25" s="30">
         <v>3</v>
       </c>
-      <c r="B25" s="75">
+      <c r="B25" s="74">
         <v>42331</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="47">
-        <v>1</v>
-      </c>
-      <c r="E25" s="47">
+      <c r="D25" s="46">
+        <v>1</v>
+      </c>
+      <c r="E25" s="46">
         <v>1</v>
       </c>
       <c r="F25" s="37">
@@ -2163,10 +2171,10 @@
       <c r="G25" s="37">
         <v>1</v>
       </c>
-      <c r="H25" s="48">
-        <v>1</v>
-      </c>
-      <c r="I25" s="48">
+      <c r="H25" s="47">
+        <v>1</v>
+      </c>
+      <c r="I25" s="47">
         <v>1</v>
       </c>
       <c r="J25" s="37">
@@ -2175,8 +2183,8 @@
       <c r="K25" s="37">
         <v>1</v>
       </c>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
       <c r="N25" s="36">
         <f t="shared" ref="N25:N26" si="17">D25+F25+H25+J25+L25</f>
         <v>4</v>
@@ -2190,16 +2198,16 @@
       <c r="A26" s="30">
         <v>3</v>
       </c>
-      <c r="B26" s="75">
+      <c r="B26" s="74">
         <v>42333</v>
       </c>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E26" s="47">
+      <c r="D26" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="46">
         <v>0.5</v>
       </c>
       <c r="F26" s="37">
@@ -2208,10 +2216,10 @@
       <c r="G26" s="37">
         <v>1</v>
       </c>
-      <c r="H26" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I26" s="48">
+      <c r="H26" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I26" s="47">
         <v>0.5</v>
       </c>
       <c r="J26" s="37">
@@ -2220,8 +2228,8 @@
       <c r="K26" s="37">
         <v>0.5</v>
       </c>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
       <c r="N26" s="36">
         <f t="shared" si="17"/>
         <v>2.5</v>
@@ -2235,26 +2243,26 @@
       <c r="A27" s="30">
         <v>3</v>
       </c>
-      <c r="B27" s="75">
+      <c r="B27" s="74">
         <v>42333</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
       <c r="J27" s="37">
         <v>0.5</v>
       </c>
       <c r="K27" s="37">
         <v>0.5</v>
       </c>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58"/>
       <c r="N27" s="36">
         <f t="shared" ref="N27:N34" si="19">D27+F27+H27+J27+L27</f>
         <v>0.5</v>
@@ -2268,26 +2276,26 @@
       <c r="A28" s="30">
         <v>3</v>
       </c>
-      <c r="B28" s="75">
+      <c r="B28" s="74">
         <v>42331</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="91">
+      <c r="D28" s="90">
         <v>0.25</v>
       </c>
-      <c r="E28" s="47">
+      <c r="E28" s="46">
         <v>0.25</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
       <c r="J28" s="37"/>
       <c r="K28" s="37"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
       <c r="N28" s="36">
         <f t="shared" ref="N28:N29" si="21">D28+F28+H28+J28+L28</f>
         <v>0.25</v>
@@ -2301,26 +2309,26 @@
       <c r="A29" s="30">
         <v>3</v>
       </c>
-      <c r="B29" s="75">
+      <c r="B29" s="74">
         <v>42331</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="91">
+      <c r="D29" s="90">
         <v>0.25</v>
       </c>
-      <c r="E29" s="47">
+      <c r="E29" s="46">
         <v>0.25</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
       <c r="J29" s="37"/>
       <c r="K29" s="37"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
       <c r="N29" s="36">
         <f t="shared" si="21"/>
         <v>0.25</v>
@@ -2334,16 +2342,16 @@
       <c r="A30" s="30">
         <v>3</v>
       </c>
-      <c r="B30" s="75">
+      <c r="B30" s="74">
         <v>42333</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="47">
-        <v>2</v>
-      </c>
-      <c r="E30" s="47">
+      <c r="D30" s="46">
+        <v>2</v>
+      </c>
+      <c r="E30" s="46">
         <v>2</v>
       </c>
       <c r="F30" s="37">
@@ -2352,10 +2360,10 @@
       <c r="G30" s="37">
         <v>2</v>
       </c>
-      <c r="H30" s="48">
-        <v>2</v>
-      </c>
-      <c r="I30" s="48">
+      <c r="H30" s="47">
+        <v>2</v>
+      </c>
+      <c r="I30" s="47">
         <v>2</v>
       </c>
       <c r="J30" s="37">
@@ -2364,8 +2372,8 @@
       <c r="K30" s="37">
         <v>2</v>
       </c>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
       <c r="N30" s="36">
         <f t="shared" ref="N30" si="23">D30+F30+H30+J30+L30</f>
         <v>8</v>
@@ -2379,16 +2387,16 @@
       <c r="A31" s="30">
         <v>3</v>
       </c>
-      <c r="B31" s="75">
+      <c r="B31" s="74">
         <v>42333</v>
       </c>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="47">
-        <v>2</v>
-      </c>
-      <c r="E31" s="47">
+      <c r="D31" s="46">
+        <v>2</v>
+      </c>
+      <c r="E31" s="46">
         <v>2</v>
       </c>
       <c r="F31" s="37">
@@ -2397,10 +2405,10 @@
       <c r="G31" s="37">
         <v>2</v>
       </c>
-      <c r="H31" s="48">
-        <v>2</v>
-      </c>
-      <c r="I31" s="48">
+      <c r="H31" s="47">
+        <v>2</v>
+      </c>
+      <c r="I31" s="47">
         <v>2</v>
       </c>
       <c r="J31" s="37">
@@ -2409,8 +2417,8 @@
       <c r="K31" s="37">
         <v>2</v>
       </c>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46"/>
+      <c r="L31" s="45"/>
+      <c r="M31" s="45"/>
       <c r="N31" s="36">
         <f t="shared" si="19"/>
         <v>8</v>
@@ -2424,30 +2432,30 @@
       <c r="A32" s="30">
         <v>3</v>
       </c>
-      <c r="B32" s="75">
+      <c r="B32" s="74">
         <v>42333</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="47">
-        <v>1</v>
-      </c>
-      <c r="E32" s="47">
+      <c r="D32" s="46">
+        <v>1</v>
+      </c>
+      <c r="E32" s="46">
         <v>1</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
-      <c r="H32" s="48">
-        <v>1</v>
-      </c>
-      <c r="I32" s="48">
+      <c r="H32" s="47">
+        <v>1</v>
+      </c>
+      <c r="I32" s="47">
         <v>1</v>
       </c>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
-      <c r="L32" s="98"/>
-      <c r="M32" s="98"/>
+      <c r="L32" s="97"/>
+      <c r="M32" s="97"/>
       <c r="N32" s="36">
         <f t="shared" si="19"/>
         <v>2</v>
@@ -2461,26 +2469,26 @@
       <c r="A33" s="30">
         <v>3</v>
       </c>
-      <c r="B33" s="75">
+      <c r="B33" s="74">
         <v>42334</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="47">
-        <v>1</v>
-      </c>
-      <c r="E33" s="47">
+      <c r="D33" s="46">
+        <v>1</v>
+      </c>
+      <c r="E33" s="46">
         <v>1</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="48"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
       <c r="J33" s="37"/>
       <c r="K33" s="37"/>
-      <c r="L33" s="49"/>
-      <c r="M33" s="49"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
       <c r="N33" s="36">
         <f t="shared" si="19"/>
         <v>1</v>
@@ -2491,25 +2499,25 @@
       </c>
     </row>
     <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="81">
+      <c r="A34" s="80">
         <v>3</v>
       </c>
-      <c r="B34" s="82">
+      <c r="B34" s="81">
         <v>42334</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="86"/>
-      <c r="M34" s="86"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="89"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="85"/>
+      <c r="M34" s="85"/>
       <c r="N34" s="36">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -2523,70 +2531,70 @@
       <c r="A35" s="38">
         <v>3</v>
       </c>
-      <c r="B35" s="76">
+      <c r="B35" s="75">
         <v>42337</v>
       </c>
-      <c r="C35" s="69" t="s">
+      <c r="C35" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="40">
+      <c r="D35" s="39">
         <v>0.25</v>
       </c>
-      <c r="E35" s="40">
+      <c r="E35" s="39">
         <v>0.25</v>
       </c>
-      <c r="F35" s="62">
+      <c r="F35" s="61">
         <v>0.25</v>
       </c>
-      <c r="G35" s="62">
+      <c r="G35" s="61">
         <v>0.25</v>
       </c>
-      <c r="H35" s="42">
+      <c r="H35" s="41">
         <v>0.25</v>
       </c>
-      <c r="I35" s="42">
+      <c r="I35" s="41">
         <v>0.25</v>
       </c>
-      <c r="J35" s="41">
+      <c r="J35" s="40">
         <v>0.25</v>
       </c>
-      <c r="K35" s="41">
+      <c r="K35" s="40">
         <v>0.25</v>
       </c>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="44">
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="43">
         <f t="shared" ref="N35:O35" si="25">D35+F35+H35+J35+L35</f>
         <v>1</v>
       </c>
-      <c r="O35" s="45">
+      <c r="O35" s="44">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="105" t="s">
+      <c r="A36" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="105"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="104" t="s">
+      <c r="B36" s="102"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="K36" s="104"/>
-      <c r="L36" s="94"/>
-      <c r="M36" s="94"/>
-      <c r="N36" s="95">
+      <c r="K36" s="103"/>
+      <c r="L36" s="93"/>
+      <c r="M36" s="93"/>
+      <c r="N36" s="94">
         <f>SUM(N23:N35)</f>
         <v>38</v>
       </c>
-      <c r="O36" s="95">
+      <c r="O36" s="94">
         <f>SUM(O23:O35)</f>
         <v>38</v>
       </c>
@@ -2595,16 +2603,16 @@
       <c r="A37" s="30">
         <v>4</v>
       </c>
-      <c r="B37" s="75">
+      <c r="B37" s="74">
         <v>42338</v>
       </c>
       <c r="C37" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E37" s="47">
+      <c r="D37" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="46">
         <v>0.5</v>
       </c>
       <c r="F37" s="37">
@@ -2613,10 +2621,10 @@
       <c r="G37" s="37">
         <v>0.5</v>
       </c>
-      <c r="H37" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I37" s="48">
+      <c r="H37" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I37" s="47">
         <v>0.5</v>
       </c>
       <c r="J37" s="37">
@@ -2625,8 +2633,8 @@
       <c r="K37" s="37">
         <v>3</v>
       </c>
-      <c r="L37" s="58"/>
-      <c r="M37" s="58"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
       <c r="N37" s="36">
         <f t="shared" ref="N37" si="26">D37+F37+H37+J37+L37</f>
         <v>2</v>
@@ -2640,30 +2648,30 @@
       <c r="A38" s="30">
         <v>4</v>
       </c>
-      <c r="B38" s="75">
+      <c r="B38" s="74">
         <v>42338</v>
       </c>
       <c r="C38" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="46"/>
       <c r="F38" s="37">
         <v>2</v>
       </c>
       <c r="G38" s="37">
         <v>2</v>
       </c>
-      <c r="H38" s="48"/>
-      <c r="I38" s="48"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
       <c r="J38" s="37">
         <v>2</v>
       </c>
       <c r="K38" s="37">
         <v>3</v>
       </c>
-      <c r="L38" s="102"/>
-      <c r="M38" s="102"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="100"/>
       <c r="N38" s="36">
         <f t="shared" ref="N38:N46" si="28">D38+F38+H38+J38+L38</f>
         <v>4</v>
@@ -2677,30 +2685,30 @@
       <c r="A39" s="30">
         <v>4</v>
       </c>
-      <c r="B39" s="75">
+      <c r="B39" s="74">
         <v>42338</v>
       </c>
       <c r="C39" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="47">
-        <v>2</v>
-      </c>
-      <c r="E39" s="47">
+      <c r="D39" s="46">
+        <v>2</v>
+      </c>
+      <c r="E39" s="46">
         <v>2.5</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
-      <c r="H39" s="48">
-        <v>2</v>
-      </c>
-      <c r="I39" s="48">
+      <c r="H39" s="47">
+        <v>2</v>
+      </c>
+      <c r="I39" s="47">
         <v>2</v>
       </c>
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
-      <c r="L39" s="102"/>
-      <c r="M39" s="102"/>
+      <c r="L39" s="100"/>
+      <c r="M39" s="100"/>
       <c r="N39" s="36">
         <f t="shared" ref="N39" si="30">D39+F39+H39+J39+L39</f>
         <v>4</v>
@@ -2714,16 +2722,16 @@
       <c r="A40" s="30">
         <v>4</v>
       </c>
-      <c r="B40" s="75">
+      <c r="B40" s="74">
         <v>42340</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="C40" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="47">
-        <v>1</v>
-      </c>
-      <c r="E40" s="47">
+      <c r="D40" s="46">
+        <v>1</v>
+      </c>
+      <c r="E40" s="46">
         <v>1</v>
       </c>
       <c r="F40" s="37">
@@ -2732,10 +2740,10 @@
       <c r="G40" s="37">
         <v>1</v>
       </c>
-      <c r="H40" s="48">
-        <v>1</v>
-      </c>
-      <c r="I40" s="48">
+      <c r="H40" s="47">
+        <v>1</v>
+      </c>
+      <c r="I40" s="47">
         <v>1</v>
       </c>
       <c r="J40" s="37">
@@ -2744,8 +2752,8 @@
       <c r="K40" s="37">
         <v>1</v>
       </c>
-      <c r="L40" s="49"/>
-      <c r="M40" s="49"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
       <c r="N40" s="36">
         <f t="shared" si="28"/>
         <v>4</v>
@@ -2759,16 +2767,16 @@
       <c r="A41" s="30">
         <v>4</v>
       </c>
-      <c r="B41" s="75">
+      <c r="B41" s="74">
         <v>42340</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E41" s="47">
+      <c r="D41" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="46">
         <v>0.5</v>
       </c>
       <c r="F41" s="37">
@@ -2777,10 +2785,10 @@
       <c r="G41" s="37">
         <v>1</v>
       </c>
-      <c r="H41" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I41" s="48">
+      <c r="H41" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="47">
         <v>0.5</v>
       </c>
       <c r="J41" s="37">
@@ -2789,8 +2797,8 @@
       <c r="K41" s="37">
         <v>0.5</v>
       </c>
-      <c r="L41" s="49"/>
-      <c r="M41" s="49"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
       <c r="N41" s="36">
         <f t="shared" si="28"/>
         <v>2.5</v>
@@ -2804,16 +2812,16 @@
       <c r="A42" s="30">
         <v>4</v>
       </c>
-      <c r="B42" s="75">
+      <c r="B42" s="74">
         <v>42340</v>
       </c>
-      <c r="C42" s="55" t="s">
+      <c r="C42" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="D42" s="47">
-        <v>1</v>
-      </c>
-      <c r="E42" s="47">
+      <c r="D42" s="46">
+        <v>1</v>
+      </c>
+      <c r="E42" s="46">
         <v>1.5</v>
       </c>
       <c r="F42" s="37">
@@ -2822,10 +2830,10 @@
       <c r="G42" s="37">
         <v>1.5</v>
       </c>
-      <c r="H42" s="48">
-        <v>1</v>
-      </c>
-      <c r="I42" s="48">
+      <c r="H42" s="47">
+        <v>1</v>
+      </c>
+      <c r="I42" s="47">
         <v>1.5</v>
       </c>
       <c r="J42" s="37">
@@ -2834,8 +2842,8 @@
       <c r="K42" s="37">
         <v>2</v>
       </c>
-      <c r="L42" s="49"/>
-      <c r="M42" s="49"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
       <c r="N42" s="36">
         <f t="shared" si="28"/>
         <v>5</v>
@@ -2849,16 +2857,16 @@
       <c r="A43" s="30">
         <v>4</v>
       </c>
-      <c r="B43" s="75">
+      <c r="B43" s="74">
         <v>42341</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="D43" s="47">
+      <c r="D43" s="46">
         <v>1.5</v>
       </c>
-      <c r="E43" s="47">
+      <c r="E43" s="46">
         <v>3</v>
       </c>
       <c r="F43" s="37">
@@ -2867,10 +2875,10 @@
       <c r="G43" s="37">
         <v>3</v>
       </c>
-      <c r="H43" s="48">
+      <c r="H43" s="47">
         <v>1.5</v>
       </c>
-      <c r="I43" s="48">
+      <c r="I43" s="47">
         <v>1</v>
       </c>
       <c r="J43" s="37">
@@ -2879,8 +2887,8 @@
       <c r="K43" s="37">
         <v>1.5</v>
       </c>
-      <c r="L43" s="49"/>
-      <c r="M43" s="49"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
       <c r="N43" s="36">
         <f t="shared" si="28"/>
         <v>6</v>
@@ -2894,16 +2902,16 @@
       <c r="A44" s="30">
         <v>4</v>
       </c>
-      <c r="B44" s="75">
+      <c r="B44" s="74">
         <v>42342</v>
       </c>
-      <c r="C44" s="55" t="s">
+      <c r="C44" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="47">
-        <v>1</v>
-      </c>
-      <c r="E44" s="47">
+      <c r="D44" s="46">
+        <v>1</v>
+      </c>
+      <c r="E44" s="46">
         <v>2.5</v>
       </c>
       <c r="F44" s="37">
@@ -2912,10 +2920,10 @@
       <c r="G44" s="37">
         <v>1</v>
       </c>
-      <c r="H44" s="48">
-        <v>1</v>
-      </c>
-      <c r="I44" s="48">
+      <c r="H44" s="47">
+        <v>1</v>
+      </c>
+      <c r="I44" s="47">
         <v>0</v>
       </c>
       <c r="J44" s="37">
@@ -2924,8 +2932,8 @@
       <c r="K44" s="37">
         <v>0.5</v>
       </c>
-      <c r="L44" s="49"/>
-      <c r="M44" s="49"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
       <c r="N44" s="36">
         <f t="shared" si="28"/>
         <v>4</v>
@@ -2939,26 +2947,26 @@
       <c r="A45" s="30">
         <v>4</v>
       </c>
-      <c r="B45" s="75">
+      <c r="B45" s="74">
         <v>42342</v>
       </c>
       <c r="C45" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D45" s="47">
+      <c r="D45" s="46">
         <v>0.25</v>
       </c>
-      <c r="E45" s="47">
+      <c r="E45" s="46">
         <v>0.25</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="48"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
       <c r="J45" s="37"/>
       <c r="K45" s="37"/>
-      <c r="L45" s="49"/>
-      <c r="M45" s="49"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
       <c r="N45" s="36">
         <f t="shared" si="28"/>
         <v>0.25</v>
@@ -2969,21 +2977,21 @@
       </c>
     </row>
     <row r="46" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="81">
+      <c r="A46" s="80">
         <v>4</v>
       </c>
-      <c r="B46" s="82"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
-      <c r="H46" s="90"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="87"/>
-      <c r="K46" s="87"/>
-      <c r="L46" s="86"/>
-      <c r="M46" s="86"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="89"/>
+      <c r="J46" s="86"/>
+      <c r="K46" s="86"/>
+      <c r="L46" s="85"/>
+      <c r="M46" s="85"/>
       <c r="N46" s="36">
         <f t="shared" si="28"/>
         <v>0</v>
@@ -2997,70 +3005,70 @@
       <c r="A47" s="38">
         <v>4</v>
       </c>
-      <c r="B47" s="76">
+      <c r="B47" s="75">
         <v>42344</v>
       </c>
-      <c r="C47" s="69" t="s">
+      <c r="C47" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="40">
+      <c r="D47" s="39">
         <v>0.25</v>
       </c>
-      <c r="E47" s="40">
+      <c r="E47" s="39">
         <v>0.3</v>
       </c>
-      <c r="F47" s="62">
+      <c r="F47" s="61">
         <v>0.25</v>
       </c>
-      <c r="G47" s="62">
+      <c r="G47" s="61">
         <v>0.3</v>
       </c>
-      <c r="H47" s="42">
+      <c r="H47" s="41">
         <v>0.25</v>
       </c>
-      <c r="I47" s="42">
+      <c r="I47" s="41">
         <v>0.3</v>
       </c>
-      <c r="J47" s="41">
+      <c r="J47" s="40">
         <v>0.25</v>
       </c>
-      <c r="K47" s="41">
+      <c r="K47" s="40">
         <v>0.3</v>
       </c>
-      <c r="L47" s="50"/>
-      <c r="M47" s="50"/>
-      <c r="N47" s="44">
+      <c r="L47" s="49"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="43">
         <f>D47+F47+H47+J47+L47</f>
         <v>1</v>
       </c>
-      <c r="O47" s="45">
+      <c r="O47" s="44">
         <f>E47+G47+I47+K47+M47</f>
         <v>1.2</v>
       </c>
     </row>
     <row r="48" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="105" t="s">
+      <c r="A48" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="105"/>
-      <c r="C48" s="105"/>
-      <c r="D48" s="105"/>
-      <c r="E48" s="105"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="105"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="105"/>
-      <c r="J48" s="104" t="s">
+      <c r="B48" s="102"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="102"/>
+      <c r="E48" s="102"/>
+      <c r="F48" s="102"/>
+      <c r="G48" s="102"/>
+      <c r="H48" s="102"/>
+      <c r="I48" s="102"/>
+      <c r="J48" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="K48" s="104"/>
-      <c r="L48" s="94"/>
-      <c r="M48" s="94"/>
-      <c r="N48" s="95">
+      <c r="K48" s="103"/>
+      <c r="L48" s="93"/>
+      <c r="M48" s="93"/>
+      <c r="N48" s="94">
         <f>SUM(N37:N47)</f>
         <v>32.75</v>
       </c>
-      <c r="O48" s="95">
+      <c r="O48" s="94">
         <f>SUM(O37:O47)</f>
         <v>40.950000000000003</v>
       </c>
@@ -3069,30 +3077,30 @@
       <c r="A49" s="23">
         <v>5</v>
       </c>
-      <c r="B49" s="74">
+      <c r="B49" s="73">
         <v>42345</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="47">
-        <v>0</v>
-      </c>
-      <c r="E49" s="47"/>
+      <c r="D49" s="46">
+        <v>0</v>
+      </c>
+      <c r="E49" s="46"/>
       <c r="F49" s="37">
         <v>0</v>
       </c>
       <c r="G49" s="37"/>
-      <c r="H49" s="48">
-        <v>0</v>
-      </c>
-      <c r="I49" s="48"/>
+      <c r="H49" s="47">
+        <v>0</v>
+      </c>
+      <c r="I49" s="47"/>
       <c r="J49" s="37">
         <v>0</v>
       </c>
       <c r="K49" s="29"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="46"/>
+      <c r="L49" s="45"/>
+      <c r="M49" s="45"/>
       <c r="N49" s="28">
         <f t="shared" ref="N49" si="32">D49+F49+H49+J49+L49</f>
         <v>0</v>
@@ -3106,53 +3114,61 @@
       <c r="A50" s="30">
         <v>5</v>
       </c>
-      <c r="B50" s="75">
+      <c r="B50" s="74">
         <v>42345</v>
       </c>
-      <c r="C50" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="47">
-        <v>2</v>
-      </c>
-      <c r="E50" s="47"/>
+      <c r="C50" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="46">
+        <v>2</v>
+      </c>
+      <c r="E50" s="46">
+        <v>2</v>
+      </c>
       <c r="F50" s="37">
         <v>2</v>
       </c>
-      <c r="G50" s="37"/>
-      <c r="H50" s="48">
-        <v>2</v>
-      </c>
-      <c r="I50" s="48"/>
+      <c r="G50" s="37">
+        <v>2</v>
+      </c>
+      <c r="H50" s="47">
+        <v>2</v>
+      </c>
+      <c r="I50" s="47">
+        <v>2</v>
+      </c>
       <c r="J50" s="37">
         <v>2</v>
       </c>
-      <c r="K50" s="37"/>
-      <c r="L50" s="49"/>
-      <c r="M50" s="49"/>
+      <c r="K50" s="37">
+        <v>2</v>
+      </c>
+      <c r="L50" s="48"/>
+      <c r="M50" s="48"/>
       <c r="N50" s="36">
         <f t="shared" ref="N50" si="34">D50+F50+H50+J50+L50</f>
         <v>8</v>
       </c>
       <c r="O50" s="37">
         <f t="shared" ref="O50" si="35">E50+G50+I50+K50+M50</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="30">
         <v>5</v>
       </c>
-      <c r="B51" s="75">
+      <c r="B51" s="74">
         <v>42345</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="C51" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="47">
-        <v>2</v>
-      </c>
-      <c r="E51" s="47">
+      <c r="D51" s="46">
+        <v>2</v>
+      </c>
+      <c r="E51" s="46">
         <v>2</v>
       </c>
       <c r="F51" s="37">
@@ -3161,10 +3177,10 @@
       <c r="G51" s="37">
         <v>2</v>
       </c>
-      <c r="H51" s="48">
-        <v>2</v>
-      </c>
-      <c r="I51" s="48">
+      <c r="H51" s="47">
+        <v>2</v>
+      </c>
+      <c r="I51" s="47">
         <v>2</v>
       </c>
       <c r="J51" s="37">
@@ -3173,14 +3189,14 @@
       <c r="K51" s="37">
         <v>2</v>
       </c>
-      <c r="L51" s="49"/>
-      <c r="M51" s="49"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="48"/>
       <c r="N51" s="36">
-        <f t="shared" ref="N51:N59" si="36">D51+F51+H51+J51+L51</f>
+        <f t="shared" ref="N51:N61" si="36">D51+F51+H51+J51+L51</f>
         <v>8</v>
       </c>
       <c r="O51" s="37">
-        <f t="shared" ref="O51:O62" si="37">E51+G51+I51+K51+M51</f>
+        <f t="shared" ref="O51:O61" si="37">E51+G51+I51+K51+M51</f>
         <v>8</v>
       </c>
     </row>
@@ -3188,548 +3204,675 @@
       <c r="A52" s="30">
         <v>5</v>
       </c>
-      <c r="B52" s="75">
-        <v>42345</v>
-      </c>
-      <c r="C52" s="55"/>
-      <c r="D52" s="47"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="37"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="49"/>
-      <c r="M52" s="49"/>
+      <c r="B52" s="74">
+        <v>42346</v>
+      </c>
+      <c r="C52" s="54" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52" s="46">
+        <v>3</v>
+      </c>
+      <c r="E52" s="46">
+        <v>3</v>
+      </c>
+      <c r="F52" s="37">
+        <v>3</v>
+      </c>
+      <c r="G52" s="37">
+        <v>3</v>
+      </c>
+      <c r="H52" s="47">
+        <v>3</v>
+      </c>
+      <c r="I52" s="47">
+        <v>3</v>
+      </c>
+      <c r="J52" s="37">
+        <v>3</v>
+      </c>
+      <c r="K52" s="37">
+        <v>3</v>
+      </c>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
       <c r="N52" s="36">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O52" s="37">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="30">
         <v>5</v>
       </c>
-      <c r="B53" s="75">
-        <v>42346</v>
-      </c>
-      <c r="C53" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="D53" s="47">
-        <v>3</v>
-      </c>
-      <c r="E53" s="47"/>
+      <c r="B53" s="74">
+        <v>42347</v>
+      </c>
+      <c r="C53" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="46">
+        <v>1</v>
+      </c>
+      <c r="E53" s="46">
+        <v>1</v>
+      </c>
       <c r="F53" s="37">
-        <v>3</v>
-      </c>
-      <c r="G53" s="37"/>
-      <c r="H53" s="48">
-        <v>3</v>
-      </c>
-      <c r="I53" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="G53" s="37">
+        <v>1</v>
+      </c>
+      <c r="H53" s="47">
+        <v>1</v>
+      </c>
+      <c r="I53" s="47">
+        <v>1</v>
+      </c>
       <c r="J53" s="37">
-        <v>3</v>
-      </c>
-      <c r="K53" s="37"/>
-      <c r="L53" s="49"/>
-      <c r="M53" s="49"/>
+        <v>1</v>
+      </c>
+      <c r="K53" s="37">
+        <v>1</v>
+      </c>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
       <c r="N53" s="36">
         <f t="shared" si="36"/>
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="O53" s="37">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="30">
         <v>5</v>
       </c>
-      <c r="B54" s="75">
-        <v>42347</v>
-      </c>
-      <c r="C54" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" s="47">
-        <v>1</v>
-      </c>
-      <c r="E54" s="47">
-        <v>1</v>
-      </c>
-      <c r="F54" s="37">
-        <v>1</v>
-      </c>
-      <c r="G54" s="37">
-        <v>1</v>
-      </c>
-      <c r="H54" s="48">
-        <v>1</v>
-      </c>
-      <c r="I54" s="48">
-        <v>1</v>
-      </c>
-      <c r="J54" s="37">
-        <v>1</v>
-      </c>
-      <c r="K54" s="37">
-        <v>1</v>
-      </c>
-      <c r="L54" s="49"/>
-      <c r="M54" s="49"/>
+      <c r="B54" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" s="46">
+        <v>2</v>
+      </c>
+      <c r="E54" s="46">
+        <v>3</v>
+      </c>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="37"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
       <c r="N54" s="36">
         <f t="shared" si="36"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O54" s="37">
         <f t="shared" si="37"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="30"/>
-      <c r="B55" s="75" t="s">
+      <c r="A55" s="30">
+        <v>5</v>
+      </c>
+      <c r="B55" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="D55" s="47">
-        <v>2</v>
-      </c>
-      <c r="E55" s="47"/>
+      <c r="C55" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="46"/>
+      <c r="E55" s="46"/>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="48"/>
-      <c r="J55" s="37"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="49"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="36"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="37">
+        <v>2</v>
+      </c>
+      <c r="K55" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="L55" s="48"/>
+      <c r="M55" s="48"/>
+      <c r="N55" s="36">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
       <c r="O55" s="37">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="56" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="30"/>
-      <c r="B56" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="C56" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="D56" s="47"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="48"/>
-      <c r="J56" s="37">
-        <v>2</v>
-      </c>
+      <c r="A56" s="30">
+        <v>5</v>
+      </c>
+      <c r="B56" s="74">
+        <v>42347</v>
+      </c>
+      <c r="C56" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" s="46"/>
+      <c r="E56" s="46"/>
+      <c r="F56" s="37">
+        <v>2</v>
+      </c>
+      <c r="G56" s="37">
+        <v>2.5</v>
+      </c>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="37"/>
       <c r="K56" s="37"/>
-      <c r="L56" s="49"/>
-      <c r="M56" s="49"/>
-      <c r="N56" s="36"/>
+      <c r="L56" s="48"/>
+      <c r="M56" s="48"/>
+      <c r="N56" s="36">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
       <c r="O56" s="37">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="57" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="30">
         <v>5</v>
       </c>
-      <c r="B57" s="75">
-        <v>42347</v>
-      </c>
-      <c r="C57" s="55" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" s="47"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="37">
-        <v>2</v>
-      </c>
+      <c r="B57" s="74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="46"/>
+      <c r="E57" s="46"/>
+      <c r="F57" s="37"/>
       <c r="G57" s="37"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="48"/>
+      <c r="H57" s="47">
+        <v>2</v>
+      </c>
+      <c r="I57" s="47">
+        <v>3</v>
+      </c>
       <c r="J57" s="37"/>
       <c r="K57" s="37"/>
-      <c r="L57" s="49"/>
-      <c r="M57" s="49"/>
+      <c r="L57" s="48"/>
+      <c r="M57" s="48"/>
       <c r="N57" s="36">
         <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="O57" s="37">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="30"/>
-      <c r="B58" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="D58" s="47"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="48">
-        <v>2</v>
-      </c>
-      <c r="I58" s="48"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="49"/>
-      <c r="M58" s="49"/>
-      <c r="N58" s="36"/>
+      <c r="A58" s="30">
+        <v>5</v>
+      </c>
+      <c r="B58" s="74">
+        <v>42347</v>
+      </c>
+      <c r="C58" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="E58" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="F58" s="37">
+        <v>1</v>
+      </c>
+      <c r="G58" s="37">
+        <v>1</v>
+      </c>
+      <c r="H58" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I58" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="J58" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K58" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="L58" s="48"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="36">
+        <f t="shared" si="36"/>
+        <v>2.5</v>
+      </c>
       <c r="O58" s="37">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="59" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="30">
         <v>5</v>
       </c>
-      <c r="B59" s="75">
-        <v>42347</v>
-      </c>
-      <c r="C59" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="D59" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E59" s="47">
-        <v>0.5</v>
+      <c r="B59" s="74">
+        <v>42348</v>
+      </c>
+      <c r="C59" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D59" s="46">
+        <v>2</v>
+      </c>
+      <c r="E59" s="46">
+        <v>0</v>
       </c>
       <c r="F59" s="37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59" s="37">
-        <v>1</v>
-      </c>
-      <c r="H59" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I59" s="48">
-        <v>0.5</v>
+        <v>2</v>
+      </c>
+      <c r="H59" s="47">
+        <v>2</v>
+      </c>
+      <c r="I59" s="47">
+        <v>0</v>
       </c>
       <c r="J59" s="37">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K59" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="L59" s="49"/>
-      <c r="M59" s="49"/>
+        <v>2</v>
+      </c>
+      <c r="L59" s="48"/>
+      <c r="M59" s="48"/>
       <c r="N59" s="36">
         <f t="shared" si="36"/>
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="O59" s="37">
         <f t="shared" si="37"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="30"/>
-      <c r="B60" s="75">
-        <v>42348</v>
-      </c>
-      <c r="C60" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="D60" s="47">
-        <v>2</v>
-      </c>
-      <c r="E60" s="47"/>
-      <c r="F60" s="37">
-        <v>2</v>
-      </c>
-      <c r="G60" s="37">
-        <v>2</v>
-      </c>
-      <c r="H60" s="48">
-        <v>2</v>
-      </c>
-      <c r="I60" s="48"/>
-      <c r="J60" s="37">
-        <v>2</v>
-      </c>
-      <c r="K60" s="37">
-        <v>2</v>
-      </c>
-      <c r="L60" s="49"/>
-      <c r="M60" s="49"/>
-      <c r="N60" s="36"/>
+      <c r="A60" s="80">
+        <v>5</v>
+      </c>
+      <c r="B60" s="81">
+        <v>42349</v>
+      </c>
+      <c r="C60" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" s="88">
+        <v>1</v>
+      </c>
+      <c r="E60" s="88">
+        <v>1</v>
+      </c>
+      <c r="F60" s="86">
+        <v>1</v>
+      </c>
+      <c r="G60" s="86">
+        <v>1</v>
+      </c>
+      <c r="H60" s="89">
+        <v>1</v>
+      </c>
+      <c r="I60" s="89">
+        <v>1</v>
+      </c>
+      <c r="J60" s="86">
+        <v>1</v>
+      </c>
+      <c r="K60" s="86">
+        <v>1</v>
+      </c>
+      <c r="L60" s="85"/>
+      <c r="M60" s="85"/>
+      <c r="N60" s="36">
+        <f t="shared" si="36"/>
+        <v>4</v>
+      </c>
       <c r="O60" s="37">
         <f t="shared" si="37"/>
         <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="81"/>
-      <c r="B61" s="82">
+      <c r="A61" s="80">
+        <v>5</v>
+      </c>
+      <c r="B61" s="81">
         <v>42349</v>
       </c>
-      <c r="C61" s="88" t="s">
-        <v>89</v>
-      </c>
-      <c r="D61" s="89">
-        <v>1</v>
-      </c>
-      <c r="E61" s="89"/>
-      <c r="F61" s="87">
-        <v>1</v>
-      </c>
-      <c r="G61" s="87"/>
-      <c r="H61" s="90">
-        <v>1</v>
-      </c>
-      <c r="I61" s="90"/>
-      <c r="J61" s="87">
-        <v>1</v>
-      </c>
-      <c r="K61" s="87"/>
-      <c r="L61" s="86"/>
-      <c r="M61" s="86"/>
-      <c r="N61" s="36"/>
+      <c r="C61" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="D61" s="88">
+        <v>0.3</v>
+      </c>
+      <c r="E61" s="88">
+        <v>3</v>
+      </c>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="H61" s="89"/>
+      <c r="I61" s="89"/>
+      <c r="J61" s="86"/>
+      <c r="K61" s="86"/>
+      <c r="L61" s="85"/>
+      <c r="M61" s="85"/>
+      <c r="N61" s="36">
+        <f t="shared" si="36"/>
+        <v>0.3</v>
+      </c>
       <c r="O61" s="37">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="81">
+      <c r="A62" s="38">
         <v>5</v>
       </c>
-      <c r="B62" s="82">
-        <v>42349</v>
-      </c>
-      <c r="C62" s="88" t="s">
-        <v>88</v>
-      </c>
-      <c r="D62" s="89">
-        <v>0.3</v>
-      </c>
-      <c r="E62" s="89"/>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="H62" s="90"/>
-      <c r="I62" s="90"/>
-      <c r="J62" s="87"/>
-      <c r="K62" s="87"/>
-      <c r="L62" s="86"/>
-      <c r="M62" s="86"/>
-      <c r="N62" s="36">
-        <f t="shared" ref="N62:O63" si="38">D62+F62+H62+J62+L62</f>
-        <v>0.3</v>
-      </c>
-      <c r="O62" s="37">
-        <f t="shared" si="37"/>
-        <v>0</v>
+      <c r="B62" s="75">
+        <v>42351</v>
+      </c>
+      <c r="C62" s="68" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="39">
+        <v>0.25</v>
+      </c>
+      <c r="E62" s="39">
+        <v>0.25</v>
+      </c>
+      <c r="F62" s="61">
+        <v>0.25</v>
+      </c>
+      <c r="G62" s="61">
+        <v>0.25</v>
+      </c>
+      <c r="H62" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="I62" s="41">
+        <v>0.25</v>
+      </c>
+      <c r="J62" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="K62" s="40">
+        <v>0.25</v>
+      </c>
+      <c r="L62" s="49"/>
+      <c r="M62" s="49"/>
+      <c r="N62" s="43">
+        <f t="shared" ref="N62:O62" si="38">D62+F62+H62+J62+L62</f>
+        <v>1</v>
+      </c>
+      <c r="O62" s="44">
+        <f t="shared" si="38"/>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="38">
-        <v>5</v>
-      </c>
-      <c r="B63" s="76">
-        <v>42351</v>
-      </c>
-      <c r="C63" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="D63" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="E63" s="40"/>
-      <c r="F63" s="62">
-        <v>0.25</v>
-      </c>
-      <c r="G63" s="62"/>
-      <c r="H63" s="42">
-        <v>0.25</v>
-      </c>
-      <c r="I63" s="42"/>
-      <c r="J63" s="41">
-        <v>0.25</v>
-      </c>
-      <c r="K63" s="41"/>
-      <c r="L63" s="50"/>
-      <c r="M63" s="50"/>
-      <c r="N63" s="44">
-        <f t="shared" si="38"/>
-        <v>1</v>
-      </c>
-      <c r="O63" s="45">
-        <f t="shared" si="38"/>
-        <v>0</v>
+      <c r="A63" s="102" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" s="102"/>
+      <c r="C63" s="102"/>
+      <c r="D63" s="102"/>
+      <c r="E63" s="102"/>
+      <c r="F63" s="102"/>
+      <c r="G63" s="102"/>
+      <c r="H63" s="102"/>
+      <c r="I63" s="102"/>
+      <c r="J63" s="103" t="s">
+        <v>46</v>
+      </c>
+      <c r="K63" s="103"/>
+      <c r="L63" s="93"/>
+      <c r="M63" s="93"/>
+      <c r="N63" s="94">
+        <f>SUM(N49:N62)</f>
+        <v>55.8</v>
+      </c>
+      <c r="O63" s="94">
+        <f>SUM(O49:O62)</f>
+        <v>57.5</v>
       </c>
     </row>
     <row r="64" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="105" t="s">
-        <v>40</v>
-      </c>
-      <c r="B64" s="105"/>
-      <c r="C64" s="105"/>
-      <c r="D64" s="105"/>
-      <c r="E64" s="105"/>
-      <c r="F64" s="105"/>
-      <c r="G64" s="105"/>
-      <c r="H64" s="105"/>
-      <c r="I64" s="105"/>
-      <c r="J64" s="104" t="s">
-        <v>46</v>
-      </c>
-      <c r="K64" s="104"/>
-      <c r="L64" s="94"/>
-      <c r="M64" s="94"/>
-      <c r="N64" s="95">
-        <f>SUM(N49:N63)</f>
-        <v>37.799999999999997</v>
-      </c>
-      <c r="O64" s="95">
-        <f>SUM(O49:O63)</f>
-        <v>18.5</v>
+      <c r="A64" s="63">
+        <v>6</v>
+      </c>
+      <c r="B64" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="D64" s="46">
+        <v>2</v>
+      </c>
+      <c r="E64" s="46">
+        <v>0</v>
+      </c>
+      <c r="F64" s="37">
+        <v>2</v>
+      </c>
+      <c r="G64" s="37">
+        <v>3</v>
+      </c>
+      <c r="H64" s="47">
+        <v>2</v>
+      </c>
+      <c r="I64" s="47">
+        <v>3</v>
+      </c>
+      <c r="J64" s="37">
+        <v>2</v>
+      </c>
+      <c r="K64" s="96">
+        <v>3</v>
+      </c>
+      <c r="L64" s="97"/>
+      <c r="M64" s="97"/>
+      <c r="N64" s="28">
+        <f t="shared" ref="N64:O76" si="39">D64+F64+H64+J64+L64</f>
+        <v>8</v>
+      </c>
+      <c r="O64" s="37">
+        <f t="shared" si="39"/>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="23">
+      <c r="A65" s="63">
         <v>6</v>
       </c>
-      <c r="B65" s="74">
-        <v>42352</v>
-      </c>
-      <c r="C65" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="D65" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E65" s="47"/>
+      <c r="B65" s="76" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" s="46">
+        <v>2</v>
+      </c>
+      <c r="E65" s="46">
+        <v>0</v>
+      </c>
       <c r="F65" s="37">
-        <v>1</v>
-      </c>
-      <c r="G65" s="37"/>
-      <c r="H65" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I65" s="48"/>
+        <v>2</v>
+      </c>
+      <c r="G65" s="37">
+        <v>2</v>
+      </c>
+      <c r="H65" s="47">
+        <v>2</v>
+      </c>
+      <c r="I65" s="47">
+        <v>2</v>
+      </c>
       <c r="J65" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K65" s="29"/>
-      <c r="L65" s="46"/>
-      <c r="M65" s="46"/>
-      <c r="N65" s="28">
-        <f t="shared" ref="N65:O77" si="39">D65+F65+H65+J65+L65</f>
-        <v>2.5</v>
-      </c>
-      <c r="O65" s="29">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="64"/>
-      <c r="B66" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="C66" s="103" t="s">
-        <v>80</v>
-      </c>
-      <c r="D66" s="47">
-        <v>2</v>
-      </c>
-      <c r="E66" s="47"/>
-      <c r="F66" s="37">
-        <v>2</v>
-      </c>
-      <c r="G66" s="37"/>
-      <c r="H66" s="48">
-        <v>2</v>
-      </c>
-      <c r="I66" s="48"/>
-      <c r="J66" s="37">
-        <v>2</v>
-      </c>
-      <c r="K66" s="97"/>
-      <c r="L66" s="98"/>
-      <c r="M66" s="98"/>
-      <c r="N66" s="28">
+        <v>2</v>
+      </c>
+      <c r="K65" s="96">
+        <v>2</v>
+      </c>
+      <c r="L65" s="97"/>
+      <c r="M65" s="97"/>
+      <c r="N65" s="36">
         <f t="shared" si="39"/>
         <v>8</v>
       </c>
+      <c r="O65" s="37">
+        <f t="shared" si="39"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="63">
+        <v>6</v>
+      </c>
+      <c r="B66" s="76">
+        <v>42353</v>
+      </c>
+      <c r="C66" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" s="46">
+        <v>1</v>
+      </c>
+      <c r="E66" s="46">
+        <v>0</v>
+      </c>
+      <c r="F66" s="37">
+        <v>1</v>
+      </c>
+      <c r="G66" s="37">
+        <v>0</v>
+      </c>
+      <c r="H66" s="47">
+        <v>1</v>
+      </c>
+      <c r="I66" s="47">
+        <v>0</v>
+      </c>
+      <c r="J66" s="37">
+        <v>1</v>
+      </c>
+      <c r="K66" s="96">
+        <v>0</v>
+      </c>
+      <c r="L66" s="97"/>
+      <c r="M66" s="97"/>
+      <c r="N66" s="36">
+        <f t="shared" si="39"/>
+        <v>4</v>
+      </c>
       <c r="O66" s="37">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="64"/>
-      <c r="B67" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67" s="103" t="s">
-        <v>81</v>
-      </c>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="37"/>
-      <c r="K67" s="97"/>
-      <c r="L67" s="98"/>
-      <c r="M67" s="98"/>
-      <c r="N67" s="28">
+      <c r="A67" s="63">
+        <v>6</v>
+      </c>
+      <c r="B67" s="76">
+        <v>42353</v>
+      </c>
+      <c r="C67" s="101" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" s="46">
+        <v>2</v>
+      </c>
+      <c r="E67" s="46">
+        <v>1.5</v>
+      </c>
+      <c r="F67" s="37">
+        <v>2</v>
+      </c>
+      <c r="G67" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="H67" s="47">
+        <v>2</v>
+      </c>
+      <c r="I67" s="47">
+        <v>1.5</v>
+      </c>
+      <c r="J67" s="37">
+        <v>2</v>
+      </c>
+      <c r="K67" s="96">
+        <v>1.5</v>
+      </c>
+      <c r="L67" s="97"/>
+      <c r="M67" s="97"/>
+      <c r="N67" s="36">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O67" s="37">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="64"/>
-      <c r="B68" s="77" t="s">
-        <v>78</v>
-      </c>
-      <c r="C68" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="37"/>
+      <c r="A68" s="63">
+        <v>6</v>
+      </c>
+      <c r="B68" s="76">
+        <v>42354</v>
+      </c>
+      <c r="C68" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="E68" s="46"/>
+      <c r="F68" s="37">
+        <v>1</v>
+      </c>
       <c r="G68" s="37"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="97"/>
-      <c r="L68" s="98"/>
-      <c r="M68" s="98"/>
-      <c r="N68" s="28">
+      <c r="H68" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I68" s="47"/>
+      <c r="J68" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K68" s="96"/>
+      <c r="L68" s="97"/>
+      <c r="M68" s="97"/>
+      <c r="N68" s="36">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="O68" s="37">
         <f t="shared" si="39"/>
@@ -3737,51 +3880,71 @@
       </c>
     </row>
     <row r="69" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="B69" s="77"/>
-      <c r="C69" s="103" t="s">
-        <v>83</v>
-      </c>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="97"/>
-      <c r="L69" s="98"/>
-      <c r="M69" s="98"/>
-      <c r="N69" s="28">
+      <c r="A69" s="63">
+        <v>6</v>
+      </c>
+      <c r="B69" s="76">
+        <v>42354</v>
+      </c>
+      <c r="C69" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" s="46">
+        <v>2</v>
+      </c>
+      <c r="E69" s="46">
+        <v>2</v>
+      </c>
+      <c r="F69" s="37">
+        <v>2</v>
+      </c>
+      <c r="G69" s="37">
+        <v>2</v>
+      </c>
+      <c r="H69" s="47">
+        <v>2</v>
+      </c>
+      <c r="I69" s="47">
+        <v>2</v>
+      </c>
+      <c r="J69" s="37">
+        <v>2</v>
+      </c>
+      <c r="K69" s="96">
+        <v>2</v>
+      </c>
+      <c r="L69" s="97"/>
+      <c r="M69" s="97"/>
+      <c r="N69" s="36">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O69" s="37">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="B70" s="77"/>
-      <c r="C70" s="103" t="s">
-        <v>86</v>
-      </c>
-      <c r="D70" s="47"/>
-      <c r="E70" s="47"/>
+      <c r="A70" s="63">
+        <v>6</v>
+      </c>
+      <c r="B70" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="101" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" s="46"/>
+      <c r="E70" s="46"/>
       <c r="F70" s="37"/>
       <c r="G70" s="37"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="48"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="47"/>
       <c r="J70" s="37"/>
-      <c r="K70" s="97"/>
-      <c r="L70" s="98"/>
-      <c r="M70" s="98"/>
-      <c r="N70" s="28">
+      <c r="K70" s="96"/>
+      <c r="L70" s="97"/>
+      <c r="M70" s="97"/>
+      <c r="N70" s="36">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -3791,24 +3954,26 @@
       </c>
     </row>
     <row r="71" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="64"/>
-      <c r="B71" s="77" t="s">
+      <c r="A71" s="63">
+        <v>6</v>
+      </c>
+      <c r="B71" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="C71" s="103" t="s">
-        <v>72</v>
-      </c>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
+      <c r="C71" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" s="46"/>
+      <c r="E71" s="46"/>
       <c r="F71" s="37"/>
       <c r="G71" s="37"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="48"/>
+      <c r="H71" s="47"/>
+      <c r="I71" s="47"/>
       <c r="J71" s="37"/>
-      <c r="K71" s="97"/>
-      <c r="L71" s="98"/>
-      <c r="M71" s="98"/>
-      <c r="N71" s="28">
+      <c r="K71" s="96"/>
+      <c r="L71" s="97"/>
+      <c r="M71" s="97"/>
+      <c r="N71" s="36">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
@@ -3818,36 +3983,26 @@
       </c>
     </row>
     <row r="72" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="64">
+      <c r="A72" s="63">
         <v>6</v>
       </c>
-      <c r="B72" s="77">
-        <v>42354</v>
-      </c>
-      <c r="C72" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="D72" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E72" s="47"/>
-      <c r="F72" s="37">
-        <v>1</v>
-      </c>
+      <c r="B72" s="76"/>
+      <c r="C72" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" s="46"/>
+      <c r="E72" s="46"/>
+      <c r="F72" s="37"/>
       <c r="G72" s="37"/>
-      <c r="H72" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I72" s="48"/>
-      <c r="J72" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K72" s="97"/>
-      <c r="L72" s="98"/>
-      <c r="M72" s="98"/>
-      <c r="N72" s="99">
-        <f t="shared" ref="N72:N78" si="40">D72+F72+H72+J72+L72</f>
-        <v>2.5</v>
+      <c r="H72" s="47"/>
+      <c r="I72" s="47"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="96"/>
+      <c r="L72" s="97"/>
+      <c r="M72" s="97"/>
+      <c r="N72" s="36">
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="O72" s="37">
         <f t="shared" si="39"/>
@@ -3855,28 +4010,36 @@
       </c>
     </row>
     <row r="73" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="64" t="s">
-        <v>84</v>
-      </c>
-      <c r="B73" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="C73" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="D73" s="47"/>
-      <c r="E73" s="47"/>
-      <c r="F73" s="37"/>
+      <c r="A73" s="63">
+        <v>6</v>
+      </c>
+      <c r="B73" s="76" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="D73" s="46">
+        <v>2</v>
+      </c>
+      <c r="E73" s="46"/>
+      <c r="F73" s="37">
+        <v>2</v>
+      </c>
       <c r="G73" s="37"/>
-      <c r="H73" s="48"/>
-      <c r="I73" s="48"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="97"/>
-      <c r="L73" s="98"/>
-      <c r="M73" s="98"/>
-      <c r="N73" s="28">
+      <c r="H73" s="47">
+        <v>2</v>
+      </c>
+      <c r="I73" s="47"/>
+      <c r="J73" s="37">
+        <v>2</v>
+      </c>
+      <c r="K73" s="96"/>
+      <c r="L73" s="97"/>
+      <c r="M73" s="97"/>
+      <c r="N73" s="36">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O73" s="37">
         <f t="shared" si="39"/>
@@ -3884,26 +4047,36 @@
       </c>
     </row>
     <row r="74" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="64" t="s">
-        <v>92</v>
-      </c>
-      <c r="B74" s="77"/>
-      <c r="C74" s="55" t="s">
+      <c r="A74" s="63">
+        <v>6</v>
+      </c>
+      <c r="B74" s="76">
+        <v>42355</v>
+      </c>
+      <c r="C74" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="D74" s="47"/>
-      <c r="E74" s="47"/>
-      <c r="F74" s="37"/>
+      <c r="D74" s="46">
+        <v>2</v>
+      </c>
+      <c r="E74" s="46"/>
+      <c r="F74" s="37">
+        <v>2</v>
+      </c>
       <c r="G74" s="37"/>
-      <c r="H74" s="48"/>
-      <c r="I74" s="48"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="97"/>
-      <c r="L74" s="98"/>
-      <c r="M74" s="98"/>
-      <c r="N74" s="28">
+      <c r="H74" s="47">
+        <v>2</v>
+      </c>
+      <c r="I74" s="47"/>
+      <c r="J74" s="37">
+        <v>2</v>
+      </c>
+      <c r="K74" s="96"/>
+      <c r="L74" s="97"/>
+      <c r="M74" s="97"/>
+      <c r="N74" s="36">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O74" s="37">
         <f t="shared" si="39"/>
@@ -3911,34 +4084,36 @@
       </c>
     </row>
     <row r="75" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="64"/>
-      <c r="B75" s="77" t="s">
-        <v>73</v>
-      </c>
-      <c r="C75" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="D75" s="47">
-        <v>2</v>
-      </c>
-      <c r="E75" s="47"/>
+      <c r="A75" s="63">
+        <v>6</v>
+      </c>
+      <c r="B75" s="76">
+        <v>42356</v>
+      </c>
+      <c r="C75" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" s="46">
+        <v>1</v>
+      </c>
+      <c r="E75" s="46"/>
       <c r="F75" s="37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75" s="37"/>
-      <c r="H75" s="48">
-        <v>2</v>
-      </c>
-      <c r="I75" s="48"/>
+      <c r="H75" s="47">
+        <v>1</v>
+      </c>
+      <c r="I75" s="47"/>
       <c r="J75" s="37">
-        <v>2</v>
-      </c>
-      <c r="K75" s="97"/>
-      <c r="L75" s="98"/>
-      <c r="M75" s="98"/>
-      <c r="N75" s="28">
+        <v>1</v>
+      </c>
+      <c r="K75" s="96"/>
+      <c r="L75" s="97"/>
+      <c r="M75" s="97"/>
+      <c r="N75" s="36">
         <f t="shared" si="39"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O75" s="37">
         <f t="shared" si="39"/>
@@ -3946,34 +4121,28 @@
       </c>
     </row>
     <row r="76" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="64"/>
-      <c r="B76" s="77">
-        <v>42355</v>
-      </c>
-      <c r="C76" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="D76" s="47">
-        <v>2</v>
-      </c>
-      <c r="E76" s="47"/>
-      <c r="F76" s="37">
-        <v>2</v>
-      </c>
-      <c r="G76" s="37"/>
-      <c r="H76" s="48">
-        <v>2</v>
-      </c>
-      <c r="I76" s="48"/>
-      <c r="J76" s="37">
-        <v>2</v>
-      </c>
-      <c r="K76" s="97"/>
-      <c r="L76" s="98"/>
-      <c r="M76" s="98"/>
-      <c r="N76" s="28">
-        <f t="shared" si="39"/>
-        <v>8</v>
+      <c r="A76" s="30">
+        <v>6</v>
+      </c>
+      <c r="B76" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="51"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="48"/>
+      <c r="M76" s="48"/>
+      <c r="N76" s="36">
+        <f t="shared" ref="N76" si="40">D76+F76+H76+J76+L76</f>
+        <v>0</v>
       </c>
       <c r="O76" s="37">
         <f t="shared" si="39"/>
@@ -3981,180 +4150,208 @@
       </c>
     </row>
     <row r="77" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="64"/>
-      <c r="B77" s="77">
-        <v>42356</v>
-      </c>
-      <c r="C77" s="55" t="s">
+      <c r="A77" s="102" t="s">
+        <v>41</v>
+      </c>
+      <c r="B77" s="102"/>
+      <c r="C77" s="102"/>
+      <c r="D77" s="102"/>
+      <c r="E77" s="102"/>
+      <c r="F77" s="102"/>
+      <c r="G77" s="102"/>
+      <c r="H77" s="102"/>
+      <c r="I77" s="102"/>
+      <c r="J77" s="102" t="s">
+        <v>47</v>
+      </c>
+      <c r="K77" s="103"/>
+      <c r="L77" s="93"/>
+      <c r="M77" s="93"/>
+      <c r="N77" s="94">
+        <f>SUM(N64:N76)</f>
+        <v>58.5</v>
+      </c>
+      <c r="O77" s="94">
+        <f>SUM(O64:O76)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" s="73">
+        <v>42380</v>
+      </c>
+      <c r="C78" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="E78" s="46"/>
+      <c r="F78" s="37">
+        <v>1</v>
+      </c>
+      <c r="G78" s="37"/>
+      <c r="H78" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I78" s="47"/>
+      <c r="J78" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K78" s="23"/>
+      <c r="L78" s="45"/>
+      <c r="M78" s="45"/>
+      <c r="N78" s="28">
+        <f t="shared" ref="N78:O93" si="41">D78+F78+H78+J78+L78</f>
+        <v>2.5</v>
+      </c>
+      <c r="O78" s="29">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="76">
+        <v>42380</v>
+      </c>
+      <c r="C79" s="101" t="s">
+        <v>102</v>
+      </c>
+      <c r="D79" s="46"/>
+      <c r="E79" s="46"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="47"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="37">
+        <v>2</v>
+      </c>
+      <c r="K79" s="63"/>
+      <c r="L79" s="97"/>
+      <c r="M79" s="97"/>
+      <c r="N79" s="28">
+        <f t="shared" si="41"/>
+        <v>2</v>
+      </c>
+      <c r="O79" s="37">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B80" s="76">
+        <v>42380</v>
+      </c>
+      <c r="C80" s="101" t="s">
         <v>94</v>
       </c>
-      <c r="D77" s="47">
-        <v>1</v>
-      </c>
-      <c r="E77" s="47"/>
-      <c r="F77" s="37">
-        <v>1</v>
-      </c>
-      <c r="G77" s="37"/>
-      <c r="H77" s="48">
-        <v>1</v>
-      </c>
-      <c r="I77" s="48"/>
-      <c r="J77" s="37">
-        <v>1</v>
-      </c>
-      <c r="K77" s="97"/>
-      <c r="L77" s="98"/>
-      <c r="M77" s="98"/>
-      <c r="N77" s="28">
-        <f t="shared" si="39"/>
-        <v>4</v>
-      </c>
-      <c r="O77" s="37">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="30">
-        <v>6</v>
-      </c>
-      <c r="B78" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="C78" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="D78" s="51"/>
-      <c r="E78" s="51"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="52"/>
-      <c r="I78" s="52"/>
-      <c r="J78" s="30"/>
-      <c r="K78" s="30"/>
-      <c r="L78" s="49"/>
-      <c r="M78" s="49"/>
-      <c r="N78" s="36">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="O78" s="37">
-        <f t="shared" ref="O72:O78" si="41">E78+G78+I78+K78+M78</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="105" t="s">
-        <v>41</v>
-      </c>
-      <c r="B79" s="105"/>
-      <c r="C79" s="105"/>
-      <c r="D79" s="105"/>
-      <c r="E79" s="105"/>
-      <c r="F79" s="105"/>
-      <c r="G79" s="105"/>
-      <c r="H79" s="105"/>
-      <c r="I79" s="105"/>
-      <c r="J79" s="105" t="s">
-        <v>47</v>
-      </c>
-      <c r="K79" s="104"/>
-      <c r="L79" s="94"/>
-      <c r="M79" s="94"/>
-      <c r="N79" s="95">
-        <f>SUM(N65:N78)</f>
-        <v>33</v>
-      </c>
-      <c r="O79" s="95">
-        <f>SUM(O65:O78)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="23" t="s">
+      <c r="D80" s="46">
+        <v>2</v>
+      </c>
+      <c r="E80" s="46"/>
+      <c r="F80" s="37">
+        <v>2</v>
+      </c>
+      <c r="G80" s="37"/>
+      <c r="H80" s="47">
+        <v>2</v>
+      </c>
+      <c r="I80" s="47"/>
+      <c r="J80" s="37">
+        <v>2</v>
+      </c>
+      <c r="K80" s="63"/>
+      <c r="L80" s="97"/>
+      <c r="M80" s="97"/>
+      <c r="N80" s="28">
+        <f t="shared" si="41"/>
         <v>8</v>
       </c>
-      <c r="B80" s="74">
-        <v>42380</v>
-      </c>
-      <c r="C80" s="92" t="s">
+      <c r="O80" s="37">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="74">
+        <v>42381</v>
+      </c>
+      <c r="C81" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="D80" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E80" s="47"/>
-      <c r="F80" s="37">
-        <v>1</v>
-      </c>
-      <c r="G80" s="37"/>
-      <c r="H80" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I80" s="48"/>
-      <c r="J80" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K80" s="23"/>
-      <c r="L80" s="46"/>
-      <c r="M80" s="46"/>
-      <c r="N80" s="28">
-        <f t="shared" ref="N80:O96" si="42">D80+F80+H80+J80+L80</f>
+      <c r="D81" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="E81" s="46"/>
+      <c r="F81" s="37">
+        <v>1</v>
+      </c>
+      <c r="G81" s="37"/>
+      <c r="H81" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I81" s="47"/>
+      <c r="J81" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K81" s="30"/>
+      <c r="L81" s="48"/>
+      <c r="M81" s="48"/>
+      <c r="N81" s="28">
+        <f t="shared" si="41"/>
         <v>2.5</v>
       </c>
-      <c r="O80" s="29">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="64"/>
-      <c r="B81" s="77"/>
-      <c r="C81" s="103" t="s">
-        <v>105</v>
-      </c>
-      <c r="D81" s="47"/>
-      <c r="E81" s="47"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="48"/>
-      <c r="I81" s="48"/>
-      <c r="J81" s="37"/>
-      <c r="K81" s="64"/>
-      <c r="L81" s="98"/>
-      <c r="M81" s="98"/>
-      <c r="N81" s="28">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
       <c r="O81" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="64"/>
-      <c r="B82" s="77"/>
-      <c r="C82" s="103" t="s">
-        <v>96</v>
-      </c>
-      <c r="D82" s="47"/>
-      <c r="E82" s="47"/>
-      <c r="F82" s="37"/>
+      <c r="A82" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="74">
+        <v>42381</v>
+      </c>
+      <c r="C82" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D82" s="46">
+        <v>5</v>
+      </c>
+      <c r="E82" s="46"/>
+      <c r="F82" s="37">
+        <v>5</v>
+      </c>
       <c r="G82" s="37"/>
-      <c r="H82" s="48"/>
-      <c r="I82" s="48"/>
-      <c r="J82" s="37"/>
-      <c r="K82" s="64"/>
-      <c r="L82" s="98"/>
-      <c r="M82" s="98"/>
+      <c r="H82" s="47">
+        <v>5</v>
+      </c>
+      <c r="I82" s="47"/>
+      <c r="J82" s="37">
+        <v>5</v>
+      </c>
+      <c r="K82" s="30"/>
+      <c r="L82" s="48"/>
+      <c r="M82" s="48"/>
       <c r="N82" s="28">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>20</v>
       </c>
       <c r="O82" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -4162,86 +4359,110 @@
       <c r="A83" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B83" s="75">
+      <c r="B83" s="74">
         <v>42381</v>
       </c>
-      <c r="C83" s="55" t="s">
+      <c r="C83" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D83" s="46">
+        <v>4</v>
+      </c>
+      <c r="E83" s="46"/>
+      <c r="F83" s="37">
+        <v>4</v>
+      </c>
+      <c r="G83" s="37"/>
+      <c r="H83" s="47">
+        <v>4</v>
+      </c>
+      <c r="I83" s="47"/>
+      <c r="J83" s="37">
+        <v>4</v>
+      </c>
+      <c r="K83" s="30"/>
+      <c r="L83" s="48"/>
+      <c r="M83" s="48"/>
+      <c r="N83" s="28">
+        <f t="shared" si="41"/>
+        <v>16</v>
+      </c>
+      <c r="O83" s="37">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="74">
+        <v>42382</v>
+      </c>
+      <c r="C84" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="D83" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E83" s="47"/>
-      <c r="F83" s="37">
-        <v>1</v>
-      </c>
-      <c r="G83" s="37"/>
-      <c r="H83" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I83" s="48"/>
-      <c r="J83" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K83" s="30"/>
-      <c r="L83" s="49"/>
-      <c r="M83" s="49"/>
-      <c r="N83" s="28">
-        <f t="shared" si="42"/>
+      <c r="D84" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="E84" s="46"/>
+      <c r="F84" s="37">
+        <v>1</v>
+      </c>
+      <c r="G84" s="37"/>
+      <c r="H84" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I84" s="47"/>
+      <c r="J84" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K84" s="30"/>
+      <c r="L84" s="48"/>
+      <c r="M84" s="48"/>
+      <c r="N84" s="28">
+        <f t="shared" si="41"/>
         <v>2.5</v>
       </c>
-      <c r="O83" s="37">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="30"/>
-      <c r="B84" s="75"/>
-      <c r="C84" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="D84" s="47"/>
-      <c r="E84" s="47"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="48"/>
-      <c r="I84" s="48"/>
-      <c r="J84" s="37"/>
-      <c r="K84" s="30"/>
-      <c r="L84" s="49"/>
-      <c r="M84" s="49"/>
-      <c r="N84" s="28">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
       <c r="O84" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="30"/>
-      <c r="B85" s="75"/>
-      <c r="C85" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="D85" s="47"/>
-      <c r="E85" s="47"/>
-      <c r="F85" s="37"/>
+      <c r="A85" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B85" s="74">
+        <v>42382</v>
+      </c>
+      <c r="C85" s="98" t="s">
+        <v>114</v>
+      </c>
+      <c r="D85" s="46">
+        <v>4</v>
+      </c>
+      <c r="E85" s="46"/>
+      <c r="F85" s="37">
+        <v>2</v>
+      </c>
       <c r="G85" s="37"/>
-      <c r="H85" s="48"/>
-      <c r="I85" s="48"/>
-      <c r="J85" s="37"/>
+      <c r="H85" s="47">
+        <v>2</v>
+      </c>
+      <c r="I85" s="47"/>
+      <c r="J85" s="37">
+        <v>2</v>
+      </c>
       <c r="K85" s="30"/>
-      <c r="L85" s="49"/>
-      <c r="M85" s="49"/>
+      <c r="L85" s="48"/>
+      <c r="M85" s="48"/>
       <c r="N85" s="28">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>10</v>
       </c>
       <c r="O85" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -4249,111 +4470,147 @@
       <c r="A86" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B86" s="75">
+      <c r="B86" s="74">
         <v>42382</v>
       </c>
-      <c r="C86" s="100" t="s">
+      <c r="C86" s="98" t="s">
+        <v>96</v>
+      </c>
+      <c r="D86" s="46">
+        <v>4</v>
+      </c>
+      <c r="E86" s="46"/>
+      <c r="F86" s="37">
+        <v>2</v>
+      </c>
+      <c r="G86" s="37"/>
+      <c r="H86" s="47">
+        <v>2</v>
+      </c>
+      <c r="I86" s="47"/>
+      <c r="J86" s="37">
+        <v>8</v>
+      </c>
+      <c r="K86" s="30"/>
+      <c r="L86" s="48"/>
+      <c r="M86" s="48"/>
+      <c r="N86" s="28">
+        <f t="shared" si="41"/>
+        <v>16</v>
+      </c>
+      <c r="O86" s="37">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="74">
+        <v>42382</v>
+      </c>
+      <c r="C87" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="D87" s="46">
+        <v>1</v>
+      </c>
+      <c r="E87" s="46"/>
+      <c r="F87" s="37">
+        <v>4</v>
+      </c>
+      <c r="G87" s="37"/>
+      <c r="H87" s="47">
+        <v>4</v>
+      </c>
+      <c r="I87" s="47"/>
+      <c r="J87" s="37">
+        <v>1</v>
+      </c>
+      <c r="K87" s="30"/>
+      <c r="L87" s="48"/>
+      <c r="M87" s="48"/>
+      <c r="N87" s="28">
+        <f t="shared" si="41"/>
+        <v>10</v>
+      </c>
+      <c r="O87" s="37">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B88" s="74">
+        <v>42383</v>
+      </c>
+      <c r="C88" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="D86" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E86" s="47"/>
-      <c r="F86" s="37">
-        <v>1</v>
-      </c>
-      <c r="G86" s="37"/>
-      <c r="H86" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I86" s="48"/>
-      <c r="J86" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K86" s="30"/>
-      <c r="L86" s="49"/>
-      <c r="M86" s="49"/>
-      <c r="N86" s="28">
-        <f t="shared" si="42"/>
+      <c r="D88" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="E88" s="46"/>
+      <c r="F88" s="37">
+        <v>1</v>
+      </c>
+      <c r="G88" s="37"/>
+      <c r="H88" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I88" s="47"/>
+      <c r="J88" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K88" s="30"/>
+      <c r="L88" s="48"/>
+      <c r="M88" s="48"/>
+      <c r="N88" s="28">
+        <f t="shared" si="41"/>
         <v>2.5</v>
       </c>
-      <c r="O86" s="37">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="30"/>
-      <c r="B87" s="75"/>
-      <c r="C87" s="100" t="s">
-        <v>117</v>
-      </c>
-      <c r="D87" s="47"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="48"/>
-      <c r="I87" s="48"/>
-      <c r="J87" s="37"/>
-      <c r="K87" s="30"/>
-      <c r="L87" s="49"/>
-      <c r="M87" s="49"/>
-      <c r="N87" s="28">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="O87" s="37">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="30"/>
-      <c r="B88" s="75"/>
-      <c r="C88" s="100" t="s">
+      <c r="O88" s="37">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A89" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="74">
+        <v>42383</v>
+      </c>
+      <c r="C89" s="98" t="s">
         <v>98</v>
       </c>
-      <c r="D88" s="47"/>
-      <c r="E88" s="47"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="48"/>
-      <c r="I88" s="48"/>
-      <c r="J88" s="37"/>
-      <c r="K88" s="30"/>
-      <c r="L88" s="49"/>
-      <c r="M88" s="49"/>
-      <c r="N88" s="28">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="O88" s="37">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="30"/>
-      <c r="B89" s="75"/>
-      <c r="C89" s="100" t="s">
-        <v>100</v>
-      </c>
-      <c r="D89" s="47"/>
-      <c r="E89" s="47"/>
-      <c r="F89" s="37"/>
+      <c r="D89" s="46">
+        <v>2</v>
+      </c>
+      <c r="E89" s="46"/>
+      <c r="F89" s="37">
+        <v>4</v>
+      </c>
       <c r="G89" s="37"/>
-      <c r="H89" s="48"/>
-      <c r="I89" s="48"/>
-      <c r="J89" s="37"/>
+      <c r="H89" s="47">
+        <v>2</v>
+      </c>
+      <c r="I89" s="47"/>
+      <c r="J89" s="37">
+        <v>4</v>
+      </c>
       <c r="K89" s="30"/>
-      <c r="L89" s="49"/>
-      <c r="M89" s="49"/>
+      <c r="L89" s="48"/>
+      <c r="M89" s="48"/>
       <c r="N89" s="28">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>12</v>
       </c>
       <c r="O89" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -4361,86 +4618,110 @@
       <c r="A90" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="75">
+      <c r="B90" s="74">
         <v>42383</v>
       </c>
-      <c r="C90" s="100" t="s">
+      <c r="C90" s="98" t="s">
+        <v>100</v>
+      </c>
+      <c r="D90" s="46">
+        <v>4</v>
+      </c>
+      <c r="E90" s="46"/>
+      <c r="F90" s="37">
+        <v>4</v>
+      </c>
+      <c r="G90" s="37"/>
+      <c r="H90" s="47">
+        <v>4</v>
+      </c>
+      <c r="I90" s="47"/>
+      <c r="J90" s="37">
+        <v>4</v>
+      </c>
+      <c r="K90" s="30"/>
+      <c r="L90" s="48"/>
+      <c r="M90" s="48"/>
+      <c r="N90" s="28">
+        <f t="shared" si="41"/>
+        <v>16</v>
+      </c>
+      <c r="O90" s="37">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B91" s="74">
+        <v>42384</v>
+      </c>
+      <c r="C91" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="D90" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E90" s="47"/>
-      <c r="F90" s="37">
-        <v>1</v>
-      </c>
-      <c r="G90" s="37"/>
-      <c r="H90" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I90" s="48"/>
-      <c r="J90" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K90" s="30"/>
-      <c r="L90" s="49"/>
-      <c r="M90" s="49"/>
-      <c r="N90" s="28">
-        <f t="shared" si="42"/>
+      <c r="D91" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="E91" s="46"/>
+      <c r="F91" s="37">
+        <v>1</v>
+      </c>
+      <c r="G91" s="37"/>
+      <c r="H91" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I91" s="47"/>
+      <c r="J91" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K91" s="30"/>
+      <c r="L91" s="48"/>
+      <c r="M91" s="48"/>
+      <c r="N91" s="28">
+        <f t="shared" si="41"/>
         <v>2.5</v>
       </c>
-      <c r="O90" s="37">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A91" s="30"/>
-      <c r="B91" s="75"/>
-      <c r="C91" s="100" t="s">
-        <v>101</v>
-      </c>
-      <c r="D91" s="47"/>
-      <c r="E91" s="47"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="48"/>
-      <c r="I91" s="48"/>
-      <c r="J91" s="37"/>
-      <c r="K91" s="30"/>
-      <c r="L91" s="49"/>
-      <c r="M91" s="49"/>
-      <c r="N91" s="28">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
       <c r="O91" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A92" s="30"/>
-      <c r="B92" s="75"/>
-      <c r="C92" s="100" t="s">
-        <v>103</v>
-      </c>
-      <c r="D92" s="47"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="48"/>
-      <c r="I92" s="48"/>
-      <c r="J92" s="37"/>
-      <c r="K92" s="30"/>
-      <c r="L92" s="49"/>
-      <c r="M92" s="49"/>
+      <c r="A92" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="74">
+        <v>42384</v>
+      </c>
+      <c r="C92" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="D92" s="88">
+        <v>6</v>
+      </c>
+      <c r="E92" s="88"/>
+      <c r="F92" s="86">
+        <v>4</v>
+      </c>
+      <c r="G92" s="86"/>
+      <c r="H92" s="89">
+        <v>4</v>
+      </c>
+      <c r="I92" s="89"/>
+      <c r="J92" s="86">
+        <v>4</v>
+      </c>
+      <c r="K92" s="80"/>
+      <c r="L92" s="85"/>
+      <c r="M92" s="85"/>
       <c r="N92" s="28">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>18</v>
       </c>
       <c r="O92" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
     </row>
@@ -4448,252 +4729,292 @@
       <c r="A93" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B93" s="75">
+      <c r="B93" s="74">
         <v>42384</v>
       </c>
-      <c r="C93" s="55" t="s">
+      <c r="C93" s="87" t="s">
+        <v>99</v>
+      </c>
+      <c r="D93" s="88">
+        <v>1</v>
+      </c>
+      <c r="E93" s="88"/>
+      <c r="F93" s="86">
+        <v>1</v>
+      </c>
+      <c r="G93" s="86"/>
+      <c r="H93" s="89">
+        <v>5</v>
+      </c>
+      <c r="I93" s="89"/>
+      <c r="J93" s="86">
+        <v>1</v>
+      </c>
+      <c r="K93" s="80"/>
+      <c r="L93" s="85"/>
+      <c r="M93" s="85"/>
+      <c r="N93" s="28">
+        <f t="shared" si="41"/>
+        <v>8</v>
+      </c>
+      <c r="O93" s="37">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="B94" s="81">
+        <v>42384</v>
+      </c>
+      <c r="C94" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="D94" s="83">
+        <v>2</v>
+      </c>
+      <c r="E94" s="83"/>
+      <c r="F94" s="80">
+        <v>2</v>
+      </c>
+      <c r="G94" s="80"/>
+      <c r="H94" s="84">
+        <v>2</v>
+      </c>
+      <c r="I94" s="84"/>
+      <c r="J94" s="80">
+        <v>2</v>
+      </c>
+      <c r="K94" s="80"/>
+      <c r="L94" s="85"/>
+      <c r="M94" s="85"/>
+      <c r="N94" s="110">
+        <f>D94+F94+H94+J94+L94</f>
+        <v>8</v>
+      </c>
+      <c r="O94" s="86">
+        <f>E94+G94+I94+K94+M94</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" s="112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B95" s="113">
+        <v>42384</v>
+      </c>
+      <c r="C95" s="111" t="s">
+        <v>121</v>
+      </c>
+      <c r="D95" s="83">
+        <v>1</v>
+      </c>
+      <c r="E95" s="83"/>
+      <c r="F95" s="80">
+        <v>1</v>
+      </c>
+      <c r="G95" s="80"/>
+      <c r="H95" s="84">
+        <v>1</v>
+      </c>
+      <c r="I95" s="84"/>
+      <c r="J95" s="80">
+        <v>1</v>
+      </c>
+      <c r="K95" s="80"/>
+      <c r="L95" s="85"/>
+      <c r="M95" s="85"/>
+      <c r="N95" s="110">
+        <f>D95+F95+H95+J95+L95</f>
+        <v>4</v>
+      </c>
+      <c r="O95" s="86">
+        <f>E95+G95+I95+K95+M95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" s="102" t="s">
+        <v>42</v>
+      </c>
+      <c r="B96" s="102"/>
+      <c r="C96" s="102"/>
+      <c r="D96" s="102"/>
+      <c r="E96" s="102"/>
+      <c r="F96" s="102"/>
+      <c r="G96" s="102"/>
+      <c r="H96" s="102"/>
+      <c r="I96" s="102"/>
+      <c r="J96" s="102" t="s">
+        <v>48</v>
+      </c>
+      <c r="K96" s="103"/>
+      <c r="L96" s="93"/>
+      <c r="M96" s="93"/>
+      <c r="N96" s="94">
+        <f>SUM(N78:N94)</f>
+        <v>156.5</v>
+      </c>
+      <c r="O96" s="94">
+        <f>SUM(O78:O94)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" s="73">
+        <v>42387</v>
+      </c>
+      <c r="C97" s="91" t="s">
         <v>59</v>
       </c>
-      <c r="D93" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E93" s="47"/>
-      <c r="F93" s="37">
-        <v>1</v>
-      </c>
-      <c r="G93" s="37"/>
-      <c r="H93" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I93" s="48"/>
-      <c r="J93" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K93" s="30"/>
-      <c r="L93" s="49"/>
-      <c r="M93" s="49"/>
-      <c r="N93" s="28">
+      <c r="D97" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="E97" s="46"/>
+      <c r="F97" s="37">
+        <v>1</v>
+      </c>
+      <c r="G97" s="37"/>
+      <c r="H97" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I97" s="47"/>
+      <c r="J97" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K97" s="23"/>
+      <c r="L97" s="45"/>
+      <c r="M97" s="45"/>
+      <c r="N97" s="28">
+        <f t="shared" ref="N97:O112" si="42">D97+F97+H97+J97+L97</f>
+        <v>2.5</v>
+      </c>
+      <c r="O97" s="29">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" s="76"/>
+      <c r="C98" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="D98" s="46"/>
+      <c r="E98" s="46"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="47"/>
+      <c r="I98" s="47"/>
+      <c r="J98" s="37"/>
+      <c r="K98" s="63"/>
+      <c r="L98" s="97"/>
+      <c r="M98" s="97"/>
+      <c r="N98" s="28">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O98" s="37">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" s="76"/>
+      <c r="C99" s="101" t="s">
+        <v>104</v>
+      </c>
+      <c r="D99" s="46"/>
+      <c r="E99" s="46"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="47"/>
+      <c r="I99" s="47"/>
+      <c r="J99" s="37"/>
+      <c r="K99" s="63"/>
+      <c r="L99" s="97"/>
+      <c r="M99" s="97"/>
+      <c r="N99" s="28">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O99" s="37">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" s="76"/>
+      <c r="C100" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="D100" s="46"/>
+      <c r="E100" s="46"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="47"/>
+      <c r="I100" s="47"/>
+      <c r="J100" s="37"/>
+      <c r="K100" s="63"/>
+      <c r="L100" s="97"/>
+      <c r="M100" s="97"/>
+      <c r="N100" s="28">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O100" s="37">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" s="74">
+        <v>42388</v>
+      </c>
+      <c r="C101" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D101" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="E101" s="46"/>
+      <c r="F101" s="37">
+        <v>1</v>
+      </c>
+      <c r="G101" s="37"/>
+      <c r="H101" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I101" s="47"/>
+      <c r="J101" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K101" s="30"/>
+      <c r="L101" s="48"/>
+      <c r="M101" s="48"/>
+      <c r="N101" s="28">
         <f t="shared" si="42"/>
         <v>2.5</v>
       </c>
-      <c r="O93" s="37">
+      <c r="O101" s="37">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A94" s="81"/>
-      <c r="B94" s="82"/>
-      <c r="C94" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="D94" s="89"/>
-      <c r="E94" s="89"/>
-      <c r="F94" s="87"/>
-      <c r="G94" s="87"/>
-      <c r="H94" s="90"/>
-      <c r="I94" s="90"/>
-      <c r="J94" s="87"/>
-      <c r="K94" s="81"/>
-      <c r="L94" s="86"/>
-      <c r="M94" s="86"/>
-      <c r="N94" s="28">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="O94" s="37">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A95" s="81"/>
-      <c r="B95" s="82"/>
-      <c r="C95" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="D95" s="89"/>
-      <c r="E95" s="89"/>
-      <c r="F95" s="87"/>
-      <c r="G95" s="87"/>
-      <c r="H95" s="90"/>
-      <c r="I95" s="90"/>
-      <c r="J95" s="87"/>
-      <c r="K95" s="81"/>
-      <c r="L95" s="86"/>
-      <c r="M95" s="86"/>
-      <c r="N95" s="28">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="O95" s="37">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A96" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="B96" s="76"/>
-      <c r="C96" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="D96" s="53"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="38"/>
-      <c r="G96" s="38"/>
-      <c r="H96" s="54"/>
-      <c r="I96" s="54"/>
-      <c r="J96" s="38"/>
-      <c r="K96" s="38"/>
-      <c r="L96" s="50"/>
-      <c r="M96" s="50"/>
-      <c r="N96" s="44">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="O96" s="45">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A97" s="105" t="s">
-        <v>42</v>
-      </c>
-      <c r="B97" s="105"/>
-      <c r="C97" s="105"/>
-      <c r="D97" s="105"/>
-      <c r="E97" s="105"/>
-      <c r="F97" s="105"/>
-      <c r="G97" s="105"/>
-      <c r="H97" s="105"/>
-      <c r="I97" s="105"/>
-      <c r="J97" s="105" t="s">
-        <v>48</v>
-      </c>
-      <c r="K97" s="104"/>
-      <c r="L97" s="94"/>
-      <c r="M97" s="94"/>
-      <c r="N97" s="95">
-        <f>SUM(N80:N96)</f>
-        <v>12.5</v>
-      </c>
-      <c r="O97" s="95">
-        <f>SUM(O80:O96)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A98" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B98" s="74">
-        <v>42387</v>
-      </c>
-      <c r="C98" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="D98" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E98" s="47"/>
-      <c r="F98" s="37">
-        <v>1</v>
-      </c>
-      <c r="G98" s="37"/>
-      <c r="H98" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I98" s="48"/>
-      <c r="J98" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K98" s="23"/>
-      <c r="L98" s="46"/>
-      <c r="M98" s="46"/>
-      <c r="N98" s="28">
-        <f t="shared" ref="N98:O113" si="43">D98+F98+H98+J98+L98</f>
-        <v>2.5</v>
-      </c>
-      <c r="O98" s="29">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A99" s="64"/>
-      <c r="B99" s="77"/>
-      <c r="C99" s="103" t="s">
-        <v>118</v>
-      </c>
-      <c r="D99" s="47"/>
-      <c r="E99" s="47"/>
-      <c r="F99" s="37"/>
-      <c r="G99" s="37"/>
-      <c r="H99" s="48"/>
-      <c r="I99" s="48"/>
-      <c r="J99" s="37"/>
-      <c r="K99" s="64"/>
-      <c r="L99" s="98"/>
-      <c r="M99" s="98"/>
-      <c r="N99" s="28">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="O99" s="37">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A100" s="64"/>
-      <c r="B100" s="77"/>
-      <c r="C100" s="103" t="s">
-        <v>107</v>
-      </c>
-      <c r="D100" s="47"/>
-      <c r="E100" s="47"/>
-      <c r="F100" s="37"/>
-      <c r="G100" s="37"/>
-      <c r="H100" s="48"/>
-      <c r="I100" s="48"/>
-      <c r="J100" s="37"/>
-      <c r="K100" s="64"/>
-      <c r="L100" s="98"/>
-      <c r="M100" s="98"/>
-      <c r="N100" s="28">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="O100" s="37">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A101" s="64"/>
-      <c r="B101" s="77"/>
-      <c r="C101" s="103" t="s">
-        <v>112</v>
-      </c>
-      <c r="D101" s="47"/>
-      <c r="E101" s="47"/>
-      <c r="F101" s="37"/>
-      <c r="G101" s="37"/>
-      <c r="H101" s="48"/>
-      <c r="I101" s="48"/>
-      <c r="J101" s="37"/>
-      <c r="K101" s="64"/>
-      <c r="L101" s="98"/>
-      <c r="M101" s="98"/>
-      <c r="N101" s="28">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="O101" s="37">
-        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -4701,111 +5022,117 @@
       <c r="A102" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B102" s="75">
-        <v>42388</v>
-      </c>
-      <c r="C102" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="D102" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E102" s="47"/>
-      <c r="F102" s="37">
-        <v>1</v>
-      </c>
+      <c r="B102" s="74"/>
+      <c r="C102" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="D102" s="46"/>
+      <c r="E102" s="46"/>
+      <c r="F102" s="37"/>
       <c r="G102" s="37"/>
-      <c r="H102" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I102" s="48"/>
-      <c r="J102" s="37">
-        <v>0.5</v>
-      </c>
+      <c r="H102" s="47"/>
+      <c r="I102" s="47"/>
+      <c r="J102" s="37"/>
       <c r="K102" s="30"/>
-      <c r="L102" s="49"/>
-      <c r="M102" s="49"/>
+      <c r="L102" s="48"/>
+      <c r="M102" s="48"/>
       <c r="N102" s="28">
-        <f t="shared" si="43"/>
-        <v>2.5</v>
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
       <c r="O102" s="37">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A103" s="30"/>
-      <c r="B103" s="75"/>
-      <c r="C103" s="55" t="s">
-        <v>116</v>
-      </c>
-      <c r="D103" s="47"/>
-      <c r="E103" s="47"/>
+      <c r="A103" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" s="74"/>
+      <c r="C103" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="D103" s="46"/>
+      <c r="E103" s="46"/>
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
-      <c r="H103" s="48"/>
-      <c r="I103" s="48"/>
+      <c r="H103" s="47"/>
+      <c r="I103" s="47"/>
       <c r="J103" s="37"/>
       <c r="K103" s="30"/>
-      <c r="L103" s="49"/>
-      <c r="M103" s="49"/>
+      <c r="L103" s="48"/>
+      <c r="M103" s="48"/>
       <c r="N103" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O103" s="37">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A104" s="30"/>
-      <c r="B104" s="75"/>
-      <c r="C104" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="D104" s="47"/>
-      <c r="E104" s="47"/>
+      <c r="A104" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" s="74"/>
+      <c r="C104" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="D104" s="46"/>
+      <c r="E104" s="46"/>
       <c r="F104" s="37"/>
       <c r="G104" s="37"/>
-      <c r="H104" s="48"/>
-      <c r="I104" s="48"/>
+      <c r="H104" s="47"/>
+      <c r="I104" s="47"/>
       <c r="J104" s="37"/>
       <c r="K104" s="30"/>
-      <c r="L104" s="49"/>
-      <c r="M104" s="49"/>
+      <c r="L104" s="48"/>
+      <c r="M104" s="48"/>
       <c r="N104" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O104" s="37">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A105" s="30"/>
-      <c r="B105" s="75"/>
-      <c r="C105" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="D105" s="47"/>
-      <c r="E105" s="47"/>
-      <c r="F105" s="37"/>
+      <c r="A105" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="74">
+        <v>42389</v>
+      </c>
+      <c r="C105" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="D105" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="E105" s="46"/>
+      <c r="F105" s="37">
+        <v>1</v>
+      </c>
       <c r="G105" s="37"/>
-      <c r="H105" s="48"/>
-      <c r="I105" s="48"/>
-      <c r="J105" s="37"/>
+      <c r="H105" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I105" s="47"/>
+      <c r="J105" s="37">
+        <v>0.5</v>
+      </c>
       <c r="K105" s="30"/>
-      <c r="L105" s="49"/>
-      <c r="M105" s="49"/>
+      <c r="L105" s="48"/>
+      <c r="M105" s="48"/>
       <c r="N105" s="28">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>2.5</v>
       </c>
       <c r="O105" s="37">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
@@ -4813,136 +5140,144 @@
       <c r="A106" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B106" s="75">
-        <v>42389</v>
-      </c>
-      <c r="C106" s="100" t="s">
-        <v>59</v>
-      </c>
-      <c r="D106" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E106" s="47"/>
-      <c r="F106" s="37">
-        <v>1</v>
-      </c>
+      <c r="B106" s="74"/>
+      <c r="C106" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="D106" s="46"/>
+      <c r="E106" s="46"/>
+      <c r="F106" s="37"/>
       <c r="G106" s="37"/>
-      <c r="H106" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I106" s="48"/>
-      <c r="J106" s="37">
-        <v>0.5</v>
-      </c>
+      <c r="H106" s="47"/>
+      <c r="I106" s="47"/>
+      <c r="J106" s="37"/>
       <c r="K106" s="30"/>
-      <c r="L106" s="49"/>
-      <c r="M106" s="49"/>
+      <c r="L106" s="48"/>
+      <c r="M106" s="48"/>
       <c r="N106" s="28">
-        <f t="shared" si="43"/>
-        <v>2.5</v>
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
       <c r="O106" s="37">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A107" s="30"/>
-      <c r="B107" s="75"/>
-      <c r="C107" s="100" t="s">
-        <v>119</v>
-      </c>
-      <c r="D107" s="47"/>
-      <c r="E107" s="47"/>
+      <c r="A107" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" s="74"/>
+      <c r="C107" s="98" t="s">
+        <v>117</v>
+      </c>
+      <c r="D107" s="46"/>
+      <c r="E107" s="46"/>
       <c r="F107" s="37"/>
       <c r="G107" s="37"/>
-      <c r="H107" s="48"/>
-      <c r="I107" s="48"/>
+      <c r="H107" s="47"/>
+      <c r="I107" s="47"/>
       <c r="J107" s="37"/>
       <c r="K107" s="30"/>
-      <c r="L107" s="49"/>
-      <c r="M107" s="49"/>
+      <c r="L107" s="48"/>
+      <c r="M107" s="48"/>
       <c r="N107" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O107" s="37">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A108" s="30"/>
-      <c r="B108" s="75"/>
-      <c r="C108" s="100" t="s">
-        <v>120</v>
-      </c>
-      <c r="D108" s="47"/>
-      <c r="E108" s="47"/>
+      <c r="A108" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" s="74"/>
+      <c r="C108" s="98" t="s">
+        <v>105</v>
+      </c>
+      <c r="D108" s="46"/>
+      <c r="E108" s="46"/>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
-      <c r="H108" s="48"/>
-      <c r="I108" s="48"/>
+      <c r="H108" s="47"/>
+      <c r="I108" s="47"/>
       <c r="J108" s="37"/>
       <c r="K108" s="30"/>
-      <c r="L108" s="49"/>
-      <c r="M108" s="49"/>
+      <c r="L108" s="48"/>
+      <c r="M108" s="48"/>
       <c r="N108" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O108" s="37">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A109" s="30"/>
-      <c r="B109" s="75"/>
-      <c r="C109" s="100" t="s">
-        <v>108</v>
-      </c>
-      <c r="D109" s="47"/>
-      <c r="E109" s="47"/>
+      <c r="A109" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" s="74"/>
+      <c r="C109" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="D109" s="46"/>
+      <c r="E109" s="46"/>
       <c r="F109" s="37"/>
       <c r="G109" s="37"/>
-      <c r="H109" s="48"/>
-      <c r="I109" s="48"/>
+      <c r="H109" s="47"/>
+      <c r="I109" s="47"/>
       <c r="J109" s="37"/>
       <c r="K109" s="30"/>
-      <c r="L109" s="49"/>
-      <c r="M109" s="49"/>
+      <c r="L109" s="48"/>
+      <c r="M109" s="48"/>
       <c r="N109" s="28">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="O109" s="37">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A110" s="30"/>
-      <c r="B110" s="75"/>
-      <c r="C110" s="100" t="s">
-        <v>113</v>
-      </c>
-      <c r="D110" s="47"/>
-      <c r="E110" s="47"/>
-      <c r="F110" s="37"/>
+      <c r="A110" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" s="74">
+        <v>42390</v>
+      </c>
+      <c r="C110" s="98" t="s">
+        <v>59</v>
+      </c>
+      <c r="D110" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="E110" s="46"/>
+      <c r="F110" s="37">
+        <v>1</v>
+      </c>
       <c r="G110" s="37"/>
-      <c r="H110" s="48"/>
-      <c r="I110" s="48"/>
-      <c r="J110" s="37"/>
+      <c r="H110" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I110" s="47"/>
+      <c r="J110" s="37">
+        <v>0.5</v>
+      </c>
       <c r="K110" s="30"/>
-      <c r="L110" s="49"/>
-      <c r="M110" s="49"/>
+      <c r="L110" s="48"/>
+      <c r="M110" s="48"/>
       <c r="N110" s="28">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>2.5</v>
       </c>
       <c r="O110" s="37">
-        <f t="shared" si="43"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
     </row>
@@ -4950,111 +5285,117 @@
       <c r="A111" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B111" s="75">
-        <v>42390</v>
-      </c>
-      <c r="C111" s="100" t="s">
+      <c r="B111" s="74"/>
+      <c r="C111" s="98" t="s">
+        <v>118</v>
+      </c>
+      <c r="D111" s="46"/>
+      <c r="E111" s="46"/>
+      <c r="F111" s="37"/>
+      <c r="G111" s="37"/>
+      <c r="H111" s="47"/>
+      <c r="I111" s="47"/>
+      <c r="J111" s="37"/>
+      <c r="K111" s="30"/>
+      <c r="L111" s="48"/>
+      <c r="M111" s="48"/>
+      <c r="N111" s="28">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O111" s="37">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" s="74"/>
+      <c r="C112" s="98" t="s">
+        <v>106</v>
+      </c>
+      <c r="D112" s="46"/>
+      <c r="E112" s="46"/>
+      <c r="F112" s="37"/>
+      <c r="G112" s="37"/>
+      <c r="H112" s="47"/>
+      <c r="I112" s="47"/>
+      <c r="J112" s="37"/>
+      <c r="K112" s="30"/>
+      <c r="L112" s="48"/>
+      <c r="M112" s="48"/>
+      <c r="N112" s="28">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O112" s="37">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A113" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="74"/>
+      <c r="C113" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="D113" s="46"/>
+      <c r="E113" s="46"/>
+      <c r="F113" s="37"/>
+      <c r="G113" s="37"/>
+      <c r="H113" s="47"/>
+      <c r="I113" s="47"/>
+      <c r="J113" s="37"/>
+      <c r="K113" s="30"/>
+      <c r="L113" s="48"/>
+      <c r="M113" s="48"/>
+      <c r="N113" s="28">
+        <f t="shared" ref="N113:O118" si="43">D113+F113+H113+J113+L113</f>
+        <v>0</v>
+      </c>
+      <c r="O113" s="37">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A114" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="74">
+        <v>42391</v>
+      </c>
+      <c r="C114" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="D111" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E111" s="47"/>
-      <c r="F111" s="37">
-        <v>1</v>
-      </c>
-      <c r="G111" s="37"/>
-      <c r="H111" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I111" s="48"/>
-      <c r="J111" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K111" s="30"/>
-      <c r="L111" s="49"/>
-      <c r="M111" s="49"/>
-      <c r="N111" s="28">
+      <c r="D114" s="46">
+        <v>0.5</v>
+      </c>
+      <c r="E114" s="46"/>
+      <c r="F114" s="37">
+        <v>1</v>
+      </c>
+      <c r="G114" s="37"/>
+      <c r="H114" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I114" s="47"/>
+      <c r="J114" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="K114" s="30"/>
+      <c r="L114" s="48"/>
+      <c r="M114" s="48"/>
+      <c r="N114" s="28">
         <f t="shared" si="43"/>
         <v>2.5</v>
       </c>
-      <c r="O111" s="37">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A112" s="30"/>
-      <c r="B112" s="75"/>
-      <c r="C112" s="100" t="s">
-        <v>121</v>
-      </c>
-      <c r="D112" s="47"/>
-      <c r="E112" s="47"/>
-      <c r="F112" s="37"/>
-      <c r="G112" s="37"/>
-      <c r="H112" s="48"/>
-      <c r="I112" s="48"/>
-      <c r="J112" s="37"/>
-      <c r="K112" s="30"/>
-      <c r="L112" s="49"/>
-      <c r="M112" s="49"/>
-      <c r="N112" s="28">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="O112" s="37">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A113" s="30"/>
-      <c r="B113" s="75"/>
-      <c r="C113" s="100" t="s">
-        <v>109</v>
-      </c>
-      <c r="D113" s="47"/>
-      <c r="E113" s="47"/>
-      <c r="F113" s="37"/>
-      <c r="G113" s="37"/>
-      <c r="H113" s="48"/>
-      <c r="I113" s="48"/>
-      <c r="J113" s="37"/>
-      <c r="K113" s="30"/>
-      <c r="L113" s="49"/>
-      <c r="M113" s="49"/>
-      <c r="N113" s="28">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="O113" s="37">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A114" s="30"/>
-      <c r="B114" s="75"/>
-      <c r="C114" s="100" t="s">
-        <v>114</v>
-      </c>
-      <c r="D114" s="47"/>
-      <c r="E114" s="47"/>
-      <c r="F114" s="37"/>
-      <c r="G114" s="37"/>
-      <c r="H114" s="48"/>
-      <c r="I114" s="48"/>
-      <c r="J114" s="37"/>
-      <c r="K114" s="30"/>
-      <c r="L114" s="49"/>
-      <c r="M114" s="49"/>
-      <c r="N114" s="28">
-        <f t="shared" ref="N114:O119" si="44">D114+F114+H114+J114+L114</f>
-        <v>0</v>
-      </c>
       <c r="O114" s="37">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="O114:O119" si="44">E114+G114+I114+K114+M114</f>
         <v>0</v>
       </c>
     </row>
@@ -5062,86 +5403,80 @@
       <c r="A115" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B115" s="75">
-        <v>42391</v>
-      </c>
-      <c r="C115" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="D115" s="47">
-        <v>0.5</v>
-      </c>
-      <c r="E115" s="47"/>
-      <c r="F115" s="37">
-        <v>1</v>
-      </c>
-      <c r="G115" s="37"/>
-      <c r="H115" s="48">
-        <v>0.5</v>
-      </c>
-      <c r="I115" s="48"/>
-      <c r="J115" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="K115" s="30"/>
-      <c r="L115" s="49"/>
-      <c r="M115" s="49"/>
+      <c r="B115" s="81"/>
+      <c r="C115" s="87" t="s">
+        <v>119</v>
+      </c>
+      <c r="D115" s="88"/>
+      <c r="E115" s="88"/>
+      <c r="F115" s="86"/>
+      <c r="G115" s="86"/>
+      <c r="H115" s="89"/>
+      <c r="I115" s="89"/>
+      <c r="J115" s="86"/>
+      <c r="K115" s="80"/>
+      <c r="L115" s="85"/>
+      <c r="M115" s="85"/>
       <c r="N115" s="28">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O115" s="37">
         <f t="shared" si="44"/>
-        <v>2.5</v>
-      </c>
-      <c r="O115" s="37">
-        <f t="shared" ref="O111:O120" si="45">E115+G115+I115+K115+M115</f>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A116" s="30"/>
-      <c r="B116" s="82"/>
-      <c r="C116" s="88" t="s">
-        <v>122</v>
-      </c>
-      <c r="D116" s="89"/>
-      <c r="E116" s="89"/>
-      <c r="F116" s="87"/>
-      <c r="G116" s="87"/>
-      <c r="H116" s="90"/>
-      <c r="I116" s="90"/>
-      <c r="J116" s="87"/>
-      <c r="K116" s="81"/>
-      <c r="L116" s="86"/>
-      <c r="M116" s="86"/>
+      <c r="A116" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" s="81"/>
+      <c r="C116" s="87" t="s">
+        <v>107</v>
+      </c>
+      <c r="D116" s="88"/>
+      <c r="E116" s="88"/>
+      <c r="F116" s="86"/>
+      <c r="G116" s="86"/>
+      <c r="H116" s="89"/>
+      <c r="I116" s="89"/>
+      <c r="J116" s="86"/>
+      <c r="K116" s="80"/>
+      <c r="L116" s="85"/>
+      <c r="M116" s="85"/>
       <c r="N116" s="28">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O116" s="37">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="O116" s="37">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A117" s="30"/>
-      <c r="B117" s="82"/>
-      <c r="C117" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="D117" s="89"/>
-      <c r="E117" s="89"/>
-      <c r="F117" s="87"/>
-      <c r="G117" s="87"/>
-      <c r="H117" s="90"/>
-      <c r="I117" s="90"/>
-      <c r="J117" s="87"/>
-      <c r="K117" s="81"/>
-      <c r="L117" s="86"/>
-      <c r="M117" s="86"/>
+      <c r="A117" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="81"/>
+      <c r="C117" s="87" t="s">
+        <v>108</v>
+      </c>
+      <c r="D117" s="83"/>
+      <c r="E117" s="83"/>
+      <c r="F117" s="80"/>
+      <c r="G117" s="80"/>
+      <c r="H117" s="84"/>
+      <c r="I117" s="84"/>
+      <c r="J117" s="80"/>
+      <c r="K117" s="80"/>
+      <c r="L117" s="85"/>
+      <c r="M117" s="85"/>
       <c r="N117" s="28">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O117" s="37">
         <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="O117" s="37">
-        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
@@ -5149,181 +5484,142 @@
       <c r="A118" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B118" s="82"/>
-      <c r="C118" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="D118" s="84"/>
-      <c r="E118" s="84"/>
-      <c r="F118" s="81"/>
-      <c r="G118" s="81"/>
-      <c r="H118" s="85"/>
-      <c r="I118" s="85"/>
-      <c r="J118" s="81"/>
-      <c r="K118" s="81"/>
-      <c r="L118" s="86"/>
-      <c r="M118" s="86"/>
+      <c r="B118" s="81">
+        <v>42393</v>
+      </c>
+      <c r="C118" s="87" t="s">
+        <v>112</v>
+      </c>
+      <c r="D118" s="83"/>
+      <c r="E118" s="83"/>
+      <c r="F118" s="80"/>
+      <c r="G118" s="80"/>
+      <c r="H118" s="84"/>
+      <c r="I118" s="84"/>
+      <c r="J118" s="80"/>
+      <c r="K118" s="80"/>
+      <c r="L118" s="85"/>
+      <c r="M118" s="85"/>
       <c r="N118" s="28">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="O118" s="37">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="O118" s="37">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A119" s="81"/>
-      <c r="B119" s="82">
+      <c r="A119" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" s="75">
         <v>42393</v>
       </c>
-      <c r="C119" s="88" t="s">
-        <v>115</v>
-      </c>
-      <c r="D119" s="84"/>
-      <c r="E119" s="84"/>
-      <c r="F119" s="81"/>
-      <c r="G119" s="81"/>
-      <c r="H119" s="85"/>
-      <c r="I119" s="85"/>
-      <c r="J119" s="81"/>
-      <c r="K119" s="81"/>
-      <c r="L119" s="86"/>
-      <c r="M119" s="86"/>
-      <c r="N119" s="28">
+      <c r="C119" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="D119" s="52"/>
+      <c r="E119" s="52"/>
+      <c r="F119" s="38"/>
+      <c r="G119" s="38"/>
+      <c r="H119" s="53"/>
+      <c r="I119" s="53"/>
+      <c r="J119" s="38"/>
+      <c r="K119" s="38"/>
+      <c r="L119" s="49"/>
+      <c r="M119" s="49"/>
+      <c r="N119" s="43">
+        <f t="shared" ref="N119" si="45">D119+F119+H119+J119+L119</f>
+        <v>0</v>
+      </c>
+      <c r="O119" s="44">
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="O119" s="37">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A120" s="38"/>
-      <c r="B120" s="76">
-        <v>42393</v>
-      </c>
-      <c r="C120" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="D120" s="53"/>
-      <c r="E120" s="53"/>
-      <c r="F120" s="38"/>
-      <c r="G120" s="38"/>
-      <c r="H120" s="54"/>
-      <c r="I120" s="54"/>
-      <c r="J120" s="38"/>
-      <c r="K120" s="38"/>
-      <c r="L120" s="50"/>
-      <c r="M120" s="50"/>
-      <c r="N120" s="44">
-        <f t="shared" ref="N111:N120" si="46">D120+F120+H120+J120+L120</f>
-        <v>0</v>
-      </c>
-      <c r="O120" s="45">
-        <f t="shared" si="45"/>
+      <c r="A120" s="3"/>
+      <c r="B120" s="77"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="102" t="s">
+        <v>49</v>
+      </c>
+      <c r="K120" s="103"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="8">
+        <f>SUM(N97:N119)</f>
+        <v>12.5</v>
+      </c>
+      <c r="O120" s="4">
+        <f>SUM(O97:O119)</f>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A121" s="3"/>
+      <c r="A121" s="9"/>
       <c r="B121" s="78"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="6"/>
-      <c r="E121" s="6"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
-      <c r="J121" s="105" t="s">
-        <v>49</v>
-      </c>
-      <c r="K121" s="104"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-      <c r="N121" s="8">
-        <f>SUM(N98:N120)</f>
-        <v>12.5</v>
-      </c>
-      <c r="O121" s="4">
-        <f>SUM(O98:O120)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A122" s="9"/>
-      <c r="B122" s="79"/>
-      <c r="C122" s="10" t="s">
+      <c r="C121" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D122" s="11">
-        <f>SUM(D4:D121)</f>
-        <v>61.05</v>
-      </c>
-      <c r="E122" s="11">
-        <f>SUM(E4:E121)</f>
-        <v>43.8</v>
-      </c>
-      <c r="F122" s="11">
-        <f>SUM(F4:F121)</f>
-        <v>65.75</v>
-      </c>
-      <c r="G122" s="11">
-        <f>SUM(G4:G121)</f>
-        <v>42.8</v>
-      </c>
-      <c r="H122" s="11">
-        <f>SUM(H4:H121)</f>
-        <v>57.75</v>
-      </c>
-      <c r="I122" s="11">
-        <f>SUM(I4:I121)</f>
-        <v>35.799999999999997</v>
-      </c>
-      <c r="J122" s="11">
-        <f>SUM(J4:J121)</f>
-        <v>60.75</v>
-      </c>
-      <c r="K122" s="11">
-        <f>SUM(K4:K121)</f>
-        <v>44.8</v>
-      </c>
-      <c r="L122" s="11">
-        <f>SUM(L4:L121)</f>
-        <v>0.5</v>
-      </c>
-      <c r="M122" s="11">
-        <f>SUM(M4:M121)</f>
-        <v>0.5</v>
-      </c>
-      <c r="N122" s="9">
-        <f>D122+F122+H122+J122+L122</f>
-        <v>245.8</v>
-      </c>
-      <c r="O122" s="11">
-        <f>E122+G122+I122+K122+M122</f>
-        <v>167.7</v>
+      <c r="D121" s="11">
+        <f t="shared" ref="D121:M121" si="46">SUM(D4:D120)</f>
+        <v>103.55</v>
+      </c>
+      <c r="E121" s="11">
+        <f t="shared" si="46"/>
+        <v>59.55</v>
+      </c>
+      <c r="F121" s="11">
+        <f t="shared" si="46"/>
+        <v>106.75</v>
+      </c>
+      <c r="G121" s="11">
+        <f t="shared" si="46"/>
+        <v>60.05</v>
+      </c>
+      <c r="H121" s="11">
+        <f t="shared" si="46"/>
+        <v>101.25</v>
+      </c>
+      <c r="I121" s="11">
+        <f t="shared" si="46"/>
+        <v>53.55</v>
+      </c>
+      <c r="J121" s="11">
+        <f t="shared" si="46"/>
+        <v>107.25</v>
+      </c>
+      <c r="K121" s="11">
+        <f t="shared" si="46"/>
+        <v>62.05</v>
+      </c>
+      <c r="L121" s="11">
+        <f t="shared" si="46"/>
+        <v>0.5</v>
+      </c>
+      <c r="M121" s="11">
+        <f t="shared" si="46"/>
+        <v>0.5</v>
+      </c>
+      <c r="N121" s="9">
+        <f>D121+F121+H121+J121+L121</f>
+        <v>419.3</v>
+      </c>
+      <c r="O121" s="11">
+        <f>E121+G121+I121+K121+M121</f>
+        <v>235.7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J121:K121"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="A79:I79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="A97:I97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="J48:K48"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="E2:F2"/>
@@ -5332,6 +5628,22 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="A77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="A96:I96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="J48:K48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -5357,20 +5669,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -5531,40 +5838,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5582,10 +5878,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
+++ b/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Themaopdracht6\Planning (PvA) en urenverantwoording\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="123">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -234,15 +229,6 @@
     <t>RA verder afmaken</t>
   </si>
   <si>
-    <t>vrijdag 18 december 2015</t>
-  </si>
-  <si>
-    <t>woensdag 16 december 2015</t>
-  </si>
-  <si>
-    <t>donderdag 17 december 2015</t>
-  </si>
-  <si>
     <t>woensdag 9 decemberg 2015</t>
   </si>
   <si>
@@ -354,15 +340,9 @@
     <t>Definitieve versie Technisch verslag</t>
   </si>
   <si>
-    <t>Technisch Verslag maken</t>
-  </si>
-  <si>
     <t>Technisch Verslag opzet</t>
   </si>
   <si>
-    <t>Technisch verslag maken</t>
-  </si>
-  <si>
     <t>Technisch verslag Reviewen</t>
   </si>
   <si>
@@ -397,17 +377,26 @@
   </si>
   <si>
     <t>LPC1114FN28/102 aansluiten op Breadboard</t>
+  </si>
+  <si>
+    <t>Technisch Verslag</t>
+  </si>
+  <si>
+    <t>Technisch verslag</t>
+  </si>
+  <si>
+    <t>17/12/2015</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -758,12 +747,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
@@ -875,10 +858,55 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -896,50 +924,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -959,7 +948,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
   <a:themeElements>
     <a:clrScheme name="Kantoor">
       <a:dk1>
@@ -1001,7 +990,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1033,10 +1022,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1068,7 +1056,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -1244,18 +1231,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
+      <pane ySplit="4" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
-    <col min="2" max="2" width="26" style="62" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" style="60" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.140625" customWidth="1"/>
     <col min="4" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="8.140625" hidden="1" customWidth="1"/>
@@ -1263,38 +1250,38 @@
     <col min="14" max="15" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="9" customFormat="1" ht="20.25">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="57"/>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="58"/>
+      <c r="B1" s="55"/>
+    </row>
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="15">
+      <c r="B2" s="56"/>
       <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="87"/>
-      <c r="H2" s="73" t="s">
+      <c r="F2" s="100"/>
+      <c r="H2" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="92">
+      <c r="I2" s="99">
         <f ca="1">TODAY()</f>
         <v>42354</v>
       </c>
-      <c r="J2" s="92"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="46" t="s">
+      <c r="J2" s="99"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="83.25" customHeight="1">
+      <c r="A3" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="57" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="10" t="s">
@@ -1337,59 +1324,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="80"/>
-      <c r="B4" s="60"/>
-      <c r="D4" s="90" t="s">
+    <row r="4" spans="1:15" s="1" customFormat="1">
+      <c r="A4" s="78"/>
+      <c r="B4" s="58"/>
+      <c r="D4" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="85" t="s">
+      <c r="E4" s="103"/>
+      <c r="F4" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="91" t="s">
+      <c r="G4" s="98"/>
+      <c r="H4" s="104" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="85" t="s">
+      <c r="I4" s="104"/>
+      <c r="J4" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="85"/>
-      <c r="L4" s="88" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="89"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="80"/>
-    </row>
-    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="86" t="s">
+      <c r="K4" s="98"/>
+      <c r="L4" s="101" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="102"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="78"/>
+    </row>
+    <row r="5" spans="1:15" s="1" customFormat="1">
+      <c r="A5" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+    </row>
+    <row r="6" spans="1:15" s="1" customFormat="1">
       <c r="A6" s="16">
         <v>1</v>
       </c>
-      <c r="B6" s="101">
+      <c r="B6" s="91">
         <v>42317</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="69" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="17">
@@ -1398,10 +1385,10 @@
       <c r="E6" s="17">
         <v>2</v>
       </c>
-      <c r="F6" s="49">
-        <v>2</v>
-      </c>
-      <c r="G6" s="49">
+      <c r="F6" s="47">
+        <v>2</v>
+      </c>
+      <c r="G6" s="47">
         <v>2</v>
       </c>
       <c r="H6" s="26">
@@ -1410,10 +1397,10 @@
       <c r="I6" s="26">
         <v>2</v>
       </c>
-      <c r="J6" s="49">
-        <v>2</v>
-      </c>
-      <c r="K6" s="49">
+      <c r="J6" s="47">
+        <v>2</v>
+      </c>
+      <c r="K6" s="47">
         <v>2</v>
       </c>
       <c r="L6" s="20"/>
@@ -1427,14 +1414,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="1" customFormat="1">
       <c r="A7" s="23">
         <v>1</v>
       </c>
-      <c r="B7" s="102">
+      <c r="B7" s="92">
         <v>42317</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="74" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="24">
@@ -1443,10 +1430,10 @@
       <c r="E7" s="24">
         <v>2</v>
       </c>
-      <c r="F7" s="50">
-        <v>2</v>
-      </c>
-      <c r="G7" s="50">
+      <c r="F7" s="48">
+        <v>2</v>
+      </c>
+      <c r="G7" s="48">
         <v>2</v>
       </c>
       <c r="H7" s="26">
@@ -1455,10 +1442,10 @@
       <c r="I7" s="26">
         <v>2</v>
       </c>
-      <c r="J7" s="50">
-        <v>2</v>
-      </c>
-      <c r="K7" s="50">
+      <c r="J7" s="48">
+        <v>2</v>
+      </c>
+      <c r="K7" s="48">
         <v>2</v>
       </c>
       <c r="L7" s="20"/>
@@ -1472,14 +1459,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" s="1" customFormat="1">
       <c r="A8" s="23">
         <v>1</v>
       </c>
-      <c r="B8" s="102">
+      <c r="B8" s="92">
         <v>42317</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="74" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="24">
@@ -1488,18 +1475,18 @@
       <c r="E8" s="24">
         <v>0.5</v>
       </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
       <c r="H8" s="26"/>
       <c r="I8" s="26"/>
-      <c r="J8" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="K8" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
+      <c r="J8" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="48">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
       <c r="N8" s="28">
         <f t="shared" ref="N8" si="4">D8+F8+H8+J8+L8</f>
         <v>1</v>
@@ -1509,14 +1496,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" s="1" customFormat="1">
       <c r="A9" s="23">
         <v>1</v>
       </c>
-      <c r="B9" s="102">
+      <c r="B9" s="92">
         <v>42319</v>
       </c>
-      <c r="C9" s="76" t="s">
+      <c r="C9" s="74" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="24">
@@ -1525,10 +1512,10 @@
       <c r="E9" s="24">
         <v>3.5</v>
       </c>
-      <c r="F9" s="50">
-        <v>2</v>
-      </c>
-      <c r="G9" s="50">
+      <c r="F9" s="48">
+        <v>2</v>
+      </c>
+      <c r="G9" s="48">
         <v>3.5</v>
       </c>
       <c r="H9" s="26">
@@ -1537,10 +1524,10 @@
       <c r="I9" s="26">
         <v>3.5</v>
       </c>
-      <c r="J9" s="50">
-        <v>2</v>
-      </c>
-      <c r="K9" s="50">
+      <c r="J9" s="48">
+        <v>2</v>
+      </c>
+      <c r="K9" s="48">
         <v>3.5</v>
       </c>
       <c r="L9" s="27"/>
@@ -1554,14 +1541,14 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" s="1" customFormat="1">
       <c r="A10" s="30">
         <v>1</v>
       </c>
-      <c r="B10" s="103">
+      <c r="B10" s="93">
         <v>42323</v>
       </c>
-      <c r="C10" s="97" t="s">
+      <c r="C10" s="87" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="31">
@@ -1570,10 +1557,10 @@
       <c r="E10" s="31">
         <v>0.25</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="49">
         <v>0.25</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="49">
         <v>0.25</v>
       </c>
       <c r="H10" s="33">
@@ -1599,41 +1586,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="86" t="s">
+    <row r="11" spans="1:15" s="1" customFormat="1">
+      <c r="A11" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="85" t="s">
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="85"/>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="94">
+      <c r="K11" s="98"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="78"/>
+      <c r="N11" s="84">
         <f>SUM(N6:N10)</f>
         <v>26</v>
       </c>
-      <c r="O11" s="94">
+      <c r="O11" s="84">
         <f>SUM(O6:O10)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="1" customFormat="1">
       <c r="A12" s="16">
         <v>2</v>
       </c>
-      <c r="B12" s="101">
+      <c r="B12" s="91">
         <v>42324</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="69" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="17">
@@ -1671,44 +1658,44 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="53">
-        <v>2</v>
-      </c>
-      <c r="B13" s="104">
+    <row r="13" spans="1:15" s="1" customFormat="1">
+      <c r="A13" s="51">
+        <v>2</v>
+      </c>
+      <c r="B13" s="94">
         <v>42324</v>
       </c>
-      <c r="C13" s="79" t="s">
+      <c r="C13" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="E13" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="55">
-        <v>1</v>
-      </c>
-      <c r="G13" s="55">
-        <v>1</v>
-      </c>
-      <c r="H13" s="56">
-        <v>0.5</v>
-      </c>
-      <c r="I13" s="56">
-        <v>0.5</v>
-      </c>
-      <c r="J13" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="K13" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="L13" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="M13" s="52">
+      <c r="D13" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="53">
+        <v>1</v>
+      </c>
+      <c r="G13" s="53">
+        <v>1</v>
+      </c>
+      <c r="H13" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="50">
         <v>0.5</v>
       </c>
       <c r="N13" s="28">
@@ -1720,42 +1707,42 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="53">
-        <v>2</v>
-      </c>
-      <c r="B14" s="104">
+    <row r="14" spans="1:15" s="1" customFormat="1">
+      <c r="A14" s="51">
+        <v>2</v>
+      </c>
+      <c r="B14" s="94">
         <v>42324</v>
       </c>
-      <c r="C14" s="79" t="s">
+      <c r="C14" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="54">
-        <v>1</v>
-      </c>
-      <c r="E14" s="54">
+      <c r="D14" s="52">
+        <v>1</v>
+      </c>
+      <c r="E14" s="52">
         <v>1.5</v>
       </c>
-      <c r="F14" s="55">
-        <v>1</v>
-      </c>
-      <c r="G14" s="55">
+      <c r="F14" s="53">
+        <v>1</v>
+      </c>
+      <c r="G14" s="53">
         <v>1.5</v>
       </c>
-      <c r="H14" s="56">
-        <v>1</v>
-      </c>
-      <c r="I14" s="56">
+      <c r="H14" s="54">
+        <v>1</v>
+      </c>
+      <c r="I14" s="54">
         <v>1.5</v>
       </c>
-      <c r="J14" s="55">
-        <v>1</v>
-      </c>
-      <c r="K14" s="55">
+      <c r="J14" s="53">
+        <v>1</v>
+      </c>
+      <c r="K14" s="53">
         <v>1.5</v>
       </c>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
       <c r="N14" s="28">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -1765,30 +1752,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" s="1" customFormat="1">
       <c r="A15" s="23">
         <v>2</v>
       </c>
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="72" t="s">
+      <c r="C15" s="70" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="24">
         <v>0.25</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="52">
         <v>0.25</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
       <c r="N15" s="28">
         <f t="shared" ref="N15:N16" si="8">D15+F15+H15+J15+L15</f>
         <v>0.25</v>
@@ -1798,42 +1785,42 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="1" customFormat="1">
       <c r="A16" s="23">
         <v>2</v>
       </c>
-      <c r="B16" s="102">
+      <c r="B16" s="92">
         <v>42326</v>
       </c>
-      <c r="C16" s="72" t="s">
+      <c r="C16" s="70" t="s">
         <v>59</v>
       </c>
       <c r="D16" s="24">
         <v>0.5</v>
       </c>
-      <c r="E16" s="54">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="56">
-        <v>0.5</v>
-      </c>
-      <c r="I16" s="56">
-        <v>0.5</v>
-      </c>
-      <c r="J16" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="K16" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
+      <c r="E16" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
       <c r="N16" s="28">
         <f t="shared" si="8"/>
         <v>2</v>
@@ -1843,42 +1830,42 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" s="1" customFormat="1">
       <c r="A17" s="23">
         <v>2</v>
       </c>
-      <c r="B17" s="102">
+      <c r="B17" s="92">
         <v>42326</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="75" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="24">
         <v>0.5</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="52">
         <v>0.25</v>
       </c>
-      <c r="F17" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="G17" s="55">
+      <c r="F17" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="53">
         <v>0.25</v>
       </c>
-      <c r="H17" s="56">
-        <v>0.5</v>
-      </c>
-      <c r="I17" s="56">
+      <c r="H17" s="54">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="54">
         <v>0.25</v>
       </c>
-      <c r="J17" s="55">
-        <v>0.5</v>
-      </c>
-      <c r="K17" s="55">
+      <c r="J17" s="53">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="53">
         <v>0.25</v>
       </c>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
       <c r="N17" s="28">
         <f t="shared" ref="N17:N19" si="9">D17+F17+H17+J17+L17</f>
         <v>2</v>
@@ -1888,14 +1875,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" s="1" customFormat="1">
       <c r="A18" s="23">
         <v>2</v>
       </c>
-      <c r="B18" s="102">
+      <c r="B18" s="92">
         <v>42326</v>
       </c>
-      <c r="C18" s="76" t="s">
+      <c r="C18" s="74" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="24">
@@ -1933,14 +1920,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" s="1" customFormat="1">
       <c r="A19" s="23">
         <v>2</v>
       </c>
-      <c r="B19" s="102">
+      <c r="B19" s="92">
         <v>42327</v>
       </c>
-      <c r="C19" s="76" t="s">
+      <c r="C19" s="74" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="24">
@@ -1974,20 +1961,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" s="1" customFormat="1">
       <c r="A20" s="23">
         <v>2</v>
       </c>
-      <c r="B20" s="102">
+      <c r="B20" s="92">
         <v>42330</v>
       </c>
-      <c r="C20" s="76" t="s">
+      <c r="C20" s="74" t="s">
         <v>56</v>
       </c>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="50"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
       <c r="J20" s="25">
@@ -2007,14 +1994,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" s="1" customFormat="1">
       <c r="A21" s="23">
         <v>2</v>
       </c>
-      <c r="B21" s="102">
+      <c r="B21" s="92">
         <v>42330</v>
       </c>
-      <c r="C21" s="97" t="s">
+      <c r="C21" s="87" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="31">
@@ -2023,10 +2010,10 @@
       <c r="E21" s="31">
         <v>0.25</v>
       </c>
-      <c r="F21" s="51">
+      <c r="F21" s="49">
         <v>0.25</v>
       </c>
-      <c r="G21" s="51">
+      <c r="G21" s="49">
         <v>0.25</v>
       </c>
       <c r="H21" s="33">
@@ -2052,41 +2039,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="86" t="s">
+    <row r="22" spans="1:15" s="1" customFormat="1">
+      <c r="A22" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="85" t="s">
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="85"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="94">
+      <c r="K22" s="98"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="84">
         <f>SUM(N12:N21)</f>
         <v>35.25</v>
       </c>
-      <c r="O22" s="94">
+      <c r="O22" s="84">
         <f>SUM(O12:O21)</f>
         <v>38.25</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" s="1" customFormat="1">
       <c r="A23" s="23">
         <v>3</v>
       </c>
-      <c r="B23" s="102">
+      <c r="B23" s="92">
         <v>42331</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="74" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="38">
@@ -2113,8 +2100,8 @@
       <c r="K23" s="29">
         <v>2</v>
       </c>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
       <c r="N23" s="21">
         <f t="shared" ref="N23" si="13">D23+F23+H23+J23+L23</f>
         <v>8</v>
@@ -2124,14 +2111,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" s="1" customFormat="1">
       <c r="A24" s="23">
         <v>3</v>
       </c>
-      <c r="B24" s="102">
+      <c r="B24" s="92">
         <v>42331</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="74" t="s">
         <v>59</v>
       </c>
       <c r="D24" s="38">
@@ -2158,8 +2145,8 @@
       <c r="K24" s="29">
         <v>0.5</v>
       </c>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
       <c r="N24" s="28">
         <f t="shared" ref="N24" si="15">D24+F24+H24+J24+L24</f>
         <v>2.5</v>
@@ -2169,14 +2156,14 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" s="1" customFormat="1">
       <c r="A25" s="23">
         <v>3</v>
       </c>
-      <c r="B25" s="102">
+      <c r="B25" s="92">
         <v>42331</v>
       </c>
-      <c r="C25" s="76" t="s">
+      <c r="C25" s="74" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="38">
@@ -2203,8 +2190,8 @@
       <c r="K25" s="29">
         <v>1</v>
       </c>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
       <c r="N25" s="28">
         <f t="shared" ref="N25:N26" si="17">D25+F25+H25+J25+L25</f>
         <v>4</v>
@@ -2214,14 +2201,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" s="1" customFormat="1">
       <c r="A26" s="23">
         <v>3</v>
       </c>
-      <c r="B26" s="102">
+      <c r="B26" s="92">
         <v>42333</v>
       </c>
-      <c r="C26" s="76" t="s">
+      <c r="C26" s="74" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="38">
@@ -2248,8 +2235,8 @@
       <c r="K26" s="29">
         <v>0.5</v>
       </c>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
       <c r="N26" s="28">
         <f t="shared" si="17"/>
         <v>2.5</v>
@@ -2259,14 +2246,14 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" s="1" customFormat="1">
       <c r="A27" s="23">
         <v>3</v>
       </c>
-      <c r="B27" s="102">
+      <c r="B27" s="92">
         <v>42333</v>
       </c>
-      <c r="C27" s="76" t="s">
+      <c r="C27" s="74" t="s">
         <v>54</v>
       </c>
       <c r="D27" s="38"/>
@@ -2281,8 +2268,8 @@
       <c r="K27" s="29">
         <v>0.5</v>
       </c>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
       <c r="N27" s="28">
         <f t="shared" ref="N27:N34" si="19">D27+F27+H27+J27+L27</f>
         <v>0.5</v>
@@ -2292,17 +2279,17 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" s="1" customFormat="1">
       <c r="A28" s="23">
         <v>3</v>
       </c>
-      <c r="B28" s="102">
+      <c r="B28" s="92">
         <v>42331</v>
       </c>
-      <c r="C28" s="76" t="s">
+      <c r="C28" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="70">
+      <c r="D28" s="68">
         <v>0.25</v>
       </c>
       <c r="E28" s="38">
@@ -2314,8 +2301,8 @@
       <c r="I28" s="39"/>
       <c r="J28" s="29"/>
       <c r="K28" s="29"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
       <c r="N28" s="28">
         <f t="shared" ref="N28:N29" si="21">D28+F28+H28+J28+L28</f>
         <v>0.25</v>
@@ -2325,17 +2312,17 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" s="1" customFormat="1">
       <c r="A29" s="23">
         <v>3</v>
       </c>
-      <c r="B29" s="102">
+      <c r="B29" s="92">
         <v>42331</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="70">
+      <c r="D29" s="68">
         <v>0.25</v>
       </c>
       <c r="E29" s="38">
@@ -2347,8 +2334,8 @@
       <c r="I29" s="39"/>
       <c r="J29" s="29"/>
       <c r="K29" s="29"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
       <c r="N29" s="28">
         <f t="shared" si="21"/>
         <v>0.25</v>
@@ -2358,14 +2345,14 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" s="1" customFormat="1">
       <c r="A30" s="23">
         <v>3</v>
       </c>
-      <c r="B30" s="102">
+      <c r="B30" s="92">
         <v>42333</v>
       </c>
-      <c r="C30" s="76" t="s">
+      <c r="C30" s="74" t="s">
         <v>60</v>
       </c>
       <c r="D30" s="38">
@@ -2403,14 +2390,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" s="1" customFormat="1">
       <c r="A31" s="23">
         <v>3</v>
       </c>
-      <c r="B31" s="102">
+      <c r="B31" s="92">
         <v>42333</v>
       </c>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="74" t="s">
         <v>24</v>
       </c>
       <c r="D31" s="38">
@@ -2448,14 +2435,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" s="1" customFormat="1">
       <c r="A32" s="23">
         <v>3</v>
       </c>
-      <c r="B32" s="102">
+      <c r="B32" s="92">
         <v>42333</v>
       </c>
-      <c r="C32" s="76" t="s">
+      <c r="C32" s="74" t="s">
         <v>62</v>
       </c>
       <c r="D32" s="38">
@@ -2474,8 +2461,8 @@
       </c>
       <c r="J32" s="29"/>
       <c r="K32" s="29"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="75"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
       <c r="N32" s="28">
         <f t="shared" si="19"/>
         <v>2</v>
@@ -2485,14 +2472,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" s="1" customFormat="1">
       <c r="A33" s="23">
         <v>3</v>
       </c>
-      <c r="B33" s="102">
+      <c r="B33" s="92">
         <v>42334</v>
       </c>
-      <c r="C33" s="76" t="s">
+      <c r="C33" s="74" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="38">
@@ -2518,26 +2505,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="63">
+    <row r="34" spans="1:15" s="1" customFormat="1">
+      <c r="A34" s="61">
         <v>3</v>
       </c>
-      <c r="B34" s="105">
+      <c r="B34" s="95">
         <v>42334</v>
       </c>
-      <c r="C34" s="76" t="s">
+      <c r="C34" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="67"/>
-      <c r="K34" s="67"/>
-      <c r="L34" s="66"/>
-      <c r="M34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="64"/>
+      <c r="M34" s="64"/>
       <c r="N34" s="28">
         <f t="shared" si="19"/>
         <v>0</v>
@@ -2547,14 +2534,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" s="1" customFormat="1">
       <c r="A35" s="30">
         <v>3</v>
       </c>
-      <c r="B35" s="103">
+      <c r="B35" s="93">
         <v>42337</v>
       </c>
-      <c r="C35" s="97" t="s">
+      <c r="C35" s="87" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="31">
@@ -2563,10 +2550,10 @@
       <c r="E35" s="31">
         <v>0.25</v>
       </c>
-      <c r="F35" s="51">
+      <c r="F35" s="49">
         <v>0.25</v>
       </c>
-      <c r="G35" s="51">
+      <c r="G35" s="49">
         <v>0.25</v>
       </c>
       <c r="H35" s="33">
@@ -2592,41 +2579,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="86" t="s">
+    <row r="36" spans="1:15" s="1" customFormat="1">
+      <c r="A36" s="97" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="85" t="s">
+      <c r="B36" s="97"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="K36" s="85"/>
-      <c r="L36" s="80"/>
-      <c r="M36" s="80"/>
-      <c r="N36" s="94">
+      <c r="K36" s="98"/>
+      <c r="L36" s="78"/>
+      <c r="M36" s="78"/>
+      <c r="N36" s="84">
         <f>SUM(N23:N35)</f>
         <v>38</v>
       </c>
-      <c r="O36" s="94">
+      <c r="O36" s="84">
         <f>SUM(O23:O35)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" s="1" customFormat="1">
       <c r="A37" s="23">
         <v>4</v>
       </c>
-      <c r="B37" s="102">
+      <c r="B37" s="92">
         <v>42338</v>
       </c>
-      <c r="C37" s="98" t="s">
+      <c r="C37" s="88" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="38">
@@ -2653,8 +2640,8 @@
       <c r="K37" s="29">
         <v>3</v>
       </c>
-      <c r="L37" s="47"/>
-      <c r="M37" s="47"/>
+      <c r="L37" s="45"/>
+      <c r="M37" s="45"/>
       <c r="N37" s="28">
         <f t="shared" ref="N37" si="26">D37+F37+H37+J37+L37</f>
         <v>2</v>
@@ -2664,14 +2651,14 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" s="1" customFormat="1">
       <c r="A38" s="23">
         <v>4</v>
       </c>
-      <c r="B38" s="102">
+      <c r="B38" s="92">
         <v>42338</v>
       </c>
-      <c r="C38" s="98" t="s">
+      <c r="C38" s="88" t="s">
         <v>24</v>
       </c>
       <c r="D38" s="38"/>
@@ -2690,8 +2677,8 @@
       <c r="K38" s="29">
         <v>3</v>
       </c>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78"/>
+      <c r="L38" s="76"/>
+      <c r="M38" s="76"/>
       <c r="N38" s="28">
         <f t="shared" ref="N38:N45" si="28">D38+F38+H38+J38+L38</f>
         <v>4</v>
@@ -2701,14 +2688,14 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" s="1" customFormat="1">
       <c r="A39" s="23">
         <v>4</v>
       </c>
-      <c r="B39" s="102">
+      <c r="B39" s="92">
         <v>42338</v>
       </c>
-      <c r="C39" s="98" t="s">
+      <c r="C39" s="88" t="s">
         <v>67</v>
       </c>
       <c r="D39" s="38">
@@ -2727,8 +2714,8 @@
       </c>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
-      <c r="L39" s="78"/>
-      <c r="M39" s="78"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="76"/>
       <c r="N39" s="28">
         <f t="shared" ref="N39" si="30">D39+F39+H39+J39+L39</f>
         <v>4</v>
@@ -2738,14 +2725,14 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" s="1" customFormat="1">
       <c r="A40" s="23">
         <v>4</v>
       </c>
-      <c r="B40" s="102">
+      <c r="B40" s="92">
         <v>42340</v>
       </c>
-      <c r="C40" s="76" t="s">
+      <c r="C40" s="74" t="s">
         <v>63</v>
       </c>
       <c r="D40" s="38">
@@ -2783,14 +2770,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" s="1" customFormat="1">
       <c r="A41" s="23">
         <v>4</v>
       </c>
-      <c r="B41" s="102">
+      <c r="B41" s="92">
         <v>42340</v>
       </c>
-      <c r="C41" s="76" t="s">
+      <c r="C41" s="74" t="s">
         <v>59</v>
       </c>
       <c r="D41" s="38">
@@ -2828,14 +2815,14 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" s="1" customFormat="1">
       <c r="A42" s="23">
         <v>4</v>
       </c>
-      <c r="B42" s="102">
+      <c r="B42" s="92">
         <v>42340</v>
       </c>
-      <c r="C42" s="76" t="s">
+      <c r="C42" s="74" t="s">
         <v>64</v>
       </c>
       <c r="D42" s="38">
@@ -2873,14 +2860,14 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" s="1" customFormat="1">
       <c r="A43" s="23">
         <v>4</v>
       </c>
-      <c r="B43" s="102">
+      <c r="B43" s="92">
         <v>42341</v>
       </c>
-      <c r="C43" s="76" t="s">
+      <c r="C43" s="74" t="s">
         <v>65</v>
       </c>
       <c r="D43" s="38">
@@ -2918,14 +2905,14 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" s="1" customFormat="1">
       <c r="A44" s="23">
         <v>4</v>
       </c>
-      <c r="B44" s="102">
+      <c r="B44" s="92">
         <v>42342</v>
       </c>
-      <c r="C44" s="76" t="s">
+      <c r="C44" s="74" t="s">
         <v>66</v>
       </c>
       <c r="D44" s="38">
@@ -2963,14 +2950,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" s="1" customFormat="1">
       <c r="A45" s="23">
         <v>4</v>
       </c>
-      <c r="B45" s="102">
+      <c r="B45" s="92">
         <v>42342</v>
       </c>
-      <c r="C45" s="98" t="s">
+      <c r="C45" s="88" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="38">
@@ -2996,14 +2983,14 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" s="1" customFormat="1">
       <c r="A46" s="30">
         <v>4</v>
       </c>
-      <c r="B46" s="103">
+      <c r="B46" s="93">
         <v>42344</v>
       </c>
-      <c r="C46" s="97" t="s">
+      <c r="C46" s="87" t="s">
         <v>29</v>
       </c>
       <c r="D46" s="31">
@@ -3012,10 +2999,10 @@
       <c r="E46" s="31">
         <v>0.3</v>
       </c>
-      <c r="F46" s="51">
+      <c r="F46" s="49">
         <v>0.25</v>
       </c>
-      <c r="G46" s="51">
+      <c r="G46" s="49">
         <v>0.3</v>
       </c>
       <c r="H46" s="33">
@@ -3041,41 +3028,41 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="86" t="s">
+    <row r="47" spans="1:15" s="1" customFormat="1">
+      <c r="A47" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="86"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="86"/>
-      <c r="G47" s="86"/>
-      <c r="H47" s="86"/>
-      <c r="I47" s="86"/>
-      <c r="J47" s="85" t="s">
+      <c r="B47" s="97"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="97"/>
+      <c r="J47" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="K47" s="85"/>
-      <c r="L47" s="80"/>
-      <c r="M47" s="80"/>
-      <c r="N47" s="94">
+      <c r="K47" s="98"/>
+      <c r="L47" s="78"/>
+      <c r="M47" s="78"/>
+      <c r="N47" s="84">
         <f>SUM(N37:N46)</f>
         <v>32.75</v>
       </c>
-      <c r="O47" s="94">
+      <c r="O47" s="84">
         <f>SUM(O37:O46)</f>
         <v>40.950000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" s="1" customFormat="1">
       <c r="A48" s="16">
         <v>5</v>
       </c>
-      <c r="B48" s="101">
+      <c r="B48" s="91">
         <v>42345</v>
       </c>
-      <c r="C48" s="71" t="s">
+      <c r="C48" s="69" t="s">
         <v>59</v>
       </c>
       <c r="D48" s="38">
@@ -3105,15 +3092,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" s="1" customFormat="1">
       <c r="A49" s="23">
         <v>5</v>
       </c>
-      <c r="B49" s="102">
+      <c r="B49" s="92">
         <v>42345</v>
       </c>
-      <c r="C49" s="76" t="s">
-        <v>119</v>
+      <c r="C49" s="74" t="s">
+        <v>114</v>
       </c>
       <c r="D49" s="38">
         <v>2</v>
@@ -3150,14 +3137,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" s="1" customFormat="1">
       <c r="A50" s="23">
         <v>5</v>
       </c>
-      <c r="B50" s="102">
+      <c r="B50" s="92">
         <v>42345</v>
       </c>
-      <c r="C50" s="76" t="s">
+      <c r="C50" s="74" t="s">
         <v>69</v>
       </c>
       <c r="D50" s="38">
@@ -3195,15 +3182,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" s="1" customFormat="1">
       <c r="A51" s="23">
         <v>5</v>
       </c>
-      <c r="B51" s="102">
+      <c r="B51" s="92">
         <v>42346</v>
       </c>
-      <c r="C51" s="76" t="s">
-        <v>78</v>
+      <c r="C51" s="74" t="s">
+        <v>75</v>
       </c>
       <c r="D51" s="38">
         <v>3</v>
@@ -3240,14 +3227,14 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" s="1" customFormat="1">
       <c r="A52" s="23">
         <v>5</v>
       </c>
-      <c r="B52" s="102">
+      <c r="B52" s="92">
         <v>42347</v>
       </c>
-      <c r="C52" s="76" t="s">
+      <c r="C52" s="74" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="38">
@@ -3285,15 +3272,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" s="1" customFormat="1">
       <c r="A53" s="23">
         <v>5</v>
       </c>
-      <c r="B53" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="76" t="s">
-        <v>74</v>
+      <c r="B53" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="74" t="s">
+        <v>71</v>
       </c>
       <c r="D53" s="38">
         <v>2</v>
@@ -3318,15 +3305,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" s="1" customFormat="1">
       <c r="A54" s="23">
         <v>5</v>
       </c>
-      <c r="B54" s="102" t="s">
-        <v>73</v>
-      </c>
-      <c r="C54" s="76" t="s">
-        <v>75</v>
+      <c r="B54" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" s="74" t="s">
+        <v>72</v>
       </c>
       <c r="D54" s="38"/>
       <c r="E54" s="38"/>
@@ -3351,14 +3338,14 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" s="1" customFormat="1">
       <c r="A55" s="23">
         <v>5</v>
       </c>
-      <c r="B55" s="102">
+      <c r="B55" s="92">
         <v>42347</v>
       </c>
-      <c r="C55" s="76" t="s">
+      <c r="C55" s="74" t="s">
         <v>68</v>
       </c>
       <c r="D55" s="38"/>
@@ -3384,15 +3371,15 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" s="1" customFormat="1">
       <c r="A56" s="23">
         <v>5</v>
       </c>
-      <c r="B56" s="102" t="s">
+      <c r="B56" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="74" t="s">
         <v>73</v>
-      </c>
-      <c r="C56" s="76" t="s">
-        <v>76</v>
       </c>
       <c r="D56" s="38"/>
       <c r="E56" s="38"/>
@@ -3417,14 +3404,14 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" s="1" customFormat="1">
       <c r="A57" s="23">
         <v>5</v>
       </c>
-      <c r="B57" s="102">
+      <c r="B57" s="92">
         <v>42347</v>
       </c>
-      <c r="C57" s="76" t="s">
+      <c r="C57" s="74" t="s">
         <v>59</v>
       </c>
       <c r="D57" s="38">
@@ -3462,15 +3449,15 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" s="1" customFormat="1">
       <c r="A58" s="23">
         <v>5</v>
       </c>
-      <c r="B58" s="102">
+      <c r="B58" s="92">
         <v>42348</v>
       </c>
-      <c r="C58" s="76" t="s">
-        <v>85</v>
+      <c r="C58" s="74" t="s">
+        <v>82</v>
       </c>
       <c r="D58" s="38">
         <v>2</v>
@@ -3507,42 +3494,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="63">
+    <row r="59" spans="1:15" s="1" customFormat="1">
+      <c r="A59" s="61">
         <v>5</v>
       </c>
-      <c r="B59" s="105">
+      <c r="B59" s="95">
         <v>42349</v>
       </c>
-      <c r="C59" s="99" t="s">
-        <v>87</v>
-      </c>
-      <c r="D59" s="68">
-        <v>1</v>
-      </c>
-      <c r="E59" s="68">
-        <v>4</v>
-      </c>
-      <c r="F59" s="67">
-        <v>1</v>
-      </c>
-      <c r="G59" s="67">
+      <c r="C59" s="89" t="s">
+        <v>84</v>
+      </c>
+      <c r="D59" s="66">
+        <v>1</v>
+      </c>
+      <c r="E59" s="66">
+        <v>4</v>
+      </c>
+      <c r="F59" s="65">
+        <v>1</v>
+      </c>
+      <c r="G59" s="65">
         <v>3.5</v>
       </c>
-      <c r="H59" s="69">
-        <v>1</v>
-      </c>
-      <c r="I59" s="69">
+      <c r="H59" s="67">
+        <v>1</v>
+      </c>
+      <c r="I59" s="67">
         <v>2.5</v>
       </c>
-      <c r="J59" s="67">
-        <v>1</v>
-      </c>
-      <c r="K59" s="67">
+      <c r="J59" s="65">
+        <v>1</v>
+      </c>
+      <c r="K59" s="65">
         <v>3</v>
       </c>
-      <c r="L59" s="66"/>
-      <c r="M59" s="66"/>
+      <c r="L59" s="64"/>
+      <c r="M59" s="64"/>
       <c r="N59" s="28">
         <f t="shared" si="36"/>
         <v>4</v>
@@ -3552,30 +3539,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="63">
+    <row r="60" spans="1:15" s="1" customFormat="1">
+      <c r="A60" s="61">
         <v>5</v>
       </c>
-      <c r="B60" s="105">
+      <c r="B60" s="95">
         <v>42349</v>
       </c>
-      <c r="C60" s="99" t="s">
-        <v>86</v>
-      </c>
-      <c r="D60" s="68">
+      <c r="C60" s="89" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="66">
         <v>0.3</v>
       </c>
-      <c r="E60" s="68">
+      <c r="E60" s="66">
         <v>0.3</v>
       </c>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="69"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="67"/>
-      <c r="L60" s="66"/>
-      <c r="M60" s="66"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="65"/>
+      <c r="K60" s="65"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="64"/>
       <c r="N60" s="28">
         <f t="shared" si="36"/>
         <v>0.3</v>
@@ -3585,14 +3572,14 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="61" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" s="1" customFormat="1">
       <c r="A61" s="30">
         <v>5</v>
       </c>
-      <c r="B61" s="103">
+      <c r="B61" s="93">
         <v>42351</v>
       </c>
-      <c r="C61" s="97" t="s">
+      <c r="C61" s="87" t="s">
         <v>29</v>
       </c>
       <c r="D61" s="31">
@@ -3601,10 +3588,10 @@
       <c r="E61" s="31">
         <v>0.25</v>
       </c>
-      <c r="F61" s="51">
+      <c r="F61" s="49">
         <v>0.25</v>
       </c>
-      <c r="G61" s="51">
+      <c r="G61" s="49">
         <v>0.25</v>
       </c>
       <c r="H61" s="33">
@@ -3630,42 +3617,42 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="86" t="s">
+    <row r="62" spans="1:15" s="1" customFormat="1">
+      <c r="A62" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="86"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="86"/>
-      <c r="I62" s="86"/>
-      <c r="J62" s="85" t="s">
+      <c r="B62" s="97"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="97"/>
+      <c r="F62" s="97"/>
+      <c r="G62" s="97"/>
+      <c r="H62" s="97"/>
+      <c r="I62" s="97"/>
+      <c r="J62" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="K62" s="85"/>
-      <c r="L62" s="80"/>
-      <c r="M62" s="80"/>
-      <c r="N62" s="94">
+      <c r="K62" s="98"/>
+      <c r="L62" s="78"/>
+      <c r="M62" s="78"/>
+      <c r="N62" s="84">
         <f>SUM(N48:N61)</f>
         <v>55.8</v>
       </c>
-      <c r="O62" s="94">
+      <c r="O62" s="84">
         <f>SUM(O48:O61)</f>
         <v>63.8</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="53">
+    <row r="63" spans="1:15" s="1" customFormat="1">
+      <c r="A63" s="51">
         <v>6</v>
       </c>
-      <c r="B63" s="104" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" s="79" t="s">
-        <v>79</v>
+      <c r="B63" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" s="77" t="s">
+        <v>76</v>
       </c>
       <c r="D63" s="38">
         <v>2</v>
@@ -3688,11 +3675,11 @@
       <c r="J63" s="29">
         <v>2</v>
       </c>
-      <c r="K63" s="74">
+      <c r="K63" s="72">
         <v>3</v>
       </c>
-      <c r="L63" s="75"/>
-      <c r="M63" s="75"/>
+      <c r="L63" s="73"/>
+      <c r="M63" s="73"/>
       <c r="N63" s="21">
         <f t="shared" ref="N63:O76" si="39">D63+F63+H63+J63+L63</f>
         <v>8</v>
@@ -3702,16 +3689,16 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="53">
+    <row r="64" spans="1:15" s="1" customFormat="1">
+      <c r="A64" s="51">
         <v>6</v>
       </c>
-      <c r="B64" s="104" t="s">
+      <c r="B64" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" s="77" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="79" t="s">
-        <v>80</v>
-      </c>
       <c r="D64" s="38">
         <v>2</v>
       </c>
@@ -3733,11 +3720,11 @@
       <c r="J64" s="29">
         <v>2</v>
       </c>
-      <c r="K64" s="74">
-        <v>1</v>
-      </c>
-      <c r="L64" s="75"/>
-      <c r="M64" s="75"/>
+      <c r="K64" s="72">
+        <v>1</v>
+      </c>
+      <c r="L64" s="73"/>
+      <c r="M64" s="73"/>
       <c r="N64" s="28">
         <f t="shared" si="39"/>
         <v>8</v>
@@ -3747,15 +3734,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="53">
+    <row r="65" spans="1:15" s="1" customFormat="1">
+      <c r="A65" s="51">
         <v>6</v>
       </c>
-      <c r="B65" s="104">
+      <c r="B65" s="94">
         <v>42353</v>
       </c>
-      <c r="C65" s="79" t="s">
-        <v>81</v>
+      <c r="C65" s="77" t="s">
+        <v>78</v>
       </c>
       <c r="D65" s="38">
         <v>1</v>
@@ -3778,11 +3765,11 @@
       <c r="J65" s="29">
         <v>1</v>
       </c>
-      <c r="K65" s="74">
-        <v>0</v>
-      </c>
-      <c r="L65" s="75"/>
-      <c r="M65" s="75"/>
+      <c r="K65" s="72">
+        <v>0</v>
+      </c>
+      <c r="L65" s="73"/>
+      <c r="M65" s="73"/>
       <c r="N65" s="28">
         <f t="shared" si="39"/>
         <v>4</v>
@@ -3792,15 +3779,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="53">
+    <row r="66" spans="1:15" s="1" customFormat="1">
+      <c r="A66" s="51">
         <v>6</v>
       </c>
-      <c r="B66" s="104">
+      <c r="B66" s="94">
         <v>42353</v>
       </c>
-      <c r="C66" s="79" t="s">
-        <v>82</v>
+      <c r="C66" s="77" t="s">
+        <v>79</v>
       </c>
       <c r="D66" s="38">
         <v>2</v>
@@ -3823,11 +3810,11 @@
       <c r="J66" s="29">
         <v>2</v>
       </c>
-      <c r="K66" s="74">
+      <c r="K66" s="72">
         <v>1.5</v>
       </c>
-      <c r="L66" s="75"/>
-      <c r="M66" s="75"/>
+      <c r="L66" s="73"/>
+      <c r="M66" s="73"/>
       <c r="N66" s="28">
         <f t="shared" si="39"/>
         <v>8</v>
@@ -3837,15 +3824,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="53">
+    <row r="67" spans="1:15" s="1" customFormat="1">
+      <c r="A67" s="51">
         <v>6</v>
       </c>
-      <c r="B67" s="104">
+      <c r="B67" s="94">
         <v>42353</v>
       </c>
-      <c r="C67" s="79" t="s">
-        <v>121</v>
+      <c r="C67" s="77" t="s">
+        <v>116</v>
       </c>
       <c r="D67" s="38">
         <v>1</v>
@@ -3868,11 +3855,11 @@
       <c r="J67" s="29">
         <v>1</v>
       </c>
-      <c r="K67" s="74">
-        <v>2</v>
-      </c>
-      <c r="L67" s="75"/>
-      <c r="M67" s="75"/>
+      <c r="K67" s="72">
+        <v>2</v>
+      </c>
+      <c r="L67" s="73"/>
+      <c r="M67" s="73"/>
       <c r="N67" s="28">
         <f t="shared" si="39"/>
         <v>4</v>
@@ -3882,14 +3869,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="53">
+    <row r="68" spans="1:15" s="1" customFormat="1">
+      <c r="A68" s="51">
         <v>6</v>
       </c>
-      <c r="B68" s="104">
+      <c r="B68" s="94">
         <v>42354</v>
       </c>
-      <c r="C68" s="76" t="s">
+      <c r="C68" s="74" t="s">
         <v>59</v>
       </c>
       <c r="D68" s="38">
@@ -3913,11 +3900,11 @@
       <c r="J68" s="29">
         <v>0.5</v>
       </c>
-      <c r="K68" s="74">
-        <v>0.5</v>
-      </c>
-      <c r="L68" s="75"/>
-      <c r="M68" s="75"/>
+      <c r="K68" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="L68" s="73"/>
+      <c r="M68" s="73"/>
       <c r="N68" s="28">
         <f t="shared" si="39"/>
         <v>2.5</v>
@@ -3927,15 +3914,15 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="69" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="53">
+    <row r="69" spans="1:15" s="1" customFormat="1">
+      <c r="A69" s="51">
         <v>6</v>
       </c>
-      <c r="B69" s="104">
+      <c r="B69" s="94">
         <v>42354</v>
       </c>
-      <c r="C69" s="79" t="s">
-        <v>84</v>
+      <c r="C69" s="77" t="s">
+        <v>81</v>
       </c>
       <c r="D69" s="38">
         <v>2</v>
@@ -3958,11 +3945,11 @@
       <c r="J69" s="29">
         <v>2</v>
       </c>
-      <c r="K69" s="74">
-        <v>2</v>
-      </c>
-      <c r="L69" s="75"/>
-      <c r="M69" s="75"/>
+      <c r="K69" s="72">
+        <v>2</v>
+      </c>
+      <c r="L69" s="73"/>
+      <c r="M69" s="73"/>
       <c r="N69" s="28">
         <f t="shared" si="39"/>
         <v>8</v>
@@ -3972,15 +3959,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="53">
+    <row r="70" spans="1:15" s="1" customFormat="1">
+      <c r="A70" s="51">
         <v>6</v>
       </c>
-      <c r="B70" s="104" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70" s="79" t="s">
-        <v>120</v>
+      <c r="B70" s="94">
+        <v>42354</v>
+      </c>
+      <c r="C70" s="77" t="s">
+        <v>115</v>
       </c>
       <c r="D70" s="38">
         <v>0.3</v>
@@ -3993,9 +3980,9 @@
       <c r="H70" s="39"/>
       <c r="I70" s="39"/>
       <c r="J70" s="29"/>
-      <c r="K70" s="74"/>
-      <c r="L70" s="75"/>
-      <c r="M70" s="75"/>
+      <c r="K70" s="72"/>
+      <c r="L70" s="73"/>
+      <c r="M70" s="73"/>
       <c r="N70" s="28">
         <f t="shared" si="39"/>
         <v>0.3</v>
@@ -4005,15 +3992,15 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="53">
+    <row r="71" spans="1:15" s="1" customFormat="1">
+      <c r="A71" s="51">
         <v>6</v>
       </c>
-      <c r="B71" s="104">
+      <c r="B71" s="94">
         <v>42354</v>
       </c>
-      <c r="C71" s="76" t="s">
-        <v>122</v>
+      <c r="C71" s="74" t="s">
+        <v>117</v>
       </c>
       <c r="D71" s="38">
         <v>0.5</v>
@@ -4036,11 +4023,11 @@
       <c r="J71" s="29">
         <v>0.5</v>
       </c>
-      <c r="K71" s="74">
-        <v>1</v>
-      </c>
-      <c r="L71" s="75"/>
-      <c r="M71" s="75"/>
+      <c r="K71" s="72">
+        <v>1</v>
+      </c>
+      <c r="L71" s="73"/>
+      <c r="M71" s="73"/>
       <c r="N71" s="28">
         <f t="shared" si="39"/>
         <v>2</v>
@@ -4050,15 +4037,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="53">
+    <row r="72" spans="1:15" s="1" customFormat="1">
+      <c r="A72" s="51">
         <v>6</v>
       </c>
-      <c r="B72" s="104">
+      <c r="B72" s="94">
         <v>42354</v>
       </c>
-      <c r="C72" s="76" t="s">
-        <v>123</v>
+      <c r="C72" s="74" t="s">
+        <v>118</v>
       </c>
       <c r="D72" s="38">
         <v>1</v>
@@ -4081,11 +4068,11 @@
       <c r="J72" s="29">
         <v>0.25</v>
       </c>
-      <c r="K72" s="74">
+      <c r="K72" s="72">
         <v>0.25</v>
       </c>
-      <c r="L72" s="75"/>
-      <c r="M72" s="75"/>
+      <c r="L72" s="73"/>
+      <c r="M72" s="73"/>
       <c r="N72" s="28">
         <f t="shared" si="39"/>
         <v>1.75</v>
@@ -4095,15 +4082,15 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="73" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="53">
+    <row r="73" spans="1:15" s="1" customFormat="1">
+      <c r="A73" s="51">
         <v>6</v>
       </c>
-      <c r="B73" s="104" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" s="76" t="s">
-        <v>88</v>
+      <c r="B73" s="94" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="74" t="s">
+        <v>85</v>
       </c>
       <c r="D73" s="38">
         <v>2</v>
@@ -4120,9 +4107,9 @@
       <c r="J73" s="29">
         <v>2</v>
       </c>
-      <c r="K73" s="74"/>
-      <c r="L73" s="75"/>
-      <c r="M73" s="75"/>
+      <c r="K73" s="72"/>
+      <c r="L73" s="73"/>
+      <c r="M73" s="73"/>
       <c r="N73" s="28">
         <f t="shared" si="39"/>
         <v>8</v>
@@ -4132,15 +4119,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="53">
+    <row r="74" spans="1:15" s="1" customFormat="1">
+      <c r="A74" s="51">
         <v>6</v>
       </c>
-      <c r="B74" s="104">
+      <c r="B74" s="94">
         <v>42355</v>
       </c>
-      <c r="C74" s="76" t="s">
-        <v>89</v>
+      <c r="C74" s="74" t="s">
+        <v>86</v>
       </c>
       <c r="D74" s="38">
         <v>2</v>
@@ -4157,9 +4144,9 @@
       <c r="J74" s="29">
         <v>2</v>
       </c>
-      <c r="K74" s="74"/>
-      <c r="L74" s="75"/>
-      <c r="M74" s="75"/>
+      <c r="K74" s="72"/>
+      <c r="L74" s="73"/>
+      <c r="M74" s="73"/>
       <c r="N74" s="28">
         <f t="shared" si="39"/>
         <v>8</v>
@@ -4169,15 +4156,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="53">
+    <row r="75" spans="1:15" s="1" customFormat="1">
+      <c r="A75" s="51">
         <v>6</v>
       </c>
-      <c r="B75" s="104">
+      <c r="B75" s="94">
         <v>42356</v>
       </c>
-      <c r="C75" s="76" t="s">
-        <v>90</v>
+      <c r="C75" s="74" t="s">
+        <v>87</v>
       </c>
       <c r="D75" s="38">
         <v>1</v>
@@ -4194,9 +4181,9 @@
       <c r="J75" s="29">
         <v>1</v>
       </c>
-      <c r="K75" s="74"/>
-      <c r="L75" s="75"/>
-      <c r="M75" s="75"/>
+      <c r="K75" s="72"/>
+      <c r="L75" s="73"/>
+      <c r="M75" s="73"/>
       <c r="N75" s="28">
         <f t="shared" si="39"/>
         <v>4</v>
@@ -4206,14 +4193,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" s="1" customFormat="1">
       <c r="A76" s="23">
         <v>6</v>
       </c>
-      <c r="B76" s="102" t="s">
-        <v>70</v>
-      </c>
-      <c r="C76" s="76" t="s">
+      <c r="B76" s="94">
+        <v>42356</v>
+      </c>
+      <c r="C76" s="74" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="42">
@@ -4237,41 +4224,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="86" t="s">
+    <row r="77" spans="1:15" s="1" customFormat="1">
+      <c r="A77" s="97" t="s">
         <v>41</v>
       </c>
-      <c r="B77" s="86"/>
-      <c r="C77" s="86"/>
-      <c r="D77" s="86"/>
-      <c r="E77" s="86"/>
-      <c r="F77" s="86"/>
-      <c r="G77" s="86"/>
-      <c r="H77" s="86"/>
-      <c r="I77" s="86"/>
-      <c r="J77" s="86" t="s">
+      <c r="B77" s="97"/>
+      <c r="C77" s="97"/>
+      <c r="D77" s="97"/>
+      <c r="E77" s="97"/>
+      <c r="F77" s="97"/>
+      <c r="G77" s="97"/>
+      <c r="H77" s="97"/>
+      <c r="I77" s="97"/>
+      <c r="J77" s="97" t="s">
         <v>47</v>
       </c>
-      <c r="K77" s="85"/>
-      <c r="L77" s="80"/>
-      <c r="M77" s="80"/>
-      <c r="N77" s="94">
+      <c r="K77" s="98"/>
+      <c r="L77" s="78"/>
+      <c r="M77" s="78"/>
+      <c r="N77" s="84">
         <f>SUM(N63:N76)</f>
         <v>66.849999999999994</v>
       </c>
-      <c r="O77" s="94">
+      <c r="O77" s="84">
         <f>SUM(O63:O76)</f>
         <v>43.55</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" s="1" customFormat="1">
       <c r="A78" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="101">
+      <c r="B78" s="91">
         <v>42380</v>
       </c>
-      <c r="C78" s="71" t="s">
+      <c r="C78" s="69" t="s">
         <v>59</v>
       </c>
       <c r="D78" s="38">
@@ -4301,15 +4288,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" s="1" customFormat="1">
       <c r="A79" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="104">
+      <c r="B79" s="94">
         <v>42380</v>
       </c>
-      <c r="C79" s="79" t="s">
-        <v>124</v>
+      <c r="C79" s="77" t="s">
+        <v>119</v>
       </c>
       <c r="D79" s="38">
         <v>1</v>
@@ -4322,9 +4309,9 @@
       <c r="J79" s="29">
         <v>1</v>
       </c>
-      <c r="K79" s="53"/>
-      <c r="L79" s="75"/>
-      <c r="M79" s="75"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="73"/>
+      <c r="M79" s="73"/>
       <c r="N79" s="28">
         <f t="shared" ref="N79:N97" si="42">D79+F79+H79+J79+L79</f>
         <v>2</v>
@@ -4334,15 +4321,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" s="1" customFormat="1">
       <c r="A80" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="104">
+      <c r="B80" s="94">
         <v>42380</v>
       </c>
-      <c r="C80" s="79" t="s">
-        <v>99</v>
+      <c r="C80" s="77" t="s">
+        <v>96</v>
       </c>
       <c r="D80" s="38">
         <v>1</v>
@@ -4359,9 +4346,9 @@
       <c r="J80" s="29">
         <v>2</v>
       </c>
-      <c r="K80" s="53"/>
-      <c r="L80" s="75"/>
-      <c r="M80" s="75"/>
+      <c r="K80" s="51"/>
+      <c r="L80" s="73"/>
+      <c r="M80" s="73"/>
       <c r="N80" s="28">
         <f t="shared" si="42"/>
         <v>5</v>
@@ -4371,15 +4358,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" s="1" customFormat="1">
       <c r="A81" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B81" s="104">
+      <c r="B81" s="94">
         <v>42380</v>
       </c>
-      <c r="C81" s="79" t="s">
-        <v>91</v>
+      <c r="C81" s="77" t="s">
+        <v>88</v>
       </c>
       <c r="D81" s="38">
         <v>2</v>
@@ -4396,9 +4383,9 @@
       <c r="J81" s="29">
         <v>2</v>
       </c>
-      <c r="K81" s="53"/>
-      <c r="L81" s="75"/>
-      <c r="M81" s="75"/>
+      <c r="K81" s="51"/>
+      <c r="L81" s="73"/>
+      <c r="M81" s="73"/>
       <c r="N81" s="28">
         <f t="shared" si="42"/>
         <v>8</v>
@@ -4408,15 +4395,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" s="1" customFormat="1">
       <c r="A82" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B82" s="104">
+      <c r="B82" s="94">
         <v>42380</v>
       </c>
-      <c r="C82" s="76" t="s">
-        <v>83</v>
+      <c r="C82" s="74" t="s">
+        <v>80</v>
       </c>
       <c r="D82" s="38">
         <v>3</v>
@@ -4429,9 +4416,9 @@
       <c r="J82" s="29">
         <v>3</v>
       </c>
-      <c r="K82" s="53"/>
-      <c r="L82" s="75"/>
-      <c r="M82" s="75"/>
+      <c r="K82" s="51"/>
+      <c r="L82" s="73"/>
+      <c r="M82" s="73"/>
       <c r="N82" s="28">
         <f t="shared" si="42"/>
         <v>6</v>
@@ -4441,14 +4428,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" s="1" customFormat="1">
       <c r="A83" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B83" s="102">
+      <c r="B83" s="92">
         <v>42381</v>
       </c>
-      <c r="C83" s="76" t="s">
+      <c r="C83" s="74" t="s">
         <v>59</v>
       </c>
       <c r="D83" s="38">
@@ -4478,15 +4465,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" s="1" customFormat="1">
       <c r="A84" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="102">
+      <c r="B84" s="92">
         <v>42381</v>
       </c>
-      <c r="C84" s="76" t="s">
-        <v>94</v>
+      <c r="C84" s="74" t="s">
+        <v>91</v>
       </c>
       <c r="D84" s="38">
         <v>5</v>
@@ -4515,15 +4502,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" s="1" customFormat="1">
       <c r="A85" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="102">
+      <c r="B85" s="92">
         <v>42381</v>
       </c>
-      <c r="C85" s="76" t="s">
-        <v>92</v>
+      <c r="C85" s="74" t="s">
+        <v>89</v>
       </c>
       <c r="D85" s="38">
         <v>4</v>
@@ -4552,14 +4539,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" s="1" customFormat="1">
       <c r="A86" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B86" s="102">
+      <c r="B86" s="92">
         <v>42382</v>
       </c>
-      <c r="C86" s="76" t="s">
+      <c r="C86" s="74" t="s">
         <v>59</v>
       </c>
       <c r="D86" s="38">
@@ -4589,15 +4576,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" s="1" customFormat="1">
       <c r="A87" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="102">
+      <c r="B87" s="92">
         <v>42382</v>
       </c>
-      <c r="C87" s="76" t="s">
-        <v>111</v>
+      <c r="C87" s="74" t="s">
+        <v>107</v>
       </c>
       <c r="D87" s="38">
         <v>4</v>
@@ -4626,15 +4613,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" s="1" customFormat="1">
       <c r="A88" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B88" s="102">
+      <c r="B88" s="92">
         <v>42382</v>
       </c>
-      <c r="C88" s="76" t="s">
-        <v>93</v>
+      <c r="C88" s="74" t="s">
+        <v>90</v>
       </c>
       <c r="D88" s="38">
         <v>4</v>
@@ -4663,15 +4650,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" s="1" customFormat="1">
       <c r="A89" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="102">
+      <c r="B89" s="92">
         <v>42382</v>
       </c>
-      <c r="C89" s="76" t="s">
-        <v>117</v>
+      <c r="C89" s="74" t="s">
+        <v>112</v>
       </c>
       <c r="D89" s="38">
         <v>1</v>
@@ -4700,14 +4687,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15">
       <c r="A90" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="102">
+      <c r="B90" s="92">
         <v>42383</v>
       </c>
-      <c r="C90" s="76" t="s">
+      <c r="C90" s="74" t="s">
         <v>59</v>
       </c>
       <c r="D90" s="38">
@@ -4737,15 +4724,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15">
       <c r="A91" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B91" s="102">
+      <c r="B91" s="92">
         <v>42383</v>
       </c>
-      <c r="C91" s="76" t="s">
-        <v>95</v>
+      <c r="C91" s="74" t="s">
+        <v>92</v>
       </c>
       <c r="D91" s="38">
         <v>2</v>
@@ -4774,15 +4761,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15">
       <c r="A92" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="102">
+      <c r="B92" s="92">
         <v>42383</v>
       </c>
-      <c r="C92" s="76" t="s">
-        <v>97</v>
+      <c r="C92" s="74" t="s">
+        <v>94</v>
       </c>
       <c r="D92" s="38">
         <v>4</v>
@@ -4811,14 +4798,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15">
       <c r="A93" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B93" s="102">
+      <c r="B93" s="92">
         <v>42384</v>
       </c>
-      <c r="C93" s="76" t="s">
+      <c r="C93" s="74" t="s">
         <v>59</v>
       </c>
       <c r="D93" s="38">
@@ -4848,34 +4835,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15">
       <c r="A94" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="102">
+      <c r="B94" s="92">
         <v>42384</v>
       </c>
-      <c r="C94" s="99" t="s">
-        <v>110</v>
-      </c>
-      <c r="D94" s="68">
+      <c r="C94" s="89" t="s">
+        <v>120</v>
+      </c>
+      <c r="D94" s="66">
         <v>6</v>
       </c>
-      <c r="E94" s="68"/>
-      <c r="F94" s="67">
-        <v>4</v>
-      </c>
-      <c r="G94" s="67"/>
-      <c r="H94" s="69">
-        <v>4</v>
-      </c>
-      <c r="I94" s="69"/>
-      <c r="J94" s="67">
-        <v>4</v>
-      </c>
-      <c r="K94" s="63"/>
-      <c r="L94" s="66"/>
-      <c r="M94" s="66"/>
+      <c r="E94" s="66"/>
+      <c r="F94" s="65">
+        <v>4</v>
+      </c>
+      <c r="G94" s="65"/>
+      <c r="H94" s="67">
+        <v>4</v>
+      </c>
+      <c r="I94" s="67"/>
+      <c r="J94" s="65">
+        <v>4</v>
+      </c>
+      <c r="K94" s="61"/>
+      <c r="L94" s="64"/>
+      <c r="M94" s="64"/>
       <c r="N94" s="28">
         <f t="shared" si="42"/>
         <v>18</v>
@@ -4885,34 +4872,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15">
       <c r="A95" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B95" s="102">
+      <c r="B95" s="92">
         <v>42384</v>
       </c>
-      <c r="C95" s="99" t="s">
-        <v>96</v>
-      </c>
-      <c r="D95" s="68">
-        <v>1</v>
-      </c>
-      <c r="E95" s="68"/>
-      <c r="F95" s="67">
-        <v>1</v>
-      </c>
-      <c r="G95" s="67"/>
-      <c r="H95" s="69">
+      <c r="C95" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="D95" s="66">
+        <v>1</v>
+      </c>
+      <c r="E95" s="66"/>
+      <c r="F95" s="65">
+        <v>1</v>
+      </c>
+      <c r="G95" s="65"/>
+      <c r="H95" s="67">
         <v>5</v>
       </c>
-      <c r="I95" s="69"/>
-      <c r="J95" s="67">
-        <v>1</v>
-      </c>
-      <c r="K95" s="63"/>
-      <c r="L95" s="66"/>
-      <c r="M95" s="66"/>
+      <c r="I95" s="67"/>
+      <c r="J95" s="65">
+        <v>1</v>
+      </c>
+      <c r="K95" s="61"/>
+      <c r="L95" s="64"/>
+      <c r="M95" s="64"/>
       <c r="N95" s="28">
         <f t="shared" si="42"/>
         <v>8</v>
@@ -4922,115 +4909,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A96" s="63" t="s">
+    <row r="96" spans="1:15">
+      <c r="A96" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="105">
+      <c r="B96" s="95">
         <v>42384</v>
       </c>
-      <c r="C96" s="100" t="s">
-        <v>98</v>
-      </c>
-      <c r="D96" s="64">
-        <v>2</v>
-      </c>
-      <c r="E96" s="64"/>
-      <c r="F96" s="63">
-        <v>2</v>
-      </c>
-      <c r="G96" s="63"/>
-      <c r="H96" s="65">
-        <v>2</v>
-      </c>
-      <c r="I96" s="65"/>
-      <c r="J96" s="63">
-        <v>2</v>
-      </c>
-      <c r="K96" s="63"/>
-      <c r="L96" s="66"/>
-      <c r="M96" s="66"/>
+      <c r="C96" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="D96" s="62">
+        <v>2</v>
+      </c>
+      <c r="E96" s="62"/>
+      <c r="F96" s="61">
+        <v>2</v>
+      </c>
+      <c r="G96" s="61"/>
+      <c r="H96" s="63">
+        <v>2</v>
+      </c>
+      <c r="I96" s="63"/>
+      <c r="J96" s="61">
+        <v>2</v>
+      </c>
+      <c r="K96" s="61"/>
+      <c r="L96" s="64"/>
+      <c r="M96" s="64"/>
       <c r="N96" s="28">
         <f t="shared" si="42"/>
         <v>8</v>
       </c>
-      <c r="O96" s="67">
+      <c r="O96" s="65">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A97" s="84" t="s">
+    <row r="97" spans="1:15">
+      <c r="A97" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B97" s="106">
+      <c r="B97" s="96">
         <v>42384</v>
       </c>
-      <c r="C97" s="97" t="s">
-        <v>118</v>
-      </c>
-      <c r="D97" s="64">
-        <v>1</v>
-      </c>
-      <c r="E97" s="64"/>
-      <c r="F97" s="63">
-        <v>1</v>
-      </c>
-      <c r="G97" s="63"/>
-      <c r="H97" s="65">
-        <v>1</v>
-      </c>
-      <c r="I97" s="65"/>
-      <c r="J97" s="63">
-        <v>1</v>
-      </c>
-      <c r="K97" s="63"/>
-      <c r="L97" s="66"/>
-      <c r="M97" s="66"/>
-      <c r="N97" s="83">
+      <c r="C97" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="D97" s="62">
+        <v>1</v>
+      </c>
+      <c r="E97" s="62"/>
+      <c r="F97" s="61">
+        <v>1</v>
+      </c>
+      <c r="G97" s="61"/>
+      <c r="H97" s="63">
+        <v>1</v>
+      </c>
+      <c r="I97" s="63"/>
+      <c r="J97" s="61">
+        <v>1</v>
+      </c>
+      <c r="K97" s="61"/>
+      <c r="L97" s="64"/>
+      <c r="M97" s="64"/>
+      <c r="N97" s="81">
         <f t="shared" si="42"/>
         <v>4</v>
       </c>
-      <c r="O97" s="67">
+      <c r="O97" s="65">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A98" s="86" t="s">
+    <row r="98" spans="1:15">
+      <c r="A98" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="B98" s="86"/>
-      <c r="C98" s="86"/>
-      <c r="D98" s="86"/>
-      <c r="E98" s="86"/>
-      <c r="F98" s="86"/>
-      <c r="G98" s="86"/>
-      <c r="H98" s="86"/>
-      <c r="I98" s="86"/>
-      <c r="J98" s="86" t="s">
+      <c r="B98" s="97"/>
+      <c r="C98" s="97"/>
+      <c r="D98" s="97"/>
+      <c r="E98" s="97"/>
+      <c r="F98" s="97"/>
+      <c r="G98" s="97"/>
+      <c r="H98" s="97"/>
+      <c r="I98" s="97"/>
+      <c r="J98" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="K98" s="85"/>
-      <c r="L98" s="80"/>
-      <c r="M98" s="80"/>
-      <c r="N98" s="94">
+      <c r="K98" s="98"/>
+      <c r="L98" s="78"/>
+      <c r="M98" s="78"/>
+      <c r="N98" s="84">
         <f>SUM(N78:N96)</f>
         <v>167.5</v>
       </c>
-      <c r="O98" s="94">
+      <c r="O98" s="84">
         <f>SUM(O78:O96)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15">
       <c r="A99" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B99" s="101">
+      <c r="B99" s="91">
         <v>42387</v>
       </c>
-      <c r="C99" s="71" t="s">
+      <c r="C99" s="69" t="s">
         <v>59</v>
       </c>
       <c r="D99" s="38">
@@ -5060,15 +5047,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15">
       <c r="A100" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B100" s="102">
+      <c r="B100" s="92">
         <v>42387</v>
       </c>
-      <c r="C100" s="79" t="s">
-        <v>112</v>
+      <c r="C100" s="77" t="s">
+        <v>121</v>
       </c>
       <c r="D100" s="38">
         <v>4</v>
@@ -5085,9 +5072,9 @@
       <c r="J100" s="29">
         <v>2</v>
       </c>
-      <c r="K100" s="53"/>
-      <c r="L100" s="75"/>
-      <c r="M100" s="75"/>
+      <c r="K100" s="51"/>
+      <c r="L100" s="73"/>
+      <c r="M100" s="73"/>
       <c r="N100" s="28">
         <f t="shared" si="44"/>
         <v>10</v>
@@ -5097,15 +5084,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15">
       <c r="A101" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B101" s="102">
+      <c r="B101" s="92">
         <v>42387</v>
       </c>
-      <c r="C101" s="79" t="s">
-        <v>101</v>
+      <c r="C101" s="77" t="s">
+        <v>98</v>
       </c>
       <c r="D101" s="38">
         <v>2</v>
@@ -5122,9 +5109,9 @@
       <c r="J101" s="29">
         <v>2</v>
       </c>
-      <c r="K101" s="53"/>
-      <c r="L101" s="75"/>
-      <c r="M101" s="75"/>
+      <c r="K101" s="51"/>
+      <c r="L101" s="73"/>
+      <c r="M101" s="73"/>
       <c r="N101" s="28">
         <f t="shared" si="44"/>
         <v>12</v>
@@ -5134,15 +5121,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15">
       <c r="A102" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B102" s="102">
+      <c r="B102" s="92">
         <v>42387</v>
       </c>
-      <c r="C102" s="79" t="s">
-        <v>106</v>
+      <c r="C102" s="77" t="s">
+        <v>103</v>
       </c>
       <c r="D102" s="38">
         <v>2</v>
@@ -5159,9 +5146,9 @@
       <c r="J102" s="29">
         <v>4</v>
       </c>
-      <c r="K102" s="53"/>
-      <c r="L102" s="75"/>
-      <c r="M102" s="75"/>
+      <c r="K102" s="51"/>
+      <c r="L102" s="73"/>
+      <c r="M102" s="73"/>
       <c r="N102" s="28">
         <f t="shared" si="44"/>
         <v>10</v>
@@ -5171,14 +5158,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15">
       <c r="A103" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B103" s="102">
+      <c r="B103" s="92">
         <v>42388</v>
       </c>
-      <c r="C103" s="76" t="s">
+      <c r="C103" s="74" t="s">
         <v>59</v>
       </c>
       <c r="D103" s="38">
@@ -5208,15 +5195,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15">
       <c r="A104" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B104" s="102">
+      <c r="B104" s="92">
         <v>42388</v>
       </c>
-      <c r="C104" s="76" t="s">
-        <v>110</v>
+      <c r="C104" s="74" t="s">
+        <v>120</v>
       </c>
       <c r="D104" s="38">
         <v>4</v>
@@ -5245,15 +5232,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15">
       <c r="A105" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B105" s="102">
+      <c r="B105" s="92">
         <v>42388</v>
       </c>
-      <c r="C105" s="76" t="s">
-        <v>100</v>
+      <c r="C105" s="74" t="s">
+        <v>97</v>
       </c>
       <c r="D105" s="38">
         <v>2</v>
@@ -5282,15 +5269,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15">
       <c r="A106" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B106" s="102">
+      <c r="B106" s="92">
         <v>42388</v>
       </c>
-      <c r="C106" s="76" t="s">
-        <v>107</v>
+      <c r="C106" s="74" t="s">
+        <v>104</v>
       </c>
       <c r="D106" s="38">
         <v>2</v>
@@ -5319,14 +5306,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15">
       <c r="A107" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B107" s="102">
+      <c r="B107" s="92">
         <v>42389</v>
       </c>
-      <c r="C107" s="76" t="s">
+      <c r="C107" s="74" t="s">
         <v>59</v>
       </c>
       <c r="D107" s="38">
@@ -5356,15 +5343,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15">
       <c r="A108" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B108" s="102">
+      <c r="B108" s="92">
         <v>42389</v>
       </c>
-      <c r="C108" s="76" t="s">
-        <v>113</v>
+      <c r="C108" s="74" t="s">
+        <v>108</v>
       </c>
       <c r="D108" s="38">
         <v>4</v>
@@ -5393,15 +5380,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15">
       <c r="A109" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B109" s="102">
+      <c r="B109" s="92">
         <v>42389</v>
       </c>
-      <c r="C109" s="76" t="s">
-        <v>114</v>
+      <c r="C109" s="74" t="s">
+        <v>109</v>
       </c>
       <c r="D109" s="38">
         <v>4</v>
@@ -5430,15 +5417,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15">
       <c r="A110" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B110" s="102">
+      <c r="B110" s="92">
         <v>42389</v>
       </c>
-      <c r="C110" s="76" t="s">
-        <v>102</v>
+      <c r="C110" s="74" t="s">
+        <v>99</v>
       </c>
       <c r="D110" s="38">
         <v>1</v>
@@ -5467,15 +5454,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15">
       <c r="A111" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B111" s="102">
+      <c r="B111" s="92">
         <v>42389</v>
       </c>
-      <c r="C111" s="76" t="s">
-        <v>107</v>
+      <c r="C111" s="74" t="s">
+        <v>104</v>
       </c>
       <c r="D111" s="38">
         <v>1</v>
@@ -5504,14 +5491,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15">
       <c r="A112" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="102">
+      <c r="B112" s="92">
         <v>42390</v>
       </c>
-      <c r="C112" s="76" t="s">
+      <c r="C112" s="74" t="s">
         <v>59</v>
       </c>
       <c r="D112" s="38">
@@ -5541,15 +5528,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15">
       <c r="A113" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B113" s="102">
+      <c r="B113" s="92">
         <v>42390</v>
       </c>
-      <c r="C113" s="76" t="s">
-        <v>115</v>
+      <c r="C113" s="74" t="s">
+        <v>110</v>
       </c>
       <c r="D113" s="38">
         <v>4</v>
@@ -5578,15 +5565,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15">
       <c r="A114" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="102">
+      <c r="B114" s="92">
         <v>42390</v>
       </c>
-      <c r="C114" s="76" t="s">
-        <v>103</v>
+      <c r="C114" s="74" t="s">
+        <v>100</v>
       </c>
       <c r="D114" s="38">
         <v>1</v>
@@ -5615,15 +5602,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15">
       <c r="A115" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B115" s="102">
+      <c r="B115" s="92">
         <v>42390</v>
       </c>
-      <c r="C115" s="76" t="s">
-        <v>108</v>
+      <c r="C115" s="74" t="s">
+        <v>105</v>
       </c>
       <c r="D115" s="38">
         <v>1</v>
@@ -5652,14 +5639,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15">
       <c r="A116" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="102">
+      <c r="B116" s="92">
         <v>42391</v>
       </c>
-      <c r="C116" s="76" t="s">
+      <c r="C116" s="74" t="s">
         <v>59</v>
       </c>
       <c r="D116" s="38">
@@ -5689,34 +5676,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15">
       <c r="A117" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B117" s="102">
+      <c r="B117" s="92">
         <v>42391</v>
       </c>
-      <c r="C117" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="D117" s="68">
+      <c r="C117" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="D117" s="66">
         <v>6</v>
       </c>
-      <c r="E117" s="68"/>
-      <c r="F117" s="67">
-        <v>4</v>
-      </c>
-      <c r="G117" s="67"/>
-      <c r="H117" s="69">
-        <v>4</v>
-      </c>
-      <c r="I117" s="69"/>
-      <c r="J117" s="67">
-        <v>4</v>
-      </c>
-      <c r="K117" s="63"/>
-      <c r="L117" s="66"/>
-      <c r="M117" s="66"/>
+      <c r="E117" s="66"/>
+      <c r="F117" s="65">
+        <v>4</v>
+      </c>
+      <c r="G117" s="65"/>
+      <c r="H117" s="67">
+        <v>4</v>
+      </c>
+      <c r="I117" s="67"/>
+      <c r="J117" s="65">
+        <v>4</v>
+      </c>
+      <c r="K117" s="61"/>
+      <c r="L117" s="64"/>
+      <c r="M117" s="64"/>
       <c r="N117" s="28">
         <f t="shared" si="45"/>
         <v>18</v>
@@ -5726,34 +5713,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15">
       <c r="A118" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B118" s="102">
+      <c r="B118" s="92">
         <v>42391</v>
       </c>
-      <c r="C118" s="99" t="s">
-        <v>104</v>
-      </c>
-      <c r="D118" s="68">
-        <v>1</v>
-      </c>
-      <c r="E118" s="68"/>
-      <c r="F118" s="67">
-        <v>4</v>
-      </c>
-      <c r="G118" s="67"/>
-      <c r="H118" s="69">
-        <v>4</v>
-      </c>
-      <c r="I118" s="69"/>
-      <c r="J118" s="67">
-        <v>4</v>
-      </c>
-      <c r="K118" s="63"/>
-      <c r="L118" s="66"/>
-      <c r="M118" s="66"/>
+      <c r="C118" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="D118" s="66">
+        <v>1</v>
+      </c>
+      <c r="E118" s="66"/>
+      <c r="F118" s="65">
+        <v>4</v>
+      </c>
+      <c r="G118" s="65"/>
+      <c r="H118" s="67">
+        <v>4</v>
+      </c>
+      <c r="I118" s="67"/>
+      <c r="J118" s="65">
+        <v>4</v>
+      </c>
+      <c r="K118" s="61"/>
+      <c r="L118" s="64"/>
+      <c r="M118" s="64"/>
       <c r="N118" s="28">
         <f t="shared" si="45"/>
         <v>13</v>
@@ -5763,34 +5750,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15">
       <c r="A119" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B119" s="102">
+      <c r="B119" s="92">
         <v>42391</v>
       </c>
-      <c r="C119" s="99" t="s">
-        <v>105</v>
-      </c>
-      <c r="D119" s="64">
-        <v>1</v>
-      </c>
-      <c r="E119" s="64"/>
-      <c r="F119" s="63">
-        <v>1</v>
-      </c>
-      <c r="G119" s="63"/>
-      <c r="H119" s="65">
-        <v>1</v>
-      </c>
-      <c r="I119" s="65"/>
-      <c r="J119" s="63">
-        <v>1</v>
-      </c>
-      <c r="K119" s="63"/>
-      <c r="L119" s="66"/>
-      <c r="M119" s="66"/>
+      <c r="C119" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="D119" s="66">
+        <v>1</v>
+      </c>
+      <c r="E119" s="66"/>
+      <c r="F119" s="65">
+        <v>1</v>
+      </c>
+      <c r="G119" s="65"/>
+      <c r="H119" s="67">
+        <v>1</v>
+      </c>
+      <c r="I119" s="67"/>
+      <c r="J119" s="65">
+        <v>1</v>
+      </c>
+      <c r="K119" s="65"/>
+      <c r="L119" s="64"/>
+      <c r="M119" s="64"/>
       <c r="N119" s="28">
         <f t="shared" si="45"/>
         <v>4</v>
@@ -5800,34 +5787,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15">
       <c r="A120" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B120" s="102">
+      <c r="B120" s="92">
         <v>42393</v>
       </c>
-      <c r="C120" s="99" t="s">
-        <v>109</v>
-      </c>
-      <c r="D120" s="64">
-        <v>2</v>
-      </c>
-      <c r="E120" s="64"/>
-      <c r="F120" s="63">
-        <v>1</v>
-      </c>
-      <c r="G120" s="63"/>
-      <c r="H120" s="65">
-        <v>1</v>
-      </c>
-      <c r="I120" s="65"/>
-      <c r="J120" s="63">
-        <v>1</v>
-      </c>
-      <c r="K120" s="63"/>
-      <c r="L120" s="66"/>
-      <c r="M120" s="66"/>
+      <c r="C120" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="D120" s="66">
+        <v>2</v>
+      </c>
+      <c r="E120" s="66"/>
+      <c r="F120" s="65">
+        <v>1</v>
+      </c>
+      <c r="G120" s="65"/>
+      <c r="H120" s="67">
+        <v>1</v>
+      </c>
+      <c r="I120" s="67"/>
+      <c r="J120" s="65">
+        <v>1</v>
+      </c>
+      <c r="K120" s="65"/>
+      <c r="L120" s="64"/>
+      <c r="M120" s="64"/>
       <c r="N120" s="28">
         <f t="shared" si="45"/>
         <v>5</v>
@@ -5837,32 +5824,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15">
       <c r="A121" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B121" s="103">
+      <c r="B121" s="93">
         <v>42393</v>
       </c>
-      <c r="C121" s="97" t="s">
+      <c r="C121" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D121" s="44">
-        <v>2</v>
-      </c>
-      <c r="E121" s="44"/>
-      <c r="F121" s="30">
-        <v>1</v>
-      </c>
-      <c r="G121" s="30"/>
-      <c r="H121" s="45">
-        <v>1</v>
-      </c>
-      <c r="I121" s="45"/>
-      <c r="J121" s="30">
-        <v>1</v>
-      </c>
-      <c r="K121" s="30"/>
+      <c r="D121" s="105">
+        <v>2</v>
+      </c>
+      <c r="E121" s="105"/>
+      <c r="F121" s="36">
+        <v>1</v>
+      </c>
+      <c r="G121" s="36"/>
+      <c r="H121" s="106">
+        <v>1</v>
+      </c>
+      <c r="I121" s="106"/>
+      <c r="J121" s="36">
+        <v>1</v>
+      </c>
+      <c r="K121" s="36"/>
       <c r="L121" s="41"/>
       <c r="M121" s="41"/>
       <c r="N121" s="35">
@@ -5874,34 +5861,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A122" s="80"/>
-      <c r="B122" s="95"/>
-      <c r="C122" s="80"/>
-      <c r="D122" s="81"/>
-      <c r="E122" s="81"/>
-      <c r="F122" s="80"/>
-      <c r="G122" s="80"/>
-      <c r="H122" s="82"/>
-      <c r="I122" s="82"/>
-      <c r="J122" s="86" t="s">
+    <row r="122" spans="1:15">
+      <c r="A122" s="78"/>
+      <c r="B122" s="85"/>
+      <c r="C122" s="78"/>
+      <c r="D122" s="79"/>
+      <c r="E122" s="79"/>
+      <c r="F122" s="78"/>
+      <c r="G122" s="78"/>
+      <c r="H122" s="80"/>
+      <c r="I122" s="80"/>
+      <c r="J122" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="K122" s="85"/>
+      <c r="K122" s="98"/>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
-      <c r="N122" s="96">
+      <c r="N122" s="86">
         <f>SUM(N99:N121)</f>
         <v>183.5</v>
       </c>
-      <c r="O122" s="94">
+      <c r="O122" s="84">
         <f>SUM(O99:O121)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15">
       <c r="A123" s="4"/>
-      <c r="B123" s="61"/>
+      <c r="B123" s="59"/>
       <c r="C123" s="5" t="s">
         <v>4</v>
       </c>
@@ -5956,6 +5943,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
     <mergeCell ref="J122:K122"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A5:I5"/>
@@ -5972,14 +5967,6 @@
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="A47:I47"/>
     <mergeCell ref="J47:K47"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -5989,14 +5976,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6005,6 +5992,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
@@ -6014,11 +6005,16 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -6179,16 +6175,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -6204,15 +6199,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6228,12 +6223,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
+++ b/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
@@ -900,15 +900,18 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -924,10 +927,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1235,8 +1235,8 @@
   <dimension ref="A1:O123"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C96" sqref="C96"/>
+      <pane ySplit="4" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1264,18 +1264,18 @@
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="100" t="s">
+      <c r="E2" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="101"/>
       <c r="H2" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="99">
+      <c r="I2" s="106">
         <f ca="1">TODAY()</f>
         <v>42354</v>
       </c>
-      <c r="J2" s="99"/>
+      <c r="J2" s="106"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="83.25" customHeight="1">
       <c r="A3" s="44" t="s">
@@ -1327,43 +1327,43 @@
     <row r="4" spans="1:15" s="1" customFormat="1">
       <c r="A4" s="78"/>
       <c r="B4" s="58"/>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="103"/>
-      <c r="F4" s="98" t="s">
+      <c r="E4" s="104"/>
+      <c r="F4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="98"/>
-      <c r="H4" s="104" t="s">
+      <c r="G4" s="99"/>
+      <c r="H4" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="104"/>
-      <c r="J4" s="98" t="s">
+      <c r="I4" s="105"/>
+      <c r="J4" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="98"/>
-      <c r="L4" s="101" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="102"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="103"/>
       <c r="N4" s="83"/>
       <c r="O4" s="78"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="98"/>
-      <c r="K5" s="98"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="99"/>
       <c r="L5" s="78"/>
       <c r="M5" s="78"/>
       <c r="N5" s="84"/>
@@ -1587,21 +1587,21 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="98" t="s">
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="98"/>
+      <c r="K11" s="99"/>
       <c r="L11" s="78"/>
       <c r="M11" s="78"/>
       <c r="N11" s="84">
@@ -2040,21 +2040,21 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1">
-      <c r="A22" s="97" t="s">
+      <c r="A22" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="97"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="98" t="s">
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="98"/>
+      <c r="K22" s="99"/>
       <c r="L22" s="78"/>
       <c r="M22" s="78"/>
       <c r="N22" s="84">
@@ -2580,21 +2580,21 @@
       </c>
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1">
-      <c r="A36" s="97" t="s">
+      <c r="A36" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="98" t="s">
+      <c r="B36" s="100"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="K36" s="98"/>
+      <c r="K36" s="99"/>
       <c r="L36" s="78"/>
       <c r="M36" s="78"/>
       <c r="N36" s="84">
@@ -3029,21 +3029,21 @@
       </c>
     </row>
     <row r="47" spans="1:15" s="1" customFormat="1">
-      <c r="A47" s="97" t="s">
+      <c r="A47" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="97"/>
-      <c r="C47" s="97"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="97"/>
-      <c r="H47" s="97"/>
-      <c r="I47" s="97"/>
-      <c r="J47" s="98" t="s">
+      <c r="B47" s="100"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="K47" s="98"/>
+      <c r="K47" s="99"/>
       <c r="L47" s="78"/>
       <c r="M47" s="78"/>
       <c r="N47" s="84">
@@ -3618,21 +3618,21 @@
       </c>
     </row>
     <row r="62" spans="1:15" s="1" customFormat="1">
-      <c r="A62" s="97" t="s">
+      <c r="A62" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="97"/>
-      <c r="C62" s="97"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="97"/>
-      <c r="F62" s="97"/>
-      <c r="G62" s="97"/>
-      <c r="H62" s="97"/>
-      <c r="I62" s="97"/>
-      <c r="J62" s="98" t="s">
+      <c r="B62" s="100"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="100"/>
+      <c r="E62" s="100"/>
+      <c r="F62" s="100"/>
+      <c r="G62" s="100"/>
+      <c r="H62" s="100"/>
+      <c r="I62" s="100"/>
+      <c r="J62" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="K62" s="98"/>
+      <c r="K62" s="99"/>
       <c r="L62" s="78"/>
       <c r="M62" s="78"/>
       <c r="N62" s="84">
@@ -4225,21 +4225,21 @@
       </c>
     </row>
     <row r="77" spans="1:15" s="1" customFormat="1">
-      <c r="A77" s="97" t="s">
+      <c r="A77" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="B77" s="97"/>
-      <c r="C77" s="97"/>
-      <c r="D77" s="97"/>
-      <c r="E77" s="97"/>
-      <c r="F77" s="97"/>
-      <c r="G77" s="97"/>
-      <c r="H77" s="97"/>
-      <c r="I77" s="97"/>
-      <c r="J77" s="97" t="s">
+      <c r="B77" s="100"/>
+      <c r="C77" s="100"/>
+      <c r="D77" s="100"/>
+      <c r="E77" s="100"/>
+      <c r="F77" s="100"/>
+      <c r="G77" s="100"/>
+      <c r="H77" s="100"/>
+      <c r="I77" s="100"/>
+      <c r="J77" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="K77" s="98"/>
+      <c r="K77" s="99"/>
       <c r="L77" s="78"/>
       <c r="M77" s="78"/>
       <c r="N77" s="84">
@@ -4984,21 +4984,21 @@
       </c>
     </row>
     <row r="98" spans="1:15">
-      <c r="A98" s="97" t="s">
+      <c r="A98" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="B98" s="97"/>
-      <c r="C98" s="97"/>
-      <c r="D98" s="97"/>
-      <c r="E98" s="97"/>
-      <c r="F98" s="97"/>
-      <c r="G98" s="97"/>
-      <c r="H98" s="97"/>
-      <c r="I98" s="97"/>
-      <c r="J98" s="97" t="s">
+      <c r="B98" s="100"/>
+      <c r="C98" s="100"/>
+      <c r="D98" s="100"/>
+      <c r="E98" s="100"/>
+      <c r="F98" s="100"/>
+      <c r="G98" s="100"/>
+      <c r="H98" s="100"/>
+      <c r="I98" s="100"/>
+      <c r="J98" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="K98" s="98"/>
+      <c r="K98" s="99"/>
       <c r="L98" s="78"/>
       <c r="M98" s="78"/>
       <c r="N98" s="84">
@@ -5792,7 +5792,7 @@
         <v>9</v>
       </c>
       <c r="B120" s="92">
-        <v>42393</v>
+        <v>42391</v>
       </c>
       <c r="C120" s="89" t="s">
         <v>106</v>
@@ -5829,23 +5829,23 @@
         <v>9</v>
       </c>
       <c r="B121" s="93">
-        <v>42393</v>
+        <v>42391</v>
       </c>
       <c r="C121" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D121" s="105">
-        <v>2</v>
-      </c>
-      <c r="E121" s="105"/>
+      <c r="D121" s="97">
+        <v>2</v>
+      </c>
+      <c r="E121" s="97"/>
       <c r="F121" s="36">
         <v>1</v>
       </c>
       <c r="G121" s="36"/>
-      <c r="H121" s="106">
-        <v>1</v>
-      </c>
-      <c r="I121" s="106"/>
+      <c r="H121" s="98">
+        <v>1</v>
+      </c>
+      <c r="I121" s="98"/>
       <c r="J121" s="36">
         <v>1</v>
       </c>
@@ -5871,10 +5871,10 @@
       <c r="G122" s="78"/>
       <c r="H122" s="80"/>
       <c r="I122" s="80"/>
-      <c r="J122" s="97" t="s">
+      <c r="J122" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="K122" s="98"/>
+      <c r="K122" s="99"/>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
       <c r="N122" s="86">
@@ -5943,14 +5943,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
     <mergeCell ref="J122:K122"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A5:I5"/>
@@ -5967,6 +5959,14 @@
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="A47:I47"/>
     <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -5992,10 +5992,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
   <documentManagement>
     <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
@@ -6005,16 +6001,11 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -6175,15 +6166,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -6199,15 +6191,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6223,4 +6215,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
+++ b/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Themaopdracht6\Planning (PvA) en urenverantwoording\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="20730" windowHeight="8085"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="126">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -386,17 +391,26 @@
   </si>
   <si>
     <t>17/12/2015</t>
+  </si>
+  <si>
+    <t>STD verder afmaken</t>
+  </si>
+  <si>
+    <t>JESSI???</t>
+  </si>
+  <si>
+    <t>Klassendiagram uitleg Concurrency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -626,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -906,10 +920,13 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -927,7 +944,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -948,7 +971,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Kantoor">
       <a:dk1>
@@ -990,7 +1013,7 @@
     </a:clrScheme>
     <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1022,9 +1045,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1056,6 +1080,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Kantoor">
@@ -1231,15 +1256,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B122" sqref="B122"/>
+      <pane ySplit="4" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N80" sqref="N80:O82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.140625" customWidth="1"/>
     <col min="2" max="2" width="26" style="60" bestFit="1" customWidth="1"/>
@@ -1250,13 +1275,13 @@
     <col min="14" max="15" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="9" customFormat="1" ht="20.25">
+    <row r="1" spans="1:15" s="9" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="55"/>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="15">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="56"/>
       <c r="C2" s="7" t="s">
         <v>7</v>
@@ -1264,20 +1289,20 @@
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="101" t="s">
+      <c r="E2" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="101"/>
+      <c r="F2" s="102"/>
       <c r="H2" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="106">
+      <c r="I2" s="101">
         <f ca="1">TODAY()</f>
-        <v>42354</v>
-      </c>
-      <c r="J2" s="106"/>
-    </row>
-    <row r="3" spans="1:15" s="1" customFormat="1" ht="83.25" customHeight="1">
+        <v>42380</v>
+      </c>
+      <c r="J2" s="101"/>
+    </row>
+    <row r="3" spans="1:15" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
         <v>20</v>
       </c>
@@ -1324,52 +1349,52 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1">
+    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="78"/>
       <c r="B4" s="58"/>
-      <c r="D4" s="104" t="s">
+      <c r="D4" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="104"/>
-      <c r="F4" s="99" t="s">
+      <c r="E4" s="105"/>
+      <c r="F4" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="99"/>
-      <c r="H4" s="105" t="s">
+      <c r="G4" s="100"/>
+      <c r="H4" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="105"/>
-      <c r="J4" s="99" t="s">
+      <c r="I4" s="106"/>
+      <c r="J4" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="99"/>
-      <c r="L4" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="103"/>
+      <c r="K4" s="100"/>
+      <c r="L4" s="103" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="104"/>
       <c r="N4" s="83"/>
       <c r="O4" s="78"/>
     </row>
-    <row r="5" spans="1:15" s="1" customFormat="1">
-      <c r="A5" s="100" t="s">
+    <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="99"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
       <c r="L5" s="78"/>
       <c r="M5" s="78"/>
       <c r="N5" s="84"/>
       <c r="O5" s="84"/>
     </row>
-    <row r="6" spans="1:15" s="1" customFormat="1">
+    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>1</v>
       </c>
@@ -1414,7 +1439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="1" customFormat="1">
+    <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="23">
         <v>1</v>
       </c>
@@ -1459,7 +1484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="1" customFormat="1">
+    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="23">
         <v>1</v>
       </c>
@@ -1496,7 +1521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="1" customFormat="1">
+    <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23">
         <v>1</v>
       </c>
@@ -1541,7 +1566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="1" customFormat="1">
+    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="30">
         <v>1</v>
       </c>
@@ -1586,22 +1611,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="1" customFormat="1">
-      <c r="A11" s="100" t="s">
+    <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="99" t="s">
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="99"/>
+      <c r="K11" s="100"/>
       <c r="L11" s="78"/>
       <c r="M11" s="78"/>
       <c r="N11" s="84">
@@ -1613,7 +1638,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="1" customFormat="1">
+    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>2</v>
       </c>
@@ -1658,7 +1683,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="1" customFormat="1">
+    <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="51">
         <v>2</v>
       </c>
@@ -1707,7 +1732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="1" customFormat="1">
+    <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="51">
         <v>2</v>
       </c>
@@ -1752,7 +1777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="1" customFormat="1">
+    <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="23">
         <v>2</v>
       </c>
@@ -1785,7 +1810,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="1" customFormat="1">
+    <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="23">
         <v>2</v>
       </c>
@@ -1830,7 +1855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" s="1" customFormat="1">
+    <row r="17" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="23">
         <v>2</v>
       </c>
@@ -1875,7 +1900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" s="1" customFormat="1">
+    <row r="18" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23">
         <v>2</v>
       </c>
@@ -1920,7 +1945,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="1" customFormat="1">
+    <row r="19" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="23">
         <v>2</v>
       </c>
@@ -1961,7 +1986,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:15" s="1" customFormat="1">
+    <row r="20" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="23">
         <v>2</v>
       </c>
@@ -1994,7 +2019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="1" customFormat="1">
+    <row r="21" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="23">
         <v>2</v>
       </c>
@@ -2039,22 +2064,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="1" customFormat="1">
-      <c r="A22" s="100" t="s">
+    <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="99" t="s">
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="99"/>
+      <c r="K22" s="100"/>
       <c r="L22" s="78"/>
       <c r="M22" s="78"/>
       <c r="N22" s="84">
@@ -2066,7 +2091,7 @@
         <v>38.25</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="1" customFormat="1">
+    <row r="23" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="23">
         <v>3</v>
       </c>
@@ -2111,7 +2136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:15" s="1" customFormat="1">
+    <row r="24" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="23">
         <v>3</v>
       </c>
@@ -2156,7 +2181,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="1" customFormat="1">
+    <row r="25" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="23">
         <v>3</v>
       </c>
@@ -2201,7 +2226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:15" s="1" customFormat="1">
+    <row r="26" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="23">
         <v>3</v>
       </c>
@@ -2246,7 +2271,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" s="1" customFormat="1">
+    <row r="27" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="23">
         <v>3</v>
       </c>
@@ -2279,7 +2304,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="1" customFormat="1">
+    <row r="28" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="23">
         <v>3</v>
       </c>
@@ -2312,7 +2337,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="1" customFormat="1">
+    <row r="29" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="23">
         <v>3</v>
       </c>
@@ -2345,7 +2370,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="30" spans="1:15" s="1" customFormat="1">
+    <row r="30" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="23">
         <v>3</v>
       </c>
@@ -2390,7 +2415,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:15" s="1" customFormat="1">
+    <row r="31" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="23">
         <v>3</v>
       </c>
@@ -2435,7 +2460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:15" s="1" customFormat="1">
+    <row r="32" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="23">
         <v>3</v>
       </c>
@@ -2472,7 +2497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="1" customFormat="1">
+    <row r="33" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="23">
         <v>3</v>
       </c>
@@ -2505,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="1" customFormat="1">
+    <row r="34" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="61">
         <v>3</v>
       </c>
@@ -2534,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="1" customFormat="1">
+    <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="30">
         <v>3</v>
       </c>
@@ -2579,22 +2604,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="1" customFormat="1">
-      <c r="A36" s="100" t="s">
+    <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="100"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="100"/>
-      <c r="J36" s="99" t="s">
+      <c r="B36" s="99"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="K36" s="99"/>
+      <c r="K36" s="100"/>
       <c r="L36" s="78"/>
       <c r="M36" s="78"/>
       <c r="N36" s="84">
@@ -2606,7 +2631,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="1" customFormat="1">
+    <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="23">
         <v>4</v>
       </c>
@@ -2651,7 +2676,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="1" customFormat="1">
+    <row r="38" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="23">
         <v>4</v>
       </c>
@@ -2688,7 +2713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="1" customFormat="1">
+    <row r="39" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="23">
         <v>4</v>
       </c>
@@ -2725,7 +2750,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="1" customFormat="1">
+    <row r="40" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="23">
         <v>4</v>
       </c>
@@ -2770,7 +2795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="1" customFormat="1">
+    <row r="41" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="23">
         <v>4</v>
       </c>
@@ -2815,7 +2840,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="1" customFormat="1">
+    <row r="42" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="23">
         <v>4</v>
       </c>
@@ -2860,7 +2885,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="1" customFormat="1">
+    <row r="43" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23">
         <v>4</v>
       </c>
@@ -2905,7 +2930,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="1" customFormat="1">
+    <row r="44" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="23">
         <v>4</v>
       </c>
@@ -2950,7 +2975,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="1" customFormat="1">
+    <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="23">
         <v>4</v>
       </c>
@@ -2983,7 +3008,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="1" customFormat="1">
+    <row r="46" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="30">
         <v>4</v>
       </c>
@@ -3028,22 +3053,22 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="1" customFormat="1">
-      <c r="A47" s="100" t="s">
+    <row r="47" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="100"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="100"/>
-      <c r="E47" s="100"/>
-      <c r="F47" s="100"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="99" t="s">
+      <c r="B47" s="99"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="K47" s="99"/>
+      <c r="K47" s="100"/>
       <c r="L47" s="78"/>
       <c r="M47" s="78"/>
       <c r="N47" s="84">
@@ -3055,7 +3080,7 @@
         <v>40.950000000000003</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="1" customFormat="1">
+    <row r="48" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="16">
         <v>5</v>
       </c>
@@ -3092,7 +3117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="1" customFormat="1">
+    <row r="49" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="23">
         <v>5</v>
       </c>
@@ -3137,7 +3162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="1" customFormat="1">
+    <row r="50" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="23">
         <v>5</v>
       </c>
@@ -3182,7 +3207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="1" customFormat="1">
+    <row r="51" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="23">
         <v>5</v>
       </c>
@@ -3227,7 +3252,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="1" customFormat="1">
+    <row r="52" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="23">
         <v>5</v>
       </c>
@@ -3272,7 +3297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="1" customFormat="1">
+    <row r="53" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="23">
         <v>5</v>
       </c>
@@ -3305,7 +3330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="1" customFormat="1">
+    <row r="54" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="23">
         <v>5</v>
       </c>
@@ -3338,7 +3363,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="1" customFormat="1">
+    <row r="55" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="23">
         <v>5</v>
       </c>
@@ -3371,7 +3396,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="1" customFormat="1">
+    <row r="56" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="23">
         <v>5</v>
       </c>
@@ -3404,7 +3429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="1" customFormat="1">
+    <row r="57" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="23">
         <v>5</v>
       </c>
@@ -3449,7 +3474,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="1" customFormat="1">
+    <row r="58" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="23">
         <v>5</v>
       </c>
@@ -3494,7 +3519,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="1" customFormat="1">
+    <row r="59" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="61">
         <v>5</v>
       </c>
@@ -3539,7 +3564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="1" customFormat="1">
+    <row r="60" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="61">
         <v>5</v>
       </c>
@@ -3572,7 +3597,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="61" spans="1:15" s="1" customFormat="1">
+    <row r="61" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="30">
         <v>5</v>
       </c>
@@ -3617,22 +3642,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="1" customFormat="1">
-      <c r="A62" s="100" t="s">
+    <row r="62" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="100"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="100"/>
-      <c r="E62" s="100"/>
-      <c r="F62" s="100"/>
-      <c r="G62" s="100"/>
-      <c r="H62" s="100"/>
-      <c r="I62" s="100"/>
-      <c r="J62" s="99" t="s">
+      <c r="B62" s="99"/>
+      <c r="C62" s="99"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="99"/>
+      <c r="I62" s="99"/>
+      <c r="J62" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="K62" s="99"/>
+      <c r="K62" s="100"/>
       <c r="L62" s="78"/>
       <c r="M62" s="78"/>
       <c r="N62" s="84">
@@ -3644,7 +3669,7 @@
         <v>63.8</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="1" customFormat="1">
+    <row r="63" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="51">
         <v>6</v>
       </c>
@@ -3689,7 +3714,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="1" customFormat="1">
+    <row r="64" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="51">
         <v>6</v>
       </c>
@@ -3734,7 +3759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:15" s="1" customFormat="1">
+    <row r="65" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="51">
         <v>6</v>
       </c>
@@ -3779,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" s="1" customFormat="1">
+    <row r="66" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="51">
         <v>6</v>
       </c>
@@ -3824,7 +3849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="1" customFormat="1">
+    <row r="67" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="51">
         <v>6</v>
       </c>
@@ -3869,7 +3894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:15" s="1" customFormat="1">
+    <row r="68" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="51">
         <v>6</v>
       </c>
@@ -3914,7 +3939,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="69" spans="1:15" s="1" customFormat="1">
+    <row r="69" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="51">
         <v>6</v>
       </c>
@@ -3959,7 +3984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="1" customFormat="1">
+    <row r="70" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="51">
         <v>6</v>
       </c>
@@ -3992,7 +4017,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="71" spans="1:15" s="1" customFormat="1">
+    <row r="71" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="51">
         <v>6</v>
       </c>
@@ -4037,7 +4062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:15" s="1" customFormat="1">
+    <row r="72" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="51">
         <v>6</v>
       </c>
@@ -4082,7 +4107,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="73" spans="1:15" s="1" customFormat="1">
+    <row r="73" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="51">
         <v>6</v>
       </c>
@@ -4119,7 +4144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="1" customFormat="1">
+    <row r="74" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="51">
         <v>6</v>
       </c>
@@ -4156,7 +4181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" s="1" customFormat="1">
+    <row r="75" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="51">
         <v>6</v>
       </c>
@@ -4193,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" s="1" customFormat="1">
+    <row r="76" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="23">
         <v>6</v>
       </c>
@@ -4224,22 +4249,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" s="1" customFormat="1">
-      <c r="A77" s="100" t="s">
+    <row r="77" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B77" s="100"/>
-      <c r="C77" s="100"/>
-      <c r="D77" s="100"/>
-      <c r="E77" s="100"/>
-      <c r="F77" s="100"/>
-      <c r="G77" s="100"/>
-      <c r="H77" s="100"/>
-      <c r="I77" s="100"/>
-      <c r="J77" s="100" t="s">
+      <c r="B77" s="99"/>
+      <c r="C77" s="99"/>
+      <c r="D77" s="99"/>
+      <c r="E77" s="99"/>
+      <c r="F77" s="99"/>
+      <c r="G77" s="99"/>
+      <c r="H77" s="99"/>
+      <c r="I77" s="99"/>
+      <c r="J77" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="K77" s="99"/>
+      <c r="K77" s="100"/>
       <c r="L77" s="78"/>
       <c r="M77" s="78"/>
       <c r="N77" s="84">
@@ -4251,8 +4276,8 @@
         <v>43.55</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="1" customFormat="1">
-      <c r="A78" s="16" t="s">
+    <row r="78" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B78" s="91">
@@ -4264,19 +4289,27 @@
       <c r="D78" s="38">
         <v>0.5</v>
       </c>
-      <c r="E78" s="38"/>
+      <c r="E78" s="38">
+        <v>0.5</v>
+      </c>
       <c r="F78" s="29">
         <v>1</v>
       </c>
-      <c r="G78" s="29"/>
+      <c r="G78" s="29">
+        <v>1</v>
+      </c>
       <c r="H78" s="39">
         <v>0.5</v>
       </c>
-      <c r="I78" s="39"/>
+      <c r="I78" s="39">
+        <v>0.5</v>
+      </c>
       <c r="J78" s="29">
         <v>0.5</v>
       </c>
-      <c r="K78" s="16"/>
+      <c r="K78" s="22">
+        <v>0.5</v>
+      </c>
       <c r="L78" s="37"/>
       <c r="M78" s="37"/>
       <c r="N78" s="21">
@@ -4285,161 +4318,175 @@
       </c>
       <c r="O78" s="22">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" s="1" customFormat="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B79" s="94">
         <v>42380</v>
       </c>
-      <c r="C79" s="77" t="s">
-        <v>119</v>
+      <c r="C79" s="94" t="s">
+        <v>123</v>
       </c>
       <c r="D79" s="38">
-        <v>1</v>
-      </c>
-      <c r="E79" s="38"/>
-      <c r="F79" s="29"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="39"/>
-      <c r="J79" s="29">
-        <v>1</v>
-      </c>
-      <c r="K79" s="51"/>
+        <v>4</v>
+      </c>
+      <c r="E79" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="F79" s="29">
+        <v>3</v>
+      </c>
+      <c r="G79" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="H79" s="39">
+        <v>3</v>
+      </c>
+      <c r="I79" s="39">
+        <v>3.5</v>
+      </c>
+      <c r="J79" s="29"/>
+      <c r="K79" s="72"/>
       <c r="L79" s="73"/>
       <c r="M79" s="73"/>
-      <c r="N79" s="28">
-        <f t="shared" ref="N79:N97" si="42">D79+F79+H79+J79+L79</f>
-        <v>2</v>
-      </c>
-      <c r="O79" s="29">
-        <f t="shared" ref="O79:O97" si="43">E79+G79+I79+K79+M79</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" s="1" customFormat="1">
+      <c r="N79" s="107">
+        <f t="shared" ref="N79:N85" si="42">D79+F79+H79+J79+L79</f>
+        <v>10</v>
+      </c>
+      <c r="O79" s="72">
+        <f t="shared" ref="O79:O85" si="43">E79+G79+I79+K79+M79</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B80" s="94">
         <v>42380</v>
       </c>
-      <c r="C80" s="77" t="s">
-        <v>96</v>
+      <c r="C80" s="94" t="s">
+        <v>21</v>
       </c>
       <c r="D80" s="38">
-        <v>1</v>
-      </c>
-      <c r="E80" s="38"/>
+        <v>2</v>
+      </c>
+      <c r="E80" s="38">
+        <v>2</v>
+      </c>
       <c r="F80" s="29">
-        <v>1</v>
-      </c>
-      <c r="G80" s="29"/>
+        <v>2</v>
+      </c>
+      <c r="G80" s="29">
+        <v>2</v>
+      </c>
       <c r="H80" s="39">
-        <v>1</v>
-      </c>
-      <c r="I80" s="39"/>
+        <v>2</v>
+      </c>
+      <c r="I80" s="39">
+        <v>2</v>
+      </c>
       <c r="J80" s="29">
         <v>2</v>
       </c>
-      <c r="K80" s="51"/>
+      <c r="K80" s="72">
+        <v>2</v>
+      </c>
       <c r="L80" s="73"/>
       <c r="M80" s="73"/>
-      <c r="N80" s="28">
+      <c r="N80" s="107">
         <f t="shared" si="42"/>
-        <v>5</v>
-      </c>
-      <c r="O80" s="29">
+        <v>8</v>
+      </c>
+      <c r="O80" s="72">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" s="1" customFormat="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B81" s="94">
         <v>42380</v>
       </c>
-      <c r="C81" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="D81" s="38">
-        <v>2</v>
-      </c>
+      <c r="C81" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="D81" s="38"/>
       <c r="E81" s="38"/>
       <c r="F81" s="29">
         <v>2</v>
       </c>
-      <c r="G81" s="29"/>
+      <c r="G81" s="29">
+        <v>2</v>
+      </c>
       <c r="H81" s="39">
         <v>2</v>
       </c>
-      <c r="I81" s="39"/>
-      <c r="J81" s="29">
-        <v>2</v>
-      </c>
-      <c r="K81" s="51"/>
+      <c r="I81" s="39">
+        <v>2</v>
+      </c>
+      <c r="J81" s="29"/>
+      <c r="K81" s="72"/>
       <c r="L81" s="73"/>
       <c r="M81" s="73"/>
-      <c r="N81" s="28">
-        <f t="shared" si="42"/>
-        <v>8</v>
-      </c>
-      <c r="O81" s="29">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" s="1" customFormat="1">
+      <c r="N81" s="107">
+        <f t="shared" ref="N81:N82" si="44">D81+F81+H81+J81+L81</f>
+        <v>4</v>
+      </c>
+      <c r="O81" s="72">
+        <f t="shared" ref="O81:O82" si="45">E81+G81+I81+K81+M81</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B82" s="94">
         <v>42380</v>
       </c>
-      <c r="C82" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="D82" s="38">
-        <v>3</v>
-      </c>
+      <c r="C82" s="94" t="s">
+        <v>124</v>
+      </c>
+      <c r="D82" s="38"/>
       <c r="E82" s="38"/>
       <c r="F82" s="29"/>
       <c r="G82" s="29"/>
       <c r="H82" s="39"/>
       <c r="I82" s="39"/>
       <c r="J82" s="29">
-        <v>3</v>
-      </c>
-      <c r="K82" s="51"/>
+        <v>4</v>
+      </c>
+      <c r="K82" s="72"/>
       <c r="L82" s="73"/>
       <c r="M82" s="73"/>
-      <c r="N82" s="28">
-        <f t="shared" si="42"/>
-        <v>6</v>
-      </c>
-      <c r="O82" s="29">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" s="1" customFormat="1">
+      <c r="N82" s="107">
+        <f t="shared" si="44"/>
+        <v>4</v>
+      </c>
+      <c r="O82" s="72">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B83" s="92">
-        <v>42381</v>
-      </c>
-      <c r="C83" s="74" t="s">
-        <v>59</v>
+      <c r="B83" s="94">
+        <v>42380</v>
+      </c>
+      <c r="C83" s="94" t="s">
+        <v>123</v>
       </c>
       <c r="D83" s="38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E83" s="38"/>
       <c r="F83" s="29">
@@ -4447,948 +4494,940 @@
       </c>
       <c r="G83" s="29"/>
       <c r="H83" s="39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I83" s="39"/>
       <c r="J83" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K83" s="23"/>
-      <c r="L83" s="40"/>
-      <c r="M83" s="40"/>
-      <c r="N83" s="28">
-        <f t="shared" si="42"/>
-        <v>2.5</v>
-      </c>
-      <c r="O83" s="29">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" s="1" customFormat="1">
+        <v>1</v>
+      </c>
+      <c r="K83" s="72"/>
+      <c r="L83" s="73"/>
+      <c r="M83" s="73"/>
+      <c r="N83" s="107">
+        <f t="shared" ref="N82:N84" si="46">D83+F83+H83+J83+L83</f>
+        <v>4</v>
+      </c>
+      <c r="O83" s="72">
+        <f t="shared" ref="O82:O84" si="47">E83+G83+I83+K83+M83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="92">
-        <v>42381</v>
-      </c>
-      <c r="C84" s="74" t="s">
-        <v>91</v>
+      <c r="B84" s="94">
+        <v>42380</v>
+      </c>
+      <c r="C84" s="77" t="s">
+        <v>119</v>
       </c>
       <c r="D84" s="38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E84" s="38"/>
-      <c r="F84" s="29">
-        <v>5</v>
-      </c>
+      <c r="F84" s="29"/>
       <c r="G84" s="29"/>
-      <c r="H84" s="39">
-        <v>5</v>
-      </c>
+      <c r="H84" s="39"/>
       <c r="I84" s="39"/>
       <c r="J84" s="29">
-        <v>5</v>
-      </c>
-      <c r="K84" s="23"/>
-      <c r="L84" s="40"/>
-      <c r="M84" s="40"/>
-      <c r="N84" s="28">
-        <f t="shared" si="42"/>
-        <v>20</v>
-      </c>
-      <c r="O84" s="29">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" s="1" customFormat="1">
+        <v>1</v>
+      </c>
+      <c r="K84" s="72"/>
+      <c r="L84" s="73"/>
+      <c r="M84" s="73"/>
+      <c r="N84" s="107">
+        <f t="shared" si="46"/>
+        <v>2</v>
+      </c>
+      <c r="O84" s="72">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="92">
-        <v>42381</v>
-      </c>
-      <c r="C85" s="74" t="s">
-        <v>89</v>
+      <c r="B85" s="94">
+        <v>42380</v>
+      </c>
+      <c r="C85" s="77" t="s">
+        <v>96</v>
       </c>
       <c r="D85" s="38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E85" s="38"/>
       <c r="F85" s="29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G85" s="29"/>
       <c r="H85" s="39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I85" s="39"/>
       <c r="J85" s="29">
-        <v>4</v>
-      </c>
-      <c r="K85" s="23"/>
-      <c r="L85" s="40"/>
-      <c r="M85" s="40"/>
+        <v>2</v>
+      </c>
+      <c r="K85" s="72"/>
+      <c r="L85" s="73"/>
+      <c r="M85" s="73"/>
       <c r="N85" s="28">
         <f t="shared" si="42"/>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="O85" s="29">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:15" s="1" customFormat="1">
+    <row r="86" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B86" s="92">
-        <v>42382</v>
-      </c>
-      <c r="C86" s="74" t="s">
-        <v>59</v>
+      <c r="B86" s="94">
+        <v>42380</v>
+      </c>
+      <c r="C86" s="77" t="s">
+        <v>88</v>
       </c>
       <c r="D86" s="38">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E86" s="38"/>
       <c r="F86" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86" s="29"/>
       <c r="H86" s="39">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I86" s="39"/>
       <c r="J86" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K86" s="23"/>
-      <c r="L86" s="40"/>
-      <c r="M86" s="40"/>
+        <v>2</v>
+      </c>
+      <c r="K86" s="72"/>
+      <c r="L86" s="73"/>
+      <c r="M86" s="73"/>
       <c r="N86" s="28">
-        <f t="shared" si="42"/>
-        <v>2.5</v>
+        <f t="shared" ref="N86:N102" si="48">D86+F86+H86+J86+L86</f>
+        <v>8</v>
       </c>
       <c r="O86" s="29">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" s="1" customFormat="1">
+        <f t="shared" ref="O86:O102" si="49">E86+G86+I86+K86+M86</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="92">
-        <v>42382</v>
+      <c r="B87" s="94">
+        <v>42380</v>
       </c>
       <c r="C87" s="74" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D87" s="38">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E87" s="38"/>
-      <c r="F87" s="29">
-        <v>2</v>
-      </c>
+      <c r="F87" s="29"/>
       <c r="G87" s="29"/>
-      <c r="H87" s="39">
-        <v>2</v>
-      </c>
+      <c r="H87" s="39"/>
       <c r="I87" s="39"/>
       <c r="J87" s="29">
-        <v>2</v>
-      </c>
-      <c r="K87" s="23"/>
-      <c r="L87" s="40"/>
-      <c r="M87" s="40"/>
+        <v>3</v>
+      </c>
+      <c r="K87" s="72"/>
+      <c r="L87" s="73"/>
+      <c r="M87" s="73"/>
       <c r="N87" s="28">
-        <f t="shared" si="42"/>
-        <v>10</v>
+        <f t="shared" si="48"/>
+        <v>6</v>
       </c>
       <c r="O87" s="29">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" s="1" customFormat="1">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B88" s="92">
-        <v>42382</v>
+        <v>42381</v>
       </c>
       <c r="C88" s="74" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="D88" s="38">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="E88" s="38"/>
       <c r="F88" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G88" s="29"/>
       <c r="H88" s="39">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I88" s="39"/>
       <c r="J88" s="29">
-        <v>8</v>
-      </c>
-      <c r="K88" s="23"/>
+        <v>0.5</v>
+      </c>
+      <c r="K88" s="29"/>
       <c r="L88" s="40"/>
       <c r="M88" s="40"/>
       <c r="N88" s="28">
-        <f t="shared" si="42"/>
-        <v>16</v>
+        <f t="shared" si="48"/>
+        <v>2.5</v>
       </c>
       <c r="O88" s="29">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" s="1" customFormat="1">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B89" s="92">
-        <v>42382</v>
+        <v>42381</v>
       </c>
       <c r="C89" s="74" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D89" s="38">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E89" s="38"/>
       <c r="F89" s="29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G89" s="29"/>
       <c r="H89" s="39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I89" s="39"/>
       <c r="J89" s="29">
-        <v>1</v>
-      </c>
-      <c r="K89" s="23"/>
+        <v>5</v>
+      </c>
+      <c r="K89" s="29"/>
       <c r="L89" s="40"/>
       <c r="M89" s="40"/>
       <c r="N89" s="28">
-        <f t="shared" si="42"/>
-        <v>10</v>
+        <f t="shared" si="48"/>
+        <v>20</v>
       </c>
       <c r="O89" s="29">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B90" s="92">
-        <v>42383</v>
+        <v>42381</v>
       </c>
       <c r="C90" s="74" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="D90" s="38">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="E90" s="38"/>
       <c r="F90" s="29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G90" s="29"/>
       <c r="H90" s="39">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="I90" s="39"/>
       <c r="J90" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K90" s="23"/>
+        <v>4</v>
+      </c>
+      <c r="K90" s="29"/>
       <c r="L90" s="40"/>
       <c r="M90" s="40"/>
       <c r="N90" s="28">
-        <f t="shared" si="42"/>
-        <v>2.5</v>
+        <f t="shared" si="48"/>
+        <v>16</v>
       </c>
       <c r="O90" s="29">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B91" s="92">
-        <v>42383</v>
+        <v>42382</v>
       </c>
       <c r="C91" s="74" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="D91" s="38">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E91" s="38"/>
       <c r="F91" s="29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G91" s="29"/>
       <c r="H91" s="39">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I91" s="39"/>
       <c r="J91" s="29">
-        <v>4</v>
-      </c>
-      <c r="K91" s="23"/>
+        <v>0.5</v>
+      </c>
+      <c r="K91" s="29"/>
       <c r="L91" s="40"/>
       <c r="M91" s="40"/>
       <c r="N91" s="28">
-        <f t="shared" si="42"/>
-        <v>12</v>
+        <f t="shared" si="48"/>
+        <v>2.5</v>
       </c>
       <c r="O91" s="29">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B92" s="92">
-        <v>42383</v>
+        <v>42382</v>
       </c>
       <c r="C92" s="74" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D92" s="38">
         <v>4</v>
       </c>
       <c r="E92" s="38"/>
       <c r="F92" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G92" s="29"/>
       <c r="H92" s="39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I92" s="39"/>
       <c r="J92" s="29">
-        <v>4</v>
-      </c>
-      <c r="K92" s="23"/>
+        <v>2</v>
+      </c>
+      <c r="K92" s="29"/>
       <c r="L92" s="40"/>
       <c r="M92" s="40"/>
       <c r="N92" s="28">
-        <f t="shared" si="42"/>
-        <v>16</v>
+        <f t="shared" si="48"/>
+        <v>10</v>
       </c>
       <c r="O92" s="29">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B93" s="92">
-        <v>42384</v>
+        <v>42382</v>
       </c>
       <c r="C93" s="74" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D93" s="38">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93" s="29"/>
       <c r="H93" s="39">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I93" s="39"/>
       <c r="J93" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K93" s="23"/>
+        <v>8</v>
+      </c>
+      <c r="K93" s="29"/>
       <c r="L93" s="40"/>
       <c r="M93" s="40"/>
       <c r="N93" s="28">
-        <f t="shared" si="42"/>
-        <v>2.5</v>
+        <f t="shared" si="48"/>
+        <v>16</v>
       </c>
       <c r="O93" s="29">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B94" s="92">
-        <v>42384</v>
-      </c>
-      <c r="C94" s="89" t="s">
-        <v>120</v>
-      </c>
-      <c r="D94" s="66">
-        <v>6</v>
-      </c>
-      <c r="E94" s="66"/>
-      <c r="F94" s="65">
-        <v>4</v>
-      </c>
-      <c r="G94" s="65"/>
-      <c r="H94" s="67">
-        <v>4</v>
-      </c>
-      <c r="I94" s="67"/>
-      <c r="J94" s="65">
-        <v>4</v>
-      </c>
-      <c r="K94" s="61"/>
-      <c r="L94" s="64"/>
-      <c r="M94" s="64"/>
+        <v>42382</v>
+      </c>
+      <c r="C94" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="D94" s="38">
+        <v>1</v>
+      </c>
+      <c r="E94" s="38"/>
+      <c r="F94" s="29">
+        <v>4</v>
+      </c>
+      <c r="G94" s="29"/>
+      <c r="H94" s="39">
+        <v>4</v>
+      </c>
+      <c r="I94" s="39"/>
+      <c r="J94" s="29">
+        <v>1</v>
+      </c>
+      <c r="K94" s="29"/>
+      <c r="L94" s="40"/>
+      <c r="M94" s="40"/>
       <c r="N94" s="28">
-        <f t="shared" si="42"/>
-        <v>18</v>
+        <f t="shared" si="48"/>
+        <v>10</v>
       </c>
       <c r="O94" s="29">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B95" s="92">
+        <v>42383</v>
+      </c>
+      <c r="C95" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="E95" s="38"/>
+      <c r="F95" s="29">
+        <v>1</v>
+      </c>
+      <c r="G95" s="29"/>
+      <c r="H95" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="I95" s="39"/>
+      <c r="J95" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="K95" s="29"/>
+      <c r="L95" s="40"/>
+      <c r="M95" s="40"/>
+      <c r="N95" s="28">
+        <f t="shared" si="48"/>
+        <v>2.5</v>
+      </c>
+      <c r="O95" s="29">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A96" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B96" s="92">
+        <v>42383</v>
+      </c>
+      <c r="C96" s="74" t="s">
+        <v>92</v>
+      </c>
+      <c r="D96" s="38">
+        <v>2</v>
+      </c>
+      <c r="E96" s="38"/>
+      <c r="F96" s="29">
+        <v>4</v>
+      </c>
+      <c r="G96" s="29"/>
+      <c r="H96" s="39">
+        <v>2</v>
+      </c>
+      <c r="I96" s="39"/>
+      <c r="J96" s="29">
+        <v>4</v>
+      </c>
+      <c r="K96" s="29"/>
+      <c r="L96" s="40"/>
+      <c r="M96" s="40"/>
+      <c r="N96" s="28">
+        <f t="shared" si="48"/>
+        <v>12</v>
+      </c>
+      <c r="O96" s="29">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A97" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="92">
+        <v>42383</v>
+      </c>
+      <c r="C97" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="D97" s="38">
+        <v>4</v>
+      </c>
+      <c r="E97" s="38"/>
+      <c r="F97" s="29">
+        <v>4</v>
+      </c>
+      <c r="G97" s="29"/>
+      <c r="H97" s="39">
+        <v>4</v>
+      </c>
+      <c r="I97" s="39"/>
+      <c r="J97" s="29">
+        <v>4</v>
+      </c>
+      <c r="K97" s="29"/>
+      <c r="L97" s="40"/>
+      <c r="M97" s="40"/>
+      <c r="N97" s="28">
+        <f t="shared" si="48"/>
+        <v>16</v>
+      </c>
+      <c r="O97" s="29">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A98" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="92">
         <v>42384</v>
       </c>
-      <c r="C95" s="89" t="s">
+      <c r="C98" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D98" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="E98" s="38"/>
+      <c r="F98" s="29">
+        <v>1</v>
+      </c>
+      <c r="G98" s="29"/>
+      <c r="H98" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="I98" s="39"/>
+      <c r="J98" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="K98" s="29"/>
+      <c r="L98" s="40"/>
+      <c r="M98" s="40"/>
+      <c r="N98" s="28">
+        <f t="shared" si="48"/>
+        <v>2.5</v>
+      </c>
+      <c r="O98" s="29">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A99" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="92">
+        <v>42384</v>
+      </c>
+      <c r="C99" s="89" t="s">
+        <v>120</v>
+      </c>
+      <c r="D99" s="66">
+        <v>6</v>
+      </c>
+      <c r="E99" s="66"/>
+      <c r="F99" s="65">
+        <v>4</v>
+      </c>
+      <c r="G99" s="65"/>
+      <c r="H99" s="67">
+        <v>4</v>
+      </c>
+      <c r="I99" s="67"/>
+      <c r="J99" s="65">
+        <v>4</v>
+      </c>
+      <c r="K99" s="65"/>
+      <c r="L99" s="64"/>
+      <c r="M99" s="64"/>
+      <c r="N99" s="28">
+        <f t="shared" si="48"/>
+        <v>18</v>
+      </c>
+      <c r="O99" s="29">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A100" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" s="92">
+        <v>42384</v>
+      </c>
+      <c r="C100" s="89" t="s">
         <v>93</v>
       </c>
-      <c r="D95" s="66">
-        <v>1</v>
-      </c>
-      <c r="E95" s="66"/>
-      <c r="F95" s="65">
-        <v>1</v>
-      </c>
-      <c r="G95" s="65"/>
-      <c r="H95" s="67">
+      <c r="D100" s="66">
+        <v>1</v>
+      </c>
+      <c r="E100" s="66"/>
+      <c r="F100" s="65">
+        <v>1</v>
+      </c>
+      <c r="G100" s="65"/>
+      <c r="H100" s="67">
         <v>5</v>
       </c>
-      <c r="I95" s="67"/>
-      <c r="J95" s="65">
-        <v>1</v>
-      </c>
-      <c r="K95" s="61"/>
-      <c r="L95" s="64"/>
-      <c r="M95" s="64"/>
-      <c r="N95" s="28">
-        <f t="shared" si="42"/>
+      <c r="I100" s="67"/>
+      <c r="J100" s="65">
+        <v>1</v>
+      </c>
+      <c r="K100" s="65"/>
+      <c r="L100" s="64"/>
+      <c r="M100" s="64"/>
+      <c r="N100" s="28">
+        <f t="shared" si="48"/>
         <v>8</v>
       </c>
-      <c r="O95" s="29">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
-      <c r="A96" s="61" t="s">
+      <c r="O100" s="29">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="95">
+      <c r="B101" s="95">
         <v>42384</v>
       </c>
-      <c r="C96" s="90" t="s">
+      <c r="C101" s="90" t="s">
         <v>95</v>
       </c>
-      <c r="D96" s="62">
-        <v>2</v>
-      </c>
-      <c r="E96" s="62"/>
-      <c r="F96" s="61">
-        <v>2</v>
-      </c>
-      <c r="G96" s="61"/>
-      <c r="H96" s="63">
-        <v>2</v>
-      </c>
-      <c r="I96" s="63"/>
-      <c r="J96" s="61">
-        <v>2</v>
-      </c>
-      <c r="K96" s="61"/>
-      <c r="L96" s="64"/>
-      <c r="M96" s="64"/>
-      <c r="N96" s="28">
-        <f t="shared" si="42"/>
+      <c r="D101" s="62">
+        <v>2</v>
+      </c>
+      <c r="E101" s="62"/>
+      <c r="F101" s="61">
+        <v>2</v>
+      </c>
+      <c r="G101" s="61"/>
+      <c r="H101" s="63">
+        <v>2</v>
+      </c>
+      <c r="I101" s="63"/>
+      <c r="J101" s="65">
+        <v>2</v>
+      </c>
+      <c r="K101" s="65"/>
+      <c r="L101" s="64"/>
+      <c r="M101" s="64"/>
+      <c r="N101" s="28">
+        <f t="shared" si="48"/>
         <v>8</v>
       </c>
-      <c r="O96" s="65">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15">
-      <c r="A97" s="82" t="s">
+      <c r="O101" s="65">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="B97" s="96">
+      <c r="B102" s="96">
         <v>42384</v>
       </c>
-      <c r="C97" s="87" t="s">
+      <c r="C102" s="87" t="s">
         <v>113</v>
       </c>
-      <c r="D97" s="62">
-        <v>1</v>
-      </c>
-      <c r="E97" s="62"/>
-      <c r="F97" s="61">
-        <v>1</v>
-      </c>
-      <c r="G97" s="61"/>
-      <c r="H97" s="63">
-        <v>1</v>
-      </c>
-      <c r="I97" s="63"/>
-      <c r="J97" s="61">
-        <v>1</v>
-      </c>
-      <c r="K97" s="61"/>
-      <c r="L97" s="64"/>
-      <c r="M97" s="64"/>
-      <c r="N97" s="81">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="O97" s="65">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
-      <c r="A98" s="100" t="s">
+      <c r="D102" s="62">
+        <v>1</v>
+      </c>
+      <c r="E102" s="62"/>
+      <c r="F102" s="61">
+        <v>1</v>
+      </c>
+      <c r="G102" s="61"/>
+      <c r="H102" s="63">
+        <v>1</v>
+      </c>
+      <c r="I102" s="63"/>
+      <c r="J102" s="65">
+        <v>1</v>
+      </c>
+      <c r="K102" s="65"/>
+      <c r="L102" s="64"/>
+      <c r="M102" s="64"/>
+      <c r="N102" s="81">
+        <f t="shared" si="48"/>
+        <v>4</v>
+      </c>
+      <c r="O102" s="65">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="B98" s="100"/>
-      <c r="C98" s="100"/>
-      <c r="D98" s="100"/>
-      <c r="E98" s="100"/>
-      <c r="F98" s="100"/>
-      <c r="G98" s="100"/>
-      <c r="H98" s="100"/>
-      <c r="I98" s="100"/>
-      <c r="J98" s="100" t="s">
+      <c r="B103" s="99"/>
+      <c r="C103" s="99"/>
+      <c r="D103" s="99"/>
+      <c r="E103" s="99"/>
+      <c r="F103" s="99"/>
+      <c r="G103" s="99"/>
+      <c r="H103" s="99"/>
+      <c r="I103" s="99"/>
+      <c r="J103" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="K98" s="99"/>
-      <c r="L98" s="78"/>
-      <c r="M98" s="78"/>
-      <c r="N98" s="84">
-        <f>SUM(N78:N96)</f>
-        <v>167.5</v>
-      </c>
-      <c r="O98" s="84">
-        <f>SUM(O78:O96)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
-      <c r="A99" s="16" t="s">
+      <c r="K103" s="109"/>
+      <c r="L103" s="78"/>
+      <c r="M103" s="78"/>
+      <c r="N103" s="84">
+        <f>SUM(N78:N101)</f>
+        <v>197.5</v>
+      </c>
+      <c r="O103" s="84">
+        <f>SUM(O78:O101)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B99" s="91">
+      <c r="B104" s="91">
         <v>42387</v>
       </c>
-      <c r="C99" s="69" t="s">
+      <c r="C104" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="D99" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="E99" s="38"/>
-      <c r="F99" s="29">
-        <v>1</v>
-      </c>
-      <c r="G99" s="29"/>
-      <c r="H99" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="I99" s="39"/>
-      <c r="J99" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K99" s="16"/>
-      <c r="L99" s="37"/>
-      <c r="M99" s="37"/>
-      <c r="N99" s="21">
-        <f t="shared" ref="N99:O114" si="44">D99+F99+H99+J99+L99</f>
-        <v>2.5</v>
-      </c>
-      <c r="O99" s="22">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15">
-      <c r="A100" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B100" s="92">
-        <v>42387</v>
-      </c>
-      <c r="C100" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="D100" s="38">
-        <v>4</v>
-      </c>
-      <c r="E100" s="38"/>
-      <c r="F100" s="29">
-        <v>2</v>
-      </c>
-      <c r="G100" s="29"/>
-      <c r="H100" s="39">
-        <v>2</v>
-      </c>
-      <c r="I100" s="39"/>
-      <c r="J100" s="29">
-        <v>2</v>
-      </c>
-      <c r="K100" s="51"/>
-      <c r="L100" s="73"/>
-      <c r="M100" s="73"/>
-      <c r="N100" s="28">
-        <f t="shared" si="44"/>
-        <v>10</v>
-      </c>
-      <c r="O100" s="29">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
-      <c r="A101" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B101" s="92">
-        <v>42387</v>
-      </c>
-      <c r="C101" s="77" t="s">
-        <v>98</v>
-      </c>
-      <c r="D101" s="38">
-        <v>2</v>
-      </c>
-      <c r="E101" s="38"/>
-      <c r="F101" s="29">
-        <v>4</v>
-      </c>
-      <c r="G101" s="29"/>
-      <c r="H101" s="39">
-        <v>4</v>
-      </c>
-      <c r="I101" s="39"/>
-      <c r="J101" s="29">
-        <v>2</v>
-      </c>
-      <c r="K101" s="51"/>
-      <c r="L101" s="73"/>
-      <c r="M101" s="73"/>
-      <c r="N101" s="28">
-        <f t="shared" si="44"/>
-        <v>12</v>
-      </c>
-      <c r="O101" s="29">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
-      <c r="A102" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B102" s="92">
-        <v>42387</v>
-      </c>
-      <c r="C102" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="D102" s="38">
-        <v>2</v>
-      </c>
-      <c r="E102" s="38"/>
-      <c r="F102" s="29">
-        <v>2</v>
-      </c>
-      <c r="G102" s="29"/>
-      <c r="H102" s="39">
-        <v>2</v>
-      </c>
-      <c r="I102" s="39"/>
-      <c r="J102" s="29">
-        <v>4</v>
-      </c>
-      <c r="K102" s="51"/>
-      <c r="L102" s="73"/>
-      <c r="M102" s="73"/>
-      <c r="N102" s="28">
-        <f t="shared" si="44"/>
-        <v>10</v>
-      </c>
-      <c r="O102" s="29">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
-      <c r="A103" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B103" s="92">
-        <v>42388</v>
-      </c>
-      <c r="C103" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="D103" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="E103" s="38"/>
-      <c r="F103" s="29">
-        <v>1</v>
-      </c>
-      <c r="G103" s="29"/>
-      <c r="H103" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="I103" s="39"/>
-      <c r="J103" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K103" s="23"/>
-      <c r="L103" s="40"/>
-      <c r="M103" s="40"/>
-      <c r="N103" s="28">
-        <f t="shared" si="44"/>
-        <v>2.5</v>
-      </c>
-      <c r="O103" s="29">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15">
-      <c r="A104" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B104" s="92">
-        <v>42388</v>
-      </c>
-      <c r="C104" s="74" t="s">
-        <v>120</v>
-      </c>
       <c r="D104" s="38">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="E104" s="38"/>
       <c r="F104" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G104" s="29"/>
       <c r="H104" s="39">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I104" s="39"/>
       <c r="J104" s="29">
-        <v>2</v>
-      </c>
-      <c r="K104" s="23"/>
-      <c r="L104" s="40"/>
-      <c r="M104" s="40"/>
-      <c r="N104" s="28">
-        <f t="shared" si="44"/>
-        <v>10</v>
-      </c>
-      <c r="O104" s="29">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15">
+        <v>0.5</v>
+      </c>
+      <c r="K104" s="22"/>
+      <c r="L104" s="37"/>
+      <c r="M104" s="37"/>
+      <c r="N104" s="21">
+        <f t="shared" ref="N104:O119" si="50">D104+F104+H104+J104+L104</f>
+        <v>2.5</v>
+      </c>
+      <c r="O104" s="22">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B105" s="92">
-        <v>42388</v>
-      </c>
-      <c r="C105" s="74" t="s">
-        <v>97</v>
+        <v>42387</v>
+      </c>
+      <c r="C105" s="77" t="s">
+        <v>121</v>
       </c>
       <c r="D105" s="38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E105" s="38"/>
       <c r="F105" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G105" s="29"/>
       <c r="H105" s="39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I105" s="39"/>
       <c r="J105" s="29">
         <v>2</v>
       </c>
-      <c r="K105" s="23"/>
-      <c r="L105" s="40"/>
-      <c r="M105" s="40"/>
+      <c r="K105" s="72"/>
+      <c r="L105" s="73"/>
+      <c r="M105" s="73"/>
       <c r="N105" s="28">
-        <f t="shared" si="44"/>
-        <v>12</v>
+        <f t="shared" si="50"/>
+        <v>10</v>
       </c>
       <c r="O105" s="29">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B106" s="92">
-        <v>42388</v>
-      </c>
-      <c r="C106" s="74" t="s">
-        <v>104</v>
+        <v>42387</v>
+      </c>
+      <c r="C106" s="77" t="s">
+        <v>98</v>
       </c>
       <c r="D106" s="38">
         <v>2</v>
       </c>
       <c r="E106" s="38"/>
       <c r="F106" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G106" s="29"/>
       <c r="H106" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I106" s="39"/>
       <c r="J106" s="29">
-        <v>4</v>
-      </c>
-      <c r="K106" s="23"/>
-      <c r="L106" s="40"/>
-      <c r="M106" s="40"/>
+        <v>2</v>
+      </c>
+      <c r="K106" s="72"/>
+      <c r="L106" s="73"/>
+      <c r="M106" s="73"/>
       <c r="N106" s="28">
-        <f t="shared" si="44"/>
-        <v>10</v>
+        <f t="shared" si="50"/>
+        <v>12</v>
       </c>
       <c r="O106" s="29">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B107" s="92">
-        <v>42389</v>
-      </c>
-      <c r="C107" s="74" t="s">
-        <v>59</v>
+        <v>42387</v>
+      </c>
+      <c r="C107" s="77" t="s">
+        <v>103</v>
       </c>
       <c r="D107" s="38">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E107" s="38"/>
       <c r="F107" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G107" s="29"/>
       <c r="H107" s="39">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I107" s="39"/>
       <c r="J107" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K107" s="23"/>
-      <c r="L107" s="40"/>
-      <c r="M107" s="40"/>
+        <v>4</v>
+      </c>
+      <c r="K107" s="72"/>
+      <c r="L107" s="73"/>
+      <c r="M107" s="73"/>
       <c r="N107" s="28">
-        <f t="shared" si="44"/>
-        <v>2.5</v>
+        <f t="shared" si="50"/>
+        <v>10</v>
       </c>
       <c r="O107" s="29">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B108" s="92">
-        <v>42389</v>
+        <v>42388</v>
       </c>
       <c r="C108" s="74" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="D108" s="38">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="E108" s="38"/>
       <c r="F108" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G108" s="29"/>
       <c r="H108" s="39">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I108" s="39"/>
       <c r="J108" s="29">
-        <v>2</v>
-      </c>
-      <c r="K108" s="23"/>
+        <v>0.5</v>
+      </c>
+      <c r="K108" s="29"/>
       <c r="L108" s="40"/>
       <c r="M108" s="40"/>
       <c r="N108" s="28">
-        <f t="shared" si="44"/>
-        <v>10</v>
+        <f t="shared" si="50"/>
+        <v>2.5</v>
       </c>
       <c r="O108" s="29">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B109" s="92">
-        <v>42389</v>
+        <v>42388</v>
       </c>
       <c r="C109" s="74" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D109" s="38">
         <v>4</v>
@@ -5405,34 +5444,34 @@
       <c r="J109" s="29">
         <v>2</v>
       </c>
-      <c r="K109" s="23"/>
+      <c r="K109" s="29"/>
       <c r="L109" s="40"/>
       <c r="M109" s="40"/>
       <c r="N109" s="28">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>10</v>
       </c>
       <c r="O109" s="29">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B110" s="92">
-        <v>42389</v>
+        <v>42388</v>
       </c>
       <c r="C110" s="74" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D110" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E110" s="38"/>
       <c r="F110" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G110" s="29"/>
       <c r="H110" s="39">
@@ -5442,30 +5481,30 @@
       <c r="J110" s="29">
         <v>2</v>
       </c>
-      <c r="K110" s="23"/>
+      <c r="K110" s="29"/>
       <c r="L110" s="40"/>
       <c r="M110" s="40"/>
       <c r="N110" s="28">
-        <f t="shared" si="44"/>
-        <v>9</v>
+        <f t="shared" si="50"/>
+        <v>12</v>
       </c>
       <c r="O110" s="29">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B111" s="92">
-        <v>42389</v>
+        <v>42388</v>
       </c>
       <c r="C111" s="74" t="s">
         <v>104</v>
       </c>
       <c r="D111" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E111" s="38"/>
       <c r="F111" s="29">
@@ -5479,24 +5518,24 @@
       <c r="J111" s="29">
         <v>4</v>
       </c>
-      <c r="K111" s="23"/>
+      <c r="K111" s="29"/>
       <c r="L111" s="40"/>
       <c r="M111" s="40"/>
       <c r="N111" s="28">
-        <f t="shared" si="44"/>
-        <v>9</v>
+        <f t="shared" si="50"/>
+        <v>10</v>
       </c>
       <c r="O111" s="29">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B112" s="92">
-        <v>42390</v>
+        <v>42389</v>
       </c>
       <c r="C112" s="74" t="s">
         <v>59</v>
@@ -5516,27 +5555,27 @@
       <c r="J112" s="29">
         <v>0.5</v>
       </c>
-      <c r="K112" s="23"/>
+      <c r="K112" s="29"/>
       <c r="L112" s="40"/>
       <c r="M112" s="40"/>
       <c r="N112" s="28">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>2.5</v>
       </c>
       <c r="O112" s="29">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B113" s="92">
-        <v>42390</v>
+        <v>42389</v>
       </c>
       <c r="C113" s="74" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D113" s="38">
         <v>4</v>
@@ -5553,30 +5592,30 @@
       <c r="J113" s="29">
         <v>2</v>
       </c>
-      <c r="K113" s="23"/>
+      <c r="K113" s="29"/>
       <c r="L113" s="40"/>
       <c r="M113" s="40"/>
       <c r="N113" s="28">
-        <f t="shared" si="44"/>
+        <f t="shared" si="50"/>
         <v>10</v>
       </c>
       <c r="O113" s="29">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B114" s="92">
-        <v>42390</v>
+        <v>42389</v>
       </c>
       <c r="C114" s="74" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D114" s="38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E114" s="38"/>
       <c r="F114" s="29">
@@ -5590,27 +5629,27 @@
       <c r="J114" s="29">
         <v>2</v>
       </c>
-      <c r="K114" s="23"/>
+      <c r="K114" s="29"/>
       <c r="L114" s="40"/>
       <c r="M114" s="40"/>
       <c r="N114" s="28">
-        <f t="shared" si="44"/>
-        <v>7</v>
+        <f t="shared" si="50"/>
+        <v>10</v>
       </c>
       <c r="O114" s="29">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B115" s="92">
-        <v>42390</v>
+        <v>42389</v>
       </c>
       <c r="C115" s="74" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D115" s="38">
         <v>1</v>
@@ -5621,344 +5660,513 @@
       </c>
       <c r="G115" s="29"/>
       <c r="H115" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I115" s="39"/>
       <c r="J115" s="29">
         <v>2</v>
       </c>
-      <c r="K115" s="23"/>
+      <c r="K115" s="29"/>
       <c r="L115" s="40"/>
       <c r="M115" s="40"/>
       <c r="N115" s="28">
-        <f t="shared" ref="N115:O120" si="45">D115+F115+H115+J115+L115</f>
-        <v>7</v>
+        <f t="shared" si="50"/>
+        <v>9</v>
       </c>
       <c r="O115" s="29">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B116" s="92">
-        <v>42391</v>
+        <v>42389</v>
       </c>
       <c r="C116" s="74" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="D116" s="38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E116" s="38"/>
       <c r="F116" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G116" s="29"/>
       <c r="H116" s="39">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I116" s="39"/>
       <c r="J116" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K116" s="23"/>
+        <v>4</v>
+      </c>
+      <c r="K116" s="29"/>
       <c r="L116" s="40"/>
       <c r="M116" s="40"/>
       <c r="N116" s="28">
-        <f t="shared" si="45"/>
-        <v>2.5</v>
+        <f t="shared" si="50"/>
+        <v>9</v>
       </c>
       <c r="O116" s="29">
-        <f t="shared" ref="O116:O121" si="46">E116+G116+I116+K116+M116</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B117" s="92">
-        <v>42391</v>
-      </c>
-      <c r="C117" s="89" t="s">
-        <v>111</v>
-      </c>
-      <c r="D117" s="66">
-        <v>6</v>
-      </c>
-      <c r="E117" s="66"/>
-      <c r="F117" s="65">
-        <v>4</v>
-      </c>
-      <c r="G117" s="65"/>
-      <c r="H117" s="67">
-        <v>4</v>
-      </c>
-      <c r="I117" s="67"/>
-      <c r="J117" s="65">
-        <v>4</v>
-      </c>
-      <c r="K117" s="61"/>
-      <c r="L117" s="64"/>
-      <c r="M117" s="64"/>
+        <v>42390</v>
+      </c>
+      <c r="C117" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D117" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="E117" s="38"/>
+      <c r="F117" s="29">
+        <v>1</v>
+      </c>
+      <c r="G117" s="29"/>
+      <c r="H117" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="I117" s="39"/>
+      <c r="J117" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="K117" s="29"/>
+      <c r="L117" s="40"/>
+      <c r="M117" s="40"/>
       <c r="N117" s="28">
-        <f t="shared" si="45"/>
-        <v>18</v>
+        <f t="shared" si="50"/>
+        <v>2.5</v>
       </c>
       <c r="O117" s="29">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B118" s="92">
-        <v>42391</v>
-      </c>
-      <c r="C118" s="89" t="s">
-        <v>101</v>
-      </c>
-      <c r="D118" s="66">
-        <v>1</v>
-      </c>
-      <c r="E118" s="66"/>
-      <c r="F118" s="65">
-        <v>4</v>
-      </c>
-      <c r="G118" s="65"/>
-      <c r="H118" s="67">
-        <v>4</v>
-      </c>
-      <c r="I118" s="67"/>
-      <c r="J118" s="65">
-        <v>4</v>
-      </c>
-      <c r="K118" s="61"/>
-      <c r="L118" s="64"/>
-      <c r="M118" s="64"/>
+        <v>42390</v>
+      </c>
+      <c r="C118" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="D118" s="38">
+        <v>4</v>
+      </c>
+      <c r="E118" s="38"/>
+      <c r="F118" s="29">
+        <v>2</v>
+      </c>
+      <c r="G118" s="29"/>
+      <c r="H118" s="39">
+        <v>2</v>
+      </c>
+      <c r="I118" s="39"/>
+      <c r="J118" s="29">
+        <v>2</v>
+      </c>
+      <c r="K118" s="29"/>
+      <c r="L118" s="40"/>
+      <c r="M118" s="40"/>
       <c r="N118" s="28">
-        <f t="shared" si="45"/>
-        <v>13</v>
+        <f t="shared" si="50"/>
+        <v>10</v>
       </c>
       <c r="O118" s="29">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B119" s="92">
-        <v>42391</v>
-      </c>
-      <c r="C119" s="89" t="s">
-        <v>102</v>
-      </c>
-      <c r="D119" s="66">
-        <v>1</v>
-      </c>
-      <c r="E119" s="66"/>
-      <c r="F119" s="65">
-        <v>1</v>
-      </c>
-      <c r="G119" s="65"/>
-      <c r="H119" s="67">
-        <v>1</v>
-      </c>
-      <c r="I119" s="67"/>
-      <c r="J119" s="65">
-        <v>1</v>
-      </c>
-      <c r="K119" s="65"/>
-      <c r="L119" s="64"/>
-      <c r="M119" s="64"/>
+        <v>42390</v>
+      </c>
+      <c r="C119" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="D119" s="38">
+        <v>1</v>
+      </c>
+      <c r="E119" s="38"/>
+      <c r="F119" s="29">
+        <v>2</v>
+      </c>
+      <c r="G119" s="29"/>
+      <c r="H119" s="39">
+        <v>2</v>
+      </c>
+      <c r="I119" s="39"/>
+      <c r="J119" s="29">
+        <v>2</v>
+      </c>
+      <c r="K119" s="29"/>
+      <c r="L119" s="40"/>
+      <c r="M119" s="40"/>
       <c r="N119" s="28">
-        <f t="shared" si="45"/>
-        <v>4</v>
+        <f t="shared" si="50"/>
+        <v>7</v>
       </c>
       <c r="O119" s="29">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B120" s="92">
+        <v>42390</v>
+      </c>
+      <c r="C120" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="D120" s="38">
+        <v>1</v>
+      </c>
+      <c r="E120" s="38"/>
+      <c r="F120" s="29">
+        <v>2</v>
+      </c>
+      <c r="G120" s="29"/>
+      <c r="H120" s="39">
+        <v>2</v>
+      </c>
+      <c r="I120" s="39"/>
+      <c r="J120" s="29">
+        <v>2</v>
+      </c>
+      <c r="K120" s="29"/>
+      <c r="L120" s="40"/>
+      <c r="M120" s="40"/>
+      <c r="N120" s="28">
+        <f t="shared" ref="N120:O125" si="51">D120+F120+H120+J120+L120</f>
+        <v>7</v>
+      </c>
+      <c r="O120" s="29">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A121" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" s="92">
         <v>42391</v>
       </c>
-      <c r="C120" s="89" t="s">
+      <c r="C121" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D121" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="E121" s="38"/>
+      <c r="F121" s="29">
+        <v>1</v>
+      </c>
+      <c r="G121" s="29"/>
+      <c r="H121" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="I121" s="39"/>
+      <c r="J121" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="K121" s="29"/>
+      <c r="L121" s="40"/>
+      <c r="M121" s="40"/>
+      <c r="N121" s="28">
+        <f t="shared" si="51"/>
+        <v>2.5</v>
+      </c>
+      <c r="O121" s="29">
+        <f t="shared" ref="O121:O126" si="52">E121+G121+I121+K121+M121</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A122" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" s="92">
+        <v>42391</v>
+      </c>
+      <c r="C122" s="89" t="s">
+        <v>111</v>
+      </c>
+      <c r="D122" s="66">
+        <v>6</v>
+      </c>
+      <c r="E122" s="66"/>
+      <c r="F122" s="65">
+        <v>4</v>
+      </c>
+      <c r="G122" s="65"/>
+      <c r="H122" s="67">
+        <v>4</v>
+      </c>
+      <c r="I122" s="67"/>
+      <c r="J122" s="65">
+        <v>4</v>
+      </c>
+      <c r="K122" s="65"/>
+      <c r="L122" s="64"/>
+      <c r="M122" s="64"/>
+      <c r="N122" s="28">
+        <f t="shared" si="51"/>
+        <v>18</v>
+      </c>
+      <c r="O122" s="29">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A123" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" s="92">
+        <v>42391</v>
+      </c>
+      <c r="C123" s="89" t="s">
+        <v>101</v>
+      </c>
+      <c r="D123" s="66">
+        <v>1</v>
+      </c>
+      <c r="E123" s="66"/>
+      <c r="F123" s="65">
+        <v>4</v>
+      </c>
+      <c r="G123" s="65"/>
+      <c r="H123" s="67">
+        <v>4</v>
+      </c>
+      <c r="I123" s="67"/>
+      <c r="J123" s="65">
+        <v>4</v>
+      </c>
+      <c r="K123" s="65"/>
+      <c r="L123" s="64"/>
+      <c r="M123" s="64"/>
+      <c r="N123" s="28">
+        <f t="shared" si="51"/>
+        <v>13</v>
+      </c>
+      <c r="O123" s="29">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A124" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" s="92">
+        <v>42391</v>
+      </c>
+      <c r="C124" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="D124" s="66">
+        <v>1</v>
+      </c>
+      <c r="E124" s="66"/>
+      <c r="F124" s="65">
+        <v>1</v>
+      </c>
+      <c r="G124" s="65"/>
+      <c r="H124" s="67">
+        <v>1</v>
+      </c>
+      <c r="I124" s="67"/>
+      <c r="J124" s="65">
+        <v>1</v>
+      </c>
+      <c r="K124" s="65"/>
+      <c r="L124" s="64"/>
+      <c r="M124" s="64"/>
+      <c r="N124" s="28">
+        <f t="shared" si="51"/>
+        <v>4</v>
+      </c>
+      <c r="O124" s="29">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A125" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" s="92">
+        <v>42391</v>
+      </c>
+      <c r="C125" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="D120" s="66">
-        <v>2</v>
-      </c>
-      <c r="E120" s="66"/>
-      <c r="F120" s="65">
-        <v>1</v>
-      </c>
-      <c r="G120" s="65"/>
-      <c r="H120" s="67">
-        <v>1</v>
-      </c>
-      <c r="I120" s="67"/>
-      <c r="J120" s="65">
-        <v>1</v>
-      </c>
-      <c r="K120" s="65"/>
-      <c r="L120" s="64"/>
-      <c r="M120" s="64"/>
-      <c r="N120" s="28">
-        <f t="shared" si="45"/>
+      <c r="D125" s="66">
+        <v>2</v>
+      </c>
+      <c r="E125" s="66"/>
+      <c r="F125" s="65">
+        <v>1</v>
+      </c>
+      <c r="G125" s="65"/>
+      <c r="H125" s="67">
+        <v>1</v>
+      </c>
+      <c r="I125" s="67"/>
+      <c r="J125" s="65">
+        <v>1</v>
+      </c>
+      <c r="K125" s="65"/>
+      <c r="L125" s="64"/>
+      <c r="M125" s="64"/>
+      <c r="N125" s="28">
+        <f t="shared" si="51"/>
         <v>5</v>
       </c>
-      <c r="O120" s="29">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
-      <c r="A121" s="30" t="s">
+      <c r="O125" s="29">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A126" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B121" s="93">
+      <c r="B126" s="93">
         <v>42391</v>
       </c>
-      <c r="C121" s="87" t="s">
+      <c r="C126" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D121" s="97">
-        <v>2</v>
-      </c>
-      <c r="E121" s="97"/>
-      <c r="F121" s="36">
-        <v>1</v>
-      </c>
-      <c r="G121" s="36"/>
-      <c r="H121" s="98">
-        <v>1</v>
-      </c>
-      <c r="I121" s="98"/>
-      <c r="J121" s="36">
-        <v>1</v>
-      </c>
-      <c r="K121" s="36"/>
-      <c r="L121" s="41"/>
-      <c r="M121" s="41"/>
-      <c r="N121" s="35">
-        <f t="shared" ref="N121" si="47">D121+F121+H121+J121+L121</f>
+      <c r="D126" s="97">
+        <v>2</v>
+      </c>
+      <c r="E126" s="97"/>
+      <c r="F126" s="36">
+        <v>1</v>
+      </c>
+      <c r="G126" s="36"/>
+      <c r="H126" s="98">
+        <v>1</v>
+      </c>
+      <c r="I126" s="98"/>
+      <c r="J126" s="36">
+        <v>1</v>
+      </c>
+      <c r="K126" s="36"/>
+      <c r="L126" s="41"/>
+      <c r="M126" s="41"/>
+      <c r="N126" s="35">
+        <f t="shared" ref="N126" si="53">D126+F126+H126+J126+L126</f>
         <v>5</v>
       </c>
-      <c r="O121" s="36">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
-      <c r="A122" s="78"/>
-      <c r="B122" s="85"/>
-      <c r="C122" s="78"/>
-      <c r="D122" s="79"/>
-      <c r="E122" s="79"/>
-      <c r="F122" s="78"/>
-      <c r="G122" s="78"/>
-      <c r="H122" s="80"/>
-      <c r="I122" s="80"/>
-      <c r="J122" s="100" t="s">
+      <c r="O126" s="36">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A127" s="78"/>
+      <c r="B127" s="85"/>
+      <c r="C127" s="78"/>
+      <c r="D127" s="79"/>
+      <c r="E127" s="79"/>
+      <c r="F127" s="78"/>
+      <c r="G127" s="78"/>
+      <c r="H127" s="80"/>
+      <c r="I127" s="80"/>
+      <c r="J127" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="K122" s="99"/>
-      <c r="L122" s="2"/>
-      <c r="M122" s="2"/>
-      <c r="N122" s="86">
-        <f>SUM(N99:N121)</f>
+      <c r="K127" s="100"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="86">
+        <f>SUM(N104:N126)</f>
         <v>183.5</v>
       </c>
-      <c r="O122" s="84">
-        <f>SUM(O99:O121)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
-      <c r="A123" s="4"/>
-      <c r="B123" s="59"/>
-      <c r="C123" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D123" s="6">
-        <f t="shared" ref="D123:M123" si="48">SUM(D4:D122)</f>
-        <v>155.64999999999998</v>
-      </c>
-      <c r="E123" s="6">
-        <f t="shared" si="48"/>
-        <v>65.649999999999991</v>
-      </c>
-      <c r="F123" s="6">
-        <f t="shared" si="48"/>
-        <v>150.5</v>
-      </c>
-      <c r="G123" s="6">
-        <f t="shared" si="48"/>
+      <c r="O127" s="84">
+        <f>SUM(O104:O126)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A128" s="4"/>
+      <c r="B128" s="59"/>
+      <c r="C128" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" s="6">
+        <f t="shared" ref="D128:M128" si="54">SUM(D4:D127)</f>
+        <v>162.64999999999998</v>
+      </c>
+      <c r="E128" s="6">
+        <f t="shared" si="54"/>
+        <v>72.649999999999991</v>
+      </c>
+      <c r="F128" s="6">
+        <f t="shared" si="54"/>
+        <v>158.5</v>
+      </c>
+      <c r="G128" s="6">
+        <f t="shared" si="54"/>
+        <v>74.3</v>
+      </c>
+      <c r="H128" s="6">
+        <f t="shared" si="54"/>
+        <v>155</v>
+      </c>
+      <c r="I128" s="6">
+        <f t="shared" si="54"/>
         <v>65.8</v>
       </c>
-      <c r="H123" s="6">
-        <f t="shared" si="48"/>
-        <v>147</v>
-      </c>
-      <c r="I123" s="6">
-        <f t="shared" si="48"/>
-        <v>57.8</v>
-      </c>
-      <c r="J123" s="6">
-        <f t="shared" si="48"/>
-        <v>156</v>
-      </c>
-      <c r="K123" s="6">
-        <f t="shared" si="48"/>
-        <v>66.8</v>
-      </c>
-      <c r="L123" s="6">
-        <f t="shared" si="48"/>
-        <v>0.5</v>
-      </c>
-      <c r="M123" s="6">
-        <f t="shared" si="48"/>
-        <v>0.5</v>
-      </c>
-      <c r="N123" s="4">
-        <f>D123+F123+H123+J123+L123</f>
-        <v>609.65</v>
-      </c>
-      <c r="O123" s="6">
-        <f>E123+G123+I123+K123+M123</f>
-        <v>256.55</v>
+      <c r="J128" s="6">
+        <f t="shared" si="54"/>
+        <v>163</v>
+      </c>
+      <c r="K128" s="6">
+        <f t="shared" si="54"/>
+        <v>69.3</v>
+      </c>
+      <c r="L128" s="6">
+        <f t="shared" si="54"/>
+        <v>0.5</v>
+      </c>
+      <c r="M128" s="6">
+        <f t="shared" si="54"/>
+        <v>0.5</v>
+      </c>
+      <c r="N128" s="4">
+        <f>D128+F128+H128+J128+L128</f>
+        <v>639.65</v>
+      </c>
+      <c r="O128" s="6">
+        <f>E128+G128+I128+K128+M128</f>
+        <v>282.55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="A77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="A98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="J47:K47"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="E2:F2"/>
@@ -5967,6 +6175,22 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J127:K127"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="A77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="A103:I103"/>
+    <mergeCell ref="J103:K103"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="J47:K47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -5976,14 +6200,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5992,20 +6216,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -6166,40 +6385,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6217,10 +6425,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
+++ b/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
@@ -19,8 +19,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Joost Wagensveld</author>
+  </authors>
+  <commentList>
+    <comment ref="K82" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Joost Wagensveld:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Jessi vragen over zijn uren van maandag</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="127">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -400,6 +434,9 @@
   </si>
   <si>
     <t>Klassendiagram uitleg Concurrency</t>
+  </si>
+  <si>
+    <t>Planning rest van de week aanpassen</t>
   </si>
 </sst>
 </file>
@@ -410,7 +447,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -452,6 +489,19 @@
       <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -920,15 +970,15 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -944,7 +994,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1256,12 +1306,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O128"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N80" sqref="N80:O82"/>
+      <pane ySplit="4" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1296,11 +1346,11 @@
       <c r="H2" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="101">
+      <c r="I2" s="107">
         <f ca="1">TODAY()</f>
-        <v>42380</v>
-      </c>
-      <c r="J2" s="101"/>
+        <v>42381</v>
+      </c>
+      <c r="J2" s="107"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
@@ -1376,17 +1426,17 @@
       <c r="O4" s="78"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
+      <c r="H5" s="101"/>
+      <c r="I5" s="101"/>
       <c r="J5" s="100"/>
       <c r="K5" s="100"/>
       <c r="L5" s="78"/>
@@ -1612,17 +1662,17 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
+      <c r="B11" s="101"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
       <c r="J11" s="100" t="s">
         <v>35</v>
       </c>
@@ -2065,17 +2115,17 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="99" t="s">
+      <c r="A22" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
       <c r="J22" s="100" t="s">
         <v>43</v>
       </c>
@@ -2605,17 +2655,17 @@
       </c>
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="99" t="s">
+      <c r="A36" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="99"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
+      <c r="B36" s="101"/>
+      <c r="C36" s="101"/>
+      <c r="D36" s="101"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="101"/>
       <c r="J36" s="100" t="s">
         <v>44</v>
       </c>
@@ -3054,17 +3104,17 @@
       </c>
     </row>
     <row r="47" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="99" t="s">
+      <c r="A47" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="99"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="99"/>
-      <c r="I47" s="99"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="101"/>
+      <c r="E47" s="101"/>
+      <c r="F47" s="101"/>
+      <c r="G47" s="101"/>
+      <c r="H47" s="101"/>
+      <c r="I47" s="101"/>
       <c r="J47" s="100" t="s">
         <v>45</v>
       </c>
@@ -3643,17 +3693,17 @@
       </c>
     </row>
     <row r="62" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="99" t="s">
+      <c r="A62" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="99"/>
-      <c r="C62" s="99"/>
-      <c r="D62" s="99"/>
-      <c r="E62" s="99"/>
-      <c r="F62" s="99"/>
-      <c r="G62" s="99"/>
-      <c r="H62" s="99"/>
-      <c r="I62" s="99"/>
+      <c r="B62" s="101"/>
+      <c r="C62" s="101"/>
+      <c r="D62" s="101"/>
+      <c r="E62" s="101"/>
+      <c r="F62" s="101"/>
+      <c r="G62" s="101"/>
+      <c r="H62" s="101"/>
+      <c r="I62" s="101"/>
       <c r="J62" s="100" t="s">
         <v>46</v>
       </c>
@@ -4250,18 +4300,18 @@
       </c>
     </row>
     <row r="77" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="99" t="s">
+      <c r="A77" s="101" t="s">
         <v>41</v>
       </c>
-      <c r="B77" s="99"/>
-      <c r="C77" s="99"/>
-      <c r="D77" s="99"/>
-      <c r="E77" s="99"/>
-      <c r="F77" s="99"/>
-      <c r="G77" s="99"/>
-      <c r="H77" s="99"/>
-      <c r="I77" s="99"/>
-      <c r="J77" s="99" t="s">
+      <c r="B77" s="101"/>
+      <c r="C77" s="101"/>
+      <c r="D77" s="101"/>
+      <c r="E77" s="101"/>
+      <c r="F77" s="101"/>
+      <c r="G77" s="101"/>
+      <c r="H77" s="101"/>
+      <c r="I77" s="101"/>
+      <c r="J77" s="101" t="s">
         <v>47</v>
       </c>
       <c r="K77" s="100"/>
@@ -4353,12 +4403,12 @@
       <c r="K79" s="72"/>
       <c r="L79" s="73"/>
       <c r="M79" s="73"/>
-      <c r="N79" s="107">
-        <f t="shared" ref="N79:N85" si="42">D79+F79+H79+J79+L79</f>
+      <c r="N79" s="99">
+        <f t="shared" ref="N79:N104" si="42">D79+F79+H79+J79+L79</f>
         <v>10</v>
       </c>
       <c r="O79" s="72">
-        <f t="shared" ref="O79:O85" si="43">E79+G79+I79+K79+M79</f>
+        <f t="shared" ref="O79:O104" si="43">E79+G79+I79+K79+M79</f>
         <v>11.5</v>
       </c>
     </row>
@@ -4376,35 +4426,35 @@
         <v>2</v>
       </c>
       <c r="E80" s="38">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="F80" s="29">
         <v>2</v>
       </c>
       <c r="G80" s="29">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="H80" s="39">
         <v>2</v>
       </c>
       <c r="I80" s="39">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="J80" s="29">
         <v>2</v>
       </c>
       <c r="K80" s="72">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="L80" s="73"/>
       <c r="M80" s="73"/>
-      <c r="N80" s="107">
+      <c r="N80" s="99">
         <f t="shared" si="42"/>
         <v>8</v>
       </c>
       <c r="O80" s="72">
         <f t="shared" si="43"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4435,12 +4485,12 @@
       <c r="K81" s="72"/>
       <c r="L81" s="73"/>
       <c r="M81" s="73"/>
-      <c r="N81" s="107">
-        <f t="shared" ref="N81:N82" si="44">D81+F81+H81+J81+L81</f>
+      <c r="N81" s="99">
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
       <c r="O81" s="72">
-        <f t="shared" ref="O81:O82" si="45">E81+G81+I81+K81+M81</f>
+        <f t="shared" si="43"/>
         <v>4</v>
       </c>
     </row>
@@ -4463,16 +4513,18 @@
       <c r="J82" s="29">
         <v>4</v>
       </c>
-      <c r="K82" s="72"/>
+      <c r="K82" s="72">
+        <v>5</v>
+      </c>
       <c r="L82" s="73"/>
       <c r="M82" s="73"/>
-      <c r="N82" s="107">
-        <f t="shared" si="44"/>
+      <c r="N82" s="99">
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
       <c r="O82" s="72">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4488,61 +4540,81 @@
       <c r="D83" s="38">
         <v>1</v>
       </c>
-      <c r="E83" s="38"/>
+      <c r="E83" s="38">
+        <v>2.5</v>
+      </c>
       <c r="F83" s="29">
         <v>1</v>
       </c>
-      <c r="G83" s="29"/>
+      <c r="G83" s="29">
+        <v>1</v>
+      </c>
       <c r="H83" s="39">
         <v>1</v>
       </c>
-      <c r="I83" s="39"/>
+      <c r="I83" s="39">
+        <v>2.5</v>
+      </c>
       <c r="J83" s="29">
         <v>1</v>
       </c>
-      <c r="K83" s="72"/>
+      <c r="K83" s="72">
+        <v>0.5</v>
+      </c>
       <c r="L83" s="73"/>
       <c r="M83" s="73"/>
-      <c r="N83" s="107">
-        <f t="shared" ref="N82:N84" si="46">D83+F83+H83+J83+L83</f>
+      <c r="N83" s="99">
+        <f t="shared" si="42"/>
         <v>4</v>
       </c>
       <c r="O83" s="72">
-        <f t="shared" ref="O82:O84" si="47">E83+G83+I83+K83+M83</f>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>6.5</v>
       </c>
     </row>
     <row r="84" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="94">
+      <c r="B84" s="92">
         <v>42380</v>
       </c>
-      <c r="C84" s="77" t="s">
-        <v>119</v>
+      <c r="C84" s="74" t="s">
+        <v>89</v>
       </c>
       <c r="D84" s="38">
-        <v>1</v>
-      </c>
-      <c r="E84" s="38"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="39"/>
+        <v>4</v>
+      </c>
+      <c r="E84" s="38">
+        <v>2</v>
+      </c>
+      <c r="F84" s="29">
+        <v>4</v>
+      </c>
+      <c r="G84" s="29">
+        <v>1</v>
+      </c>
+      <c r="H84" s="39">
+        <v>4</v>
+      </c>
+      <c r="I84" s="39">
+        <v>1</v>
+      </c>
       <c r="J84" s="29">
-        <v>1</v>
-      </c>
-      <c r="K84" s="72"/>
-      <c r="L84" s="73"/>
-      <c r="M84" s="73"/>
-      <c r="N84" s="107">
-        <f t="shared" si="46"/>
-        <v>2</v>
-      </c>
-      <c r="O84" s="72">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K84" s="29">
+        <v>1</v>
+      </c>
+      <c r="L84" s="40"/>
+      <c r="M84" s="40"/>
+      <c r="N84" s="28">
+        <f t="shared" si="42"/>
+        <v>16</v>
+      </c>
+      <c r="O84" s="29">
+        <f t="shared" si="43"/>
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4550,36 +4622,44 @@
         <v>8</v>
       </c>
       <c r="B85" s="94">
-        <v>42380</v>
-      </c>
-      <c r="C85" s="77" t="s">
-        <v>96</v>
+        <v>42381</v>
+      </c>
+      <c r="C85" s="94" t="s">
+        <v>123</v>
       </c>
       <c r="D85" s="38">
         <v>1</v>
       </c>
-      <c r="E85" s="38"/>
+      <c r="E85" s="38">
+        <v>2</v>
+      </c>
       <c r="F85" s="29">
         <v>1</v>
       </c>
-      <c r="G85" s="29"/>
+      <c r="G85" s="29">
+        <v>1</v>
+      </c>
       <c r="H85" s="39">
         <v>1</v>
       </c>
-      <c r="I85" s="39"/>
+      <c r="I85" s="39">
+        <v>2</v>
+      </c>
       <c r="J85" s="29">
-        <v>2</v>
-      </c>
-      <c r="K85" s="72"/>
+        <v>1</v>
+      </c>
+      <c r="K85" s="72">
+        <v>0</v>
+      </c>
       <c r="L85" s="73"/>
       <c r="M85" s="73"/>
-      <c r="N85" s="28">
+      <c r="N85" s="99">
         <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="O85" s="72">
+        <f t="shared" si="43"/>
         <v>5</v>
-      </c>
-      <c r="O85" s="29">
-        <f t="shared" si="43"/>
-        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4587,143 +4667,169 @@
         <v>8</v>
       </c>
       <c r="B86" s="94">
-        <v>42380</v>
+        <v>42381</v>
       </c>
       <c r="C86" s="77" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="D86" s="38">
-        <v>2</v>
-      </c>
-      <c r="E86" s="38"/>
-      <c r="F86" s="29">
-        <v>2</v>
-      </c>
-      <c r="G86" s="29"/>
-      <c r="H86" s="39">
-        <v>2</v>
-      </c>
-      <c r="I86" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="E86" s="38">
+        <v>3</v>
+      </c>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29">
+        <v>1</v>
+      </c>
+      <c r="H86" s="39"/>
+      <c r="I86" s="39">
+        <v>3</v>
+      </c>
       <c r="J86" s="29">
-        <v>2</v>
-      </c>
-      <c r="K86" s="72"/>
+        <v>1</v>
+      </c>
+      <c r="K86" s="72">
+        <v>1</v>
+      </c>
       <c r="L86" s="73"/>
       <c r="M86" s="73"/>
-      <c r="N86" s="28">
-        <f t="shared" ref="N86:N102" si="48">D86+F86+H86+J86+L86</f>
+      <c r="N86" s="99">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="O86" s="72">
+        <f t="shared" si="43"/>
         <v>8</v>
-      </c>
-      <c r="O86" s="29">
-        <f t="shared" ref="O86:O102" si="49">E86+G86+I86+K86+M86</f>
-        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="94">
-        <v>42380</v>
+      <c r="B87" s="92">
+        <v>42381</v>
       </c>
       <c r="C87" s="74" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D87" s="38">
-        <v>3</v>
-      </c>
-      <c r="E87" s="38"/>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="39"/>
+        <v>4</v>
+      </c>
+      <c r="E87" s="38">
+        <v>1</v>
+      </c>
+      <c r="F87" s="29">
+        <v>2</v>
+      </c>
+      <c r="G87" s="29">
+        <v>1</v>
+      </c>
+      <c r="H87" s="39">
+        <v>2</v>
+      </c>
+      <c r="I87" s="39">
+        <v>1</v>
+      </c>
       <c r="J87" s="29">
-        <v>3</v>
-      </c>
-      <c r="K87" s="72"/>
-      <c r="L87" s="73"/>
-      <c r="M87" s="73"/>
+        <v>8</v>
+      </c>
+      <c r="K87" s="29">
+        <v>2</v>
+      </c>
+      <c r="L87" s="40"/>
+      <c r="M87" s="40"/>
       <c r="N87" s="28">
-        <f t="shared" si="48"/>
-        <v>6</v>
+        <f t="shared" si="42"/>
+        <v>16</v>
       </c>
       <c r="O87" s="29">
-        <f t="shared" si="49"/>
-        <v>0</v>
+        <f t="shared" si="43"/>
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B88" s="92">
+      <c r="B88" s="94">
         <v>42381</v>
       </c>
-      <c r="C88" s="74" t="s">
-        <v>59</v>
+      <c r="C88" s="77" t="s">
+        <v>88</v>
       </c>
       <c r="D88" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="E88" s="38"/>
+        <v>2</v>
+      </c>
+      <c r="E88" s="38">
+        <v>3</v>
+      </c>
       <c r="F88" s="29">
-        <v>1</v>
-      </c>
-      <c r="G88" s="29"/>
+        <v>2</v>
+      </c>
+      <c r="G88" s="29">
+        <v>5</v>
+      </c>
       <c r="H88" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="I88" s="39"/>
+        <v>2</v>
+      </c>
+      <c r="I88" s="39">
+        <v>3</v>
+      </c>
       <c r="J88" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K88" s="29"/>
-      <c r="L88" s="40"/>
-      <c r="M88" s="40"/>
+        <v>2</v>
+      </c>
+      <c r="K88" s="72">
+        <v>1</v>
+      </c>
+      <c r="L88" s="73"/>
+      <c r="M88" s="73"/>
       <c r="N88" s="28">
-        <f t="shared" si="48"/>
-        <v>2.5</v>
+        <f t="shared" ref="N88:N99" si="44">D88+F88+H88+J88+L88</f>
+        <v>8</v>
       </c>
       <c r="O88" s="29">
-        <f t="shared" si="49"/>
-        <v>0</v>
+        <f t="shared" ref="O88:O99" si="45">E88+G88+I88+K88+M88</f>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="92">
+      <c r="B89" s="94">
         <v>42381</v>
       </c>
       <c r="C89" s="74" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="D89" s="38">
-        <v>5</v>
-      </c>
-      <c r="E89" s="38"/>
-      <c r="F89" s="29">
-        <v>5</v>
-      </c>
-      <c r="G89" s="29"/>
-      <c r="H89" s="39">
-        <v>5</v>
-      </c>
-      <c r="I89" s="39"/>
+        <v>3</v>
+      </c>
+      <c r="E89" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29">
+        <v>1</v>
+      </c>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39">
+        <v>1.5</v>
+      </c>
       <c r="J89" s="29">
-        <v>5</v>
-      </c>
-      <c r="K89" s="29"/>
-      <c r="L89" s="40"/>
-      <c r="M89" s="40"/>
+        <v>3</v>
+      </c>
+      <c r="K89" s="72"/>
+      <c r="L89" s="73"/>
+      <c r="M89" s="73"/>
       <c r="N89" s="28">
-        <f t="shared" si="48"/>
-        <v>20</v>
+        <f t="shared" si="44"/>
+        <v>6</v>
       </c>
       <c r="O89" s="29">
-        <f t="shared" si="49"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4734,32 +4840,32 @@
         <v>42381</v>
       </c>
       <c r="C90" s="74" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="D90" s="38">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="E90" s="38"/>
       <c r="F90" s="29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G90" s="29"/>
       <c r="H90" s="39">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="I90" s="39"/>
       <c r="J90" s="29">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="K90" s="29"/>
       <c r="L90" s="40"/>
       <c r="M90" s="40"/>
       <c r="N90" s="28">
-        <f t="shared" si="48"/>
-        <v>16</v>
+        <f t="shared" si="44"/>
+        <v>2.5</v>
       </c>
       <c r="O90" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
@@ -4768,36 +4874,44 @@
         <v>8</v>
       </c>
       <c r="B91" s="92">
-        <v>42382</v>
+        <v>42381</v>
       </c>
       <c r="C91" s="74" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="D91" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="E91" s="38"/>
+        <v>5</v>
+      </c>
+      <c r="E91" s="38">
+        <v>0.5</v>
+      </c>
       <c r="F91" s="29">
-        <v>1</v>
-      </c>
-      <c r="G91" s="29"/>
+        <v>5</v>
+      </c>
+      <c r="G91" s="29">
+        <v>1</v>
+      </c>
       <c r="H91" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="I91" s="39"/>
+        <v>5</v>
+      </c>
+      <c r="I91" s="39">
+        <v>0.5</v>
+      </c>
       <c r="J91" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K91" s="29"/>
+        <v>5</v>
+      </c>
+      <c r="K91" s="29">
+        <v>4</v>
+      </c>
       <c r="L91" s="40"/>
       <c r="M91" s="40"/>
       <c r="N91" s="28">
-        <f t="shared" si="48"/>
-        <v>2.5</v>
+        <f t="shared" si="44"/>
+        <v>20</v>
       </c>
       <c r="O91" s="29">
-        <f t="shared" si="49"/>
-        <v>0</v>
+        <f t="shared" si="45"/>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4808,32 +4922,32 @@
         <v>42382</v>
       </c>
       <c r="C92" s="74" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="D92" s="38">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="E92" s="38"/>
       <c r="F92" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G92" s="29"/>
       <c r="H92" s="39">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I92" s="39"/>
       <c r="J92" s="29">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K92" s="29"/>
       <c r="L92" s="40"/>
       <c r="M92" s="40"/>
       <c r="N92" s="28">
-        <f t="shared" si="48"/>
-        <v>10</v>
+        <f t="shared" si="44"/>
+        <v>2.5</v>
       </c>
       <c r="O92" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
@@ -4845,32 +4959,32 @@
         <v>42382</v>
       </c>
       <c r="C93" s="74" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="D93" s="38">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="E93" s="38"/>
       <c r="F93" s="29">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G93" s="29"/>
       <c r="H93" s="39">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I93" s="39"/>
       <c r="J93" s="29">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="K93" s="29"/>
       <c r="L93" s="40"/>
       <c r="M93" s="40"/>
       <c r="N93" s="28">
-        <f t="shared" si="48"/>
-        <v>16</v>
+        <f t="shared" si="44"/>
+        <v>2</v>
       </c>
       <c r="O93" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
@@ -4878,88 +4992,88 @@
       <c r="A94" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="92">
+      <c r="B94" s="94">
         <v>42382</v>
       </c>
-      <c r="C94" s="74" t="s">
-        <v>112</v>
+      <c r="C94" s="77" t="s">
+        <v>96</v>
       </c>
       <c r="D94" s="38">
         <v>1</v>
       </c>
       <c r="E94" s="38"/>
       <c r="F94" s="29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G94" s="29"/>
       <c r="H94" s="39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I94" s="39"/>
       <c r="J94" s="29">
-        <v>1</v>
-      </c>
-      <c r="K94" s="29"/>
-      <c r="L94" s="40"/>
-      <c r="M94" s="40"/>
+        <v>2</v>
+      </c>
+      <c r="K94" s="72"/>
+      <c r="L94" s="73"/>
+      <c r="M94" s="73"/>
       <c r="N94" s="28">
-        <f t="shared" si="48"/>
-        <v>10</v>
+        <f t="shared" si="44"/>
+        <v>5</v>
       </c>
       <c r="O94" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B95" s="92">
-        <v>42383</v>
+        <v>42382</v>
       </c>
       <c r="C95" s="74" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="D95" s="38">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="E95" s="38"/>
       <c r="F95" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G95" s="29"/>
       <c r="H95" s="39">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I95" s="39"/>
       <c r="J95" s="29">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K95" s="29"/>
       <c r="L95" s="40"/>
       <c r="M95" s="40"/>
       <c r="N95" s="28">
-        <f t="shared" si="48"/>
-        <v>2.5</v>
+        <f t="shared" si="44"/>
+        <v>10</v>
       </c>
       <c r="O95" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B96" s="92">
-        <v>42383</v>
+        <v>42382</v>
       </c>
       <c r="C96" s="74" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D96" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96" s="38"/>
       <c r="F96" s="29">
@@ -4967,21 +5081,21 @@
       </c>
       <c r="G96" s="29"/>
       <c r="H96" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I96" s="39"/>
       <c r="J96" s="29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K96" s="29"/>
       <c r="L96" s="40"/>
       <c r="M96" s="40"/>
       <c r="N96" s="28">
-        <f t="shared" si="48"/>
-        <v>12</v>
+        <f t="shared" si="44"/>
+        <v>10</v>
       </c>
       <c r="O96" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
@@ -4993,32 +5107,32 @@
         <v>42383</v>
       </c>
       <c r="C97" s="74" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="D97" s="38">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G97" s="29"/>
       <c r="H97" s="39">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="I97" s="39"/>
       <c r="J97" s="29">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="K97" s="29"/>
       <c r="L97" s="40"/>
       <c r="M97" s="40"/>
       <c r="N97" s="28">
-        <f t="shared" si="48"/>
-        <v>16</v>
+        <f t="shared" si="44"/>
+        <v>2.5</v>
       </c>
       <c r="O97" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
@@ -5027,35 +5141,35 @@
         <v>8</v>
       </c>
       <c r="B98" s="92">
-        <v>42384</v>
+        <v>42383</v>
       </c>
       <c r="C98" s="74" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="D98" s="38">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E98" s="38"/>
       <c r="F98" s="29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G98" s="29"/>
       <c r="H98" s="39">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I98" s="39"/>
       <c r="J98" s="29">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="K98" s="29"/>
       <c r="L98" s="40"/>
       <c r="M98" s="40"/>
       <c r="N98" s="28">
-        <f t="shared" si="48"/>
-        <v>2.5</v>
+        <f t="shared" si="44"/>
+        <v>12</v>
       </c>
       <c r="O98" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
@@ -5064,35 +5178,35 @@
         <v>8</v>
       </c>
       <c r="B99" s="92">
-        <v>42384</v>
-      </c>
-      <c r="C99" s="89" t="s">
-        <v>120</v>
-      </c>
-      <c r="D99" s="66">
-        <v>6</v>
-      </c>
-      <c r="E99" s="66"/>
-      <c r="F99" s="65">
-        <v>4</v>
-      </c>
-      <c r="G99" s="65"/>
-      <c r="H99" s="67">
-        <v>4</v>
-      </c>
-      <c r="I99" s="67"/>
-      <c r="J99" s="65">
-        <v>4</v>
-      </c>
-      <c r="K99" s="65"/>
-      <c r="L99" s="64"/>
-      <c r="M99" s="64"/>
+        <v>42383</v>
+      </c>
+      <c r="C99" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="D99" s="38">
+        <v>4</v>
+      </c>
+      <c r="E99" s="38"/>
+      <c r="F99" s="29">
+        <v>4</v>
+      </c>
+      <c r="G99" s="29"/>
+      <c r="H99" s="39">
+        <v>4</v>
+      </c>
+      <c r="I99" s="39"/>
+      <c r="J99" s="29">
+        <v>4</v>
+      </c>
+      <c r="K99" s="29"/>
+      <c r="L99" s="40"/>
+      <c r="M99" s="40"/>
       <c r="N99" s="28">
-        <f t="shared" si="48"/>
-        <v>18</v>
+        <f t="shared" si="44"/>
+        <v>16</v>
       </c>
       <c r="O99" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
@@ -5103,245 +5217,245 @@
       <c r="B100" s="92">
         <v>42384</v>
       </c>
-      <c r="C100" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="D100" s="66">
-        <v>1</v>
-      </c>
-      <c r="E100" s="66"/>
-      <c r="F100" s="65">
-        <v>1</v>
-      </c>
-      <c r="G100" s="65"/>
-      <c r="H100" s="67">
-        <v>5</v>
-      </c>
-      <c r="I100" s="67"/>
-      <c r="J100" s="65">
-        <v>1</v>
-      </c>
-      <c r="K100" s="65"/>
-      <c r="L100" s="64"/>
-      <c r="M100" s="64"/>
+      <c r="C100" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="E100" s="38"/>
+      <c r="F100" s="29">
+        <v>1</v>
+      </c>
+      <c r="G100" s="29"/>
+      <c r="H100" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="I100" s="39"/>
+      <c r="J100" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="K100" s="29"/>
+      <c r="L100" s="40"/>
+      <c r="M100" s="40"/>
       <c r="N100" s="28">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
+        <v>2.5</v>
+      </c>
+      <c r="O100" s="29">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O100" s="29">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A101" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="B101" s="95">
+      <c r="B101" s="92">
         <v>42384</v>
       </c>
-      <c r="C101" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="D101" s="62">
-        <v>2</v>
-      </c>
-      <c r="E101" s="62"/>
-      <c r="F101" s="61">
-        <v>2</v>
-      </c>
-      <c r="G101" s="61"/>
-      <c r="H101" s="63">
-        <v>2</v>
-      </c>
-      <c r="I101" s="63"/>
+      <c r="C101" s="89" t="s">
+        <v>120</v>
+      </c>
+      <c r="D101" s="66">
+        <v>6</v>
+      </c>
+      <c r="E101" s="66"/>
+      <c r="F101" s="65">
+        <v>4</v>
+      </c>
+      <c r="G101" s="65"/>
+      <c r="H101" s="67">
+        <v>4</v>
+      </c>
+      <c r="I101" s="67"/>
       <c r="J101" s="65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K101" s="65"/>
       <c r="L101" s="64"/>
       <c r="M101" s="64"/>
       <c r="N101" s="28">
-        <f t="shared" si="48"/>
+        <f t="shared" si="42"/>
+        <v>18</v>
+      </c>
+      <c r="O101" s="29">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="O101" s="65">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A102" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="B102" s="96">
+      <c r="B102" s="92">
         <v>42384</v>
       </c>
-      <c r="C102" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="D102" s="62">
-        <v>1</v>
-      </c>
-      <c r="E102" s="62"/>
-      <c r="F102" s="61">
-        <v>1</v>
-      </c>
-      <c r="G102" s="61"/>
-      <c r="H102" s="63">
-        <v>1</v>
-      </c>
-      <c r="I102" s="63"/>
+      <c r="C102" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="D102" s="66">
+        <v>1</v>
+      </c>
+      <c r="E102" s="66"/>
+      <c r="F102" s="65">
+        <v>1</v>
+      </c>
+      <c r="G102" s="65"/>
+      <c r="H102" s="67">
+        <v>5</v>
+      </c>
+      <c r="I102" s="67"/>
       <c r="J102" s="65">
         <v>1</v>
       </c>
       <c r="K102" s="65"/>
       <c r="L102" s="64"/>
       <c r="M102" s="64"/>
-      <c r="N102" s="81">
-        <f t="shared" si="48"/>
-        <v>4</v>
-      </c>
-      <c r="O102" s="65">
-        <f t="shared" si="49"/>
+      <c r="N102" s="28">
+        <f t="shared" si="42"/>
+        <v>8</v>
+      </c>
+      <c r="O102" s="29">
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A103" s="99" t="s">
+      <c r="A103" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" s="95">
+        <v>42384</v>
+      </c>
+      <c r="C103" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="D103" s="62">
+        <v>2</v>
+      </c>
+      <c r="E103" s="62"/>
+      <c r="F103" s="61">
+        <v>2</v>
+      </c>
+      <c r="G103" s="61"/>
+      <c r="H103" s="63">
+        <v>2</v>
+      </c>
+      <c r="I103" s="63"/>
+      <c r="J103" s="65">
+        <v>2</v>
+      </c>
+      <c r="K103" s="65"/>
+      <c r="L103" s="64"/>
+      <c r="M103" s="64"/>
+      <c r="N103" s="28">
+        <f t="shared" si="42"/>
+        <v>8</v>
+      </c>
+      <c r="O103" s="65">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" s="96">
+        <v>42384</v>
+      </c>
+      <c r="C104" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="D104" s="62">
+        <v>1</v>
+      </c>
+      <c r="E104" s="62"/>
+      <c r="F104" s="61">
+        <v>1</v>
+      </c>
+      <c r="G104" s="61"/>
+      <c r="H104" s="63">
+        <v>1</v>
+      </c>
+      <c r="I104" s="63"/>
+      <c r="J104" s="65">
+        <v>1</v>
+      </c>
+      <c r="K104" s="65"/>
+      <c r="L104" s="64"/>
+      <c r="M104" s="64"/>
+      <c r="N104" s="81">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="O104" s="65">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="B103" s="99"/>
-      <c r="C103" s="99"/>
-      <c r="D103" s="99"/>
-      <c r="E103" s="99"/>
-      <c r="F103" s="99"/>
-      <c r="G103" s="99"/>
-      <c r="H103" s="99"/>
-      <c r="I103" s="99"/>
-      <c r="J103" s="108" t="s">
+      <c r="B105" s="101"/>
+      <c r="C105" s="101"/>
+      <c r="D105" s="101"/>
+      <c r="E105" s="101"/>
+      <c r="F105" s="101"/>
+      <c r="G105" s="101"/>
+      <c r="H105" s="101"/>
+      <c r="I105" s="101"/>
+      <c r="J105" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="K103" s="109"/>
-      <c r="L103" s="78"/>
-      <c r="M103" s="78"/>
-      <c r="N103" s="84">
-        <f>SUM(N78:N101)</f>
-        <v>197.5</v>
-      </c>
-      <c r="O103" s="84">
-        <f>SUM(O78:O101)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A104" s="16" t="s">
+      <c r="K105" s="109"/>
+      <c r="L105" s="78"/>
+      <c r="M105" s="78"/>
+      <c r="N105" s="84">
+        <f>SUM(N78:N103)</f>
+        <v>203.5</v>
+      </c>
+      <c r="O105" s="84">
+        <f>SUM(O78:O103)</f>
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B104" s="91">
+      <c r="B106" s="91">
         <v>42387</v>
       </c>
-      <c r="C104" s="69" t="s">
+      <c r="C106" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="D104" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="E104" s="38"/>
-      <c r="F104" s="29">
-        <v>1</v>
-      </c>
-      <c r="G104" s="29"/>
-      <c r="H104" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="I104" s="39"/>
-      <c r="J104" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K104" s="22"/>
-      <c r="L104" s="37"/>
-      <c r="M104" s="37"/>
-      <c r="N104" s="21">
-        <f t="shared" ref="N104:O119" si="50">D104+F104+H104+J104+L104</f>
-        <v>2.5</v>
-      </c>
-      <c r="O104" s="22">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A105" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B105" s="92">
-        <v>42387</v>
-      </c>
-      <c r="C105" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="D105" s="38">
-        <v>4</v>
-      </c>
-      <c r="E105" s="38"/>
-      <c r="F105" s="29">
-        <v>2</v>
-      </c>
-      <c r="G105" s="29"/>
-      <c r="H105" s="39">
-        <v>2</v>
-      </c>
-      <c r="I105" s="39"/>
-      <c r="J105" s="29">
-        <v>2</v>
-      </c>
-      <c r="K105" s="72"/>
-      <c r="L105" s="73"/>
-      <c r="M105" s="73"/>
-      <c r="N105" s="28">
-        <f t="shared" si="50"/>
-        <v>10</v>
-      </c>
-      <c r="O105" s="29">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A106" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B106" s="92">
-        <v>42387</v>
-      </c>
-      <c r="C106" s="77" t="s">
-        <v>98</v>
-      </c>
       <c r="D106" s="38">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E106" s="38"/>
       <c r="F106" s="29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G106" s="29"/>
       <c r="H106" s="39">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="I106" s="39"/>
       <c r="J106" s="29">
-        <v>2</v>
-      </c>
-      <c r="K106" s="72"/>
-      <c r="L106" s="73"/>
-      <c r="M106" s="73"/>
-      <c r="N106" s="28">
-        <f t="shared" si="50"/>
-        <v>12</v>
-      </c>
-      <c r="O106" s="29">
-        <f t="shared" si="50"/>
+        <v>0.5</v>
+      </c>
+      <c r="K106" s="22"/>
+      <c r="L106" s="37"/>
+      <c r="M106" s="37"/>
+      <c r="N106" s="21">
+        <f t="shared" ref="N106:O121" si="46">D106+F106+H106+J106+L106</f>
+        <v>2.5</v>
+      </c>
+      <c r="O106" s="22">
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -5353,10 +5467,10 @@
         <v>42387</v>
       </c>
       <c r="C107" s="77" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="D107" s="38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E107" s="38"/>
       <c r="F107" s="29">
@@ -5368,17 +5482,17 @@
       </c>
       <c r="I107" s="39"/>
       <c r="J107" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K107" s="72"/>
       <c r="L107" s="73"/>
       <c r="M107" s="73"/>
       <c r="N107" s="28">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>10</v>
       </c>
       <c r="O107" s="29">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -5387,35 +5501,35 @@
         <v>9</v>
       </c>
       <c r="B108" s="92">
-        <v>42388</v>
-      </c>
-      <c r="C108" s="74" t="s">
-        <v>59</v>
+        <v>42387</v>
+      </c>
+      <c r="C108" s="77" t="s">
+        <v>98</v>
       </c>
       <c r="D108" s="38">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E108" s="38"/>
       <c r="F108" s="29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G108" s="29"/>
       <c r="H108" s="39">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="I108" s="39"/>
       <c r="J108" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K108" s="29"/>
-      <c r="L108" s="40"/>
-      <c r="M108" s="40"/>
+        <v>2</v>
+      </c>
+      <c r="K108" s="72"/>
+      <c r="L108" s="73"/>
+      <c r="M108" s="73"/>
       <c r="N108" s="28">
-        <f t="shared" si="50"/>
-        <v>2.5</v>
+        <f t="shared" si="46"/>
+        <v>12</v>
       </c>
       <c r="O108" s="29">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -5424,13 +5538,13 @@
         <v>9</v>
       </c>
       <c r="B109" s="92">
-        <v>42388</v>
-      </c>
-      <c r="C109" s="74" t="s">
-        <v>120</v>
+        <v>42387</v>
+      </c>
+      <c r="C109" s="77" t="s">
+        <v>103</v>
       </c>
       <c r="D109" s="38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="29">
@@ -5442,17 +5556,17 @@
       </c>
       <c r="I109" s="39"/>
       <c r="J109" s="29">
-        <v>2</v>
-      </c>
-      <c r="K109" s="29"/>
-      <c r="L109" s="40"/>
-      <c r="M109" s="40"/>
+        <v>4</v>
+      </c>
+      <c r="K109" s="72"/>
+      <c r="L109" s="73"/>
+      <c r="M109" s="73"/>
       <c r="N109" s="28">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>10</v>
       </c>
       <c r="O109" s="29">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -5464,32 +5578,32 @@
         <v>42388</v>
       </c>
       <c r="C110" s="74" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="D110" s="38">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E110" s="38"/>
       <c r="F110" s="29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G110" s="29"/>
       <c r="H110" s="39">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="I110" s="39"/>
       <c r="J110" s="29">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K110" s="29"/>
       <c r="L110" s="40"/>
       <c r="M110" s="40"/>
       <c r="N110" s="28">
-        <f t="shared" si="50"/>
-        <v>12</v>
+        <f t="shared" si="46"/>
+        <v>2.5</v>
       </c>
       <c r="O110" s="29">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -5501,10 +5615,10 @@
         <v>42388</v>
       </c>
       <c r="C111" s="74" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D111" s="38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E111" s="38"/>
       <c r="F111" s="29">
@@ -5516,17 +5630,17 @@
       </c>
       <c r="I111" s="39"/>
       <c r="J111" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K111" s="29"/>
       <c r="L111" s="40"/>
       <c r="M111" s="40"/>
       <c r="N111" s="28">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>10</v>
       </c>
       <c r="O111" s="29">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -5535,35 +5649,35 @@
         <v>9</v>
       </c>
       <c r="B112" s="92">
-        <v>42389</v>
+        <v>42388</v>
       </c>
       <c r="C112" s="74" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D112" s="38">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E112" s="38"/>
       <c r="F112" s="29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G112" s="29"/>
       <c r="H112" s="39">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="I112" s="39"/>
       <c r="J112" s="29">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K112" s="29"/>
       <c r="L112" s="40"/>
       <c r="M112" s="40"/>
       <c r="N112" s="28">
-        <f t="shared" si="50"/>
-        <v>2.5</v>
+        <f t="shared" si="46"/>
+        <v>12</v>
       </c>
       <c r="O112" s="29">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -5572,13 +5686,13 @@
         <v>9</v>
       </c>
       <c r="B113" s="92">
-        <v>42389</v>
+        <v>42388</v>
       </c>
       <c r="C113" s="74" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D113" s="38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E113" s="38"/>
       <c r="F113" s="29">
@@ -5590,17 +5704,17 @@
       </c>
       <c r="I113" s="39"/>
       <c r="J113" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K113" s="29"/>
       <c r="L113" s="40"/>
       <c r="M113" s="40"/>
       <c r="N113" s="28">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>10</v>
       </c>
       <c r="O113" s="29">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -5612,32 +5726,32 @@
         <v>42389</v>
       </c>
       <c r="C114" s="74" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="D114" s="38">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="E114" s="38"/>
       <c r="F114" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G114" s="29"/>
       <c r="H114" s="39">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I114" s="39"/>
       <c r="J114" s="29">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K114" s="29"/>
       <c r="L114" s="40"/>
       <c r="M114" s="40"/>
       <c r="N114" s="28">
-        <f t="shared" si="50"/>
-        <v>10</v>
+        <f t="shared" si="46"/>
+        <v>2.5</v>
       </c>
       <c r="O114" s="29">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -5649,10 +5763,10 @@
         <v>42389</v>
       </c>
       <c r="C115" s="74" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D115" s="38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E115" s="38"/>
       <c r="F115" s="29">
@@ -5660,7 +5774,7 @@
       </c>
       <c r="G115" s="29"/>
       <c r="H115" s="39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I115" s="39"/>
       <c r="J115" s="29">
@@ -5670,11 +5784,11 @@
       <c r="L115" s="40"/>
       <c r="M115" s="40"/>
       <c r="N115" s="28">
-        <f t="shared" si="50"/>
-        <v>9</v>
+        <f t="shared" si="46"/>
+        <v>10</v>
       </c>
       <c r="O115" s="29">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -5686,10 +5800,10 @@
         <v>42389</v>
       </c>
       <c r="C116" s="74" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D116" s="38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E116" s="38"/>
       <c r="F116" s="29">
@@ -5701,17 +5815,17 @@
       </c>
       <c r="I116" s="39"/>
       <c r="J116" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K116" s="29"/>
       <c r="L116" s="40"/>
       <c r="M116" s="40"/>
       <c r="N116" s="28">
-        <f t="shared" si="50"/>
-        <v>9</v>
+        <f t="shared" si="46"/>
+        <v>10</v>
       </c>
       <c r="O116" s="29">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -5720,35 +5834,35 @@
         <v>9</v>
       </c>
       <c r="B117" s="92">
-        <v>42390</v>
+        <v>42389</v>
       </c>
       <c r="C117" s="74" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D117" s="38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E117" s="38"/>
       <c r="F117" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G117" s="29"/>
       <c r="H117" s="39">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="I117" s="39"/>
       <c r="J117" s="29">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K117" s="29"/>
       <c r="L117" s="40"/>
       <c r="M117" s="40"/>
       <c r="N117" s="28">
-        <f t="shared" si="50"/>
-        <v>2.5</v>
+        <f t="shared" si="46"/>
+        <v>9</v>
       </c>
       <c r="O117" s="29">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -5757,13 +5871,13 @@
         <v>9</v>
       </c>
       <c r="B118" s="92">
-        <v>42390</v>
+        <v>42389</v>
       </c>
       <c r="C118" s="74" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D118" s="38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E118" s="38"/>
       <c r="F118" s="29">
@@ -5775,17 +5889,17 @@
       </c>
       <c r="I118" s="39"/>
       <c r="J118" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K118" s="29"/>
       <c r="L118" s="40"/>
       <c r="M118" s="40"/>
       <c r="N118" s="28">
-        <f t="shared" si="50"/>
-        <v>10</v>
+        <f t="shared" si="46"/>
+        <v>9</v>
       </c>
       <c r="O118" s="29">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -5797,32 +5911,32 @@
         <v>42390</v>
       </c>
       <c r="C119" s="74" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="D119" s="38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E119" s="38"/>
       <c r="F119" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G119" s="29"/>
       <c r="H119" s="39">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I119" s="39"/>
       <c r="J119" s="29">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K119" s="29"/>
       <c r="L119" s="40"/>
       <c r="M119" s="40"/>
       <c r="N119" s="28">
-        <f t="shared" si="50"/>
-        <v>7</v>
+        <f t="shared" si="46"/>
+        <v>2.5</v>
       </c>
       <c r="O119" s="29">
-        <f t="shared" si="50"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -5834,10 +5948,10 @@
         <v>42390</v>
       </c>
       <c r="C120" s="74" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D120" s="38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E120" s="38"/>
       <c r="F120" s="29">
@@ -5855,11 +5969,11 @@
       <c r="L120" s="40"/>
       <c r="M120" s="40"/>
       <c r="N120" s="28">
-        <f t="shared" ref="N120:O125" si="51">D120+F120+H120+J120+L120</f>
-        <v>7</v>
+        <f t="shared" si="46"/>
+        <v>10</v>
       </c>
       <c r="O120" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -5868,35 +5982,35 @@
         <v>9</v>
       </c>
       <c r="B121" s="92">
-        <v>42391</v>
+        <v>42390</v>
       </c>
       <c r="C121" s="74" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="D121" s="38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E121" s="38"/>
       <c r="F121" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G121" s="29"/>
       <c r="H121" s="39">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I121" s="39"/>
       <c r="J121" s="29">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K121" s="29"/>
       <c r="L121" s="40"/>
       <c r="M121" s="40"/>
       <c r="N121" s="28">
-        <f t="shared" si="51"/>
-        <v>2.5</v>
+        <f t="shared" si="46"/>
+        <v>7</v>
       </c>
       <c r="O121" s="29">
-        <f t="shared" ref="O121:O126" si="52">E121+G121+I121+K121+M121</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
     </row>
@@ -5905,35 +6019,35 @@
         <v>9</v>
       </c>
       <c r="B122" s="92">
-        <v>42391</v>
-      </c>
-      <c r="C122" s="89" t="s">
-        <v>111</v>
-      </c>
-      <c r="D122" s="66">
-        <v>6</v>
-      </c>
-      <c r="E122" s="66"/>
-      <c r="F122" s="65">
-        <v>4</v>
-      </c>
-      <c r="G122" s="65"/>
-      <c r="H122" s="67">
-        <v>4</v>
-      </c>
-      <c r="I122" s="67"/>
-      <c r="J122" s="65">
-        <v>4</v>
-      </c>
-      <c r="K122" s="65"/>
-      <c r="L122" s="64"/>
-      <c r="M122" s="64"/>
+        <v>42390</v>
+      </c>
+      <c r="C122" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="D122" s="38">
+        <v>1</v>
+      </c>
+      <c r="E122" s="38"/>
+      <c r="F122" s="29">
+        <v>2</v>
+      </c>
+      <c r="G122" s="29"/>
+      <c r="H122" s="39">
+        <v>2</v>
+      </c>
+      <c r="I122" s="39"/>
+      <c r="J122" s="29">
+        <v>2</v>
+      </c>
+      <c r="K122" s="29"/>
+      <c r="L122" s="40"/>
+      <c r="M122" s="40"/>
       <c r="N122" s="28">
-        <f t="shared" si="51"/>
-        <v>18</v>
+        <f t="shared" ref="N122:O127" si="47">D122+F122+H122+J122+L122</f>
+        <v>7</v>
       </c>
       <c r="O122" s="29">
-        <f t="shared" si="52"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
     </row>
@@ -5944,33 +6058,33 @@
       <c r="B123" s="92">
         <v>42391</v>
       </c>
-      <c r="C123" s="89" t="s">
-        <v>101</v>
-      </c>
-      <c r="D123" s="66">
-        <v>1</v>
-      </c>
-      <c r="E123" s="66"/>
-      <c r="F123" s="65">
-        <v>4</v>
-      </c>
-      <c r="G123" s="65"/>
-      <c r="H123" s="67">
-        <v>4</v>
-      </c>
-      <c r="I123" s="67"/>
-      <c r="J123" s="65">
-        <v>4</v>
-      </c>
-      <c r="K123" s="65"/>
-      <c r="L123" s="64"/>
-      <c r="M123" s="64"/>
+      <c r="C123" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D123" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="E123" s="38"/>
+      <c r="F123" s="29">
+        <v>1</v>
+      </c>
+      <c r="G123" s="29"/>
+      <c r="H123" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="I123" s="39"/>
+      <c r="J123" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="K123" s="29"/>
+      <c r="L123" s="40"/>
+      <c r="M123" s="40"/>
       <c r="N123" s="28">
-        <f t="shared" si="51"/>
-        <v>13</v>
+        <f t="shared" si="47"/>
+        <v>2.5</v>
       </c>
       <c r="O123" s="29">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="O123:O128" si="48">E123+G123+I123+K123+M123</f>
         <v>0</v>
       </c>
     </row>
@@ -5982,32 +6096,32 @@
         <v>42391</v>
       </c>
       <c r="C124" s="89" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D124" s="66">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E124" s="66"/>
       <c r="F124" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G124" s="65"/>
       <c r="H124" s="67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I124" s="67"/>
       <c r="J124" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K124" s="65"/>
       <c r="L124" s="64"/>
       <c r="M124" s="64"/>
       <c r="N124" s="28">
-        <f t="shared" si="51"/>
-        <v>4</v>
+        <f t="shared" si="47"/>
+        <v>18</v>
       </c>
       <c r="O124" s="29">
-        <f t="shared" si="52"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -6019,154 +6133,244 @@
         <v>42391</v>
       </c>
       <c r="C125" s="89" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D125" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E125" s="66"/>
       <c r="F125" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G125" s="65"/>
       <c r="H125" s="67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I125" s="67"/>
       <c r="J125" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K125" s="65"/>
       <c r="L125" s="64"/>
       <c r="M125" s="64"/>
       <c r="N125" s="28">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
+        <v>13</v>
+      </c>
+      <c r="O125" s="29">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A126" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" s="92">
+        <v>42391</v>
+      </c>
+      <c r="C126" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="D126" s="66">
+        <v>1</v>
+      </c>
+      <c r="E126" s="66"/>
+      <c r="F126" s="65">
+        <v>1</v>
+      </c>
+      <c r="G126" s="65"/>
+      <c r="H126" s="67">
+        <v>1</v>
+      </c>
+      <c r="I126" s="67"/>
+      <c r="J126" s="65">
+        <v>1</v>
+      </c>
+      <c r="K126" s="65"/>
+      <c r="L126" s="64"/>
+      <c r="M126" s="64"/>
+      <c r="N126" s="28">
+        <f t="shared" si="47"/>
+        <v>4</v>
+      </c>
+      <c r="O126" s="29">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A127" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" s="92">
+        <v>42391</v>
+      </c>
+      <c r="C127" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="D127" s="66">
+        <v>2</v>
+      </c>
+      <c r="E127" s="66"/>
+      <c r="F127" s="65">
+        <v>1</v>
+      </c>
+      <c r="G127" s="65"/>
+      <c r="H127" s="67">
+        <v>1</v>
+      </c>
+      <c r="I127" s="67"/>
+      <c r="J127" s="65">
+        <v>1</v>
+      </c>
+      <c r="K127" s="65"/>
+      <c r="L127" s="64"/>
+      <c r="M127" s="64"/>
+      <c r="N127" s="28">
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
-      <c r="O125" s="29">
-        <f t="shared" si="52"/>
+      <c r="O127" s="29">
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A126" s="30" t="s">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A128" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B126" s="93">
+      <c r="B128" s="93">
         <v>42391</v>
       </c>
-      <c r="C126" s="87" t="s">
+      <c r="C128" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D126" s="97">
-        <v>2</v>
-      </c>
-      <c r="E126" s="97"/>
-      <c r="F126" s="36">
-        <v>1</v>
-      </c>
-      <c r="G126" s="36"/>
-      <c r="H126" s="98">
-        <v>1</v>
-      </c>
-      <c r="I126" s="98"/>
-      <c r="J126" s="36">
-        <v>1</v>
-      </c>
-      <c r="K126" s="36"/>
-      <c r="L126" s="41"/>
-      <c r="M126" s="41"/>
-      <c r="N126" s="35">
-        <f t="shared" ref="N126" si="53">D126+F126+H126+J126+L126</f>
+      <c r="D128" s="97">
+        <v>2</v>
+      </c>
+      <c r="E128" s="97"/>
+      <c r="F128" s="36">
+        <v>1</v>
+      </c>
+      <c r="G128" s="36"/>
+      <c r="H128" s="98">
+        <v>1</v>
+      </c>
+      <c r="I128" s="98"/>
+      <c r="J128" s="36">
+        <v>1</v>
+      </c>
+      <c r="K128" s="36"/>
+      <c r="L128" s="41"/>
+      <c r="M128" s="41"/>
+      <c r="N128" s="35">
+        <f t="shared" ref="N128" si="49">D128+F128+H128+J128+L128</f>
         <v>5</v>
       </c>
-      <c r="O126" s="36">
-        <f t="shared" si="52"/>
+      <c r="O128" s="36">
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A127" s="78"/>
-      <c r="B127" s="85"/>
-      <c r="C127" s="78"/>
-      <c r="D127" s="79"/>
-      <c r="E127" s="79"/>
-      <c r="F127" s="78"/>
-      <c r="G127" s="78"/>
-      <c r="H127" s="80"/>
-      <c r="I127" s="80"/>
-      <c r="J127" s="99" t="s">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A129" s="78"/>
+      <c r="B129" s="85"/>
+      <c r="C129" s="78"/>
+      <c r="D129" s="79"/>
+      <c r="E129" s="79"/>
+      <c r="F129" s="78"/>
+      <c r="G129" s="78"/>
+      <c r="H129" s="80"/>
+      <c r="I129" s="80"/>
+      <c r="J129" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="K127" s="100"/>
-      <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
-      <c r="N127" s="86">
-        <f>SUM(N104:N126)</f>
+      <c r="K129" s="100"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="86">
+        <f>SUM(N106:N128)</f>
         <v>183.5</v>
       </c>
-      <c r="O127" s="84">
-        <f>SUM(O104:O126)</f>
+      <c r="O129" s="84">
+        <f>SUM(O106:O128)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A128" s="4"/>
-      <c r="B128" s="59"/>
-      <c r="C128" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D128" s="6">
-        <f t="shared" ref="D128:M128" si="54">SUM(D4:D127)</f>
-        <v>162.64999999999998</v>
-      </c>
-      <c r="E128" s="6">
-        <f t="shared" si="54"/>
-        <v>72.649999999999991</v>
-      </c>
-      <c r="F128" s="6">
-        <f t="shared" si="54"/>
-        <v>158.5</v>
-      </c>
-      <c r="G128" s="6">
-        <f t="shared" si="54"/>
-        <v>74.3</v>
-      </c>
-      <c r="H128" s="6">
-        <f t="shared" si="54"/>
-        <v>155</v>
-      </c>
-      <c r="I128" s="6">
-        <f t="shared" si="54"/>
-        <v>65.8</v>
-      </c>
-      <c r="J128" s="6">
-        <f t="shared" si="54"/>
-        <v>163</v>
-      </c>
-      <c r="K128" s="6">
-        <f t="shared" si="54"/>
-        <v>69.3</v>
-      </c>
-      <c r="L128" s="6">
-        <f t="shared" si="54"/>
-        <v>0.5</v>
-      </c>
-      <c r="M128" s="6">
-        <f t="shared" si="54"/>
-        <v>0.5</v>
-      </c>
-      <c r="N128" s="4">
-        <f>D128+F128+H128+J128+L128</f>
-        <v>639.65</v>
-      </c>
-      <c r="O128" s="6">
-        <f>E128+G128+I128+K128+M128</f>
-        <v>282.55</v>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A130" s="4"/>
+      <c r="B130" s="59"/>
+      <c r="C130" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D130" s="6">
+        <f t="shared" ref="D130:M130" si="50">SUM(D4:D129)</f>
+        <v>164.14999999999998</v>
+      </c>
+      <c r="E130" s="6">
+        <f t="shared" si="50"/>
+        <v>86.399999999999991</v>
+      </c>
+      <c r="F130" s="6">
+        <f t="shared" si="50"/>
+        <v>160</v>
+      </c>
+      <c r="G130" s="6">
+        <f t="shared" si="50"/>
+        <v>84.55</v>
+      </c>
+      <c r="H130" s="6">
+        <f t="shared" si="50"/>
+        <v>156.5</v>
+      </c>
+      <c r="I130" s="6">
+        <f t="shared" si="50"/>
+        <v>78.55</v>
+      </c>
+      <c r="J130" s="6">
+        <f t="shared" si="50"/>
+        <v>164.5</v>
+      </c>
+      <c r="K130" s="6">
+        <f t="shared" si="50"/>
+        <v>82.05</v>
+      </c>
+      <c r="L130" s="6">
+        <f t="shared" si="50"/>
+        <v>0.5</v>
+      </c>
+      <c r="M130" s="6">
+        <f t="shared" si="50"/>
+        <v>0.5</v>
+      </c>
+      <c r="N130" s="4">
+        <f>D130+F130+H130+J130+L130</f>
+        <v>645.65</v>
+      </c>
+      <c r="O130" s="6">
+        <f>E130+G130+I130+K130+M130</f>
+        <v>332.05</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J129:K129"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="A77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="A105:I105"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="J47:K47"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="E2:F2"/>
@@ -6175,27 +6379,12 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J127:K127"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="A77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="A103:I103"/>
-    <mergeCell ref="J103:K103"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="J47:K47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="225" scale="90" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6216,15 +6405,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -6385,29 +6579,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6425,26 +6630,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
+++ b/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
@@ -19,42 +19,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Joost Wagensveld</author>
-  </authors>
-  <commentList>
-    <comment ref="K82" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Joost Wagensveld:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Jessi vragen over zijn uren van maandag</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="127">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -430,13 +396,13 @@
     <t>STD verder afmaken</t>
   </si>
   <si>
-    <t>JESSI???</t>
-  </si>
-  <si>
     <t>Klassendiagram uitleg Concurrency</t>
   </si>
   <si>
     <t>Planning rest van de week aanpassen</t>
+  </si>
+  <si>
+    <t>Web interface maken</t>
   </si>
 </sst>
 </file>
@@ -447,7 +413,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -489,19 +455,6 @@
       <sz val="16"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -973,10 +926,19 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -992,15 +954,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1306,12 +1259,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G82" sqref="G82"/>
+      <pane ySplit="4" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K99" sqref="K99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1339,18 +1292,18 @@
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="102" t="s">
+      <c r="E2" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="102"/>
+      <c r="F2" s="105"/>
       <c r="H2" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="107">
+      <c r="I2" s="102">
         <f ca="1">TODAY()</f>
-        <v>42381</v>
-      </c>
-      <c r="J2" s="107"/>
+        <v>42383</v>
+      </c>
+      <c r="J2" s="102"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
@@ -1402,43 +1355,43 @@
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="78"/>
       <c r="B4" s="58"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="105"/>
-      <c r="F4" s="100" t="s">
+      <c r="E4" s="108"/>
+      <c r="F4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="106" t="s">
+      <c r="G4" s="101"/>
+      <c r="H4" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="106"/>
-      <c r="J4" s="100" t="s">
+      <c r="I4" s="109"/>
+      <c r="J4" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="100"/>
-      <c r="L4" s="103" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="104"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="107"/>
       <c r="N4" s="83"/>
       <c r="O4" s="78"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="101"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="100"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
       <c r="L5" s="78"/>
       <c r="M5" s="78"/>
       <c r="N5" s="84"/>
@@ -1662,21 +1615,21 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="101" t="s">
+      <c r="A11" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="100" t="s">
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="100"/>
+      <c r="K11" s="101"/>
       <c r="L11" s="78"/>
       <c r="M11" s="78"/>
       <c r="N11" s="84">
@@ -2115,21 +2068,21 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="101" t="s">
+      <c r="A22" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="100" t="s">
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="100"/>
+      <c r="K22" s="101"/>
       <c r="L22" s="78"/>
       <c r="M22" s="78"/>
       <c r="N22" s="84">
@@ -2655,21 +2608,21 @@
       </c>
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="101" t="s">
+      <c r="A36" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="100" t="s">
+      <c r="B36" s="100"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="K36" s="100"/>
+      <c r="K36" s="101"/>
       <c r="L36" s="78"/>
       <c r="M36" s="78"/>
       <c r="N36" s="84">
@@ -3104,21 +3057,21 @@
       </c>
     </row>
     <row r="47" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="101" t="s">
+      <c r="A47" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="101"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="101"/>
-      <c r="E47" s="101"/>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="101"/>
-      <c r="I47" s="101"/>
-      <c r="J47" s="100" t="s">
+      <c r="B47" s="100"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="K47" s="100"/>
+      <c r="K47" s="101"/>
       <c r="L47" s="78"/>
       <c r="M47" s="78"/>
       <c r="N47" s="84">
@@ -3693,21 +3646,21 @@
       </c>
     </row>
     <row r="62" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="101" t="s">
+      <c r="A62" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="101"/>
-      <c r="C62" s="101"/>
-      <c r="D62" s="101"/>
-      <c r="E62" s="101"/>
-      <c r="F62" s="101"/>
-      <c r="G62" s="101"/>
-      <c r="H62" s="101"/>
-      <c r="I62" s="101"/>
-      <c r="J62" s="100" t="s">
+      <c r="B62" s="100"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="100"/>
+      <c r="E62" s="100"/>
+      <c r="F62" s="100"/>
+      <c r="G62" s="100"/>
+      <c r="H62" s="100"/>
+      <c r="I62" s="100"/>
+      <c r="J62" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="K62" s="100"/>
+      <c r="K62" s="101"/>
       <c r="L62" s="78"/>
       <c r="M62" s="78"/>
       <c r="N62" s="84">
@@ -4300,21 +4253,21 @@
       </c>
     </row>
     <row r="77" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="101" t="s">
+      <c r="A77" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="B77" s="101"/>
-      <c r="C77" s="101"/>
-      <c r="D77" s="101"/>
-      <c r="E77" s="101"/>
-      <c r="F77" s="101"/>
-      <c r="G77" s="101"/>
-      <c r="H77" s="101"/>
-      <c r="I77" s="101"/>
-      <c r="J77" s="101" t="s">
+      <c r="B77" s="100"/>
+      <c r="C77" s="100"/>
+      <c r="D77" s="100"/>
+      <c r="E77" s="100"/>
+      <c r="F77" s="100"/>
+      <c r="G77" s="100"/>
+      <c r="H77" s="100"/>
+      <c r="I77" s="100"/>
+      <c r="J77" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="K77" s="100"/>
+      <c r="K77" s="101"/>
       <c r="L77" s="78"/>
       <c r="M77" s="78"/>
       <c r="N77" s="84">
@@ -4404,11 +4357,11 @@
       <c r="L79" s="73"/>
       <c r="M79" s="73"/>
       <c r="N79" s="99">
-        <f t="shared" ref="N79:N104" si="42">D79+F79+H79+J79+L79</f>
+        <f t="shared" ref="N79:N106" si="42">D79+F79+H79+J79+L79</f>
         <v>10</v>
       </c>
       <c r="O79" s="72">
-        <f t="shared" ref="O79:O104" si="43">E79+G79+I79+K79+M79</f>
+        <f t="shared" ref="O79:O106" si="43">E79+G79+I79+K79+M79</f>
         <v>11.5</v>
       </c>
     </row>
@@ -4465,7 +4418,7 @@
         <v>42380</v>
       </c>
       <c r="C81" s="94" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D81" s="38"/>
       <c r="E81" s="38"/>
@@ -4482,7 +4435,9 @@
         <v>2</v>
       </c>
       <c r="J81" s="29"/>
-      <c r="K81" s="72"/>
+      <c r="K81" s="72">
+        <v>1</v>
+      </c>
       <c r="L81" s="73"/>
       <c r="M81" s="73"/>
       <c r="N81" s="99">
@@ -4491,7 +4446,7 @@
       </c>
       <c r="O81" s="72">
         <f t="shared" si="43"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4502,7 +4457,7 @@
         <v>42380</v>
       </c>
       <c r="C82" s="94" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D82" s="38"/>
       <c r="E82" s="38"/>
@@ -4785,11 +4740,11 @@
       <c r="L88" s="73"/>
       <c r="M88" s="73"/>
       <c r="N88" s="28">
-        <f t="shared" ref="N88:N99" si="44">D88+F88+H88+J88+L88</f>
+        <f t="shared" ref="N88:N101" si="44">D88+F88+H88+J88+L88</f>
         <v>8</v>
       </c>
       <c r="O88" s="29">
-        <f t="shared" ref="O88:O99" si="45">E88+G88+I88+K88+M88</f>
+        <f t="shared" ref="O88:O101" si="45">E88+G88+I88+K88+M88</f>
         <v>12</v>
       </c>
     </row>
@@ -4927,19 +4882,27 @@
       <c r="D92" s="38">
         <v>0.5</v>
       </c>
-      <c r="E92" s="38"/>
+      <c r="E92" s="38">
+        <v>0</v>
+      </c>
       <c r="F92" s="29">
         <v>1</v>
       </c>
-      <c r="G92" s="29"/>
+      <c r="G92" s="29">
+        <v>0</v>
+      </c>
       <c r="H92" s="39">
         <v>0.5</v>
       </c>
-      <c r="I92" s="39"/>
+      <c r="I92" s="39">
+        <v>0</v>
+      </c>
       <c r="J92" s="29">
         <v>0.5</v>
       </c>
-      <c r="K92" s="29"/>
+      <c r="K92" s="29">
+        <v>0</v>
+      </c>
       <c r="L92" s="40"/>
       <c r="M92" s="40"/>
       <c r="N92" s="28">
@@ -4955,38 +4918,32 @@
       <c r="A93" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B93" s="92">
+      <c r="B93" s="94">
         <v>42382</v>
       </c>
-      <c r="C93" s="74" t="s">
-        <v>126</v>
+      <c r="C93" s="77" t="s">
+        <v>123</v>
       </c>
       <c r="D93" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="E93" s="38"/>
-      <c r="F93" s="29">
-        <v>0.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E93" s="38">
+        <v>1</v>
+      </c>
+      <c r="F93" s="29"/>
       <c r="G93" s="29"/>
       <c r="H93" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="I93" s="39"/>
-      <c r="J93" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K93" s="29"/>
-      <c r="L93" s="40"/>
-      <c r="M93" s="40"/>
-      <c r="N93" s="28">
-        <f t="shared" si="44"/>
-        <v>2</v>
-      </c>
-      <c r="O93" s="29">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="J93" s="29"/>
+      <c r="K93" s="72"/>
+      <c r="L93" s="73"/>
+      <c r="M93" s="73"/>
+      <c r="N93" s="28"/>
+      <c r="O93" s="29"/>
     </row>
     <row r="94" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="23" t="s">
@@ -5001,7 +4958,9 @@
       <c r="D94" s="38">
         <v>1</v>
       </c>
-      <c r="E94" s="38"/>
+      <c r="E94" s="38">
+        <v>0</v>
+      </c>
       <c r="F94" s="29">
         <v>1</v>
       </c>
@@ -5009,20 +4968,24 @@
       <c r="H94" s="39">
         <v>1</v>
       </c>
-      <c r="I94" s="39"/>
+      <c r="I94" s="39">
+        <v>1</v>
+      </c>
       <c r="J94" s="29">
-        <v>2</v>
-      </c>
-      <c r="K94" s="72"/>
+        <v>3</v>
+      </c>
+      <c r="K94" s="72">
+        <v>2</v>
+      </c>
       <c r="L94" s="73"/>
       <c r="M94" s="73"/>
       <c r="N94" s="28">
         <f t="shared" si="44"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O94" s="29">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5038,7 +5001,9 @@
       <c r="D95" s="38">
         <v>4</v>
       </c>
-      <c r="E95" s="38"/>
+      <c r="E95" s="38">
+        <v>0</v>
+      </c>
       <c r="F95" s="29">
         <v>2</v>
       </c>
@@ -5046,7 +5011,9 @@
       <c r="H95" s="39">
         <v>2</v>
       </c>
-      <c r="I95" s="39"/>
+      <c r="I95" s="39">
+        <v>4</v>
+      </c>
       <c r="J95" s="29">
         <v>2</v>
       </c>
@@ -5059,7 +5026,7 @@
       </c>
       <c r="O95" s="29">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5075,7 +5042,9 @@
       <c r="D96" s="38">
         <v>1</v>
       </c>
-      <c r="E96" s="38"/>
+      <c r="E96" s="38">
+        <v>0</v>
+      </c>
       <c r="F96" s="29">
         <v>4</v>
       </c>
@@ -5083,11 +5052,15 @@
       <c r="H96" s="39">
         <v>4</v>
       </c>
-      <c r="I96" s="39"/>
+      <c r="I96" s="39">
+        <v>2</v>
+      </c>
       <c r="J96" s="29">
         <v>1</v>
       </c>
-      <c r="K96" s="29"/>
+      <c r="K96" s="29">
+        <v>2</v>
+      </c>
       <c r="L96" s="40"/>
       <c r="M96" s="40"/>
       <c r="N96" s="28">
@@ -5096,7 +5069,7 @@
       </c>
       <c r="O96" s="29">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
@@ -5107,36 +5080,40 @@
         <v>42383</v>
       </c>
       <c r="C97" s="74" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="D97" s="38">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E97" s="38"/>
       <c r="F97" s="29">
-        <v>1</v>
-      </c>
-      <c r="G97" s="29"/>
+        <v>4</v>
+      </c>
+      <c r="G97" s="29">
+        <v>3</v>
+      </c>
       <c r="H97" s="39">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I97" s="39"/>
       <c r="J97" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K97" s="29"/>
+        <v>4</v>
+      </c>
+      <c r="K97" s="29">
+        <v>3</v>
+      </c>
       <c r="L97" s="40"/>
       <c r="M97" s="40"/>
       <c r="N97" s="28">
-        <f t="shared" si="44"/>
-        <v>2.5</v>
+        <f t="shared" ref="N97" si="46">D97+F97+H97+J97+L97</f>
+        <v>12</v>
       </c>
       <c r="O97" s="29">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ref="O97" si="47">E97+G97+I97+K97+M97</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="23" t="s">
         <v>8</v>
       </c>
@@ -5144,32 +5121,32 @@
         <v>42383</v>
       </c>
       <c r="C98" s="74" t="s">
-        <v>92</v>
+        <v>125</v>
       </c>
       <c r="D98" s="38">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E98" s="38"/>
       <c r="F98" s="29">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G98" s="29"/>
       <c r="H98" s="39">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I98" s="39"/>
       <c r="J98" s="29">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="K98" s="29"/>
       <c r="L98" s="40"/>
       <c r="M98" s="40"/>
       <c r="N98" s="28">
-        <f t="shared" si="44"/>
-        <v>12</v>
+        <f>D98+F98+H98+J98+L98</f>
+        <v>2</v>
       </c>
       <c r="O98" s="29">
-        <f t="shared" si="45"/>
+        <f>E98+G98+I98+K98+M98</f>
         <v>0</v>
       </c>
     </row>
@@ -5181,29 +5158,29 @@
         <v>42383</v>
       </c>
       <c r="C99" s="74" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="D99" s="38">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="E99" s="38"/>
       <c r="F99" s="29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G99" s="29"/>
       <c r="H99" s="39">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="I99" s="39"/>
       <c r="J99" s="29">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="K99" s="29"/>
       <c r="L99" s="40"/>
       <c r="M99" s="40"/>
       <c r="N99" s="28">
         <f t="shared" si="44"/>
-        <v>16</v>
+        <v>2.5</v>
       </c>
       <c r="O99" s="29">
         <f t="shared" si="45"/>
@@ -5215,35 +5192,35 @@
         <v>8</v>
       </c>
       <c r="B100" s="92">
-        <v>42384</v>
+        <v>42383</v>
       </c>
       <c r="C100" s="74" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
       <c r="D100" s="38">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E100" s="38"/>
       <c r="F100" s="29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G100" s="29"/>
       <c r="H100" s="39">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I100" s="39"/>
       <c r="J100" s="29">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="K100" s="29"/>
       <c r="L100" s="40"/>
       <c r="M100" s="40"/>
       <c r="N100" s="28">
-        <f t="shared" si="42"/>
-        <v>2.5</v>
+        <f t="shared" si="44"/>
+        <v>12</v>
       </c>
       <c r="O100" s="29">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
@@ -5252,35 +5229,35 @@
         <v>8</v>
       </c>
       <c r="B101" s="92">
-        <v>42384</v>
-      </c>
-      <c r="C101" s="89" t="s">
-        <v>120</v>
-      </c>
-      <c r="D101" s="66">
-        <v>6</v>
-      </c>
-      <c r="E101" s="66"/>
-      <c r="F101" s="65">
-        <v>4</v>
-      </c>
-      <c r="G101" s="65"/>
-      <c r="H101" s="67">
-        <v>4</v>
-      </c>
-      <c r="I101" s="67"/>
-      <c r="J101" s="65">
-        <v>4</v>
-      </c>
-      <c r="K101" s="65"/>
-      <c r="L101" s="64"/>
-      <c r="M101" s="64"/>
+        <v>42383</v>
+      </c>
+      <c r="C101" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="D101" s="38">
+        <v>4</v>
+      </c>
+      <c r="E101" s="38"/>
+      <c r="F101" s="29">
+        <v>4</v>
+      </c>
+      <c r="G101" s="29"/>
+      <c r="H101" s="39">
+        <v>4</v>
+      </c>
+      <c r="I101" s="39"/>
+      <c r="J101" s="29">
+        <v>4</v>
+      </c>
+      <c r="K101" s="29"/>
+      <c r="L101" s="40"/>
+      <c r="M101" s="40"/>
       <c r="N101" s="28">
-        <f t="shared" si="42"/>
-        <v>18</v>
+        <f t="shared" si="44"/>
+        <v>16</v>
       </c>
       <c r="O101" s="29">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
@@ -5291,30 +5268,30 @@
       <c r="B102" s="92">
         <v>42384</v>
       </c>
-      <c r="C102" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="D102" s="66">
-        <v>1</v>
-      </c>
-      <c r="E102" s="66"/>
-      <c r="F102" s="65">
-        <v>1</v>
-      </c>
-      <c r="G102" s="65"/>
-      <c r="H102" s="67">
-        <v>5</v>
-      </c>
-      <c r="I102" s="67"/>
-      <c r="J102" s="65">
-        <v>1</v>
-      </c>
-      <c r="K102" s="65"/>
-      <c r="L102" s="64"/>
-      <c r="M102" s="64"/>
+      <c r="C102" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D102" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="E102" s="38"/>
+      <c r="F102" s="29">
+        <v>1</v>
+      </c>
+      <c r="G102" s="29"/>
+      <c r="H102" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="I102" s="39"/>
+      <c r="J102" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="K102" s="29"/>
+      <c r="L102" s="40"/>
+      <c r="M102" s="40"/>
       <c r="N102" s="28">
         <f t="shared" si="42"/>
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="O102" s="29">
         <f t="shared" si="43"/>
@@ -5322,214 +5299,214 @@
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A103" s="61" t="s">
+      <c r="A103" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B103" s="95">
+      <c r="B103" s="92">
         <v>42384</v>
       </c>
-      <c r="C103" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="D103" s="62">
-        <v>2</v>
-      </c>
-      <c r="E103" s="62"/>
-      <c r="F103" s="61">
-        <v>2</v>
-      </c>
-      <c r="G103" s="61"/>
-      <c r="H103" s="63">
-        <v>2</v>
-      </c>
-      <c r="I103" s="63"/>
+      <c r="C103" s="89" t="s">
+        <v>120</v>
+      </c>
+      <c r="D103" s="66">
+        <v>6</v>
+      </c>
+      <c r="E103" s="66"/>
+      <c r="F103" s="65">
+        <v>4</v>
+      </c>
+      <c r="G103" s="65"/>
+      <c r="H103" s="67">
+        <v>4</v>
+      </c>
+      <c r="I103" s="67"/>
       <c r="J103" s="65">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K103" s="65"/>
       <c r="L103" s="64"/>
       <c r="M103" s="64"/>
       <c r="N103" s="28">
         <f t="shared" si="42"/>
-        <v>8</v>
-      </c>
-      <c r="O103" s="65">
+        <v>18</v>
+      </c>
+      <c r="O103" s="29">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A104" s="82" t="s">
+      <c r="A104" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B104" s="96">
+      <c r="B104" s="92">
         <v>42384</v>
       </c>
-      <c r="C104" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="D104" s="62">
-        <v>1</v>
-      </c>
-      <c r="E104" s="62"/>
-      <c r="F104" s="61">
-        <v>1</v>
-      </c>
-      <c r="G104" s="61"/>
-      <c r="H104" s="63">
-        <v>1</v>
-      </c>
-      <c r="I104" s="63"/>
+      <c r="C104" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="D104" s="66">
+        <v>1</v>
+      </c>
+      <c r="E104" s="66"/>
+      <c r="F104" s="65">
+        <v>1</v>
+      </c>
+      <c r="G104" s="65"/>
+      <c r="H104" s="67">
+        <v>5</v>
+      </c>
+      <c r="I104" s="67"/>
       <c r="J104" s="65">
         <v>1</v>
       </c>
       <c r="K104" s="65"/>
       <c r="L104" s="64"/>
       <c r="M104" s="64"/>
-      <c r="N104" s="81">
+      <c r="N104" s="28">
         <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="O104" s="65">
+        <v>8</v>
+      </c>
+      <c r="O104" s="29">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A105" s="101" t="s">
+      <c r="A105" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="95">
+        <v>42384</v>
+      </c>
+      <c r="C105" s="90" t="s">
+        <v>95</v>
+      </c>
+      <c r="D105" s="62">
+        <v>2</v>
+      </c>
+      <c r="E105" s="62"/>
+      <c r="F105" s="61">
+        <v>2</v>
+      </c>
+      <c r="G105" s="61"/>
+      <c r="H105" s="63">
+        <v>2</v>
+      </c>
+      <c r="I105" s="63"/>
+      <c r="J105" s="65">
+        <v>2</v>
+      </c>
+      <c r="K105" s="65"/>
+      <c r="L105" s="64"/>
+      <c r="M105" s="64"/>
+      <c r="N105" s="28">
+        <f t="shared" si="42"/>
+        <v>8</v>
+      </c>
+      <c r="O105" s="65">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" s="82" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="96">
+        <v>42384</v>
+      </c>
+      <c r="C106" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="D106" s="62">
+        <v>1</v>
+      </c>
+      <c r="E106" s="62"/>
+      <c r="F106" s="61">
+        <v>1</v>
+      </c>
+      <c r="G106" s="61"/>
+      <c r="H106" s="63">
+        <v>1</v>
+      </c>
+      <c r="I106" s="63"/>
+      <c r="J106" s="65">
+        <v>1</v>
+      </c>
+      <c r="K106" s="65"/>
+      <c r="L106" s="64"/>
+      <c r="M106" s="64"/>
+      <c r="N106" s="81">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="O106" s="65">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="B105" s="101"/>
-      <c r="C105" s="101"/>
-      <c r="D105" s="101"/>
-      <c r="E105" s="101"/>
-      <c r="F105" s="101"/>
-      <c r="G105" s="101"/>
-      <c r="H105" s="101"/>
-      <c r="I105" s="101"/>
-      <c r="J105" s="108" t="s">
+      <c r="B107" s="100"/>
+      <c r="C107" s="100"/>
+      <c r="D107" s="100"/>
+      <c r="E107" s="100"/>
+      <c r="F107" s="100"/>
+      <c r="G107" s="100"/>
+      <c r="H107" s="100"/>
+      <c r="I107" s="100"/>
+      <c r="J107" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="K105" s="109"/>
-      <c r="L105" s="78"/>
-      <c r="M105" s="78"/>
-      <c r="N105" s="84">
-        <f>SUM(N78:N103)</f>
-        <v>203.5</v>
-      </c>
-      <c r="O105" s="84">
-        <f>SUM(O78:O103)</f>
-        <v>75.5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A106" s="16" t="s">
+      <c r="K107" s="104"/>
+      <c r="L107" s="78"/>
+      <c r="M107" s="78"/>
+      <c r="N107" s="84">
+        <f>SUM(N78:N105)</f>
+        <v>216.5</v>
+      </c>
+      <c r="O107" s="84">
+        <f>SUM(O78:O105)</f>
+        <v>93.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B106" s="91">
+      <c r="B108" s="91">
         <v>42387</v>
       </c>
-      <c r="C106" s="69" t="s">
+      <c r="C108" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="D106" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="E106" s="38"/>
-      <c r="F106" s="29">
-        <v>1</v>
-      </c>
-      <c r="G106" s="29"/>
-      <c r="H106" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="I106" s="39"/>
-      <c r="J106" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K106" s="22"/>
-      <c r="L106" s="37"/>
-      <c r="M106" s="37"/>
-      <c r="N106" s="21">
-        <f t="shared" ref="N106:O121" si="46">D106+F106+H106+J106+L106</f>
-        <v>2.5</v>
-      </c>
-      <c r="O106" s="22">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A107" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B107" s="92">
-        <v>42387</v>
-      </c>
-      <c r="C107" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="D107" s="38">
-        <v>4</v>
-      </c>
-      <c r="E107" s="38"/>
-      <c r="F107" s="29">
-        <v>2</v>
-      </c>
-      <c r="G107" s="29"/>
-      <c r="H107" s="39">
-        <v>2</v>
-      </c>
-      <c r="I107" s="39"/>
-      <c r="J107" s="29">
-        <v>2</v>
-      </c>
-      <c r="K107" s="72"/>
-      <c r="L107" s="73"/>
-      <c r="M107" s="73"/>
-      <c r="N107" s="28">
-        <f t="shared" si="46"/>
-        <v>10</v>
-      </c>
-      <c r="O107" s="29">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A108" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B108" s="92">
-        <v>42387</v>
-      </c>
-      <c r="C108" s="77" t="s">
-        <v>98</v>
-      </c>
       <c r="D108" s="38">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E108" s="38"/>
       <c r="F108" s="29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G108" s="29"/>
       <c r="H108" s="39">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="I108" s="39"/>
       <c r="J108" s="29">
-        <v>2</v>
-      </c>
-      <c r="K108" s="72"/>
-      <c r="L108" s="73"/>
-      <c r="M108" s="73"/>
-      <c r="N108" s="28">
-        <f t="shared" si="46"/>
-        <v>12</v>
-      </c>
-      <c r="O108" s="29">
-        <f t="shared" si="46"/>
+        <v>0.5</v>
+      </c>
+      <c r="K108" s="22"/>
+      <c r="L108" s="37"/>
+      <c r="M108" s="37"/>
+      <c r="N108" s="21">
+        <f t="shared" ref="N108:O123" si="48">D108+F108+H108+J108+L108</f>
+        <v>2.5</v>
+      </c>
+      <c r="O108" s="22">
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -5541,10 +5518,10 @@
         <v>42387</v>
       </c>
       <c r="C109" s="77" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="D109" s="38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E109" s="38"/>
       <c r="F109" s="29">
@@ -5556,17 +5533,17 @@
       </c>
       <c r="I109" s="39"/>
       <c r="J109" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K109" s="72"/>
       <c r="L109" s="73"/>
       <c r="M109" s="73"/>
       <c r="N109" s="28">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>10</v>
       </c>
       <c r="O109" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -5575,35 +5552,35 @@
         <v>9</v>
       </c>
       <c r="B110" s="92">
-        <v>42388</v>
-      </c>
-      <c r="C110" s="74" t="s">
-        <v>59</v>
+        <v>42387</v>
+      </c>
+      <c r="C110" s="77" t="s">
+        <v>98</v>
       </c>
       <c r="D110" s="38">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E110" s="38"/>
       <c r="F110" s="29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G110" s="29"/>
       <c r="H110" s="39">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="I110" s="39"/>
       <c r="J110" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K110" s="29"/>
-      <c r="L110" s="40"/>
-      <c r="M110" s="40"/>
+        <v>2</v>
+      </c>
+      <c r="K110" s="72"/>
+      <c r="L110" s="73"/>
+      <c r="M110" s="73"/>
       <c r="N110" s="28">
-        <f t="shared" si="46"/>
-        <v>2.5</v>
+        <f t="shared" si="48"/>
+        <v>12</v>
       </c>
       <c r="O110" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -5612,13 +5589,13 @@
         <v>9</v>
       </c>
       <c r="B111" s="92">
-        <v>42388</v>
-      </c>
-      <c r="C111" s="74" t="s">
-        <v>120</v>
+        <v>42387</v>
+      </c>
+      <c r="C111" s="77" t="s">
+        <v>103</v>
       </c>
       <c r="D111" s="38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E111" s="38"/>
       <c r="F111" s="29">
@@ -5630,17 +5607,17 @@
       </c>
       <c r="I111" s="39"/>
       <c r="J111" s="29">
-        <v>2</v>
-      </c>
-      <c r="K111" s="29"/>
-      <c r="L111" s="40"/>
-      <c r="M111" s="40"/>
+        <v>4</v>
+      </c>
+      <c r="K111" s="72"/>
+      <c r="L111" s="73"/>
+      <c r="M111" s="73"/>
       <c r="N111" s="28">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>10</v>
       </c>
       <c r="O111" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -5652,32 +5629,32 @@
         <v>42388</v>
       </c>
       <c r="C112" s="74" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="D112" s="38">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E112" s="38"/>
       <c r="F112" s="29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G112" s="29"/>
       <c r="H112" s="39">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="I112" s="39"/>
       <c r="J112" s="29">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K112" s="29"/>
       <c r="L112" s="40"/>
       <c r="M112" s="40"/>
       <c r="N112" s="28">
-        <f t="shared" si="46"/>
-        <v>12</v>
+        <f t="shared" si="48"/>
+        <v>2.5</v>
       </c>
       <c r="O112" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -5689,10 +5666,10 @@
         <v>42388</v>
       </c>
       <c r="C113" s="74" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="D113" s="38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E113" s="38"/>
       <c r="F113" s="29">
@@ -5704,17 +5681,17 @@
       </c>
       <c r="I113" s="39"/>
       <c r="J113" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K113" s="29"/>
       <c r="L113" s="40"/>
       <c r="M113" s="40"/>
       <c r="N113" s="28">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>10</v>
       </c>
       <c r="O113" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -5723,35 +5700,35 @@
         <v>9</v>
       </c>
       <c r="B114" s="92">
-        <v>42389</v>
+        <v>42388</v>
       </c>
       <c r="C114" s="74" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="D114" s="38">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E114" s="38"/>
       <c r="F114" s="29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G114" s="29"/>
       <c r="H114" s="39">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="I114" s="39"/>
       <c r="J114" s="29">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K114" s="29"/>
       <c r="L114" s="40"/>
       <c r="M114" s="40"/>
       <c r="N114" s="28">
-        <f t="shared" si="46"/>
-        <v>2.5</v>
+        <f t="shared" si="48"/>
+        <v>12</v>
       </c>
       <c r="O114" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -5760,13 +5737,13 @@
         <v>9</v>
       </c>
       <c r="B115" s="92">
-        <v>42389</v>
+        <v>42388</v>
       </c>
       <c r="C115" s="74" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D115" s="38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E115" s="38"/>
       <c r="F115" s="29">
@@ -5778,17 +5755,17 @@
       </c>
       <c r="I115" s="39"/>
       <c r="J115" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K115" s="29"/>
       <c r="L115" s="40"/>
       <c r="M115" s="40"/>
       <c r="N115" s="28">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>10</v>
       </c>
       <c r="O115" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -5800,32 +5777,32 @@
         <v>42389</v>
       </c>
       <c r="C116" s="74" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="D116" s="38">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="E116" s="38"/>
       <c r="F116" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G116" s="29"/>
       <c r="H116" s="39">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I116" s="39"/>
       <c r="J116" s="29">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K116" s="29"/>
       <c r="L116" s="40"/>
       <c r="M116" s="40"/>
       <c r="N116" s="28">
-        <f t="shared" si="46"/>
-        <v>10</v>
+        <f t="shared" si="48"/>
+        <v>2.5</v>
       </c>
       <c r="O116" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -5837,10 +5814,10 @@
         <v>42389</v>
       </c>
       <c r="C117" s="74" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D117" s="38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E117" s="38"/>
       <c r="F117" s="29">
@@ -5848,7 +5825,7 @@
       </c>
       <c r="G117" s="29"/>
       <c r="H117" s="39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I117" s="39"/>
       <c r="J117" s="29">
@@ -5858,11 +5835,11 @@
       <c r="L117" s="40"/>
       <c r="M117" s="40"/>
       <c r="N117" s="28">
-        <f t="shared" si="46"/>
-        <v>9</v>
+        <f t="shared" si="48"/>
+        <v>10</v>
       </c>
       <c r="O117" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -5874,10 +5851,10 @@
         <v>42389</v>
       </c>
       <c r="C118" s="74" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D118" s="38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E118" s="38"/>
       <c r="F118" s="29">
@@ -5889,17 +5866,17 @@
       </c>
       <c r="I118" s="39"/>
       <c r="J118" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K118" s="29"/>
       <c r="L118" s="40"/>
       <c r="M118" s="40"/>
       <c r="N118" s="28">
-        <f t="shared" si="46"/>
-        <v>9</v>
+        <f t="shared" si="48"/>
+        <v>10</v>
       </c>
       <c r="O118" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -5908,35 +5885,35 @@
         <v>9</v>
       </c>
       <c r="B119" s="92">
-        <v>42390</v>
+        <v>42389</v>
       </c>
       <c r="C119" s="74" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="D119" s="38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E119" s="38"/>
       <c r="F119" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G119" s="29"/>
       <c r="H119" s="39">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="I119" s="39"/>
       <c r="J119" s="29">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K119" s="29"/>
       <c r="L119" s="40"/>
       <c r="M119" s="40"/>
       <c r="N119" s="28">
-        <f t="shared" si="46"/>
-        <v>2.5</v>
+        <f t="shared" si="48"/>
+        <v>9</v>
       </c>
       <c r="O119" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -5945,13 +5922,13 @@
         <v>9</v>
       </c>
       <c r="B120" s="92">
-        <v>42390</v>
+        <v>42389</v>
       </c>
       <c r="C120" s="74" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D120" s="38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E120" s="38"/>
       <c r="F120" s="29">
@@ -5963,17 +5940,17 @@
       </c>
       <c r="I120" s="39"/>
       <c r="J120" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K120" s="29"/>
       <c r="L120" s="40"/>
       <c r="M120" s="40"/>
       <c r="N120" s="28">
-        <f t="shared" si="46"/>
-        <v>10</v>
+        <f t="shared" si="48"/>
+        <v>9</v>
       </c>
       <c r="O120" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -5985,32 +5962,32 @@
         <v>42390</v>
       </c>
       <c r="C121" s="74" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="D121" s="38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E121" s="38"/>
       <c r="F121" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G121" s="29"/>
       <c r="H121" s="39">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I121" s="39"/>
       <c r="J121" s="29">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K121" s="29"/>
       <c r="L121" s="40"/>
       <c r="M121" s="40"/>
       <c r="N121" s="28">
-        <f t="shared" si="46"/>
-        <v>7</v>
+        <f t="shared" si="48"/>
+        <v>2.5</v>
       </c>
       <c r="O121" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -6022,10 +5999,10 @@
         <v>42390</v>
       </c>
       <c r="C122" s="74" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D122" s="38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E122" s="38"/>
       <c r="F122" s="29">
@@ -6043,11 +6020,11 @@
       <c r="L122" s="40"/>
       <c r="M122" s="40"/>
       <c r="N122" s="28">
-        <f t="shared" ref="N122:O127" si="47">D122+F122+H122+J122+L122</f>
-        <v>7</v>
+        <f t="shared" si="48"/>
+        <v>10</v>
       </c>
       <c r="O122" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -6056,35 +6033,35 @@
         <v>9</v>
       </c>
       <c r="B123" s="92">
-        <v>42391</v>
+        <v>42390</v>
       </c>
       <c r="C123" s="74" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="D123" s="38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E123" s="38"/>
       <c r="F123" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G123" s="29"/>
       <c r="H123" s="39">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I123" s="39"/>
       <c r="J123" s="29">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K123" s="29"/>
       <c r="L123" s="40"/>
       <c r="M123" s="40"/>
       <c r="N123" s="28">
-        <f t="shared" si="47"/>
-        <v>2.5</v>
+        <f t="shared" si="48"/>
+        <v>7</v>
       </c>
       <c r="O123" s="29">
-        <f t="shared" ref="O123:O128" si="48">E123+G123+I123+K123+M123</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -6093,35 +6070,35 @@
         <v>9</v>
       </c>
       <c r="B124" s="92">
-        <v>42391</v>
-      </c>
-      <c r="C124" s="89" t="s">
-        <v>111</v>
-      </c>
-      <c r="D124" s="66">
-        <v>6</v>
-      </c>
-      <c r="E124" s="66"/>
-      <c r="F124" s="65">
-        <v>4</v>
-      </c>
-      <c r="G124" s="65"/>
-      <c r="H124" s="67">
-        <v>4</v>
-      </c>
-      <c r="I124" s="67"/>
-      <c r="J124" s="65">
-        <v>4</v>
-      </c>
-      <c r="K124" s="65"/>
-      <c r="L124" s="64"/>
-      <c r="M124" s="64"/>
+        <v>42390</v>
+      </c>
+      <c r="C124" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="D124" s="38">
+        <v>1</v>
+      </c>
+      <c r="E124" s="38"/>
+      <c r="F124" s="29">
+        <v>2</v>
+      </c>
+      <c r="G124" s="29"/>
+      <c r="H124" s="39">
+        <v>2</v>
+      </c>
+      <c r="I124" s="39"/>
+      <c r="J124" s="29">
+        <v>2</v>
+      </c>
+      <c r="K124" s="29"/>
+      <c r="L124" s="40"/>
+      <c r="M124" s="40"/>
       <c r="N124" s="28">
-        <f t="shared" si="47"/>
-        <v>18</v>
+        <f t="shared" ref="N124:O129" si="49">D124+F124+H124+J124+L124</f>
+        <v>7</v>
       </c>
       <c r="O124" s="29">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -6132,33 +6109,33 @@
       <c r="B125" s="92">
         <v>42391</v>
       </c>
-      <c r="C125" s="89" t="s">
-        <v>101</v>
-      </c>
-      <c r="D125" s="66">
-        <v>1</v>
-      </c>
-      <c r="E125" s="66"/>
-      <c r="F125" s="65">
-        <v>4</v>
-      </c>
-      <c r="G125" s="65"/>
-      <c r="H125" s="67">
-        <v>4</v>
-      </c>
-      <c r="I125" s="67"/>
-      <c r="J125" s="65">
-        <v>4</v>
-      </c>
-      <c r="K125" s="65"/>
-      <c r="L125" s="64"/>
-      <c r="M125" s="64"/>
+      <c r="C125" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D125" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="E125" s="38"/>
+      <c r="F125" s="29">
+        <v>1</v>
+      </c>
+      <c r="G125" s="29"/>
+      <c r="H125" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="I125" s="39"/>
+      <c r="J125" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="K125" s="29"/>
+      <c r="L125" s="40"/>
+      <c r="M125" s="40"/>
       <c r="N125" s="28">
-        <f t="shared" si="47"/>
-        <v>13</v>
+        <f t="shared" si="49"/>
+        <v>2.5</v>
       </c>
       <c r="O125" s="29">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="O125:O130" si="50">E125+G125+I125+K125+M125</f>
         <v>0</v>
       </c>
     </row>
@@ -6170,32 +6147,32 @@
         <v>42391</v>
       </c>
       <c r="C126" s="89" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D126" s="66">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E126" s="66"/>
       <c r="F126" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G126" s="65"/>
       <c r="H126" s="67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I126" s="67"/>
       <c r="J126" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K126" s="65"/>
       <c r="L126" s="64"/>
       <c r="M126" s="64"/>
       <c r="N126" s="28">
-        <f t="shared" si="47"/>
-        <v>4</v>
+        <f t="shared" si="49"/>
+        <v>18</v>
       </c>
       <c r="O126" s="29">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
@@ -6207,170 +6184,228 @@
         <v>42391</v>
       </c>
       <c r="C127" s="89" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D127" s="66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E127" s="66"/>
       <c r="F127" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G127" s="65"/>
       <c r="H127" s="67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I127" s="67"/>
       <c r="J127" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K127" s="65"/>
       <c r="L127" s="64"/>
       <c r="M127" s="64"/>
       <c r="N127" s="28">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
+        <v>13</v>
+      </c>
+      <c r="O127" s="29">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A128" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" s="92">
+        <v>42391</v>
+      </c>
+      <c r="C128" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="D128" s="66">
+        <v>1</v>
+      </c>
+      <c r="E128" s="66"/>
+      <c r="F128" s="65">
+        <v>1</v>
+      </c>
+      <c r="G128" s="65"/>
+      <c r="H128" s="67">
+        <v>1</v>
+      </c>
+      <c r="I128" s="67"/>
+      <c r="J128" s="65">
+        <v>1</v>
+      </c>
+      <c r="K128" s="65"/>
+      <c r="L128" s="64"/>
+      <c r="M128" s="64"/>
+      <c r="N128" s="28">
+        <f t="shared" si="49"/>
+        <v>4</v>
+      </c>
+      <c r="O128" s="29">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A129" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" s="92">
+        <v>42391</v>
+      </c>
+      <c r="C129" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="D129" s="66">
+        <v>2</v>
+      </c>
+      <c r="E129" s="66"/>
+      <c r="F129" s="65">
+        <v>1</v>
+      </c>
+      <c r="G129" s="65"/>
+      <c r="H129" s="67">
+        <v>1</v>
+      </c>
+      <c r="I129" s="67"/>
+      <c r="J129" s="65">
+        <v>1</v>
+      </c>
+      <c r="K129" s="65"/>
+      <c r="L129" s="64"/>
+      <c r="M129" s="64"/>
+      <c r="N129" s="28">
+        <f t="shared" si="49"/>
         <v>5</v>
       </c>
-      <c r="O127" s="29">
-        <f t="shared" si="48"/>
+      <c r="O129" s="29">
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A128" s="30" t="s">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A130" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B128" s="93">
+      <c r="B130" s="93">
         <v>42391</v>
       </c>
-      <c r="C128" s="87" t="s">
+      <c r="C130" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D128" s="97">
-        <v>2</v>
-      </c>
-      <c r="E128" s="97"/>
-      <c r="F128" s="36">
-        <v>1</v>
-      </c>
-      <c r="G128" s="36"/>
-      <c r="H128" s="98">
-        <v>1</v>
-      </c>
-      <c r="I128" s="98"/>
-      <c r="J128" s="36">
-        <v>1</v>
-      </c>
-      <c r="K128" s="36"/>
-      <c r="L128" s="41"/>
-      <c r="M128" s="41"/>
-      <c r="N128" s="35">
-        <f t="shared" ref="N128" si="49">D128+F128+H128+J128+L128</f>
+      <c r="D130" s="97">
+        <v>2</v>
+      </c>
+      <c r="E130" s="97"/>
+      <c r="F130" s="36">
+        <v>1</v>
+      </c>
+      <c r="G130" s="36"/>
+      <c r="H130" s="98">
+        <v>1</v>
+      </c>
+      <c r="I130" s="98"/>
+      <c r="J130" s="36">
+        <v>1</v>
+      </c>
+      <c r="K130" s="36"/>
+      <c r="L130" s="41"/>
+      <c r="M130" s="41"/>
+      <c r="N130" s="35">
+        <f t="shared" ref="N130" si="51">D130+F130+H130+J130+L130</f>
         <v>5</v>
       </c>
-      <c r="O128" s="36">
-        <f t="shared" si="48"/>
+      <c r="O130" s="36">
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A129" s="78"/>
-      <c r="B129" s="85"/>
-      <c r="C129" s="78"/>
-      <c r="D129" s="79"/>
-      <c r="E129" s="79"/>
-      <c r="F129" s="78"/>
-      <c r="G129" s="78"/>
-      <c r="H129" s="80"/>
-      <c r="I129" s="80"/>
-      <c r="J129" s="101" t="s">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A131" s="78"/>
+      <c r="B131" s="85"/>
+      <c r="C131" s="78"/>
+      <c r="D131" s="79"/>
+      <c r="E131" s="79"/>
+      <c r="F131" s="78"/>
+      <c r="G131" s="78"/>
+      <c r="H131" s="80"/>
+      <c r="I131" s="80"/>
+      <c r="J131" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="K129" s="100"/>
-      <c r="L129" s="2"/>
-      <c r="M129" s="2"/>
-      <c r="N129" s="86">
-        <f>SUM(N106:N128)</f>
+      <c r="K131" s="101"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="86">
+        <f>SUM(N108:N130)</f>
         <v>183.5</v>
       </c>
-      <c r="O129" s="84">
-        <f>SUM(O106:O128)</f>
+      <c r="O131" s="84">
+        <f>SUM(O108:O130)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A130" s="4"/>
-      <c r="B130" s="59"/>
-      <c r="C130" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D130" s="6">
-        <f t="shared" ref="D130:M130" si="50">SUM(D4:D129)</f>
-        <v>164.14999999999998</v>
-      </c>
-      <c r="E130" s="6">
-        <f t="shared" si="50"/>
-        <v>86.399999999999991</v>
-      </c>
-      <c r="F130" s="6">
-        <f t="shared" si="50"/>
-        <v>160</v>
-      </c>
-      <c r="G130" s="6">
-        <f t="shared" si="50"/>
-        <v>84.55</v>
-      </c>
-      <c r="H130" s="6">
-        <f t="shared" si="50"/>
-        <v>156.5</v>
-      </c>
-      <c r="I130" s="6">
-        <f t="shared" si="50"/>
-        <v>78.55</v>
-      </c>
-      <c r="J130" s="6">
-        <f t="shared" si="50"/>
-        <v>164.5</v>
-      </c>
-      <c r="K130" s="6">
-        <f t="shared" si="50"/>
-        <v>82.05</v>
-      </c>
-      <c r="L130" s="6">
-        <f t="shared" si="50"/>
-        <v>0.5</v>
-      </c>
-      <c r="M130" s="6">
-        <f t="shared" si="50"/>
-        <v>0.5</v>
-      </c>
-      <c r="N130" s="4">
-        <f>D130+F130+H130+J130+L130</f>
-        <v>645.65</v>
-      </c>
-      <c r="O130" s="6">
-        <f>E130+G130+I130+K130+M130</f>
-        <v>332.05</v>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A132" s="4"/>
+      <c r="B132" s="59"/>
+      <c r="C132" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D132" s="6">
+        <f t="shared" ref="D132:M132" si="52">SUM(D4:D131)</f>
+        <v>167.14999999999998</v>
+      </c>
+      <c r="E132" s="6">
+        <f t="shared" si="52"/>
+        <v>87.399999999999991</v>
+      </c>
+      <c r="F132" s="6">
+        <f t="shared" si="52"/>
+        <v>164</v>
+      </c>
+      <c r="G132" s="6">
+        <f t="shared" si="52"/>
+        <v>87.55</v>
+      </c>
+      <c r="H132" s="6">
+        <f t="shared" si="52"/>
+        <v>159.5</v>
+      </c>
+      <c r="I132" s="6">
+        <f t="shared" si="52"/>
+        <v>87.05</v>
+      </c>
+      <c r="J132" s="6">
+        <f t="shared" si="52"/>
+        <v>169.5</v>
+      </c>
+      <c r="K132" s="6">
+        <f t="shared" si="52"/>
+        <v>90.05</v>
+      </c>
+      <c r="L132" s="6">
+        <f t="shared" si="52"/>
+        <v>0.5</v>
+      </c>
+      <c r="M132" s="6">
+        <f t="shared" si="52"/>
+        <v>0.5</v>
+      </c>
+      <c r="N132" s="4">
+        <f>D132+F132+H132+J132+L132</f>
+        <v>660.65</v>
+      </c>
+      <c r="O132" s="6">
+        <f>E132+G132+I132+K132+M132</f>
+        <v>352.55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J129:K129"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="A77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="A105:I105"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="J47:K47"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="E2:F2"/>
@@ -6379,12 +6414,27 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J131:K131"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="A77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="A107:I107"/>
+    <mergeCell ref="J107:K107"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="J47:K47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="225" scale="90" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6405,20 +6455,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -6579,40 +6624,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6630,10 +6664,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
+++ b/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="134">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -403,6 +403,27 @@
   </si>
   <si>
     <t>Web interface maken</t>
+  </si>
+  <si>
+    <t>Modellen afronden</t>
+  </si>
+  <si>
+    <t>Sensoren uit kunnen lezen</t>
+  </si>
+  <si>
+    <t>Onderzoeken uitwerken</t>
+  </si>
+  <si>
+    <t>Code logisch opdelen in klassen</t>
+  </si>
+  <si>
+    <t>Algemene prgrammeertijd</t>
+  </si>
+  <si>
+    <t>Klassendiagram controleren op correctheid</t>
+  </si>
+  <si>
+    <t>Alle sensoren implementeren</t>
   </si>
 </sst>
 </file>
@@ -869,12 +890,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -914,9 +929,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -926,10 +938,25 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -941,19 +968,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1260,11 +1281,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O132"/>
+  <dimension ref="A1:O146"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K99" sqref="K99"/>
+      <pane ySplit="4" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K120" sqref="K114:K120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1292,18 +1313,18 @@
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="E2" s="99" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="105"/>
+      <c r="F2" s="99"/>
       <c r="H2" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="102">
+      <c r="I2" s="104">
         <f ca="1">TODAY()</f>
-        <v>42383</v>
-      </c>
-      <c r="J2" s="102"/>
+        <v>42387</v>
+      </c>
+      <c r="J2" s="104"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
@@ -1355,53 +1376,53 @@
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="78"/>
       <c r="B4" s="58"/>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="108"/>
-      <c r="F4" s="101" t="s">
+      <c r="E4" s="102"/>
+      <c r="F4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="101"/>
-      <c r="H4" s="109" t="s">
+      <c r="G4" s="97"/>
+      <c r="H4" s="103" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="109"/>
-      <c r="J4" s="101" t="s">
+      <c r="I4" s="103"/>
+      <c r="J4" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="101"/>
-      <c r="L4" s="106" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="107"/>
-      <c r="N4" s="83"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="100" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="101"/>
+      <c r="N4" s="81"/>
       <c r="O4" s="78"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
       <c r="L5" s="78"/>
       <c r="M5" s="78"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>1</v>
       </c>
-      <c r="B6" s="91">
+      <c r="B6" s="89">
         <v>42317</v>
       </c>
       <c r="C6" s="69" t="s">
@@ -1446,7 +1467,7 @@
       <c r="A7" s="23">
         <v>1</v>
       </c>
-      <c r="B7" s="92">
+      <c r="B7" s="90">
         <v>42317</v>
       </c>
       <c r="C7" s="74" t="s">
@@ -1491,7 +1512,7 @@
       <c r="A8" s="23">
         <v>1</v>
       </c>
-      <c r="B8" s="92">
+      <c r="B8" s="90">
         <v>42317</v>
       </c>
       <c r="C8" s="74" t="s">
@@ -1528,7 +1549,7 @@
       <c r="A9" s="23">
         <v>1</v>
       </c>
-      <c r="B9" s="92">
+      <c r="B9" s="90">
         <v>42319</v>
       </c>
       <c r="C9" s="74" t="s">
@@ -1573,10 +1594,10 @@
       <c r="A10" s="30">
         <v>1</v>
       </c>
-      <c r="B10" s="93">
+      <c r="B10" s="91">
         <v>42323</v>
       </c>
-      <c r="C10" s="87" t="s">
+      <c r="C10" s="85" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="31">
@@ -1615,28 +1636,28 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="101" t="s">
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="101"/>
+      <c r="K11" s="97"/>
       <c r="L11" s="78"/>
       <c r="M11" s="78"/>
-      <c r="N11" s="84">
+      <c r="N11" s="82">
         <f>SUM(N6:N10)</f>
         <v>26</v>
       </c>
-      <c r="O11" s="84">
+      <c r="O11" s="82">
         <f>SUM(O6:O10)</f>
         <v>32</v>
       </c>
@@ -1645,7 +1666,7 @@
       <c r="A12" s="16">
         <v>2</v>
       </c>
-      <c r="B12" s="91">
+      <c r="B12" s="89">
         <v>42324</v>
       </c>
       <c r="C12" s="69" t="s">
@@ -1690,7 +1711,7 @@
       <c r="A13" s="51">
         <v>2</v>
       </c>
-      <c r="B13" s="94">
+      <c r="B13" s="92">
         <v>42324</v>
       </c>
       <c r="C13" s="77" t="s">
@@ -1739,7 +1760,7 @@
       <c r="A14" s="51">
         <v>2</v>
       </c>
-      <c r="B14" s="94">
+      <c r="B14" s="92">
         <v>42324</v>
       </c>
       <c r="C14" s="77" t="s">
@@ -1784,7 +1805,7 @@
       <c r="A15" s="23">
         <v>2</v>
       </c>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="90" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="70" t="s">
@@ -1817,7 +1838,7 @@
       <c r="A16" s="23">
         <v>2</v>
       </c>
-      <c r="B16" s="92">
+      <c r="B16" s="90">
         <v>42326</v>
       </c>
       <c r="C16" s="70" t="s">
@@ -1862,7 +1883,7 @@
       <c r="A17" s="23">
         <v>2</v>
       </c>
-      <c r="B17" s="92">
+      <c r="B17" s="90">
         <v>42326</v>
       </c>
       <c r="C17" s="75" t="s">
@@ -1907,7 +1928,7 @@
       <c r="A18" s="23">
         <v>2</v>
       </c>
-      <c r="B18" s="92">
+      <c r="B18" s="90">
         <v>42326</v>
       </c>
       <c r="C18" s="74" t="s">
@@ -1952,7 +1973,7 @@
       <c r="A19" s="23">
         <v>2</v>
       </c>
-      <c r="B19" s="92">
+      <c r="B19" s="90">
         <v>42327</v>
       </c>
       <c r="C19" s="74" t="s">
@@ -1993,7 +2014,7 @@
       <c r="A20" s="23">
         <v>2</v>
       </c>
-      <c r="B20" s="92">
+      <c r="B20" s="90">
         <v>42330</v>
       </c>
       <c r="C20" s="74" t="s">
@@ -2026,10 +2047,10 @@
       <c r="A21" s="23">
         <v>2</v>
       </c>
-      <c r="B21" s="92">
+      <c r="B21" s="90">
         <v>42330</v>
       </c>
-      <c r="C21" s="87" t="s">
+      <c r="C21" s="85" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="31">
@@ -2068,28 +2089,28 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="101" t="s">
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="101"/>
+      <c r="K22" s="97"/>
       <c r="L22" s="78"/>
       <c r="M22" s="78"/>
-      <c r="N22" s="84">
+      <c r="N22" s="82">
         <f>SUM(N12:N21)</f>
         <v>35.25</v>
       </c>
-      <c r="O22" s="84">
+      <c r="O22" s="82">
         <f>SUM(O12:O21)</f>
         <v>38.25</v>
       </c>
@@ -2098,7 +2119,7 @@
       <c r="A23" s="23">
         <v>3</v>
       </c>
-      <c r="B23" s="92">
+      <c r="B23" s="90">
         <v>42331</v>
       </c>
       <c r="C23" s="74" t="s">
@@ -2143,7 +2164,7 @@
       <c r="A24" s="23">
         <v>3</v>
       </c>
-      <c r="B24" s="92">
+      <c r="B24" s="90">
         <v>42331</v>
       </c>
       <c r="C24" s="74" t="s">
@@ -2188,7 +2209,7 @@
       <c r="A25" s="23">
         <v>3</v>
       </c>
-      <c r="B25" s="92">
+      <c r="B25" s="90">
         <v>42331</v>
       </c>
       <c r="C25" s="74" t="s">
@@ -2233,7 +2254,7 @@
       <c r="A26" s="23">
         <v>3</v>
       </c>
-      <c r="B26" s="92">
+      <c r="B26" s="90">
         <v>42333</v>
       </c>
       <c r="C26" s="74" t="s">
@@ -2278,7 +2299,7 @@
       <c r="A27" s="23">
         <v>3</v>
       </c>
-      <c r="B27" s="92">
+      <c r="B27" s="90">
         <v>42333</v>
       </c>
       <c r="C27" s="74" t="s">
@@ -2311,7 +2332,7 @@
       <c r="A28" s="23">
         <v>3</v>
       </c>
-      <c r="B28" s="92">
+      <c r="B28" s="90">
         <v>42331</v>
       </c>
       <c r="C28" s="74" t="s">
@@ -2344,7 +2365,7 @@
       <c r="A29" s="23">
         <v>3</v>
       </c>
-      <c r="B29" s="92">
+      <c r="B29" s="90">
         <v>42331</v>
       </c>
       <c r="C29" s="74" t="s">
@@ -2377,7 +2398,7 @@
       <c r="A30" s="23">
         <v>3</v>
       </c>
-      <c r="B30" s="92">
+      <c r="B30" s="90">
         <v>42333</v>
       </c>
       <c r="C30" s="74" t="s">
@@ -2422,7 +2443,7 @@
       <c r="A31" s="23">
         <v>3</v>
       </c>
-      <c r="B31" s="92">
+      <c r="B31" s="90">
         <v>42333</v>
       </c>
       <c r="C31" s="74" t="s">
@@ -2467,7 +2488,7 @@
       <c r="A32" s="23">
         <v>3</v>
       </c>
-      <c r="B32" s="92">
+      <c r="B32" s="90">
         <v>42333</v>
       </c>
       <c r="C32" s="74" t="s">
@@ -2504,7 +2525,7 @@
       <c r="A33" s="23">
         <v>3</v>
       </c>
-      <c r="B33" s="92">
+      <c r="B33" s="90">
         <v>42334</v>
       </c>
       <c r="C33" s="74" t="s">
@@ -2537,7 +2558,7 @@
       <c r="A34" s="61">
         <v>3</v>
       </c>
-      <c r="B34" s="95">
+      <c r="B34" s="93">
         <v>42334</v>
       </c>
       <c r="C34" s="74" t="s">
@@ -2566,10 +2587,10 @@
       <c r="A35" s="30">
         <v>3</v>
       </c>
-      <c r="B35" s="93">
+      <c r="B35" s="91">
         <v>42337</v>
       </c>
-      <c r="C35" s="87" t="s">
+      <c r="C35" s="85" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="31">
@@ -2608,28 +2629,28 @@
       </c>
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="100" t="s">
+      <c r="A36" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="100"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="100"/>
-      <c r="J36" s="101" t="s">
+      <c r="B36" s="98"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="98"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="K36" s="101"/>
+      <c r="K36" s="97"/>
       <c r="L36" s="78"/>
       <c r="M36" s="78"/>
-      <c r="N36" s="84">
+      <c r="N36" s="82">
         <f>SUM(N23:N35)</f>
         <v>38</v>
       </c>
-      <c r="O36" s="84">
+      <c r="O36" s="82">
         <f>SUM(O23:O35)</f>
         <v>38</v>
       </c>
@@ -2638,10 +2659,10 @@
       <c r="A37" s="23">
         <v>4</v>
       </c>
-      <c r="B37" s="92">
+      <c r="B37" s="90">
         <v>42338</v>
       </c>
-      <c r="C37" s="88" t="s">
+      <c r="C37" s="86" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="38">
@@ -2683,10 +2704,10 @@
       <c r="A38" s="23">
         <v>4</v>
       </c>
-      <c r="B38" s="92">
+      <c r="B38" s="90">
         <v>42338</v>
       </c>
-      <c r="C38" s="88" t="s">
+      <c r="C38" s="86" t="s">
         <v>24</v>
       </c>
       <c r="D38" s="38"/>
@@ -2720,10 +2741,10 @@
       <c r="A39" s="23">
         <v>4</v>
       </c>
-      <c r="B39" s="92">
+      <c r="B39" s="90">
         <v>42338</v>
       </c>
-      <c r="C39" s="88" t="s">
+      <c r="C39" s="86" t="s">
         <v>67</v>
       </c>
       <c r="D39" s="38">
@@ -2757,7 +2778,7 @@
       <c r="A40" s="23">
         <v>4</v>
       </c>
-      <c r="B40" s="92">
+      <c r="B40" s="90">
         <v>42340</v>
       </c>
       <c r="C40" s="74" t="s">
@@ -2802,7 +2823,7 @@
       <c r="A41" s="23">
         <v>4</v>
       </c>
-      <c r="B41" s="92">
+      <c r="B41" s="90">
         <v>42340</v>
       </c>
       <c r="C41" s="74" t="s">
@@ -2847,7 +2868,7 @@
       <c r="A42" s="23">
         <v>4</v>
       </c>
-      <c r="B42" s="92">
+      <c r="B42" s="90">
         <v>42340</v>
       </c>
       <c r="C42" s="74" t="s">
@@ -2892,7 +2913,7 @@
       <c r="A43" s="23">
         <v>4</v>
       </c>
-      <c r="B43" s="92">
+      <c r="B43" s="90">
         <v>42341</v>
       </c>
       <c r="C43" s="74" t="s">
@@ -2937,7 +2958,7 @@
       <c r="A44" s="23">
         <v>4</v>
       </c>
-      <c r="B44" s="92">
+      <c r="B44" s="90">
         <v>42342</v>
       </c>
       <c r="C44" s="74" t="s">
@@ -2982,10 +3003,10 @@
       <c r="A45" s="23">
         <v>4</v>
       </c>
-      <c r="B45" s="92">
+      <c r="B45" s="90">
         <v>42342</v>
       </c>
-      <c r="C45" s="88" t="s">
+      <c r="C45" s="86" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="38">
@@ -3015,10 +3036,10 @@
       <c r="A46" s="30">
         <v>4</v>
       </c>
-      <c r="B46" s="93">
+      <c r="B46" s="91">
         <v>42344</v>
       </c>
-      <c r="C46" s="87" t="s">
+      <c r="C46" s="85" t="s">
         <v>29</v>
       </c>
       <c r="D46" s="31">
@@ -3057,28 +3078,28 @@
       </c>
     </row>
     <row r="47" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="100" t="s">
+      <c r="A47" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="100"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="100"/>
-      <c r="E47" s="100"/>
-      <c r="F47" s="100"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="101" t="s">
+      <c r="B47" s="98"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="98"/>
+      <c r="H47" s="98"/>
+      <c r="I47" s="98"/>
+      <c r="J47" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="K47" s="101"/>
+      <c r="K47" s="97"/>
       <c r="L47" s="78"/>
       <c r="M47" s="78"/>
-      <c r="N47" s="84">
+      <c r="N47" s="82">
         <f>SUM(N37:N46)</f>
         <v>32.75</v>
       </c>
-      <c r="O47" s="84">
+      <c r="O47" s="82">
         <f>SUM(O37:O46)</f>
         <v>40.950000000000003</v>
       </c>
@@ -3087,7 +3108,7 @@
       <c r="A48" s="16">
         <v>5</v>
       </c>
-      <c r="B48" s="91">
+      <c r="B48" s="89">
         <v>42345</v>
       </c>
       <c r="C48" s="69" t="s">
@@ -3124,7 +3145,7 @@
       <c r="A49" s="23">
         <v>5</v>
       </c>
-      <c r="B49" s="92">
+      <c r="B49" s="90">
         <v>42345</v>
       </c>
       <c r="C49" s="74" t="s">
@@ -3169,7 +3190,7 @@
       <c r="A50" s="23">
         <v>5</v>
       </c>
-      <c r="B50" s="92">
+      <c r="B50" s="90">
         <v>42345</v>
       </c>
       <c r="C50" s="74" t="s">
@@ -3214,7 +3235,7 @@
       <c r="A51" s="23">
         <v>5</v>
       </c>
-      <c r="B51" s="92">
+      <c r="B51" s="90">
         <v>42346</v>
       </c>
       <c r="C51" s="74" t="s">
@@ -3259,7 +3280,7 @@
       <c r="A52" s="23">
         <v>5</v>
       </c>
-      <c r="B52" s="92">
+      <c r="B52" s="90">
         <v>42347</v>
       </c>
       <c r="C52" s="74" t="s">
@@ -3304,7 +3325,7 @@
       <c r="A53" s="23">
         <v>5</v>
       </c>
-      <c r="B53" s="92" t="s">
+      <c r="B53" s="90" t="s">
         <v>70</v>
       </c>
       <c r="C53" s="74" t="s">
@@ -3337,7 +3358,7 @@
       <c r="A54" s="23">
         <v>5</v>
       </c>
-      <c r="B54" s="92" t="s">
+      <c r="B54" s="90" t="s">
         <v>70</v>
       </c>
       <c r="C54" s="74" t="s">
@@ -3370,7 +3391,7 @@
       <c r="A55" s="23">
         <v>5</v>
       </c>
-      <c r="B55" s="92">
+      <c r="B55" s="90">
         <v>42347</v>
       </c>
       <c r="C55" s="74" t="s">
@@ -3403,7 +3424,7 @@
       <c r="A56" s="23">
         <v>5</v>
       </c>
-      <c r="B56" s="92" t="s">
+      <c r="B56" s="90" t="s">
         <v>70</v>
       </c>
       <c r="C56" s="74" t="s">
@@ -3436,7 +3457,7 @@
       <c r="A57" s="23">
         <v>5</v>
       </c>
-      <c r="B57" s="92">
+      <c r="B57" s="90">
         <v>42347</v>
       </c>
       <c r="C57" s="74" t="s">
@@ -3481,7 +3502,7 @@
       <c r="A58" s="23">
         <v>5</v>
       </c>
-      <c r="B58" s="92">
+      <c r="B58" s="90">
         <v>42348</v>
       </c>
       <c r="C58" s="74" t="s">
@@ -3526,10 +3547,10 @@
       <c r="A59" s="61">
         <v>5</v>
       </c>
-      <c r="B59" s="95">
+      <c r="B59" s="93">
         <v>42349</v>
       </c>
-      <c r="C59" s="89" t="s">
+      <c r="C59" s="87" t="s">
         <v>84</v>
       </c>
       <c r="D59" s="66">
@@ -3571,10 +3592,10 @@
       <c r="A60" s="61">
         <v>5</v>
       </c>
-      <c r="B60" s="95">
+      <c r="B60" s="93">
         <v>42349</v>
       </c>
-      <c r="C60" s="89" t="s">
+      <c r="C60" s="87" t="s">
         <v>83</v>
       </c>
       <c r="D60" s="66">
@@ -3604,10 +3625,10 @@
       <c r="A61" s="30">
         <v>5</v>
       </c>
-      <c r="B61" s="93">
+      <c r="B61" s="91">
         <v>42351</v>
       </c>
-      <c r="C61" s="87" t="s">
+      <c r="C61" s="85" t="s">
         <v>29</v>
       </c>
       <c r="D61" s="31">
@@ -3646,28 +3667,28 @@
       </c>
     </row>
     <row r="62" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="100" t="s">
+      <c r="A62" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="100"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="100"/>
-      <c r="E62" s="100"/>
-      <c r="F62" s="100"/>
-      <c r="G62" s="100"/>
-      <c r="H62" s="100"/>
-      <c r="I62" s="100"/>
-      <c r="J62" s="101" t="s">
+      <c r="B62" s="98"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="98"/>
+      <c r="E62" s="98"/>
+      <c r="F62" s="98"/>
+      <c r="G62" s="98"/>
+      <c r="H62" s="98"/>
+      <c r="I62" s="98"/>
+      <c r="J62" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="K62" s="101"/>
+      <c r="K62" s="97"/>
       <c r="L62" s="78"/>
       <c r="M62" s="78"/>
-      <c r="N62" s="84">
+      <c r="N62" s="82">
         <f>SUM(N48:N61)</f>
         <v>55.8</v>
       </c>
-      <c r="O62" s="84">
+      <c r="O62" s="82">
         <f>SUM(O48:O61)</f>
         <v>63.8</v>
       </c>
@@ -3676,7 +3697,7 @@
       <c r="A63" s="51">
         <v>6</v>
       </c>
-      <c r="B63" s="94" t="s">
+      <c r="B63" s="92" t="s">
         <v>74</v>
       </c>
       <c r="C63" s="77" t="s">
@@ -3721,7 +3742,7 @@
       <c r="A64" s="51">
         <v>6</v>
       </c>
-      <c r="B64" s="94" t="s">
+      <c r="B64" s="92" t="s">
         <v>74</v>
       </c>
       <c r="C64" s="77" t="s">
@@ -3766,7 +3787,7 @@
       <c r="A65" s="51">
         <v>6</v>
       </c>
-      <c r="B65" s="94">
+      <c r="B65" s="92">
         <v>42353</v>
       </c>
       <c r="C65" s="77" t="s">
@@ -3811,7 +3832,7 @@
       <c r="A66" s="51">
         <v>6</v>
       </c>
-      <c r="B66" s="94">
+      <c r="B66" s="92">
         <v>42353</v>
       </c>
       <c r="C66" s="77" t="s">
@@ -3856,7 +3877,7 @@
       <c r="A67" s="51">
         <v>6</v>
       </c>
-      <c r="B67" s="94">
+      <c r="B67" s="92">
         <v>42353</v>
       </c>
       <c r="C67" s="77" t="s">
@@ -3901,7 +3922,7 @@
       <c r="A68" s="51">
         <v>6</v>
       </c>
-      <c r="B68" s="94">
+      <c r="B68" s="92">
         <v>42354</v>
       </c>
       <c r="C68" s="74" t="s">
@@ -3946,7 +3967,7 @@
       <c r="A69" s="51">
         <v>6</v>
       </c>
-      <c r="B69" s="94">
+      <c r="B69" s="92">
         <v>42354</v>
       </c>
       <c r="C69" s="77" t="s">
@@ -3991,7 +4012,7 @@
       <c r="A70" s="51">
         <v>6</v>
       </c>
-      <c r="B70" s="94">
+      <c r="B70" s="92">
         <v>42354</v>
       </c>
       <c r="C70" s="77" t="s">
@@ -4024,7 +4045,7 @@
       <c r="A71" s="51">
         <v>6</v>
       </c>
-      <c r="B71" s="94">
+      <c r="B71" s="92">
         <v>42354</v>
       </c>
       <c r="C71" s="74" t="s">
@@ -4069,7 +4090,7 @@
       <c r="A72" s="51">
         <v>6</v>
       </c>
-      <c r="B72" s="94">
+      <c r="B72" s="92">
         <v>42354</v>
       </c>
       <c r="C72" s="74" t="s">
@@ -4114,7 +4135,7 @@
       <c r="A73" s="51">
         <v>6</v>
       </c>
-      <c r="B73" s="94" t="s">
+      <c r="B73" s="92" t="s">
         <v>122</v>
       </c>
       <c r="C73" s="74" t="s">
@@ -4151,7 +4172,7 @@
       <c r="A74" s="51">
         <v>6</v>
       </c>
-      <c r="B74" s="94">
+      <c r="B74" s="92">
         <v>42355</v>
       </c>
       <c r="C74" s="74" t="s">
@@ -4188,7 +4209,7 @@
       <c r="A75" s="51">
         <v>6</v>
       </c>
-      <c r="B75" s="94">
+      <c r="B75" s="92">
         <v>42356</v>
       </c>
       <c r="C75" s="74" t="s">
@@ -4225,7 +4246,7 @@
       <c r="A76" s="23">
         <v>6</v>
       </c>
-      <c r="B76" s="94">
+      <c r="B76" s="92">
         <v>42356</v>
       </c>
       <c r="C76" s="74" t="s">
@@ -4253,28 +4274,28 @@
       </c>
     </row>
     <row r="77" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="100" t="s">
+      <c r="A77" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="B77" s="100"/>
-      <c r="C77" s="100"/>
-      <c r="D77" s="100"/>
-      <c r="E77" s="100"/>
-      <c r="F77" s="100"/>
-      <c r="G77" s="100"/>
-      <c r="H77" s="100"/>
-      <c r="I77" s="100"/>
-      <c r="J77" s="100" t="s">
+      <c r="B77" s="98"/>
+      <c r="C77" s="98"/>
+      <c r="D77" s="98"/>
+      <c r="E77" s="98"/>
+      <c r="F77" s="98"/>
+      <c r="G77" s="98"/>
+      <c r="H77" s="98"/>
+      <c r="I77" s="98"/>
+      <c r="J77" s="98" t="s">
         <v>47</v>
       </c>
-      <c r="K77" s="101"/>
+      <c r="K77" s="97"/>
       <c r="L77" s="78"/>
       <c r="M77" s="78"/>
-      <c r="N77" s="84">
+      <c r="N77" s="82">
         <f>SUM(N63:N76)</f>
         <v>66.849999999999994</v>
       </c>
-      <c r="O77" s="84">
+      <c r="O77" s="82">
         <f>SUM(O63:O76)</f>
         <v>43.55</v>
       </c>
@@ -4283,7 +4304,7 @@
       <c r="A78" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="91">
+      <c r="B78" s="89">
         <v>42380</v>
       </c>
       <c r="C78" s="69" t="s">
@@ -4328,10 +4349,10 @@
       <c r="A79" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="94">
+      <c r="B79" s="92">
         <v>42380</v>
       </c>
-      <c r="C79" s="94" t="s">
+      <c r="C79" s="92" t="s">
         <v>123</v>
       </c>
       <c r="D79" s="38">
@@ -4356,12 +4377,12 @@
       <c r="K79" s="72"/>
       <c r="L79" s="73"/>
       <c r="M79" s="73"/>
-      <c r="N79" s="99">
-        <f t="shared" ref="N79:N106" si="42">D79+F79+H79+J79+L79</f>
+      <c r="N79" s="96">
+        <f t="shared" ref="N79:N112" si="42">D79+F79+H79+J79+L79</f>
         <v>10</v>
       </c>
       <c r="O79" s="72">
-        <f t="shared" ref="O79:O106" si="43">E79+G79+I79+K79+M79</f>
+        <f t="shared" ref="O79:O112" si="43">E79+G79+I79+K79+M79</f>
         <v>11.5</v>
       </c>
     </row>
@@ -4369,10 +4390,10 @@
       <c r="A80" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="94">
+      <c r="B80" s="92">
         <v>42380</v>
       </c>
-      <c r="C80" s="94" t="s">
+      <c r="C80" s="92" t="s">
         <v>21</v>
       </c>
       <c r="D80" s="38">
@@ -4401,7 +4422,7 @@
       </c>
       <c r="L80" s="73"/>
       <c r="M80" s="73"/>
-      <c r="N80" s="99">
+      <c r="N80" s="96">
         <f t="shared" si="42"/>
         <v>8</v>
       </c>
@@ -4414,10 +4435,10 @@
       <c r="A81" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B81" s="94">
+      <c r="B81" s="92">
         <v>42380</v>
       </c>
-      <c r="C81" s="94" t="s">
+      <c r="C81" s="92" t="s">
         <v>124</v>
       </c>
       <c r="D81" s="38"/>
@@ -4440,7 +4461,7 @@
       </c>
       <c r="L81" s="73"/>
       <c r="M81" s="73"/>
-      <c r="N81" s="99">
+      <c r="N81" s="96">
         <f t="shared" si="42"/>
         <v>4</v>
       </c>
@@ -4453,10 +4474,10 @@
       <c r="A82" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B82" s="94">
+      <c r="B82" s="92">
         <v>42380</v>
       </c>
-      <c r="C82" s="94" t="s">
+      <c r="C82" s="92" t="s">
         <v>126</v>
       </c>
       <c r="D82" s="38"/>
@@ -4473,7 +4494,7 @@
       </c>
       <c r="L82" s="73"/>
       <c r="M82" s="73"/>
-      <c r="N82" s="99">
+      <c r="N82" s="96">
         <f t="shared" si="42"/>
         <v>4</v>
       </c>
@@ -4486,10 +4507,10 @@
       <c r="A83" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B83" s="94">
+      <c r="B83" s="92">
         <v>42380</v>
       </c>
-      <c r="C83" s="94" t="s">
+      <c r="C83" s="92" t="s">
         <v>123</v>
       </c>
       <c r="D83" s="38">
@@ -4518,7 +4539,7 @@
       </c>
       <c r="L83" s="73"/>
       <c r="M83" s="73"/>
-      <c r="N83" s="99">
+      <c r="N83" s="96">
         <f t="shared" si="42"/>
         <v>4</v>
       </c>
@@ -4531,7 +4552,7 @@
       <c r="A84" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="92">
+      <c r="B84" s="90">
         <v>42380</v>
       </c>
       <c r="C84" s="74" t="s">
@@ -4563,11 +4584,11 @@
       </c>
       <c r="L84" s="40"/>
       <c r="M84" s="40"/>
-      <c r="N84" s="28">
+      <c r="N84" s="96">
         <f t="shared" si="42"/>
         <v>16</v>
       </c>
-      <c r="O84" s="29">
+      <c r="O84" s="72">
         <f t="shared" si="43"/>
         <v>5</v>
       </c>
@@ -4576,17 +4597,17 @@
       <c r="A85" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="94">
+      <c r="B85" s="90">
         <v>42381</v>
       </c>
-      <c r="C85" s="94" t="s">
-        <v>123</v>
+      <c r="C85" s="74" t="s">
+        <v>59</v>
       </c>
       <c r="D85" s="38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E85" s="38">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F85" s="29">
         <v>1</v>
@@ -4595,67 +4616,71 @@
         <v>1</v>
       </c>
       <c r="H85" s="39">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I85" s="39">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J85" s="29">
-        <v>1</v>
-      </c>
-      <c r="K85" s="72">
-        <v>0</v>
-      </c>
-      <c r="L85" s="73"/>
-      <c r="M85" s="73"/>
-      <c r="N85" s="99">
+        <v>0.5</v>
+      </c>
+      <c r="K85" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="L85" s="40"/>
+      <c r="M85" s="40"/>
+      <c r="N85" s="96">
         <f t="shared" si="42"/>
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="O85" s="72">
         <f t="shared" si="43"/>
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="86" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B86" s="94">
+      <c r="B86" s="92">
         <v>42381</v>
       </c>
-      <c r="C86" s="77" t="s">
-        <v>119</v>
+      <c r="C86" s="92" t="s">
+        <v>123</v>
       </c>
       <c r="D86" s="38">
         <v>1</v>
       </c>
       <c r="E86" s="38">
-        <v>3</v>
-      </c>
-      <c r="F86" s="29"/>
+        <v>2</v>
+      </c>
+      <c r="F86" s="29">
+        <v>1</v>
+      </c>
       <c r="G86" s="29">
         <v>1</v>
       </c>
-      <c r="H86" s="39"/>
+      <c r="H86" s="39">
+        <v>1</v>
+      </c>
       <c r="I86" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J86" s="29">
         <v>1</v>
       </c>
       <c r="K86" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L86" s="73"/>
       <c r="M86" s="73"/>
-      <c r="N86" s="99">
+      <c r="N86" s="96">
         <f t="shared" si="42"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O86" s="72">
         <f t="shared" si="43"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4665,126 +4690,128 @@
       <c r="B87" s="92">
         <v>42381</v>
       </c>
-      <c r="C87" s="74" t="s">
-        <v>90</v>
+      <c r="C87" s="77" t="s">
+        <v>119</v>
       </c>
       <c r="D87" s="38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E87" s="38">
-        <v>1</v>
-      </c>
-      <c r="F87" s="29">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F87" s="29"/>
       <c r="G87" s="29">
         <v>1</v>
       </c>
-      <c r="H87" s="39">
-        <v>2</v>
-      </c>
+      <c r="H87" s="39"/>
       <c r="I87" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J87" s="29">
+        <v>1</v>
+      </c>
+      <c r="K87" s="72">
+        <v>1</v>
+      </c>
+      <c r="L87" s="73"/>
+      <c r="M87" s="73"/>
+      <c r="N87" s="96">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="O87" s="72">
+        <f t="shared" si="43"/>
         <v>8</v>
-      </c>
-      <c r="K87" s="29">
-        <v>2</v>
-      </c>
-      <c r="L87" s="40"/>
-      <c r="M87" s="40"/>
-      <c r="N87" s="28">
-        <f t="shared" si="42"/>
-        <v>16</v>
-      </c>
-      <c r="O87" s="29">
-        <f t="shared" si="43"/>
-        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B88" s="94">
+      <c r="B88" s="90">
         <v>42381</v>
       </c>
-      <c r="C88" s="77" t="s">
-        <v>88</v>
+      <c r="C88" s="74" t="s">
+        <v>90</v>
       </c>
       <c r="D88" s="38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E88" s="38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F88" s="29">
         <v>2</v>
       </c>
       <c r="G88" s="29">
+        <v>1</v>
+      </c>
+      <c r="H88" s="39">
+        <v>2</v>
+      </c>
+      <c r="I88" s="39">
+        <v>1</v>
+      </c>
+      <c r="J88" s="29">
+        <v>8</v>
+      </c>
+      <c r="K88" s="29">
+        <v>2</v>
+      </c>
+      <c r="L88" s="40"/>
+      <c r="M88" s="40"/>
+      <c r="N88" s="96">
+        <f t="shared" si="42"/>
+        <v>16</v>
+      </c>
+      <c r="O88" s="72">
+        <f t="shared" si="43"/>
         <v>5</v>
-      </c>
-      <c r="H88" s="39">
-        <v>2</v>
-      </c>
-      <c r="I88" s="39">
-        <v>3</v>
-      </c>
-      <c r="J88" s="29">
-        <v>2</v>
-      </c>
-      <c r="K88" s="72">
-        <v>1</v>
-      </c>
-      <c r="L88" s="73"/>
-      <c r="M88" s="73"/>
-      <c r="N88" s="28">
-        <f t="shared" ref="N88:N101" si="44">D88+F88+H88+J88+L88</f>
-        <v>8</v>
-      </c>
-      <c r="O88" s="29">
-        <f t="shared" ref="O88:O101" si="45">E88+G88+I88+K88+M88</f>
-        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="94">
+      <c r="B89" s="92">
         <v>42381</v>
       </c>
-      <c r="C89" s="74" t="s">
-        <v>80</v>
+      <c r="C89" s="77" t="s">
+        <v>88</v>
       </c>
       <c r="D89" s="38">
+        <v>2</v>
+      </c>
+      <c r="E89" s="38">
         <v>3</v>
       </c>
-      <c r="E89" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="F89" s="29"/>
+      <c r="F89" s="29">
+        <v>2</v>
+      </c>
       <c r="G89" s="29">
-        <v>1</v>
-      </c>
-      <c r="H89" s="39"/>
+        <v>5</v>
+      </c>
+      <c r="H89" s="39">
+        <v>2</v>
+      </c>
       <c r="I89" s="39">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="J89" s="29">
-        <v>3</v>
-      </c>
-      <c r="K89" s="72"/>
+        <v>2</v>
+      </c>
+      <c r="K89" s="72">
+        <v>1</v>
+      </c>
       <c r="L89" s="73"/>
       <c r="M89" s="73"/>
-      <c r="N89" s="28">
-        <f t="shared" si="44"/>
-        <v>6</v>
-      </c>
-      <c r="O89" s="29">
-        <f t="shared" si="45"/>
-        <v>4</v>
+      <c r="N89" s="96">
+        <f t="shared" si="42"/>
+        <v>8</v>
+      </c>
+      <c r="O89" s="72">
+        <f t="shared" si="43"/>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4795,130 +4822,132 @@
         <v>42381</v>
       </c>
       <c r="C90" s="74" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="D90" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="E90" s="38"/>
-      <c r="F90" s="29">
-        <v>1</v>
-      </c>
-      <c r="G90" s="29"/>
-      <c r="H90" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="I90" s="39"/>
+        <v>3</v>
+      </c>
+      <c r="E90" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29">
+        <v>1</v>
+      </c>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39">
+        <v>1.5</v>
+      </c>
       <c r="J90" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K90" s="29"/>
-      <c r="L90" s="40"/>
-      <c r="M90" s="40"/>
-      <c r="N90" s="28">
-        <f t="shared" si="44"/>
-        <v>2.5</v>
-      </c>
-      <c r="O90" s="29">
-        <f t="shared" si="45"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K90" s="72"/>
+      <c r="L90" s="73"/>
+      <c r="M90" s="73"/>
+      <c r="N90" s="96">
+        <f t="shared" si="42"/>
+        <v>6</v>
+      </c>
+      <c r="O90" s="72">
+        <f t="shared" si="43"/>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B91" s="92">
+      <c r="B91" s="90">
         <v>42381</v>
       </c>
       <c r="C91" s="74" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="D91" s="38">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="E91" s="38">
         <v>0.5</v>
       </c>
       <c r="F91" s="29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G91" s="29">
         <v>1</v>
       </c>
       <c r="H91" s="39">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="I91" s="39">
         <v>0.5</v>
       </c>
       <c r="J91" s="29">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="K91" s="29">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="L91" s="40"/>
       <c r="M91" s="40"/>
-      <c r="N91" s="28">
-        <f t="shared" si="44"/>
-        <v>20</v>
-      </c>
-      <c r="O91" s="29">
-        <f t="shared" si="45"/>
-        <v>6</v>
+      <c r="N91" s="96">
+        <f t="shared" si="42"/>
+        <v>2.5</v>
+      </c>
+      <c r="O91" s="72">
+        <f t="shared" si="43"/>
+        <v>2.5</v>
       </c>
     </row>
     <row r="92" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="92">
-        <v>42382</v>
+      <c r="B92" s="90">
+        <v>42381</v>
       </c>
       <c r="C92" s="74" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="D92" s="38">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="E92" s="38">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F92" s="29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G92" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" s="39">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="I92" s="39">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J92" s="29">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="K92" s="29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L92" s="40"/>
       <c r="M92" s="40"/>
-      <c r="N92" s="28">
-        <f t="shared" si="44"/>
-        <v>2.5</v>
-      </c>
-      <c r="O92" s="29">
-        <f t="shared" si="45"/>
-        <v>0</v>
+      <c r="N92" s="96">
+        <f t="shared" si="42"/>
+        <v>20</v>
+      </c>
+      <c r="O92" s="72">
+        <f t="shared" si="43"/>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B93" s="94">
+      <c r="B93" s="92">
         <v>42382</v>
       </c>
       <c r="C93" s="77" t="s">
@@ -4930,26 +4959,40 @@
       <c r="E93" s="38">
         <v>1</v>
       </c>
-      <c r="F93" s="29"/>
-      <c r="G93" s="29"/>
+      <c r="F93" s="29">
+        <v>1</v>
+      </c>
+      <c r="G93" s="29">
+        <v>1</v>
+      </c>
       <c r="H93" s="39">
         <v>1</v>
       </c>
       <c r="I93" s="39">
         <v>1.5</v>
       </c>
-      <c r="J93" s="29"/>
-      <c r="K93" s="72"/>
+      <c r="J93" s="29">
+        <v>0</v>
+      </c>
+      <c r="K93" s="72">
+        <v>0.5</v>
+      </c>
       <c r="L93" s="73"/>
       <c r="M93" s="73"/>
-      <c r="N93" s="28"/>
-      <c r="O93" s="29"/>
+      <c r="N93" s="96">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="O93" s="72">
+        <f t="shared" si="43"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="94" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="94">
+      <c r="B94" s="92">
         <v>42382</v>
       </c>
       <c r="C94" s="77" t="s">
@@ -4964,7 +5007,9 @@
       <c r="F94" s="29">
         <v>1</v>
       </c>
-      <c r="G94" s="29"/>
+      <c r="G94" s="29">
+        <v>2</v>
+      </c>
       <c r="H94" s="39">
         <v>1</v>
       </c>
@@ -4979,20 +5024,20 @@
       </c>
       <c r="L94" s="73"/>
       <c r="M94" s="73"/>
-      <c r="N94" s="28">
-        <f t="shared" si="44"/>
+      <c r="N94" s="96">
+        <f t="shared" si="42"/>
         <v>6</v>
       </c>
-      <c r="O94" s="29">
-        <f t="shared" si="45"/>
-        <v>3</v>
+      <c r="O94" s="72">
+        <f t="shared" si="43"/>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B95" s="92">
+      <c r="B95" s="90">
         <v>42382</v>
       </c>
       <c r="C95" s="74" t="s">
@@ -5007,7 +5052,9 @@
       <c r="F95" s="29">
         <v>2</v>
       </c>
-      <c r="G95" s="29"/>
+      <c r="G95" s="29">
+        <v>1</v>
+      </c>
       <c r="H95" s="39">
         <v>2</v>
       </c>
@@ -5017,23 +5064,25 @@
       <c r="J95" s="29">
         <v>2</v>
       </c>
-      <c r="K95" s="29"/>
+      <c r="K95" s="29">
+        <v>1</v>
+      </c>
       <c r="L95" s="40"/>
       <c r="M95" s="40"/>
-      <c r="N95" s="28">
-        <f t="shared" si="44"/>
+      <c r="N95" s="96">
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
-      <c r="O95" s="29">
-        <f t="shared" si="45"/>
-        <v>4</v>
+      <c r="O95" s="72">
+        <f t="shared" si="43"/>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="92">
+      <c r="B96" s="90">
         <v>42382</v>
       </c>
       <c r="C96" s="74" t="s">
@@ -5048,7 +5097,9 @@
       <c r="F96" s="29">
         <v>4</v>
       </c>
-      <c r="G96" s="29"/>
+      <c r="G96" s="29">
+        <v>2</v>
+      </c>
       <c r="H96" s="39">
         <v>4</v>
       </c>
@@ -5063,854 +5114,950 @@
       </c>
       <c r="L96" s="40"/>
       <c r="M96" s="40"/>
-      <c r="N96" s="28">
-        <f t="shared" si="44"/>
+      <c r="N96" s="96">
+        <f t="shared" si="42"/>
         <v>10</v>
       </c>
-      <c r="O96" s="29">
-        <f t="shared" si="45"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="72">
+        <f t="shared" si="43"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B97" s="92">
-        <v>42383</v>
+      <c r="B97" s="90">
+        <v>42382</v>
       </c>
       <c r="C97" s="74" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="D97" s="38">
-        <v>2</v>
-      </c>
-      <c r="E97" s="38"/>
+        <v>1</v>
+      </c>
+      <c r="E97" s="38">
+        <v>0</v>
+      </c>
       <c r="F97" s="29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G97" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H97" s="39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" s="39"/>
       <c r="J97" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K97" s="29">
         <v>3</v>
       </c>
       <c r="L97" s="40"/>
       <c r="M97" s="40"/>
-      <c r="N97" s="28">
-        <f t="shared" ref="N97" si="46">D97+F97+H97+J97+L97</f>
-        <v>12</v>
-      </c>
-      <c r="O97" s="29">
-        <f t="shared" ref="O97" si="47">E97+G97+I97+K97+M97</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N97" s="96">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="O97" s="72">
+        <f t="shared" si="43"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B98" s="92">
+      <c r="B98" s="90">
         <v>42383</v>
       </c>
       <c r="C98" s="74" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D98" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="E98" s="38"/>
+        <v>2</v>
+      </c>
+      <c r="E98" s="38">
+        <v>1</v>
+      </c>
       <c r="F98" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="G98" s="29"/>
+        <v>2</v>
+      </c>
+      <c r="G98" s="29">
+        <v>3</v>
+      </c>
       <c r="H98" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="I98" s="39"/>
+        <v>2</v>
+      </c>
+      <c r="I98" s="39">
+        <v>1</v>
+      </c>
       <c r="J98" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K98" s="29"/>
+        <v>4</v>
+      </c>
+      <c r="K98" s="29">
+        <v>3</v>
+      </c>
       <c r="L98" s="40"/>
       <c r="M98" s="40"/>
-      <c r="N98" s="28">
-        <f>D98+F98+H98+J98+L98</f>
-        <v>2</v>
-      </c>
-      <c r="O98" s="29">
-        <f>E98+G98+I98+K98+M98</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N98" s="96">
+        <f t="shared" si="42"/>
+        <v>10</v>
+      </c>
+      <c r="O98" s="72">
+        <f t="shared" si="43"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="92">
+      <c r="B99" s="90">
         <v>42383</v>
       </c>
       <c r="C99" s="74" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="D99" s="38">
         <v>0.5</v>
       </c>
-      <c r="E99" s="38"/>
+      <c r="E99" s="38">
+        <v>0.5</v>
+      </c>
       <c r="F99" s="29">
-        <v>1</v>
-      </c>
-      <c r="G99" s="29"/>
+        <v>0.5</v>
+      </c>
+      <c r="G99" s="29">
+        <v>0.5</v>
+      </c>
       <c r="H99" s="39">
         <v>0.5</v>
       </c>
-      <c r="I99" s="39"/>
+      <c r="I99" s="39">
+        <v>0.5</v>
+      </c>
       <c r="J99" s="29">
         <v>0.5</v>
       </c>
-      <c r="K99" s="29"/>
+      <c r="K99" s="29">
+        <v>0.5</v>
+      </c>
       <c r="L99" s="40"/>
       <c r="M99" s="40"/>
-      <c r="N99" s="28">
-        <f t="shared" si="44"/>
-        <v>2.5</v>
-      </c>
-      <c r="O99" s="29">
-        <f t="shared" si="45"/>
-        <v>0</v>
+      <c r="N99" s="96">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="O99" s="72">
+        <f t="shared" si="43"/>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B100" s="92">
+      <c r="B100" s="90">
         <v>42383</v>
       </c>
       <c r="C100" s="74" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="D100" s="38">
-        <v>2</v>
-      </c>
-      <c r="E100" s="38"/>
+        <v>1</v>
+      </c>
+      <c r="E100" s="38">
+        <v>4</v>
+      </c>
       <c r="F100" s="29">
-        <v>4</v>
-      </c>
-      <c r="G100" s="29"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="29">
+        <v>0</v>
+      </c>
       <c r="H100" s="39">
-        <v>2</v>
-      </c>
-      <c r="I100" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="I100" s="39">
+        <v>0.5</v>
+      </c>
       <c r="J100" s="29">
-        <v>4</v>
-      </c>
-      <c r="K100" s="29"/>
+        <v>0</v>
+      </c>
+      <c r="K100" s="29">
+        <v>0</v>
+      </c>
       <c r="L100" s="40"/>
       <c r="M100" s="40"/>
-      <c r="N100" s="28">
-        <f t="shared" si="44"/>
-        <v>12</v>
-      </c>
-      <c r="O100" s="29">
-        <f t="shared" si="45"/>
-        <v>0</v>
+      <c r="N100" s="96">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="O100" s="72">
+        <f t="shared" si="43"/>
+        <v>4.5</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B101" s="92">
+      <c r="B101" s="90">
         <v>42383</v>
       </c>
       <c r="C101" s="74" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D101" s="38">
-        <v>4</v>
-      </c>
-      <c r="E101" s="38"/>
+        <v>2</v>
+      </c>
+      <c r="E101" s="38">
+        <v>1</v>
+      </c>
       <c r="F101" s="29">
-        <v>4</v>
-      </c>
-      <c r="G101" s="29"/>
+        <v>2</v>
+      </c>
+      <c r="G101" s="29">
+        <v>1</v>
+      </c>
       <c r="H101" s="39">
-        <v>4</v>
-      </c>
-      <c r="I101" s="39"/>
+        <v>2</v>
+      </c>
+      <c r="I101" s="39">
+        <v>1</v>
+      </c>
       <c r="J101" s="29">
         <v>4</v>
       </c>
-      <c r="K101" s="29"/>
+      <c r="K101" s="29">
+        <v>2</v>
+      </c>
       <c r="L101" s="40"/>
       <c r="M101" s="40"/>
-      <c r="N101" s="28">
-        <f t="shared" si="44"/>
-        <v>16</v>
-      </c>
-      <c r="O101" s="29">
-        <f t="shared" si="45"/>
-        <v>0</v>
+      <c r="N101" s="96">
+        <f t="shared" si="42"/>
+        <v>10</v>
+      </c>
+      <c r="O101" s="72">
+        <f t="shared" si="43"/>
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B102" s="92">
-        <v>42384</v>
+      <c r="B102" s="90">
+        <v>42383</v>
       </c>
       <c r="C102" s="74" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="D102" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="E102" s="38"/>
+        <v>3</v>
+      </c>
+      <c r="E102" s="38">
+        <v>0</v>
+      </c>
       <c r="F102" s="29">
-        <v>1</v>
-      </c>
-      <c r="G102" s="29"/>
+        <v>4</v>
+      </c>
+      <c r="G102" s="29">
+        <v>1</v>
+      </c>
       <c r="H102" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="I102" s="39"/>
+        <v>4</v>
+      </c>
+      <c r="I102" s="39">
+        <v>2</v>
+      </c>
       <c r="J102" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K102" s="29"/>
+        <v>4</v>
+      </c>
+      <c r="K102" s="29">
+        <v>1</v>
+      </c>
       <c r="L102" s="40"/>
       <c r="M102" s="40"/>
-      <c r="N102" s="28">
+      <c r="N102" s="96">
         <f t="shared" si="42"/>
-        <v>2.5</v>
-      </c>
-      <c r="O102" s="29">
+        <v>15</v>
+      </c>
+      <c r="O102" s="72">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B103" s="92">
-        <v>42384</v>
-      </c>
-      <c r="C103" s="89" t="s">
+      <c r="B103" s="90">
+        <v>42383</v>
+      </c>
+      <c r="C103" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="D103" s="66">
-        <v>6</v>
-      </c>
-      <c r="E103" s="66"/>
-      <c r="F103" s="65">
-        <v>4</v>
-      </c>
-      <c r="G103" s="65"/>
-      <c r="H103" s="67">
-        <v>4</v>
-      </c>
-      <c r="I103" s="67"/>
-      <c r="J103" s="65">
-        <v>4</v>
-      </c>
-      <c r="K103" s="65"/>
-      <c r="L103" s="64"/>
-      <c r="M103" s="64"/>
-      <c r="N103" s="28">
+      <c r="D103" s="38"/>
+      <c r="E103" s="38"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="39"/>
+      <c r="I103" s="39">
+        <v>2</v>
+      </c>
+      <c r="J103" s="29"/>
+      <c r="K103" s="29"/>
+      <c r="L103" s="40"/>
+      <c r="M103" s="40"/>
+      <c r="N103" s="96">
         <f t="shared" si="42"/>
-        <v>18</v>
-      </c>
-      <c r="O103" s="29">
+        <v>0</v>
+      </c>
+      <c r="O103" s="72">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B104" s="92">
-        <v>42384</v>
-      </c>
-      <c r="C104" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="D104" s="66">
-        <v>1</v>
-      </c>
-      <c r="E104" s="66"/>
-      <c r="F104" s="65">
-        <v>1</v>
-      </c>
-      <c r="G104" s="65"/>
-      <c r="H104" s="67">
-        <v>5</v>
-      </c>
-      <c r="I104" s="67"/>
-      <c r="J104" s="65">
-        <v>1</v>
-      </c>
-      <c r="K104" s="65"/>
-      <c r="L104" s="64"/>
-      <c r="M104" s="64"/>
-      <c r="N104" s="28">
+      <c r="B104" s="90">
+        <v>42383</v>
+      </c>
+      <c r="C104" s="74" t="s">
+        <v>131</v>
+      </c>
+      <c r="D104" s="38">
+        <v>0</v>
+      </c>
+      <c r="E104" s="38">
+        <v>2</v>
+      </c>
+      <c r="F104" s="29">
+        <v>4</v>
+      </c>
+      <c r="G104" s="29">
+        <v>2</v>
+      </c>
+      <c r="H104" s="39">
+        <v>0</v>
+      </c>
+      <c r="I104" s="39">
+        <v>1</v>
+      </c>
+      <c r="J104" s="29">
+        <v>4</v>
+      </c>
+      <c r="K104" s="29">
+        <v>2</v>
+      </c>
+      <c r="L104" s="40"/>
+      <c r="M104" s="40"/>
+      <c r="N104" s="96">
         <f t="shared" si="42"/>
         <v>8</v>
       </c>
-      <c r="O104" s="29">
+      <c r="O104" s="72">
         <f t="shared" si="43"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" s="90">
+        <v>42384</v>
+      </c>
+      <c r="C105" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D105" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="E105" s="38">
+        <v>1</v>
+      </c>
+      <c r="F105" s="29">
+        <v>1</v>
+      </c>
+      <c r="G105" s="29">
+        <v>1</v>
+      </c>
+      <c r="H105" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="I105" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="J105" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="K105" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="L105" s="40"/>
+      <c r="M105" s="40"/>
+      <c r="N105" s="96">
+        <f t="shared" si="42"/>
+        <v>2.5</v>
+      </c>
+      <c r="O105" s="72">
+        <f t="shared" si="43"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" s="90">
+        <v>42384</v>
+      </c>
+      <c r="C106" s="87" t="s">
+        <v>127</v>
+      </c>
+      <c r="D106" s="66">
+        <v>3</v>
+      </c>
+      <c r="E106" s="66">
+        <v>3</v>
+      </c>
+      <c r="F106" s="65">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A105" s="61" t="s">
-        <v>8</v>
-      </c>
-      <c r="B105" s="95">
-        <v>42384</v>
-      </c>
-      <c r="C105" s="90" t="s">
-        <v>95</v>
-      </c>
-      <c r="D105" s="62">
-        <v>2</v>
-      </c>
-      <c r="E105" s="62"/>
-      <c r="F105" s="61">
-        <v>2</v>
-      </c>
-      <c r="G105" s="61"/>
-      <c r="H105" s="63">
-        <v>2</v>
-      </c>
-      <c r="I105" s="63"/>
-      <c r="J105" s="65">
-        <v>2</v>
-      </c>
-      <c r="K105" s="65"/>
-      <c r="L105" s="64"/>
-      <c r="M105" s="64"/>
-      <c r="N105" s="28">
-        <f t="shared" si="42"/>
-        <v>8</v>
-      </c>
-      <c r="O105" s="65">
-        <f t="shared" si="43"/>
+      <c r="G106" s="65">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A106" s="82" t="s">
-        <v>8</v>
-      </c>
-      <c r="B106" s="96">
-        <v>42384</v>
-      </c>
-      <c r="C106" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="D106" s="62">
-        <v>1</v>
-      </c>
-      <c r="E106" s="62"/>
-      <c r="F106" s="61">
-        <v>1</v>
-      </c>
-      <c r="G106" s="61"/>
-      <c r="H106" s="63">
-        <v>1</v>
-      </c>
-      <c r="I106" s="63"/>
-      <c r="J106" s="65">
-        <v>1</v>
-      </c>
+      <c r="H106" s="67"/>
+      <c r="I106" s="67">
+        <v>1</v>
+      </c>
+      <c r="J106" s="65"/>
       <c r="K106" s="65"/>
       <c r="L106" s="64"/>
       <c r="M106" s="64"/>
-      <c r="N106" s="81">
+      <c r="N106" s="96">
         <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="O106" s="65">
+        <v>3</v>
+      </c>
+      <c r="O106" s="72">
+        <f t="shared" si="43"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" s="90">
+        <v>42384</v>
+      </c>
+      <c r="C107" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="D107" s="66">
+        <v>1</v>
+      </c>
+      <c r="E107" s="66">
+        <v>1</v>
+      </c>
+      <c r="F107" s="65">
+        <v>0</v>
+      </c>
+      <c r="G107" s="65">
+        <v>0</v>
+      </c>
+      <c r="H107" s="67">
+        <v>0</v>
+      </c>
+      <c r="I107" s="67"/>
+      <c r="J107" s="65">
+        <v>2</v>
+      </c>
+      <c r="K107" s="109">
+        <v>2.5</v>
+      </c>
+      <c r="L107" s="64"/>
+      <c r="M107" s="64"/>
+      <c r="N107" s="96">
+        <f t="shared" si="42"/>
+        <v>3</v>
+      </c>
+      <c r="O107" s="72">
+        <f t="shared" si="43"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="90">
+        <v>42384</v>
+      </c>
+      <c r="C108" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="D108" s="66">
+        <v>1</v>
+      </c>
+      <c r="E108" s="66">
+        <v>0</v>
+      </c>
+      <c r="F108" s="65">
+        <v>5</v>
+      </c>
+      <c r="G108" s="65">
+        <v>5</v>
+      </c>
+      <c r="H108" s="67"/>
+      <c r="I108" s="67"/>
+      <c r="J108" s="65">
+        <v>1</v>
+      </c>
+      <c r="K108" s="65">
+        <v>3</v>
+      </c>
+      <c r="L108" s="64"/>
+      <c r="M108" s="64"/>
+      <c r="N108" s="96">
+        <f t="shared" si="42"/>
+        <v>7</v>
+      </c>
+      <c r="O108" s="72">
+        <f t="shared" si="43"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" s="90">
+        <v>42384</v>
+      </c>
+      <c r="C109" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="D109" s="66">
+        <v>1</v>
+      </c>
+      <c r="E109" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="F109" s="65">
+        <v>1</v>
+      </c>
+      <c r="G109" s="65">
+        <v>1</v>
+      </c>
+      <c r="H109" s="67">
+        <v>2</v>
+      </c>
+      <c r="I109" s="67">
+        <v>2</v>
+      </c>
+      <c r="J109" s="65">
+        <v>1</v>
+      </c>
+      <c r="K109" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="L109" s="64"/>
+      <c r="M109" s="64"/>
+      <c r="N109" s="96">
+        <f t="shared" si="42"/>
+        <v>5</v>
+      </c>
+      <c r="O109" s="72">
+        <f t="shared" si="43"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="90">
+        <v>42384</v>
+      </c>
+      <c r="C110" s="87" t="s">
+        <v>120</v>
+      </c>
+      <c r="D110" s="66">
+        <v>1</v>
+      </c>
+      <c r="E110" s="66">
+        <v>2</v>
+      </c>
+      <c r="F110" s="65">
+        <v>1</v>
+      </c>
+      <c r="G110" s="65"/>
+      <c r="H110" s="67">
+        <v>4</v>
+      </c>
+      <c r="I110" s="67">
+        <v>4</v>
+      </c>
+      <c r="J110" s="65">
+        <v>4</v>
+      </c>
+      <c r="K110" s="65">
+        <v>1</v>
+      </c>
+      <c r="L110" s="64"/>
+      <c r="M110" s="64"/>
+      <c r="N110" s="96">
+        <f t="shared" si="42"/>
+        <v>10</v>
+      </c>
+      <c r="O110" s="72">
+        <f t="shared" si="43"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" s="107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" s="108">
+        <v>42384</v>
+      </c>
+      <c r="C111" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="D111" s="38">
+        <v>1</v>
+      </c>
+      <c r="E111" s="38">
+        <v>1</v>
+      </c>
+      <c r="F111" s="29">
+        <v>1</v>
+      </c>
+      <c r="G111" s="29">
+        <v>1</v>
+      </c>
+      <c r="H111" s="39">
+        <v>1</v>
+      </c>
+      <c r="I111" s="39">
+        <v>1</v>
+      </c>
+      <c r="J111" s="29">
+        <v>1</v>
+      </c>
+      <c r="K111" s="29">
+        <v>1</v>
+      </c>
+      <c r="L111" s="40"/>
+      <c r="M111" s="40"/>
+      <c r="N111" s="96">
+        <f t="shared" si="42"/>
+        <v>4</v>
+      </c>
+      <c r="O111" s="72">
+        <f t="shared" si="43"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="91">
+        <v>42385</v>
+      </c>
+      <c r="C112" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="D112" s="94"/>
+      <c r="E112" s="94"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="36"/>
+      <c r="H112" s="95"/>
+      <c r="I112" s="95"/>
+      <c r="J112" s="36">
+        <v>2</v>
+      </c>
+      <c r="K112" s="36"/>
+      <c r="L112" s="41"/>
+      <c r="M112" s="41"/>
+      <c r="N112" s="28">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+      <c r="O112" s="29">
         <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A107" s="100" t="s">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A113" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="B107" s="100"/>
-      <c r="C107" s="100"/>
-      <c r="D107" s="100"/>
-      <c r="E107" s="100"/>
-      <c r="F107" s="100"/>
-      <c r="G107" s="100"/>
-      <c r="H107" s="100"/>
-      <c r="I107" s="100"/>
-      <c r="J107" s="103" t="s">
+      <c r="B113" s="98"/>
+      <c r="C113" s="98"/>
+      <c r="D113" s="98"/>
+      <c r="E113" s="98"/>
+      <c r="F113" s="98"/>
+      <c r="G113" s="98"/>
+      <c r="H113" s="98"/>
+      <c r="I113" s="98"/>
+      <c r="J113" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="K107" s="104"/>
-      <c r="L107" s="78"/>
-      <c r="M107" s="78"/>
-      <c r="N107" s="84">
-        <f>SUM(N78:N105)</f>
+      <c r="K113" s="106"/>
+      <c r="L113" s="78"/>
+      <c r="M113" s="78"/>
+      <c r="N113" s="82">
+        <f ca="1">SUM(N78:N124)</f>
         <v>216.5</v>
       </c>
-      <c r="O107" s="84">
-        <f>SUM(O78:O105)</f>
-        <v>93.5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A108" s="16" t="s">
+      <c r="O113" s="82">
+        <f>SUM(O78:O112)</f>
+        <v>173.5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A114" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B108" s="91">
+      <c r="B114" s="89">
         <v>42387</v>
       </c>
-      <c r="C108" s="69" t="s">
+      <c r="C114" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="D108" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="E108" s="38"/>
-      <c r="F108" s="29">
-        <v>1</v>
-      </c>
-      <c r="G108" s="29"/>
-      <c r="H108" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="I108" s="39"/>
-      <c r="J108" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K108" s="22"/>
-      <c r="L108" s="37"/>
-      <c r="M108" s="37"/>
-      <c r="N108" s="21">
-        <f t="shared" ref="N108:O123" si="48">D108+F108+H108+J108+L108</f>
+      <c r="D114" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="E114" s="38">
+        <v>1</v>
+      </c>
+      <c r="F114" s="29">
+        <v>1</v>
+      </c>
+      <c r="G114" s="29">
+        <v>1</v>
+      </c>
+      <c r="H114" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="I114" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="J114" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="K114" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="L114" s="37"/>
+      <c r="M114" s="37"/>
+      <c r="N114" s="21">
+        <f t="shared" ref="N114:O114" si="44">D114+F114+H114+J114+L114</f>
         <v>2.5</v>
       </c>
-      <c r="O108" s="22">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A109" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B109" s="92">
-        <v>42387</v>
-      </c>
-      <c r="C109" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="D109" s="38">
-        <v>4</v>
-      </c>
-      <c r="E109" s="38"/>
-      <c r="F109" s="29">
-        <v>2</v>
-      </c>
-      <c r="G109" s="29"/>
-      <c r="H109" s="39">
-        <v>2</v>
-      </c>
-      <c r="I109" s="39"/>
-      <c r="J109" s="29">
-        <v>2</v>
-      </c>
-      <c r="K109" s="72"/>
-      <c r="L109" s="73"/>
-      <c r="M109" s="73"/>
-      <c r="N109" s="28">
-        <f t="shared" si="48"/>
-        <v>10</v>
-      </c>
-      <c r="O109" s="29">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A110" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B110" s="92">
-        <v>42387</v>
-      </c>
-      <c r="C110" s="77" t="s">
-        <v>98</v>
-      </c>
-      <c r="D110" s="38">
-        <v>2</v>
-      </c>
-      <c r="E110" s="38"/>
-      <c r="F110" s="29">
-        <v>4</v>
-      </c>
-      <c r="G110" s="29"/>
-      <c r="H110" s="39">
-        <v>4</v>
-      </c>
-      <c r="I110" s="39"/>
-      <c r="J110" s="29">
-        <v>2</v>
-      </c>
-      <c r="K110" s="72"/>
-      <c r="L110" s="73"/>
-      <c r="M110" s="73"/>
-      <c r="N110" s="28">
-        <f t="shared" si="48"/>
-        <v>12</v>
-      </c>
-      <c r="O110" s="29">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A111" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B111" s="92">
-        <v>42387</v>
-      </c>
-      <c r="C111" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="D111" s="38">
-        <v>2</v>
-      </c>
-      <c r="E111" s="38"/>
-      <c r="F111" s="29">
-        <v>2</v>
-      </c>
-      <c r="G111" s="29"/>
-      <c r="H111" s="39">
-        <v>2</v>
-      </c>
-      <c r="I111" s="39"/>
-      <c r="J111" s="29">
-        <v>4</v>
-      </c>
-      <c r="K111" s="72"/>
-      <c r="L111" s="73"/>
-      <c r="M111" s="73"/>
-      <c r="N111" s="28">
-        <f t="shared" si="48"/>
-        <v>10</v>
-      </c>
-      <c r="O111" s="29">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A112" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B112" s="92">
-        <v>42388</v>
-      </c>
-      <c r="C112" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="D112" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="E112" s="38"/>
-      <c r="F112" s="29">
-        <v>1</v>
-      </c>
-      <c r="G112" s="29"/>
-      <c r="H112" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="I112" s="39"/>
-      <c r="J112" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K112" s="29"/>
-      <c r="L112" s="40"/>
-      <c r="M112" s="40"/>
-      <c r="N112" s="28">
-        <f t="shared" si="48"/>
-        <v>2.5</v>
-      </c>
-      <c r="O112" s="29">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A113" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B113" s="92">
-        <v>42388</v>
-      </c>
-      <c r="C113" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="D113" s="38">
-        <v>4</v>
-      </c>
-      <c r="E113" s="38"/>
-      <c r="F113" s="29">
-        <v>2</v>
-      </c>
-      <c r="G113" s="29"/>
-      <c r="H113" s="39">
-        <v>2</v>
-      </c>
-      <c r="I113" s="39"/>
-      <c r="J113" s="29">
-        <v>2</v>
-      </c>
-      <c r="K113" s="29"/>
-      <c r="L113" s="40"/>
-      <c r="M113" s="40"/>
-      <c r="N113" s="28">
-        <f t="shared" si="48"/>
-        <v>10</v>
-      </c>
-      <c r="O113" s="29">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A114" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B114" s="92">
-        <v>42388</v>
-      </c>
-      <c r="C114" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="D114" s="38">
-        <v>2</v>
-      </c>
-      <c r="E114" s="38"/>
-      <c r="F114" s="29">
-        <v>4</v>
-      </c>
-      <c r="G114" s="29"/>
-      <c r="H114" s="39">
-        <v>4</v>
-      </c>
-      <c r="I114" s="39"/>
-      <c r="J114" s="29">
-        <v>2</v>
-      </c>
-      <c r="K114" s="29"/>
-      <c r="L114" s="40"/>
-      <c r="M114" s="40"/>
-      <c r="N114" s="28">
-        <f t="shared" si="48"/>
-        <v>12</v>
-      </c>
-      <c r="O114" s="29">
-        <f t="shared" si="48"/>
-        <v>0</v>
+      <c r="O114" s="22">
+        <f t="shared" si="44"/>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B115" s="92">
-        <v>42388</v>
-      </c>
-      <c r="C115" s="74" t="s">
-        <v>104</v>
+      <c r="B115" s="90">
+        <v>42387</v>
+      </c>
+      <c r="C115" s="77" t="s">
+        <v>121</v>
       </c>
       <c r="D115" s="38">
-        <v>2</v>
-      </c>
-      <c r="E115" s="38"/>
+        <v>3</v>
+      </c>
+      <c r="E115" s="38">
+        <v>3</v>
+      </c>
       <c r="F115" s="29">
         <v>2</v>
       </c>
-      <c r="G115" s="29"/>
+      <c r="G115" s="29">
+        <v>1</v>
+      </c>
       <c r="H115" s="39">
-        <v>2</v>
-      </c>
-      <c r="I115" s="39"/>
+        <v>4</v>
+      </c>
+      <c r="I115" s="39">
+        <v>4</v>
+      </c>
       <c r="J115" s="29">
-        <v>4</v>
-      </c>
-      <c r="K115" s="29"/>
-      <c r="L115" s="40"/>
-      <c r="M115" s="40"/>
+        <v>2</v>
+      </c>
+      <c r="K115" s="72">
+        <v>1</v>
+      </c>
+      <c r="L115" s="73"/>
+      <c r="M115" s="73"/>
       <c r="N115" s="28">
-        <f t="shared" si="48"/>
-        <v>10</v>
+        <f t="shared" ref="N115:N144" si="45">D115+F115+H115+J115+L115</f>
+        <v>11</v>
       </c>
       <c r="O115" s="29">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <f t="shared" ref="O115:O144" si="46">E115+G115+I115+K115+M115</f>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="92">
-        <v>42389</v>
-      </c>
-      <c r="C116" s="74" t="s">
-        <v>59</v>
+      <c r="B116" s="90">
+        <v>42387</v>
+      </c>
+      <c r="C116" s="77" t="s">
+        <v>21</v>
       </c>
       <c r="D116" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="E116" s="38"/>
+        <v>1.5</v>
+      </c>
+      <c r="E116" s="38">
+        <v>1.5</v>
+      </c>
       <c r="F116" s="29">
-        <v>1</v>
-      </c>
-      <c r="G116" s="29"/>
+        <v>1.5</v>
+      </c>
+      <c r="G116" s="29">
+        <v>1.5</v>
+      </c>
       <c r="H116" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="I116" s="39"/>
+        <v>1.5</v>
+      </c>
+      <c r="I116" s="39">
+        <v>1.5</v>
+      </c>
       <c r="J116" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K116" s="29"/>
-      <c r="L116" s="40"/>
-      <c r="M116" s="40"/>
+        <v>1.5</v>
+      </c>
+      <c r="K116" s="72">
+        <v>1.5</v>
+      </c>
+      <c r="L116" s="73"/>
+      <c r="M116" s="73"/>
       <c r="N116" s="28">
-        <f t="shared" si="48"/>
-        <v>2.5</v>
+        <f t="shared" ref="N116:N129" si="47">D116+F116+H116+J116+L116</f>
+        <v>6</v>
       </c>
       <c r="O116" s="29">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <f t="shared" ref="O116:O129" si="48">E116+G116+I116+K116+M116</f>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B117" s="92">
-        <v>42389</v>
-      </c>
-      <c r="C117" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="D117" s="38">
-        <v>4</v>
-      </c>
-      <c r="E117" s="38"/>
-      <c r="F117" s="29">
-        <v>2</v>
-      </c>
+      <c r="B117" s="90">
+        <v>42387</v>
+      </c>
+      <c r="C117" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="D117" s="38"/>
+      <c r="E117" s="38">
+        <v>2</v>
+      </c>
+      <c r="F117" s="29"/>
       <c r="G117" s="29"/>
       <c r="H117" s="39">
-        <v>2</v>
-      </c>
-      <c r="I117" s="39"/>
-      <c r="J117" s="29">
-        <v>2</v>
-      </c>
-      <c r="K117" s="29"/>
-      <c r="L117" s="40"/>
-      <c r="M117" s="40"/>
+        <v>1</v>
+      </c>
+      <c r="I117" s="39">
+        <v>1</v>
+      </c>
+      <c r="J117" s="29"/>
+      <c r="K117" s="72"/>
+      <c r="L117" s="73"/>
+      <c r="M117" s="73"/>
       <c r="N117" s="28">
-        <f t="shared" si="48"/>
-        <v>10</v>
+        <f t="shared" si="47"/>
+        <v>1</v>
       </c>
       <c r="O117" s="29">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B118" s="92">
-        <v>42389</v>
-      </c>
-      <c r="C118" s="74" t="s">
-        <v>109</v>
-      </c>
-      <c r="D118" s="38">
-        <v>4</v>
-      </c>
+      <c r="B118" s="90">
+        <v>42387</v>
+      </c>
+      <c r="C118" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="D118" s="38"/>
       <c r="E118" s="38"/>
       <c r="F118" s="29">
         <v>2</v>
       </c>
-      <c r="G118" s="29"/>
+      <c r="G118" s="29">
+        <v>3</v>
+      </c>
       <c r="H118" s="39">
-        <v>2</v>
-      </c>
-      <c r="I118" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="I118" s="39">
+        <v>1</v>
+      </c>
       <c r="J118" s="29">
         <v>2</v>
       </c>
-      <c r="K118" s="29"/>
-      <c r="L118" s="40"/>
-      <c r="M118" s="40"/>
+      <c r="K118" s="72">
+        <v>3.5</v>
+      </c>
+      <c r="L118" s="73"/>
+      <c r="M118" s="73"/>
       <c r="N118" s="28">
-        <f t="shared" si="48"/>
-        <v>10</v>
+        <f t="shared" si="47"/>
+        <v>5</v>
       </c>
       <c r="O118" s="29">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B119" s="92">
-        <v>42389</v>
-      </c>
-      <c r="C119" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="D119" s="38">
-        <v>1</v>
-      </c>
+      <c r="B119" s="90">
+        <v>42387</v>
+      </c>
+      <c r="C119" s="77"/>
+      <c r="D119" s="38"/>
       <c r="E119" s="38"/>
-      <c r="F119" s="29">
-        <v>2</v>
-      </c>
+      <c r="F119" s="29"/>
       <c r="G119" s="29"/>
-      <c r="H119" s="39">
-        <v>4</v>
-      </c>
+      <c r="H119" s="39"/>
       <c r="I119" s="39"/>
-      <c r="J119" s="29">
-        <v>2</v>
-      </c>
-      <c r="K119" s="29"/>
-      <c r="L119" s="40"/>
-      <c r="M119" s="40"/>
+      <c r="J119" s="29"/>
+      <c r="K119" s="72"/>
+      <c r="L119" s="73"/>
+      <c r="M119" s="73"/>
       <c r="N119" s="28">
-        <f t="shared" si="48"/>
-        <v>9</v>
+        <f t="shared" si="47"/>
+        <v>0</v>
       </c>
       <c r="O119" s="29">
         <f t="shared" si="48"/>
@@ -5921,45 +6068,51 @@
       <c r="A120" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B120" s="92">
-        <v>42389</v>
+      <c r="B120" s="90">
+        <v>42387</v>
       </c>
       <c r="C120" s="74" t="s">
-        <v>104</v>
-      </c>
-      <c r="D120" s="38">
-        <v>1</v>
-      </c>
-      <c r="E120" s="38"/>
+        <v>131</v>
+      </c>
+      <c r="D120" s="38"/>
+      <c r="E120" s="38">
+        <v>1</v>
+      </c>
       <c r="F120" s="29">
         <v>2</v>
       </c>
-      <c r="G120" s="29"/>
+      <c r="G120" s="29">
+        <v>2</v>
+      </c>
       <c r="H120" s="39">
-        <v>2</v>
-      </c>
-      <c r="I120" s="39"/>
+        <v>0</v>
+      </c>
+      <c r="I120" s="39">
+        <v>0.5</v>
+      </c>
       <c r="J120" s="29">
-        <v>4</v>
-      </c>
-      <c r="K120" s="29"/>
-      <c r="L120" s="40"/>
-      <c r="M120" s="40"/>
+        <v>2</v>
+      </c>
+      <c r="K120" s="72">
+        <v>2</v>
+      </c>
+      <c r="L120" s="73"/>
+      <c r="M120" s="73"/>
       <c r="N120" s="28">
-        <f t="shared" si="48"/>
-        <v>9</v>
+        <f t="shared" si="47"/>
+        <v>4</v>
       </c>
       <c r="O120" s="29">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B121" s="92">
-        <v>42390</v>
+      <c r="B121" s="90">
+        <v>42388</v>
       </c>
       <c r="C121" s="74" t="s">
         <v>59</v>
@@ -5983,7 +6136,7 @@
       <c r="L121" s="40"/>
       <c r="M121" s="40"/>
       <c r="N121" s="28">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>2.5</v>
       </c>
       <c r="O121" s="29">
@@ -5995,18 +6148,18 @@
       <c r="A122" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B122" s="92">
-        <v>42390</v>
-      </c>
-      <c r="C122" s="74" t="s">
-        <v>110</v>
+      <c r="B122" s="90">
+        <v>42388</v>
+      </c>
+      <c r="C122" s="77" t="s">
+        <v>103</v>
       </c>
       <c r="D122" s="38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E122" s="38"/>
       <c r="F122" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G122" s="29"/>
       <c r="H122" s="39">
@@ -6014,14 +6167,14 @@
       </c>
       <c r="I122" s="39"/>
       <c r="J122" s="29">
-        <v>2</v>
-      </c>
-      <c r="K122" s="29"/>
-      <c r="L122" s="40"/>
-      <c r="M122" s="40"/>
+        <v>4</v>
+      </c>
+      <c r="K122" s="72"/>
+      <c r="L122" s="73"/>
+      <c r="M122" s="73"/>
       <c r="N122" s="28">
-        <f t="shared" si="48"/>
-        <v>10</v>
+        <f t="shared" si="47"/>
+        <v>9</v>
       </c>
       <c r="O122" s="29">
         <f t="shared" si="48"/>
@@ -6032,33 +6185,33 @@
       <c r="A123" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B123" s="92">
-        <v>42390</v>
-      </c>
-      <c r="C123" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="D123" s="38">
-        <v>1</v>
-      </c>
-      <c r="E123" s="38"/>
-      <c r="F123" s="29">
-        <v>2</v>
-      </c>
-      <c r="G123" s="29"/>
-      <c r="H123" s="39">
-        <v>2</v>
-      </c>
-      <c r="I123" s="39"/>
-      <c r="J123" s="29">
-        <v>2</v>
-      </c>
-      <c r="K123" s="29"/>
-      <c r="L123" s="40"/>
-      <c r="M123" s="40"/>
+      <c r="B123" s="90">
+        <v>42388</v>
+      </c>
+      <c r="C123" s="87" t="s">
+        <v>93</v>
+      </c>
+      <c r="D123" s="66">
+        <v>1</v>
+      </c>
+      <c r="E123" s="66"/>
+      <c r="F123" s="65">
+        <v>1</v>
+      </c>
+      <c r="G123" s="65"/>
+      <c r="H123" s="67">
+        <v>5</v>
+      </c>
+      <c r="I123" s="67"/>
+      <c r="J123" s="65">
+        <v>1</v>
+      </c>
+      <c r="K123" s="65"/>
+      <c r="L123" s="64"/>
+      <c r="M123" s="64"/>
       <c r="N123" s="28">
-        <f t="shared" si="48"/>
-        <v>7</v>
+        <f t="shared" si="47"/>
+        <v>8</v>
       </c>
       <c r="O123" s="29">
         <f t="shared" si="48"/>
@@ -6069,36 +6222,36 @@
       <c r="A124" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B124" s="92">
-        <v>42390</v>
-      </c>
-      <c r="C124" s="74" t="s">
-        <v>105</v>
-      </c>
-      <c r="D124" s="38">
-        <v>1</v>
-      </c>
-      <c r="E124" s="38"/>
-      <c r="F124" s="29">
-        <v>2</v>
-      </c>
-      <c r="G124" s="29"/>
-      <c r="H124" s="39">
-        <v>2</v>
-      </c>
-      <c r="I124" s="39"/>
-      <c r="J124" s="29">
-        <v>2</v>
-      </c>
-      <c r="K124" s="29"/>
-      <c r="L124" s="40"/>
-      <c r="M124" s="40"/>
+      <c r="B124" s="90">
+        <v>42388</v>
+      </c>
+      <c r="C124" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="D124" s="62">
+        <v>2</v>
+      </c>
+      <c r="E124" s="62"/>
+      <c r="F124" s="61">
+        <v>2</v>
+      </c>
+      <c r="G124" s="61"/>
+      <c r="H124" s="63">
+        <v>2</v>
+      </c>
+      <c r="I124" s="63"/>
+      <c r="J124" s="65">
+        <v>2</v>
+      </c>
+      <c r="K124" s="65"/>
+      <c r="L124" s="64"/>
+      <c r="M124" s="64"/>
       <c r="N124" s="28">
-        <f t="shared" ref="N124:O129" si="49">D124+F124+H124+J124+L124</f>
-        <v>7</v>
+        <f t="shared" si="47"/>
+        <v>8</v>
       </c>
       <c r="O124" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -6106,36 +6259,36 @@
       <c r="A125" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B125" s="92">
-        <v>42391</v>
+      <c r="B125" s="90">
+        <v>42388</v>
       </c>
       <c r="C125" s="74" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="D125" s="38">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="E125" s="38"/>
       <c r="F125" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G125" s="29"/>
       <c r="H125" s="39">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I125" s="39"/>
       <c r="J125" s="29">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K125" s="29"/>
       <c r="L125" s="40"/>
       <c r="M125" s="40"/>
       <c r="N125" s="28">
-        <f t="shared" si="49"/>
-        <v>2.5</v>
+        <f t="shared" si="47"/>
+        <v>10</v>
       </c>
       <c r="O125" s="29">
-        <f t="shared" ref="O125:O130" si="50">E125+G125+I125+K125+M125</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -6143,36 +6296,36 @@
       <c r="A126" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B126" s="92">
-        <v>42391</v>
-      </c>
-      <c r="C126" s="89" t="s">
-        <v>111</v>
-      </c>
-      <c r="D126" s="66">
-        <v>6</v>
-      </c>
-      <c r="E126" s="66"/>
-      <c r="F126" s="65">
-        <v>4</v>
-      </c>
-      <c r="G126" s="65"/>
-      <c r="H126" s="67">
-        <v>4</v>
-      </c>
-      <c r="I126" s="67"/>
-      <c r="J126" s="65">
-        <v>4</v>
-      </c>
-      <c r="K126" s="65"/>
-      <c r="L126" s="64"/>
-      <c r="M126" s="64"/>
+      <c r="B126" s="90">
+        <v>42388</v>
+      </c>
+      <c r="C126" s="74" t="s">
+        <v>97</v>
+      </c>
+      <c r="D126" s="38">
+        <v>2</v>
+      </c>
+      <c r="E126" s="38"/>
+      <c r="F126" s="29">
+        <v>4</v>
+      </c>
+      <c r="G126" s="29"/>
+      <c r="H126" s="39">
+        <v>4</v>
+      </c>
+      <c r="I126" s="39"/>
+      <c r="J126" s="29">
+        <v>2</v>
+      </c>
+      <c r="K126" s="29"/>
+      <c r="L126" s="40"/>
+      <c r="M126" s="40"/>
       <c r="N126" s="28">
-        <f t="shared" si="49"/>
-        <v>18</v>
+        <f t="shared" si="47"/>
+        <v>12</v>
       </c>
       <c r="O126" s="29">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -6180,36 +6333,36 @@
       <c r="A127" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B127" s="92">
-        <v>42391</v>
-      </c>
-      <c r="C127" s="89" t="s">
-        <v>101</v>
-      </c>
-      <c r="D127" s="66">
-        <v>1</v>
-      </c>
-      <c r="E127" s="66"/>
-      <c r="F127" s="65">
-        <v>4</v>
-      </c>
-      <c r="G127" s="65"/>
-      <c r="H127" s="67">
-        <v>4</v>
-      </c>
-      <c r="I127" s="67"/>
-      <c r="J127" s="65">
-        <v>4</v>
-      </c>
-      <c r="K127" s="65"/>
-      <c r="L127" s="64"/>
-      <c r="M127" s="64"/>
+      <c r="B127" s="90">
+        <v>42388</v>
+      </c>
+      <c r="C127" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="D127" s="38">
+        <v>2</v>
+      </c>
+      <c r="E127" s="38"/>
+      <c r="F127" s="29">
+        <v>2</v>
+      </c>
+      <c r="G127" s="29"/>
+      <c r="H127" s="39">
+        <v>2</v>
+      </c>
+      <c r="I127" s="39"/>
+      <c r="J127" s="29">
+        <v>4</v>
+      </c>
+      <c r="K127" s="29"/>
+      <c r="L127" s="40"/>
+      <c r="M127" s="40"/>
       <c r="N127" s="28">
-        <f t="shared" si="49"/>
-        <v>13</v>
+        <f t="shared" si="47"/>
+        <v>10</v>
       </c>
       <c r="O127" s="29">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -6217,36 +6370,36 @@
       <c r="A128" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B128" s="92">
-        <v>42391</v>
-      </c>
-      <c r="C128" s="89" t="s">
-        <v>102</v>
-      </c>
-      <c r="D128" s="66">
-        <v>1</v>
-      </c>
-      <c r="E128" s="66"/>
-      <c r="F128" s="65">
-        <v>1</v>
-      </c>
-      <c r="G128" s="65"/>
-      <c r="H128" s="67">
-        <v>1</v>
-      </c>
-      <c r="I128" s="67"/>
-      <c r="J128" s="65">
-        <v>1</v>
-      </c>
-      <c r="K128" s="65"/>
-      <c r="L128" s="64"/>
-      <c r="M128" s="64"/>
+      <c r="B128" s="90">
+        <v>42389</v>
+      </c>
+      <c r="C128" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D128" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="E128" s="38"/>
+      <c r="F128" s="29">
+        <v>1</v>
+      </c>
+      <c r="G128" s="29"/>
+      <c r="H128" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="I128" s="39"/>
+      <c r="J128" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="K128" s="29"/>
+      <c r="L128" s="40"/>
+      <c r="M128" s="40"/>
       <c r="N128" s="28">
-        <f t="shared" si="49"/>
-        <v>4</v>
+        <f t="shared" si="47"/>
+        <v>2.5</v>
       </c>
       <c r="O128" s="29">
-        <f t="shared" si="50"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -6254,158 +6407,684 @@
       <c r="A129" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B129" s="92">
-        <v>42391</v>
-      </c>
-      <c r="C129" s="89" t="s">
-        <v>106</v>
-      </c>
-      <c r="D129" s="66">
-        <v>2</v>
-      </c>
-      <c r="E129" s="66"/>
-      <c r="F129" s="65">
-        <v>1</v>
-      </c>
-      <c r="G129" s="65"/>
-      <c r="H129" s="67">
-        <v>1</v>
-      </c>
-      <c r="I129" s="67"/>
-      <c r="J129" s="65">
-        <v>1</v>
-      </c>
-      <c r="K129" s="65"/>
-      <c r="L129" s="64"/>
-      <c r="M129" s="64"/>
+      <c r="B129" s="90">
+        <v>42389</v>
+      </c>
+      <c r="C129" s="74" t="s">
+        <v>108</v>
+      </c>
+      <c r="D129" s="38">
+        <v>4</v>
+      </c>
+      <c r="E129" s="38"/>
+      <c r="F129" s="29">
+        <v>2</v>
+      </c>
+      <c r="G129" s="29"/>
+      <c r="H129" s="39">
+        <v>2</v>
+      </c>
+      <c r="I129" s="39"/>
+      <c r="J129" s="29">
+        <v>2</v>
+      </c>
+      <c r="K129" s="29"/>
+      <c r="L129" s="40"/>
+      <c r="M129" s="40"/>
       <c r="N129" s="28">
+        <f t="shared" si="47"/>
+        <v>10</v>
+      </c>
+      <c r="O129" s="29">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A130" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" s="90">
+        <v>42389</v>
+      </c>
+      <c r="C130" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="D130" s="38">
+        <v>2</v>
+      </c>
+      <c r="E130" s="38"/>
+      <c r="F130" s="29">
+        <v>3</v>
+      </c>
+      <c r="G130" s="29"/>
+      <c r="H130" s="39">
+        <v>4</v>
+      </c>
+      <c r="I130" s="39"/>
+      <c r="J130" s="29">
+        <v>2</v>
+      </c>
+      <c r="K130" s="72"/>
+      <c r="L130" s="73"/>
+      <c r="M130" s="73"/>
+      <c r="N130" s="28">
+        <f t="shared" ref="N116:N135" si="49">D130+F130+H130+J130+L130</f>
+        <v>11</v>
+      </c>
+      <c r="O130" s="29">
+        <f t="shared" ref="O116:O135" si="50">E130+G130+I130+K130+M130</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A131" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="90">
+        <v>42389</v>
+      </c>
+      <c r="C131" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="D131" s="38">
+        <v>4</v>
+      </c>
+      <c r="E131" s="38"/>
+      <c r="F131" s="29">
+        <v>2</v>
+      </c>
+      <c r="G131" s="29"/>
+      <c r="H131" s="39">
+        <v>2</v>
+      </c>
+      <c r="I131" s="39"/>
+      <c r="J131" s="29">
+        <v>2</v>
+      </c>
+      <c r="K131" s="29"/>
+      <c r="L131" s="40"/>
+      <c r="M131" s="40"/>
+      <c r="N131" s="28">
         <f t="shared" si="49"/>
-        <v>5</v>
-      </c>
-      <c r="O129" s="29">
+        <v>10</v>
+      </c>
+      <c r="O131" s="29">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A130" s="30" t="s">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A132" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B130" s="93">
-        <v>42391</v>
-      </c>
-      <c r="C130" s="87" t="s">
-        <v>55</v>
-      </c>
-      <c r="D130" s="97">
-        <v>2</v>
-      </c>
-      <c r="E130" s="97"/>
-      <c r="F130" s="36">
-        <v>1</v>
-      </c>
-      <c r="G130" s="36"/>
-      <c r="H130" s="98">
-        <v>1</v>
-      </c>
-      <c r="I130" s="98"/>
-      <c r="J130" s="36">
-        <v>1</v>
-      </c>
-      <c r="K130" s="36"/>
-      <c r="L130" s="41"/>
-      <c r="M130" s="41"/>
-      <c r="N130" s="35">
-        <f t="shared" ref="N130" si="51">D130+F130+H130+J130+L130</f>
-        <v>5</v>
-      </c>
-      <c r="O130" s="36">
+      <c r="B132" s="90">
+        <v>42389</v>
+      </c>
+      <c r="C132" s="74" t="s">
+        <v>99</v>
+      </c>
+      <c r="D132" s="38">
+        <v>1</v>
+      </c>
+      <c r="E132" s="38"/>
+      <c r="F132" s="29">
+        <v>2</v>
+      </c>
+      <c r="G132" s="29"/>
+      <c r="H132" s="39">
+        <v>4</v>
+      </c>
+      <c r="I132" s="39"/>
+      <c r="J132" s="29">
+        <v>2</v>
+      </c>
+      <c r="K132" s="29"/>
+      <c r="L132" s="40"/>
+      <c r="M132" s="40"/>
+      <c r="N132" s="28">
+        <f t="shared" si="49"/>
+        <v>9</v>
+      </c>
+      <c r="O132" s="29">
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A131" s="78"/>
-      <c r="B131" s="85"/>
-      <c r="C131" s="78"/>
-      <c r="D131" s="79"/>
-      <c r="E131" s="79"/>
-      <c r="F131" s="78"/>
-      <c r="G131" s="78"/>
-      <c r="H131" s="80"/>
-      <c r="I131" s="80"/>
-      <c r="J131" s="100" t="s">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A133" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" s="90">
+        <v>42389</v>
+      </c>
+      <c r="C133" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="D133" s="38">
+        <v>1</v>
+      </c>
+      <c r="E133" s="38"/>
+      <c r="F133" s="29">
+        <v>2</v>
+      </c>
+      <c r="G133" s="29"/>
+      <c r="H133" s="39">
+        <v>2</v>
+      </c>
+      <c r="I133" s="39"/>
+      <c r="J133" s="29">
+        <v>4</v>
+      </c>
+      <c r="K133" s="29"/>
+      <c r="L133" s="40"/>
+      <c r="M133" s="40"/>
+      <c r="N133" s="28">
+        <f t="shared" si="49"/>
+        <v>9</v>
+      </c>
+      <c r="O133" s="29">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A134" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" s="90">
+        <v>42390</v>
+      </c>
+      <c r="C134" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D134" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="E134" s="38"/>
+      <c r="F134" s="29">
+        <v>1</v>
+      </c>
+      <c r="G134" s="29"/>
+      <c r="H134" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="I134" s="39"/>
+      <c r="J134" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="K134" s="29"/>
+      <c r="L134" s="40"/>
+      <c r="M134" s="40"/>
+      <c r="N134" s="28">
+        <f t="shared" si="49"/>
+        <v>2.5</v>
+      </c>
+      <c r="O134" s="29">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A135" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" s="90">
+        <v>42390</v>
+      </c>
+      <c r="C135" s="74" t="s">
+        <v>110</v>
+      </c>
+      <c r="D135" s="38">
+        <v>4</v>
+      </c>
+      <c r="E135" s="38"/>
+      <c r="F135" s="29">
+        <v>2</v>
+      </c>
+      <c r="G135" s="29"/>
+      <c r="H135" s="39">
+        <v>2</v>
+      </c>
+      <c r="I135" s="39"/>
+      <c r="J135" s="29">
+        <v>2</v>
+      </c>
+      <c r="K135" s="29"/>
+      <c r="L135" s="40"/>
+      <c r="M135" s="40"/>
+      <c r="N135" s="28">
+        <f t="shared" si="49"/>
+        <v>10</v>
+      </c>
+      <c r="O135" s="29">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A136" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" s="90">
+        <v>42390</v>
+      </c>
+      <c r="C136" s="74" t="s">
+        <v>132</v>
+      </c>
+      <c r="D136" s="38"/>
+      <c r="E136" s="38"/>
+      <c r="F136" s="29"/>
+      <c r="G136" s="29"/>
+      <c r="H136" s="39"/>
+      <c r="I136" s="39"/>
+      <c r="J136" s="29"/>
+      <c r="K136" s="29"/>
+      <c r="L136" s="40"/>
+      <c r="M136" s="40"/>
+      <c r="N136" s="28">
+        <f t="shared" ref="N136:N143" si="51">D136+F136+H136+J136+L136</f>
+        <v>0</v>
+      </c>
+      <c r="O136" s="29">
+        <f t="shared" ref="O136:O143" si="52">E136+G136+I136+K136+M136</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A137" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" s="90">
+        <v>42390</v>
+      </c>
+      <c r="C137" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="D137" s="38">
+        <v>1</v>
+      </c>
+      <c r="E137" s="38"/>
+      <c r="F137" s="29">
+        <v>2</v>
+      </c>
+      <c r="G137" s="29"/>
+      <c r="H137" s="39">
+        <v>2</v>
+      </c>
+      <c r="I137" s="39"/>
+      <c r="J137" s="29">
+        <v>2</v>
+      </c>
+      <c r="K137" s="29"/>
+      <c r="L137" s="40"/>
+      <c r="M137" s="40"/>
+      <c r="N137" s="28">
+        <f t="shared" si="51"/>
+        <v>7</v>
+      </c>
+      <c r="O137" s="29">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A138" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" s="90">
+        <v>42390</v>
+      </c>
+      <c r="C138" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="D138" s="38">
+        <v>1</v>
+      </c>
+      <c r="E138" s="38"/>
+      <c r="F138" s="29">
+        <v>2</v>
+      </c>
+      <c r="G138" s="29"/>
+      <c r="H138" s="39">
+        <v>2</v>
+      </c>
+      <c r="I138" s="39"/>
+      <c r="J138" s="29">
+        <v>2</v>
+      </c>
+      <c r="K138" s="29"/>
+      <c r="L138" s="40"/>
+      <c r="M138" s="40"/>
+      <c r="N138" s="28">
+        <f t="shared" si="51"/>
+        <v>7</v>
+      </c>
+      <c r="O138" s="29">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A139" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" s="90">
+        <v>42391</v>
+      </c>
+      <c r="C139" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D139" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="E139" s="38"/>
+      <c r="F139" s="29">
+        <v>1</v>
+      </c>
+      <c r="G139" s="29"/>
+      <c r="H139" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="I139" s="39"/>
+      <c r="J139" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="K139" s="29"/>
+      <c r="L139" s="40"/>
+      <c r="M139" s="40"/>
+      <c r="N139" s="28">
+        <f t="shared" si="51"/>
+        <v>2.5</v>
+      </c>
+      <c r="O139" s="29">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A140" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" s="90">
+        <v>42391</v>
+      </c>
+      <c r="C140" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="D140" s="66">
+        <v>6</v>
+      </c>
+      <c r="E140" s="66"/>
+      <c r="F140" s="65">
+        <v>4</v>
+      </c>
+      <c r="G140" s="65"/>
+      <c r="H140" s="67">
+        <v>4</v>
+      </c>
+      <c r="I140" s="67"/>
+      <c r="J140" s="65">
+        <v>4</v>
+      </c>
+      <c r="K140" s="65"/>
+      <c r="L140" s="64"/>
+      <c r="M140" s="64"/>
+      <c r="N140" s="28">
+        <f t="shared" si="51"/>
+        <v>18</v>
+      </c>
+      <c r="O140" s="29">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A141" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" s="90">
+        <v>42391</v>
+      </c>
+      <c r="C141" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="D141" s="66">
+        <v>1</v>
+      </c>
+      <c r="E141" s="66"/>
+      <c r="F141" s="65">
+        <v>4</v>
+      </c>
+      <c r="G141" s="65"/>
+      <c r="H141" s="67">
+        <v>4</v>
+      </c>
+      <c r="I141" s="67"/>
+      <c r="J141" s="65">
+        <v>4</v>
+      </c>
+      <c r="K141" s="65"/>
+      <c r="L141" s="64"/>
+      <c r="M141" s="64"/>
+      <c r="N141" s="28">
+        <f t="shared" si="51"/>
+        <v>13</v>
+      </c>
+      <c r="O141" s="29">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A142" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" s="90">
+        <v>42391</v>
+      </c>
+      <c r="C142" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="D142" s="66">
+        <v>1</v>
+      </c>
+      <c r="E142" s="66"/>
+      <c r="F142" s="65">
+        <v>1</v>
+      </c>
+      <c r="G142" s="65"/>
+      <c r="H142" s="67">
+        <v>1</v>
+      </c>
+      <c r="I142" s="67"/>
+      <c r="J142" s="65">
+        <v>1</v>
+      </c>
+      <c r="K142" s="65"/>
+      <c r="L142" s="64"/>
+      <c r="M142" s="64"/>
+      <c r="N142" s="28">
+        <f t="shared" si="51"/>
+        <v>4</v>
+      </c>
+      <c r="O142" s="29">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A143" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" s="90">
+        <v>42391</v>
+      </c>
+      <c r="C143" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="D143" s="66">
+        <v>2</v>
+      </c>
+      <c r="E143" s="66"/>
+      <c r="F143" s="65">
+        <v>1</v>
+      </c>
+      <c r="G143" s="65"/>
+      <c r="H143" s="67">
+        <v>1</v>
+      </c>
+      <c r="I143" s="67"/>
+      <c r="J143" s="65">
+        <v>1</v>
+      </c>
+      <c r="K143" s="65"/>
+      <c r="L143" s="64"/>
+      <c r="M143" s="64"/>
+      <c r="N143" s="28">
+        <f t="shared" si="51"/>
+        <v>5</v>
+      </c>
+      <c r="O143" s="29">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A144" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" s="91">
+        <v>42391</v>
+      </c>
+      <c r="C144" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D144" s="94">
+        <v>2</v>
+      </c>
+      <c r="E144" s="94"/>
+      <c r="F144" s="36">
+        <v>1</v>
+      </c>
+      <c r="G144" s="36"/>
+      <c r="H144" s="95">
+        <v>1</v>
+      </c>
+      <c r="I144" s="95"/>
+      <c r="J144" s="36">
+        <v>1</v>
+      </c>
+      <c r="K144" s="36"/>
+      <c r="L144" s="41"/>
+      <c r="M144" s="41"/>
+      <c r="N144" s="35">
+        <f t="shared" si="45"/>
+        <v>5</v>
+      </c>
+      <c r="O144" s="36">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A145" s="78"/>
+      <c r="B145" s="83"/>
+      <c r="C145" s="78"/>
+      <c r="D145" s="79"/>
+      <c r="E145" s="79"/>
+      <c r="F145" s="78"/>
+      <c r="G145" s="78"/>
+      <c r="H145" s="80"/>
+      <c r="I145" s="80"/>
+      <c r="J145" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="K131" s="101"/>
-      <c r="L131" s="2"/>
-      <c r="M131" s="2"/>
-      <c r="N131" s="86">
-        <f>SUM(N108:N130)</f>
-        <v>183.5</v>
-      </c>
-      <c r="O131" s="84">
-        <f>SUM(O108:O130)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A132" s="4"/>
-      <c r="B132" s="59"/>
-      <c r="C132" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D132" s="6">
-        <f t="shared" ref="D132:M132" si="52">SUM(D4:D131)</f>
-        <v>167.14999999999998</v>
-      </c>
-      <c r="E132" s="6">
-        <f t="shared" si="52"/>
-        <v>87.399999999999991</v>
-      </c>
-      <c r="F132" s="6">
-        <f t="shared" si="52"/>
-        <v>164</v>
-      </c>
-      <c r="G132" s="6">
-        <f t="shared" si="52"/>
-        <v>87.55</v>
-      </c>
-      <c r="H132" s="6">
-        <f t="shared" si="52"/>
-        <v>159.5</v>
-      </c>
-      <c r="I132" s="6">
-        <f t="shared" si="52"/>
-        <v>87.05</v>
-      </c>
-      <c r="J132" s="6">
-        <f t="shared" si="52"/>
-        <v>169.5</v>
-      </c>
-      <c r="K132" s="6">
-        <f t="shared" si="52"/>
-        <v>90.05</v>
-      </c>
-      <c r="L132" s="6">
-        <f t="shared" si="52"/>
-        <v>0.5</v>
-      </c>
-      <c r="M132" s="6">
-        <f t="shared" si="52"/>
-        <v>0.5</v>
-      </c>
-      <c r="N132" s="4">
-        <f>D132+F132+H132+J132+L132</f>
-        <v>660.65</v>
-      </c>
-      <c r="O132" s="6">
-        <f>E132+G132+I132+K132+M132</f>
-        <v>352.55</v>
+      <c r="K145" s="97"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="84">
+        <f>SUM(N114:N144)</f>
+        <v>214.5</v>
+      </c>
+      <c r="O145" s="82">
+        <f>SUM(O114:O144)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A146" s="4"/>
+      <c r="B146" s="59"/>
+      <c r="C146" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D146" s="6">
+        <f t="shared" ref="D146:M146" si="53">SUM(D4:D145)</f>
+        <v>169.14999999999998</v>
+      </c>
+      <c r="E146" s="6">
+        <f t="shared" si="53"/>
+        <v>113.89999999999999</v>
+      </c>
+      <c r="F146" s="6">
+        <f t="shared" si="53"/>
+        <v>170.5</v>
+      </c>
+      <c r="G146" s="6">
+        <f t="shared" si="53"/>
+        <v>118.55</v>
+      </c>
+      <c r="H146" s="6">
+        <f t="shared" si="53"/>
+        <v>167.5</v>
+      </c>
+      <c r="I146" s="6">
+        <f t="shared" si="53"/>
+        <v>113.05</v>
+      </c>
+      <c r="J146" s="6">
+        <f t="shared" si="53"/>
+        <v>186.5</v>
+      </c>
+      <c r="K146" s="6">
+        <f t="shared" si="53"/>
+        <v>118.05</v>
+      </c>
+      <c r="L146" s="6">
+        <f t="shared" si="53"/>
+        <v>0.5</v>
+      </c>
+      <c r="M146" s="6">
+        <f t="shared" si="53"/>
+        <v>0.5</v>
+      </c>
+      <c r="N146" s="4">
+        <f>D146+F146+H146+J146+L146</f>
+        <v>694.15</v>
+      </c>
+      <c r="O146" s="6">
+        <f>E146+G146+I146+K146+M146</f>
+        <v>464.05</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="J145:K145"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="A77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="A113:I113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="J47:K47"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="E2:F2"/>
@@ -6414,22 +7093,6 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J131:K131"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="A77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="A107:I107"/>
-    <mergeCell ref="J107:K107"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="J47:K47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -6455,15 +7118,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -6624,29 +7292,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6664,26 +7343,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
+++ b/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="133">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -285,9 +285,6 @@
     <t>Feedback verwerken SA</t>
   </si>
   <si>
-    <t>Controle definitieve versie SA</t>
-  </si>
-  <si>
     <t>Programma kunnen draaien op RTOS</t>
   </si>
   <si>
@@ -390,9 +387,6 @@
     <t>Technisch verslag</t>
   </si>
   <si>
-    <t>17/12/2015</t>
-  </si>
-  <si>
     <t>STD verder afmaken</t>
   </si>
   <si>
@@ -424,6 +418,9 @@
   </si>
   <si>
     <t>Alle sensoren implementeren</t>
+  </si>
+  <si>
+    <t>Joost naar ziekenhuis</t>
   </si>
 </sst>
 </file>
@@ -434,7 +431,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -442,6 +439,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -477,8 +475,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -521,8 +524,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -660,11 +668,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -938,10 +962,28 @@
     <xf numFmtId="164" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -959,26 +1001,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Notitie" xfId="1" builtinId="10"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1281,11 +1318,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O146"/>
+  <dimension ref="A1:Q145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K120" sqref="K114:K120"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1313,18 +1350,18 @@
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="99" t="s">
+      <c r="E2" s="105" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="99"/>
+      <c r="F2" s="105"/>
       <c r="H2" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="104">
+      <c r="I2" s="102">
         <f ca="1">TODAY()</f>
-        <v>42387</v>
-      </c>
-      <c r="J2" s="104"/>
+        <v>42388</v>
+      </c>
+      <c r="J2" s="102"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
@@ -1376,43 +1413,43 @@
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="78"/>
       <c r="B4" s="58"/>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="102"/>
-      <c r="F4" s="97" t="s">
+      <c r="E4" s="108"/>
+      <c r="F4" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="97"/>
-      <c r="H4" s="103" t="s">
+      <c r="G4" s="101"/>
+      <c r="H4" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="103"/>
-      <c r="J4" s="97" t="s">
+      <c r="I4" s="109"/>
+      <c r="J4" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="97"/>
-      <c r="L4" s="100" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="106" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="107"/>
       <c r="N4" s="81"/>
       <c r="O4" s="78"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="98" t="s">
+      <c r="A5" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="101"/>
       <c r="L5" s="78"/>
       <c r="M5" s="78"/>
       <c r="N5" s="82"/>
@@ -1636,21 +1673,21 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="97" t="s">
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="97"/>
+      <c r="K11" s="101"/>
       <c r="L11" s="78"/>
       <c r="M11" s="78"/>
       <c r="N11" s="82">
@@ -2089,21 +2126,21 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="97" t="s">
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="100"/>
+      <c r="I22" s="100"/>
+      <c r="J22" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="97"/>
+      <c r="K22" s="101"/>
       <c r="L22" s="78"/>
       <c r="M22" s="78"/>
       <c r="N22" s="82">
@@ -2564,23 +2601,31 @@
       <c r="C34" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
+      <c r="D34" s="66">
+        <v>1</v>
+      </c>
+      <c r="E34" s="66">
+        <v>1</v>
+      </c>
       <c r="F34" s="65"/>
       <c r="G34" s="65"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="67"/>
+      <c r="H34" s="67">
+        <v>1</v>
+      </c>
+      <c r="I34" s="67">
+        <v>1</v>
+      </c>
       <c r="J34" s="65"/>
       <c r="K34" s="65"/>
       <c r="L34" s="64"/>
       <c r="M34" s="64"/>
       <c r="N34" s="28">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O34" s="29">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -2629,30 +2674,30 @@
       </c>
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="98" t="s">
+      <c r="A36" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="98"/>
-      <c r="C36" s="98"/>
-      <c r="D36" s="98"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="98"/>
-      <c r="G36" s="98"/>
-      <c r="H36" s="98"/>
-      <c r="I36" s="98"/>
-      <c r="J36" s="97" t="s">
+      <c r="B36" s="100"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="K36" s="97"/>
+      <c r="K36" s="101"/>
       <c r="L36" s="78"/>
       <c r="M36" s="78"/>
       <c r="N36" s="82">
         <f>SUM(N23:N35)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O36" s="82">
         <f>SUM(O23:O35)</f>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -3078,21 +3123,21 @@
       </c>
     </row>
     <row r="47" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="98" t="s">
+      <c r="A47" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="98"/>
-      <c r="C47" s="98"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="98"/>
-      <c r="F47" s="98"/>
-      <c r="G47" s="98"/>
-      <c r="H47" s="98"/>
-      <c r="I47" s="98"/>
-      <c r="J47" s="97" t="s">
+      <c r="B47" s="100"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="100"/>
+      <c r="E47" s="100"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
+      <c r="J47" s="101" t="s">
         <v>45</v>
       </c>
-      <c r="K47" s="97"/>
+      <c r="K47" s="101"/>
       <c r="L47" s="78"/>
       <c r="M47" s="78"/>
       <c r="N47" s="82">
@@ -3149,7 +3194,7 @@
         <v>42345</v>
       </c>
       <c r="C49" s="74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D49" s="38">
         <v>2</v>
@@ -3667,21 +3712,21 @@
       </c>
     </row>
     <row r="62" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="98" t="s">
+      <c r="A62" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="98"/>
-      <c r="C62" s="98"/>
-      <c r="D62" s="98"/>
-      <c r="E62" s="98"/>
-      <c r="F62" s="98"/>
-      <c r="G62" s="98"/>
-      <c r="H62" s="98"/>
-      <c r="I62" s="98"/>
-      <c r="J62" s="97" t="s">
+      <c r="B62" s="100"/>
+      <c r="C62" s="100"/>
+      <c r="D62" s="100"/>
+      <c r="E62" s="100"/>
+      <c r="F62" s="100"/>
+      <c r="G62" s="100"/>
+      <c r="H62" s="100"/>
+      <c r="I62" s="100"/>
+      <c r="J62" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="K62" s="97"/>
+      <c r="K62" s="101"/>
       <c r="L62" s="78"/>
       <c r="M62" s="78"/>
       <c r="N62" s="82">
@@ -3730,7 +3775,7 @@
       <c r="L63" s="73"/>
       <c r="M63" s="73"/>
       <c r="N63" s="21">
-        <f t="shared" ref="N63:O76" si="39">D63+F63+H63+J63+L63</f>
+        <f t="shared" ref="N63:O75" si="39">D63+F63+H63+J63+L63</f>
         <v>8</v>
       </c>
       <c r="O63" s="29">
@@ -3881,7 +3926,7 @@
         <v>42353</v>
       </c>
       <c r="C67" s="77" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D67" s="38">
         <v>1</v>
@@ -4016,7 +4061,7 @@
         <v>42354</v>
       </c>
       <c r="C70" s="77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D70" s="38">
         <v>0.3</v>
@@ -4049,7 +4094,7 @@
         <v>42354</v>
       </c>
       <c r="C71" s="74" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D71" s="38">
         <v>0.5</v>
@@ -4094,7 +4139,7 @@
         <v>42354</v>
       </c>
       <c r="C72" s="74" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D72" s="38">
         <v>1</v>
@@ -4135,8 +4180,8 @@
       <c r="A73" s="51">
         <v>6</v>
       </c>
-      <c r="B73" s="92" t="s">
-        <v>122</v>
+      <c r="B73" s="92">
+        <v>42355</v>
       </c>
       <c r="C73" s="74" t="s">
         <v>85</v>
@@ -4144,19 +4189,27 @@
       <c r="D73" s="38">
         <v>2</v>
       </c>
-      <c r="E73" s="38"/>
+      <c r="E73" s="38">
+        <v>2</v>
+      </c>
       <c r="F73" s="29">
         <v>2</v>
       </c>
-      <c r="G73" s="29"/>
+      <c r="G73" s="29">
+        <v>2</v>
+      </c>
       <c r="H73" s="39">
         <v>2</v>
       </c>
-      <c r="I73" s="39"/>
+      <c r="I73" s="39">
+        <v>2</v>
+      </c>
       <c r="J73" s="29">
         <v>2</v>
       </c>
-      <c r="K73" s="72"/>
+      <c r="K73" s="72">
+        <v>2</v>
+      </c>
       <c r="L73" s="73"/>
       <c r="M73" s="73"/>
       <c r="N73" s="28">
@@ -4165,7 +4218,7 @@
       </c>
       <c r="O73" s="29">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4181,19 +4234,27 @@
       <c r="D74" s="38">
         <v>2</v>
       </c>
-      <c r="E74" s="38"/>
+      <c r="E74" s="38">
+        <v>2</v>
+      </c>
       <c r="F74" s="29">
         <v>2</v>
       </c>
-      <c r="G74" s="29"/>
+      <c r="G74" s="29">
+        <v>2</v>
+      </c>
       <c r="H74" s="39">
         <v>2</v>
       </c>
-      <c r="I74" s="39"/>
+      <c r="I74" s="39">
+        <v>2</v>
+      </c>
       <c r="J74" s="29">
         <v>2</v>
       </c>
-      <c r="K74" s="72"/>
+      <c r="K74" s="72">
+        <v>2</v>
+      </c>
       <c r="L74" s="73"/>
       <c r="M74" s="73"/>
       <c r="N74" s="28">
@@ -4202,40 +4263,34 @@
       </c>
       <c r="O74" s="29">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="51">
+      <c r="A75" s="23">
         <v>6</v>
       </c>
       <c r="B75" s="92">
         <v>42356</v>
       </c>
       <c r="C75" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="D75" s="38">
-        <v>1</v>
-      </c>
-      <c r="E75" s="38"/>
-      <c r="F75" s="29">
-        <v>1</v>
-      </c>
-      <c r="G75" s="29"/>
-      <c r="H75" s="39">
-        <v>1</v>
-      </c>
-      <c r="I75" s="39"/>
-      <c r="J75" s="29">
-        <v>1</v>
-      </c>
-      <c r="K75" s="72"/>
-      <c r="L75" s="73"/>
-      <c r="M75" s="73"/>
+        <v>25</v>
+      </c>
+      <c r="D75" s="42">
+        <v>0.3</v>
+      </c>
+      <c r="E75" s="42"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="43"/>
+      <c r="I75" s="43"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="40"/>
+      <c r="M75" s="40"/>
       <c r="N75" s="28">
-        <f t="shared" si="39"/>
-        <v>4</v>
+        <f t="shared" ref="N75" si="40">D75+F75+H75+J75+L75</f>
+        <v>0.3</v>
       </c>
       <c r="O75" s="29">
         <f t="shared" si="39"/>
@@ -4243,106 +4298,120 @@
       </c>
     </row>
     <row r="76" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="23">
-        <v>6</v>
-      </c>
-      <c r="B76" s="92">
-        <v>42356</v>
-      </c>
-      <c r="C76" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="D76" s="42">
-        <v>0.3</v>
-      </c>
-      <c r="E76" s="42"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="43"/>
-      <c r="I76" s="43"/>
-      <c r="J76" s="23"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="40"/>
-      <c r="M76" s="40"/>
-      <c r="N76" s="28">
-        <f t="shared" ref="N76" si="40">D76+F76+H76+J76+L76</f>
-        <v>0.3</v>
-      </c>
-      <c r="O76" s="29">
-        <f t="shared" si="39"/>
-        <v>0</v>
+      <c r="A76" s="100" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76" s="100"/>
+      <c r="C76" s="100"/>
+      <c r="D76" s="100"/>
+      <c r="E76" s="100"/>
+      <c r="F76" s="100"/>
+      <c r="G76" s="100"/>
+      <c r="H76" s="100"/>
+      <c r="I76" s="100"/>
+      <c r="J76" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="K76" s="101"/>
+      <c r="L76" s="78"/>
+      <c r="M76" s="78"/>
+      <c r="N76" s="82">
+        <f>SUM(N63:N75)</f>
+        <v>62.849999999999994</v>
+      </c>
+      <c r="O76" s="82">
+        <f>SUM(O63:O75)</f>
+        <v>59.55</v>
       </c>
     </row>
     <row r="77" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="98" t="s">
-        <v>41</v>
-      </c>
-      <c r="B77" s="98"/>
-      <c r="C77" s="98"/>
-      <c r="D77" s="98"/>
-      <c r="E77" s="98"/>
-      <c r="F77" s="98"/>
-      <c r="G77" s="98"/>
-      <c r="H77" s="98"/>
-      <c r="I77" s="98"/>
-      <c r="J77" s="98" t="s">
-        <v>47</v>
-      </c>
-      <c r="K77" s="97"/>
-      <c r="L77" s="78"/>
-      <c r="M77" s="78"/>
-      <c r="N77" s="82">
-        <f>SUM(N63:N76)</f>
-        <v>66.849999999999994</v>
-      </c>
-      <c r="O77" s="82">
-        <f>SUM(O63:O76)</f>
-        <v>43.55</v>
+      <c r="A77" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="89">
+        <v>42380</v>
+      </c>
+      <c r="C77" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="D77" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="E77" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F77" s="29">
+        <v>1</v>
+      </c>
+      <c r="G77" s="29">
+        <v>1</v>
+      </c>
+      <c r="H77" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="I77" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="J77" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="K77" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="L77" s="37"/>
+      <c r="M77" s="37"/>
+      <c r="N77" s="21">
+        <f t="shared" ref="N77:O77" si="41">D77+F77+H77+J77+L77</f>
+        <v>2.5</v>
+      </c>
+      <c r="O77" s="22">
+        <f t="shared" si="41"/>
+        <v>2.5</v>
       </c>
     </row>
     <row r="78" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="89">
+      <c r="B78" s="92">
         <v>42380</v>
       </c>
-      <c r="C78" s="69" t="s">
-        <v>59</v>
+      <c r="C78" s="92" t="s">
+        <v>121</v>
       </c>
       <c r="D78" s="38">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E78" s="38">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="F78" s="29">
         <v>1</v>
       </c>
       <c r="G78" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H78" s="39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I78" s="39">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="J78" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K78" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="L78" s="37"/>
-      <c r="M78" s="37"/>
-      <c r="N78" s="21">
-        <f t="shared" ref="N78:O78" si="41">D78+F78+H78+J78+L78</f>
-        <v>2.5</v>
-      </c>
-      <c r="O78" s="22">
-        <f t="shared" si="41"/>
-        <v>2.5</v>
+        <v>0</v>
+      </c>
+      <c r="K78" s="72">
+        <v>0</v>
+      </c>
+      <c r="L78" s="73"/>
+      <c r="M78" s="73"/>
+      <c r="N78" s="96">
+        <f t="shared" ref="N78" si="42">D78+F78+H78+J78+L78</f>
+        <v>4</v>
+      </c>
+      <c r="O78" s="72">
+        <f t="shared" ref="O78" si="43">E78+G78+I78+K78+M78</f>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4353,37 +4422,41 @@
         <v>42380</v>
       </c>
       <c r="C79" s="92" t="s">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="D79" s="38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E79" s="38">
-        <v>4.5</v>
+        <v>0.25</v>
       </c>
       <c r="F79" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G79" s="29">
-        <v>3.5</v>
+        <v>0.25</v>
       </c>
       <c r="H79" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" s="39">
-        <v>3.5</v>
-      </c>
-      <c r="J79" s="29"/>
-      <c r="K79" s="72"/>
+        <v>0.25</v>
+      </c>
+      <c r="J79" s="29">
+        <v>2</v>
+      </c>
+      <c r="K79" s="72">
+        <v>0.25</v>
+      </c>
       <c r="L79" s="73"/>
       <c r="M79" s="73"/>
       <c r="N79" s="96">
-        <f t="shared" ref="N79:N112" si="42">D79+F79+H79+J79+L79</f>
-        <v>10</v>
+        <f t="shared" ref="N79:N111" si="44">D79+F79+H79+J79+L79</f>
+        <v>8</v>
       </c>
       <c r="O79" s="72">
-        <f t="shared" ref="O79:O112" si="43">E79+G79+I79+K79+M79</f>
-        <v>11.5</v>
+        <f t="shared" ref="O79:O111" si="45">E79+G79+I79+K79+M79</f>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4394,41 +4467,41 @@
         <v>42380</v>
       </c>
       <c r="C80" s="92" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="D80" s="38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E80" s="38">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F80" s="29">
         <v>2</v>
       </c>
       <c r="G80" s="29">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="H80" s="39">
         <v>2</v>
       </c>
       <c r="I80" s="39">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="J80" s="29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K80" s="72">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="L80" s="73"/>
       <c r="M80" s="73"/>
       <c r="N80" s="96">
-        <f t="shared" si="42"/>
-        <v>8</v>
+        <f t="shared" si="44"/>
+        <v>4</v>
       </c>
       <c r="O80" s="72">
-        <f t="shared" si="43"/>
-        <v>1</v>
+        <f t="shared" si="45"/>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4441,32 +4514,38 @@
       <c r="C81" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
+      <c r="D81" s="38">
+        <v>0</v>
+      </c>
+      <c r="E81" s="38">
+        <v>0</v>
+      </c>
       <c r="F81" s="29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G81" s="29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H81" s="39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" s="39">
-        <v>2</v>
-      </c>
-      <c r="J81" s="29"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="29">
+        <v>4</v>
+      </c>
       <c r="K81" s="72">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L81" s="73"/>
       <c r="M81" s="73"/>
       <c r="N81" s="96">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4</v>
       </c>
       <c r="O81" s="72">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
     </row>
@@ -4478,28 +4557,40 @@
         <v>42380</v>
       </c>
       <c r="C82" s="92" t="s">
-        <v>126</v>
-      </c>
-      <c r="D82" s="38"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="29"/>
-      <c r="G82" s="29"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="39"/>
+        <v>121</v>
+      </c>
+      <c r="D82" s="38">
+        <v>1</v>
+      </c>
+      <c r="E82" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="F82" s="29">
+        <v>1</v>
+      </c>
+      <c r="G82" s="29">
+        <v>1</v>
+      </c>
+      <c r="H82" s="39">
+        <v>1</v>
+      </c>
+      <c r="I82" s="39">
+        <v>2</v>
+      </c>
       <c r="J82" s="29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K82" s="72">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="L82" s="73"/>
       <c r="M82" s="73"/>
       <c r="N82" s="96">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>4</v>
       </c>
       <c r="O82" s="72">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
     </row>
@@ -4507,45 +4598,45 @@
       <c r="A83" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B83" s="92">
+      <c r="B83" s="90">
         <v>42380</v>
       </c>
-      <c r="C83" s="92" t="s">
-        <v>123</v>
+      <c r="C83" s="74" t="s">
+        <v>88</v>
       </c>
       <c r="D83" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83" s="38">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="F83" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83" s="29">
         <v>1</v>
       </c>
       <c r="H83" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" s="39">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="J83" s="29">
-        <v>1</v>
-      </c>
-      <c r="K83" s="72">
-        <v>0.5</v>
-      </c>
-      <c r="L83" s="73"/>
-      <c r="M83" s="73"/>
+        <v>2</v>
+      </c>
+      <c r="K83" s="29">
+        <v>1</v>
+      </c>
+      <c r="L83" s="40"/>
+      <c r="M83" s="40"/>
       <c r="N83" s="96">
-        <f t="shared" si="42"/>
-        <v>4</v>
+        <f t="shared" si="44"/>
+        <v>8</v>
       </c>
       <c r="O83" s="72">
-        <f t="shared" si="43"/>
-        <v>6.5</v>
+        <f t="shared" si="45"/>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4553,58 +4644,58 @@
         <v>8</v>
       </c>
       <c r="B84" s="90">
-        <v>42380</v>
+        <v>42381</v>
       </c>
       <c r="C84" s="74" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="D84" s="38">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="E84" s="38">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F84" s="29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G84" s="29">
         <v>1</v>
       </c>
       <c r="H84" s="39">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="I84" s="39">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J84" s="29">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="K84" s="29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L84" s="40"/>
       <c r="M84" s="40"/>
       <c r="N84" s="96">
-        <f t="shared" si="42"/>
-        <v>16</v>
+        <f t="shared" si="44"/>
+        <v>2.5</v>
       </c>
       <c r="O84" s="72">
-        <f t="shared" si="43"/>
-        <v>5</v>
+        <f t="shared" si="45"/>
+        <v>2.5</v>
       </c>
     </row>
     <row r="85" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="90">
+      <c r="B85" s="92">
         <v>42381</v>
       </c>
-      <c r="C85" s="74" t="s">
-        <v>59</v>
+      <c r="C85" s="92" t="s">
+        <v>121</v>
       </c>
       <c r="D85" s="38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E85" s="38">
         <v>0.5</v>
@@ -4616,26 +4707,26 @@
         <v>1</v>
       </c>
       <c r="H85" s="39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I85" s="39">
         <v>0.5</v>
       </c>
       <c r="J85" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K85" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="L85" s="40"/>
-      <c r="M85" s="40"/>
+        <v>1</v>
+      </c>
+      <c r="K85" s="72">
+        <v>0</v>
+      </c>
+      <c r="L85" s="73"/>
+      <c r="M85" s="73"/>
       <c r="N85" s="96">
-        <f t="shared" si="42"/>
-        <v>2.5</v>
+        <f t="shared" si="44"/>
+        <v>4</v>
       </c>
       <c r="O85" s="72">
-        <f t="shared" si="43"/>
-        <v>2.5</v>
+        <f t="shared" si="45"/>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4645,128 +4736,128 @@
       <c r="B86" s="92">
         <v>42381</v>
       </c>
-      <c r="C86" s="92" t="s">
-        <v>123</v>
+      <c r="C86" s="77" t="s">
+        <v>118</v>
       </c>
       <c r="D86" s="38">
         <v>1</v>
       </c>
       <c r="E86" s="38">
-        <v>2</v>
-      </c>
-      <c r="F86" s="29">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F86" s="29"/>
       <c r="G86" s="29">
-        <v>1</v>
-      </c>
-      <c r="H86" s="39">
-        <v>1</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="H86" s="39"/>
       <c r="I86" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J86" s="29">
         <v>1</v>
       </c>
       <c r="K86" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86" s="73"/>
       <c r="M86" s="73"/>
       <c r="N86" s="96">
-        <f t="shared" si="42"/>
-        <v>4</v>
+        <f t="shared" si="44"/>
+        <v>2</v>
       </c>
       <c r="O86" s="72">
-        <f t="shared" si="43"/>
-        <v>5</v>
+        <f t="shared" si="45"/>
+        <v>7.5</v>
       </c>
     </row>
     <row r="87" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="92">
+      <c r="B87" s="90">
         <v>42381</v>
       </c>
-      <c r="C87" s="77" t="s">
-        <v>119</v>
+      <c r="C87" s="74" t="s">
+        <v>89</v>
       </c>
       <c r="D87" s="38">
         <v>1</v>
       </c>
       <c r="E87" s="38">
+        <v>0</v>
+      </c>
+      <c r="F87" s="29">
+        <v>0</v>
+      </c>
+      <c r="G87" s="29">
+        <v>1</v>
+      </c>
+      <c r="H87" s="39">
+        <v>2</v>
+      </c>
+      <c r="I87" s="39">
+        <v>0</v>
+      </c>
+      <c r="J87" s="29">
+        <v>4</v>
+      </c>
+      <c r="K87" s="29">
+        <v>2</v>
+      </c>
+      <c r="L87" s="40"/>
+      <c r="M87" s="40"/>
+      <c r="N87" s="96">
+        <f t="shared" si="44"/>
+        <v>7</v>
+      </c>
+      <c r="O87" s="72">
+        <f t="shared" si="45"/>
         <v>3</v>
-      </c>
-      <c r="F87" s="29"/>
-      <c r="G87" s="29">
-        <v>1</v>
-      </c>
-      <c r="H87" s="39"/>
-      <c r="I87" s="39">
-        <v>3</v>
-      </c>
-      <c r="J87" s="29">
-        <v>1</v>
-      </c>
-      <c r="K87" s="72">
-        <v>1</v>
-      </c>
-      <c r="L87" s="73"/>
-      <c r="M87" s="73"/>
-      <c r="N87" s="96">
-        <f t="shared" si="42"/>
-        <v>2</v>
-      </c>
-      <c r="O87" s="72">
-        <f t="shared" si="43"/>
-        <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B88" s="90">
+      <c r="B88" s="92">
         <v>42381</v>
       </c>
-      <c r="C88" s="74" t="s">
-        <v>90</v>
+      <c r="C88" s="77" t="s">
+        <v>87</v>
       </c>
       <c r="D88" s="38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E88" s="38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F88" s="29">
         <v>2</v>
       </c>
       <c r="G88" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H88" s="39">
         <v>2</v>
       </c>
       <c r="I88" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J88" s="29">
+        <v>2</v>
+      </c>
+      <c r="K88" s="72">
+        <v>1</v>
+      </c>
+      <c r="L88" s="73"/>
+      <c r="M88" s="73"/>
+      <c r="N88" s="96">
+        <f t="shared" si="44"/>
         <v>8</v>
       </c>
-      <c r="K88" s="29">
-        <v>2</v>
-      </c>
-      <c r="L88" s="40"/>
-      <c r="M88" s="40"/>
-      <c r="N88" s="96">
-        <f t="shared" si="42"/>
-        <v>16</v>
-      </c>
       <c r="O88" s="72">
-        <f t="shared" si="43"/>
-        <v>5</v>
+        <f t="shared" si="45"/>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4776,98 +4867,98 @@
       <c r="B89" s="92">
         <v>42381</v>
       </c>
-      <c r="C89" s="77" t="s">
-        <v>88</v>
+      <c r="C89" s="74" t="s">
+        <v>80</v>
       </c>
       <c r="D89" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E89" s="38">
+        <v>1.5</v>
+      </c>
+      <c r="F89" s="29"/>
+      <c r="G89" s="29">
+        <v>1</v>
+      </c>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="J89" s="29">
         <v>3</v>
       </c>
-      <c r="F89" s="29">
-        <v>2</v>
-      </c>
-      <c r="G89" s="29">
-        <v>5</v>
-      </c>
-      <c r="H89" s="39">
-        <v>2</v>
-      </c>
-      <c r="I89" s="39">
-        <v>3</v>
-      </c>
-      <c r="J89" s="29">
-        <v>2</v>
-      </c>
-      <c r="K89" s="72">
-        <v>1</v>
-      </c>
+      <c r="K89" s="72"/>
       <c r="L89" s="73"/>
       <c r="M89" s="73"/>
       <c r="N89" s="96">
-        <f t="shared" si="42"/>
-        <v>8</v>
+        <f t="shared" si="44"/>
+        <v>4</v>
       </c>
       <c r="O89" s="72">
-        <f t="shared" si="43"/>
-        <v>12</v>
+        <f t="shared" si="45"/>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="92">
+      <c r="B90" s="90">
         <v>42381</v>
       </c>
       <c r="C90" s="74" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D90" s="38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E90" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="F90" s="29"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="29">
+        <v>2</v>
+      </c>
       <c r="G90" s="29">
         <v>1</v>
       </c>
-      <c r="H90" s="39"/>
+      <c r="H90" s="39">
+        <v>2</v>
+      </c>
       <c r="I90" s="39">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="J90" s="29">
-        <v>3</v>
-      </c>
-      <c r="K90" s="72"/>
-      <c r="L90" s="73"/>
-      <c r="M90" s="73"/>
+        <v>2</v>
+      </c>
+      <c r="K90" s="29">
+        <v>4</v>
+      </c>
+      <c r="L90" s="40"/>
+      <c r="M90" s="40"/>
       <c r="N90" s="96">
-        <f t="shared" si="42"/>
-        <v>6</v>
+        <f t="shared" si="44"/>
+        <v>7</v>
       </c>
       <c r="O90" s="72">
-        <f t="shared" si="43"/>
-        <v>4</v>
+        <f t="shared" si="45"/>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B91" s="90">
-        <v>42381</v>
-      </c>
-      <c r="C91" s="74" t="s">
-        <v>59</v>
+      <c r="B91" s="92">
+        <v>42382</v>
+      </c>
+      <c r="C91" s="77" t="s">
+        <v>121</v>
       </c>
       <c r="D91" s="38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E91" s="38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F91" s="29">
         <v>1</v>
@@ -4876,127 +4967,127 @@
         <v>1</v>
       </c>
       <c r="H91" s="39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I91" s="39">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="J91" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K91" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="L91" s="40"/>
-      <c r="M91" s="40"/>
+        <v>0</v>
+      </c>
+      <c r="K91" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="L91" s="73"/>
+      <c r="M91" s="73"/>
       <c r="N91" s="96">
-        <f t="shared" si="42"/>
-        <v>2.5</v>
+        <f t="shared" si="44"/>
+        <v>3</v>
       </c>
       <c r="O91" s="72">
-        <f t="shared" si="43"/>
-        <v>2.5</v>
+        <f t="shared" si="45"/>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="90">
-        <v>42381</v>
-      </c>
-      <c r="C92" s="74" t="s">
-        <v>91</v>
+      <c r="B92" s="92">
+        <v>42382</v>
+      </c>
+      <c r="C92" s="77" t="s">
+        <v>95</v>
       </c>
       <c r="D92" s="38">
+        <v>1</v>
+      </c>
+      <c r="E92" s="38">
+        <v>0</v>
+      </c>
+      <c r="F92" s="29">
+        <v>1</v>
+      </c>
+      <c r="G92" s="29">
+        <v>2</v>
+      </c>
+      <c r="H92" s="39">
+        <v>1</v>
+      </c>
+      <c r="I92" s="39">
+        <v>1</v>
+      </c>
+      <c r="J92" s="29">
+        <v>2</v>
+      </c>
+      <c r="K92" s="72">
+        <v>1.5</v>
+      </c>
+      <c r="L92" s="73"/>
+      <c r="M92" s="73"/>
+      <c r="N92" s="96">
+        <f t="shared" si="44"/>
         <v>5</v>
       </c>
-      <c r="E92" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="F92" s="29">
-        <v>5</v>
-      </c>
-      <c r="G92" s="29">
-        <v>1</v>
-      </c>
-      <c r="H92" s="39">
-        <v>5</v>
-      </c>
-      <c r="I92" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="J92" s="29">
-        <v>5</v>
-      </c>
-      <c r="K92" s="29">
-        <v>4</v>
-      </c>
-      <c r="L92" s="40"/>
-      <c r="M92" s="40"/>
-      <c r="N92" s="96">
-        <f t="shared" si="42"/>
-        <v>20</v>
-      </c>
       <c r="O92" s="72">
-        <f t="shared" si="43"/>
-        <v>6</v>
+        <f t="shared" si="45"/>
+        <v>4.5</v>
       </c>
     </row>
     <row r="93" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B93" s="92">
+      <c r="B93" s="90">
         <v>42382</v>
       </c>
-      <c r="C93" s="77" t="s">
-        <v>123</v>
+      <c r="C93" s="74" t="s">
+        <v>106</v>
       </c>
       <c r="D93" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E93" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G93" s="29">
         <v>1</v>
       </c>
       <c r="H93" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" s="39">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="J93" s="29">
-        <v>0</v>
-      </c>
-      <c r="K93" s="72">
-        <v>0.5</v>
-      </c>
-      <c r="L93" s="73"/>
-      <c r="M93" s="73"/>
+        <v>1</v>
+      </c>
+      <c r="K93" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="L93" s="40"/>
+      <c r="M93" s="40"/>
       <c r="N93" s="96">
-        <f t="shared" si="42"/>
-        <v>3</v>
+        <f t="shared" si="44"/>
+        <v>7</v>
       </c>
       <c r="O93" s="72">
-        <f t="shared" si="43"/>
-        <v>4</v>
+        <f t="shared" si="45"/>
+        <v>5.5</v>
       </c>
     </row>
     <row r="94" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="92">
+      <c r="B94" s="90">
         <v>42382</v>
       </c>
-      <c r="C94" s="77" t="s">
-        <v>96</v>
+      <c r="C94" s="74" t="s">
+        <v>111</v>
       </c>
       <c r="D94" s="38">
         <v>1</v>
@@ -5005,32 +5096,32 @@
         <v>0</v>
       </c>
       <c r="F94" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G94" s="29">
         <v>2</v>
       </c>
       <c r="H94" s="39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I94" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J94" s="29">
-        <v>3</v>
-      </c>
-      <c r="K94" s="72">
-        <v>2</v>
-      </c>
-      <c r="L94" s="73"/>
-      <c r="M94" s="73"/>
+        <v>1</v>
+      </c>
+      <c r="K94" s="29">
+        <v>2</v>
+      </c>
+      <c r="L94" s="40"/>
+      <c r="M94" s="40"/>
       <c r="N94" s="96">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
+        <v>7</v>
+      </c>
+      <c r="O94" s="72">
+        <f t="shared" si="45"/>
         <v>6</v>
-      </c>
-      <c r="O94" s="72">
-        <f t="shared" si="43"/>
-        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -5041,44 +5132,42 @@
         <v>42382</v>
       </c>
       <c r="C95" s="74" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="D95" s="38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E95" s="38">
         <v>0</v>
       </c>
       <c r="F95" s="29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G95" s="29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H95" s="39">
-        <v>2</v>
-      </c>
-      <c r="I95" s="39">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" s="39"/>
       <c r="J95" s="29">
         <v>2</v>
       </c>
       <c r="K95" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L95" s="40"/>
       <c r="M95" s="40"/>
       <c r="N95" s="96">
-        <f t="shared" si="42"/>
-        <v>10</v>
+        <f t="shared" si="44"/>
+        <v>3</v>
       </c>
       <c r="O95" s="72">
-        <f t="shared" si="43"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="45"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="23" t="s">
         <v>8</v>
       </c>
@@ -5086,28 +5175,28 @@
         <v>42382</v>
       </c>
       <c r="C96" s="74" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D96" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96" s="38">
         <v>0</v>
       </c>
       <c r="F96" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G96" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H96" s="39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I96" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K96" s="29">
         <v>2</v>
@@ -5115,58 +5204,44 @@
       <c r="L96" s="40"/>
       <c r="M96" s="40"/>
       <c r="N96" s="96">
-        <f t="shared" si="42"/>
-        <v>10</v>
+        <f t="shared" ref="N96:N100" si="46">D96+F96+H96+J96+L96</f>
+        <v>8</v>
       </c>
       <c r="O96" s="72">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="O96:O100" si="47">E96+G96+I96+K96+M96</f>
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="23" t="s">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A97" s="110"/>
+      <c r="B97" s="111">
+        <v>42382</v>
+      </c>
+      <c r="C97" s="112" t="s">
+        <v>132</v>
+      </c>
+      <c r="D97" s="113"/>
+      <c r="E97" s="113">
         <v>8</v>
       </c>
-      <c r="B97" s="90">
-        <v>42382</v>
-      </c>
-      <c r="C97" s="74" t="s">
-        <v>131</v>
-      </c>
-      <c r="D97" s="38">
-        <v>1</v>
-      </c>
-      <c r="E97" s="38">
-        <v>0</v>
-      </c>
-      <c r="F97" s="29">
-        <v>0</v>
-      </c>
-      <c r="G97" s="29">
-        <v>2</v>
-      </c>
-      <c r="H97" s="39">
-        <v>0</v>
-      </c>
-      <c r="I97" s="39"/>
-      <c r="J97" s="29">
-        <v>2</v>
-      </c>
-      <c r="K97" s="29">
-        <v>3</v>
-      </c>
-      <c r="L97" s="40"/>
-      <c r="M97" s="40"/>
+      <c r="F97" s="113"/>
+      <c r="G97" s="113"/>
+      <c r="H97" s="113"/>
+      <c r="I97" s="113"/>
+      <c r="J97" s="113"/>
+      <c r="K97" s="113"/>
+      <c r="L97" s="113"/>
+      <c r="M97" s="113"/>
       <c r="N97" s="96">
-        <f t="shared" si="42"/>
-        <v>3</v>
+        <f t="shared" ref="N97:N98" si="48">D97+F97+H97+J97+L97</f>
+        <v>0</v>
       </c>
       <c r="O97" s="72">
-        <f t="shared" si="43"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" ref="O97:O98" si="49">E97+G97+I97+K97+M97</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="23" t="s">
         <v>8</v>
       </c>
@@ -5174,44 +5249,44 @@
         <v>42383</v>
       </c>
       <c r="C98" s="74" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="D98" s="38">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E98" s="38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F98" s="29">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="G98" s="29">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H98" s="39">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I98" s="39">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J98" s="29">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="K98" s="29">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="L98" s="40"/>
       <c r="M98" s="40"/>
       <c r="N98" s="96">
-        <f t="shared" si="42"/>
-        <v>10</v>
+        <f t="shared" si="48"/>
+        <v>2</v>
       </c>
       <c r="O98" s="72">
-        <f t="shared" si="43"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="49"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="23" t="s">
         <v>8</v>
       </c>
@@ -5219,44 +5294,44 @@
         <v>42383</v>
       </c>
       <c r="C99" s="74" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D99" s="38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E99" s="38">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="F99" s="29">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G99" s="29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H99" s="39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I99" s="39">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="J99" s="29">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K99" s="29">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="L99" s="40"/>
       <c r="M99" s="40"/>
       <c r="N99" s="96">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>2</v>
       </c>
       <c r="O99" s="72">
-        <f t="shared" si="43"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="47"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="23" t="s">
         <v>8</v>
       </c>
@@ -5264,44 +5339,48 @@
         <v>42383</v>
       </c>
       <c r="C100" s="74" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="D100" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100" s="38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F100" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G100" s="29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" s="39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J100" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K100" s="29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L100" s="40"/>
       <c r="M100" s="40"/>
       <c r="N100" s="96">
-        <f t="shared" si="42"/>
-        <v>2</v>
+        <f t="shared" si="46"/>
+        <v>8</v>
       </c>
       <c r="O100" s="72">
-        <f t="shared" si="43"/>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="47"/>
+        <v>5</v>
+      </c>
+      <c r="Q100">
+        <f>4*(5*8.5)</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="23" t="s">
         <v>8</v>
       </c>
@@ -5309,44 +5388,44 @@
         <v>42383</v>
       </c>
       <c r="C101" s="74" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D101" s="38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E101" s="38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" s="29">
         <v>2</v>
       </c>
       <c r="G101" s="29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H101" s="39">
         <v>2</v>
       </c>
       <c r="I101" s="39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K101" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L101" s="40"/>
       <c r="M101" s="40"/>
       <c r="N101" s="96">
-        <f t="shared" si="42"/>
-        <v>10</v>
+        <f t="shared" si="44"/>
+        <v>9</v>
       </c>
       <c r="O101" s="72">
-        <f t="shared" si="43"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="45"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="23" t="s">
         <v>8</v>
       </c>
@@ -5354,44 +5433,44 @@
         <v>42383</v>
       </c>
       <c r="C102" s="74" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="D102" s="38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E102" s="38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F102" s="29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G102" s="29">
         <v>1</v>
       </c>
       <c r="H102" s="39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I102" s="39">
         <v>2</v>
       </c>
       <c r="J102" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K102" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L102" s="40"/>
       <c r="M102" s="40"/>
       <c r="N102" s="96">
-        <f t="shared" si="42"/>
-        <v>15</v>
+        <f t="shared" si="44"/>
+        <v>6</v>
       </c>
       <c r="O102" s="72">
-        <f t="shared" si="43"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="45"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="23" t="s">
         <v>8</v>
       </c>
@@ -5399,120 +5478,128 @@
         <v>42383</v>
       </c>
       <c r="C103" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="D103" s="38"/>
-      <c r="E103" s="38"/>
-      <c r="F103" s="29"/>
-      <c r="G103" s="29"/>
-      <c r="H103" s="39"/>
+        <v>129</v>
+      </c>
+      <c r="D103" s="38">
+        <v>0</v>
+      </c>
+      <c r="E103" s="38">
+        <v>2</v>
+      </c>
+      <c r="F103" s="29">
+        <v>3</v>
+      </c>
+      <c r="G103" s="29">
+        <v>2</v>
+      </c>
+      <c r="H103" s="39">
+        <v>0</v>
+      </c>
       <c r="I103" s="39">
-        <v>2</v>
-      </c>
-      <c r="J103" s="29"/>
-      <c r="K103" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="J103" s="29">
+        <v>2</v>
+      </c>
+      <c r="K103" s="29">
+        <v>3</v>
+      </c>
       <c r="L103" s="40"/>
       <c r="M103" s="40"/>
       <c r="N103" s="96">
-        <f t="shared" si="42"/>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>5</v>
       </c>
       <c r="O103" s="72">
-        <f t="shared" si="43"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="45"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B104" s="90">
-        <v>42383</v>
+        <v>42384</v>
       </c>
       <c r="C104" s="74" t="s">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="D104" s="38">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E104" s="38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F104" s="29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G104" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H104" s="39">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I104" s="39">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J104" s="29">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="K104" s="29">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="L104" s="40"/>
       <c r="M104" s="40"/>
       <c r="N104" s="96">
-        <f t="shared" si="42"/>
-        <v>8</v>
+        <f t="shared" si="44"/>
+        <v>2.5</v>
       </c>
       <c r="O104" s="72">
-        <f t="shared" si="43"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="45"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B105" s="90">
         <v>42384</v>
       </c>
-      <c r="C105" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="D105" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="E105" s="38">
-        <v>1</v>
-      </c>
-      <c r="F105" s="29">
-        <v>1</v>
-      </c>
-      <c r="G105" s="29">
-        <v>1</v>
-      </c>
-      <c r="H105" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="I105" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="J105" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K105" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="L105" s="40"/>
-      <c r="M105" s="40"/>
+      <c r="C105" s="87" t="s">
+        <v>125</v>
+      </c>
+      <c r="D105" s="66">
+        <v>3</v>
+      </c>
+      <c r="E105" s="66">
+        <v>3</v>
+      </c>
+      <c r="F105" s="65">
+        <v>0</v>
+      </c>
+      <c r="G105" s="65">
+        <v>0</v>
+      </c>
+      <c r="H105" s="67"/>
+      <c r="I105" s="67">
+        <v>1</v>
+      </c>
+      <c r="J105" s="65"/>
+      <c r="K105" s="65"/>
+      <c r="L105" s="64"/>
+      <c r="M105" s="64"/>
       <c r="N105" s="96">
-        <f t="shared" si="42"/>
-        <v>2.5</v>
+        <f t="shared" si="44"/>
+        <v>3</v>
       </c>
       <c r="O105" s="72">
-        <f t="shared" si="43"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="45"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="23" t="s">
         <v>8</v>
       </c>
@@ -5520,13 +5607,13 @@
         <v>42384</v>
       </c>
       <c r="C106" s="87" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D106" s="66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E106" s="66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F106" s="65">
         <v>0</v>
@@ -5534,24 +5621,28 @@
       <c r="G106" s="65">
         <v>0</v>
       </c>
-      <c r="H106" s="67"/>
-      <c r="I106" s="67">
-        <v>1</v>
-      </c>
-      <c r="J106" s="65"/>
-      <c r="K106" s="65"/>
+      <c r="H106" s="67">
+        <v>0</v>
+      </c>
+      <c r="I106" s="67"/>
+      <c r="J106" s="65">
+        <v>2</v>
+      </c>
+      <c r="K106" s="99">
+        <v>2.5</v>
+      </c>
       <c r="L106" s="64"/>
       <c r="M106" s="64"/>
       <c r="N106" s="96">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>3</v>
       </c>
       <c r="O106" s="72">
-        <f t="shared" si="43"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="45"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="23" t="s">
         <v>8</v>
       </c>
@@ -5559,42 +5650,40 @@
         <v>42384</v>
       </c>
       <c r="C107" s="87" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D107" s="66">
         <v>1</v>
       </c>
       <c r="E107" s="66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" s="65">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G107" s="65">
-        <v>0</v>
-      </c>
-      <c r="H107" s="67">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H107" s="67"/>
       <c r="I107" s="67"/>
       <c r="J107" s="65">
-        <v>2</v>
-      </c>
-      <c r="K107" s="109">
-        <v>2.5</v>
+        <v>1</v>
+      </c>
+      <c r="K107" s="65">
+        <v>3</v>
       </c>
       <c r="L107" s="64"/>
       <c r="M107" s="64"/>
       <c r="N107" s="96">
-        <f t="shared" si="42"/>
-        <v>3</v>
+        <f t="shared" si="44"/>
+        <v>7</v>
       </c>
       <c r="O107" s="72">
-        <f t="shared" si="43"/>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="45"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="23" t="s">
         <v>8</v>
       </c>
@@ -5602,40 +5691,44 @@
         <v>42384</v>
       </c>
       <c r="C108" s="87" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D108" s="66">
         <v>1</v>
       </c>
       <c r="E108" s="66">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F108" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G108" s="65">
-        <v>5</v>
-      </c>
-      <c r="H108" s="67"/>
-      <c r="I108" s="67"/>
+        <v>1</v>
+      </c>
+      <c r="H108" s="67">
+        <v>2</v>
+      </c>
+      <c r="I108" s="67">
+        <v>2</v>
+      </c>
       <c r="J108" s="65">
         <v>1</v>
       </c>
       <c r="K108" s="65">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="L108" s="64"/>
       <c r="M108" s="64"/>
       <c r="N108" s="96">
-        <f t="shared" si="42"/>
-        <v>7</v>
+        <f t="shared" si="44"/>
+        <v>5</v>
       </c>
       <c r="O108" s="72">
-        <f t="shared" si="43"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="45"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="23" t="s">
         <v>8</v>
       </c>
@@ -5643,232 +5736,232 @@
         <v>42384</v>
       </c>
       <c r="C109" s="87" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D109" s="66">
         <v>1</v>
       </c>
       <c r="E109" s="66">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F109" s="65">
         <v>1</v>
       </c>
-      <c r="G109" s="65">
-        <v>1</v>
-      </c>
+      <c r="G109" s="65"/>
       <c r="H109" s="67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I109" s="67">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J109" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K109" s="65">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L109" s="64"/>
       <c r="M109" s="64"/>
       <c r="N109" s="96">
-        <f t="shared" si="42"/>
-        <v>5</v>
+        <f t="shared" si="44"/>
+        <v>10</v>
       </c>
       <c r="O109" s="72">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A110" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" s="98">
+        <v>42384</v>
+      </c>
+      <c r="C110" s="74" t="s">
+        <v>112</v>
+      </c>
+      <c r="D110" s="38">
+        <v>1</v>
+      </c>
+      <c r="E110" s="38">
+        <v>1</v>
+      </c>
+      <c r="F110" s="29">
+        <v>1</v>
+      </c>
+      <c r="G110" s="29">
+        <v>1</v>
+      </c>
+      <c r="H110" s="39">
+        <v>1</v>
+      </c>
+      <c r="I110" s="39">
+        <v>1</v>
+      </c>
+      <c r="J110" s="29">
+        <v>1</v>
+      </c>
+      <c r="K110" s="29">
+        <v>1</v>
+      </c>
+      <c r="L110" s="40"/>
+      <c r="M110" s="40"/>
+      <c r="N110" s="96">
+        <f t="shared" si="44"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A110" s="23" t="s">
+      <c r="O110" s="72">
+        <f t="shared" si="45"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A111" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B110" s="90">
-        <v>42384</v>
-      </c>
-      <c r="C110" s="87" t="s">
+      <c r="B111" s="91">
+        <v>42385</v>
+      </c>
+      <c r="C111" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="D111" s="94"/>
+      <c r="E111" s="94"/>
+      <c r="F111" s="36"/>
+      <c r="G111" s="36"/>
+      <c r="H111" s="95"/>
+      <c r="I111" s="95"/>
+      <c r="J111" s="36">
+        <v>2</v>
+      </c>
+      <c r="K111" s="36"/>
+      <c r="L111" s="41"/>
+      <c r="M111" s="41"/>
+      <c r="N111" s="96">
+        <f t="shared" si="44"/>
+        <v>2</v>
+      </c>
+      <c r="O111" s="72">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A112" s="100" t="s">
+        <v>42</v>
+      </c>
+      <c r="B112" s="100"/>
+      <c r="C112" s="100"/>
+      <c r="D112" s="100"/>
+      <c r="E112" s="100"/>
+      <c r="F112" s="100"/>
+      <c r="G112" s="100"/>
+      <c r="H112" s="100"/>
+      <c r="I112" s="100"/>
+      <c r="J112" s="103" t="s">
+        <v>48</v>
+      </c>
+      <c r="K112" s="104"/>
+      <c r="L112" s="78"/>
+      <c r="M112" s="78"/>
+      <c r="N112" s="82">
+        <f>SUM(N77:N111)</f>
+        <v>170.5</v>
+      </c>
+      <c r="O112" s="82">
+        <f>SUM(O77:O111)</f>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A113" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" s="89">
+        <v>42387</v>
+      </c>
+      <c r="C113" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="D113" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="E113" s="38">
+        <v>1</v>
+      </c>
+      <c r="F113" s="29">
+        <v>1</v>
+      </c>
+      <c r="G113" s="29">
+        <v>1</v>
+      </c>
+      <c r="H113" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="I113" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="J113" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="K113" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="L113" s="37"/>
+      <c r="M113" s="37"/>
+      <c r="N113" s="21">
+        <f t="shared" ref="N113:O113" si="50">D113+F113+H113+J113+L113</f>
+        <v>2.5</v>
+      </c>
+      <c r="O113" s="22">
+        <f t="shared" si="50"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A114" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" s="90">
+        <v>42387</v>
+      </c>
+      <c r="C114" s="77" t="s">
         <v>120</v>
       </c>
-      <c r="D110" s="66">
-        <v>1</v>
-      </c>
-      <c r="E110" s="66">
-        <v>2</v>
-      </c>
-      <c r="F110" s="65">
-        <v>1</v>
-      </c>
-      <c r="G110" s="65"/>
-      <c r="H110" s="67">
+      <c r="D114" s="38">
+        <v>3</v>
+      </c>
+      <c r="E114" s="38">
+        <v>3</v>
+      </c>
+      <c r="F114" s="29">
+        <v>2</v>
+      </c>
+      <c r="G114" s="29">
+        <v>1</v>
+      </c>
+      <c r="H114" s="39">
         <v>4</v>
       </c>
-      <c r="I110" s="67">
+      <c r="I114" s="39">
         <v>4</v>
       </c>
-      <c r="J110" s="65">
-        <v>4</v>
-      </c>
-      <c r="K110" s="65">
-        <v>1</v>
-      </c>
-      <c r="L110" s="64"/>
-      <c r="M110" s="64"/>
-      <c r="N110" s="96">
-        <f t="shared" si="42"/>
-        <v>10</v>
-      </c>
-      <c r="O110" s="72">
-        <f t="shared" si="43"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A111" s="107" t="s">
-        <v>8</v>
-      </c>
-      <c r="B111" s="108">
-        <v>42384</v>
-      </c>
-      <c r="C111" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="D111" s="38">
-        <v>1</v>
-      </c>
-      <c r="E111" s="38">
-        <v>1</v>
-      </c>
-      <c r="F111" s="29">
-        <v>1</v>
-      </c>
-      <c r="G111" s="29">
-        <v>1</v>
-      </c>
-      <c r="H111" s="39">
-        <v>1</v>
-      </c>
-      <c r="I111" s="39">
-        <v>1</v>
-      </c>
-      <c r="J111" s="29">
-        <v>1</v>
-      </c>
-      <c r="K111" s="29">
-        <v>1</v>
-      </c>
-      <c r="L111" s="40"/>
-      <c r="M111" s="40"/>
-      <c r="N111" s="96">
-        <f t="shared" si="42"/>
-        <v>4</v>
-      </c>
-      <c r="O111" s="72">
-        <f t="shared" si="43"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A112" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" s="91">
-        <v>42385</v>
-      </c>
-      <c r="C112" s="85" t="s">
-        <v>130</v>
-      </c>
-      <c r="D112" s="94"/>
-      <c r="E112" s="94"/>
-      <c r="F112" s="36"/>
-      <c r="G112" s="36"/>
-      <c r="H112" s="95"/>
-      <c r="I112" s="95"/>
-      <c r="J112" s="36">
-        <v>2</v>
-      </c>
-      <c r="K112" s="36"/>
-      <c r="L112" s="41"/>
-      <c r="M112" s="41"/>
-      <c r="N112" s="28">
-        <f t="shared" si="42"/>
-        <v>2</v>
-      </c>
-      <c r="O112" s="29">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A113" s="98" t="s">
-        <v>42</v>
-      </c>
-      <c r="B113" s="98"/>
-      <c r="C113" s="98"/>
-      <c r="D113" s="98"/>
-      <c r="E113" s="98"/>
-      <c r="F113" s="98"/>
-      <c r="G113" s="98"/>
-      <c r="H113" s="98"/>
-      <c r="I113" s="98"/>
-      <c r="J113" s="105" t="s">
-        <v>48</v>
-      </c>
-      <c r="K113" s="106"/>
-      <c r="L113" s="78"/>
-      <c r="M113" s="78"/>
-      <c r="N113" s="82">
-        <f ca="1">SUM(N78:N124)</f>
-        <v>216.5</v>
-      </c>
-      <c r="O113" s="82">
-        <f>SUM(O78:O112)</f>
-        <v>173.5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A114" s="16" t="s">
+      <c r="J114" s="29">
+        <v>2</v>
+      </c>
+      <c r="K114" s="72">
+        <v>1</v>
+      </c>
+      <c r="L114" s="73"/>
+      <c r="M114" s="73"/>
+      <c r="N114" s="28">
+        <f t="shared" ref="N114:N143" si="51">D114+F114+H114+J114+L114</f>
+        <v>11</v>
+      </c>
+      <c r="O114" s="29">
+        <f t="shared" ref="O114:O143" si="52">E114+G114+I114+K114+M114</f>
         <v>9</v>
-      </c>
-      <c r="B114" s="89">
-        <v>42387</v>
-      </c>
-      <c r="C114" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="D114" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="E114" s="38">
-        <v>1</v>
-      </c>
-      <c r="F114" s="29">
-        <v>1</v>
-      </c>
-      <c r="G114" s="29">
-        <v>1</v>
-      </c>
-      <c r="H114" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="I114" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="J114" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K114" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="L114" s="37"/>
-      <c r="M114" s="37"/>
-      <c r="N114" s="21">
-        <f t="shared" ref="N114:O114" si="44">D114+F114+H114+J114+L114</f>
-        <v>2.5</v>
-      </c>
-      <c r="O114" s="22">
-        <f t="shared" si="44"/>
-        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.2">
@@ -5879,41 +5972,41 @@
         <v>42387</v>
       </c>
       <c r="C115" s="77" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="D115" s="38">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="E115" s="38">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="F115" s="29">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="G115" s="29">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H115" s="39">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="I115" s="39">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="J115" s="29">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="K115" s="72">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L115" s="73"/>
       <c r="M115" s="73"/>
       <c r="N115" s="28">
-        <f t="shared" ref="N115:N144" si="45">D115+F115+H115+J115+L115</f>
-        <v>11</v>
+        <f t="shared" si="51"/>
+        <v>6</v>
       </c>
       <c r="O115" s="29">
-        <f t="shared" ref="O115:O144" si="46">E115+G115+I115+K115+M115</f>
-        <v>9</v>
+        <f t="shared" si="52"/>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.2">
@@ -5924,41 +6017,31 @@
         <v>42387</v>
       </c>
       <c r="C116" s="77" t="s">
-        <v>21</v>
-      </c>
-      <c r="D116" s="38">
-        <v>1.5</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="D116" s="38"/>
       <c r="E116" s="38">
-        <v>1.5</v>
-      </c>
-      <c r="F116" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="G116" s="29">
-        <v>1.5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29"/>
       <c r="H116" s="39">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I116" s="39">
-        <v>1.5</v>
-      </c>
-      <c r="J116" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="K116" s="72">
-        <v>1.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J116" s="29"/>
+      <c r="K116" s="72"/>
       <c r="L116" s="73"/>
       <c r="M116" s="73"/>
       <c r="N116" s="28">
-        <f t="shared" ref="N116:N129" si="47">D116+F116+H116+J116+L116</f>
-        <v>6</v>
+        <f t="shared" si="51"/>
+        <v>1</v>
       </c>
       <c r="O116" s="29">
-        <f t="shared" ref="O116:O129" si="48">E116+G116+I116+K116+M116</f>
-        <v>6</v>
+        <f t="shared" si="52"/>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
@@ -5969,31 +6052,37 @@
         <v>42387</v>
       </c>
       <c r="C117" s="77" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="D117" s="38"/>
-      <c r="E117" s="38">
-        <v>2</v>
-      </c>
-      <c r="F117" s="29"/>
-      <c r="G117" s="29"/>
+      <c r="E117" s="38"/>
+      <c r="F117" s="29">
+        <v>2</v>
+      </c>
+      <c r="G117" s="29">
+        <v>3</v>
+      </c>
       <c r="H117" s="39">
         <v>1</v>
       </c>
       <c r="I117" s="39">
         <v>1</v>
       </c>
-      <c r="J117" s="29"/>
-      <c r="K117" s="72"/>
+      <c r="J117" s="29">
+        <v>2</v>
+      </c>
+      <c r="K117" s="72">
+        <v>3.5</v>
+      </c>
       <c r="L117" s="73"/>
       <c r="M117" s="73"/>
       <c r="N117" s="28">
-        <f t="shared" si="47"/>
-        <v>1</v>
+        <f t="shared" si="51"/>
+        <v>5</v>
       </c>
       <c r="O117" s="29">
-        <f t="shared" si="48"/>
-        <v>3</v>
+        <f t="shared" si="52"/>
+        <v>7.5</v>
       </c>
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.2">
@@ -6003,38 +6092,24 @@
       <c r="B118" s="90">
         <v>42387</v>
       </c>
-      <c r="C118" s="77" t="s">
-        <v>133</v>
-      </c>
+      <c r="C118" s="77"/>
       <c r="D118" s="38"/>
       <c r="E118" s="38"/>
-      <c r="F118" s="29">
-        <v>2</v>
-      </c>
-      <c r="G118" s="29">
-        <v>3</v>
-      </c>
-      <c r="H118" s="39">
-        <v>1</v>
-      </c>
-      <c r="I118" s="39">
-        <v>1</v>
-      </c>
-      <c r="J118" s="29">
-        <v>2</v>
-      </c>
-      <c r="K118" s="72">
-        <v>3.5</v>
-      </c>
+      <c r="F118" s="29"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="39"/>
+      <c r="I118" s="39"/>
+      <c r="J118" s="29"/>
+      <c r="K118" s="72"/>
       <c r="L118" s="73"/>
       <c r="M118" s="73"/>
       <c r="N118" s="28">
-        <f t="shared" si="47"/>
-        <v>5</v>
+        <f t="shared" si="51"/>
+        <v>0</v>
       </c>
       <c r="O118" s="29">
-        <f t="shared" si="48"/>
-        <v>7.5</v>
+        <f t="shared" si="52"/>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
@@ -6044,24 +6119,40 @@
       <c r="B119" s="90">
         <v>42387</v>
       </c>
-      <c r="C119" s="77"/>
+      <c r="C119" s="74" t="s">
+        <v>129</v>
+      </c>
       <c r="D119" s="38"/>
-      <c r="E119" s="38"/>
-      <c r="F119" s="29"/>
-      <c r="G119" s="29"/>
-      <c r="H119" s="39"/>
-      <c r="I119" s="39"/>
-      <c r="J119" s="29"/>
-      <c r="K119" s="72"/>
+      <c r="E119" s="38">
+        <v>1</v>
+      </c>
+      <c r="F119" s="29">
+        <v>2</v>
+      </c>
+      <c r="G119" s="29">
+        <v>2</v>
+      </c>
+      <c r="H119" s="39">
+        <v>0</v>
+      </c>
+      <c r="I119" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="J119" s="29">
+        <v>2</v>
+      </c>
+      <c r="K119" s="72">
+        <v>2</v>
+      </c>
       <c r="L119" s="73"/>
       <c r="M119" s="73"/>
       <c r="N119" s="28">
-        <f t="shared" si="47"/>
-        <v>0</v>
+        <f t="shared" si="51"/>
+        <v>4</v>
       </c>
       <c r="O119" s="29">
-        <f t="shared" si="48"/>
-        <v>0</v>
+        <f t="shared" si="52"/>
+        <v>5.5</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
@@ -6069,42 +6160,36 @@
         <v>9</v>
       </c>
       <c r="B120" s="90">
-        <v>42387</v>
+        <v>42388</v>
       </c>
       <c r="C120" s="74" t="s">
-        <v>131</v>
-      </c>
-      <c r="D120" s="38"/>
-      <c r="E120" s="38">
-        <v>1</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D120" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="E120" s="38"/>
       <c r="F120" s="29">
-        <v>2</v>
-      </c>
-      <c r="G120" s="29">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G120" s="29"/>
       <c r="H120" s="39">
-        <v>0</v>
-      </c>
-      <c r="I120" s="39">
-        <v>0.5</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="I120" s="39"/>
       <c r="J120" s="29">
-        <v>2</v>
-      </c>
-      <c r="K120" s="72">
-        <v>2</v>
-      </c>
-      <c r="L120" s="73"/>
-      <c r="M120" s="73"/>
+        <v>0.5</v>
+      </c>
+      <c r="K120" s="29"/>
+      <c r="L120" s="40"/>
+      <c r="M120" s="40"/>
       <c r="N120" s="28">
-        <f t="shared" si="47"/>
-        <v>4</v>
+        <f t="shared" si="51"/>
+        <v>2.5</v>
       </c>
       <c r="O120" s="29">
-        <f t="shared" si="48"/>
-        <v>5.5</v>
+        <f t="shared" si="52"/>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
@@ -6114,11 +6199,11 @@
       <c r="B121" s="90">
         <v>42388</v>
       </c>
-      <c r="C121" s="74" t="s">
-        <v>59</v>
+      <c r="C121" s="77" t="s">
+        <v>102</v>
       </c>
       <c r="D121" s="38">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="E121" s="38"/>
       <c r="F121" s="29">
@@ -6126,21 +6211,21 @@
       </c>
       <c r="G121" s="29"/>
       <c r="H121" s="39">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I121" s="39"/>
       <c r="J121" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K121" s="29"/>
-      <c r="L121" s="40"/>
-      <c r="M121" s="40"/>
+        <v>4</v>
+      </c>
+      <c r="K121" s="72"/>
+      <c r="L121" s="73"/>
+      <c r="M121" s="73"/>
       <c r="N121" s="28">
-        <f t="shared" si="47"/>
-        <v>2.5</v>
+        <f t="shared" si="51"/>
+        <v>9</v>
       </c>
       <c r="O121" s="29">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -6151,33 +6236,33 @@
       <c r="B122" s="90">
         <v>42388</v>
       </c>
-      <c r="C122" s="77" t="s">
-        <v>103</v>
-      </c>
-      <c r="D122" s="38">
-        <v>2</v>
-      </c>
-      <c r="E122" s="38"/>
-      <c r="F122" s="29">
-        <v>1</v>
-      </c>
-      <c r="G122" s="29"/>
-      <c r="H122" s="39">
-        <v>2</v>
-      </c>
-      <c r="I122" s="39"/>
-      <c r="J122" s="29">
-        <v>4</v>
-      </c>
-      <c r="K122" s="72"/>
-      <c r="L122" s="73"/>
-      <c r="M122" s="73"/>
+      <c r="C122" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="D122" s="66">
+        <v>1</v>
+      </c>
+      <c r="E122" s="66"/>
+      <c r="F122" s="65">
+        <v>1</v>
+      </c>
+      <c r="G122" s="65"/>
+      <c r="H122" s="67">
+        <v>5</v>
+      </c>
+      <c r="I122" s="67"/>
+      <c r="J122" s="65">
+        <v>1</v>
+      </c>
+      <c r="K122" s="65"/>
+      <c r="L122" s="64"/>
+      <c r="M122" s="64"/>
       <c r="N122" s="28">
-        <f t="shared" si="47"/>
-        <v>9</v>
+        <f t="shared" si="51"/>
+        <v>8</v>
       </c>
       <c r="O122" s="29">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -6188,33 +6273,33 @@
       <c r="B123" s="90">
         <v>42388</v>
       </c>
-      <c r="C123" s="87" t="s">
-        <v>93</v>
-      </c>
-      <c r="D123" s="66">
-        <v>1</v>
-      </c>
-      <c r="E123" s="66"/>
-      <c r="F123" s="65">
-        <v>1</v>
-      </c>
-      <c r="G123" s="65"/>
-      <c r="H123" s="67">
-        <v>5</v>
-      </c>
-      <c r="I123" s="67"/>
+      <c r="C123" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="D123" s="62">
+        <v>2</v>
+      </c>
+      <c r="E123" s="62"/>
+      <c r="F123" s="61">
+        <v>2</v>
+      </c>
+      <c r="G123" s="61"/>
+      <c r="H123" s="63">
+        <v>2</v>
+      </c>
+      <c r="I123" s="63"/>
       <c r="J123" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K123" s="65"/>
       <c r="L123" s="64"/>
       <c r="M123" s="64"/>
       <c r="N123" s="28">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>8</v>
       </c>
       <c r="O123" s="29">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -6225,33 +6310,33 @@
       <c r="B124" s="90">
         <v>42388</v>
       </c>
-      <c r="C124" s="88" t="s">
-        <v>95</v>
-      </c>
-      <c r="D124" s="62">
-        <v>2</v>
-      </c>
-      <c r="E124" s="62"/>
-      <c r="F124" s="61">
-        <v>2</v>
-      </c>
-      <c r="G124" s="61"/>
-      <c r="H124" s="63">
-        <v>2</v>
-      </c>
-      <c r="I124" s="63"/>
-      <c r="J124" s="65">
-        <v>2</v>
-      </c>
-      <c r="K124" s="65"/>
-      <c r="L124" s="64"/>
-      <c r="M124" s="64"/>
+      <c r="C124" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="D124" s="38">
+        <v>4</v>
+      </c>
+      <c r="E124" s="38"/>
+      <c r="F124" s="29">
+        <v>2</v>
+      </c>
+      <c r="G124" s="29"/>
+      <c r="H124" s="39">
+        <v>2</v>
+      </c>
+      <c r="I124" s="39"/>
+      <c r="J124" s="29">
+        <v>2</v>
+      </c>
+      <c r="K124" s="29"/>
+      <c r="L124" s="40"/>
+      <c r="M124" s="40"/>
       <c r="N124" s="28">
-        <f t="shared" si="47"/>
-        <v>8</v>
+        <f t="shared" si="51"/>
+        <v>10</v>
       </c>
       <c r="O124" s="29">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -6263,18 +6348,18 @@
         <v>42388</v>
       </c>
       <c r="C125" s="74" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D125" s="38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E125" s="38"/>
       <c r="F125" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G125" s="29"/>
       <c r="H125" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I125" s="39"/>
       <c r="J125" s="29">
@@ -6284,11 +6369,11 @@
       <c r="L125" s="40"/>
       <c r="M125" s="40"/>
       <c r="N125" s="28">
-        <f t="shared" si="47"/>
-        <v>10</v>
+        <f t="shared" si="51"/>
+        <v>12</v>
       </c>
       <c r="O125" s="29">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -6300,32 +6385,32 @@
         <v>42388</v>
       </c>
       <c r="C126" s="74" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D126" s="38">
         <v>2</v>
       </c>
       <c r="E126" s="38"/>
       <c r="F126" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G126" s="29"/>
       <c r="H126" s="39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I126" s="39"/>
       <c r="J126" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K126" s="29"/>
       <c r="L126" s="40"/>
       <c r="M126" s="40"/>
       <c r="N126" s="28">
-        <f t="shared" si="47"/>
-        <v>12</v>
+        <f t="shared" si="51"/>
+        <v>10</v>
       </c>
       <c r="O126" s="29">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -6334,35 +6419,35 @@
         <v>9</v>
       </c>
       <c r="B127" s="90">
-        <v>42388</v>
+        <v>42389</v>
       </c>
       <c r="C127" s="74" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="D127" s="38">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E127" s="38"/>
       <c r="F127" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G127" s="29"/>
       <c r="H127" s="39">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I127" s="39"/>
       <c r="J127" s="29">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="K127" s="29"/>
       <c r="L127" s="40"/>
       <c r="M127" s="40"/>
       <c r="N127" s="28">
-        <f t="shared" si="47"/>
-        <v>10</v>
+        <f t="shared" si="51"/>
+        <v>2.5</v>
       </c>
       <c r="O127" s="29">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -6374,32 +6459,32 @@
         <v>42389</v>
       </c>
       <c r="C128" s="74" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="D128" s="38">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="E128" s="38"/>
       <c r="F128" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G128" s="29"/>
       <c r="H128" s="39">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I128" s="39"/>
       <c r="J128" s="29">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K128" s="29"/>
       <c r="L128" s="40"/>
       <c r="M128" s="40"/>
       <c r="N128" s="28">
-        <f t="shared" si="47"/>
-        <v>2.5</v>
+        <f t="shared" si="51"/>
+        <v>10</v>
       </c>
       <c r="O128" s="29">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -6410,33 +6495,33 @@
       <c r="B129" s="90">
         <v>42389</v>
       </c>
-      <c r="C129" s="74" t="s">
-        <v>108</v>
+      <c r="C129" s="77" t="s">
+        <v>97</v>
       </c>
       <c r="D129" s="38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E129" s="38"/>
       <c r="F129" s="29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G129" s="29"/>
       <c r="H129" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I129" s="39"/>
       <c r="J129" s="29">
         <v>2</v>
       </c>
-      <c r="K129" s="29"/>
-      <c r="L129" s="40"/>
-      <c r="M129" s="40"/>
+      <c r="K129" s="72"/>
+      <c r="L129" s="73"/>
+      <c r="M129" s="73"/>
       <c r="N129" s="28">
-        <f t="shared" si="47"/>
-        <v>10</v>
+        <f t="shared" si="51"/>
+        <v>11</v>
       </c>
       <c r="O129" s="29">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -6447,33 +6532,33 @@
       <c r="B130" s="90">
         <v>42389</v>
       </c>
-      <c r="C130" s="77" t="s">
-        <v>98</v>
+      <c r="C130" s="74" t="s">
+        <v>108</v>
       </c>
       <c r="D130" s="38">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E130" s="38"/>
       <c r="F130" s="29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G130" s="29"/>
       <c r="H130" s="39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I130" s="39"/>
       <c r="J130" s="29">
         <v>2</v>
       </c>
-      <c r="K130" s="72"/>
-      <c r="L130" s="73"/>
-      <c r="M130" s="73"/>
+      <c r="K130" s="29"/>
+      <c r="L130" s="40"/>
+      <c r="M130" s="40"/>
       <c r="N130" s="28">
-        <f t="shared" ref="N116:N135" si="49">D130+F130+H130+J130+L130</f>
-        <v>11</v>
+        <f t="shared" si="51"/>
+        <v>10</v>
       </c>
       <c r="O130" s="29">
-        <f t="shared" ref="O116:O135" si="50">E130+G130+I130+K130+M130</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -6485,10 +6570,10 @@
         <v>42389</v>
       </c>
       <c r="C131" s="74" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="D131" s="38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E131" s="38"/>
       <c r="F131" s="29">
@@ -6496,7 +6581,7 @@
       </c>
       <c r="G131" s="29"/>
       <c r="H131" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I131" s="39"/>
       <c r="J131" s="29">
@@ -6506,11 +6591,11 @@
       <c r="L131" s="40"/>
       <c r="M131" s="40"/>
       <c r="N131" s="28">
-        <f t="shared" si="49"/>
-        <v>10</v>
+        <f t="shared" si="51"/>
+        <v>9</v>
       </c>
       <c r="O131" s="29">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -6522,7 +6607,7 @@
         <v>42389</v>
       </c>
       <c r="C132" s="74" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D132" s="38">
         <v>1</v>
@@ -6533,21 +6618,21 @@
       </c>
       <c r="G132" s="29"/>
       <c r="H132" s="39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I132" s="39"/>
       <c r="J132" s="29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K132" s="29"/>
       <c r="L132" s="40"/>
       <c r="M132" s="40"/>
       <c r="N132" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>9</v>
       </c>
       <c r="O132" s="29">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -6556,35 +6641,35 @@
         <v>9</v>
       </c>
       <c r="B133" s="90">
-        <v>42389</v>
+        <v>42390</v>
       </c>
       <c r="C133" s="74" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="D133" s="38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E133" s="38"/>
       <c r="F133" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G133" s="29"/>
       <c r="H133" s="39">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I133" s="39"/>
       <c r="J133" s="29">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="K133" s="29"/>
       <c r="L133" s="40"/>
       <c r="M133" s="40"/>
       <c r="N133" s="28">
-        <f t="shared" si="49"/>
-        <v>9</v>
+        <f t="shared" si="51"/>
+        <v>2.5</v>
       </c>
       <c r="O133" s="29">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -6596,32 +6681,32 @@
         <v>42390</v>
       </c>
       <c r="C134" s="74" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="D134" s="38">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="E134" s="38"/>
       <c r="F134" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G134" s="29"/>
       <c r="H134" s="39">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I134" s="39"/>
       <c r="J134" s="29">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K134" s="29"/>
       <c r="L134" s="40"/>
       <c r="M134" s="40"/>
       <c r="N134" s="28">
-        <f t="shared" si="49"/>
-        <v>2.5</v>
+        <f t="shared" si="51"/>
+        <v>10</v>
       </c>
       <c r="O134" s="29">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -6633,32 +6718,24 @@
         <v>42390</v>
       </c>
       <c r="C135" s="74" t="s">
-        <v>110</v>
-      </c>
-      <c r="D135" s="38">
-        <v>4</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D135" s="38"/>
       <c r="E135" s="38"/>
-      <c r="F135" s="29">
-        <v>2</v>
-      </c>
+      <c r="F135" s="29"/>
       <c r="G135" s="29"/>
-      <c r="H135" s="39">
-        <v>2</v>
-      </c>
+      <c r="H135" s="39"/>
       <c r="I135" s="39"/>
-      <c r="J135" s="29">
-        <v>2</v>
-      </c>
+      <c r="J135" s="29"/>
       <c r="K135" s="29"/>
       <c r="L135" s="40"/>
       <c r="M135" s="40"/>
       <c r="N135" s="28">
-        <f t="shared" si="49"/>
-        <v>10</v>
+        <f t="shared" si="51"/>
+        <v>0</v>
       </c>
       <c r="O135" s="29">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -6670,24 +6747,32 @@
         <v>42390</v>
       </c>
       <c r="C136" s="74" t="s">
-        <v>132</v>
-      </c>
-      <c r="D136" s="38"/>
+        <v>99</v>
+      </c>
+      <c r="D136" s="38">
+        <v>1</v>
+      </c>
       <c r="E136" s="38"/>
-      <c r="F136" s="29"/>
+      <c r="F136" s="29">
+        <v>2</v>
+      </c>
       <c r="G136" s="29"/>
-      <c r="H136" s="39"/>
+      <c r="H136" s="39">
+        <v>2</v>
+      </c>
       <c r="I136" s="39"/>
-      <c r="J136" s="29"/>
+      <c r="J136" s="29">
+        <v>2</v>
+      </c>
       <c r="K136" s="29"/>
       <c r="L136" s="40"/>
       <c r="M136" s="40"/>
       <c r="N136" s="28">
-        <f t="shared" ref="N136:N143" si="51">D136+F136+H136+J136+L136</f>
-        <v>0</v>
+        <f t="shared" si="51"/>
+        <v>7</v>
       </c>
       <c r="O136" s="29">
-        <f t="shared" ref="O136:O143" si="52">E136+G136+I136+K136+M136</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
@@ -6699,7 +6784,7 @@
         <v>42390</v>
       </c>
       <c r="C137" s="74" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D137" s="38">
         <v>1</v>
@@ -6733,32 +6818,32 @@
         <v>9</v>
       </c>
       <c r="B138" s="90">
-        <v>42390</v>
+        <v>42391</v>
       </c>
       <c r="C138" s="74" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="D138" s="38">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E138" s="38"/>
       <c r="F138" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G138" s="29"/>
       <c r="H138" s="39">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I138" s="39"/>
       <c r="J138" s="29">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="K138" s="29"/>
       <c r="L138" s="40"/>
       <c r="M138" s="40"/>
       <c r="N138" s="28">
         <f t="shared" si="51"/>
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="O138" s="29">
         <f t="shared" si="52"/>
@@ -6772,30 +6857,30 @@
       <c r="B139" s="90">
         <v>42391</v>
       </c>
-      <c r="C139" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="D139" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="E139" s="38"/>
-      <c r="F139" s="29">
-        <v>1</v>
-      </c>
-      <c r="G139" s="29"/>
-      <c r="H139" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="I139" s="39"/>
-      <c r="J139" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K139" s="29"/>
-      <c r="L139" s="40"/>
-      <c r="M139" s="40"/>
+      <c r="C139" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="D139" s="66">
+        <v>6</v>
+      </c>
+      <c r="E139" s="66"/>
+      <c r="F139" s="65">
+        <v>4</v>
+      </c>
+      <c r="G139" s="65"/>
+      <c r="H139" s="67">
+        <v>4</v>
+      </c>
+      <c r="I139" s="67"/>
+      <c r="J139" s="65">
+        <v>4</v>
+      </c>
+      <c r="K139" s="65"/>
+      <c r="L139" s="64"/>
+      <c r="M139" s="64"/>
       <c r="N139" s="28">
         <f t="shared" si="51"/>
-        <v>2.5</v>
+        <v>18</v>
       </c>
       <c r="O139" s="29">
         <f t="shared" si="52"/>
@@ -6810,10 +6895,10 @@
         <v>42391</v>
       </c>
       <c r="C140" s="87" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D140" s="66">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E140" s="66"/>
       <c r="F140" s="65">
@@ -6832,7 +6917,7 @@
       <c r="M140" s="64"/>
       <c r="N140" s="28">
         <f t="shared" si="51"/>
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="O140" s="29">
         <f t="shared" si="52"/>
@@ -6854,22 +6939,22 @@
       </c>
       <c r="E141" s="66"/>
       <c r="F141" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G141" s="65"/>
       <c r="H141" s="67">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I141" s="67"/>
       <c r="J141" s="65">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K141" s="65"/>
       <c r="L141" s="64"/>
       <c r="M141" s="64"/>
       <c r="N141" s="28">
         <f t="shared" si="51"/>
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O141" s="29">
         <f t="shared" si="52"/>
@@ -6884,10 +6969,10 @@
         <v>42391</v>
       </c>
       <c r="C142" s="87" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D142" s="66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E142" s="66"/>
       <c r="F142" s="65">
@@ -6906,7 +6991,7 @@
       <c r="M142" s="64"/>
       <c r="N142" s="28">
         <f t="shared" si="51"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O142" s="29">
         <f t="shared" si="52"/>
@@ -6914,177 +6999,124 @@
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A143" s="23" t="s">
+      <c r="A143" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B143" s="90">
+      <c r="B143" s="91">
         <v>42391</v>
       </c>
-      <c r="C143" s="87" t="s">
-        <v>106</v>
-      </c>
-      <c r="D143" s="66">
-        <v>2</v>
-      </c>
-      <c r="E143" s="66"/>
-      <c r="F143" s="65">
-        <v>1</v>
-      </c>
-      <c r="G143" s="65"/>
-      <c r="H143" s="67">
-        <v>1</v>
-      </c>
-      <c r="I143" s="67"/>
-      <c r="J143" s="65">
-        <v>1</v>
-      </c>
-      <c r="K143" s="65"/>
-      <c r="L143" s="64"/>
-      <c r="M143" s="64"/>
-      <c r="N143" s="28">
+      <c r="C143" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D143" s="94">
+        <v>2</v>
+      </c>
+      <c r="E143" s="94"/>
+      <c r="F143" s="36">
+        <v>1</v>
+      </c>
+      <c r="G143" s="36"/>
+      <c r="H143" s="95">
+        <v>1</v>
+      </c>
+      <c r="I143" s="95"/>
+      <c r="J143" s="36">
+        <v>1</v>
+      </c>
+      <c r="K143" s="36"/>
+      <c r="L143" s="41"/>
+      <c r="M143" s="41"/>
+      <c r="N143" s="35">
         <f t="shared" si="51"/>
         <v>5</v>
       </c>
-      <c r="O143" s="29">
+      <c r="O143" s="36">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A144" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B144" s="91">
-        <v>42391</v>
-      </c>
-      <c r="C144" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="D144" s="94">
-        <v>2</v>
-      </c>
-      <c r="E144" s="94"/>
-      <c r="F144" s="36">
-        <v>1</v>
-      </c>
-      <c r="G144" s="36"/>
-      <c r="H144" s="95">
-        <v>1</v>
-      </c>
-      <c r="I144" s="95"/>
-      <c r="J144" s="36">
-        <v>1</v>
-      </c>
-      <c r="K144" s="36"/>
-      <c r="L144" s="41"/>
-      <c r="M144" s="41"/>
-      <c r="N144" s="35">
-        <f t="shared" si="45"/>
-        <v>5</v>
-      </c>
-      <c r="O144" s="36">
-        <f t="shared" si="46"/>
-        <v>0</v>
+      <c r="A144" s="78"/>
+      <c r="B144" s="83"/>
+      <c r="C144" s="78"/>
+      <c r="D144" s="79"/>
+      <c r="E144" s="79"/>
+      <c r="F144" s="78"/>
+      <c r="G144" s="78"/>
+      <c r="H144" s="80"/>
+      <c r="I144" s="80"/>
+      <c r="J144" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="K144" s="101"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="84">
+        <f>SUM(N113:N143)</f>
+        <v>214.5</v>
+      </c>
+      <c r="O144" s="82">
+        <f>SUM(O113:O143)</f>
+        <v>34</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A145" s="78"/>
-      <c r="B145" s="83"/>
-      <c r="C145" s="78"/>
-      <c r="D145" s="79"/>
-      <c r="E145" s="79"/>
-      <c r="F145" s="78"/>
-      <c r="G145" s="78"/>
-      <c r="H145" s="80"/>
-      <c r="I145" s="80"/>
-      <c r="J145" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="K145" s="97"/>
-      <c r="L145" s="2"/>
-      <c r="M145" s="2"/>
-      <c r="N145" s="84">
-        <f>SUM(N114:N144)</f>
-        <v>214.5</v>
-      </c>
-      <c r="O145" s="82">
-        <f>SUM(O114:O144)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A146" s="4"/>
-      <c r="B146" s="59"/>
-      <c r="C146" s="5" t="s">
+      <c r="A145" s="4"/>
+      <c r="B145" s="59"/>
+      <c r="C145" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D146" s="6">
-        <f t="shared" ref="D146:M146" si="53">SUM(D4:D145)</f>
-        <v>169.14999999999998</v>
-      </c>
-      <c r="E146" s="6">
-        <f t="shared" si="53"/>
-        <v>113.89999999999999</v>
-      </c>
-      <c r="F146" s="6">
-        <f t="shared" si="53"/>
-        <v>170.5</v>
-      </c>
-      <c r="G146" s="6">
-        <f t="shared" si="53"/>
-        <v>118.55</v>
-      </c>
-      <c r="H146" s="6">
-        <f t="shared" si="53"/>
-        <v>167.5</v>
-      </c>
-      <c r="I146" s="6">
-        <f t="shared" si="53"/>
-        <v>113.05</v>
-      </c>
-      <c r="J146" s="6">
-        <f t="shared" si="53"/>
-        <v>186.5</v>
-      </c>
-      <c r="K146" s="6">
-        <f t="shared" si="53"/>
-        <v>118.05</v>
-      </c>
-      <c r="L146" s="6">
-        <f t="shared" si="53"/>
-        <v>0.5</v>
-      </c>
-      <c r="M146" s="6">
-        <f t="shared" si="53"/>
-        <v>0.5</v>
-      </c>
-      <c r="N146" s="4">
-        <f>D146+F146+H146+J146+L146</f>
-        <v>694.15</v>
-      </c>
-      <c r="O146" s="6">
-        <f>E146+G146+I146+K146+M146</f>
-        <v>464.05</v>
+      <c r="D145" s="6">
+        <f>SUM(D4:D144)</f>
+        <v>155.64999999999998</v>
+      </c>
+      <c r="E145" s="6">
+        <f>SUM(E4:E144)</f>
+        <v>122.39999999999999</v>
+      </c>
+      <c r="F145" s="6">
+        <f>SUM(F4:F144)</f>
+        <v>155.5</v>
+      </c>
+      <c r="G145" s="6">
+        <f>SUM(G4:G144)</f>
+        <v>120.55</v>
+      </c>
+      <c r="H145" s="6">
+        <f>SUM(H4:H144)</f>
+        <v>158</v>
+      </c>
+      <c r="I145" s="6">
+        <f>SUM(I4:I144)</f>
+        <v>114.55</v>
+      </c>
+      <c r="J145" s="6">
+        <f>SUM(J4:J144)</f>
+        <v>168</v>
+      </c>
+      <c r="K145" s="6">
+        <f>SUM(K4:K144)</f>
+        <v>121.55</v>
+      </c>
+      <c r="L145" s="6">
+        <f>SUM(L4:L144)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M145" s="6">
+        <f>SUM(M4:M144)</f>
+        <v>0.5</v>
+      </c>
+      <c r="N145" s="6">
+        <f>D145+F145+H145+J145+L145</f>
+        <v>637.65</v>
+      </c>
+      <c r="O145" s="6">
+        <f>E145+G145+I145+K145+M145</f>
+        <v>479.55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J145:K145"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A62:I62"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="A77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="A113:I113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="J47:K47"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="A11:I11"/>
     <mergeCell ref="E2:F2"/>
@@ -7093,6 +7125,22 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A62:I62"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="A76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="A112:I112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="J47:K47"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -7118,20 +7166,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -7292,40 +7335,29 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7343,10 +7375,26 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
+++ b/Planning (PvA) en urenverantwoording/urenplanning en verantwoording.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="137">
   <si>
     <t>Omschrijving activiteit</t>
   </si>
@@ -421,6 +421,18 @@
   </si>
   <si>
     <t>Joost naar ziekenhuis</t>
+  </si>
+  <si>
+    <t>Doxygen controleren en eventueel aanpassen</t>
+  </si>
+  <si>
+    <t>Zehna ziek</t>
+  </si>
+  <si>
+    <t>Vragen over code bij Wouter neerleggen</t>
+  </si>
+  <si>
+    <t>Code werkend af (ook deels thuis)</t>
   </si>
 </sst>
 </file>
@@ -431,7 +443,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -479,6 +491,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -684,11 +703,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -857,12 +877,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -971,10 +985,37 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -986,37 +1027,23 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Notitie" xfId="1" builtinId="10"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Waarschuwingstekst" xfId="2" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1318,11 +1345,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q145"/>
+  <dimension ref="A1:Q153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F148" sqref="F148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1350,18 +1377,18 @@
       <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="105" t="s">
+      <c r="E2" s="104" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="105"/>
-      <c r="H2" s="71" t="s">
+      <c r="F2" s="104"/>
+      <c r="H2" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="102">
+      <c r="I2" s="109">
         <f ca="1">TODAY()</f>
-        <v>42388</v>
-      </c>
-      <c r="J2" s="102"/>
+        <v>42391</v>
+      </c>
+      <c r="J2" s="109"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="44" t="s">
@@ -1411,58 +1438,58 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="78"/>
+      <c r="A4" s="76"/>
       <c r="B4" s="58"/>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="108"/>
-      <c r="F4" s="101" t="s">
+      <c r="E4" s="107"/>
+      <c r="F4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="101"/>
-      <c r="H4" s="109" t="s">
+      <c r="G4" s="102"/>
+      <c r="H4" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="109"/>
-      <c r="J4" s="101" t="s">
+      <c r="I4" s="108"/>
+      <c r="J4" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="101"/>
-      <c r="L4" s="106" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="107"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="78"/>
+      <c r="K4" s="102"/>
+      <c r="L4" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="106"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="76"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="103" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="100"/>
-      <c r="F5" s="100"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="101"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
+      <c r="B5" s="103"/>
+      <c r="C5" s="103"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="103"/>
+      <c r="H5" s="103"/>
+      <c r="I5" s="103"/>
+      <c r="J5" s="102"/>
+      <c r="K5" s="102"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>1</v>
       </c>
-      <c r="B6" s="89">
+      <c r="B6" s="87">
         <v>42317</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="17">
@@ -1504,10 +1531,10 @@
       <c r="A7" s="23">
         <v>1</v>
       </c>
-      <c r="B7" s="90">
+      <c r="B7" s="88">
         <v>42317</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="72" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="24">
@@ -1549,10 +1576,10 @@
       <c r="A8" s="23">
         <v>1</v>
       </c>
-      <c r="B8" s="90">
+      <c r="B8" s="88">
         <v>42317</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="72" t="s">
         <v>27</v>
       </c>
       <c r="D8" s="24">
@@ -1586,10 +1613,10 @@
       <c r="A9" s="23">
         <v>1</v>
       </c>
-      <c r="B9" s="90">
+      <c r="B9" s="88">
         <v>42319</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="72" t="s">
         <v>26</v>
       </c>
       <c r="D9" s="24">
@@ -1631,10 +1658,10 @@
       <c r="A10" s="30">
         <v>1</v>
       </c>
-      <c r="B10" s="91">
+      <c r="B10" s="89">
         <v>42323</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="83" t="s">
         <v>29</v>
       </c>
       <c r="D10" s="31">
@@ -1673,28 +1700,28 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="101" t="s">
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="101"/>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="82">
+      <c r="K11" s="102"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="80">
         <f>SUM(N6:N10)</f>
         <v>26</v>
       </c>
-      <c r="O11" s="82">
+      <c r="O11" s="80">
         <f>SUM(O6:O10)</f>
         <v>32</v>
       </c>
@@ -1703,10 +1730,10 @@
       <c r="A12" s="16">
         <v>2</v>
       </c>
-      <c r="B12" s="89">
+      <c r="B12" s="87">
         <v>42324</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="67" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="17">
@@ -1748,10 +1775,10 @@
       <c r="A13" s="51">
         <v>2</v>
       </c>
-      <c r="B13" s="92">
+      <c r="B13" s="90">
         <v>42324</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="75" t="s">
         <v>59</v>
       </c>
       <c r="D13" s="52">
@@ -1797,10 +1824,10 @@
       <c r="A14" s="51">
         <v>2</v>
       </c>
-      <c r="B14" s="92">
+      <c r="B14" s="90">
         <v>42324</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="75" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="52">
@@ -1842,10 +1869,10 @@
       <c r="A15" s="23">
         <v>2</v>
       </c>
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="68" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="24">
@@ -1875,10 +1902,10 @@
       <c r="A16" s="23">
         <v>2</v>
       </c>
-      <c r="B16" s="90">
+      <c r="B16" s="88">
         <v>42326</v>
       </c>
-      <c r="C16" s="70" t="s">
+      <c r="C16" s="68" t="s">
         <v>59</v>
       </c>
       <c r="D16" s="24">
@@ -1920,10 +1947,10 @@
       <c r="A17" s="23">
         <v>2</v>
       </c>
-      <c r="B17" s="90">
+      <c r="B17" s="88">
         <v>42326</v>
       </c>
-      <c r="C17" s="75" t="s">
+      <c r="C17" s="73" t="s">
         <v>58</v>
       </c>
       <c r="D17" s="24">
@@ -1965,10 +1992,10 @@
       <c r="A18" s="23">
         <v>2</v>
       </c>
-      <c r="B18" s="90">
+      <c r="B18" s="88">
         <v>42326</v>
       </c>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="72" t="s">
         <v>52</v>
       </c>
       <c r="D18" s="24">
@@ -2010,10 +2037,10 @@
       <c r="A19" s="23">
         <v>2</v>
       </c>
-      <c r="B19" s="90">
+      <c r="B19" s="88">
         <v>42327</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="72" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="24">
@@ -2051,10 +2078,10 @@
       <c r="A20" s="23">
         <v>2</v>
       </c>
-      <c r="B20" s="90">
+      <c r="B20" s="88">
         <v>42330</v>
       </c>
-      <c r="C20" s="74" t="s">
+      <c r="C20" s="72" t="s">
         <v>56</v>
       </c>
       <c r="D20" s="24"/>
@@ -2084,10 +2111,10 @@
       <c r="A21" s="23">
         <v>2</v>
       </c>
-      <c r="B21" s="90">
+      <c r="B21" s="88">
         <v>42330</v>
       </c>
-      <c r="C21" s="85" t="s">
+      <c r="C21" s="83" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="31">
@@ -2126,28 +2153,28 @@
       </c>
     </row>
     <row r="22" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="101" t="s">
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="102" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="101"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="82">
+      <c r="K22" s="102"/>
+      <c r="L22" s="76"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="80">
         <f>SUM(N12:N21)</f>
         <v>35.25</v>
       </c>
-      <c r="O22" s="82">
+      <c r="O22" s="80">
         <f>SUM(O12:O21)</f>
         <v>38.25</v>
       </c>
@@ -2156,10 +2183,10 @@
       <c r="A23" s="23">
         <v>3</v>
       </c>
-      <c r="B23" s="90">
+      <c r="B23" s="88">
         <v>42331</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="72" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="38">
@@ -2201,10 +2228,10 @@
       <c r="A24" s="23">
         <v>3</v>
       </c>
-      <c r="B24" s="90">
+      <c r="B24" s="88">
         <v>42331</v>
       </c>
-      <c r="C24" s="74" t="s">
+      <c r="C24" s="72" t="s">
         <v>59</v>
       </c>
       <c r="D24" s="38">
@@ -2246,10 +2273,10 @@
       <c r="A25" s="23">
         <v>3</v>
       </c>
-      <c r="B25" s="90">
+      <c r="B25" s="88">
         <v>42331</v>
       </c>
-      <c r="C25" s="74" t="s">
+      <c r="C25" s="72" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="38">
@@ -2291,10 +2318,10 @@
       <c r="A26" s="23">
         <v>3</v>
       </c>
-      <c r="B26" s="90">
+      <c r="B26" s="88">
         <v>42333</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="72" t="s">
         <v>59</v>
       </c>
       <c r="D26" s="38">
@@ -2336,10 +2363,10 @@
       <c r="A27" s="23">
         <v>3</v>
       </c>
-      <c r="B27" s="90">
+      <c r="B27" s="88">
         <v>42333</v>
       </c>
-      <c r="C27" s="74" t="s">
+      <c r="C27" s="72" t="s">
         <v>54</v>
       </c>
       <c r="D27" s="38"/>
@@ -2369,13 +2396,13 @@
       <c r="A28" s="23">
         <v>3</v>
       </c>
-      <c r="B28" s="90">
+      <c r="B28" s="88">
         <v>42331</v>
       </c>
-      <c r="C28" s="74" t="s">
+      <c r="C28" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="68">
+      <c r="D28" s="66">
         <v>0.25</v>
       </c>
       <c r="E28" s="38">
@@ -2402,13 +2429,13 @@
       <c r="A29" s="23">
         <v>3</v>
       </c>
-      <c r="B29" s="90">
+      <c r="B29" s="88">
         <v>42331</v>
       </c>
-      <c r="C29" s="74" t="s">
+      <c r="C29" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="68">
+      <c r="D29" s="66">
         <v>0.25</v>
       </c>
       <c r="E29" s="38">
@@ -2435,10 +2462,10 @@
       <c r="A30" s="23">
         <v>3</v>
       </c>
-      <c r="B30" s="90">
+      <c r="B30" s="88">
         <v>42333</v>
       </c>
-      <c r="C30" s="74" t="s">
+      <c r="C30" s="72" t="s">
         <v>60</v>
       </c>
       <c r="D30" s="38">
@@ -2480,10 +2507,10 @@
       <c r="A31" s="23">
         <v>3</v>
       </c>
-      <c r="B31" s="90">
+      <c r="B31" s="88">
         <v>42333</v>
       </c>
-      <c r="C31" s="74" t="s">
+      <c r="C31" s="72" t="s">
         <v>24</v>
       </c>
       <c r="D31" s="38">
@@ -2525,10 +2552,10 @@
       <c r="A32" s="23">
         <v>3</v>
       </c>
-      <c r="B32" s="90">
+      <c r="B32" s="88">
         <v>42333</v>
       </c>
-      <c r="C32" s="74" t="s">
+      <c r="C32" s="72" t="s">
         <v>62</v>
       </c>
       <c r="D32" s="38">
@@ -2547,8 +2574,8 @@
       </c>
       <c r="J32" s="29"/>
       <c r="K32" s="29"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
+      <c r="L32" s="71"/>
+      <c r="M32" s="71"/>
       <c r="N32" s="28">
         <f t="shared" si="19"/>
         <v>2</v>
@@ -2562,10 +2589,10 @@
       <c r="A33" s="23">
         <v>3</v>
       </c>
-      <c r="B33" s="90">
+      <c r="B33" s="88">
         <v>42334</v>
       </c>
-      <c r="C33" s="74" t="s">
+      <c r="C33" s="72" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="38">
@@ -2595,30 +2622,30 @@
       <c r="A34" s="61">
         <v>3</v>
       </c>
-      <c r="B34" s="93">
+      <c r="B34" s="91">
         <v>42334</v>
       </c>
-      <c r="C34" s="74" t="s">
+      <c r="C34" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="66">
-        <v>1</v>
-      </c>
-      <c r="E34" s="66">
-        <v>1</v>
-      </c>
-      <c r="F34" s="65"/>
-      <c r="G34" s="65"/>
-      <c r="H34" s="67">
-        <v>1</v>
-      </c>
-      <c r="I34" s="67">
-        <v>1</v>
-      </c>
-      <c r="J34" s="65"/>
-      <c r="K34" s="65"/>
-      <c r="L34" s="64"/>
-      <c r="M34" s="64"/>
+      <c r="D34" s="64">
+        <v>1</v>
+      </c>
+      <c r="E34" s="64">
+        <v>1</v>
+      </c>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="65">
+        <v>1</v>
+      </c>
+      <c r="I34" s="65">
+        <v>1</v>
+      </c>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
       <c r="N34" s="28">
         <f t="shared" si="19"/>
         <v>2</v>
@@ -2632,10 +2659,10 @@
       <c r="A35" s="30">
         <v>3</v>
       </c>
-      <c r="B35" s="91">
+      <c r="B35" s="89">
         <v>42337</v>
       </c>
-      <c r="C35" s="85" t="s">
+      <c r="C35" s="83" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="31">
@@ -2674,28 +2701,28 @@
       </c>
     </row>
     <row r="36" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="100" t="s">
+      <c r="A36" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="100"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="100"/>
-      <c r="J36" s="101" t="s">
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="103"/>
+      <c r="J36" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="K36" s="101"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="82">
+      <c r="K36" s="102"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="80">
         <f>SUM(N23:N35)</f>
         <v>40</v>
       </c>
-      <c r="O36" s="82">
+      <c r="O36" s="80">
         <f>SUM(O23:O35)</f>
         <v>40</v>
       </c>
@@ -2704,10 +2731,10 @@
       <c r="A37" s="23">
         <v>4</v>
       </c>
-      <c r="B37" s="90">
+      <c r="B37" s="88">
         <v>42338</v>
       </c>
-      <c r="C37" s="86" t="s">
+      <c r="C37" s="84" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="38">
@@ -2749,10 +2776,10 @@
       <c r="A38" s="23">
         <v>4</v>
       </c>
-      <c r="B38" s="90">
+      <c r="B38" s="88">
         <v>42338</v>
       </c>
-      <c r="C38" s="86" t="s">
+      <c r="C38" s="84" t="s">
         <v>24</v>
       </c>
       <c r="D38" s="38"/>
@@ -2771,8 +2798,8 @@
       <c r="K38" s="29">
         <v>3</v>
       </c>
-      <c r="L38" s="76"/>
-      <c r="M38" s="76"/>
+      <c r="L38" s="74"/>
+      <c r="M38" s="74"/>
       <c r="N38" s="28">
         <f t="shared" ref="N38:N45" si="28">D38+F38+H38+J38+L38</f>
         <v>4</v>
@@ -2786,10 +2813,10 @@
       <c r="A39" s="23">
         <v>4</v>
       </c>
-      <c r="B39" s="90">
+      <c r="B39" s="88">
         <v>42338</v>
       </c>
-      <c r="C39" s="86" t="s">
+      <c r="C39" s="84" t="s">
         <v>67</v>
       </c>
       <c r="D39" s="38">
@@ -2808,8 +2835,8 @@
       </c>
       <c r="J39" s="29"/>
       <c r="K39" s="29"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="76"/>
+      <c r="L39" s="74"/>
+      <c r="M39" s="74"/>
       <c r="N39" s="28">
         <f t="shared" ref="N39" si="30">D39+F39+H39+J39+L39</f>
         <v>4</v>
@@ -2823,10 +2850,10 @@
       <c r="A40" s="23">
         <v>4</v>
       </c>
-      <c r="B40" s="90">
+      <c r="B40" s="88">
         <v>42340</v>
       </c>
-      <c r="C40" s="74" t="s">
+      <c r="C40" s="72" t="s">
         <v>63</v>
       </c>
       <c r="D40" s="38">
@@ -2868,10 +2895,10 @@
       <c r="A41" s="23">
         <v>4</v>
       </c>
-      <c r="B41" s="90">
+      <c r="B41" s="88">
         <v>42340</v>
       </c>
-      <c r="C41" s="74" t="s">
+      <c r="C41" s="72" t="s">
         <v>59</v>
       </c>
       <c r="D41" s="38">
@@ -2913,10 +2940,10 @@
       <c r="A42" s="23">
         <v>4</v>
       </c>
-      <c r="B42" s="90">
+      <c r="B42" s="88">
         <v>42340</v>
       </c>
-      <c r="C42" s="74" t="s">
+      <c r="C42" s="72" t="s">
         <v>64</v>
       </c>
       <c r="D42" s="38">
@@ -2958,10 +2985,10 @@
       <c r="A43" s="23">
         <v>4</v>
       </c>
-      <c r="B43" s="90">
+      <c r="B43" s="88">
         <v>42341</v>
       </c>
-      <c r="C43" s="74" t="s">
+      <c r="C43" s="72" t="s">
         <v>65</v>
       </c>
       <c r="D43" s="38">
@@ -3003,10 +3030,10 @@
       <c r="A44" s="23">
         <v>4</v>
       </c>
-      <c r="B44" s="90">
+      <c r="B44" s="88">
         <v>42342</v>
       </c>
-      <c r="C44" s="74" t="s">
+      <c r="C44" s="72" t="s">
         <v>66</v>
       </c>
       <c r="D44" s="38">
@@ -3048,10 +3075,10 @@
       <c r="A45" s="23">
         <v>4</v>
       </c>
-      <c r="B45" s="90">
+      <c r="B45" s="88">
         <v>42342</v>
       </c>
-      <c r="C45" s="86" t="s">
+      <c r="C45" s="84" t="s">
         <v>23</v>
       </c>
       <c r="D45" s="38">
@@ -3081,10 +3108,10 @@
       <c r="A46" s="30">
         <v>4</v>
       </c>
-      <c r="B46" s="91">
+      <c r="B46" s="89">
         <v>42344</v>
       </c>
-      <c r="C46" s="85" t="s">
+      <c r="C46" s="83" t="s">
         <v>29</v>
       </c>
       <c r="D46" s="31">
@@ -3123,28 +3150,28 @@
       </c>
     </row>
     <row r="47" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="100" t="s">
+      <c r="A47" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="100"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="100"/>
-      <c r="E47" s="100"/>
-      <c r="F47" s="100"/>
-      <c r="G47" s="100"/>
-      <c r="H47" s="100"/>
-      <c r="I47" s="100"/>
-      <c r="J47" s="101" t="s">
+      <c r="B47" s="103"/>
+      <c r="C47" s="103"/>
+      <c r="D47" s="103"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="103"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="103"/>
+      <c r="I47" s="103"/>
+      <c r="J47" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="K47" s="101"/>
-      <c r="L47" s="78"/>
-      <c r="M47" s="78"/>
-      <c r="N47" s="82">
+      <c r="K47" s="102"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="76"/>
+      <c r="N47" s="80">
         <f>SUM(N37:N46)</f>
         <v>32.75</v>
       </c>
-      <c r="O47" s="82">
+      <c r="O47" s="80">
         <f>SUM(O37:O46)</f>
         <v>40.950000000000003</v>
       </c>
@@ -3153,10 +3180,10 @@
       <c r="A48" s="16">
         <v>5</v>
       </c>
-      <c r="B48" s="89">
+      <c r="B48" s="87">
         <v>42345</v>
       </c>
-      <c r="C48" s="69" t="s">
+      <c r="C48" s="67" t="s">
         <v>59</v>
       </c>
       <c r="D48" s="38">
@@ -3190,10 +3217,10 @@
       <c r="A49" s="23">
         <v>5</v>
       </c>
-      <c r="B49" s="90">
+      <c r="B49" s="88">
         <v>42345</v>
       </c>
-      <c r="C49" s="74" t="s">
+      <c r="C49" s="72" t="s">
         <v>113</v>
       </c>
       <c r="D49" s="38">
@@ -3235,10 +3262,10 @@
       <c r="A50" s="23">
         <v>5</v>
       </c>
-      <c r="B50" s="90">
+      <c r="B50" s="88">
         <v>42345</v>
       </c>
-      <c r="C50" s="74" t="s">
+      <c r="C50" s="72" t="s">
         <v>69</v>
       </c>
       <c r="D50" s="38">
@@ -3280,10 +3307,10 @@
       <c r="A51" s="23">
         <v>5</v>
       </c>
-      <c r="B51" s="90">
+      <c r="B51" s="88">
         <v>42346</v>
       </c>
-      <c r="C51" s="74" t="s">
+      <c r="C51" s="72" t="s">
         <v>75</v>
       </c>
       <c r="D51" s="38">
@@ -3325,10 +3352,10 @@
       <c r="A52" s="23">
         <v>5</v>
       </c>
-      <c r="B52" s="90">
+      <c r="B52" s="88">
         <v>42347</v>
       </c>
-      <c r="C52" s="74" t="s">
+      <c r="C52" s="72" t="s">
         <v>33</v>
       </c>
       <c r="D52" s="38">
@@ -3370,10 +3397,10 @@
       <c r="A53" s="23">
         <v>5</v>
       </c>
-      <c r="B53" s="90" t="s">
+      <c r="B53" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="C53" s="74" t="s">
+      <c r="C53" s="72" t="s">
         <v>71</v>
       </c>
       <c r="D53" s="38">
@@ -3403,10 +3430,10 @@
       <c r="A54" s="23">
         <v>5</v>
       </c>
-      <c r="B54" s="90" t="s">
+      <c r="B54" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="C54" s="74" t="s">
+      <c r="C54" s="72" t="s">
         <v>72</v>
       </c>
       <c r="D54" s="38"/>
@@ -3436,10 +3463,10 @@
       <c r="A55" s="23">
         <v>5</v>
       </c>
-      <c r="B55" s="90">
+      <c r="B55" s="88">
         <v>42347</v>
       </c>
-      <c r="C55" s="74" t="s">
+      <c r="C55" s="72" t="s">
         <v>68</v>
       </c>
       <c r="D55" s="38"/>
@@ -3469,10 +3496,10 @@
       <c r="A56" s="23">
         <v>5</v>
       </c>
-      <c r="B56" s="90" t="s">
+      <c r="B56" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="C56" s="74" t="s">
+      <c r="C56" s="72" t="s">
         <v>73</v>
       </c>
       <c r="D56" s="38"/>
@@ -3502,10 +3529,10 @@
       <c r="A57" s="23">
         <v>5</v>
       </c>
-      <c r="B57" s="90">
+      <c r="B57" s="88">
         <v>42347</v>
       </c>
-      <c r="C57" s="74" t="s">
+      <c r="C57" s="72" t="s">
         <v>59</v>
       </c>
       <c r="D57" s="38">
@@ -3547,10 +3574,10 @@
       <c r="A58" s="23">
         <v>5</v>
       </c>
-      <c r="B58" s="90">
+      <c r="B58" s="88">
         <v>42348</v>
       </c>
-      <c r="C58" s="74" t="s">
+      <c r="C58" s="72" t="s">
         <v>82</v>
       </c>
       <c r="D58" s="38">
@@ -3592,38 +3619,38 @@
       <c r="A59" s="61">
         <v>5</v>
       </c>
-      <c r="B59" s="93">
+      <c r="B59" s="91">
         <v>42349</v>
       </c>
-      <c r="C59" s="87" t="s">
+      <c r="C59" s="85" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="66">
-        <v>1</v>
-      </c>
-      <c r="E59" s="66">
+      <c r="D59" s="64">
+        <v>1</v>
+      </c>
+      <c r="E59" s="64">
         <v>4</v>
       </c>
-      <c r="F59" s="65">
-        <v>1</v>
-      </c>
-      <c r="G59" s="65">
+      <c r="F59" s="63">
+        <v>1</v>
+      </c>
+      <c r="G59" s="63">
         <v>3.5</v>
       </c>
-      <c r="H59" s="67">
-        <v>1</v>
-      </c>
-      <c r="I59" s="67">
+      <c r="H59" s="65">
+        <v>1</v>
+      </c>
+      <c r="I59" s="65">
         <v>2.5</v>
       </c>
-      <c r="J59" s="65">
-        <v>1</v>
-      </c>
-      <c r="K59" s="65">
+      <c r="J59" s="63">
+        <v>1</v>
+      </c>
+      <c r="K59" s="63">
         <v>3</v>
       </c>
-      <c r="L59" s="64"/>
-      <c r="M59" s="64"/>
+      <c r="L59" s="62"/>
+      <c r="M59" s="62"/>
       <c r="N59" s="28">
         <f t="shared" si="36"/>
         <v>4</v>
@@ -3637,26 +3664,26 @@
       <c r="A60" s="61">
         <v>5</v>
       </c>
-      <c r="B60" s="93">
+      <c r="B60" s="91">
         <v>42349</v>
       </c>
-      <c r="C60" s="87" t="s">
+      <c r="C60" s="85" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="66">
+      <c r="D60" s="64">
         <v>0.3</v>
       </c>
-      <c r="E60" s="66">
+      <c r="E60" s="64">
         <v>0.3</v>
       </c>
-      <c r="F60" s="65"/>
-      <c r="G60" s="65"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="65"/>
-      <c r="K60" s="65"/>
-      <c r="L60" s="64"/>
-      <c r="M60" s="64"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="63"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="63"/>
+      <c r="K60" s="63"/>
+      <c r="L60" s="62"/>
+      <c r="M60" s="62"/>
       <c r="N60" s="28">
         <f t="shared" si="36"/>
         <v>0.3</v>
@@ -3670,10 +3697,10 @@
       <c r="A61" s="30">
         <v>5</v>
       </c>
-      <c r="B61" s="91">
+      <c r="B61" s="89">
         <v>42351</v>
       </c>
-      <c r="C61" s="85" t="s">
+      <c r="C61" s="83" t="s">
         <v>29</v>
       </c>
       <c r="D61" s="31">
@@ -3712,28 +3739,28 @@
       </c>
     </row>
     <row r="62" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="100" t="s">
+      <c r="A62" s="103" t="s">
         <v>40</v>
       </c>
-      <c r="B62" s="100"/>
-      <c r="C62" s="100"/>
-      <c r="D62" s="100"/>
-      <c r="E62" s="100"/>
-      <c r="F62" s="100"/>
-      <c r="G62" s="100"/>
-      <c r="H62" s="100"/>
-      <c r="I62" s="100"/>
-      <c r="J62" s="101" t="s">
+      <c r="B62" s="103"/>
+      <c r="C62" s="103"/>
+      <c r="D62" s="103"/>
+      <c r="E62" s="103"/>
+      <c r="F62" s="103"/>
+      <c r="G62" s="103"/>
+      <c r="H62" s="103"/>
+      <c r="I62" s="103"/>
+      <c r="J62" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="K62" s="101"/>
-      <c r="L62" s="78"/>
-      <c r="M62" s="78"/>
-      <c r="N62" s="82">
+      <c r="K62" s="102"/>
+      <c r="L62" s="76"/>
+      <c r="M62" s="76"/>
+      <c r="N62" s="80">
         <f>SUM(N48:N61)</f>
         <v>55.8</v>
       </c>
-      <c r="O62" s="82">
+      <c r="O62" s="80">
         <f>SUM(O48:O61)</f>
         <v>63.8</v>
       </c>
@@ -3742,10 +3769,10 @@
       <c r="A63" s="51">
         <v>6</v>
       </c>
-      <c r="B63" s="92" t="s">
+      <c r="B63" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="77" t="s">
+      <c r="C63" s="75" t="s">
         <v>76</v>
       </c>
       <c r="D63" s="38">
@@ -3769,11 +3796,11 @@
       <c r="J63" s="29">
         <v>2</v>
       </c>
-      <c r="K63" s="72">
+      <c r="K63" s="70">
         <v>3</v>
       </c>
-      <c r="L63" s="73"/>
-      <c r="M63" s="73"/>
+      <c r="L63" s="71"/>
+      <c r="M63" s="71"/>
       <c r="N63" s="21">
         <f t="shared" ref="N63:O75" si="39">D63+F63+H63+J63+L63</f>
         <v>8</v>
@@ -3787,10 +3814,10 @@
       <c r="A64" s="51">
         <v>6</v>
       </c>
-      <c r="B64" s="92" t="s">
+      <c r="B64" s="90" t="s">
         <v>74</v>
       </c>
-      <c r="C64" s="77" t="s">
+      <c r="C64" s="75" t="s">
         <v>77</v>
       </c>
       <c r="D64" s="38">
@@ -3814,11 +3841,11 @@
       <c r="J64" s="29">
         <v>2</v>
       </c>
-      <c r="K64" s="72">
-        <v>1</v>
-      </c>
-      <c r="L64" s="73"/>
-      <c r="M64" s="73"/>
+      <c r="K64" s="70">
+        <v>1</v>
+      </c>
+      <c r="L64" s="71"/>
+      <c r="M64" s="71"/>
       <c r="N64" s="28">
         <f t="shared" si="39"/>
         <v>8</v>
@@ -3832,10 +3859,10 @@
       <c r="A65" s="51">
         <v>6</v>
       </c>
-      <c r="B65" s="92">
+      <c r="B65" s="90">
         <v>42353</v>
       </c>
-      <c r="C65" s="77" t="s">
+      <c r="C65" s="75" t="s">
         <v>78</v>
       </c>
       <c r="D65" s="38">
@@ -3859,11 +3886,11 @@
       <c r="J65" s="29">
         <v>1</v>
       </c>
-      <c r="K65" s="72">
-        <v>0</v>
-      </c>
-      <c r="L65" s="73"/>
-      <c r="M65" s="73"/>
+      <c r="K65" s="70">
+        <v>0</v>
+      </c>
+      <c r="L65" s="71"/>
+      <c r="M65" s="71"/>
       <c r="N65" s="28">
         <f t="shared" si="39"/>
         <v>4</v>
@@ -3877,10 +3904,10 @@
       <c r="A66" s="51">
         <v>6</v>
       </c>
-      <c r="B66" s="92">
+      <c r="B66" s="90">
         <v>42353</v>
       </c>
-      <c r="C66" s="77" t="s">
+      <c r="C66" s="75" t="s">
         <v>79</v>
       </c>
       <c r="D66" s="38">
@@ -3904,11 +3931,11 @@
       <c r="J66" s="29">
         <v>2</v>
       </c>
-      <c r="K66" s="72">
+      <c r="K66" s="70">
         <v>1.5</v>
       </c>
-      <c r="L66" s="73"/>
-      <c r="M66" s="73"/>
+      <c r="L66" s="71"/>
+      <c r="M66" s="71"/>
       <c r="N66" s="28">
         <f t="shared" si="39"/>
         <v>8</v>
@@ -3922,10 +3949,10 @@
       <c r="A67" s="51">
         <v>6</v>
       </c>
-      <c r="B67" s="92">
+      <c r="B67" s="90">
         <v>42353</v>
       </c>
-      <c r="C67" s="77" t="s">
+      <c r="C67" s="75" t="s">
         <v>115</v>
       </c>
       <c r="D67" s="38">
@@ -3949,11 +3976,11 @@
       <c r="J67" s="29">
         <v>1</v>
       </c>
-      <c r="K67" s="72">
-        <v>2</v>
-      </c>
-      <c r="L67" s="73"/>
-      <c r="M67" s="73"/>
+      <c r="K67" s="70">
+        <v>2</v>
+      </c>
+      <c r="L67" s="71"/>
+      <c r="M67" s="71"/>
       <c r="N67" s="28">
         <f t="shared" si="39"/>
         <v>4</v>
@@ -3967,10 +3994,10 @@
       <c r="A68" s="51">
         <v>6</v>
       </c>
-      <c r="B68" s="92">
+      <c r="B68" s="90">
         <v>42354</v>
       </c>
-      <c r="C68" s="74" t="s">
+      <c r="C68" s="72" t="s">
         <v>59</v>
       </c>
       <c r="D68" s="38">
@@ -3994,11 +4021,11 @@
       <c r="J68" s="29">
         <v>0.5</v>
       </c>
-      <c r="K68" s="72">
-        <v>0.5</v>
-      </c>
-      <c r="L68" s="73"/>
-      <c r="M68" s="73"/>
+      <c r="K68" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="L68" s="71"/>
+      <c r="M68" s="71"/>
       <c r="N68" s="28">
         <f t="shared" si="39"/>
         <v>2.5</v>
@@ -4012,10 +4039,10 @@
       <c r="A69" s="51">
         <v>6</v>
       </c>
-      <c r="B69" s="92">
+      <c r="B69" s="90">
         <v>42354</v>
       </c>
-      <c r="C69" s="77" t="s">
+      <c r="C69" s="75" t="s">
         <v>81</v>
       </c>
       <c r="D69" s="38">
@@ -4039,11 +4066,11 @@
       <c r="J69" s="29">
         <v>2</v>
       </c>
-      <c r="K69" s="72">
-        <v>2</v>
-      </c>
-      <c r="L69" s="73"/>
-      <c r="M69" s="73"/>
+      <c r="K69" s="70">
+        <v>2</v>
+      </c>
+      <c r="L69" s="71"/>
+      <c r="M69" s="71"/>
       <c r="N69" s="28">
         <f t="shared" si="39"/>
         <v>8</v>
@@ -4057,10 +4084,10 @@
       <c r="A70" s="51">
         <v>6</v>
       </c>
-      <c r="B70" s="92">
+      <c r="B70" s="90">
         <v>42354</v>
       </c>
-      <c r="C70" s="77" t="s">
+      <c r="C70" s="75" t="s">
         <v>114</v>
       </c>
       <c r="D70" s="38">
@@ -4074,9 +4101,9 @@
       <c r="H70" s="39"/>
       <c r="I70" s="39"/>
       <c r="J70" s="29"/>
-      <c r="K70" s="72"/>
-      <c r="L70" s="73"/>
-      <c r="M70" s="73"/>
+      <c r="K70" s="70"/>
+      <c r="L70" s="71"/>
+      <c r="M70" s="71"/>
       <c r="N70" s="28">
         <f t="shared" si="39"/>
         <v>0.3</v>
@@ -4090,10 +4117,10 @@
       <c r="A71" s="51">
         <v>6</v>
       </c>
-      <c r="B71" s="92">
+      <c r="B71" s="90">
         <v>42354</v>
       </c>
-      <c r="C71" s="74" t="s">
+      <c r="C71" s="72" t="s">
         <v>116</v>
       </c>
       <c r="D71" s="38">
@@ -4117,11 +4144,11 @@
       <c r="J71" s="29">
         <v>0.5</v>
       </c>
-      <c r="K71" s="72">
-        <v>1</v>
-      </c>
-      <c r="L71" s="73"/>
-      <c r="M71" s="73"/>
+      <c r="K71" s="70">
+        <v>1</v>
+      </c>
+      <c r="L71" s="71"/>
+      <c r="M71" s="71"/>
       <c r="N71" s="28">
         <f t="shared" si="39"/>
         <v>2</v>
@@ -4135,10 +4162,10 @@
       <c r="A72" s="51">
         <v>6</v>
       </c>
-      <c r="B72" s="92">
+      <c r="B72" s="90">
         <v>42354</v>
       </c>
-      <c r="C72" s="74" t="s">
+      <c r="C72" s="72" t="s">
         <v>117</v>
       </c>
       <c r="D72" s="38">
@@ -4162,11 +4189,11 @@
       <c r="J72" s="29">
         <v>0.25</v>
       </c>
-      <c r="K72" s="72">
+      <c r="K72" s="70">
         <v>0.25</v>
       </c>
-      <c r="L72" s="73"/>
-      <c r="M72" s="73"/>
+      <c r="L72" s="71"/>
+      <c r="M72" s="71"/>
       <c r="N72" s="28">
         <f t="shared" si="39"/>
         <v>1.75</v>
@@ -4180,10 +4207,10 @@
       <c r="A73" s="51">
         <v>6</v>
       </c>
-      <c r="B73" s="92">
+      <c r="B73" s="90">
         <v>42355</v>
       </c>
-      <c r="C73" s="74" t="s">
+      <c r="C73" s="72" t="s">
         <v>85</v>
       </c>
       <c r="D73" s="38">
@@ -4207,11 +4234,11 @@
       <c r="J73" s="29">
         <v>2</v>
       </c>
-      <c r="K73" s="72">
-        <v>2</v>
-      </c>
-      <c r="L73" s="73"/>
-      <c r="M73" s="73"/>
+      <c r="K73" s="70">
+        <v>2</v>
+      </c>
+      <c r="L73" s="71"/>
+      <c r="M73" s="71"/>
       <c r="N73" s="28">
         <f t="shared" si="39"/>
         <v>8</v>
@@ -4225,10 +4252,10 @@
       <c r="A74" s="51">
         <v>6</v>
       </c>
-      <c r="B74" s="92">
+      <c r="B74" s="90">
         <v>42355</v>
       </c>
-      <c r="C74" s="74" t="s">
+      <c r="C74" s="72" t="s">
         <v>86</v>
       </c>
       <c r="D74" s="38">
@@ -4252,11 +4279,11 @@
       <c r="J74" s="29">
         <v>2</v>
       </c>
-      <c r="K74" s="72">
-        <v>2</v>
-      </c>
-      <c r="L74" s="73"/>
-      <c r="M74" s="73"/>
+      <c r="K74" s="70">
+        <v>2</v>
+      </c>
+      <c r="L74" s="71"/>
+      <c r="M74" s="71"/>
       <c r="N74" s="28">
         <f t="shared" si="39"/>
         <v>8</v>
@@ -4270,10 +4297,10 @@
       <c r="A75" s="23">
         <v>6</v>
       </c>
-      <c r="B75" s="92">
+      <c r="B75" s="90">
         <v>42356</v>
       </c>
-      <c r="C75" s="74" t="s">
+      <c r="C75" s="72" t="s">
         <v>25</v>
       </c>
       <c r="D75" s="42">
@@ -4298,28 +4325,28 @@
       </c>
     </row>
     <row r="76" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="100" t="s">
+      <c r="A76" s="103" t="s">
         <v>41</v>
       </c>
-      <c r="B76" s="100"/>
-      <c r="C76" s="100"/>
-      <c r="D76" s="100"/>
-      <c r="E76" s="100"/>
-      <c r="F76" s="100"/>
-      <c r="G76" s="100"/>
-      <c r="H76" s="100"/>
-      <c r="I76" s="100"/>
-      <c r="J76" s="100" t="s">
+      <c r="B76" s="103"/>
+      <c r="C76" s="103"/>
+      <c r="D76" s="103"/>
+      <c r="E76" s="103"/>
+      <c r="F76" s="103"/>
+      <c r="G76" s="103"/>
+      <c r="H76" s="103"/>
+      <c r="I76" s="103"/>
+      <c r="J76" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="K76" s="101"/>
-      <c r="L76" s="78"/>
-      <c r="M76" s="78"/>
-      <c r="N76" s="82">
+      <c r="K76" s="102"/>
+      <c r="L76" s="76"/>
+      <c r="M76" s="76"/>
+      <c r="N76" s="80">
         <f>SUM(N63:N75)</f>
         <v>62.849999999999994</v>
       </c>
-      <c r="O76" s="82">
+      <c r="O76" s="80">
         <f>SUM(O63:O75)</f>
         <v>59.55</v>
       </c>
@@ -4328,10 +4355,10 @@
       <c r="A77" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B77" s="89">
+      <c r="B77" s="87">
         <v>42380</v>
       </c>
-      <c r="C77" s="69" t="s">
+      <c r="C77" s="67" t="s">
         <v>59</v>
       </c>
       <c r="D77" s="38">
@@ -4373,10 +4400,10 @@
       <c r="A78" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="92">
+      <c r="B78" s="90">
         <v>42380</v>
       </c>
-      <c r="C78" s="92" t="s">
+      <c r="C78" s="90" t="s">
         <v>121</v>
       </c>
       <c r="D78" s="38">
@@ -4400,16 +4427,16 @@
       <c r="J78" s="29">
         <v>0</v>
       </c>
-      <c r="K78" s="72">
-        <v>0</v>
-      </c>
-      <c r="L78" s="73"/>
-      <c r="M78" s="73"/>
-      <c r="N78" s="96">
+      <c r="K78" s="70">
+        <v>0</v>
+      </c>
+      <c r="L78" s="71"/>
+      <c r="M78" s="71"/>
+      <c r="N78" s="94">
         <f t="shared" ref="N78" si="42">D78+F78+H78+J78+L78</f>
         <v>4</v>
       </c>
-      <c r="O78" s="72">
+      <c r="O78" s="70">
         <f t="shared" ref="O78" si="43">E78+G78+I78+K78+M78</f>
         <v>10</v>
       </c>
@@ -4418,10 +4445,10 @@
       <c r="A79" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B79" s="92">
+      <c r="B79" s="90">
         <v>42380</v>
       </c>
-      <c r="C79" s="92" t="s">
+      <c r="C79" s="90" t="s">
         <v>21</v>
       </c>
       <c r="D79" s="38">
@@ -4445,16 +4472,16 @@
       <c r="J79" s="29">
         <v>2</v>
       </c>
-      <c r="K79" s="72">
+      <c r="K79" s="70">
         <v>0.25</v>
       </c>
-      <c r="L79" s="73"/>
-      <c r="M79" s="73"/>
-      <c r="N79" s="96">
+      <c r="L79" s="71"/>
+      <c r="M79" s="71"/>
+      <c r="N79" s="94">
         <f t="shared" ref="N79:N111" si="44">D79+F79+H79+J79+L79</f>
         <v>8</v>
       </c>
-      <c r="O79" s="72">
+      <c r="O79" s="70">
         <f t="shared" ref="O79:O111" si="45">E79+G79+I79+K79+M79</f>
         <v>1</v>
       </c>
@@ -4463,10 +4490,10 @@
       <c r="A80" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B80" s="92">
+      <c r="B80" s="90">
         <v>42380</v>
       </c>
-      <c r="C80" s="92" t="s">
+      <c r="C80" s="90" t="s">
         <v>122</v>
       </c>
       <c r="D80" s="38">
@@ -4490,16 +4517,16 @@
       <c r="J80" s="29">
         <v>0</v>
       </c>
-      <c r="K80" s="72">
-        <v>1</v>
-      </c>
-      <c r="L80" s="73"/>
-      <c r="M80" s="73"/>
-      <c r="N80" s="96">
+      <c r="K80" s="70">
+        <v>1</v>
+      </c>
+      <c r="L80" s="71"/>
+      <c r="M80" s="71"/>
+      <c r="N80" s="94">
         <f t="shared" si="44"/>
         <v>4</v>
       </c>
-      <c r="O80" s="72">
+      <c r="O80" s="70">
         <f t="shared" si="45"/>
         <v>5</v>
       </c>
@@ -4508,10 +4535,10 @@
       <c r="A81" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B81" s="92">
+      <c r="B81" s="90">
         <v>42380</v>
       </c>
-      <c r="C81" s="92" t="s">
+      <c r="C81" s="90" t="s">
         <v>124</v>
       </c>
       <c r="D81" s="38">
@@ -4535,16 +4562,16 @@
       <c r="J81" s="29">
         <v>4</v>
       </c>
-      <c r="K81" s="72">
+      <c r="K81" s="70">
         <v>5</v>
       </c>
-      <c r="L81" s="73"/>
-      <c r="M81" s="73"/>
-      <c r="N81" s="96">
+      <c r="L81" s="71"/>
+      <c r="M81" s="71"/>
+      <c r="N81" s="94">
         <f t="shared" si="44"/>
         <v>4</v>
       </c>
-      <c r="O81" s="72">
+      <c r="O81" s="70">
         <f t="shared" si="45"/>
         <v>5</v>
       </c>
@@ -4553,10 +4580,10 @@
       <c r="A82" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B82" s="92">
+      <c r="B82" s="90">
         <v>42380</v>
       </c>
-      <c r="C82" s="92" t="s">
+      <c r="C82" s="90" t="s">
         <v>121</v>
       </c>
       <c r="D82" s="38">
@@ -4580,16 +4607,16 @@
       <c r="J82" s="29">
         <v>1</v>
       </c>
-      <c r="K82" s="72">
-        <v>0.5</v>
-      </c>
-      <c r="L82" s="73"/>
-      <c r="M82" s="73"/>
-      <c r="N82" s="96">
+      <c r="K82" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="L82" s="71"/>
+      <c r="M82" s="71"/>
+      <c r="N82" s="94">
         <f t="shared" si="44"/>
         <v>4</v>
       </c>
-      <c r="O82" s="72">
+      <c r="O82" s="70">
         <f t="shared" si="45"/>
         <v>5</v>
       </c>
@@ -4598,10 +4625,10 @@
       <c r="A83" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B83" s="90">
+      <c r="B83" s="88">
         <v>42380</v>
       </c>
-      <c r="C83" s="74" t="s">
+      <c r="C83" s="72" t="s">
         <v>88</v>
       </c>
       <c r="D83" s="38">
@@ -4630,11 +4657,11 @@
       </c>
       <c r="L83" s="40"/>
       <c r="M83" s="40"/>
-      <c r="N83" s="96">
+      <c r="N83" s="94">
         <f t="shared" si="44"/>
         <v>8</v>
       </c>
-      <c r="O83" s="72">
+      <c r="O83" s="70">
         <f t="shared" si="45"/>
         <v>5</v>
       </c>
@@ -4643,10 +4670,10 @@
       <c r="A84" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B84" s="90">
+      <c r="B84" s="88">
         <v>42381</v>
       </c>
-      <c r="C84" s="74" t="s">
+      <c r="C84" s="72" t="s">
         <v>59</v>
       </c>
       <c r="D84" s="38">
@@ -4675,11 +4702,11 @@
       </c>
       <c r="L84" s="40"/>
       <c r="M84" s="40"/>
-      <c r="N84" s="96">
+      <c r="N84" s="94">
         <f t="shared" si="44"/>
         <v>2.5</v>
       </c>
-      <c r="O84" s="72">
+      <c r="O84" s="70">
         <f t="shared" si="45"/>
         <v>2.5</v>
       </c>
@@ -4688,10 +4715,10 @@
       <c r="A85" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B85" s="92">
+      <c r="B85" s="90">
         <v>42381</v>
       </c>
-      <c r="C85" s="92" t="s">
+      <c r="C85" s="90" t="s">
         <v>121</v>
       </c>
       <c r="D85" s="38">
@@ -4715,16 +4742,16 @@
       <c r="J85" s="29">
         <v>1</v>
       </c>
-      <c r="K85" s="72">
-        <v>0</v>
-      </c>
-      <c r="L85" s="73"/>
-      <c r="M85" s="73"/>
-      <c r="N85" s="96">
+      <c r="K85" s="70">
+        <v>0</v>
+      </c>
+      <c r="L85" s="71"/>
+      <c r="M85" s="71"/>
+      <c r="N85" s="94">
         <f t="shared" si="44"/>
         <v>4</v>
       </c>
-      <c r="O85" s="72">
+      <c r="O85" s="70">
         <f t="shared" si="45"/>
         <v>2</v>
       </c>
@@ -4733,10 +4760,10 @@
       <c r="A86" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B86" s="92">
+      <c r="B86" s="90">
         <v>42381</v>
       </c>
-      <c r="C86" s="77" t="s">
+      <c r="C86" s="75" t="s">
         <v>118</v>
       </c>
       <c r="D86" s="38">
@@ -4756,16 +4783,16 @@
       <c r="J86" s="29">
         <v>1</v>
       </c>
-      <c r="K86" s="72">
-        <v>1</v>
-      </c>
-      <c r="L86" s="73"/>
-      <c r="M86" s="73"/>
-      <c r="N86" s="96">
+      <c r="K86" s="70">
+        <v>1</v>
+      </c>
+      <c r="L86" s="71"/>
+      <c r="M86" s="71"/>
+      <c r="N86" s="94">
         <f t="shared" si="44"/>
         <v>2</v>
       </c>
-      <c r="O86" s="72">
+      <c r="O86" s="70">
         <f t="shared" si="45"/>
         <v>7.5</v>
       </c>
@@ -4774,10 +4801,10 @@
       <c r="A87" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="90">
+      <c r="B87" s="88">
         <v>42381</v>
       </c>
-      <c r="C87" s="74" t="s">
+      <c r="C87" s="72" t="s">
         <v>89</v>
       </c>
       <c r="D87" s="38">
@@ -4806,11 +4833,11 @@
       </c>
       <c r="L87" s="40"/>
       <c r="M87" s="40"/>
-      <c r="N87" s="96">
+      <c r="N87" s="94">
         <f t="shared" si="44"/>
         <v>7</v>
       </c>
-      <c r="O87" s="72">
+      <c r="O87" s="70">
         <f t="shared" si="45"/>
         <v>3</v>
       </c>
@@ -4819,10 +4846,10 @@
       <c r="A88" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B88" s="92">
+      <c r="B88" s="90">
         <v>42381</v>
       </c>
-      <c r="C88" s="77" t="s">
+      <c r="C88" s="75" t="s">
         <v>87</v>
       </c>
       <c r="D88" s="38">
@@ -4846,16 +4873,16 @@
       <c r="J88" s="29">
         <v>2</v>
       </c>
-      <c r="K88" s="72">
-        <v>1</v>
-      </c>
-      <c r="L88" s="73"/>
-      <c r="M88" s="73"/>
-      <c r="N88" s="96">
+      <c r="K88" s="70">
+        <v>1</v>
+      </c>
+      <c r="L88" s="71"/>
+      <c r="M88" s="71"/>
+      <c r="N88" s="94">
         <f t="shared" si="44"/>
         <v>8</v>
       </c>
-      <c r="O88" s="72">
+      <c r="O88" s="70">
         <f t="shared" si="45"/>
         <v>10</v>
       </c>
@@ -4864,10 +4891,10 @@
       <c r="A89" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B89" s="92">
+      <c r="B89" s="90">
         <v>42381</v>
       </c>
-      <c r="C89" s="74" t="s">
+      <c r="C89" s="72" t="s">
         <v>80</v>
       </c>
       <c r="D89" s="38">
@@ -4887,14 +4914,14 @@
       <c r="J89" s="29">
         <v>3</v>
       </c>
-      <c r="K89" s="72"/>
-      <c r="L89" s="73"/>
-      <c r="M89" s="73"/>
-      <c r="N89" s="96">
+      <c r="K89" s="70"/>
+      <c r="L89" s="71"/>
+      <c r="M89" s="71"/>
+      <c r="N89" s="94">
         <f t="shared" si="44"/>
         <v>4</v>
       </c>
-      <c r="O89" s="72">
+      <c r="O89" s="70">
         <f t="shared" si="45"/>
         <v>4</v>
       </c>
@@ -4903,10 +4930,10 @@
       <c r="A90" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B90" s="90">
+      <c r="B90" s="88">
         <v>42381</v>
       </c>
-      <c r="C90" s="74" t="s">
+      <c r="C90" s="72" t="s">
         <v>90</v>
       </c>
       <c r="D90" s="38">
@@ -4935,11 +4962,11 @@
       </c>
       <c r="L90" s="40"/>
       <c r="M90" s="40"/>
-      <c r="N90" s="96">
+      <c r="N90" s="94">
         <f t="shared" si="44"/>
         <v>7</v>
       </c>
-      <c r="O90" s="72">
+      <c r="O90" s="70">
         <f t="shared" si="45"/>
         <v>5</v>
       </c>
@@ -4948,10 +4975,10 @@
       <c r="A91" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B91" s="92">
+      <c r="B91" s="90">
         <v>42382</v>
       </c>
-      <c r="C91" s="77" t="s">
+      <c r="C91" s="75" t="s">
         <v>121</v>
       </c>
       <c r="D91" s="38">
@@ -4975,16 +5002,16 @@
       <c r="J91" s="29">
         <v>0</v>
       </c>
-      <c r="K91" s="72">
-        <v>0.5</v>
-      </c>
-      <c r="L91" s="73"/>
-      <c r="M91" s="73"/>
-      <c r="N91" s="96">
+      <c r="K91" s="70">
+        <v>0.5</v>
+      </c>
+      <c r="L91" s="71"/>
+      <c r="M91" s="71"/>
+      <c r="N91" s="94">
         <f t="shared" si="44"/>
         <v>3</v>
       </c>
-      <c r="O91" s="72">
+      <c r="O91" s="70">
         <f t="shared" si="45"/>
         <v>4</v>
       </c>
@@ -4993,10 +5020,10 @@
       <c r="A92" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B92" s="92">
+      <c r="B92" s="90">
         <v>42382</v>
       </c>
-      <c r="C92" s="77" t="s">
+      <c r="C92" s="75" t="s">
         <v>95</v>
       </c>
       <c r="D92" s="38">
@@ -5020,16 +5047,16 @@
       <c r="J92" s="29">
         <v>2</v>
       </c>
-      <c r="K92" s="72">
+      <c r="K92" s="70">
         <v>1.5</v>
       </c>
-      <c r="L92" s="73"/>
-      <c r="M92" s="73"/>
-      <c r="N92" s="96">
+      <c r="L92" s="71"/>
+      <c r="M92" s="71"/>
+      <c r="N92" s="94">
         <f t="shared" si="44"/>
         <v>5</v>
       </c>
-      <c r="O92" s="72">
+      <c r="O92" s="70">
         <f t="shared" si="45"/>
         <v>4.5</v>
       </c>
@@ -5038,10 +5065,10 @@
       <c r="A93" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B93" s="90">
+      <c r="B93" s="88">
         <v>42382</v>
       </c>
-      <c r="C93" s="74" t="s">
+      <c r="C93" s="72" t="s">
         <v>106</v>
       </c>
       <c r="D93" s="38">
@@ -5070,11 +5097,11 @@
       </c>
       <c r="L93" s="40"/>
       <c r="M93" s="40"/>
-      <c r="N93" s="96">
+      <c r="N93" s="94">
         <f t="shared" si="44"/>
         <v>7</v>
       </c>
-      <c r="O93" s="72">
+      <c r="O93" s="70">
         <f t="shared" si="45"/>
         <v>5.5</v>
       </c>
@@ -5083,10 +5110,10 @@
       <c r="A94" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B94" s="90">
+      <c r="B94" s="88">
         <v>42382</v>
       </c>
-      <c r="C94" s="74" t="s">
+      <c r="C94" s="72" t="s">
         <v>111</v>
       </c>
       <c r="D94" s="38">
@@ -5115,11 +5142,11 @@
       </c>
       <c r="L94" s="40"/>
       <c r="M94" s="40"/>
-      <c r="N94" s="96">
+      <c r="N94" s="94">
         <f t="shared" si="44"/>
         <v>7</v>
       </c>
-      <c r="O94" s="72">
+      <c r="O94" s="70">
         <f t="shared" si="45"/>
         <v>6</v>
       </c>
@@ -5128,10 +5155,10 @@
       <c r="A95" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B95" s="90">
+      <c r="B95" s="88">
         <v>42382</v>
       </c>
-      <c r="C95" s="74" t="s">
+      <c r="C95" s="72" t="s">
         <v>129</v>
       </c>
       <c r="D95" s="38">
@@ -5158,11 +5185,11 @@
       </c>
       <c r="L95" s="40"/>
       <c r="M95" s="40"/>
-      <c r="N95" s="96">
+      <c r="N95" s="94">
         <f t="shared" si="44"/>
         <v>3</v>
       </c>
-      <c r="O95" s="72">
+      <c r="O95" s="70">
         <f t="shared" si="45"/>
         <v>2</v>
       </c>
@@ -5171,10 +5198,10 @@
       <c r="A96" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="90">
+      <c r="B96" s="88">
         <v>42382</v>
       </c>
-      <c r="C96" s="74" t="s">
+      <c r="C96" s="72" t="s">
         <v>91</v>
       </c>
       <c r="D96" s="38">
@@ -5203,40 +5230,40 @@
       </c>
       <c r="L96" s="40"/>
       <c r="M96" s="40"/>
-      <c r="N96" s="96">
+      <c r="N96" s="94">
         <f t="shared" ref="N96:N100" si="46">D96+F96+H96+J96+L96</f>
         <v>8</v>
       </c>
-      <c r="O96" s="72">
+      <c r="O96" s="70">
         <f t="shared" ref="O96:O100" si="47">E96+G96+I96+K96+M96</f>
         <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A97" s="110"/>
-      <c r="B97" s="111">
+      <c r="A97" s="98"/>
+      <c r="B97" s="99">
         <v>42382</v>
       </c>
-      <c r="C97" s="112" t="s">
+      <c r="C97" s="100" t="s">
         <v>132</v>
       </c>
-      <c r="D97" s="113"/>
-      <c r="E97" s="113">
+      <c r="D97" s="101"/>
+      <c r="E97" s="101">
         <v>8</v>
       </c>
-      <c r="F97" s="113"/>
-      <c r="G97" s="113"/>
-      <c r="H97" s="113"/>
-      <c r="I97" s="113"/>
-      <c r="J97" s="113"/>
-      <c r="K97" s="113"/>
-      <c r="L97" s="113"/>
-      <c r="M97" s="113"/>
-      <c r="N97" s="96">
+      <c r="F97" s="101"/>
+      <c r="G97" s="101"/>
+      <c r="H97" s="101"/>
+      <c r="I97" s="101"/>
+      <c r="J97" s="101"/>
+      <c r="K97" s="101"/>
+      <c r="L97" s="101"/>
+      <c r="M97" s="101"/>
+      <c r="N97" s="94">
         <f t="shared" ref="N97:N98" si="48">D97+F97+H97+J97+L97</f>
         <v>0</v>
       </c>
-      <c r="O97" s="72">
+      <c r="O97" s="70">
         <f t="shared" ref="O97:O98" si="49">E97+G97+I97+K97+M97</f>
         <v>8</v>
       </c>
@@ -5245,10 +5272,10 @@
       <c r="A98" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B98" s="90">
+      <c r="B98" s="88">
         <v>42383</v>
       </c>
-      <c r="C98" s="74" t="s">
+      <c r="C98" s="72" t="s">
         <v>123</v>
       </c>
       <c r="D98" s="38">
@@ -5277,11 +5304,11 @@
       </c>
       <c r="L98" s="40"/>
       <c r="M98" s="40"/>
-      <c r="N98" s="96">
+      <c r="N98" s="94">
         <f t="shared" si="48"/>
         <v>2</v>
       </c>
-      <c r="O98" s="72">
+      <c r="O98" s="70">
         <f t="shared" si="49"/>
         <v>2</v>
       </c>
@@ -5290,10 +5317,10 @@
       <c r="A99" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B99" s="90">
+      <c r="B99" s="88">
         <v>42383</v>
       </c>
-      <c r="C99" s="74" t="s">
+      <c r="C99" s="72" t="s">
         <v>121</v>
       </c>
       <c r="D99" s="38">
@@ -5322,11 +5349,11 @@
       </c>
       <c r="L99" s="40"/>
       <c r="M99" s="40"/>
-      <c r="N99" s="96">
+      <c r="N99" s="94">
         <f t="shared" si="46"/>
         <v>2</v>
       </c>
-      <c r="O99" s="72">
+      <c r="O99" s="70">
         <f t="shared" si="47"/>
         <v>6</v>
       </c>
@@ -5335,10 +5362,10 @@
       <c r="A100" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B100" s="90">
+      <c r="B100" s="88">
         <v>42383</v>
       </c>
-      <c r="C100" s="74" t="s">
+      <c r="C100" s="72" t="s">
         <v>91</v>
       </c>
       <c r="D100" s="38">
@@ -5367,11 +5394,11 @@
       </c>
       <c r="L100" s="40"/>
       <c r="M100" s="40"/>
-      <c r="N100" s="96">
+      <c r="N100" s="94">
         <f t="shared" si="46"/>
         <v>8</v>
       </c>
-      <c r="O100" s="72">
+      <c r="O100" s="70">
         <f t="shared" si="47"/>
         <v>5</v>
       </c>
@@ -5384,10 +5411,10 @@
       <c r="A101" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B101" s="90">
+      <c r="B101" s="88">
         <v>42383</v>
       </c>
-      <c r="C101" s="74" t="s">
+      <c r="C101" s="72" t="s">
         <v>93</v>
       </c>
       <c r="D101" s="38">
@@ -5416,11 +5443,11 @@
       </c>
       <c r="L101" s="40"/>
       <c r="M101" s="40"/>
-      <c r="N101" s="96">
+      <c r="N101" s="94">
         <f t="shared" si="44"/>
         <v>9</v>
       </c>
-      <c r="O101" s="72">
+      <c r="O101" s="70">
         <f t="shared" si="45"/>
         <v>6</v>
       </c>
@@ -5429,10 +5456,10 @@
       <c r="A102" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B102" s="90">
+      <c r="B102" s="88">
         <v>42383</v>
       </c>
-      <c r="C102" s="74" t="s">
+      <c r="C102" s="72" t="s">
         <v>119</v>
       </c>
       <c r="D102" s="38">
@@ -5461,11 +5488,11 @@
       </c>
       <c r="L102" s="40"/>
       <c r="M102" s="40"/>
-      <c r="N102" s="96">
+      <c r="N102" s="94">
         <f t="shared" si="44"/>
         <v>6</v>
       </c>
-      <c r="O102" s="72">
+      <c r="O102" s="70">
         <f t="shared" si="45"/>
         <v>7</v>
       </c>
@@ -5474,10 +5501,10 @@
       <c r="A103" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B103" s="90">
+      <c r="B103" s="88">
         <v>42383</v>
       </c>
-      <c r="C103" s="74" t="s">
+      <c r="C103" s="72" t="s">
         <v>129</v>
       </c>
       <c r="D103" s="38">
@@ -5506,11 +5533,11 @@
       </c>
       <c r="L103" s="40"/>
       <c r="M103" s="40"/>
-      <c r="N103" s="96">
+      <c r="N103" s="94">
         <f t="shared" si="44"/>
         <v>5</v>
       </c>
-      <c r="O103" s="72">
+      <c r="O103" s="70">
         <f t="shared" si="45"/>
         <v>8</v>
       </c>
@@ -5519,10 +5546,10 @@
       <c r="A104" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B104" s="90">
+      <c r="B104" s="88">
         <v>42384</v>
       </c>
-      <c r="C104" s="74" t="s">
+      <c r="C104" s="72" t="s">
         <v>59</v>
       </c>
       <c r="D104" s="38">
@@ -5551,11 +5578,11 @@
       </c>
       <c r="L104" s="40"/>
       <c r="M104" s="40"/>
-      <c r="N104" s="96">
+      <c r="N104" s="94">
         <f t="shared" si="44"/>
         <v>2.5</v>
       </c>
-      <c r="O104" s="72">
+      <c r="O104" s="70">
         <f t="shared" si="45"/>
         <v>3</v>
       </c>
@@ -5564,37 +5591,37 @@
       <c r="A105" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B105" s="90">
+      <c r="B105" s="88">
         <v>42384</v>
       </c>
-      <c r="C105" s="87" t="s">
+      <c r="C105" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="D105" s="66">
+      <c r="D105" s="64">
         <v>3</v>
       </c>
-      <c r="E105" s="66">
+      <c r="E105" s="64">
         <v>3</v>
       </c>
-      <c r="F105" s="65">
-        <v>0</v>
-      </c>
-      <c r="G105" s="65">
-        <v>0</v>
-      </c>
-      <c r="H105" s="67"/>
-      <c r="I105" s="67">
-        <v>1</v>
-      </c>
-      <c r="J105" s="65"/>
-      <c r="K105" s="65"/>
-      <c r="L105" s="64"/>
-      <c r="M105" s="64"/>
-      <c r="N105" s="96">
+      <c r="F105" s="63">
+        <v>0</v>
+      </c>
+      <c r="G105" s="63">
+        <v>0</v>
+      </c>
+      <c r="H105" s="65"/>
+      <c r="I105" s="65">
+        <v>1</v>
+      </c>
+      <c r="J105" s="63"/>
+      <c r="K105" s="63"/>
+      <c r="L105" s="62"/>
+      <c r="M105" s="62"/>
+      <c r="N105" s="94">
         <f t="shared" si="44"/>
         <v>3</v>
       </c>
-      <c r="O105" s="72">
+      <c r="O105" s="70">
         <f t="shared" si="45"/>
         <v>4</v>
       </c>
@@ -5603,41 +5630,41 @@
       <c r="A106" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B106" s="90">
+      <c r="B106" s="88">
         <v>42384</v>
       </c>
-      <c r="C106" s="87" t="s">
+      <c r="C106" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="D106" s="66">
-        <v>1</v>
-      </c>
-      <c r="E106" s="66">
-        <v>1</v>
-      </c>
-      <c r="F106" s="65">
-        <v>0</v>
-      </c>
-      <c r="G106" s="65">
-        <v>0</v>
-      </c>
-      <c r="H106" s="67">
-        <v>0</v>
-      </c>
-      <c r="I106" s="67"/>
-      <c r="J106" s="65">
-        <v>2</v>
-      </c>
-      <c r="K106" s="99">
+      <c r="D106" s="64">
+        <v>1</v>
+      </c>
+      <c r="E106" s="64">
+        <v>1</v>
+      </c>
+      <c r="F106" s="63">
+        <v>0</v>
+      </c>
+      <c r="G106" s="63">
+        <v>0</v>
+      </c>
+      <c r="H106" s="65">
+        <v>0</v>
+      </c>
+      <c r="I106" s="65"/>
+      <c r="J106" s="63">
+        <v>2</v>
+      </c>
+      <c r="K106" s="97">
         <v>2.5</v>
       </c>
-      <c r="L106" s="64"/>
-      <c r="M106" s="64"/>
-      <c r="N106" s="96">
+      <c r="L106" s="62"/>
+      <c r="M106" s="62"/>
+      <c r="N106" s="94">
         <f t="shared" si="44"/>
         <v>3</v>
       </c>
-      <c r="O106" s="72">
+      <c r="O106" s="70">
         <f t="shared" si="45"/>
         <v>3.5</v>
       </c>
@@ -5646,39 +5673,39 @@
       <c r="A107" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B107" s="90">
+      <c r="B107" s="88">
         <v>42384</v>
       </c>
-      <c r="C107" s="87" t="s">
+      <c r="C107" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="D107" s="66">
-        <v>1</v>
-      </c>
-      <c r="E107" s="66">
-        <v>0</v>
-      </c>
-      <c r="F107" s="65">
+      <c r="D107" s="64">
+        <v>1</v>
+      </c>
+      <c r="E107" s="64">
+        <v>0</v>
+      </c>
+      <c r="F107" s="63">
         <v>5</v>
       </c>
-      <c r="G107" s="65">
+      <c r="G107" s="63">
         <v>5</v>
       </c>
-      <c r="H107" s="67"/>
-      <c r="I107" s="67"/>
-      <c r="J107" s="65">
-        <v>1</v>
-      </c>
-      <c r="K107" s="65">
+      <c r="H107" s="65"/>
+      <c r="I107" s="65"/>
+      <c r="J107" s="63">
+        <v>1</v>
+      </c>
+      <c r="K107" s="63">
         <v>3</v>
       </c>
-      <c r="L107" s="64"/>
-      <c r="M107" s="64"/>
-      <c r="N107" s="96">
+      <c r="L107" s="62"/>
+      <c r="M107" s="62"/>
+      <c r="N107" s="94">
         <f t="shared" si="44"/>
         <v>7</v>
       </c>
-      <c r="O107" s="72">
+      <c r="O107" s="70">
         <f t="shared" si="45"/>
         <v>8</v>
       </c>
@@ -5687,43 +5714,43 @@
       <c r="A108" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B108" s="90">
+      <c r="B108" s="88">
         <v>42384</v>
       </c>
-      <c r="C108" s="87" t="s">
+      <c r="C108" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="D108" s="66">
-        <v>1</v>
-      </c>
-      <c r="E108" s="66">
-        <v>0.5</v>
-      </c>
-      <c r="F108" s="65">
-        <v>1</v>
-      </c>
-      <c r="G108" s="65">
-        <v>1</v>
-      </c>
-      <c r="H108" s="67">
-        <v>2</v>
-      </c>
-      <c r="I108" s="67">
-        <v>2</v>
-      </c>
-      <c r="J108" s="65">
-        <v>1</v>
-      </c>
-      <c r="K108" s="65">
-        <v>0.5</v>
-      </c>
-      <c r="L108" s="64"/>
-      <c r="M108" s="64"/>
-      <c r="N108" s="96">
+      <c r="D108" s="64">
+        <v>1</v>
+      </c>
+      <c r="E108" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="F108" s="63">
+        <v>1</v>
+      </c>
+      <c r="G108" s="63">
+        <v>1</v>
+      </c>
+      <c r="H108" s="65">
+        <v>2</v>
+      </c>
+      <c r="I108" s="65">
+        <v>2</v>
+      </c>
+      <c r="J108" s="63">
+        <v>1</v>
+      </c>
+      <c r="K108" s="63">
+        <v>0.5</v>
+      </c>
+      <c r="L108" s="62"/>
+      <c r="M108" s="62"/>
+      <c r="N108" s="94">
         <f t="shared" si="44"/>
         <v>5</v>
       </c>
-      <c r="O108" s="72">
+      <c r="O108" s="70">
         <f t="shared" si="45"/>
         <v>4</v>
       </c>
@@ -5732,53 +5759,53 @@
       <c r="A109" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="B109" s="90">
+      <c r="B109" s="88">
         <v>42384</v>
       </c>
-      <c r="C109" s="87" t="s">
+      <c r="C109" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="D109" s="66">
-        <v>1</v>
-      </c>
-      <c r="E109" s="66">
-        <v>2</v>
-      </c>
-      <c r="F109" s="65">
-        <v>1</v>
-      </c>
-      <c r="G109" s="65"/>
-      <c r="H109" s="67">
+      <c r="D109" s="64">
+        <v>1</v>
+      </c>
+      <c r="E109" s="64">
+        <v>2</v>
+      </c>
+      <c r="F109" s="63">
+        <v>1</v>
+      </c>
+      <c r="G109" s="63"/>
+      <c r="H109" s="65">
         <v>4</v>
       </c>
-      <c r="I109" s="67">
+      <c r="I109" s="65">
         <v>4</v>
       </c>
-      <c r="J109" s="65">
+      <c r="J109" s="63">
         <v>4</v>
       </c>
-      <c r="K109" s="65">
-        <v>1</v>
-      </c>
-      <c r="L109" s="64"/>
-      <c r="M109" s="64"/>
-      <c r="N109" s="96">
+      <c r="K109" s="63">
+        <v>1</v>
+      </c>
+      <c r="L109" s="62"/>
+      <c r="M109" s="62"/>
+      <c r="N109" s="94">
         <f t="shared" si="44"/>
         <v>10</v>
       </c>
-      <c r="O109" s="72">
+      <c r="O109" s="70">
         <f t="shared" si="45"/>
         <v>7</v>
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A110" s="97" t="s">
+      <c r="A110" s="95" t="s">
         <v>8</v>
       </c>
-      <c r="B110" s="98">
+      <c r="B110" s="96">
         <v>42384</v>
       </c>
-      <c r="C110" s="74" t="s">
+      <c r="C110" s="72" t="s">
         <v>112</v>
       </c>
       <c r="D110" s="38">
@@ -5807,11 +5834,11 @@
       </c>
       <c r="L110" s="40"/>
       <c r="M110" s="40"/>
-      <c r="N110" s="96">
+      <c r="N110" s="94">
         <f t="shared" si="44"/>
         <v>4</v>
       </c>
-      <c r="O110" s="72">
+      <c r="O110" s="70">
         <f t="shared" si="45"/>
         <v>4</v>
       </c>
@@ -5820,56 +5847,56 @@
       <c r="A111" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B111" s="91">
+      <c r="B111" s="89">
         <v>42385</v>
       </c>
-      <c r="C111" s="85" t="s">
+      <c r="C111" s="83" t="s">
         <v>128</v>
       </c>
-      <c r="D111" s="94"/>
-      <c r="E111" s="94"/>
+      <c r="D111" s="92"/>
+      <c r="E111" s="92"/>
       <c r="F111" s="36"/>
       <c r="G111" s="36"/>
-      <c r="H111" s="95"/>
-      <c r="I111" s="95"/>
+      <c r="H111" s="93"/>
+      <c r="I111" s="93"/>
       <c r="J111" s="36">
         <v>2</v>
       </c>
       <c r="K111" s="36"/>
       <c r="L111" s="41"/>
       <c r="M111" s="41"/>
-      <c r="N111" s="96">
+      <c r="N111" s="94">
         <f t="shared" si="44"/>
         <v>2</v>
       </c>
-      <c r="O111" s="72">
+      <c r="O111" s="70">
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A112" s="100" t="s">
+      <c r="A112" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="B112" s="100"/>
-      <c r="C112" s="100"/>
-      <c r="D112" s="100"/>
-      <c r="E112" s="100"/>
-      <c r="F112" s="100"/>
-      <c r="G112" s="100"/>
-      <c r="H112" s="100"/>
-      <c r="I112" s="100"/>
-      <c r="J112" s="103" t="s">
+      <c r="B112" s="103"/>
+      <c r="C112" s="103"/>
+      <c r="D112" s="103"/>
+      <c r="E112" s="103"/>
+      <c r="F112" s="103"/>
+      <c r="G112" s="103"/>
+      <c r="H112" s="103"/>
+      <c r="I112" s="103"/>
+      <c r="J112" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="K112" s="104"/>
-      <c r="L112" s="78"/>
-      <c r="M112" s="78"/>
-      <c r="N112" s="82">
+      <c r="K112" s="111"/>
+      <c r="L112" s="76"/>
+      <c r="M112" s="76"/>
+      <c r="N112" s="80">
         <f>SUM(N77:N111)</f>
         <v>170.5</v>
       </c>
-      <c r="O112" s="82">
+      <c r="O112" s="80">
         <f>SUM(O77:O111)</f>
         <v>171</v>
       </c>
@@ -5878,10 +5905,10 @@
       <c r="A113" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B113" s="89">
+      <c r="B113" s="87">
         <v>42387</v>
       </c>
-      <c r="C113" s="69" t="s">
+      <c r="C113" s="67" t="s">
         <v>59</v>
       </c>
       <c r="D113" s="38">
@@ -5923,10 +5950,10 @@
       <c r="A114" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="90">
+      <c r="B114" s="88">
         <v>42387</v>
       </c>
-      <c r="C114" s="77" t="s">
+      <c r="C114" s="75" t="s">
         <v>120</v>
       </c>
       <c r="D114" s="38">
@@ -5950,17 +5977,17 @@
       <c r="J114" s="29">
         <v>2</v>
       </c>
-      <c r="K114" s="72">
-        <v>1</v>
-      </c>
-      <c r="L114" s="73"/>
-      <c r="M114" s="73"/>
+      <c r="K114" s="70">
+        <v>1</v>
+      </c>
+      <c r="L114" s="71"/>
+      <c r="M114" s="71"/>
       <c r="N114" s="28">
-        <f t="shared" ref="N114:N143" si="51">D114+F114+H114+J114+L114</f>
+        <f t="shared" ref="N114:N151" si="51">D114+F114+H114+J114+L114</f>
         <v>11</v>
       </c>
       <c r="O114" s="29">
-        <f t="shared" ref="O114:O143" si="52">E114+G114+I114+K114+M114</f>
+        <f t="shared" ref="O114:O151" si="52">E114+G114+I114+K114+M114</f>
         <v>9</v>
       </c>
     </row>
@@ -5968,10 +5995,10 @@
       <c r="A115" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B115" s="90">
+      <c r="B115" s="88">
         <v>42387</v>
       </c>
-      <c r="C115" s="77" t="s">
+      <c r="C115" s="75" t="s">
         <v>21</v>
       </c>
       <c r="D115" s="38">
@@ -5995,11 +6022,11 @@
       <c r="J115" s="29">
         <v>1.5</v>
       </c>
-      <c r="K115" s="72">
+      <c r="K115" s="70">
         <v>1.5</v>
       </c>
-      <c r="L115" s="73"/>
-      <c r="M115" s="73"/>
+      <c r="L115" s="71"/>
+      <c r="M115" s="71"/>
       <c r="N115" s="28">
         <f t="shared" si="51"/>
         <v>6</v>
@@ -6013,15 +6040,17 @@
       <c r="A116" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="90">
+      <c r="B116" s="88">
         <v>42387</v>
       </c>
-      <c r="C116" s="77" t="s">
+      <c r="C116" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="D116" s="38"/>
+      <c r="D116" s="38">
+        <v>0.5</v>
+      </c>
       <c r="E116" s="38">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F116" s="29"/>
       <c r="G116" s="29"/>
@@ -6032,26 +6061,26 @@
         <v>1</v>
       </c>
       <c r="J116" s="29"/>
-      <c r="K116" s="72"/>
-      <c r="L116" s="73"/>
-      <c r="M116" s="73"/>
+      <c r="K116" s="70"/>
+      <c r="L116" s="71"/>
+      <c r="M116" s="71"/>
       <c r="N116" s="28">
         <f t="shared" si="51"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="O116" s="29">
         <f t="shared" si="52"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B117" s="90">
+      <c r="B117" s="88">
         <v>42387</v>
       </c>
-      <c r="C117" s="77" t="s">
+      <c r="C117" s="75" t="s">
         <v>131</v>
       </c>
       <c r="D117" s="38"/>
@@ -6071,11 +6100,11 @@
       <c r="J117" s="29">
         <v>2</v>
       </c>
-      <c r="K117" s="72">
+      <c r="K117" s="70">
         <v>3.5</v>
       </c>
-      <c r="L117" s="73"/>
-      <c r="M117" s="73"/>
+      <c r="L117" s="71"/>
+      <c r="M117" s="71"/>
       <c r="N117" s="28">
         <f t="shared" si="51"/>
         <v>5</v>
@@ -6089,365 +6118,427 @@
       <c r="A118" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B118" s="90">
+      <c r="B118" s="88">
         <v>42387</v>
       </c>
-      <c r="C118" s="77"/>
+      <c r="C118" s="72" t="s">
+        <v>129</v>
+      </c>
       <c r="D118" s="38"/>
-      <c r="E118" s="38"/>
-      <c r="F118" s="29"/>
-      <c r="G118" s="29"/>
-      <c r="H118" s="39"/>
-      <c r="I118" s="39"/>
-      <c r="J118" s="29"/>
-      <c r="K118" s="72"/>
-      <c r="L118" s="73"/>
-      <c r="M118" s="73"/>
+      <c r="E118" s="38">
+        <v>1</v>
+      </c>
+      <c r="F118" s="29">
+        <v>2</v>
+      </c>
+      <c r="G118" s="29">
+        <v>2</v>
+      </c>
+      <c r="H118" s="39">
+        <v>0</v>
+      </c>
+      <c r="I118" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="J118" s="29">
+        <v>2</v>
+      </c>
+      <c r="K118" s="70">
+        <v>2</v>
+      </c>
+      <c r="L118" s="71"/>
+      <c r="M118" s="71"/>
       <c r="N118" s="28">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O118" s="29">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B119" s="90">
-        <v>42387</v>
-      </c>
-      <c r="C119" s="74" t="s">
-        <v>129</v>
-      </c>
-      <c r="D119" s="38"/>
+      <c r="B119" s="88">
+        <v>42388</v>
+      </c>
+      <c r="C119" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="D119" s="38">
+        <v>2</v>
+      </c>
       <c r="E119" s="38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F119" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G119" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H119" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119" s="39">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J119" s="29">
         <v>2</v>
       </c>
-      <c r="K119" s="72">
-        <v>2</v>
-      </c>
-      <c r="L119" s="73"/>
-      <c r="M119" s="73"/>
+      <c r="K119" s="70">
+        <v>1</v>
+      </c>
+      <c r="L119" s="71"/>
+      <c r="M119" s="71"/>
       <c r="N119" s="28">
         <f t="shared" si="51"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O119" s="29">
         <f t="shared" si="52"/>
-        <v>5.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B120" s="90">
+      <c r="B120" s="88">
         <v>42388</v>
       </c>
-      <c r="C120" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="D120" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="E120" s="38"/>
-      <c r="F120" s="29">
-        <v>1</v>
-      </c>
-      <c r="G120" s="29"/>
-      <c r="H120" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="I120" s="39"/>
-      <c r="J120" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K120" s="29"/>
-      <c r="L120" s="40"/>
-      <c r="M120" s="40"/>
+      <c r="C120" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="D120" s="64">
+        <v>0</v>
+      </c>
+      <c r="E120" s="64"/>
+      <c r="F120" s="63">
+        <v>1</v>
+      </c>
+      <c r="G120" s="63">
+        <v>0</v>
+      </c>
+      <c r="H120" s="65">
+        <v>3</v>
+      </c>
+      <c r="I120" s="65">
+        <v>3</v>
+      </c>
+      <c r="J120" s="63">
+        <v>1</v>
+      </c>
+      <c r="K120" s="63">
+        <v>1</v>
+      </c>
+      <c r="L120" s="62"/>
+      <c r="M120" s="62"/>
       <c r="N120" s="28">
         <f t="shared" si="51"/>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="O120" s="29">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B121" s="90">
+      <c r="B121" s="88">
         <v>42388</v>
       </c>
-      <c r="C121" s="77" t="s">
-        <v>102</v>
-      </c>
-      <c r="D121" s="38">
-        <v>2</v>
-      </c>
-      <c r="E121" s="38"/>
-      <c r="F121" s="29">
-        <v>1</v>
-      </c>
-      <c r="G121" s="29"/>
-      <c r="H121" s="39">
-        <v>2</v>
-      </c>
-      <c r="I121" s="39"/>
-      <c r="J121" s="29">
-        <v>4</v>
-      </c>
-      <c r="K121" s="72"/>
-      <c r="L121" s="73"/>
-      <c r="M121" s="73"/>
+      <c r="C121" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="D121" s="64">
+        <v>0</v>
+      </c>
+      <c r="E121" s="64"/>
+      <c r="F121" s="63">
+        <v>2</v>
+      </c>
+      <c r="G121" s="63">
+        <v>2</v>
+      </c>
+      <c r="H121" s="65">
+        <v>1</v>
+      </c>
+      <c r="I121" s="65">
+        <v>0</v>
+      </c>
+      <c r="J121" s="63">
+        <v>2</v>
+      </c>
+      <c r="K121" s="63">
+        <v>2</v>
+      </c>
+      <c r="L121" s="62"/>
+      <c r="M121" s="62"/>
       <c r="N121" s="28">
         <f t="shared" si="51"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O121" s="29">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B122" s="90">
+      <c r="B122" s="88">
         <v>42388</v>
       </c>
-      <c r="C122" s="87" t="s">
-        <v>92</v>
-      </c>
-      <c r="D122" s="66">
-        <v>1</v>
-      </c>
-      <c r="E122" s="66"/>
-      <c r="F122" s="65">
-        <v>1</v>
-      </c>
-      <c r="G122" s="65"/>
-      <c r="H122" s="67">
-        <v>5</v>
-      </c>
-      <c r="I122" s="67"/>
-      <c r="J122" s="65">
-        <v>1</v>
-      </c>
-      <c r="K122" s="65"/>
-      <c r="L122" s="64"/>
-      <c r="M122" s="64"/>
+      <c r="C122" s="72" t="s">
+        <v>119</v>
+      </c>
+      <c r="D122" s="38">
+        <v>3</v>
+      </c>
+      <c r="E122" s="38">
+        <v>4.5</v>
+      </c>
+      <c r="F122" s="29">
+        <v>2</v>
+      </c>
+      <c r="G122" s="29">
+        <v>2</v>
+      </c>
+      <c r="H122" s="39">
+        <v>1</v>
+      </c>
+      <c r="I122" s="39">
+        <v>4</v>
+      </c>
+      <c r="J122" s="29">
+        <v>1</v>
+      </c>
+      <c r="K122" s="29">
+        <v>0</v>
+      </c>
+      <c r="L122" s="40"/>
+      <c r="M122" s="40"/>
       <c r="N122" s="28">
         <f t="shared" si="51"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O122" s="29">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B123" s="90">
+      <c r="B123" s="88">
         <v>42388</v>
       </c>
-      <c r="C123" s="88" t="s">
-        <v>94</v>
-      </c>
-      <c r="D123" s="62">
-        <v>2</v>
-      </c>
-      <c r="E123" s="62"/>
-      <c r="F123" s="61">
-        <v>2</v>
-      </c>
-      <c r="G123" s="61"/>
-      <c r="H123" s="63">
-        <v>2</v>
-      </c>
-      <c r="I123" s="63"/>
-      <c r="J123" s="65">
-        <v>2</v>
-      </c>
-      <c r="K123" s="65"/>
-      <c r="L123" s="64"/>
-      <c r="M123" s="64"/>
+      <c r="C123" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="D123" s="38">
+        <v>1</v>
+      </c>
+      <c r="E123" s="38">
+        <v>1</v>
+      </c>
+      <c r="F123" s="29">
+        <v>2</v>
+      </c>
+      <c r="G123" s="29">
+        <v>3</v>
+      </c>
+      <c r="H123" s="39">
+        <v>1</v>
+      </c>
+      <c r="I123" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="J123" s="29">
+        <v>1</v>
+      </c>
+      <c r="K123" s="29">
+        <v>1</v>
+      </c>
+      <c r="L123" s="40"/>
+      <c r="M123" s="40"/>
       <c r="N123" s="28">
         <f t="shared" si="51"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O123" s="29">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B124" s="90">
+      <c r="B124" s="88">
         <v>42388</v>
       </c>
-      <c r="C124" s="74" t="s">
-        <v>119</v>
+      <c r="C124" s="72" t="s">
+        <v>103</v>
       </c>
       <c r="D124" s="38">
-        <v>4</v>
-      </c>
-      <c r="E124" s="38"/>
+        <v>1</v>
+      </c>
+      <c r="E124" s="38">
+        <v>1</v>
+      </c>
       <c r="F124" s="29">
         <v>2</v>
       </c>
       <c r="G124" s="29"/>
       <c r="H124" s="39">
-        <v>2</v>
-      </c>
-      <c r="I124" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="I124" s="39">
+        <v>0.5</v>
+      </c>
       <c r="J124" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K124" s="29"/>
       <c r="L124" s="40"/>
       <c r="M124" s="40"/>
       <c r="N124" s="28">
         <f t="shared" si="51"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O124" s="29">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B125" s="90">
+      <c r="B125" s="88">
         <v>42388</v>
       </c>
-      <c r="C125" s="74" t="s">
-        <v>96</v>
-      </c>
-      <c r="D125" s="38">
-        <v>2</v>
-      </c>
+      <c r="C125" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="D125" s="38"/>
       <c r="E125" s="38"/>
-      <c r="F125" s="29">
-        <v>4</v>
-      </c>
+      <c r="F125" s="29"/>
       <c r="G125" s="29"/>
-      <c r="H125" s="39">
-        <v>4</v>
-      </c>
-      <c r="I125" s="39"/>
-      <c r="J125" s="29">
-        <v>2</v>
-      </c>
-      <c r="K125" s="29"/>
+      <c r="H125" s="39"/>
+      <c r="I125" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="J125" s="29"/>
+      <c r="K125" s="29">
+        <v>3.5</v>
+      </c>
       <c r="L125" s="40"/>
       <c r="M125" s="40"/>
       <c r="N125" s="28">
-        <f t="shared" si="51"/>
-        <v>12</v>
+        <f t="shared" ref="N125:N145" si="53">D125+F125+H125+J125+L125</f>
+        <v>0</v>
       </c>
       <c r="O125" s="29">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" ref="O125:O145" si="54">E125+G125+I125+K125+M125</f>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B126" s="90">
-        <v>42388</v>
-      </c>
-      <c r="C126" s="74" t="s">
-        <v>103</v>
+      <c r="B126" s="88">
+        <v>42389</v>
+      </c>
+      <c r="C126" s="72" t="s">
+        <v>59</v>
       </c>
       <c r="D126" s="38">
-        <v>2</v>
-      </c>
-      <c r="E126" s="38"/>
+        <v>0.5</v>
+      </c>
+      <c r="E126" s="38">
+        <v>0.5</v>
+      </c>
       <c r="F126" s="29">
-        <v>2</v>
-      </c>
-      <c r="G126" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="G126" s="29">
+        <v>0</v>
+      </c>
       <c r="H126" s="39">
-        <v>2</v>
-      </c>
-      <c r="I126" s="39"/>
+        <v>0.5</v>
+      </c>
+      <c r="I126" s="39">
+        <v>0.5</v>
+      </c>
       <c r="J126" s="29">
-        <v>4</v>
-      </c>
-      <c r="K126" s="29"/>
+        <v>0.5</v>
+      </c>
+      <c r="K126" s="29">
+        <v>0.5</v>
+      </c>
       <c r="L126" s="40"/>
       <c r="M126" s="40"/>
       <c r="N126" s="28">
-        <f t="shared" si="51"/>
-        <v>10</v>
+        <f t="shared" si="53"/>
+        <v>2.5</v>
       </c>
       <c r="O126" s="29">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" si="54"/>
+        <v>1.5</v>
       </c>
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B127" s="90">
+      <c r="B127" s="88">
         <v>42389</v>
       </c>
-      <c r="C127" s="74" t="s">
-        <v>59</v>
+      <c r="C127" s="72" t="s">
+        <v>107</v>
       </c>
       <c r="D127" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="E127" s="38"/>
+        <v>1</v>
+      </c>
+      <c r="E127" s="38">
+        <v>0</v>
+      </c>
       <c r="F127" s="29">
         <v>1</v>
       </c>
-      <c r="G127" s="29"/>
+      <c r="G127" s="29">
+        <v>0</v>
+      </c>
       <c r="H127" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="I127" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="I127" s="39">
+        <v>0</v>
+      </c>
       <c r="J127" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K127" s="29"/>
+        <v>2</v>
+      </c>
+      <c r="K127" s="29">
+        <v>0</v>
+      </c>
       <c r="L127" s="40"/>
       <c r="M127" s="40"/>
       <c r="N127" s="28">
-        <f t="shared" si="51"/>
-        <v>2.5</v>
+        <f t="shared" si="53"/>
+        <v>5</v>
       </c>
       <c r="O127" s="29">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
@@ -6455,73 +6546,89 @@
       <c r="A128" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B128" s="90">
+      <c r="B128" s="88">
         <v>42389</v>
       </c>
-      <c r="C128" s="74" t="s">
-        <v>107</v>
+      <c r="C128" s="75" t="s">
+        <v>97</v>
       </c>
       <c r="D128" s="38">
-        <v>4</v>
-      </c>
-      <c r="E128" s="38"/>
+        <v>1</v>
+      </c>
+      <c r="E128" s="38">
+        <v>0</v>
+      </c>
       <c r="F128" s="29">
         <v>2</v>
       </c>
-      <c r="G128" s="29"/>
+      <c r="G128" s="29">
+        <v>0</v>
+      </c>
       <c r="H128" s="39">
-        <v>2</v>
-      </c>
-      <c r="I128" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="I128" s="39">
+        <v>0</v>
+      </c>
       <c r="J128" s="29">
-        <v>2</v>
-      </c>
-      <c r="K128" s="29"/>
-      <c r="L128" s="40"/>
-      <c r="M128" s="40"/>
+        <v>1</v>
+      </c>
+      <c r="K128" s="70">
+        <v>3</v>
+      </c>
+      <c r="L128" s="71"/>
+      <c r="M128" s="71"/>
       <c r="N128" s="28">
-        <f t="shared" si="51"/>
-        <v>10</v>
+        <f t="shared" si="53"/>
+        <v>5</v>
       </c>
       <c r="O128" s="29">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" si="54"/>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B129" s="90">
+      <c r="B129" s="88">
         <v>42389</v>
       </c>
-      <c r="C129" s="77" t="s">
-        <v>97</v>
+      <c r="C129" s="72" t="s">
+        <v>108</v>
       </c>
       <c r="D129" s="38">
-        <v>2</v>
-      </c>
-      <c r="E129" s="38"/>
+        <v>1</v>
+      </c>
+      <c r="E129" s="38">
+        <v>0</v>
+      </c>
       <c r="F129" s="29">
-        <v>3</v>
-      </c>
-      <c r="G129" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="G129" s="29">
+        <v>0</v>
+      </c>
       <c r="H129" s="39">
+        <v>1</v>
+      </c>
+      <c r="I129" s="39">
+        <v>0</v>
+      </c>
+      <c r="J129" s="29">
+        <v>1</v>
+      </c>
+      <c r="K129" s="29">
+        <v>0</v>
+      </c>
+      <c r="L129" s="40"/>
+      <c r="M129" s="40"/>
+      <c r="N129" s="28">
+        <f t="shared" si="53"/>
         <v>4</v>
       </c>
-      <c r="I129" s="39"/>
-      <c r="J129" s="29">
-        <v>2</v>
-      </c>
-      <c r="K129" s="72"/>
-      <c r="L129" s="73"/>
-      <c r="M129" s="73"/>
-      <c r="N129" s="28">
-        <f t="shared" si="51"/>
-        <v>11</v>
-      </c>
       <c r="O129" s="29">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
@@ -6529,85 +6636,89 @@
       <c r="A130" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B130" s="90">
+      <c r="B130" s="88">
         <v>42389</v>
       </c>
-      <c r="C130" s="74" t="s">
-        <v>108</v>
+      <c r="C130" s="72" t="s">
+        <v>135</v>
       </c>
       <c r="D130" s="38">
-        <v>4</v>
-      </c>
-      <c r="E130" s="38"/>
+        <v>1</v>
+      </c>
+      <c r="E130" s="38">
+        <v>1</v>
+      </c>
       <c r="F130" s="29">
-        <v>2</v>
-      </c>
-      <c r="G130" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="G130" s="29">
+        <v>0</v>
+      </c>
       <c r="H130" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" s="39"/>
       <c r="J130" s="29">
-        <v>2</v>
-      </c>
-      <c r="K130" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="K130" s="29">
+        <v>1.5</v>
+      </c>
       <c r="L130" s="40"/>
       <c r="M130" s="40"/>
       <c r="N130" s="28">
-        <f t="shared" si="51"/>
-        <v>10</v>
+        <f t="shared" si="53"/>
+        <v>4</v>
       </c>
       <c r="O130" s="29">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" si="54"/>
+        <v>2.5</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B131" s="90">
+      <c r="B131" s="88">
         <v>42389</v>
       </c>
-      <c r="C131" s="74" t="s">
-        <v>98</v>
-      </c>
-      <c r="D131" s="38">
-        <v>1</v>
-      </c>
-      <c r="E131" s="38"/>
-      <c r="F131" s="29">
-        <v>2</v>
-      </c>
-      <c r="G131" s="29"/>
-      <c r="H131" s="39">
-        <v>4</v>
-      </c>
-      <c r="I131" s="39"/>
-      <c r="J131" s="29">
-        <v>2</v>
-      </c>
+      <c r="C131" s="72" t="s">
+        <v>120</v>
+      </c>
+      <c r="D131" s="38"/>
+      <c r="E131" s="38">
+        <v>3</v>
+      </c>
+      <c r="F131" s="29"/>
+      <c r="G131" s="29">
+        <v>0</v>
+      </c>
+      <c r="H131" s="39"/>
+      <c r="I131" s="39">
+        <v>3</v>
+      </c>
+      <c r="J131" s="29"/>
       <c r="K131" s="29"/>
       <c r="L131" s="40"/>
       <c r="M131" s="40"/>
       <c r="N131" s="28">
-        <f t="shared" si="51"/>
-        <v>9</v>
+        <f t="shared" si="53"/>
+        <v>0</v>
       </c>
       <c r="O131" s="29">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" si="54"/>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B132" s="90">
+      <c r="B132" s="88">
         <v>42389</v>
       </c>
-      <c r="C132" s="74" t="s">
-        <v>103</v>
+      <c r="C132" s="72" t="s">
+        <v>98</v>
       </c>
       <c r="D132" s="38">
         <v>1</v>
@@ -6616,60 +6727,70 @@
       <c r="F132" s="29">
         <v>2</v>
       </c>
-      <c r="G132" s="29"/>
+      <c r="G132" s="29">
+        <v>0</v>
+      </c>
       <c r="H132" s="39">
         <v>2</v>
       </c>
-      <c r="I132" s="39"/>
+      <c r="I132" s="39">
+        <v>1</v>
+      </c>
       <c r="J132" s="29">
-        <v>4</v>
-      </c>
-      <c r="K132" s="29"/>
+        <v>2</v>
+      </c>
+      <c r="K132" s="29">
+        <v>0</v>
+      </c>
       <c r="L132" s="40"/>
       <c r="M132" s="40"/>
       <c r="N132" s="28">
-        <f t="shared" si="51"/>
-        <v>9</v>
+        <f t="shared" si="53"/>
+        <v>7</v>
       </c>
       <c r="O132" s="29">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" si="54"/>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B133" s="90">
-        <v>42390</v>
-      </c>
-      <c r="C133" s="74" t="s">
-        <v>59</v>
+      <c r="B133" s="88">
+        <v>42389</v>
+      </c>
+      <c r="C133" s="72" t="s">
+        <v>103</v>
       </c>
       <c r="D133" s="38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E133" s="38"/>
       <c r="F133" s="29">
         <v>1</v>
       </c>
-      <c r="G133" s="29"/>
+      <c r="G133" s="29">
+        <v>0</v>
+      </c>
       <c r="H133" s="39">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="I133" s="39"/>
       <c r="J133" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="K133" s="29"/>
+        <v>2</v>
+      </c>
+      <c r="K133" s="29">
+        <v>0</v>
+      </c>
       <c r="L133" s="40"/>
       <c r="M133" s="40"/>
       <c r="N133" s="28">
-        <f t="shared" si="51"/>
-        <v>2.5</v>
+        <f t="shared" si="53"/>
+        <v>6</v>
       </c>
       <c r="O133" s="29">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
@@ -6677,213 +6798,231 @@
       <c r="A134" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B134" s="90">
-        <v>42390</v>
-      </c>
-      <c r="C134" s="74" t="s">
-        <v>109</v>
+      <c r="B134" s="88">
+        <v>42389</v>
+      </c>
+      <c r="C134" s="72" t="s">
+        <v>121</v>
       </c>
       <c r="D134" s="38">
-        <v>4</v>
-      </c>
-      <c r="E134" s="38"/>
-      <c r="F134" s="29">
-        <v>2</v>
-      </c>
-      <c r="G134" s="29"/>
-      <c r="H134" s="39">
-        <v>2</v>
-      </c>
-      <c r="I134" s="39"/>
-      <c r="J134" s="29">
-        <v>2</v>
-      </c>
-      <c r="K134" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="E134" s="38">
+        <v>3</v>
+      </c>
+      <c r="F134" s="29"/>
+      <c r="G134" s="29">
+        <v>0</v>
+      </c>
+      <c r="H134" s="39"/>
+      <c r="I134" s="39">
+        <v>2</v>
+      </c>
+      <c r="J134" s="29"/>
+      <c r="K134" s="29">
+        <v>1.5</v>
+      </c>
       <c r="L134" s="40"/>
       <c r="M134" s="40"/>
       <c r="N134" s="28">
-        <f t="shared" si="51"/>
-        <v>10</v>
+        <f t="shared" si="53"/>
+        <v>1</v>
       </c>
       <c r="O134" s="29">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" si="54"/>
+        <v>6.5</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B135" s="90">
-        <v>42390</v>
-      </c>
-      <c r="C135" s="74" t="s">
-        <v>130</v>
+      <c r="B135" s="88">
+        <v>42389</v>
+      </c>
+      <c r="C135" s="72" t="s">
+        <v>129</v>
       </c>
       <c r="D135" s="38"/>
-      <c r="E135" s="38"/>
+      <c r="E135" s="38">
+        <v>2</v>
+      </c>
       <c r="F135" s="29"/>
-      <c r="G135" s="29"/>
+      <c r="G135" s="29">
+        <v>0</v>
+      </c>
       <c r="H135" s="39"/>
       <c r="I135" s="39"/>
       <c r="J135" s="29"/>
-      <c r="K135" s="29"/>
+      <c r="K135" s="29">
+        <v>5</v>
+      </c>
       <c r="L135" s="40"/>
       <c r="M135" s="40"/>
       <c r="N135" s="28">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="O135" s="29">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+        <f t="shared" si="54"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B136" s="90">
-        <v>42390</v>
-      </c>
-      <c r="C136" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="D136" s="38">
-        <v>1</v>
-      </c>
+      <c r="B136" s="112">
+        <v>42389</v>
+      </c>
+      <c r="C136" s="114" t="s">
+        <v>134</v>
+      </c>
+      <c r="D136" s="38"/>
       <c r="E136" s="38"/>
-      <c r="F136" s="29">
-        <v>2</v>
-      </c>
-      <c r="G136" s="29"/>
-      <c r="H136" s="39">
-        <v>2</v>
-      </c>
-      <c r="I136" s="39"/>
-      <c r="J136" s="29">
-        <v>2</v>
-      </c>
+      <c r="F136" s="29"/>
+      <c r="G136" s="113">
+        <v>8</v>
+      </c>
+      <c r="H136" s="39"/>
+      <c r="I136" s="39">
+        <v>2</v>
+      </c>
+      <c r="J136" s="29"/>
       <c r="K136" s="29"/>
       <c r="L136" s="40"/>
       <c r="M136" s="40"/>
       <c r="N136" s="28">
-        <f t="shared" si="51"/>
-        <v>7</v>
+        <f t="shared" si="53"/>
+        <v>0</v>
       </c>
       <c r="O136" s="29">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" si="54"/>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B137" s="90">
+      <c r="B137" s="88">
         <v>42390</v>
       </c>
-      <c r="C137" s="74" t="s">
-        <v>104</v>
-      </c>
-      <c r="D137" s="38">
-        <v>1</v>
-      </c>
-      <c r="E137" s="38"/>
-      <c r="F137" s="29">
-        <v>2</v>
-      </c>
-      <c r="G137" s="29"/>
+      <c r="C137" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="D137" s="38"/>
+      <c r="E137" s="38">
+        <v>2</v>
+      </c>
+      <c r="F137" s="29"/>
+      <c r="G137" s="29">
+        <v>0</v>
+      </c>
       <c r="H137" s="39">
         <v>2</v>
       </c>
-      <c r="I137" s="39"/>
-      <c r="J137" s="29">
-        <v>2</v>
-      </c>
+      <c r="I137" s="39">
+        <v>2</v>
+      </c>
+      <c r="J137" s="29"/>
       <c r="K137" s="29"/>
       <c r="L137" s="40"/>
       <c r="M137" s="40"/>
       <c r="N137" s="28">
-        <f t="shared" si="51"/>
-        <v>7</v>
+        <f t="shared" si="53"/>
+        <v>2</v>
       </c>
       <c r="O137" s="29">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" si="54"/>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B138" s="90">
-        <v>42391</v>
-      </c>
-      <c r="C138" s="74" t="s">
-        <v>59</v>
+      <c r="B138" s="88">
+        <v>42390</v>
+      </c>
+      <c r="C138" s="72" t="s">
+        <v>109</v>
       </c>
       <c r="D138" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="E138" s="38"/>
+        <v>4</v>
+      </c>
+      <c r="E138" s="38">
+        <v>4</v>
+      </c>
       <c r="F138" s="29">
-        <v>1</v>
-      </c>
-      <c r="G138" s="29"/>
+        <v>2</v>
+      </c>
+      <c r="G138" s="29">
+        <v>0</v>
+      </c>
       <c r="H138" s="39">
-        <v>0.5</v>
-      </c>
-      <c r="I138" s="39"/>
+        <v>2</v>
+      </c>
+      <c r="I138" s="39">
+        <v>5</v>
+      </c>
       <c r="J138" s="29">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K138" s="29"/>
       <c r="L138" s="40"/>
       <c r="M138" s="40"/>
       <c r="N138" s="28">
-        <f t="shared" si="51"/>
-        <v>2.5</v>
+        <f t="shared" si="53"/>
+        <v>10</v>
       </c>
       <c r="O138" s="29">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" si="54"/>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B139" s="90">
-        <v>42391</v>
-      </c>
-      <c r="C139" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="D139" s="66">
-        <v>6</v>
-      </c>
-      <c r="E139" s="66"/>
-      <c r="F139" s="65">
-        <v>4</v>
-      </c>
-      <c r="G139" s="65"/>
-      <c r="H139" s="67">
-        <v>4</v>
-      </c>
-      <c r="I139" s="67"/>
-      <c r="J139" s="65">
-        <v>4</v>
-      </c>
-      <c r="K139" s="65"/>
-      <c r="L139" s="64"/>
-      <c r="M139" s="64"/>
+      <c r="B139" s="88">
+        <v>42390</v>
+      </c>
+      <c r="C139" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="D139" s="38">
+        <v>1</v>
+      </c>
+      <c r="E139" s="38">
+        <v>0</v>
+      </c>
+      <c r="F139" s="29">
+        <v>2</v>
+      </c>
+      <c r="G139" s="29">
+        <v>0</v>
+      </c>
+      <c r="H139" s="39">
+        <v>2</v>
+      </c>
+      <c r="I139" s="39">
+        <v>0</v>
+      </c>
+      <c r="J139" s="29">
+        <v>2</v>
+      </c>
+      <c r="K139" s="29">
+        <v>0</v>
+      </c>
+      <c r="L139" s="40"/>
+      <c r="M139" s="40"/>
       <c r="N139" s="28">
-        <f t="shared" si="51"/>
-        <v>18</v>
+        <f t="shared" si="53"/>
+        <v>7</v>
       </c>
       <c r="O139" s="29">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
@@ -6891,36 +7030,44 @@
       <c r="A140" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B140" s="90">
-        <v>42391</v>
-      </c>
-      <c r="C140" s="87" t="s">
-        <v>100</v>
-      </c>
-      <c r="D140" s="66">
-        <v>1</v>
-      </c>
-      <c r="E140" s="66"/>
-      <c r="F140" s="65">
-        <v>4</v>
-      </c>
-      <c r="G140" s="65"/>
-      <c r="H140" s="67">
-        <v>4</v>
-      </c>
-      <c r="I140" s="67"/>
-      <c r="J140" s="65">
-        <v>4</v>
-      </c>
-      <c r="K140" s="65"/>
-      <c r="L140" s="64"/>
-      <c r="M140" s="64"/>
+      <c r="B140" s="88">
+        <v>42390</v>
+      </c>
+      <c r="C140" s="72" t="s">
+        <v>104</v>
+      </c>
+      <c r="D140" s="38">
+        <v>1</v>
+      </c>
+      <c r="E140" s="38">
+        <v>0</v>
+      </c>
+      <c r="F140" s="29">
+        <v>2</v>
+      </c>
+      <c r="G140" s="29">
+        <v>0</v>
+      </c>
+      <c r="H140" s="39">
+        <v>2</v>
+      </c>
+      <c r="I140" s="39">
+        <v>0</v>
+      </c>
+      <c r="J140" s="29">
+        <v>2</v>
+      </c>
+      <c r="K140" s="29">
+        <v>0</v>
+      </c>
+      <c r="L140" s="40"/>
+      <c r="M140" s="40"/>
       <c r="N140" s="28">
-        <f t="shared" si="51"/>
-        <v>13</v>
+        <f t="shared" si="53"/>
+        <v>7</v>
       </c>
       <c r="O140" s="29">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
     </row>
@@ -6928,204 +7075,496 @@
       <c r="A141" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B141" s="90">
-        <v>42391</v>
-      </c>
-      <c r="C141" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="D141" s="66">
-        <v>1</v>
-      </c>
-      <c r="E141" s="66"/>
-      <c r="F141" s="65">
-        <v>1</v>
-      </c>
-      <c r="G141" s="65"/>
-      <c r="H141" s="67">
-        <v>1</v>
-      </c>
-      <c r="I141" s="67"/>
-      <c r="J141" s="65">
-        <v>1</v>
-      </c>
-      <c r="K141" s="65"/>
-      <c r="L141" s="64"/>
-      <c r="M141" s="64"/>
+      <c r="B141" s="88">
+        <v>42390</v>
+      </c>
+      <c r="C141" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="D141" s="38">
+        <v>2</v>
+      </c>
+      <c r="E141" s="38">
+        <v>2</v>
+      </c>
+      <c r="F141" s="29"/>
+      <c r="G141" s="29">
+        <v>0</v>
+      </c>
+      <c r="H141" s="39"/>
+      <c r="I141" s="39">
+        <v>2</v>
+      </c>
+      <c r="J141" s="29"/>
+      <c r="K141" s="29">
+        <v>6</v>
+      </c>
+      <c r="L141" s="40"/>
+      <c r="M141" s="40"/>
       <c r="N141" s="28">
-        <f t="shared" si="51"/>
-        <v>4</v>
+        <f t="shared" si="53"/>
+        <v>2</v>
       </c>
       <c r="O141" s="29">
-        <f t="shared" si="52"/>
-        <v>0</v>
+        <f t="shared" si="54"/>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B142" s="90">
+      <c r="B142" s="88">
+        <v>42390</v>
+      </c>
+      <c r="C142" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="D142" s="38"/>
+      <c r="E142" s="38"/>
+      <c r="F142" s="29"/>
+      <c r="G142" s="29"/>
+      <c r="H142" s="39"/>
+      <c r="I142" s="39"/>
+      <c r="J142" s="29"/>
+      <c r="K142" s="29">
+        <v>9</v>
+      </c>
+      <c r="L142" s="40"/>
+      <c r="M142" s="40"/>
+      <c r="N142" s="28">
+        <f t="shared" ref="N142:N143" si="55">D142+F142+H142+J142+L142</f>
+        <v>0</v>
+      </c>
+      <c r="O142" s="29">
+        <f t="shared" ref="O142:O143" si="56">E142+G142+I142+K142+M142</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A143" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" s="88">
+        <v>42390</v>
+      </c>
+      <c r="C143" s="115" t="s">
+        <v>134</v>
+      </c>
+      <c r="D143" s="38"/>
+      <c r="E143" s="38"/>
+      <c r="F143" s="29"/>
+      <c r="G143" s="113">
+        <v>8</v>
+      </c>
+      <c r="H143" s="39"/>
+      <c r="I143" s="39"/>
+      <c r="J143" s="29"/>
+      <c r="K143" s="29"/>
+      <c r="L143" s="40"/>
+      <c r="M143" s="40"/>
+      <c r="N143" s="28">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="O143" s="29">
+        <f t="shared" si="56"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A144" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" s="88">
         <v>42391</v>
       </c>
-      <c r="C142" s="87" t="s">
+      <c r="C144" s="72" t="s">
+        <v>59</v>
+      </c>
+      <c r="D144" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="E144" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="F144" s="29">
+        <v>1</v>
+      </c>
+      <c r="G144" s="29">
+        <v>1</v>
+      </c>
+      <c r="H144" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="I144" s="39">
+        <v>0.5</v>
+      </c>
+      <c r="J144" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="K144" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="L144" s="40"/>
+      <c r="M144" s="40"/>
+      <c r="N144" s="28">
+        <f t="shared" si="53"/>
+        <v>2.5</v>
+      </c>
+      <c r="O144" s="29">
+        <f t="shared" si="54"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A145" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" s="88">
+        <v>42391</v>
+      </c>
+      <c r="C145" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="D145" s="64">
+        <v>0.5</v>
+      </c>
+      <c r="E145" s="64"/>
+      <c r="F145" s="63">
+        <v>1</v>
+      </c>
+      <c r="G145" s="63"/>
+      <c r="H145" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="I145" s="65"/>
+      <c r="J145" s="63">
+        <v>1</v>
+      </c>
+      <c r="K145" s="63">
+        <v>2</v>
+      </c>
+      <c r="L145" s="62"/>
+      <c r="M145" s="62"/>
+      <c r="N145" s="28">
+        <f t="shared" si="53"/>
+        <v>3</v>
+      </c>
+      <c r="O145" s="29">
+        <f t="shared" si="54"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A146" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" s="88">
+        <v>42391</v>
+      </c>
+      <c r="C146" s="85" t="s">
+        <v>110</v>
+      </c>
+      <c r="D146" s="64">
+        <v>2</v>
+      </c>
+      <c r="E146" s="64"/>
+      <c r="F146" s="63">
+        <v>2</v>
+      </c>
+      <c r="G146" s="63"/>
+      <c r="H146" s="65">
+        <v>2</v>
+      </c>
+      <c r="I146" s="65"/>
+      <c r="J146" s="63">
+        <v>2</v>
+      </c>
+      <c r="K146" s="63"/>
+      <c r="L146" s="62"/>
+      <c r="M146" s="62"/>
+      <c r="N146" s="28">
+        <f t="shared" ref="N146:N148" si="57">D146+F146+H146+J146+L146</f>
+        <v>8</v>
+      </c>
+      <c r="O146" s="29">
+        <f t="shared" ref="O146:O148" si="58">E146+G146+I146+K146+M146</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A147" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B147" s="88">
+        <v>42391</v>
+      </c>
+      <c r="C147" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="D147" s="38">
+        <v>1</v>
+      </c>
+      <c r="E147" s="38"/>
+      <c r="F147" s="29"/>
+      <c r="G147" s="29">
+        <v>0</v>
+      </c>
+      <c r="H147" s="39"/>
+      <c r="I147" s="39"/>
+      <c r="J147" s="29"/>
+      <c r="K147" s="29"/>
+      <c r="L147" s="40"/>
+      <c r="M147" s="40"/>
+      <c r="N147" s="28">
+        <f>D147+F147+H147+J147+L147</f>
+        <v>1</v>
+      </c>
+      <c r="O147" s="29">
+        <f>E147+G147+I147+K147+M147</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A148" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" s="88">
+        <v>42391</v>
+      </c>
+      <c r="C148" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="D148" s="64">
+        <v>1</v>
+      </c>
+      <c r="E148" s="64">
+        <v>0</v>
+      </c>
+      <c r="F148" s="63">
+        <v>3</v>
+      </c>
+      <c r="G148" s="63">
+        <v>1</v>
+      </c>
+      <c r="H148" s="65">
+        <v>4</v>
+      </c>
+      <c r="I148" s="65">
+        <v>0</v>
+      </c>
+      <c r="J148" s="63">
+        <v>4</v>
+      </c>
+      <c r="K148" s="63">
+        <v>1</v>
+      </c>
+      <c r="L148" s="62"/>
+      <c r="M148" s="62"/>
+      <c r="N148" s="28">
+        <f t="shared" si="57"/>
+        <v>12</v>
+      </c>
+      <c r="O148" s="29">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A149" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B149" s="88">
+        <v>42391</v>
+      </c>
+      <c r="C149" s="85" t="s">
+        <v>101</v>
+      </c>
+      <c r="D149" s="64">
+        <v>1</v>
+      </c>
+      <c r="E149" s="64"/>
+      <c r="F149" s="63">
+        <v>1</v>
+      </c>
+      <c r="G149" s="63"/>
+      <c r="H149" s="65">
+        <v>1</v>
+      </c>
+      <c r="I149" s="65"/>
+      <c r="J149" s="63">
+        <v>1</v>
+      </c>
+      <c r="K149" s="63"/>
+      <c r="L149" s="62"/>
+      <c r="M149" s="62"/>
+      <c r="N149" s="28">
+        <f t="shared" si="51"/>
+        <v>4</v>
+      </c>
+      <c r="O149" s="29">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A150" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B150" s="88">
+        <v>42391</v>
+      </c>
+      <c r="C150" s="85" t="s">
         <v>105</v>
       </c>
-      <c r="D142" s="66">
-        <v>2</v>
-      </c>
-      <c r="E142" s="66"/>
-      <c r="F142" s="65">
-        <v>1</v>
-      </c>
-      <c r="G142" s="65"/>
-      <c r="H142" s="67">
-        <v>1</v>
-      </c>
-      <c r="I142" s="67"/>
-      <c r="J142" s="65">
-        <v>1</v>
-      </c>
-      <c r="K142" s="65"/>
-      <c r="L142" s="64"/>
-      <c r="M142" s="64"/>
-      <c r="N142" s="28">
+      <c r="D150" s="64">
+        <v>2</v>
+      </c>
+      <c r="E150" s="64"/>
+      <c r="F150" s="63">
+        <v>1</v>
+      </c>
+      <c r="G150" s="63"/>
+      <c r="H150" s="65">
+        <v>1</v>
+      </c>
+      <c r="I150" s="65"/>
+      <c r="J150" s="63">
+        <v>1</v>
+      </c>
+      <c r="K150" s="63"/>
+      <c r="L150" s="62"/>
+      <c r="M150" s="62"/>
+      <c r="N150" s="28">
         <f t="shared" si="51"/>
         <v>5</v>
       </c>
-      <c r="O142" s="29">
+      <c r="O150" s="29">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A143" s="30" t="s">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A151" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B143" s="91">
+      <c r="B151" s="89">
         <v>42391</v>
       </c>
-      <c r="C143" s="85" t="s">
+      <c r="C151" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="D143" s="94">
-        <v>2</v>
-      </c>
-      <c r="E143" s="94"/>
-      <c r="F143" s="36">
-        <v>1</v>
-      </c>
-      <c r="G143" s="36"/>
-      <c r="H143" s="95">
-        <v>1</v>
-      </c>
-      <c r="I143" s="95"/>
-      <c r="J143" s="36">
-        <v>1</v>
-      </c>
-      <c r="K143" s="36"/>
-      <c r="L143" s="41"/>
-      <c r="M143" s="41"/>
-      <c r="N143" s="35">
+      <c r="D151" s="92">
+        <v>0.5</v>
+      </c>
+      <c r="E151" s="92"/>
+      <c r="F151" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="G151" s="36"/>
+      <c r="H151" s="93">
+        <v>0.5</v>
+      </c>
+      <c r="I151" s="93"/>
+      <c r="J151" s="36">
+        <v>0.5</v>
+      </c>
+      <c r="K151" s="36"/>
+      <c r="L151" s="41"/>
+      <c r="M151" s="41"/>
+      <c r="N151" s="35">
         <f t="shared" si="51"/>
-        <v>5</v>
-      </c>
-      <c r="O143" s="36">
+        <v>2</v>
+      </c>
+      <c r="O151" s="36">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A144" s="78"/>
-      <c r="B144" s="83"/>
-      <c r="C144" s="78"/>
-      <c r="D144" s="79"/>
-      <c r="E144" s="79"/>
-      <c r="F144" s="78"/>
-      <c r="G144" s="78"/>
-      <c r="H144" s="80"/>
-      <c r="I144" s="80"/>
-      <c r="J144" s="100" t="s">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A152" s="76"/>
+      <c r="B152" s="81"/>
+      <c r="C152" s="76"/>
+      <c r="D152" s="77"/>
+      <c r="E152" s="77"/>
+      <c r="F152" s="76"/>
+      <c r="G152" s="76"/>
+      <c r="H152" s="78"/>
+      <c r="I152" s="78"/>
+      <c r="J152" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="K144" s="101"/>
-      <c r="L144" s="2"/>
-      <c r="M144" s="2"/>
-      <c r="N144" s="84">
-        <f>SUM(N113:N143)</f>
-        <v>214.5</v>
-      </c>
-      <c r="O144" s="82">
-        <f>SUM(O113:O143)</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A145" s="4"/>
-      <c r="B145" s="59"/>
-      <c r="C145" s="5" t="s">
+      <c r="K152" s="102"/>
+      <c r="L152" s="2"/>
+      <c r="M152" s="2"/>
+      <c r="N152" s="82">
+        <f>SUM(N113:N151)</f>
+        <v>163</v>
+      </c>
+      <c r="O152" s="80">
+        <f>SUM(O113:O151)</f>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A153" s="4"/>
+      <c r="B153" s="59"/>
+      <c r="C153" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D145" s="6">
-        <f>SUM(D4:D144)</f>
-        <v>155.64999999999998</v>
-      </c>
-      <c r="E145" s="6">
-        <f>SUM(E4:E144)</f>
-        <v>122.39999999999999</v>
-      </c>
-      <c r="F145" s="6">
-        <f>SUM(F4:F144)</f>
+      <c r="D153" s="6">
+        <f>SUM(D4:D152)</f>
+        <v>142.14999999999998</v>
+      </c>
+      <c r="E153" s="6">
+        <f>SUM(E4:E152)</f>
+        <v>148.39999999999998</v>
+      </c>
+      <c r="F153" s="6">
+        <f>SUM(F4:F152)</f>
+        <v>146</v>
+      </c>
+      <c r="G153" s="6">
+        <f>SUM(G6:G152)</f>
+        <v>146.55000000000001</v>
+      </c>
+      <c r="H153" s="6">
+        <f>SUM(H4:H152)</f>
+        <v>142</v>
+      </c>
+      <c r="I153" s="6">
+        <f>SUM(I4:I152)</f>
+        <v>141.05000000000001</v>
+      </c>
+      <c r="J153" s="6">
+        <f>SUM(J4:J152)</f>
         <v>155.5</v>
       </c>
-      <c r="G145" s="6">
-        <f>SUM(G4:G144)</f>
-        <v>120.55</v>
-      </c>
-      <c r="H145" s="6">
-        <f>SUM(H4:H144)</f>
-        <v>158</v>
-      </c>
-      <c r="I145" s="6">
-        <f>SUM(I4:I144)</f>
-        <v>114.55</v>
-      </c>
-      <c r="J145" s="6">
-        <f>SUM(J4:J144)</f>
-        <v>168</v>
-      </c>
-      <c r="K145" s="6">
-        <f>SUM(K4:K144)</f>
-        <v>121.55</v>
-      </c>
-      <c r="L145" s="6">
-        <f>SUM(L4:L144)</f>
-        <v>0.5</v>
-      </c>
-      <c r="M145" s="6">
-        <f>SUM(M4:M144)</f>
-        <v>0.5</v>
-      </c>
-      <c r="N145" s="6">
-        <f>D145+F145+H145+J145+L145</f>
-        <v>637.65</v>
-      </c>
-      <c r="O145" s="6">
-        <f>E145+G145+I145+K145+M145</f>
-        <v>479.55</v>
+      <c r="K153" s="6">
+        <f>SUM(K4:K152)</f>
+        <v>160.05000000000001</v>
+      </c>
+      <c r="L153" s="6">
+        <f>SUM(L4:L152)</f>
+        <v>0.5</v>
+      </c>
+      <c r="M153" s="6">
+        <f>SUM(M4:M152)</f>
+        <v>0.5</v>
+      </c>
+      <c r="N153" s="6">
+        <f>D153+F153+H153+J153+L153</f>
+        <v>586.15</v>
+      </c>
+      <c r="O153" s="6">
+        <f>E153+G153+I153+K153+M153</f>
+        <v>596.54999999999995</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J144:K144"/>
+    <mergeCell ref="J152:K152"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="J5:K5"/>
@@ -7141,6 +7580,14 @@
     <mergeCell ref="J36:K36"/>
     <mergeCell ref="A47:I47"/>
     <mergeCell ref="J47:K47"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:K4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.55118110236220474" right="0.55118110236220474" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -7166,15 +7613,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement>
+    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
+    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
+    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008D777D35650D3B43A23D41664AA30BC5" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="7f80e5700d93aba1c148b391c267eb5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9ab5e87a-ed8e-45a5-9793-059f67398425" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e36a552b910c1cdf142adc90bba5ebe9" ns2:_="">
     <xsd:import namespace="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
@@ -7335,29 +7787,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement>
-    <Volgorde_x0020_Documenten xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">6</Volgorde_x0020_Documenten>
-    <Categorie xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Extra</Categorie>
-    <Week xmlns="9ab5e87a-ed8e-45a5-9793-059f67398425">Geen week</Week>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B4BC2B-47EC-4A4E-997D-A663CFE6E409}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7375,26 +7838,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1278A3E-47B6-4321-AA7E-C8551E08DBCA}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7925AB61-19A0-4A39-BC21-6A09D18176D2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D152C796-12D2-40E1-BE4C-837EB7333423}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="9ab5e87a-ed8e-45a5-9793-059f67398425"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>